--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A50AE43-61C5-4BD5-BC9F-800DBB86E5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29983A36-4705-4983-AEE3-0D4159E104B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" activeTab="1" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
   <sheets>
     <sheet name="DANH SÁCH NỢ" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="99">
   <si>
     <t>STT</t>
   </si>
@@ -201,9 +201,6 @@
   </si>
   <si>
     <t>Lê Hoàng Thiên Ân</t>
-  </si>
-  <si>
-    <t>Đã trả đủ</t>
   </si>
   <si>
     <t>3 ngày</t>
@@ -412,7 +409,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,12 +425,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,7 +496,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -546,6 +537,12 @@
     <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -553,21 +550,6 @@
     <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -937,10 +919,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,43 +1109,43 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="26">
         <v>120000</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="26">
         <f>50000-16000</f>
         <v>34000</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="26">
         <f t="shared" ref="F5" si="2">(D5+I5)-E5</f>
         <v>86000</v>
       </c>
-      <c r="G5" s="31">
-        <v>0</v>
-      </c>
-      <c r="H5" s="32">
-        <v>0</v>
-      </c>
-      <c r="I5" s="31">
+      <c r="G5" s="26">
+        <v>0</v>
+      </c>
+      <c r="H5" s="27">
+        <v>0</v>
+      </c>
+      <c r="I5" s="26">
         <f t="shared" ref="I5" si="3">D5*H5</f>
         <v>0</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="28">
         <v>45999</v>
       </c>
-      <c r="K5" s="33">
+      <c r="K5" s="28">
         <v>46005</v>
       </c>
-      <c r="L5" s="30" t="s">
+      <c r="L5" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="M5" s="25" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1204,7 +1186,7 @@
         <v>46007</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>14</v>
@@ -1247,7 +1229,7 @@
         <v>46007</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>14</v>
@@ -1291,7 +1273,7 @@
         <v>46007</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>14</v>
@@ -1334,7 +1316,7 @@
         <v>46007</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>14</v>
@@ -1379,7 +1361,7 @@
         <v>46009</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>14</v>
@@ -1422,7 +1404,7 @@
         <v>46009</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>14</v>
@@ -1465,7 +1447,7 @@
         <v>46009</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>14</v>
@@ -1518,41 +1500,43 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="24">
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="18">
         <v>20000</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="18">
+        <v>0</v>
+      </c>
+      <c r="F14" s="18">
+        <f t="shared" ref="F14:F15" si="17">(D14+I14)-E14</f>
         <v>20000</v>
       </c>
-      <c r="F14" s="24">
-        <f t="shared" ref="F14" si="17">(D14+I14)-E14</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="24">
-        <v>0</v>
-      </c>
-      <c r="H14" s="25">
-        <v>0</v>
-      </c>
-      <c r="I14" s="24">
-        <f t="shared" ref="I14" si="18">D14*H14</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="26">
+      <c r="G14" s="18">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="18">
+        <f t="shared" ref="I14:I15" si="18">D14*H14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
         <v>46004</v>
       </c>
-      <c r="K14" s="26">
-        <v>46004</v>
-      </c>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23" t="s">
-        <v>53</v>
+      <c r="K14" s="6">
+        <v>46010</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1560,7 +1544,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>16</v>
@@ -1572,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="18">
-        <f t="shared" ref="F15:F16" si="19">(D15+I15)-E15</f>
+        <f t="shared" si="17"/>
         <v>20000</v>
       </c>
       <c r="G15" s="18">
@@ -1582,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="18">
-        <f t="shared" ref="I15:I16" si="20">D15*H15</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J15" s="6">
@@ -1603,20 +1587,20 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D16" s="18">
-        <v>20000</v>
+        <v>100000</v>
       </c>
       <c r="E16" s="18">
         <v>0</v>
       </c>
       <c r="F16" s="18">
-        <f t="shared" si="19"/>
-        <v>20000</v>
+        <f t="shared" ref="F16" si="19">(D16+I16)-E16</f>
+        <v>100000</v>
       </c>
       <c r="G16" s="18">
         <v>0</v>
@@ -1625,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="I16" si="20">D16*H16</f>
         <v>0</v>
       </c>
       <c r="J16" s="6">
@@ -1646,20 +1630,20 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D17" s="18">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="E17" s="18">
         <v>0</v>
       </c>
       <c r="F17" s="18">
         <f t="shared" ref="F17" si="21">(D17+I17)-E17</f>
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="G17" s="18">
         <v>0</v>
@@ -1672,13 +1656,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="6">
-        <v>46004</v>
+        <v>46005</v>
       </c>
       <c r="K17" s="6">
-        <v>46010</v>
+        <v>46011</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>14</v>
@@ -1688,12 +1672,8 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
@@ -1711,75 +1691,88 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="1:13" ht="24" x14ac:dyDescent="0.4">
-      <c r="B20" s="10" t="s">
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13" ht="24" x14ac:dyDescent="0.4">
+      <c r="B21" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="28" t="s">
+      <c r="C21" s="10"/>
+      <c r="D21" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D21" s="27" t="s">
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D22" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="20">
-        <f>SUM(D2:D19)</f>
+      <c r="E22" s="22"/>
+      <c r="F22" s="20">
+        <f>SUM(D2:D20)</f>
         <v>1660000</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D22" s="27" t="s">
+      <c r="G22" s="7"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D23" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="20">
-        <f>SUM(E2:E19)</f>
-        <v>114000</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="M22" t="s">
+      <c r="E23" s="22"/>
+      <c r="F23" s="20">
+        <f>SUM(E2:E20)</f>
+        <v>94000</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="M23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D23" s="27" t="s">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D24" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="20">
-        <f>-SUM(F2:F19)</f>
-        <v>-1598500</v>
-      </c>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D25">
+      <c r="E24" s="22"/>
+      <c r="F24" s="20">
+        <f>-SUM(F2:F20)</f>
+        <v>-1618500</v>
+      </c>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D26">
         <f>340+50+100</f>
         <v>490</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
@@ -1789,20 +1782,24 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F29" s="7"/>
     </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F30" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D21:G21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D20" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
+    <hyperlink ref="D21" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1813,8 +1810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA131776-2E13-4A0E-8D22-F638A9EA7E4B}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1826,860 +1823,860 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="33" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="41">
+      <c r="A2" s="36">
         <v>45979</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="40">
+      <c r="C2" s="35">
         <v>100000</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="41">
+      <c r="A3" s="36">
         <v>45979</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="35">
         <v>100000</v>
       </c>
-      <c r="D3" s="39"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="41">
+      <c r="A4" s="36">
         <v>45981</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="35">
         <v>20000</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="34"/>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="41">
+      <c r="A5" s="36">
         <v>45982</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="40">
+      <c r="C5" s="35">
         <v>50000</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="41">
+      <c r="A6" s="36">
         <v>45982</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="40">
+      <c r="C6" s="35">
         <v>300000</v>
       </c>
-      <c r="D6" s="39"/>
+      <c r="D6" s="34"/>
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="41">
+      <c r="A7" s="36">
         <v>45982</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="35">
         <v>5000</v>
       </c>
-      <c r="D7" s="39"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="41">
+      <c r="A8" s="36">
         <v>45982</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="35">
         <v>230000</v>
       </c>
-      <c r="D8" s="39"/>
+      <c r="D8" s="34"/>
     </row>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="41">
+      <c r="A9" s="36">
         <v>45982</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="35">
         <v>100000</v>
       </c>
-      <c r="D9" s="39"/>
+      <c r="D9" s="34"/>
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="41">
+      <c r="A10" s="36">
         <v>45982</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="35">
         <v>75000</v>
       </c>
-      <c r="D10" s="39"/>
+      <c r="D10" s="34"/>
     </row>
     <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="41">
+      <c r="A11" s="36">
         <v>45983</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="35">
         <v>250000</v>
       </c>
-      <c r="D11" s="39"/>
+      <c r="D11" s="34"/>
     </row>
     <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="41">
+      <c r="A12" s="36">
         <v>45984</v>
       </c>
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="35">
         <v>350000</v>
       </c>
-      <c r="D12" s="39"/>
+      <c r="D12" s="34"/>
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="41">
+      <c r="A13" s="36">
         <v>45985</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="40">
+      <c r="C13" s="35">
         <v>20000</v>
       </c>
-      <c r="D13" s="39"/>
+      <c r="D13" s="34"/>
     </row>
     <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="41">
+      <c r="A14" s="36">
         <v>45985</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="35">
         <v>130000</v>
       </c>
-      <c r="D14" s="39"/>
+      <c r="D14" s="34"/>
     </row>
     <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="41">
+      <c r="A15" s="36">
         <v>45985</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="40">
+      <c r="C15" s="35">
         <v>200000</v>
       </c>
-      <c r="D15" s="39"/>
+      <c r="D15" s="34"/>
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="41">
+      <c r="A16" s="36">
         <v>45987</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C16" s="35">
         <v>20000</v>
       </c>
-      <c r="D16" s="39"/>
+      <c r="D16" s="34"/>
     </row>
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="41">
+      <c r="A17" s="36">
         <v>45987</v>
       </c>
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="40">
+      <c r="C17" s="35">
         <v>70000</v>
       </c>
-      <c r="D17" s="39"/>
+      <c r="D17" s="34"/>
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="41">
+      <c r="A18" s="36">
         <v>45987</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="35">
         <v>50000</v>
       </c>
-      <c r="D18" s="39"/>
+      <c r="D18" s="34"/>
     </row>
     <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="41">
+      <c r="A19" s="36">
         <v>45987</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="40">
+      <c r="C19" s="35">
         <v>100000</v>
       </c>
-      <c r="D19" s="39"/>
+      <c r="D19" s="34"/>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="41">
+      <c r="A20" s="36">
         <v>45987</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="40">
+      <c r="C20" s="35">
         <v>200000</v>
       </c>
-      <c r="D20" s="39"/>
+      <c r="D20" s="34"/>
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="41">
+      <c r="A21" s="36">
         <v>45987</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21" s="35">
         <v>180000</v>
       </c>
-      <c r="D21" s="39"/>
+      <c r="D21" s="34"/>
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="41">
+      <c r="A22" s="36">
         <v>45988</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="40">
+      <c r="C22" s="35">
         <v>20000</v>
       </c>
-      <c r="D22" s="39"/>
+      <c r="D22" s="34"/>
     </row>
     <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="41">
+      <c r="A23" s="36">
         <v>45989</v>
       </c>
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="40">
+      <c r="C23" s="35">
         <v>60000</v>
       </c>
-      <c r="D23" s="39"/>
+      <c r="D23" s="34"/>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="41">
+      <c r="A24" s="36">
         <v>45990</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="40">
+      <c r="C24" s="35">
         <v>175000</v>
       </c>
-      <c r="D24" s="39"/>
+      <c r="D24" s="34"/>
     </row>
     <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="41">
+      <c r="A25" s="36">
         <v>45990</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="40">
+      <c r="C25" s="35">
         <v>200000</v>
       </c>
-      <c r="D25" s="39"/>
+      <c r="D25" s="34"/>
     </row>
     <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="41">
+      <c r="A26" s="36">
         <v>45991</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="40">
+      <c r="C26" s="35">
         <v>100000</v>
       </c>
-      <c r="D26" s="39"/>
+      <c r="D26" s="34"/>
     </row>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="41">
+      <c r="A27" s="36">
         <v>45991</v>
       </c>
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="40">
+      <c r="C27" s="35">
         <v>270000</v>
       </c>
-      <c r="D27" s="39"/>
+      <c r="D27" s="34"/>
     </row>
     <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="41">
+      <c r="A28" s="36">
         <v>45992</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="40">
+      <c r="C28" s="35">
         <v>5000</v>
       </c>
-      <c r="D28" s="39"/>
+      <c r="D28" s="34"/>
     </row>
     <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="41">
+      <c r="A29" s="36">
         <v>45992</v>
       </c>
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="40">
+      <c r="C29" s="35">
         <v>5000</v>
       </c>
-      <c r="D29" s="39"/>
+      <c r="D29" s="34"/>
     </row>
     <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="41">
+      <c r="A30" s="36">
         <v>45992</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="40">
+      <c r="C30" s="35">
         <v>5000</v>
       </c>
-      <c r="D30" s="39"/>
+      <c r="D30" s="34"/>
     </row>
     <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="41">
+      <c r="A31" s="36">
         <v>45993</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="40">
+      <c r="C31" s="35">
         <v>5000</v>
       </c>
-      <c r="D31" s="39"/>
+      <c r="D31" s="34"/>
     </row>
     <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="41">
+      <c r="A32" s="36">
         <v>45993</v>
       </c>
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="40">
+      <c r="C32" s="35">
         <v>5000</v>
       </c>
-      <c r="D32" s="39"/>
+      <c r="D32" s="34"/>
     </row>
     <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="41">
+      <c r="A33" s="36">
         <v>45993</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="40">
+      <c r="C33" s="35">
         <v>5000</v>
       </c>
-      <c r="D33" s="39"/>
+      <c r="D33" s="34"/>
     </row>
     <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="41">
+      <c r="A34" s="36">
         <v>45993</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="40">
+      <c r="C34" s="35">
         <v>40000</v>
       </c>
-      <c r="D34" s="39"/>
+      <c r="D34" s="34"/>
     </row>
     <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="41">
+      <c r="A35" s="36">
         <v>45993</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="40">
+      <c r="C35" s="35">
         <v>20000</v>
       </c>
-      <c r="D35" s="39"/>
+      <c r="D35" s="34"/>
     </row>
     <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="41">
+      <c r="A36" s="36">
         <v>45993</v>
       </c>
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="40">
+      <c r="C36" s="35">
         <v>80000</v>
       </c>
-      <c r="D36" s="39"/>
+      <c r="D36" s="34"/>
     </row>
     <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="41">
+      <c r="A37" s="36">
         <v>45994</v>
       </c>
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="40">
+      <c r="C37" s="35">
         <v>100000</v>
       </c>
-      <c r="D37" s="39"/>
+      <c r="D37" s="34"/>
     </row>
     <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="41">
+      <c r="A38" s="36">
         <v>45994</v>
       </c>
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="40">
+      <c r="C38" s="35">
         <v>50000</v>
       </c>
-      <c r="D38" s="39"/>
+      <c r="D38" s="34"/>
     </row>
     <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="41">
+      <c r="A39" s="36">
         <v>45994</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="40">
+      <c r="C39" s="35">
         <v>40000</v>
       </c>
-      <c r="D39" s="39"/>
+      <c r="D39" s="34"/>
     </row>
     <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="41">
+      <c r="A40" s="36">
         <v>45995</v>
       </c>
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="40">
+      <c r="C40" s="35">
         <v>100000</v>
       </c>
-      <c r="D40" s="39"/>
+      <c r="D40" s="34"/>
     </row>
     <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="41">
+      <c r="A41" s="36">
         <v>45995</v>
       </c>
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="40">
+      <c r="C41" s="35">
         <v>50000</v>
       </c>
-      <c r="D41" s="39"/>
+      <c r="D41" s="34"/>
     </row>
     <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="41">
+      <c r="A42" s="36">
         <v>45996</v>
       </c>
-      <c r="B42" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="C42" s="40">
+      <c r="B42" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="35">
         <v>540000</v>
       </c>
-      <c r="D42" s="39"/>
+      <c r="D42" s="34"/>
     </row>
     <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="41">
+      <c r="A43" s="36">
         <v>45996</v>
       </c>
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="40">
+      <c r="C43" s="35">
         <v>5000</v>
       </c>
-      <c r="D43" s="39"/>
+      <c r="D43" s="34"/>
     </row>
     <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="41">
+      <c r="A44" s="36">
         <v>45996</v>
       </c>
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="40">
+      <c r="C44" s="35">
         <v>500000</v>
       </c>
-      <c r="D44" s="39"/>
+      <c r="D44" s="34"/>
     </row>
     <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="41">
+      <c r="A45" s="36">
         <v>45997</v>
       </c>
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="40">
+      <c r="C45" s="35">
         <v>100000</v>
       </c>
-      <c r="D45" s="39"/>
+      <c r="D45" s="34"/>
     </row>
     <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="41">
+      <c r="A46" s="36">
         <v>45997</v>
       </c>
-      <c r="B46" s="39" t="s">
+      <c r="B46" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="40">
+      <c r="C46" s="35">
         <v>200000</v>
       </c>
-      <c r="D46" s="39"/>
+      <c r="D46" s="34"/>
     </row>
     <row r="47" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="41">
+      <c r="A47" s="36">
         <v>45997</v>
       </c>
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="40">
+      <c r="C47" s="35">
         <v>145000</v>
       </c>
-      <c r="D47" s="39"/>
+      <c r="D47" s="34"/>
     </row>
     <row r="48" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="41">
+      <c r="A48" s="36">
         <v>45997</v>
       </c>
-      <c r="B48" s="39" t="s">
+      <c r="B48" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="40">
+      <c r="C48" s="35">
         <v>10000</v>
       </c>
-      <c r="D48" s="39"/>
+      <c r="D48" s="34"/>
     </row>
     <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="41">
+      <c r="A49" s="36">
         <v>45998</v>
       </c>
-      <c r="B49" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="C49" s="40">
+      <c r="B49" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="35">
         <v>100000</v>
       </c>
-      <c r="D49" s="39"/>
+      <c r="D49" s="34"/>
     </row>
     <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="41">
+      <c r="A50" s="36">
         <v>45999</v>
       </c>
-      <c r="B50" s="39" t="s">
+      <c r="B50" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="40">
+      <c r="C50" s="35">
         <v>200000</v>
       </c>
-      <c r="D50" s="39"/>
+      <c r="D50" s="34"/>
     </row>
     <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="41">
+      <c r="A51" s="36">
         <v>45999</v>
       </c>
-      <c r="B51" s="39" t="s">
+      <c r="B51" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="40">
+      <c r="C51" s="35">
         <v>100000</v>
       </c>
-      <c r="D51" s="39"/>
+      <c r="D51" s="34"/>
     </row>
     <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="41">
+      <c r="A52" s="36">
         <v>45999</v>
       </c>
-      <c r="B52" s="39" t="s">
+      <c r="B52" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="40">
+      <c r="C52" s="35">
         <v>120000</v>
       </c>
-      <c r="D52" s="39"/>
+      <c r="D52" s="34"/>
     </row>
     <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="41">
+      <c r="A53" s="36">
         <v>46000</v>
       </c>
-      <c r="B53" s="39" t="s">
+      <c r="B53" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="40">
+      <c r="C53" s="35">
         <v>200000</v>
       </c>
-      <c r="D53" s="39"/>
+      <c r="D53" s="34"/>
     </row>
     <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="41">
+      <c r="A54" s="36">
         <v>46000</v>
       </c>
-      <c r="B54" s="39" t="s">
+      <c r="B54" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C54" s="40">
+      <c r="C54" s="35">
         <v>105000</v>
       </c>
-      <c r="D54" s="39"/>
+      <c r="D54" s="34"/>
     </row>
     <row r="55" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="41">
+      <c r="A55" s="36">
         <v>46001</v>
       </c>
-      <c r="B55" s="39" t="s">
+      <c r="B55" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="40">
+      <c r="C55" s="35">
         <v>100000</v>
       </c>
-      <c r="D55" s="39"/>
+      <c r="D55" s="34"/>
     </row>
     <row r="56" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="41">
+      <c r="A56" s="36">
         <v>46001</v>
       </c>
-      <c r="B56" s="39" t="s">
+      <c r="B56" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="40">
+      <c r="C56" s="35">
         <v>50000</v>
       </c>
-      <c r="D56" s="39"/>
+      <c r="D56" s="34"/>
     </row>
     <row r="57" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="41">
+      <c r="A57" s="36">
         <v>46001</v>
       </c>
-      <c r="B57" s="39" t="s">
+      <c r="B57" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C57" s="40">
+      <c r="C57" s="35">
         <v>150000</v>
       </c>
-      <c r="D57" s="39"/>
+      <c r="D57" s="34"/>
     </row>
     <row r="58" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="41">
+      <c r="A58" s="36">
         <v>46001</v>
       </c>
-      <c r="B58" s="39" t="s">
+      <c r="B58" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C58" s="40">
+      <c r="C58" s="35">
         <v>20000</v>
       </c>
-      <c r="D58" s="39"/>
+      <c r="D58" s="34"/>
     </row>
     <row r="59" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="41">
+      <c r="A59" s="36">
         <v>46002</v>
       </c>
-      <c r="B59" s="39" t="s">
+      <c r="B59" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="40">
+      <c r="C59" s="35">
         <v>100000</v>
       </c>
-      <c r="D59" s="39"/>
+      <c r="D59" s="34"/>
     </row>
     <row r="60" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="41">
+      <c r="A60" s="36">
         <v>46002</v>
       </c>
-      <c r="B60" s="39" t="s">
+      <c r="B60" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C60" s="40">
+      <c r="C60" s="35">
         <v>120000</v>
       </c>
-      <c r="D60" s="39"/>
+      <c r="D60" s="34"/>
     </row>
     <row r="61" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="41">
+      <c r="A61" s="36">
         <v>46003</v>
       </c>
-      <c r="B61" s="39" t="s">
+      <c r="B61" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="40">
+      <c r="C61" s="35">
         <v>20000</v>
       </c>
-      <c r="D61" s="39"/>
+      <c r="D61" s="34"/>
     </row>
     <row r="62" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="41">
+      <c r="A62" s="36">
         <v>46003</v>
       </c>
-      <c r="B62" s="39" t="s">
+      <c r="B62" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C62" s="40">
+      <c r="C62" s="35">
         <v>50000</v>
       </c>
-      <c r="D62" s="39"/>
+      <c r="D62" s="34"/>
     </row>
     <row r="63" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="41">
+      <c r="A63" s="36">
         <v>46003</v>
       </c>
-      <c r="B63" s="39" t="s">
+      <c r="B63" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C63" s="40">
+      <c r="C63" s="35">
         <v>95000</v>
       </c>
-      <c r="D63" s="39"/>
+      <c r="D63" s="34"/>
     </row>
     <row r="64" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="41">
+      <c r="A64" s="36">
         <v>46003</v>
       </c>
-      <c r="B64" s="39" t="s">
+      <c r="B64" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C64" s="40">
+      <c r="C64" s="35">
         <v>150000</v>
       </c>
-      <c r="D64" s="39"/>
+      <c r="D64" s="34"/>
     </row>
     <row r="65" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="41">
+      <c r="A65" s="36">
         <v>46003</v>
       </c>
-      <c r="B65" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="C65" s="40">
+      <c r="B65" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" s="35">
         <v>340000</v>
       </c>
-      <c r="D65" s="39"/>
+      <c r="D65" s="34"/>
     </row>
     <row r="66" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="41">
+      <c r="A66" s="36">
         <v>46004</v>
       </c>
-      <c r="B66" s="39" t="s">
+      <c r="B66" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C66" s="40">
+      <c r="C66" s="35">
         <v>20000</v>
       </c>
-      <c r="D66" s="39"/>
+      <c r="D66" s="34"/>
     </row>
     <row r="67" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="41">
+      <c r="A67" s="36">
         <v>46004</v>
       </c>
-      <c r="B67" s="39" t="s">
+      <c r="B67" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="40">
+      <c r="C67" s="35">
         <v>50000</v>
       </c>
-      <c r="D67" s="39"/>
+      <c r="D67" s="34"/>
     </row>
     <row r="68" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="41">
+      <c r="A68" s="36">
         <v>46004</v>
       </c>
-      <c r="B68" s="39" t="s">
+      <c r="B68" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C68" s="40">
+      <c r="C68" s="35">
         <v>20000</v>
       </c>
-      <c r="D68" s="39"/>
+      <c r="D68" s="34"/>
     </row>
     <row r="69" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="41">
+      <c r="A69" s="36">
         <v>46004</v>
       </c>
-      <c r="B69" s="39" t="s">
+      <c r="B69" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="40">
+      <c r="C69" s="35">
         <v>20000</v>
       </c>
-      <c r="D69" s="39"/>
+      <c r="D69" s="34"/>
     </row>
     <row r="70" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="41">
+      <c r="A70" s="36">
         <v>46004</v>
       </c>
-      <c r="B70" s="39" t="s">
+      <c r="B70" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C70" s="40">
+      <c r="C70" s="35">
         <v>100000</v>
       </c>
-      <c r="D70" s="39"/>
+      <c r="D70" s="34"/>
     </row>
     <row r="71" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="41">
+      <c r="A71" s="36">
         <v>46005</v>
       </c>
-      <c r="B71" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="C71" s="40">
+      <c r="B71" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="35">
         <v>20000</v>
       </c>
-      <c r="D71" s="39"/>
+      <c r="D71" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2781,8 +2778,8 @@
       <c r="T1" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="34" t="s">
-        <v>56</v>
+      <c r="U1" s="29" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -4087,858 +4084,858 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="35" t="s">
+      <c r="D1" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="35" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="B2" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="D2" s="31"/>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="31"/>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="31"/>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="31"/>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="31"/>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="31"/>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="31"/>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="31"/>
+    </row>
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="31"/>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="31"/>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="31"/>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="36"/>
-    </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="C13" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="31"/>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="31"/>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="31"/>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="31"/>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="D17" s="31"/>
+    </row>
+    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="31"/>
+    </row>
+    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="31"/>
+    </row>
+    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="31"/>
+    </row>
+    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="31"/>
+    </row>
+    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="31"/>
+    </row>
+    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="31"/>
+    </row>
+    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="36"/>
-    </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="C24" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="31"/>
+    </row>
+    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="31"/>
+    </row>
+    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="31"/>
+    </row>
+    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="31"/>
+    </row>
+    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="32">
+        <v>45669</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="31"/>
+    </row>
+    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="32">
+        <v>45669</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" s="31"/>
+    </row>
+    <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="32">
+        <v>45669</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="31"/>
+    </row>
+    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="32">
+        <v>45700</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="D31" s="31"/>
+    </row>
+    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="32">
+        <v>45700</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="31"/>
+    </row>
+    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="32">
+        <v>45700</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" s="31"/>
+    </row>
+    <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="32">
+        <v>45700</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="31"/>
+    </row>
+    <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="32">
+        <v>45700</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="31"/>
+    </row>
+    <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="32">
+        <v>45700</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="31"/>
+    </row>
+    <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="32">
+        <v>45728</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="31"/>
+    </row>
+    <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="32">
+        <v>45728</v>
+      </c>
+      <c r="B38" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="31"/>
+    </row>
+    <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="32">
+        <v>45728</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="31"/>
+    </row>
+    <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="32">
+        <v>45759</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="31"/>
+    </row>
+    <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="32">
+        <v>45759</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="31"/>
+    </row>
+    <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="32">
+        <v>45789</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="31"/>
+    </row>
+    <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="32">
+        <v>45789</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="31"/>
+    </row>
+    <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="32">
+        <v>45789</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="31"/>
+    </row>
+    <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="32">
+        <v>45820</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="31"/>
+    </row>
+    <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="32">
+        <v>45820</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="31"/>
+    </row>
+    <row r="47" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="32">
+        <v>45820</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="31"/>
+    </row>
+    <row r="48" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="32">
+        <v>45820</v>
+      </c>
+      <c r="B48" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="36"/>
-    </row>
-    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="36" t="s">
+      <c r="C48" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" s="31"/>
+    </row>
+    <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="32">
+        <v>45850</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="31"/>
+    </row>
+    <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="32">
+        <v>45881</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D50" s="31"/>
+    </row>
+    <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="32">
+        <v>45881</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="31"/>
+    </row>
+    <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="32">
+        <v>45881</v>
+      </c>
+      <c r="B52" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="36"/>
-    </row>
-    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="36" t="s">
+      <c r="C52" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="31"/>
+    </row>
+    <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="32">
+        <v>45912</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" s="31"/>
+    </row>
+    <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="32">
+        <v>45912</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" s="31"/>
+    </row>
+    <row r="55" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="32">
+        <v>45942</v>
+      </c>
+      <c r="B55" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" s="31"/>
+    </row>
+    <row r="56" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="32">
+        <v>45942</v>
+      </c>
+      <c r="B56" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" s="31"/>
+    </row>
+    <row r="57" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="32">
+        <v>45942</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" s="31"/>
+    </row>
+    <row r="58" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="32">
+        <v>45942</v>
+      </c>
+      <c r="B58" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="31"/>
+    </row>
+    <row r="59" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="32">
+        <v>45973</v>
+      </c>
+      <c r="B59" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="31"/>
+    </row>
+    <row r="60" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="32">
+        <v>45973</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D60" s="31"/>
+    </row>
+    <row r="61" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="32">
+        <v>46003</v>
+      </c>
+      <c r="B61" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" s="31"/>
+    </row>
+    <row r="62" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="32">
+        <v>46003</v>
+      </c>
+      <c r="B62" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62" s="31"/>
+    </row>
+    <row r="63" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="32">
+        <v>46003</v>
+      </c>
+      <c r="B63" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D63" s="31"/>
+    </row>
+    <row r="64" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="32">
+        <v>46003</v>
+      </c>
+      <c r="B64" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D64" s="31"/>
+    </row>
+    <row r="65" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="32">
+        <v>46003</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D65" s="31"/>
+    </row>
+    <row r="66" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B66" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66" s="31"/>
+    </row>
+    <row r="67" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" s="31"/>
+    </row>
+    <row r="68" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B68" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="36"/>
-    </row>
-    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="36"/>
-    </row>
-    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="36" t="s">
+      <c r="C68" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="36"/>
-    </row>
-    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="36"/>
-    </row>
-    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="36"/>
-    </row>
-    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="36"/>
-    </row>
-    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="36" t="s">
+      <c r="D68" s="31"/>
+    </row>
+    <row r="69" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B69" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="36"/>
-    </row>
-    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="36"/>
-    </row>
-    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="36"/>
-    </row>
-    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="36"/>
-    </row>
-    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="36"/>
-    </row>
-    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="36"/>
-    </row>
-    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" s="36"/>
-    </row>
-    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="36"/>
-    </row>
-    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="36"/>
-    </row>
-    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="36"/>
-    </row>
-    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="36"/>
-    </row>
-    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="36"/>
-    </row>
-    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="36"/>
-    </row>
-    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="36"/>
-    </row>
-    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="36"/>
-    </row>
-    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="36"/>
-    </row>
-    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="37">
-        <v>45669</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="36"/>
-    </row>
-    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="37">
-        <v>45669</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="36"/>
-    </row>
-    <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="37">
-        <v>45669</v>
-      </c>
-      <c r="B30" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="36"/>
-    </row>
-    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="37">
-        <v>45700</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="36"/>
-    </row>
-    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="37">
-        <v>45700</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="36"/>
-    </row>
-    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="37">
-        <v>45700</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="36"/>
-    </row>
-    <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="37">
-        <v>45700</v>
-      </c>
-      <c r="B34" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="36"/>
-    </row>
-    <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="37">
-        <v>45700</v>
-      </c>
-      <c r="B35" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="D35" s="36"/>
-    </row>
-    <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="37">
-        <v>45700</v>
-      </c>
-      <c r="B36" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="36"/>
-    </row>
-    <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="37">
-        <v>45728</v>
-      </c>
-      <c r="B37" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="36"/>
-    </row>
-    <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="37">
-        <v>45728</v>
-      </c>
-      <c r="B38" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="36"/>
-    </row>
-    <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="37">
-        <v>45728</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="D39" s="36"/>
-    </row>
-    <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="37">
-        <v>45759</v>
-      </c>
-      <c r="B40" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" s="36"/>
-    </row>
-    <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="37">
-        <v>45759</v>
-      </c>
-      <c r="B41" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D41" s="36"/>
-    </row>
-    <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="37">
-        <v>45789</v>
-      </c>
-      <c r="B42" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="D42" s="36"/>
-    </row>
-    <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="37">
-        <v>45789</v>
-      </c>
-      <c r="B43" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43" s="36"/>
-    </row>
-    <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="37">
-        <v>45789</v>
-      </c>
-      <c r="B44" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44" s="36"/>
-    </row>
-    <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="37">
-        <v>45820</v>
-      </c>
-      <c r="B45" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D45" s="36"/>
-    </row>
-    <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="37">
-        <v>45820</v>
-      </c>
-      <c r="B46" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="D46" s="36"/>
-    </row>
-    <row r="47" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="37">
-        <v>45820</v>
-      </c>
-      <c r="B47" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="D47" s="36"/>
-    </row>
-    <row r="48" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="37">
-        <v>45820</v>
-      </c>
-      <c r="B48" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="36"/>
-    </row>
-    <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="37">
-        <v>45850</v>
-      </c>
-      <c r="B49" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C49" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D49" s="36"/>
-    </row>
-    <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="37">
-        <v>45881</v>
-      </c>
-      <c r="B50" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D50" s="36"/>
-    </row>
-    <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="37">
-        <v>45881</v>
-      </c>
-      <c r="B51" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="C51" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="D51" s="36"/>
-    </row>
-    <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="37">
-        <v>45881</v>
-      </c>
-      <c r="B52" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C52" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D52" s="36"/>
-    </row>
-    <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="37">
-        <v>45912</v>
-      </c>
-      <c r="B53" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="D53" s="36"/>
-    </row>
-    <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="37">
-        <v>45912</v>
-      </c>
-      <c r="B54" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C54" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="D54" s="36"/>
-    </row>
-    <row r="55" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="37">
-        <v>45942</v>
-      </c>
-      <c r="B55" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D55" s="36"/>
-    </row>
-    <row r="56" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="37">
-        <v>45942</v>
-      </c>
-      <c r="B56" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="C56" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D56" s="36"/>
-    </row>
-    <row r="57" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="37">
-        <v>45942</v>
-      </c>
-      <c r="B57" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="D57" s="36"/>
-    </row>
-    <row r="58" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="37">
-        <v>45942</v>
-      </c>
-      <c r="B58" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C58" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D58" s="36"/>
-    </row>
-    <row r="59" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="37">
-        <v>45973</v>
-      </c>
-      <c r="B59" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D59" s="36"/>
-    </row>
-    <row r="60" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="37">
-        <v>45973</v>
-      </c>
-      <c r="B60" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C60" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D60" s="36"/>
-    </row>
-    <row r="61" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="37">
-        <v>46003</v>
-      </c>
-      <c r="B61" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D61" s="36"/>
-    </row>
-    <row r="62" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="37">
-        <v>46003</v>
-      </c>
-      <c r="B62" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D62" s="36"/>
-    </row>
-    <row r="63" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="37">
-        <v>46003</v>
-      </c>
-      <c r="B63" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C63" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="D63" s="36"/>
-    </row>
-    <row r="64" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="37">
-        <v>46003</v>
-      </c>
-      <c r="B64" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C64" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="D64" s="36"/>
-    </row>
-    <row r="65" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="37">
-        <v>46003</v>
-      </c>
-      <c r="B65" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C65" s="36" t="s">
+      <c r="C69" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69" s="31"/>
+    </row>
+    <row r="70" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="D65" s="36"/>
-    </row>
-    <row r="66" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="36" t="s">
+      <c r="B70" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D70" s="31"/>
+    </row>
+    <row r="71" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="B66" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D66" s="36"/>
-    </row>
-    <row r="67" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="B67" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="C67" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="D67" s="36"/>
-    </row>
-    <row r="68" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="B68" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C68" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D68" s="36"/>
-    </row>
-    <row r="69" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="B69" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C69" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D69" s="36"/>
-    </row>
-    <row r="70" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="B70" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="C70" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D70" s="36"/>
-    </row>
-    <row r="71" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="B71" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="C71" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="D71" s="36"/>
+      <c r="B71" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D71" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29983A36-4705-4983-AEE3-0D4159E104B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C4C2CD-4E84-4234-9DAC-BC550CCC367C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="100">
   <si>
     <t>STT</t>
   </si>
@@ -339,6 +339,9 @@
   </si>
   <si>
     <t>14/12/2025</t>
+  </si>
+  <si>
+    <t>Nạp quân Huy</t>
   </si>
 </sst>
 </file>
@@ -496,7 +499,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -537,12 +540,6 @@
     <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -552,7 +549,7 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -575,6 +572,15 @@
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -922,7 +928,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,43 +1115,43 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="24">
         <v>120000</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="24">
         <f>50000-16000</f>
         <v>34000</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="24">
         <f t="shared" ref="F5" si="2">(D5+I5)-E5</f>
         <v>86000</v>
       </c>
-      <c r="G5" s="26">
-        <v>0</v>
-      </c>
-      <c r="H5" s="27">
-        <v>0</v>
-      </c>
-      <c r="I5" s="26">
+      <c r="G5" s="24">
+        <v>0</v>
+      </c>
+      <c r="H5" s="25">
+        <v>0</v>
+      </c>
+      <c r="I5" s="24">
         <f t="shared" ref="I5" si="3">D5*H5</f>
         <v>0</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="26">
         <v>45999</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="26">
         <v>46005</v>
       </c>
-      <c r="L5" s="25" t="s">
+      <c r="L5" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="25" t="s">
+      <c r="M5" s="23" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1672,35 +1678,87 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="18">
+        <v>20000</v>
+      </c>
+      <c r="E18" s="18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="18">
+        <f t="shared" ref="F18:F19" si="23">(D18+I18)-E18</f>
+        <v>20000</v>
+      </c>
+      <c r="G18" s="18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="18">
+        <f t="shared" ref="I18:I19" si="24">D18*H18</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>46005</v>
+      </c>
+      <c r="K18" s="6">
+        <v>46011</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="18">
+        <v>5000</v>
+      </c>
+      <c r="E19" s="18">
+        <v>0</v>
+      </c>
+      <c r="F19" s="18">
+        <f t="shared" si="23"/>
+        <v>5000</v>
+      </c>
+      <c r="G19" s="18">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="18">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
+        <v>46005</v>
+      </c>
+      <c r="K19" s="6">
+        <v>46011</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -1724,30 +1782,30 @@
         <v>33</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="22"/>
+      <c r="E22" s="36"/>
       <c r="F22" s="20">
         <f>SUM(D2:D20)</f>
-        <v>1660000</v>
+        <v>1685000</v>
       </c>
       <c r="G22" s="7"/>
       <c r="J22" s="7"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="22"/>
+      <c r="E23" s="36"/>
       <c r="F23" s="20">
         <f>SUM(E2:E20)</f>
         <v>94000</v>
@@ -1758,13 +1816,13 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="22"/>
+      <c r="E24" s="36"/>
       <c r="F24" s="20">
         <f>-SUM(F2:F20)</f>
-        <v>-1618500</v>
+        <v>-1643500</v>
       </c>
       <c r="G24" s="7"/>
     </row>
@@ -1808,10 +1866,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA131776-2E13-4A0E-8D22-F638A9EA7E4B}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1823,860 +1881,926 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="31" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="36">
+      <c r="A2" s="34">
         <v>45979</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="33">
         <v>100000</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="32" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="36">
+      <c r="A3" s="34">
         <v>45979</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="33">
         <v>100000</v>
       </c>
-      <c r="D3" s="34"/>
+      <c r="D3" s="32"/>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="36">
+      <c r="A4" s="34">
         <v>45981</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="33">
         <v>20000</v>
       </c>
-      <c r="D4" s="34"/>
+      <c r="D4" s="32"/>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="36">
+      <c r="A5" s="34">
         <v>45982</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="33">
         <v>50000</v>
       </c>
-      <c r="D5" s="34"/>
+      <c r="D5" s="32"/>
     </row>
     <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="36">
+      <c r="A6" s="34">
         <v>45982</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="33">
         <v>300000</v>
       </c>
-      <c r="D6" s="34"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="36">
+      <c r="A7" s="34">
         <v>45982</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="33">
         <v>5000</v>
       </c>
-      <c r="D7" s="34"/>
+      <c r="D7" s="32"/>
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="36">
+      <c r="A8" s="34">
         <v>45982</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="33">
         <v>230000</v>
       </c>
-      <c r="D8" s="34"/>
+      <c r="D8" s="32"/>
     </row>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="36">
+      <c r="A9" s="34">
         <v>45982</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="33">
         <v>100000</v>
       </c>
-      <c r="D9" s="34"/>
+      <c r="D9" s="32"/>
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
+      <c r="A10" s="34">
         <v>45982</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="33">
         <v>75000</v>
       </c>
-      <c r="D10" s="34"/>
+      <c r="D10" s="32"/>
     </row>
     <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="36">
+      <c r="A11" s="34">
         <v>45983</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="33">
         <v>250000</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="D11" s="32"/>
     </row>
     <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="36">
+      <c r="A12" s="34">
         <v>45984</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="33">
         <v>350000</v>
       </c>
-      <c r="D12" s="34"/>
+      <c r="D12" s="32"/>
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="36">
+      <c r="A13" s="34">
         <v>45985</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="33">
         <v>20000</v>
       </c>
-      <c r="D13" s="34"/>
+      <c r="D13" s="32"/>
     </row>
     <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="36">
+      <c r="A14" s="34">
         <v>45985</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="33">
         <v>130000</v>
       </c>
-      <c r="D14" s="34"/>
+      <c r="D14" s="32"/>
     </row>
     <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="36">
+      <c r="A15" s="34">
         <v>45985</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="33">
         <v>200000</v>
       </c>
-      <c r="D15" s="34"/>
+      <c r="D15" s="32"/>
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="36">
+      <c r="A16" s="34">
         <v>45987</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="33">
         <v>20000</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="32"/>
     </row>
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="36">
+      <c r="A17" s="34">
         <v>45987</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="33">
         <v>70000</v>
       </c>
-      <c r="D17" s="34"/>
+      <c r="D17" s="32"/>
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="36">
+      <c r="A18" s="34">
         <v>45987</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="33">
         <v>50000</v>
       </c>
-      <c r="D18" s="34"/>
+      <c r="D18" s="32"/>
     </row>
     <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="36">
+      <c r="A19" s="34">
         <v>45987</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="33">
         <v>100000</v>
       </c>
-      <c r="D19" s="34"/>
+      <c r="D19" s="32"/>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="36">
+      <c r="A20" s="34">
         <v>45987</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="33">
         <v>200000</v>
       </c>
-      <c r="D20" s="34"/>
+      <c r="D20" s="32"/>
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="36">
+      <c r="A21" s="34">
         <v>45987</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="33">
         <v>180000</v>
       </c>
-      <c r="D21" s="34"/>
+      <c r="D21" s="32"/>
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="36">
+      <c r="A22" s="34">
         <v>45988</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="33">
         <v>20000</v>
       </c>
-      <c r="D22" s="34"/>
+      <c r="D22" s="32"/>
     </row>
     <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="36">
+      <c r="A23" s="34">
         <v>45989</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="35">
+      <c r="C23" s="33">
         <v>60000</v>
       </c>
-      <c r="D23" s="34"/>
+      <c r="D23" s="32"/>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="36">
+      <c r="A24" s="34">
         <v>45990</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="33">
         <v>175000</v>
       </c>
-      <c r="D24" s="34"/>
+      <c r="D24" s="32"/>
     </row>
     <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="36">
+      <c r="A25" s="34">
         <v>45990</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="35">
+      <c r="C25" s="33">
         <v>200000</v>
       </c>
-      <c r="D25" s="34"/>
+      <c r="D25" s="32"/>
     </row>
     <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="36">
+      <c r="A26" s="34">
         <v>45991</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="35">
+      <c r="C26" s="33">
         <v>100000</v>
       </c>
-      <c r="D26" s="34"/>
+      <c r="D26" s="32"/>
     </row>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="36">
+      <c r="A27" s="34">
         <v>45991</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="35">
+      <c r="C27" s="33">
         <v>270000</v>
       </c>
-      <c r="D27" s="34"/>
+      <c r="D27" s="32"/>
     </row>
     <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="36">
+      <c r="A28" s="34">
         <v>45992</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="35">
+      <c r="C28" s="33">
         <v>5000</v>
       </c>
-      <c r="D28" s="34"/>
+      <c r="D28" s="32"/>
     </row>
     <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="36">
+      <c r="A29" s="34">
         <v>45992</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="35">
+      <c r="C29" s="33">
         <v>5000</v>
       </c>
-      <c r="D29" s="34"/>
+      <c r="D29" s="32"/>
     </row>
     <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="36">
+      <c r="A30" s="34">
         <v>45992</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="35">
+      <c r="C30" s="33">
         <v>5000</v>
       </c>
-      <c r="D30" s="34"/>
+      <c r="D30" s="32"/>
     </row>
     <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="36">
+      <c r="A31" s="34">
         <v>45993</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="33">
         <v>5000</v>
       </c>
-      <c r="D31" s="34"/>
+      <c r="D31" s="32"/>
     </row>
     <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="36">
+      <c r="A32" s="34">
         <v>45993</v>
       </c>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="35">
+      <c r="C32" s="33">
         <v>5000</v>
       </c>
-      <c r="D32" s="34"/>
+      <c r="D32" s="32"/>
     </row>
     <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="36">
+      <c r="A33" s="34">
         <v>45993</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="35">
+      <c r="C33" s="33">
         <v>5000</v>
       </c>
-      <c r="D33" s="34"/>
+      <c r="D33" s="32"/>
     </row>
     <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="36">
+      <c r="A34" s="34">
         <v>45993</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="35">
+      <c r="C34" s="33">
         <v>40000</v>
       </c>
-      <c r="D34" s="34"/>
+      <c r="D34" s="32"/>
     </row>
     <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="36">
+      <c r="A35" s="34">
         <v>45993</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="35">
+      <c r="C35" s="33">
         <v>20000</v>
       </c>
-      <c r="D35" s="34"/>
+      <c r="D35" s="32"/>
     </row>
     <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="36">
+      <c r="A36" s="34">
         <v>45993</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="35">
+      <c r="C36" s="33">
         <v>80000</v>
       </c>
-      <c r="D36" s="34"/>
+      <c r="D36" s="32"/>
     </row>
     <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="36">
+      <c r="A37" s="34">
         <v>45994</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="35">
+      <c r="C37" s="33">
         <v>100000</v>
       </c>
-      <c r="D37" s="34"/>
+      <c r="D37" s="32"/>
     </row>
     <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="36">
+      <c r="A38" s="34">
         <v>45994</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="35">
+      <c r="C38" s="33">
         <v>50000</v>
       </c>
-      <c r="D38" s="34"/>
+      <c r="D38" s="32"/>
     </row>
     <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="36">
+      <c r="A39" s="34">
         <v>45994</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B39" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="35">
+      <c r="C39" s="33">
         <v>40000</v>
       </c>
-      <c r="D39" s="34"/>
+      <c r="D39" s="32"/>
     </row>
     <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="36">
+      <c r="A40" s="34">
         <v>45995</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="35">
+      <c r="C40" s="33">
         <v>100000</v>
       </c>
-      <c r="D40" s="34"/>
+      <c r="D40" s="32"/>
     </row>
     <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="36">
+      <c r="A41" s="34">
         <v>45995</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="35">
+      <c r="C41" s="33">
         <v>50000</v>
       </c>
-      <c r="D41" s="34"/>
+      <c r="D41" s="32"/>
     </row>
     <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="36">
+      <c r="A42" s="34">
         <v>45996</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="35">
+      <c r="C42" s="33">
         <v>540000</v>
       </c>
-      <c r="D42" s="34"/>
+      <c r="D42" s="32"/>
     </row>
     <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="36">
+      <c r="A43" s="34">
         <v>45996</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="35">
+      <c r="C43" s="33">
         <v>5000</v>
       </c>
-      <c r="D43" s="34"/>
+      <c r="D43" s="32"/>
     </row>
     <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="36">
+      <c r="A44" s="34">
         <v>45996</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="35">
+      <c r="C44" s="33">
         <v>500000</v>
       </c>
-      <c r="D44" s="34"/>
+      <c r="D44" s="32"/>
     </row>
     <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="36">
+      <c r="A45" s="34">
         <v>45997</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="35">
+      <c r="C45" s="33">
         <v>100000</v>
       </c>
-      <c r="D45" s="34"/>
+      <c r="D45" s="32"/>
     </row>
     <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="36">
+      <c r="A46" s="34">
         <v>45997</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="35">
+      <c r="C46" s="33">
         <v>200000</v>
       </c>
-      <c r="D46" s="34"/>
+      <c r="D46" s="32"/>
     </row>
     <row r="47" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="36">
+      <c r="A47" s="34">
         <v>45997</v>
       </c>
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="35">
+      <c r="C47" s="33">
         <v>145000</v>
       </c>
-      <c r="D47" s="34"/>
+      <c r="D47" s="32"/>
     </row>
     <row r="48" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="36">
+      <c r="A48" s="34">
         <v>45997</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="35">
+      <c r="C48" s="33">
         <v>10000</v>
       </c>
-      <c r="D48" s="34"/>
+      <c r="D48" s="32"/>
     </row>
     <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="36">
+      <c r="A49" s="34">
         <v>45998</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="35">
+      <c r="C49" s="33">
         <v>100000</v>
       </c>
-      <c r="D49" s="34"/>
+      <c r="D49" s="32"/>
     </row>
     <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="36">
+      <c r="A50" s="34">
         <v>45999</v>
       </c>
-      <c r="B50" s="34" t="s">
+      <c r="B50" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="35">
+      <c r="C50" s="33">
         <v>200000</v>
       </c>
-      <c r="D50" s="34"/>
+      <c r="D50" s="32"/>
     </row>
     <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="36">
+      <c r="A51" s="34">
         <v>45999</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="35">
+      <c r="C51" s="33">
         <v>100000</v>
       </c>
-      <c r="D51" s="34"/>
+      <c r="D51" s="32"/>
     </row>
     <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="36">
+      <c r="A52" s="34">
         <v>45999</v>
       </c>
-      <c r="B52" s="34" t="s">
+      <c r="B52" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="35">
+      <c r="C52" s="33">
         <v>120000</v>
       </c>
-      <c r="D52" s="34"/>
+      <c r="D52" s="32"/>
     </row>
     <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="36">
+      <c r="A53" s="34">
         <v>46000</v>
       </c>
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="35">
+      <c r="C53" s="33">
         <v>200000</v>
       </c>
-      <c r="D53" s="34"/>
+      <c r="D53" s="32"/>
     </row>
     <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="36">
+      <c r="A54" s="34">
         <v>46000</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B54" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C54" s="35">
+      <c r="C54" s="33">
         <v>105000</v>
       </c>
-      <c r="D54" s="34"/>
+      <c r="D54" s="32"/>
     </row>
     <row r="55" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="36">
+      <c r="A55" s="34">
         <v>46001</v>
       </c>
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="35">
+      <c r="C55" s="33">
         <v>100000</v>
       </c>
-      <c r="D55" s="34"/>
+      <c r="D55" s="32"/>
     </row>
     <row r="56" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="36">
+      <c r="A56" s="34">
         <v>46001</v>
       </c>
-      <c r="B56" s="34" t="s">
+      <c r="B56" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="35">
+      <c r="C56" s="33">
         <v>50000</v>
       </c>
-      <c r="D56" s="34"/>
+      <c r="D56" s="32"/>
     </row>
     <row r="57" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="36">
+      <c r="A57" s="34">
         <v>46001</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C57" s="35">
+      <c r="C57" s="33">
         <v>150000</v>
       </c>
-      <c r="D57" s="34"/>
+      <c r="D57" s="32"/>
     </row>
     <row r="58" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="36">
+      <c r="A58" s="34">
         <v>46001</v>
       </c>
-      <c r="B58" s="34" t="s">
+      <c r="B58" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C58" s="35">
+      <c r="C58" s="33">
         <v>20000</v>
       </c>
-      <c r="D58" s="34"/>
+      <c r="D58" s="32"/>
     </row>
     <row r="59" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="36">
+      <c r="A59" s="34">
         <v>46002</v>
       </c>
-      <c r="B59" s="34" t="s">
+      <c r="B59" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="35">
+      <c r="C59" s="33">
         <v>100000</v>
       </c>
-      <c r="D59" s="34"/>
+      <c r="D59" s="32"/>
     </row>
     <row r="60" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="36">
+      <c r="A60" s="34">
         <v>46002</v>
       </c>
-      <c r="B60" s="34" t="s">
+      <c r="B60" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C60" s="35">
+      <c r="C60" s="33">
         <v>120000</v>
       </c>
-      <c r="D60" s="34"/>
+      <c r="D60" s="32"/>
     </row>
     <row r="61" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="36">
+      <c r="A61" s="34">
         <v>46003</v>
       </c>
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="35">
+      <c r="C61" s="33">
         <v>20000</v>
       </c>
-      <c r="D61" s="34"/>
+      <c r="D61" s="32"/>
     </row>
     <row r="62" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="36">
+      <c r="A62" s="34">
         <v>46003</v>
       </c>
-      <c r="B62" s="34" t="s">
+      <c r="B62" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C62" s="35">
+      <c r="C62" s="33">
         <v>50000</v>
       </c>
-      <c r="D62" s="34"/>
+      <c r="D62" s="32"/>
     </row>
     <row r="63" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="36">
+      <c r="A63" s="34">
         <v>46003</v>
       </c>
-      <c r="B63" s="34" t="s">
+      <c r="B63" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C63" s="35">
+      <c r="C63" s="33">
         <v>95000</v>
       </c>
-      <c r="D63" s="34"/>
+      <c r="D63" s="32"/>
     </row>
     <row r="64" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="36">
+      <c r="A64" s="34">
         <v>46003</v>
       </c>
-      <c r="B64" s="34" t="s">
+      <c r="B64" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C64" s="35">
+      <c r="C64" s="33">
         <v>150000</v>
       </c>
-      <c r="D64" s="34"/>
+      <c r="D64" s="32"/>
     </row>
     <row r="65" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="36">
+      <c r="A65" s="34">
         <v>46003</v>
       </c>
-      <c r="B65" s="34" t="s">
+      <c r="B65" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="C65" s="35">
+      <c r="C65" s="33">
         <v>340000</v>
       </c>
-      <c r="D65" s="34"/>
+      <c r="D65" s="32"/>
     </row>
     <row r="66" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="36">
+      <c r="A66" s="34">
         <v>46004</v>
       </c>
-      <c r="B66" s="34" t="s">
+      <c r="B66" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C66" s="35">
+      <c r="C66" s="33">
         <v>20000</v>
       </c>
-      <c r="D66" s="34"/>
+      <c r="D66" s="32"/>
     </row>
     <row r="67" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="36">
+      <c r="A67" s="34">
         <v>46004</v>
       </c>
-      <c r="B67" s="34" t="s">
+      <c r="B67" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="35">
+      <c r="C67" s="33">
         <v>50000</v>
       </c>
-      <c r="D67" s="34"/>
+      <c r="D67" s="32"/>
     </row>
     <row r="68" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="36">
+      <c r="A68" s="34">
         <v>46004</v>
       </c>
-      <c r="B68" s="34" t="s">
+      <c r="B68" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C68" s="35">
+      <c r="C68" s="33">
         <v>20000</v>
       </c>
-      <c r="D68" s="34"/>
+      <c r="D68" s="32"/>
     </row>
     <row r="69" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="36">
+      <c r="A69" s="34">
         <v>46004</v>
       </c>
-      <c r="B69" s="34" t="s">
+      <c r="B69" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="35">
+      <c r="C69" s="33">
         <v>20000</v>
       </c>
-      <c r="D69" s="34"/>
+      <c r="D69" s="32"/>
     </row>
     <row r="70" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="36">
+      <c r="A70" s="34">
         <v>46004</v>
       </c>
-      <c r="B70" s="34" t="s">
+      <c r="B70" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C70" s="35">
+      <c r="C70" s="33">
         <v>100000</v>
       </c>
-      <c r="D70" s="34"/>
+      <c r="D70" s="32"/>
     </row>
     <row r="71" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="36">
+      <c r="A71" s="34">
         <v>46005</v>
       </c>
-      <c r="B71" s="34" t="s">
+      <c r="B71" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C71" s="35">
+      <c r="C71" s="33">
         <v>20000</v>
       </c>
-      <c r="D71" s="34"/>
+      <c r="D71" s="32"/>
+    </row>
+    <row r="72" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="34">
+        <v>46005</v>
+      </c>
+      <c r="B72" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C72" s="33">
+        <v>5000</v>
+      </c>
+      <c r="D72" s="32"/>
+    </row>
+    <row r="73" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="34">
+        <v>46005</v>
+      </c>
+      <c r="B73" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="33">
+        <v>20000</v>
+      </c>
+      <c r="D73" s="32"/>
+    </row>
+    <row r="74" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="34"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="32"/>
+    </row>
+    <row r="75" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="34"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="32"/>
+    </row>
+    <row r="76" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="34"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="33"/>
+      <c r="D76" s="32"/>
+    </row>
+    <row r="77" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="34"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="33"/>
+      <c r="D77" s="32"/>
+    </row>
+    <row r="78" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="34"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="33"/>
+      <c r="D78" s="32"/>
+    </row>
+    <row r="79" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="34"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="33"/>
+      <c r="D79" s="32"/>
+    </row>
+    <row r="80" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="34"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2685,12 +2809,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2244E0B0-ACF7-443D-861C-F5014E4A339F}">
-  <sheetPr codeName="Sheet3"/>
+  <sheetPr codeName="Sheet3" filterMode="1"/>
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R25" sqref="R25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2778,11 +2902,11 @@
       <c r="T1" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="29" t="s">
+      <c r="U1" s="27" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>45979</v>
       </c>
@@ -2810,7 +2934,7 @@
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>45980</v>
       </c>
@@ -2835,7 +2959,7 @@
       <c r="T3" s="18"/>
       <c r="U3" s="18"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>45981</v>
       </c>
@@ -2862,7 +2986,7 @@
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>45982</v>
       </c>
@@ -2899,7 +3023,7 @@
       <c r="T5" s="18"/>
       <c r="U5" s="18"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>45983</v>
       </c>
@@ -2926,7 +3050,7 @@
       <c r="T6" s="18"/>
       <c r="U6" s="18"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>45984</v>
       </c>
@@ -2953,7 +3077,7 @@
       <c r="T7" s="18"/>
       <c r="U7" s="18"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>45985</v>
       </c>
@@ -2985,7 +3109,7 @@
       <c r="T8" s="18"/>
       <c r="U8" s="18"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>45986</v>
       </c>
@@ -3010,7 +3134,7 @@
       <c r="T9" s="18"/>
       <c r="U9" s="18"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>45987</v>
       </c>
@@ -3048,7 +3172,7 @@
       <c r="T10" s="18"/>
       <c r="U10" s="18"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>45988</v>
       </c>
@@ -3075,7 +3199,7 @@
       <c r="T11" s="18"/>
       <c r="U11" s="18"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>45989</v>
       </c>
@@ -3102,7 +3226,7 @@
       <c r="T12" s="18"/>
       <c r="U12" s="18"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>45990</v>
       </c>
@@ -3131,7 +3255,7 @@
       <c r="T13" s="18"/>
       <c r="U13" s="18"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>45991</v>
       </c>
@@ -3160,7 +3284,7 @@
       <c r="T14" s="18"/>
       <c r="U14" s="18"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>45992</v>
       </c>
@@ -3191,7 +3315,7 @@
       <c r="T15" s="18"/>
       <c r="U15" s="18"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>45993</v>
       </c>
@@ -3229,7 +3353,7 @@
       <c r="T16" s="18"/>
       <c r="U16" s="18"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>45994</v>
       </c>
@@ -3260,7 +3384,7 @@
       <c r="T17" s="18"/>
       <c r="U17" s="18"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>45995</v>
       </c>
@@ -3289,7 +3413,7 @@
       <c r="T18" s="18"/>
       <c r="U18" s="18"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>45996</v>
       </c>
@@ -3321,7 +3445,7 @@
       <c r="T19" s="18"/>
       <c r="U19" s="18"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>45997</v>
       </c>
@@ -3355,7 +3479,7 @@
       <c r="T20" s="18"/>
       <c r="U20" s="18"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>45998</v>
       </c>
@@ -3382,7 +3506,7 @@
       <c r="T21" s="18"/>
       <c r="U21" s="18"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>45999</v>
       </c>
@@ -3413,7 +3537,7 @@
       <c r="T22" s="18"/>
       <c r="U22" s="18"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>46000</v>
       </c>
@@ -3442,7 +3566,7 @@
       <c r="T23" s="18"/>
       <c r="U23" s="18"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>46001</v>
       </c>
@@ -3475,7 +3599,7 @@
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>46002</v>
       </c>
@@ -3505,7 +3629,7 @@
       <c r="T25" s="18"/>
       <c r="U25" s="18"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>46003</v>
       </c>
@@ -3541,7 +3665,7 @@
       <c r="T26" s="18"/>
       <c r="U26" s="18"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>46004</v>
       </c>
@@ -3580,7 +3704,9 @@
       <c r="A28" s="6">
         <v>46005</v>
       </c>
-      <c r="B28" s="18"/>
+      <c r="B28" s="18">
+        <v>20000</v>
+      </c>
       <c r="C28" s="18"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -3588,7 +3714,9 @@
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
+      <c r="J28" s="18">
+        <v>5000</v>
+      </c>
       <c r="K28" s="18"/>
       <c r="L28" s="18"/>
       <c r="M28" s="18"/>
@@ -3603,7 +3731,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>46006</v>
       </c>
@@ -3628,7 +3756,7 @@
       <c r="T29" s="18"/>
       <c r="U29" s="18"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>46007</v>
       </c>
@@ -3653,7 +3781,7 @@
       <c r="T30" s="18"/>
       <c r="U30" s="18"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>46008</v>
       </c>
@@ -3678,7 +3806,7 @@
       <c r="T31" s="18"/>
       <c r="U31" s="18"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>46009</v>
       </c>
@@ -3703,7 +3831,7 @@
       <c r="T32" s="18"/>
       <c r="U32" s="18"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>46010</v>
       </c>
@@ -3728,7 +3856,7 @@
       <c r="T33" s="18"/>
       <c r="U33" s="18"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>46011</v>
       </c>
@@ -3753,7 +3881,7 @@
       <c r="T34" s="18"/>
       <c r="U34" s="18"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>46012</v>
       </c>
@@ -3778,7 +3906,7 @@
       <c r="T35" s="18"/>
       <c r="U35" s="18"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>46013</v>
       </c>
@@ -3803,7 +3931,7 @@
       <c r="T36" s="18"/>
       <c r="U36" s="18"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>46014</v>
       </c>
@@ -3828,7 +3956,7 @@
       <c r="T37" s="18"/>
       <c r="U37" s="18"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>46015</v>
       </c>
@@ -3853,7 +3981,7 @@
       <c r="T38" s="18"/>
       <c r="U38" s="18"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>46016</v>
       </c>
@@ -3878,7 +4006,7 @@
       <c r="T39" s="18"/>
       <c r="U39" s="18"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>46017</v>
       </c>
@@ -3903,7 +4031,7 @@
       <c r="T40" s="18"/>
       <c r="U40" s="18"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>46018</v>
       </c>
@@ -3956,7 +4084,7 @@
       </c>
       <c r="B43" s="18">
         <f t="shared" ref="B43:U43" si="0">SUM(B2:B42)</f>
-        <v>680000</v>
+        <v>700000</v>
       </c>
       <c r="C43" s="18">
         <f t="shared" si="0"/>
@@ -3988,7 +4116,7 @@
       </c>
       <c r="J43" s="18">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="K43" s="18">
         <f t="shared" si="0"/>
@@ -4062,7 +4190,13 @@
       <c r="G46" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U41" xr:uid="{2244E0B0-ACF7-443D-861C-F5014E4A339F}"/>
+  <autoFilter ref="A1:U41" xr:uid="{2244E0B0-ACF7-443D-861C-F5014E4A339F}">
+    <filterColumn colId="0">
+      <filters calendarType="gregorian">
+        <dateGroupItem year="2025" month="12" day="14" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4070,10 +4204,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81508C41-0585-4655-BAAC-78773108D623}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="J76" sqref="J76"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C18" sqref="C17:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4084,858 +4218,900 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="28" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="31"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="31"/>
+      <c r="D3" s="29"/>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="31"/>
+      <c r="D4" s="29"/>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="31"/>
+      <c r="D5" s="29"/>
     </row>
     <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="31"/>
+      <c r="D6" s="29"/>
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="31"/>
+      <c r="D7" s="29"/>
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="31"/>
+      <c r="D8" s="29"/>
     </row>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="31"/>
+      <c r="D9" s="29"/>
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="31"/>
+      <c r="D10" s="29"/>
     </row>
     <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="31"/>
+      <c r="D11" s="29"/>
     </row>
     <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="31"/>
+      <c r="D12" s="29"/>
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="31"/>
+      <c r="D13" s="29"/>
     </row>
     <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="31"/>
+      <c r="D14" s="29"/>
     </row>
     <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="31"/>
+      <c r="D15" s="29"/>
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="31"/>
+      <c r="D16" s="29"/>
     </row>
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="31"/>
+      <c r="D17" s="29"/>
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="31"/>
+      <c r="D18" s="29"/>
     </row>
     <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="31"/>
+      <c r="D19" s="29"/>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="31"/>
+      <c r="D20" s="29"/>
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="31"/>
+      <c r="D21" s="29"/>
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="31" t="s">
+      <c r="B22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="31"/>
+      <c r="D22" s="29"/>
     </row>
     <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="31"/>
+      <c r="D23" s="29"/>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="31"/>
+      <c r="D24" s="29"/>
     </row>
     <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="31"/>
+      <c r="D25" s="29"/>
     </row>
     <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="31"/>
+      <c r="D26" s="29"/>
     </row>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="31"/>
+      <c r="D27" s="29"/>
     </row>
     <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="32">
+      <c r="A28" s="30">
         <v>45669</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="31" t="s">
+      <c r="C28" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="31"/>
+      <c r="D28" s="29"/>
     </row>
     <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="32">
+      <c r="A29" s="30">
         <v>45669</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="31"/>
+      <c r="D29" s="29"/>
     </row>
     <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="32">
+      <c r="A30" s="30">
         <v>45669</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="31"/>
+      <c r="D30" s="29"/>
     </row>
     <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="32">
+      <c r="A31" s="30">
         <v>45700</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="31"/>
+      <c r="D31" s="29"/>
     </row>
     <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="32">
+      <c r="A32" s="30">
         <v>45700</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="31"/>
+      <c r="D32" s="29"/>
     </row>
     <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="32">
+      <c r="A33" s="30">
         <v>45700</v>
       </c>
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="31"/>
+      <c r="D33" s="29"/>
     </row>
     <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="32">
+      <c r="A34" s="30">
         <v>45700</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="31"/>
+      <c r="D34" s="29"/>
     </row>
     <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="32">
+      <c r="A35" s="30">
         <v>45700</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="31"/>
+      <c r="D35" s="29"/>
     </row>
     <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="32">
+      <c r="A36" s="30">
         <v>45700</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="31"/>
+      <c r="D36" s="29"/>
     </row>
     <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="32">
+      <c r="A37" s="30">
         <v>45728</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="31"/>
+      <c r="D37" s="29"/>
     </row>
     <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="32">
+      <c r="A38" s="30">
         <v>45728</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D38" s="31"/>
+      <c r="D38" s="29"/>
     </row>
     <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="32">
+      <c r="A39" s="30">
         <v>45728</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="31"/>
+      <c r="D39" s="29"/>
     </row>
     <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="32">
+      <c r="A40" s="30">
         <v>45759</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="31" t="s">
+      <c r="C40" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="31"/>
+      <c r="D40" s="29"/>
     </row>
     <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="32">
+      <c r="A41" s="30">
         <v>45759</v>
       </c>
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="31" t="s">
+      <c r="C41" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="31"/>
+      <c r="D41" s="29"/>
     </row>
     <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="32">
+      <c r="A42" s="30">
         <v>45789</v>
       </c>
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="31" t="s">
+      <c r="C42" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="31"/>
+      <c r="D42" s="29"/>
     </row>
     <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="32">
+      <c r="A43" s="30">
         <v>45789</v>
       </c>
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="31"/>
+      <c r="D43" s="29"/>
     </row>
     <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="32">
+      <c r="A44" s="30">
         <v>45789</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="31" t="s">
+      <c r="C44" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="D44" s="31"/>
+      <c r="D44" s="29"/>
     </row>
     <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="32">
+      <c r="A45" s="30">
         <v>45820</v>
       </c>
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="31" t="s">
+      <c r="C45" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="31"/>
+      <c r="D45" s="29"/>
     </row>
     <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="32">
+      <c r="A46" s="30">
         <v>45820</v>
       </c>
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="31" t="s">
+      <c r="C46" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="D46" s="31"/>
+      <c r="D46" s="29"/>
     </row>
     <row r="47" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="32">
+      <c r="A47" s="30">
         <v>45820</v>
       </c>
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="31" t="s">
+      <c r="C47" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="D47" s="31"/>
+      <c r="D47" s="29"/>
     </row>
     <row r="48" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="32">
+      <c r="A48" s="30">
         <v>45820</v>
       </c>
-      <c r="B48" s="31" t="s">
+      <c r="B48" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="C48" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="D48" s="31"/>
+      <c r="D48" s="29"/>
     </row>
     <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="32">
+      <c r="A49" s="30">
         <v>45850</v>
       </c>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="31" t="s">
+      <c r="C49" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D49" s="31"/>
+      <c r="D49" s="29"/>
     </row>
     <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="32">
+      <c r="A50" s="30">
         <v>45881</v>
       </c>
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="31" t="s">
+      <c r="C50" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="D50" s="31"/>
+      <c r="D50" s="29"/>
     </row>
     <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="32">
+      <c r="A51" s="30">
         <v>45881</v>
       </c>
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="31" t="s">
+      <c r="C51" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="D51" s="31"/>
+      <c r="D51" s="29"/>
     </row>
     <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="32">
+      <c r="A52" s="30">
         <v>45881</v>
       </c>
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D52" s="31"/>
+      <c r="D52" s="29"/>
     </row>
     <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="32">
+      <c r="A53" s="30">
         <v>45912</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="31" t="s">
+      <c r="C53" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="D53" s="31"/>
+      <c r="D53" s="29"/>
     </row>
     <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="32">
+      <c r="A54" s="30">
         <v>45912</v>
       </c>
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C54" s="31" t="s">
+      <c r="C54" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="D54" s="31"/>
+      <c r="D54" s="29"/>
     </row>
     <row r="55" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="32">
+      <c r="A55" s="30">
         <v>45942</v>
       </c>
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="31" t="s">
+      <c r="C55" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D55" s="31"/>
+      <c r="D55" s="29"/>
     </row>
     <row r="56" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="32">
+      <c r="A56" s="30">
         <v>45942</v>
       </c>
-      <c r="B56" s="31" t="s">
+      <c r="B56" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="31" t="s">
+      <c r="C56" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D56" s="31"/>
+      <c r="D56" s="29"/>
     </row>
     <row r="57" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="32">
+      <c r="A57" s="30">
         <v>45942</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C57" s="31" t="s">
+      <c r="C57" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="D57" s="31"/>
+      <c r="D57" s="29"/>
     </row>
     <row r="58" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="32">
+      <c r="A58" s="30">
         <v>45942</v>
       </c>
-      <c r="B58" s="31" t="s">
+      <c r="B58" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C58" s="31" t="s">
+      <c r="C58" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="D58" s="31"/>
+      <c r="D58" s="29"/>
     </row>
     <row r="59" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="32">
+      <c r="A59" s="30">
         <v>45973</v>
       </c>
-      <c r="B59" s="31" t="s">
+      <c r="B59" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="31" t="s">
+      <c r="C59" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D59" s="31"/>
+      <c r="D59" s="29"/>
     </row>
     <row r="60" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="32">
+      <c r="A60" s="30">
         <v>45973</v>
       </c>
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C60" s="31" t="s">
+      <c r="C60" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="D60" s="31"/>
+      <c r="D60" s="29"/>
     </row>
     <row r="61" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="32">
+      <c r="A61" s="30">
         <v>46003</v>
       </c>
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="31" t="s">
+      <c r="C61" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="D61" s="31"/>
+      <c r="D61" s="29"/>
     </row>
     <row r="62" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="32">
+      <c r="A62" s="30">
         <v>46003</v>
       </c>
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C62" s="31" t="s">
+      <c r="C62" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D62" s="31"/>
+      <c r="D62" s="29"/>
     </row>
     <row r="63" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="32">
+      <c r="A63" s="30">
         <v>46003</v>
       </c>
-      <c r="B63" s="31" t="s">
+      <c r="B63" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C63" s="31" t="s">
+      <c r="C63" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="D63" s="31"/>
+      <c r="D63" s="29"/>
     </row>
     <row r="64" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="32">
+      <c r="A64" s="30">
         <v>46003</v>
       </c>
-      <c r="B64" s="31" t="s">
+      <c r="B64" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C64" s="31" t="s">
+      <c r="C64" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="D64" s="31"/>
+      <c r="D64" s="29"/>
     </row>
     <row r="65" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="32">
+      <c r="A65" s="30">
         <v>46003</v>
       </c>
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="C65" s="31" t="s">
+      <c r="C65" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="D65" s="31"/>
+      <c r="D65" s="29"/>
     </row>
     <row r="66" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="31" t="s">
+      <c r="A66" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="31" t="s">
+      <c r="C66" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="D66" s="31"/>
+      <c r="D66" s="29"/>
     </row>
     <row r="67" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="31" t="s">
+      <c r="A67" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="B67" s="31" t="s">
+      <c r="B67" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C67" s="31" t="s">
+      <c r="C67" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D67" s="31"/>
+      <c r="D67" s="29"/>
     </row>
     <row r="68" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="31" t="s">
+      <c r="A68" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="B68" s="31" t="s">
+      <c r="B68" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C68" s="31" t="s">
+      <c r="C68" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D68" s="31"/>
+      <c r="D68" s="29"/>
     </row>
     <row r="69" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="31" t="s">
+      <c r="A69" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="B69" s="31" t="s">
+      <c r="B69" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="31" t="s">
+      <c r="C69" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="D69" s="31"/>
+      <c r="D69" s="29"/>
     </row>
     <row r="70" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="31" t="s">
+      <c r="A70" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="B70" s="31" t="s">
+      <c r="B70" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C70" s="31" t="s">
+      <c r="C70" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="D70" s="31"/>
+      <c r="D70" s="29"/>
     </row>
     <row r="71" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="31" t="s">
+      <c r="A71" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="B71" s="31" t="s">
+      <c r="B71" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C71" s="31" t="s">
+      <c r="C71" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="D71" s="31"/>
+      <c r="D71" s="29"/>
+    </row>
+    <row r="72" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="29"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="29"/>
+    </row>
+    <row r="73" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="29"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="29"/>
+    </row>
+    <row r="74" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="29"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="29"/>
+    </row>
+    <row r="75" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="29"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="29"/>
+    </row>
+    <row r="76" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="29"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="29"/>
+    </row>
+    <row r="77" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="29"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="29"/>
+    </row>
+    <row r="78" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="29"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C4C2CD-4E84-4234-9DAC-BC550CCC367C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F2F99B-B391-419A-B925-E39005D9A64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="99">
   <si>
     <t>STT</t>
   </si>
@@ -339,9 +339,6 @@
   </si>
   <si>
     <t>14/12/2025</t>
-  </si>
-  <si>
-    <t>Nạp quân Huy</t>
   </si>
 </sst>
 </file>
@@ -928,7 +925,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1725,7 +1722,7 @@
         <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="D19" s="18">
         <v>5000</v>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F2F99B-B391-419A-B925-E39005D9A64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31036E1A-44F6-46B3-83D7-0A118C0C8438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="99">
   <si>
     <t>STT</t>
   </si>
@@ -496,17 +496,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -514,13 +512,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -534,15 +528,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -578,6 +568,57 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -925,62 +966,64 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="11" width="12.140625" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" customWidth="1"/>
-    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" style="32" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12.140625" style="32" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="32" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="32" customWidth="1"/>
+    <col min="10" max="11" width="12.140625" style="32" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="32" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="32" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" style="32" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="32"/>
+    <col min="16" max="16" width="10.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -988,36 +1031,36 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="35">
         <v>350000</v>
       </c>
-      <c r="E2" s="18">
-        <v>0</v>
-      </c>
-      <c r="F2" s="18">
+      <c r="E2" s="35">
+        <v>0</v>
+      </c>
+      <c r="F2" s="35">
         <f>(D2+I2)-E2</f>
         <v>402500</v>
       </c>
-      <c r="G2" s="18">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="G2" s="35">
+        <v>0</v>
+      </c>
+      <c r="H2" s="36">
         <v>0.15</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="35">
         <f>(D2*H2)</f>
         <v>52500</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="4">
         <v>45984</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="4">
         <v>46011</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -1026,85 +1069,85 @@
       <c r="M2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="8"/>
+      <c r="Q2" s="6"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="37">
         <v>20000</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="37">
         <f>10000</f>
         <v>10000</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="37">
         <f t="shared" ref="F3" si="0">(D3+I3)-E3</f>
         <v>10000</v>
       </c>
-      <c r="G3" s="19">
-        <v>0</v>
-      </c>
-      <c r="H3" s="13">
-        <v>0</v>
-      </c>
-      <c r="I3" s="19">
+      <c r="G3" s="37">
+        <v>0</v>
+      </c>
+      <c r="H3" s="38">
+        <v>0</v>
+      </c>
+      <c r="I3" s="37">
         <f t="shared" ref="I3" si="1">D3*H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="8">
         <v>45985</v>
       </c>
-      <c r="K3" s="14"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12" t="s">
+      <c r="K3" s="8"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="8"/>
+      <c r="Q3" s="6"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="37">
         <v>30000</v>
       </c>
-      <c r="E4" s="19">
-        <v>0</v>
-      </c>
-      <c r="F4" s="19">
+      <c r="E4" s="37">
+        <v>0</v>
+      </c>
+      <c r="F4" s="37">
         <f>(D4+I4)-E4</f>
         <v>30000</v>
       </c>
-      <c r="G4" s="19">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13">
-        <v>0</v>
-      </c>
-      <c r="I4" s="19">
+      <c r="G4" s="37">
+        <v>0</v>
+      </c>
+      <c r="H4" s="38">
+        <v>0</v>
+      </c>
+      <c r="I4" s="37">
         <f>D4*H4</f>
         <v>0</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="8">
         <v>45987</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12" t="s">
+      <c r="K4" s="8"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1112,43 +1155,43 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="39">
         <v>120000</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="39">
         <f>50000-16000</f>
         <v>34000</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="39">
         <f t="shared" ref="F5" si="2">(D5+I5)-E5</f>
         <v>86000</v>
       </c>
-      <c r="G5" s="24">
-        <v>0</v>
-      </c>
-      <c r="H5" s="25">
-        <v>0</v>
-      </c>
-      <c r="I5" s="24">
+      <c r="G5" s="39">
+        <v>0</v>
+      </c>
+      <c r="H5" s="40">
+        <v>0</v>
+      </c>
+      <c r="I5" s="39">
         <f t="shared" ref="I5" si="3">D5*H5</f>
         <v>0</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="16">
         <v>45999</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="16">
         <v>46005</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="M5" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1156,36 +1199,36 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="30" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="35">
         <v>100000</v>
       </c>
-      <c r="E6" s="18">
-        <v>0</v>
-      </c>
-      <c r="F6" s="18">
+      <c r="E6" s="35">
+        <v>0</v>
+      </c>
+      <c r="F6" s="35">
         <f t="shared" ref="F6" si="4">(D6+I6)-E6</f>
         <v>100000</v>
       </c>
-      <c r="G6" s="18">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="18">
+      <c r="G6" s="35">
+        <v>0</v>
+      </c>
+      <c r="H6" s="36">
+        <v>0</v>
+      </c>
+      <c r="I6" s="35">
         <f t="shared" ref="I6" si="5">D6*H6</f>
         <v>0</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="4">
         <v>46001</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="4">
         <v>46007</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -1199,36 +1242,36 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="30" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="35">
         <v>50000</v>
       </c>
-      <c r="E7" s="18">
-        <v>0</v>
-      </c>
-      <c r="F7" s="18">
+      <c r="E7" s="35">
+        <v>0</v>
+      </c>
+      <c r="F7" s="35">
         <f>(D7+I7)-E7</f>
         <v>50000</v>
       </c>
-      <c r="G7" s="18">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="18">
+      <c r="G7" s="35">
+        <v>0</v>
+      </c>
+      <c r="H7" s="36">
+        <v>0</v>
+      </c>
+      <c r="I7" s="35">
         <f t="shared" ref="I7" si="6">D7*H7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="4">
         <v>46001</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="4">
         <v>46007</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -1242,37 +1285,37 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="30" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="35">
         <f>100000+50000</f>
         <v>150000</v>
       </c>
-      <c r="E8" s="18">
-        <v>0</v>
-      </c>
-      <c r="F8" s="18">
+      <c r="E8" s="35">
+        <v>0</v>
+      </c>
+      <c r="F8" s="35">
         <f t="shared" ref="F8:F9" si="7">(D8+I8)-E8</f>
         <v>150000</v>
       </c>
-      <c r="G8" s="18">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="18">
+      <c r="G8" s="35">
+        <v>0</v>
+      </c>
+      <c r="H8" s="36">
+        <v>0</v>
+      </c>
+      <c r="I8" s="35">
         <f t="shared" ref="I8:I9" si="8">D8*H8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="4">
         <v>46001</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="4">
         <v>46007</v>
       </c>
       <c r="L8" s="1" t="s">
@@ -1286,36 +1329,36 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="30" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="35">
         <v>50000</v>
       </c>
-      <c r="E9" s="18">
-        <v>0</v>
-      </c>
-      <c r="F9" s="18">
+      <c r="E9" s="35">
+        <v>0</v>
+      </c>
+      <c r="F9" s="35">
         <f t="shared" si="7"/>
         <v>50000</v>
       </c>
-      <c r="G9" s="18">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="18">
+      <c r="G9" s="35">
+        <v>0</v>
+      </c>
+      <c r="H9" s="36">
+        <v>0</v>
+      </c>
+      <c r="I9" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="4">
         <v>46001</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="4">
         <v>46007</v>
       </c>
       <c r="L9" s="1" t="s">
@@ -1329,38 +1372,38 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="30" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="35">
         <f>20000+20000+50000</f>
         <v>90000</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="35">
         <f>50000</f>
         <v>50000</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="35">
         <f t="shared" ref="F10" si="9">(D10+I10)-E10</f>
         <v>40000</v>
       </c>
-      <c r="G10" s="18">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="18">
+      <c r="G10" s="35">
+        <v>0</v>
+      </c>
+      <c r="H10" s="36">
+        <v>0</v>
+      </c>
+      <c r="I10" s="35">
         <f t="shared" ref="I10" si="10">D10*H10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="4">
         <v>46003</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="4">
         <v>46009</v>
       </c>
       <c r="L10" s="1" t="s">
@@ -1374,36 +1417,36 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="30" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="35">
         <v>150000</v>
       </c>
-      <c r="E11" s="18">
-        <v>0</v>
-      </c>
-      <c r="F11" s="18">
+      <c r="E11" s="35">
+        <v>0</v>
+      </c>
+      <c r="F11" s="35">
         <f t="shared" ref="F11" si="11">(D11+I11)-E11</f>
         <v>150000</v>
       </c>
-      <c r="G11" s="18">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="18">
+      <c r="G11" s="35">
+        <v>0</v>
+      </c>
+      <c r="H11" s="36">
+        <v>0</v>
+      </c>
+      <c r="I11" s="35">
         <f t="shared" ref="I11" si="12">D11*H11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="4">
         <v>46003</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="4">
         <v>46009</v>
       </c>
       <c r="L11" s="1" t="s">
@@ -1417,36 +1460,36 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="30" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="35">
         <v>340000</v>
       </c>
-      <c r="E12" s="18">
-        <v>0</v>
-      </c>
-      <c r="F12" s="18">
+      <c r="E12" s="35">
+        <v>0</v>
+      </c>
+      <c r="F12" s="35">
         <f t="shared" ref="F12" si="13">(D12+I12)-E12</f>
         <v>340000</v>
       </c>
-      <c r="G12" s="18">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="18">
+      <c r="G12" s="35">
+        <v>0</v>
+      </c>
+      <c r="H12" s="36">
+        <v>0</v>
+      </c>
+      <c r="I12" s="35">
         <f t="shared" ref="I12" si="14">D12*H12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="4">
         <v>46003</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="4">
         <v>46009</v>
       </c>
       <c r="L12" s="1" t="s">
@@ -1460,36 +1503,36 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="30" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="35">
         <v>50000</v>
       </c>
-      <c r="E13" s="18">
-        <v>0</v>
-      </c>
-      <c r="F13" s="18">
+      <c r="E13" s="35">
+        <v>0</v>
+      </c>
+      <c r="F13" s="35">
         <f t="shared" ref="F13" si="15">(D13+I13)-E13</f>
         <v>50000</v>
       </c>
-      <c r="G13" s="18">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="18">
+      <c r="G13" s="35">
+        <v>0</v>
+      </c>
+      <c r="H13" s="36">
+        <v>0</v>
+      </c>
+      <c r="I13" s="35">
         <f t="shared" ref="I13" si="16">D13*H13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="4">
         <v>46004</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="4">
         <v>46010</v>
       </c>
       <c r="L13" s="1" t="s">
@@ -1503,36 +1546,36 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="35">
         <v>20000</v>
       </c>
-      <c r="E14" s="18">
-        <v>0</v>
-      </c>
-      <c r="F14" s="18">
+      <c r="E14" s="35">
+        <v>0</v>
+      </c>
+      <c r="F14" s="35">
         <f t="shared" ref="F14:F15" si="17">(D14+I14)-E14</f>
         <v>20000</v>
       </c>
-      <c r="G14" s="18">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="18">
+      <c r="G14" s="35">
+        <v>0</v>
+      </c>
+      <c r="H14" s="36">
+        <v>0</v>
+      </c>
+      <c r="I14" s="35">
         <f t="shared" ref="I14:I15" si="18">D14*H14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="4">
         <v>46004</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="4">
         <v>46010</v>
       </c>
       <c r="L14" s="1" t="s">
@@ -1546,36 +1589,36 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="30" t="s">
         <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="35">
         <v>20000</v>
       </c>
-      <c r="E15" s="18">
-        <v>0</v>
-      </c>
-      <c r="F15" s="18">
+      <c r="E15" s="35">
+        <v>0</v>
+      </c>
+      <c r="F15" s="35">
         <f t="shared" si="17"/>
         <v>20000</v>
       </c>
-      <c r="G15" s="18">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="18">
+      <c r="G15" s="35">
+        <v>0</v>
+      </c>
+      <c r="H15" s="36">
+        <v>0</v>
+      </c>
+      <c r="I15" s="35">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="4">
         <v>46004</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="4">
         <v>46010</v>
       </c>
       <c r="L15" s="1" t="s">
@@ -1589,36 +1632,36 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="30" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="35">
         <v>100000</v>
       </c>
-      <c r="E16" s="18">
-        <v>0</v>
-      </c>
-      <c r="F16" s="18">
+      <c r="E16" s="35">
+        <v>0</v>
+      </c>
+      <c r="F16" s="35">
         <f t="shared" ref="F16" si="19">(D16+I16)-E16</f>
         <v>100000</v>
       </c>
-      <c r="G16" s="18">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="18">
+      <c r="G16" s="35">
+        <v>0</v>
+      </c>
+      <c r="H16" s="36">
+        <v>0</v>
+      </c>
+      <c r="I16" s="35">
         <f t="shared" ref="I16" si="20">D16*H16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="4">
         <v>46004</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="4">
         <v>46010</v>
       </c>
       <c r="L16" s="1" t="s">
@@ -1632,36 +1675,36 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="30" t="s">
         <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="35">
         <v>20000</v>
       </c>
-      <c r="E17" s="18">
-        <v>0</v>
-      </c>
-      <c r="F17" s="18">
+      <c r="E17" s="35">
+        <v>0</v>
+      </c>
+      <c r="F17" s="35">
         <f t="shared" ref="F17" si="21">(D17+I17)-E17</f>
         <v>20000</v>
       </c>
-      <c r="G17" s="18">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="18">
+      <c r="G17" s="35">
+        <v>0</v>
+      </c>
+      <c r="H17" s="36">
+        <v>0</v>
+      </c>
+      <c r="I17" s="35">
         <f t="shared" ref="I17" si="22">D17*H17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="4">
         <v>46005</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="4">
         <v>46011</v>
       </c>
       <c r="L17" s="1" t="s">
@@ -1675,36 +1718,36 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="30" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="35">
         <v>20000</v>
       </c>
-      <c r="E18" s="18">
-        <v>0</v>
-      </c>
-      <c r="F18" s="18">
+      <c r="E18" s="35">
+        <v>0</v>
+      </c>
+      <c r="F18" s="35">
         <f t="shared" ref="F18:F19" si="23">(D18+I18)-E18</f>
         <v>20000</v>
       </c>
-      <c r="G18" s="18">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="18">
+      <c r="G18" s="35">
+        <v>0</v>
+      </c>
+      <c r="H18" s="36">
+        <v>0</v>
+      </c>
+      <c r="I18" s="35">
         <f t="shared" ref="I18:I19" si="24">D18*H18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="4">
         <v>46005</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="4">
         <v>46011</v>
       </c>
       <c r="L18" s="1" t="s">
@@ -1718,36 +1761,36 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="35">
         <v>5000</v>
       </c>
-      <c r="E19" s="18">
-        <v>0</v>
-      </c>
-      <c r="F19" s="18">
+      <c r="E19" s="35">
+        <v>0</v>
+      </c>
+      <c r="F19" s="35">
         <f t="shared" si="23"/>
         <v>5000</v>
       </c>
-      <c r="G19" s="18">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="18">
+      <c r="G19" s="35">
+        <v>0</v>
+      </c>
+      <c r="H19" s="36">
+        <v>0</v>
+      </c>
+      <c r="I19" s="35">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="4">
         <v>46005</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="4">
         <v>46011</v>
       </c>
       <c r="L19" s="1" t="s">
@@ -1761,89 +1804,89 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" ht="24" x14ac:dyDescent="0.4">
-      <c r="B21" s="10" t="s">
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+    </row>
+    <row r="21" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="B21" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="37" t="s">
+      <c r="C21" s="42"/>
+      <c r="D21" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="20">
+      <c r="E22" s="26"/>
+      <c r="F22" s="43">
         <f>SUM(D2:D20)</f>
         <v>1685000</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="J22" s="7"/>
+      <c r="G22" s="44"/>
+      <c r="J22" s="44"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="20">
+      <c r="E23" s="26"/>
+      <c r="F23" s="43">
         <f>SUM(E2:E20)</f>
         <v>94000</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="M23" t="s">
+      <c r="G23" s="44"/>
+      <c r="M23" s="32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="20">
+      <c r="E24" s="26"/>
+      <c r="F24" s="43">
         <f>-SUM(F2:F20)</f>
         <v>-1643500</v>
       </c>
-      <c r="G24" s="7"/>
+      <c r="G24" s="44"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D26">
+      <c r="D26" s="32">
         <f>340+50+100</f>
         <v>490</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F29" s="7"/>
+      <c r="F29" s="44"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F30" s="7"/>
+      <c r="F30" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1865,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA131776-2E13-4A0E-8D22-F638A9EA7E4B}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1874,930 +1917,950 @@
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34">
+      <c r="A2" s="24">
         <v>45979</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="23">
         <v>100000</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="28" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="34">
+      <c r="A3" s="24">
         <v>45979</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="23">
         <v>100000</v>
       </c>
-      <c r="D3" s="32"/>
+      <c r="D3" s="28"/>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="34">
+      <c r="A4" s="24">
         <v>45981</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="23">
         <v>20000</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="28"/>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="34">
+      <c r="A5" s="24">
         <v>45982</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="23">
         <v>50000</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="34">
+      <c r="A6" s="24">
         <v>45982</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="23">
         <v>300000</v>
       </c>
-      <c r="D6" s="32"/>
+      <c r="D6" s="28"/>
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="34">
+      <c r="A7" s="24">
         <v>45982</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="23">
         <v>5000</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="34">
+      <c r="A8" s="24">
         <v>45982</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="23">
         <v>230000</v>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="28"/>
     </row>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="34">
+      <c r="A9" s="24">
         <v>45982</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="23">
         <v>100000</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="28"/>
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="34">
+      <c r="A10" s="24">
         <v>45982</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="23">
         <v>75000</v>
       </c>
-      <c r="D10" s="32"/>
+      <c r="D10" s="28"/>
     </row>
     <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="34">
+      <c r="A11" s="24">
         <v>45983</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="23">
         <v>250000</v>
       </c>
-      <c r="D11" s="32"/>
+      <c r="D11" s="28"/>
     </row>
     <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="34">
+      <c r="A12" s="24">
         <v>45984</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="23">
         <v>350000</v>
       </c>
-      <c r="D12" s="32"/>
+      <c r="D12" s="28"/>
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="34">
+      <c r="A13" s="24">
         <v>45985</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="23">
         <v>20000</v>
       </c>
-      <c r="D13" s="32"/>
+      <c r="D13" s="28"/>
     </row>
     <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="34">
+      <c r="A14" s="24">
         <v>45985</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="23">
         <v>130000</v>
       </c>
-      <c r="D14" s="32"/>
+      <c r="D14" s="28"/>
     </row>
     <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="34">
+      <c r="A15" s="24">
         <v>45985</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="23">
         <v>200000</v>
       </c>
-      <c r="D15" s="32"/>
+      <c r="D15" s="28"/>
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="34">
+      <c r="A16" s="24">
         <v>45987</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="23">
         <v>20000</v>
       </c>
-      <c r="D16" s="32"/>
+      <c r="D16" s="28"/>
     </row>
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="34">
+      <c r="A17" s="24">
         <v>45987</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="23">
         <v>70000</v>
       </c>
-      <c r="D17" s="32"/>
+      <c r="D17" s="28"/>
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="34">
+      <c r="A18" s="24">
         <v>45987</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="23">
         <v>50000</v>
       </c>
-      <c r="D18" s="32"/>
+      <c r="D18" s="28"/>
     </row>
     <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="34">
+      <c r="A19" s="24">
         <v>45987</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="23">
         <v>100000</v>
       </c>
-      <c r="D19" s="32"/>
+      <c r="D19" s="28"/>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="34">
+      <c r="A20" s="24">
         <v>45987</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="23">
         <v>200000</v>
       </c>
-      <c r="D20" s="32"/>
+      <c r="D20" s="28"/>
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="34">
+      <c r="A21" s="24">
         <v>45987</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="23">
         <v>180000</v>
       </c>
-      <c r="D21" s="32"/>
+      <c r="D21" s="28"/>
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="34">
+      <c r="A22" s="24">
         <v>45988</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="23">
         <v>20000</v>
       </c>
-      <c r="D22" s="32"/>
+      <c r="D22" s="28"/>
     </row>
     <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="34">
+      <c r="A23" s="24">
         <v>45989</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="23">
         <v>60000</v>
       </c>
-      <c r="D23" s="32"/>
+      <c r="D23" s="28"/>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="34">
+      <c r="A24" s="24">
         <v>45990</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="23">
         <v>175000</v>
       </c>
-      <c r="D24" s="32"/>
+      <c r="D24" s="28"/>
     </row>
     <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="34">
+      <c r="A25" s="24">
         <v>45990</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="23">
         <v>200000</v>
       </c>
-      <c r="D25" s="32"/>
+      <c r="D25" s="28"/>
     </row>
     <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="34">
+      <c r="A26" s="24">
         <v>45991</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C26" s="23">
         <v>100000</v>
       </c>
-      <c r="D26" s="32"/>
+      <c r="D26" s="28"/>
     </row>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="34">
+      <c r="A27" s="24">
         <v>45991</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C27" s="23">
         <v>270000</v>
       </c>
-      <c r="D27" s="32"/>
+      <c r="D27" s="28"/>
     </row>
     <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="34">
+      <c r="A28" s="24">
         <v>45992</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C28" s="23">
         <v>5000</v>
       </c>
-      <c r="D28" s="32"/>
+      <c r="D28" s="28"/>
     </row>
     <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="34">
+      <c r="A29" s="24">
         <v>45992</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="33">
+      <c r="C29" s="23">
         <v>5000</v>
       </c>
-      <c r="D29" s="32"/>
+      <c r="D29" s="28"/>
     </row>
     <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="34">
+      <c r="A30" s="24">
         <v>45992</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="33">
+      <c r="C30" s="23">
         <v>5000</v>
       </c>
-      <c r="D30" s="32"/>
+      <c r="D30" s="28"/>
     </row>
     <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="34">
+      <c r="A31" s="24">
         <v>45993</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="33">
+      <c r="C31" s="23">
         <v>5000</v>
       </c>
-      <c r="D31" s="32"/>
+      <c r="D31" s="28"/>
     </row>
     <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="34">
+      <c r="A32" s="24">
         <v>45993</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C32" s="23">
         <v>5000</v>
       </c>
-      <c r="D32" s="32"/>
+      <c r="D32" s="28"/>
     </row>
     <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="34">
+      <c r="A33" s="24">
         <v>45993</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C33" s="23">
         <v>5000</v>
       </c>
-      <c r="D33" s="32"/>
+      <c r="D33" s="28"/>
     </row>
     <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="34">
+      <c r="A34" s="24">
         <v>45993</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="33">
+      <c r="C34" s="23">
         <v>40000</v>
       </c>
-      <c r="D34" s="32"/>
+      <c r="D34" s="28"/>
     </row>
     <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="34">
+      <c r="A35" s="24">
         <v>45993</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="33">
+      <c r="C35" s="23">
         <v>20000</v>
       </c>
-      <c r="D35" s="32"/>
+      <c r="D35" s="28"/>
     </row>
     <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="34">
+      <c r="A36" s="24">
         <v>45993</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="33">
+      <c r="C36" s="23">
         <v>80000</v>
       </c>
-      <c r="D36" s="32"/>
+      <c r="D36" s="28"/>
     </row>
     <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="34">
+      <c r="A37" s="24">
         <v>45994</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="33">
+      <c r="C37" s="23">
         <v>100000</v>
       </c>
-      <c r="D37" s="32"/>
+      <c r="D37" s="28"/>
     </row>
     <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="34">
+      <c r="A38" s="24">
         <v>45994</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="33">
+      <c r="C38" s="23">
         <v>50000</v>
       </c>
-      <c r="D38" s="32"/>
+      <c r="D38" s="28"/>
     </row>
     <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="34">
+      <c r="A39" s="24">
         <v>45994</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="33">
+      <c r="C39" s="23">
         <v>40000</v>
       </c>
-      <c r="D39" s="32"/>
+      <c r="D39" s="28"/>
     </row>
     <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="34">
+      <c r="A40" s="24">
         <v>45995</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B40" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="33">
+      <c r="C40" s="23">
         <v>100000</v>
       </c>
-      <c r="D40" s="32"/>
+      <c r="D40" s="28"/>
     </row>
     <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="34">
+      <c r="A41" s="24">
         <v>45995</v>
       </c>
-      <c r="B41" s="32" t="s">
+      <c r="B41" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="33">
+      <c r="C41" s="23">
         <v>50000</v>
       </c>
-      <c r="D41" s="32"/>
+      <c r="D41" s="28"/>
     </row>
     <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="34">
+      <c r="A42" s="24">
         <v>45996</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C42" s="33">
+      <c r="C42" s="23">
         <v>540000</v>
       </c>
-      <c r="D42" s="32"/>
+      <c r="D42" s="28"/>
     </row>
     <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="34">
+      <c r="A43" s="24">
         <v>45996</v>
       </c>
-      <c r="B43" s="32" t="s">
+      <c r="B43" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="33">
+      <c r="C43" s="23">
         <v>5000</v>
       </c>
-      <c r="D43" s="32"/>
+      <c r="D43" s="28"/>
     </row>
     <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="34">
+      <c r="A44" s="24">
         <v>45996</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="33">
+      <c r="C44" s="23">
         <v>500000</v>
       </c>
-      <c r="D44" s="32"/>
+      <c r="D44" s="28"/>
     </row>
     <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="34">
+      <c r="A45" s="24">
         <v>45997</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="33">
+      <c r="C45" s="23">
         <v>100000</v>
       </c>
-      <c r="D45" s="32"/>
+      <c r="D45" s="28"/>
     </row>
     <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="34">
+      <c r="A46" s="24">
         <v>45997</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="33">
+      <c r="C46" s="23">
         <v>200000</v>
       </c>
-      <c r="D46" s="32"/>
+      <c r="D46" s="28"/>
     </row>
     <row r="47" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="34">
+      <c r="A47" s="24">
         <v>45997</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="33">
+      <c r="C47" s="23">
         <v>145000</v>
       </c>
-      <c r="D47" s="32"/>
+      <c r="D47" s="28"/>
     </row>
     <row r="48" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="34">
+      <c r="A48" s="24">
         <v>45997</v>
       </c>
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="33">
+      <c r="C48" s="23">
         <v>10000</v>
       </c>
-      <c r="D48" s="32"/>
+      <c r="D48" s="28"/>
     </row>
     <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="34">
+      <c r="A49" s="24">
         <v>45998</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="33">
+      <c r="C49" s="23">
         <v>100000</v>
       </c>
-      <c r="D49" s="32"/>
+      <c r="D49" s="28"/>
     </row>
     <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="34">
+      <c r="A50" s="24">
         <v>45999</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="33">
+      <c r="C50" s="23">
         <v>200000</v>
       </c>
-      <c r="D50" s="32"/>
+      <c r="D50" s="28"/>
     </row>
     <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="34">
+      <c r="A51" s="24">
         <v>45999</v>
       </c>
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="33">
+      <c r="C51" s="23">
         <v>100000</v>
       </c>
-      <c r="D51" s="32"/>
+      <c r="D51" s="28"/>
     </row>
     <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="34">
+      <c r="A52" s="24">
         <v>45999</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="33">
+      <c r="C52" s="23">
         <v>120000</v>
       </c>
-      <c r="D52" s="32"/>
+      <c r="D52" s="28"/>
     </row>
     <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="34">
+      <c r="A53" s="24">
         <v>46000</v>
       </c>
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="33">
+      <c r="C53" s="23">
         <v>200000</v>
       </c>
-      <c r="D53" s="32"/>
+      <c r="D53" s="28"/>
     </row>
     <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="34">
+      <c r="A54" s="24">
         <v>46000</v>
       </c>
-      <c r="B54" s="32" t="s">
+      <c r="B54" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C54" s="33">
+      <c r="C54" s="23">
         <v>105000</v>
       </c>
-      <c r="D54" s="32"/>
+      <c r="D54" s="28"/>
     </row>
     <row r="55" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="34">
+      <c r="A55" s="24">
         <v>46001</v>
       </c>
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="33">
+      <c r="C55" s="23">
         <v>100000</v>
       </c>
-      <c r="D55" s="32"/>
+      <c r="D55" s="28"/>
     </row>
     <row r="56" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="34">
+      <c r="A56" s="24">
         <v>46001</v>
       </c>
-      <c r="B56" s="32" t="s">
+      <c r="B56" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="33">
+      <c r="C56" s="23">
         <v>50000</v>
       </c>
-      <c r="D56" s="32"/>
+      <c r="D56" s="28"/>
     </row>
     <row r="57" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="34">
+      <c r="A57" s="24">
         <v>46001</v>
       </c>
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C57" s="33">
+      <c r="C57" s="23">
         <v>150000</v>
       </c>
-      <c r="D57" s="32"/>
+      <c r="D57" s="28"/>
     </row>
     <row r="58" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="34">
+      <c r="A58" s="24">
         <v>46001</v>
       </c>
-      <c r="B58" s="32" t="s">
+      <c r="B58" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C58" s="33">
+      <c r="C58" s="23">
         <v>20000</v>
       </c>
-      <c r="D58" s="32"/>
+      <c r="D58" s="28"/>
     </row>
     <row r="59" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="34">
+      <c r="A59" s="24">
         <v>46002</v>
       </c>
-      <c r="B59" s="32" t="s">
+      <c r="B59" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="33">
+      <c r="C59" s="23">
         <v>100000</v>
       </c>
-      <c r="D59" s="32"/>
+      <c r="D59" s="28"/>
     </row>
     <row r="60" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="34">
+      <c r="A60" s="24">
         <v>46002</v>
       </c>
-      <c r="B60" s="32" t="s">
+      <c r="B60" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C60" s="33">
+      <c r="C60" s="23">
         <v>120000</v>
       </c>
-      <c r="D60" s="32"/>
+      <c r="D60" s="28"/>
     </row>
     <row r="61" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="34">
+      <c r="A61" s="24">
         <v>46003</v>
       </c>
-      <c r="B61" s="32" t="s">
+      <c r="B61" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="33">
+      <c r="C61" s="23">
         <v>20000</v>
       </c>
-      <c r="D61" s="32"/>
+      <c r="D61" s="28"/>
     </row>
     <row r="62" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="34">
+      <c r="A62" s="24">
         <v>46003</v>
       </c>
-      <c r="B62" s="32" t="s">
+      <c r="B62" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C62" s="33">
+      <c r="C62" s="23">
         <v>50000</v>
       </c>
-      <c r="D62" s="32"/>
+      <c r="D62" s="28"/>
     </row>
     <row r="63" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="34">
+      <c r="A63" s="24">
         <v>46003</v>
       </c>
-      <c r="B63" s="32" t="s">
+      <c r="B63" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C63" s="33">
+      <c r="C63" s="23">
         <v>95000</v>
       </c>
-      <c r="D63" s="32"/>
+      <c r="D63" s="28"/>
     </row>
     <row r="64" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="34">
+      <c r="A64" s="24">
         <v>46003</v>
       </c>
-      <c r="B64" s="32" t="s">
+      <c r="B64" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C64" s="33">
+      <c r="C64" s="23">
         <v>150000</v>
       </c>
-      <c r="D64" s="32"/>
+      <c r="D64" s="28" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="65" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="34">
+      <c r="A65" s="24">
         <v>46003</v>
       </c>
-      <c r="B65" s="32" t="s">
+      <c r="B65" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C65" s="33">
+      <c r="C65" s="23">
         <v>340000</v>
       </c>
-      <c r="D65" s="32"/>
+      <c r="D65" s="28" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="66" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="34">
+      <c r="A66" s="24">
         <v>46004</v>
       </c>
-      <c r="B66" s="32" t="s">
+      <c r="B66" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C66" s="33">
+      <c r="C66" s="23">
         <v>20000</v>
       </c>
-      <c r="D66" s="32"/>
+      <c r="D66" s="28" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="67" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="34">
+      <c r="A67" s="24">
         <v>46004</v>
       </c>
-      <c r="B67" s="32" t="s">
+      <c r="B67" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="33">
+      <c r="C67" s="23">
         <v>50000</v>
       </c>
-      <c r="D67" s="32"/>
+      <c r="D67" s="28" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="68" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="34">
+      <c r="A68" s="24">
         <v>46004</v>
       </c>
-      <c r="B68" s="32" t="s">
+      <c r="B68" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C68" s="33">
+      <c r="C68" s="23">
         <v>20000</v>
       </c>
-      <c r="D68" s="32"/>
+      <c r="D68" s="28" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="69" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="34">
+      <c r="A69" s="24">
         <v>46004</v>
       </c>
-      <c r="B69" s="32" t="s">
+      <c r="B69" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="33">
+      <c r="C69" s="23">
         <v>20000</v>
       </c>
-      <c r="D69" s="32"/>
+      <c r="D69" s="28" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="70" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="34">
+      <c r="A70" s="24">
         <v>46004</v>
       </c>
-      <c r="B70" s="32" t="s">
+      <c r="B70" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C70" s="33">
+      <c r="C70" s="23">
         <v>100000</v>
       </c>
-      <c r="D70" s="32"/>
+      <c r="D70" s="28" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="71" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="34">
+      <c r="A71" s="24">
         <v>46005</v>
       </c>
-      <c r="B71" s="32" t="s">
+      <c r="B71" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C71" s="33">
+      <c r="C71" s="23">
         <v>20000</v>
       </c>
-      <c r="D71" s="32"/>
+      <c r="D71" s="28" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="72" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="34">
+      <c r="A72" s="24">
         <v>46005</v>
       </c>
-      <c r="B72" s="32" t="s">
+      <c r="B72" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C72" s="33">
+      <c r="C72" s="23">
         <v>5000</v>
       </c>
-      <c r="D72" s="32"/>
+      <c r="D72" s="28" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="73" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="34">
+      <c r="A73" s="24">
         <v>46005</v>
       </c>
-      <c r="B73" s="32" t="s">
+      <c r="B73" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C73" s="33">
+      <c r="C73" s="23">
         <v>20000</v>
       </c>
-      <c r="D73" s="32"/>
+      <c r="D73" s="28" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="74" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="34"/>
-      <c r="B74" s="32"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="32"/>
+      <c r="A74" s="24"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="28"/>
     </row>
     <row r="75" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="34"/>
-      <c r="B75" s="32"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="32"/>
+      <c r="A75" s="24"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="28"/>
     </row>
     <row r="76" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="34"/>
-      <c r="B76" s="32"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="32"/>
+      <c r="A76" s="24"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="28"/>
     </row>
     <row r="77" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="34"/>
-      <c r="B77" s="32"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="32"/>
+      <c r="A77" s="24"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="28"/>
     </row>
     <row r="78" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="34"/>
-      <c r="B78" s="32"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="32"/>
+      <c r="A78" s="24"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="28"/>
     </row>
     <row r="79" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="34"/>
-      <c r="B79" s="32"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="32"/>
+      <c r="A79" s="24"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="28"/>
     </row>
     <row r="80" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="34"/>
-      <c r="B80" s="32"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="32"/>
+      <c r="A80" s="24"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2839,1352 +2902,1352 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="U1" s="17" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="4">
         <v>45979</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="12">
         <v>100000</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12">
         <v>100000</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
     </row>
     <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>45980</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
     </row>
     <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>45981</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12">
         <v>20000</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
     </row>
     <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="4">
         <v>45982</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12">
         <v>100000</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="12">
         <v>230000</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18">
+      <c r="G5" s="12"/>
+      <c r="H5" s="12">
         <v>75000</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18">
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12">
         <v>300000</v>
       </c>
-      <c r="M5" s="18">
+      <c r="M5" s="12">
         <v>50000</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="12">
         <v>5000</v>
       </c>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
     </row>
     <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="4">
         <v>45983</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12">
         <v>250000</v>
       </c>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
     </row>
     <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="4">
         <v>45984</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12">
         <v>350000</v>
       </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
     </row>
     <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="4">
         <v>45985</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="12">
         <v>20000</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12">
         <v>130000</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18">
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12">
         <f>200000</f>
         <v>200000</v>
       </c>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
     </row>
     <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="4">
         <v>45986</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
     </row>
     <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="4">
         <v>45987</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="12">
         <v>200000</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12">
         <v>100000</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="12">
         <f>180000</f>
         <v>180000</v>
       </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18">
+      <c r="G10" s="12"/>
+      <c r="H10" s="12">
         <v>50000</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18">
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12">
         <v>20000</v>
       </c>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18">
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12">
         <v>70000</v>
       </c>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
     </row>
     <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="4">
         <v>45988</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12">
         <v>20000</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
     </row>
     <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="4">
         <v>45989</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12">
         <v>60000</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
     </row>
     <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="4">
         <v>45990</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12">
         <v>175000</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18">
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12">
         <v>200000</v>
       </c>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
     </row>
     <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="4">
         <v>45991</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12">
         <v>100000</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18">
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12">
         <v>270000</v>
       </c>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
     </row>
     <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="4">
         <v>45992</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12">
         <v>5000</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18">
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12">
         <v>5000</v>
       </c>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18">
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12">
         <v>5000</v>
       </c>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
     </row>
     <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="4">
         <v>45993</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14">
         <f>20000</f>
         <v>20000</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="14">
         <v>40000</v>
       </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21">
+      <c r="G16" s="14"/>
+      <c r="H16" s="14">
         <v>80000</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21">
+      <c r="I16" s="14"/>
+      <c r="J16" s="14">
         <v>5000</v>
       </c>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21">
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14">
         <v>5000</v>
       </c>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21">
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14">
         <v>5000</v>
       </c>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
     </row>
     <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="4">
         <v>45994</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12">
         <v>100000</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18">
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12">
         <v>50000</v>
       </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18">
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12">
         <v>40000</v>
       </c>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
     </row>
     <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="4">
         <v>45995</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12">
         <v>100000</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="12">
         <v>50000</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
     </row>
     <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="4">
         <v>45996</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12">
         <v>5000</v>
       </c>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18">
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12">
         <f>200000+300000</f>
         <v>500000</v>
       </c>
-      <c r="S19" s="18">
+      <c r="S19" s="12">
         <v>540000</v>
       </c>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
     </row>
     <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
+      <c r="A20" s="4">
         <v>45997</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="12">
         <v>100000</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18">
+      <c r="C20" s="12"/>
+      <c r="D20" s="12">
         <v>200000</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18">
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12">
         <f>45000+100000</f>
         <v>145000</v>
       </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18">
+      <c r="H20" s="12"/>
+      <c r="I20" s="12">
         <v>10000</v>
       </c>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
     </row>
     <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="4">
         <v>45998</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12">
         <v>100000</v>
       </c>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
     </row>
     <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="A22" s="4">
         <v>45999</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="12">
         <v>120000</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18">
+      <c r="C22" s="12"/>
+      <c r="D22" s="12">
         <v>200000</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="12">
         <v>100000</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
     </row>
     <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
+      <c r="A23" s="4">
         <v>46000</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12">
         <v>200000</v>
       </c>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18">
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12">
         <v>105000</v>
       </c>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
     </row>
     <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24" s="4">
         <v>46001</v>
       </c>
-      <c r="B24" s="18">
+      <c r="B24" s="12">
         <v>100000</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="12">
         <v>50000</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18">
+      <c r="D24" s="12"/>
+      <c r="E24" s="12">
         <v>150000</v>
       </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18">
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12">
         <v>20000</v>
       </c>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
     </row>
     <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="A25" s="4">
         <v>46002</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12">
         <v>100000</v>
       </c>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18">
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12">
         <f>100000+20000</f>
         <v>120000</v>
       </c>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
     </row>
     <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="4">
         <v>46003</v>
       </c>
-      <c r="B26" s="18">
+      <c r="B26" s="12">
         <v>20000</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18">
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12">
         <v>50000</v>
       </c>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18">
+      <c r="O26" s="12"/>
+      <c r="P26" s="12">
         <v>150000</v>
       </c>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18">
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12">
         <f>5000+20000+20000+50000</f>
         <v>95000</v>
       </c>
-      <c r="S26" s="18">
+      <c r="S26" s="12">
         <v>340000</v>
       </c>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
     </row>
     <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="A27" s="4">
         <v>46004</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="12">
         <v>20000</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12">
         <v>100000</v>
       </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18">
+      <c r="E27" s="12"/>
+      <c r="F27" s="12">
         <v>50000</v>
       </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18">
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12">
         <v>20000</v>
       </c>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18">
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12">
         <v>20000</v>
       </c>
-      <c r="U27" s="18"/>
+      <c r="U27" s="12"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="A28" s="4">
         <v>46005</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="12">
         <v>20000</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18">
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12">
         <v>5000</v>
       </c>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18">
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12">
         <v>20000</v>
       </c>
     </row>
     <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="A29" s="4">
         <v>46006</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
     </row>
     <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+      <c r="A30" s="4">
         <v>46007</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
     </row>
     <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6">
+      <c r="A31" s="4">
         <v>46008</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
     </row>
     <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+      <c r="A32" s="4">
         <v>46009</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
     </row>
     <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+      <c r="A33" s="4">
         <v>46010</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="18"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
     </row>
     <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+      <c r="A34" s="4">
         <v>46011</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="18"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
     </row>
     <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+      <c r="A35" s="4">
         <v>46012</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="18"/>
-      <c r="Q35" s="18"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="18"/>
-      <c r="T35" s="18"/>
-      <c r="U35" s="18"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
     </row>
     <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
+      <c r="A36" s="4">
         <v>46013</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
     </row>
     <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
+      <c r="A37" s="4">
         <v>46014</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
     </row>
     <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
+      <c r="A38" s="4">
         <v>46015</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
     </row>
     <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
+      <c r="A39" s="4">
         <v>46016</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
     </row>
     <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
+      <c r="A40" s="4">
         <v>46017</v>
       </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
     </row>
     <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
+      <c r="A41" s="4">
         <v>46018</v>
       </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="18"/>
-      <c r="U41" s="18"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20"/>
-      <c r="U42" s="20"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="18">
+      <c r="B43" s="12">
         <f t="shared" ref="B43:U43" si="0">SUM(B2:B42)</f>
         <v>700000</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="12">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D43" s="12">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="12">
         <f t="shared" si="0"/>
         <v>790000</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="12">
         <f t="shared" si="0"/>
         <v>745000</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G43" s="12">
         <f t="shared" si="0"/>
         <v>420000</v>
       </c>
-      <c r="H43" s="18">
+      <c r="H43" s="12">
         <f t="shared" si="0"/>
         <v>255000</v>
       </c>
-      <c r="I43" s="18">
+      <c r="I43" s="12">
         <f t="shared" si="0"/>
         <v>400000</v>
       </c>
-      <c r="J43" s="18">
+      <c r="J43" s="12">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="K43" s="18">
+      <c r="K43" s="12">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="L43" s="18">
+      <c r="L43" s="12">
         <f t="shared" si="0"/>
         <v>600000</v>
       </c>
-      <c r="M43" s="18">
+      <c r="M43" s="12">
         <f t="shared" si="0"/>
         <v>115000</v>
       </c>
-      <c r="N43" s="18">
+      <c r="N43" s="12">
         <f t="shared" si="0"/>
         <v>60000</v>
       </c>
-      <c r="O43" s="18">
+      <c r="O43" s="12">
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-      <c r="P43" s="18">
+      <c r="P43" s="12">
         <f t="shared" si="0"/>
         <v>350000</v>
       </c>
-      <c r="Q43" s="18">
+      <c r="Q43" s="12">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="R43" s="18">
+      <c r="R43" s="12">
         <f t="shared" si="0"/>
         <v>1385000</v>
       </c>
-      <c r="S43" s="18">
+      <c r="S43" s="12">
         <f t="shared" si="0"/>
         <v>980000</v>
       </c>
-      <c r="T43" s="18">
+      <c r="T43" s="12">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="U43" s="18">
+      <c r="U43" s="12">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="7"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:U41" xr:uid="{2244E0B0-ACF7-443D-861C-F5014E4A339F}">
@@ -4215,900 +4278,900 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="29"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="29"/>
+      <c r="D6" s="19"/>
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="29"/>
+      <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="29"/>
+      <c r="D8" s="19"/>
     </row>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="29"/>
+      <c r="D9" s="19"/>
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="29"/>
+      <c r="D11" s="19"/>
     </row>
     <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="29"/>
+      <c r="D12" s="19"/>
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="29"/>
+      <c r="D13" s="19"/>
     </row>
     <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="29"/>
+      <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="29"/>
+      <c r="D15" s="19"/>
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="29"/>
+      <c r="D16" s="19"/>
     </row>
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="29"/>
+      <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D18" s="29"/>
+      <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="29"/>
+      <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="29"/>
+      <c r="D20" s="19"/>
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="35" t="s">
+      <c r="C21" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="29"/>
+      <c r="D21" s="19"/>
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="29"/>
+      <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="29"/>
+      <c r="D23" s="19"/>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="29"/>
+      <c r="D24" s="19"/>
     </row>
     <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="29"/>
+      <c r="D25" s="19"/>
     </row>
     <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="29"/>
+      <c r="D26" s="19"/>
     </row>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="35" t="s">
+      <c r="C27" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="29"/>
+      <c r="D27" s="19"/>
     </row>
     <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="30">
+      <c r="A28" s="20">
         <v>45669</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="29"/>
+      <c r="D28" s="19"/>
     </row>
     <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="30">
+      <c r="A29" s="20">
         <v>45669</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="C29" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="29"/>
+      <c r="D29" s="19"/>
     </row>
     <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="30">
+      <c r="A30" s="20">
         <v>45669</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="35" t="s">
+      <c r="C30" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D30" s="29"/>
+      <c r="D30" s="19"/>
     </row>
     <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="30">
+      <c r="A31" s="20">
         <v>45700</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="29"/>
+      <c r="D31" s="19"/>
     </row>
     <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="30">
+      <c r="A32" s="20">
         <v>45700</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="C32" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="D32" s="29"/>
+      <c r="D32" s="19"/>
     </row>
     <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="30">
+      <c r="A33" s="20">
         <v>45700</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="35" t="s">
+      <c r="C33" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="29"/>
+      <c r="D33" s="19"/>
     </row>
     <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="30">
+      <c r="A34" s="20">
         <v>45700</v>
       </c>
-      <c r="B34" s="29" t="s">
+      <c r="B34" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="35" t="s">
+      <c r="C34" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="29"/>
+      <c r="D34" s="19"/>
     </row>
     <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="30">
+      <c r="A35" s="20">
         <v>45700</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="29"/>
+      <c r="D35" s="19"/>
     </row>
     <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="30">
+      <c r="A36" s="20">
         <v>45700</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="35" t="s">
+      <c r="C36" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D36" s="29"/>
+      <c r="D36" s="19"/>
     </row>
     <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="30">
+      <c r="A37" s="20">
         <v>45728</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="35" t="s">
+      <c r="C37" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="29"/>
+      <c r="D37" s="19"/>
     </row>
     <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="30">
+      <c r="A38" s="20">
         <v>45728</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B38" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D38" s="29"/>
+      <c r="D38" s="19"/>
     </row>
     <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="30">
+      <c r="A39" s="20">
         <v>45728</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C39" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="29"/>
+      <c r="D39" s="19"/>
     </row>
     <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="30">
+      <c r="A40" s="20">
         <v>45759</v>
       </c>
-      <c r="B40" s="29" t="s">
+      <c r="B40" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="35" t="s">
+      <c r="C40" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="29"/>
+      <c r="D40" s="19"/>
     </row>
     <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="30">
+      <c r="A41" s="20">
         <v>45759</v>
       </c>
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="29"/>
+      <c r="D41" s="19"/>
     </row>
     <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="30">
+      <c r="A42" s="20">
         <v>45789</v>
       </c>
-      <c r="B42" s="29" t="s">
+      <c r="B42" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="C42" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="29"/>
+      <c r="D42" s="19"/>
     </row>
     <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="30">
+      <c r="A43" s="20">
         <v>45789</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="35" t="s">
+      <c r="C43" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="D43" s="29"/>
+      <c r="D43" s="19"/>
     </row>
     <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="30">
+      <c r="A44" s="20">
         <v>45789</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="D44" s="29"/>
+      <c r="D44" s="19"/>
     </row>
     <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="30">
+      <c r="A45" s="20">
         <v>45820</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="29"/>
+      <c r="D45" s="19"/>
     </row>
     <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="30">
+      <c r="A46" s="20">
         <v>45820</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="35" t="s">
+      <c r="C46" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D46" s="29"/>
+      <c r="D46" s="19"/>
     </row>
     <row r="47" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="30">
+      <c r="A47" s="20">
         <v>45820</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="D47" s="29"/>
+      <c r="D47" s="19"/>
     </row>
     <row r="48" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="30">
+      <c r="A48" s="20">
         <v>45820</v>
       </c>
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="35" t="s">
+      <c r="C48" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="D48" s="29"/>
+      <c r="D48" s="19"/>
     </row>
     <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="30">
+      <c r="A49" s="20">
         <v>45850</v>
       </c>
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="35" t="s">
+      <c r="C49" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D49" s="29"/>
+      <c r="D49" s="19"/>
     </row>
     <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="30">
+      <c r="A50" s="20">
         <v>45881</v>
       </c>
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D50" s="29"/>
+      <c r="D50" s="19"/>
     </row>
     <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="30">
+      <c r="A51" s="20">
         <v>45881</v>
       </c>
-      <c r="B51" s="29" t="s">
+      <c r="B51" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C51" s="35" t="s">
+      <c r="C51" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D51" s="29"/>
+      <c r="D51" s="19"/>
     </row>
     <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="30">
+      <c r="A52" s="20">
         <v>45881</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="35" t="s">
+      <c r="C52" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D52" s="29"/>
+      <c r="D52" s="19"/>
     </row>
     <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="30">
+      <c r="A53" s="20">
         <v>45912</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="35" t="s">
+      <c r="C53" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D53" s="29"/>
+      <c r="D53" s="19"/>
     </row>
     <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="30">
+      <c r="A54" s="20">
         <v>45912</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C54" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="D54" s="29"/>
+      <c r="D54" s="19"/>
     </row>
     <row r="55" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="30">
+      <c r="A55" s="20">
         <v>45942</v>
       </c>
-      <c r="B55" s="29" t="s">
+      <c r="B55" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="35" t="s">
+      <c r="C55" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D55" s="29"/>
+      <c r="D55" s="19"/>
     </row>
     <row r="56" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="30">
+      <c r="A56" s="20">
         <v>45942</v>
       </c>
-      <c r="B56" s="29" t="s">
+      <c r="B56" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="35" t="s">
+      <c r="C56" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D56" s="29"/>
+      <c r="D56" s="19"/>
     </row>
     <row r="57" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="30">
+      <c r="A57" s="20">
         <v>45942</v>
       </c>
-      <c r="B57" s="29" t="s">
+      <c r="B57" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C57" s="35" t="s">
+      <c r="C57" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D57" s="29"/>
+      <c r="D57" s="19"/>
     </row>
     <row r="58" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="30">
+      <c r="A58" s="20">
         <v>45942</v>
       </c>
-      <c r="B58" s="29" t="s">
+      <c r="B58" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C58" s="35" t="s">
+      <c r="C58" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D58" s="29"/>
+      <c r="D58" s="19"/>
     </row>
     <row r="59" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="30">
+      <c r="A59" s="20">
         <v>45973</v>
       </c>
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="35" t="s">
+      <c r="C59" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D59" s="29"/>
+      <c r="D59" s="19"/>
     </row>
     <row r="60" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="30">
+      <c r="A60" s="20">
         <v>45973</v>
       </c>
-      <c r="B60" s="29" t="s">
+      <c r="B60" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C60" s="35" t="s">
+      <c r="C60" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D60" s="29"/>
+      <c r="D60" s="19"/>
     </row>
     <row r="61" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="30">
+      <c r="A61" s="20">
         <v>46003</v>
       </c>
-      <c r="B61" s="29" t="s">
+      <c r="B61" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="35" t="s">
+      <c r="C61" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D61" s="29"/>
+      <c r="D61" s="19"/>
     </row>
     <row r="62" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="30">
+      <c r="A62" s="20">
         <v>46003</v>
       </c>
-      <c r="B62" s="29" t="s">
+      <c r="B62" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C62" s="35" t="s">
+      <c r="C62" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D62" s="29"/>
+      <c r="D62" s="19"/>
     </row>
     <row r="63" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="30">
+      <c r="A63" s="20">
         <v>46003</v>
       </c>
-      <c r="B63" s="29" t="s">
+      <c r="B63" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C63" s="35" t="s">
+      <c r="C63" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="D63" s="29"/>
+      <c r="D63" s="19"/>
     </row>
     <row r="64" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="30">
+      <c r="A64" s="20">
         <v>46003</v>
       </c>
-      <c r="B64" s="29" t="s">
+      <c r="B64" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C64" s="35" t="s">
+      <c r="C64" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D64" s="29"/>
+      <c r="D64" s="19"/>
     </row>
     <row r="65" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="30">
+      <c r="A65" s="20">
         <v>46003</v>
       </c>
-      <c r="B65" s="29" t="s">
+      <c r="B65" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C65" s="35" t="s">
+      <c r="C65" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="D65" s="29"/>
+      <c r="D65" s="19"/>
     </row>
     <row r="66" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="29" t="s">
+      <c r="A66" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B66" s="29" t="s">
+      <c r="B66" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="35" t="s">
+      <c r="C66" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D66" s="29"/>
+      <c r="D66" s="19"/>
     </row>
     <row r="67" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="29" t="s">
+      <c r="A67" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B67" s="29" t="s">
+      <c r="B67" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C67" s="35" t="s">
+      <c r="C67" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D67" s="29"/>
+      <c r="D67" s="19"/>
     </row>
     <row r="68" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="29" t="s">
+      <c r="A68" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B68" s="29" t="s">
+      <c r="B68" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C68" s="35" t="s">
+      <c r="C68" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D68" s="29"/>
+      <c r="D68" s="19"/>
     </row>
     <row r="69" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="29" t="s">
+      <c r="A69" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B69" s="29" t="s">
+      <c r="B69" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C69" s="35" t="s">
+      <c r="C69" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D69" s="29"/>
+      <c r="D69" s="19"/>
     </row>
     <row r="70" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="29" t="s">
+      <c r="A70" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B70" s="29" t="s">
+      <c r="B70" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C70" s="35" t="s">
+      <c r="C70" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D70" s="29"/>
+      <c r="D70" s="19"/>
     </row>
     <row r="71" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="29" t="s">
+      <c r="A71" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B71" s="29" t="s">
+      <c r="B71" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="C71" s="35" t="s">
+      <c r="C71" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D71" s="29"/>
+      <c r="D71" s="19"/>
     </row>
     <row r="72" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="29"/>
-      <c r="B72" s="29"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="29"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="19"/>
     </row>
     <row r="73" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="29"/>
-      <c r="B73" s="29"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="29"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="19"/>
     </row>
     <row r="74" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="29"/>
-      <c r="B74" s="29"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="29"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="19"/>
     </row>
     <row r="75" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="29"/>
-      <c r="B75" s="29"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="29"/>
+      <c r="A75" s="19"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="19"/>
     </row>
     <row r="76" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="29"/>
-      <c r="B76" s="29"/>
-      <c r="C76" s="35"/>
-      <c r="D76" s="29"/>
+      <c r="A76" s="19"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="19"/>
     </row>
     <row r="77" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="29"/>
-      <c r="B77" s="29"/>
-      <c r="C77" s="35"/>
-      <c r="D77" s="29"/>
+      <c r="A77" s="19"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="19"/>
     </row>
     <row r="78" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="29"/>
-      <c r="B78" s="29"/>
-      <c r="C78" s="35"/>
-      <c r="D78" s="29"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31036E1A-44F6-46B3-83D7-0A118C0C8438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C751E6B-0FCC-40A6-B2C2-606EBF24F834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="100">
   <si>
     <t>STT</t>
   </si>
@@ -339,6 +339,9 @@
   </si>
   <si>
     <t>14/12/2025</t>
+  </si>
+  <si>
+    <t>Đã trả đủ</t>
   </si>
 </sst>
 </file>
@@ -409,7 +412,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,6 +434,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF4F4F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,7 +505,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -563,12 +572,6 @@
     <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
@@ -619,6 +622,27 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -963,27 +987,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="32" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="12.140625" style="32" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="32" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" style="32" customWidth="1"/>
-    <col min="10" max="11" width="12.140625" style="32" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="32" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="32" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" style="32" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="32"/>
-    <col min="16" max="16" width="10.5703125" style="32" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="32"/>
+    <col min="1" max="1" width="3.5703125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="30" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="30" customWidth="1"/>
+    <col min="10" max="11" width="12.140625" style="30" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="30" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="30" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" style="30" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="30"/>
+    <col min="16" max="16" width="10.5703125" style="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -1031,29 +1055,29 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="35">
+      <c r="D2" s="33">
         <v>350000</v>
       </c>
-      <c r="E2" s="35">
-        <v>0</v>
-      </c>
-      <c r="F2" s="35">
+      <c r="E2" s="33">
+        <v>0</v>
+      </c>
+      <c r="F2" s="33">
         <f>(D2+I2)-E2</f>
         <v>402500</v>
       </c>
-      <c r="G2" s="35">
-        <v>0</v>
-      </c>
-      <c r="H2" s="36">
+      <c r="G2" s="33">
+        <v>0</v>
+      </c>
+      <c r="H2" s="34">
         <v>0.15</v>
       </c>
-      <c r="I2" s="35">
+      <c r="I2" s="33">
         <f>(D2*H2)</f>
         <v>52500</v>
       </c>
@@ -1075,30 +1099,30 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="31" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="35">
         <v>20000</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="35">
         <f>10000</f>
         <v>10000</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="35">
         <f t="shared" ref="F3" si="0">(D3+I3)-E3</f>
         <v>10000</v>
       </c>
-      <c r="G3" s="37">
-        <v>0</v>
-      </c>
-      <c r="H3" s="38">
-        <v>0</v>
-      </c>
-      <c r="I3" s="37">
+      <c r="G3" s="35">
+        <v>0</v>
+      </c>
+      <c r="H3" s="36">
+        <v>0</v>
+      </c>
+      <c r="I3" s="35">
         <f t="shared" ref="I3" si="1">D3*H3</f>
         <v>0</v>
       </c>
@@ -1116,29 +1140,29 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="35">
         <v>30000</v>
       </c>
-      <c r="E4" s="37">
-        <v>0</v>
-      </c>
-      <c r="F4" s="37">
+      <c r="E4" s="35">
+        <v>0</v>
+      </c>
+      <c r="F4" s="35">
         <f>(D4+I4)-E4</f>
         <v>30000</v>
       </c>
-      <c r="G4" s="37">
-        <v>0</v>
-      </c>
-      <c r="H4" s="38">
-        <v>0</v>
-      </c>
-      <c r="I4" s="37">
+      <c r="G4" s="35">
+        <v>0</v>
+      </c>
+      <c r="H4" s="36">
+        <v>0</v>
+      </c>
+      <c r="I4" s="35">
         <f>D4*H4</f>
         <v>0</v>
       </c>
@@ -1155,30 +1179,30 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="37">
         <v>120000</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="37">
         <f>50000-16000</f>
         <v>34000</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="37">
         <f t="shared" ref="F5" si="2">(D5+I5)-E5</f>
         <v>86000</v>
       </c>
-      <c r="G5" s="39">
-        <v>0</v>
-      </c>
-      <c r="H5" s="40">
-        <v>0</v>
-      </c>
-      <c r="I5" s="39">
+      <c r="G5" s="37">
+        <v>0</v>
+      </c>
+      <c r="H5" s="38">
+        <v>0</v>
+      </c>
+      <c r="I5" s="37">
         <f t="shared" ref="I5" si="3">D5*H5</f>
         <v>0</v>
       </c>
@@ -1199,29 +1223,29 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="28" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="33">
         <v>100000</v>
       </c>
-      <c r="E6" s="35">
-        <v>0</v>
-      </c>
-      <c r="F6" s="35">
+      <c r="E6" s="33">
+        <v>0</v>
+      </c>
+      <c r="F6" s="33">
         <f t="shared" ref="F6" si="4">(D6+I6)-E6</f>
         <v>100000</v>
       </c>
-      <c r="G6" s="35">
-        <v>0</v>
-      </c>
-      <c r="H6" s="36">
-        <v>0</v>
-      </c>
-      <c r="I6" s="35">
+      <c r="G6" s="33">
+        <v>0</v>
+      </c>
+      <c r="H6" s="34">
+        <v>0</v>
+      </c>
+      <c r="I6" s="33">
         <f t="shared" ref="I6" si="5">D6*H6</f>
         <v>0</v>
       </c>
@@ -1242,29 +1266,29 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="28" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="33">
         <v>50000</v>
       </c>
-      <c r="E7" s="35">
-        <v>0</v>
-      </c>
-      <c r="F7" s="35">
+      <c r="E7" s="33">
+        <v>0</v>
+      </c>
+      <c r="F7" s="33">
         <f>(D7+I7)-E7</f>
         <v>50000</v>
       </c>
-      <c r="G7" s="35">
-        <v>0</v>
-      </c>
-      <c r="H7" s="36">
-        <v>0</v>
-      </c>
-      <c r="I7" s="35">
+      <c r="G7" s="33">
+        <v>0</v>
+      </c>
+      <c r="H7" s="34">
+        <v>0</v>
+      </c>
+      <c r="I7" s="33">
         <f t="shared" ref="I7" si="6">D7*H7</f>
         <v>0</v>
       </c>
@@ -1285,30 +1309,30 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="28" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="33">
         <f>100000+50000</f>
         <v>150000</v>
       </c>
-      <c r="E8" s="35">
-        <v>0</v>
-      </c>
-      <c r="F8" s="35">
+      <c r="E8" s="33">
+        <v>0</v>
+      </c>
+      <c r="F8" s="33">
         <f t="shared" ref="F8:F9" si="7">(D8+I8)-E8</f>
         <v>150000</v>
       </c>
-      <c r="G8" s="35">
-        <v>0</v>
-      </c>
-      <c r="H8" s="36">
-        <v>0</v>
-      </c>
-      <c r="I8" s="35">
+      <c r="G8" s="33">
+        <v>0</v>
+      </c>
+      <c r="H8" s="34">
+        <v>0</v>
+      </c>
+      <c r="I8" s="33">
         <f t="shared" ref="I8:I9" si="8">D8*H8</f>
         <v>0</v>
       </c>
@@ -1329,29 +1353,29 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="28" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="33">
         <v>50000</v>
       </c>
-      <c r="E9" s="35">
-        <v>0</v>
-      </c>
-      <c r="F9" s="35">
+      <c r="E9" s="33">
+        <v>0</v>
+      </c>
+      <c r="F9" s="33">
         <f t="shared" si="7"/>
         <v>50000</v>
       </c>
-      <c r="G9" s="35">
-        <v>0</v>
-      </c>
-      <c r="H9" s="36">
-        <v>0</v>
-      </c>
-      <c r="I9" s="35">
+      <c r="G9" s="33">
+        <v>0</v>
+      </c>
+      <c r="H9" s="34">
+        <v>0</v>
+      </c>
+      <c r="I9" s="33">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -1372,74 +1396,72 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="47">
         <f>20000+20000+50000</f>
         <v>90000</v>
       </c>
-      <c r="E10" s="35">
-        <f>50000</f>
-        <v>50000</v>
-      </c>
-      <c r="F10" s="35">
+      <c r="E10" s="47">
+        <f>50000+40000</f>
+        <v>90000</v>
+      </c>
+      <c r="F10" s="47">
         <f t="shared" ref="F10" si="9">(D10+I10)-E10</f>
-        <v>40000</v>
-      </c>
-      <c r="G10" s="35">
-        <v>0</v>
-      </c>
-      <c r="H10" s="36">
-        <v>0</v>
-      </c>
-      <c r="I10" s="35">
+        <v>0</v>
+      </c>
+      <c r="G10" s="47">
+        <v>0</v>
+      </c>
+      <c r="H10" s="48">
+        <v>0</v>
+      </c>
+      <c r="I10" s="47">
         <f t="shared" ref="I10" si="10">D10*H10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="49">
         <v>46003</v>
       </c>
-      <c r="K10" s="4">
-        <v>46009</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>14</v>
+      <c r="K10" s="49">
+        <v>46005</v>
+      </c>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="28" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="33">
         <v>150000</v>
       </c>
-      <c r="E11" s="35">
-        <v>0</v>
-      </c>
-      <c r="F11" s="35">
+      <c r="E11" s="33">
+        <v>0</v>
+      </c>
+      <c r="F11" s="33">
         <f t="shared" ref="F11" si="11">(D11+I11)-E11</f>
         <v>150000</v>
       </c>
-      <c r="G11" s="35">
-        <v>0</v>
-      </c>
-      <c r="H11" s="36">
-        <v>0</v>
-      </c>
-      <c r="I11" s="35">
+      <c r="G11" s="33">
+        <v>0</v>
+      </c>
+      <c r="H11" s="34">
+        <v>0</v>
+      </c>
+      <c r="I11" s="33">
         <f t="shared" ref="I11" si="12">D11*H11</f>
         <v>0</v>
       </c>
@@ -1460,29 +1482,29 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="28" t="s">
         <v>48</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="33">
         <v>340000</v>
       </c>
-      <c r="E12" s="35">
-        <v>0</v>
-      </c>
-      <c r="F12" s="35">
+      <c r="E12" s="33">
+        <v>0</v>
+      </c>
+      <c r="F12" s="33">
         <f t="shared" ref="F12" si="13">(D12+I12)-E12</f>
         <v>340000</v>
       </c>
-      <c r="G12" s="35">
-        <v>0</v>
-      </c>
-      <c r="H12" s="36">
-        <v>0</v>
-      </c>
-      <c r="I12" s="35">
+      <c r="G12" s="33">
+        <v>0</v>
+      </c>
+      <c r="H12" s="34">
+        <v>0</v>
+      </c>
+      <c r="I12" s="33">
         <f t="shared" ref="I12" si="14">D12*H12</f>
         <v>0</v>
       </c>
@@ -1503,29 +1525,29 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="28" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="33">
         <v>50000</v>
       </c>
-      <c r="E13" s="35">
-        <v>0</v>
-      </c>
-      <c r="F13" s="35">
+      <c r="E13" s="33">
+        <v>0</v>
+      </c>
+      <c r="F13" s="33">
         <f t="shared" ref="F13" si="15">(D13+I13)-E13</f>
         <v>50000</v>
       </c>
-      <c r="G13" s="35">
-        <v>0</v>
-      </c>
-      <c r="H13" s="36">
-        <v>0</v>
-      </c>
-      <c r="I13" s="35">
+      <c r="G13" s="33">
+        <v>0</v>
+      </c>
+      <c r="H13" s="34">
+        <v>0</v>
+      </c>
+      <c r="I13" s="33">
         <f t="shared" ref="I13" si="16">D13*H13</f>
         <v>0</v>
       </c>
@@ -1546,29 +1568,29 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="28" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="33">
         <v>20000</v>
       </c>
-      <c r="E14" s="35">
-        <v>0</v>
-      </c>
-      <c r="F14" s="35">
+      <c r="E14" s="33">
+        <v>0</v>
+      </c>
+      <c r="F14" s="33">
         <f t="shared" ref="F14:F15" si="17">(D14+I14)-E14</f>
         <v>20000</v>
       </c>
-      <c r="G14" s="35">
-        <v>0</v>
-      </c>
-      <c r="H14" s="36">
-        <v>0</v>
-      </c>
-      <c r="I14" s="35">
+      <c r="G14" s="33">
+        <v>0</v>
+      </c>
+      <c r="H14" s="34">
+        <v>0</v>
+      </c>
+      <c r="I14" s="33">
         <f t="shared" ref="I14:I15" si="18">D14*H14</f>
         <v>0</v>
       </c>
@@ -1589,29 +1611,29 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="28" t="s">
         <v>52</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="33">
         <v>20000</v>
       </c>
-      <c r="E15" s="35">
-        <v>0</v>
-      </c>
-      <c r="F15" s="35">
+      <c r="E15" s="33">
+        <v>0</v>
+      </c>
+      <c r="F15" s="33">
         <f t="shared" si="17"/>
         <v>20000</v>
       </c>
-      <c r="G15" s="35">
-        <v>0</v>
-      </c>
-      <c r="H15" s="36">
-        <v>0</v>
-      </c>
-      <c r="I15" s="35">
+      <c r="G15" s="33">
+        <v>0</v>
+      </c>
+      <c r="H15" s="34">
+        <v>0</v>
+      </c>
+      <c r="I15" s="33">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -1632,29 +1654,29 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="28" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="33">
         <v>100000</v>
       </c>
-      <c r="E16" s="35">
-        <v>0</v>
-      </c>
-      <c r="F16" s="35">
+      <c r="E16" s="33">
+        <v>0</v>
+      </c>
+      <c r="F16" s="33">
         <f t="shared" ref="F16" si="19">(D16+I16)-E16</f>
         <v>100000</v>
       </c>
-      <c r="G16" s="35">
-        <v>0</v>
-      </c>
-      <c r="H16" s="36">
-        <v>0</v>
-      </c>
-      <c r="I16" s="35">
+      <c r="G16" s="33">
+        <v>0</v>
+      </c>
+      <c r="H16" s="34">
+        <v>0</v>
+      </c>
+      <c r="I16" s="33">
         <f t="shared" ref="I16" si="20">D16*H16</f>
         <v>0</v>
       </c>
@@ -1675,29 +1697,29 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="28" t="s">
         <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="33">
         <v>20000</v>
       </c>
-      <c r="E17" s="35">
-        <v>0</v>
-      </c>
-      <c r="F17" s="35">
+      <c r="E17" s="33">
+        <v>0</v>
+      </c>
+      <c r="F17" s="33">
         <f t="shared" ref="F17" si="21">(D17+I17)-E17</f>
         <v>20000</v>
       </c>
-      <c r="G17" s="35">
-        <v>0</v>
-      </c>
-      <c r="H17" s="36">
-        <v>0</v>
-      </c>
-      <c r="I17" s="35">
+      <c r="G17" s="33">
+        <v>0</v>
+      </c>
+      <c r="H17" s="34">
+        <v>0</v>
+      </c>
+      <c r="I17" s="33">
         <f t="shared" ref="I17" si="22">D17*H17</f>
         <v>0</v>
       </c>
@@ -1718,29 +1740,29 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="28" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="33">
         <v>20000</v>
       </c>
-      <c r="E18" s="35">
-        <v>0</v>
-      </c>
-      <c r="F18" s="35">
+      <c r="E18" s="33">
+        <v>0</v>
+      </c>
+      <c r="F18" s="33">
         <f t="shared" ref="F18:F19" si="23">(D18+I18)-E18</f>
         <v>20000</v>
       </c>
-      <c r="G18" s="35">
-        <v>0</v>
-      </c>
-      <c r="H18" s="36">
-        <v>0</v>
-      </c>
-      <c r="I18" s="35">
+      <c r="G18" s="33">
+        <v>0</v>
+      </c>
+      <c r="H18" s="34">
+        <v>0</v>
+      </c>
+      <c r="I18" s="33">
         <f t="shared" ref="I18:I19" si="24">D18*H18</f>
         <v>0</v>
       </c>
@@ -1761,29 +1783,29 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="28" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="33">
         <v>5000</v>
       </c>
-      <c r="E19" s="35">
-        <v>0</v>
-      </c>
-      <c r="F19" s="35">
+      <c r="E19" s="33">
+        <v>0</v>
+      </c>
+      <c r="F19" s="33">
         <f t="shared" si="23"/>
         <v>5000</v>
       </c>
-      <c r="G19" s="35">
-        <v>0</v>
-      </c>
-      <c r="H19" s="36">
-        <v>0</v>
-      </c>
-      <c r="I19" s="35">
+      <c r="G19" s="33">
+        <v>0</v>
+      </c>
+      <c r="H19" s="34">
+        <v>0</v>
+      </c>
+      <c r="I19" s="33">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
@@ -1804,100 +1826,160 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-    </row>
-    <row r="21" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="B21" s="42" t="s">
+      <c r="B20" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="33">
+        <v>5000</v>
+      </c>
+      <c r="E20" s="33">
+        <v>0</v>
+      </c>
+      <c r="F20" s="33">
+        <f t="shared" ref="F20" si="25">(D20+I20)-E20</f>
+        <v>5000</v>
+      </c>
+      <c r="G20" s="33">
+        <v>0</v>
+      </c>
+      <c r="H20" s="34">
+        <v>0</v>
+      </c>
+      <c r="I20" s="33">
+        <f t="shared" ref="I20" si="26">D20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>46005</v>
+      </c>
+      <c r="K20" s="4">
+        <v>46011</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="28"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+    </row>
+    <row r="23" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="B23" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="27" t="s">
+      <c r="C23" s="40"/>
+      <c r="D23" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D22" s="26" t="s">
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D24" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="43">
-        <f>SUM(D2:D20)</f>
-        <v>1685000</v>
-      </c>
-      <c r="G22" s="44"/>
-      <c r="J22" s="44"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D23" s="26" t="s">
+      <c r="E24" s="43"/>
+      <c r="F24" s="41">
+        <f>SUM(D2:D22)</f>
+        <v>1690000</v>
+      </c>
+      <c r="G24" s="42"/>
+      <c r="J24" s="42"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D25" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="43">
-        <f>SUM(E2:E20)</f>
-        <v>94000</v>
-      </c>
-      <c r="G23" s="44"/>
-      <c r="M23" s="32" t="s">
+      <c r="E25" s="43"/>
+      <c r="F25" s="41">
+        <f>SUM(E2:E22)</f>
+        <v>134000</v>
+      </c>
+      <c r="G25" s="42"/>
+      <c r="M25" s="30" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D24" s="26" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D26" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="43">
-        <f>-SUM(F2:F20)</f>
-        <v>-1643500</v>
-      </c>
-      <c r="G24" s="44"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D26" s="32">
+      <c r="E26" s="43"/>
+      <c r="F26" s="41">
+        <f>-SUM(F2:F22)</f>
+        <v>-1608500</v>
+      </c>
+      <c r="G26" s="42"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D28" s="30">
         <f>340+50+100</f>
         <v>490</v>
       </c>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F29" s="44"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F30" s="44"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F31" s="42"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F32" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D23:G23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D21" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
+    <hyperlink ref="D23" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1917,7 +1999,7 @@
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -1944,7 +2026,7 @@
       <c r="C2" s="23">
         <v>100000</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="26" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1958,7 +2040,7 @@
       <c r="C3" s="23">
         <v>100000</v>
       </c>
-      <c r="D3" s="28"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
@@ -1970,7 +2052,7 @@
       <c r="C4" s="23">
         <v>20000</v>
       </c>
-      <c r="D4" s="28"/>
+      <c r="D4" s="26"/>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
@@ -1982,7 +2064,7 @@
       <c r="C5" s="23">
         <v>50000</v>
       </c>
-      <c r="D5" s="28"/>
+      <c r="D5" s="26"/>
     </row>
     <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
@@ -1994,7 +2076,7 @@
       <c r="C6" s="23">
         <v>300000</v>
       </c>
-      <c r="D6" s="28"/>
+      <c r="D6" s="26"/>
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
@@ -2006,7 +2088,7 @@
       <c r="C7" s="23">
         <v>5000</v>
       </c>
-      <c r="D7" s="28"/>
+      <c r="D7" s="26"/>
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
@@ -2018,7 +2100,7 @@
       <c r="C8" s="23">
         <v>230000</v>
       </c>
-      <c r="D8" s="28"/>
+      <c r="D8" s="26"/>
     </row>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
@@ -2030,7 +2112,7 @@
       <c r="C9" s="23">
         <v>100000</v>
       </c>
-      <c r="D9" s="28"/>
+      <c r="D9" s="26"/>
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
@@ -2042,7 +2124,7 @@
       <c r="C10" s="23">
         <v>75000</v>
       </c>
-      <c r="D10" s="28"/>
+      <c r="D10" s="26"/>
     </row>
     <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
@@ -2054,7 +2136,7 @@
       <c r="C11" s="23">
         <v>250000</v>
       </c>
-      <c r="D11" s="28"/>
+      <c r="D11" s="26"/>
     </row>
     <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
@@ -2066,7 +2148,7 @@
       <c r="C12" s="23">
         <v>350000</v>
       </c>
-      <c r="D12" s="28"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
@@ -2078,7 +2160,7 @@
       <c r="C13" s="23">
         <v>20000</v>
       </c>
-      <c r="D13" s="28"/>
+      <c r="D13" s="26"/>
     </row>
     <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
@@ -2090,7 +2172,7 @@
       <c r="C14" s="23">
         <v>130000</v>
       </c>
-      <c r="D14" s="28"/>
+      <c r="D14" s="26"/>
     </row>
     <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
@@ -2102,7 +2184,7 @@
       <c r="C15" s="23">
         <v>200000</v>
       </c>
-      <c r="D15" s="28"/>
+      <c r="D15" s="26"/>
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
@@ -2114,7 +2196,7 @@
       <c r="C16" s="23">
         <v>20000</v>
       </c>
-      <c r="D16" s="28"/>
+      <c r="D16" s="26"/>
     </row>
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
@@ -2126,7 +2208,7 @@
       <c r="C17" s="23">
         <v>70000</v>
       </c>
-      <c r="D17" s="28"/>
+      <c r="D17" s="26"/>
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
@@ -2138,7 +2220,7 @@
       <c r="C18" s="23">
         <v>50000</v>
       </c>
-      <c r="D18" s="28"/>
+      <c r="D18" s="26"/>
     </row>
     <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
@@ -2150,7 +2232,7 @@
       <c r="C19" s="23">
         <v>100000</v>
       </c>
-      <c r="D19" s="28"/>
+      <c r="D19" s="26"/>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
@@ -2162,7 +2244,7 @@
       <c r="C20" s="23">
         <v>200000</v>
       </c>
-      <c r="D20" s="28"/>
+      <c r="D20" s="26"/>
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
@@ -2174,7 +2256,7 @@
       <c r="C21" s="23">
         <v>180000</v>
       </c>
-      <c r="D21" s="28"/>
+      <c r="D21" s="26"/>
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
@@ -2186,7 +2268,7 @@
       <c r="C22" s="23">
         <v>20000</v>
       </c>
-      <c r="D22" s="28"/>
+      <c r="D22" s="26"/>
     </row>
     <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
@@ -2198,7 +2280,7 @@
       <c r="C23" s="23">
         <v>60000</v>
       </c>
-      <c r="D23" s="28"/>
+      <c r="D23" s="26"/>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
@@ -2210,7 +2292,7 @@
       <c r="C24" s="23">
         <v>175000</v>
       </c>
-      <c r="D24" s="28"/>
+      <c r="D24" s="26"/>
     </row>
     <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
@@ -2222,7 +2304,7 @@
       <c r="C25" s="23">
         <v>200000</v>
       </c>
-      <c r="D25" s="28"/>
+      <c r="D25" s="26"/>
     </row>
     <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
@@ -2234,7 +2316,7 @@
       <c r="C26" s="23">
         <v>100000</v>
       </c>
-      <c r="D26" s="28"/>
+      <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
@@ -2246,7 +2328,7 @@
       <c r="C27" s="23">
         <v>270000</v>
       </c>
-      <c r="D27" s="28"/>
+      <c r="D27" s="26"/>
     </row>
     <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
@@ -2258,7 +2340,7 @@
       <c r="C28" s="23">
         <v>5000</v>
       </c>
-      <c r="D28" s="28"/>
+      <c r="D28" s="26"/>
     </row>
     <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
@@ -2270,7 +2352,7 @@
       <c r="C29" s="23">
         <v>5000</v>
       </c>
-      <c r="D29" s="28"/>
+      <c r="D29" s="26"/>
     </row>
     <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
@@ -2282,7 +2364,7 @@
       <c r="C30" s="23">
         <v>5000</v>
       </c>
-      <c r="D30" s="28"/>
+      <c r="D30" s="26"/>
     </row>
     <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
@@ -2294,7 +2376,7 @@
       <c r="C31" s="23">
         <v>5000</v>
       </c>
-      <c r="D31" s="28"/>
+      <c r="D31" s="26"/>
     </row>
     <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
@@ -2306,7 +2388,7 @@
       <c r="C32" s="23">
         <v>5000</v>
       </c>
-      <c r="D32" s="28"/>
+      <c r="D32" s="26"/>
     </row>
     <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
@@ -2318,7 +2400,7 @@
       <c r="C33" s="23">
         <v>5000</v>
       </c>
-      <c r="D33" s="28"/>
+      <c r="D33" s="26"/>
     </row>
     <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
@@ -2330,7 +2412,7 @@
       <c r="C34" s="23">
         <v>40000</v>
       </c>
-      <c r="D34" s="28"/>
+      <c r="D34" s="26"/>
     </row>
     <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
@@ -2342,7 +2424,7 @@
       <c r="C35" s="23">
         <v>20000</v>
       </c>
-      <c r="D35" s="28"/>
+      <c r="D35" s="26"/>
     </row>
     <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
@@ -2354,7 +2436,7 @@
       <c r="C36" s="23">
         <v>80000</v>
       </c>
-      <c r="D36" s="28"/>
+      <c r="D36" s="26"/>
     </row>
     <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
@@ -2366,7 +2448,7 @@
       <c r="C37" s="23">
         <v>100000</v>
       </c>
-      <c r="D37" s="28"/>
+      <c r="D37" s="26"/>
     </row>
     <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
@@ -2378,7 +2460,7 @@
       <c r="C38" s="23">
         <v>50000</v>
       </c>
-      <c r="D38" s="28"/>
+      <c r="D38" s="26"/>
     </row>
     <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
@@ -2390,7 +2472,7 @@
       <c r="C39" s="23">
         <v>40000</v>
       </c>
-      <c r="D39" s="28"/>
+      <c r="D39" s="26"/>
     </row>
     <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
@@ -2402,7 +2484,7 @@
       <c r="C40" s="23">
         <v>100000</v>
       </c>
-      <c r="D40" s="28"/>
+      <c r="D40" s="26"/>
     </row>
     <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
@@ -2414,7 +2496,7 @@
       <c r="C41" s="23">
         <v>50000</v>
       </c>
-      <c r="D41" s="28"/>
+      <c r="D41" s="26"/>
     </row>
     <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
@@ -2426,7 +2508,7 @@
       <c r="C42" s="23">
         <v>540000</v>
       </c>
-      <c r="D42" s="28"/>
+      <c r="D42" s="26"/>
     </row>
     <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
@@ -2438,7 +2520,7 @@
       <c r="C43" s="23">
         <v>5000</v>
       </c>
-      <c r="D43" s="28"/>
+      <c r="D43" s="26"/>
     </row>
     <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
@@ -2450,7 +2532,7 @@
       <c r="C44" s="23">
         <v>500000</v>
       </c>
-      <c r="D44" s="28"/>
+      <c r="D44" s="26"/>
     </row>
     <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
@@ -2462,7 +2544,7 @@
       <c r="C45" s="23">
         <v>100000</v>
       </c>
-      <c r="D45" s="28"/>
+      <c r="D45" s="26"/>
     </row>
     <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
@@ -2474,7 +2556,7 @@
       <c r="C46" s="23">
         <v>200000</v>
       </c>
-      <c r="D46" s="28"/>
+      <c r="D46" s="26"/>
     </row>
     <row r="47" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
@@ -2486,7 +2568,7 @@
       <c r="C47" s="23">
         <v>145000</v>
       </c>
-      <c r="D47" s="28"/>
+      <c r="D47" s="26"/>
     </row>
     <row r="48" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
@@ -2498,7 +2580,7 @@
       <c r="C48" s="23">
         <v>10000</v>
       </c>
-      <c r="D48" s="28"/>
+      <c r="D48" s="26"/>
     </row>
     <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A49" s="24">
@@ -2510,7 +2592,7 @@
       <c r="C49" s="23">
         <v>100000</v>
       </c>
-      <c r="D49" s="28"/>
+      <c r="D49" s="26"/>
     </row>
     <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
@@ -2522,7 +2604,7 @@
       <c r="C50" s="23">
         <v>200000</v>
       </c>
-      <c r="D50" s="28"/>
+      <c r="D50" s="26"/>
     </row>
     <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
@@ -2534,7 +2616,7 @@
       <c r="C51" s="23">
         <v>100000</v>
       </c>
-      <c r="D51" s="28"/>
+      <c r="D51" s="26"/>
     </row>
     <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
@@ -2546,7 +2628,7 @@
       <c r="C52" s="23">
         <v>120000</v>
       </c>
-      <c r="D52" s="28"/>
+      <c r="D52" s="26"/>
     </row>
     <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
@@ -2558,7 +2640,7 @@
       <c r="C53" s="23">
         <v>200000</v>
       </c>
-      <c r="D53" s="28"/>
+      <c r="D53" s="26"/>
     </row>
     <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
@@ -2570,7 +2652,7 @@
       <c r="C54" s="23">
         <v>105000</v>
       </c>
-      <c r="D54" s="28"/>
+      <c r="D54" s="26"/>
     </row>
     <row r="55" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
@@ -2582,7 +2664,7 @@
       <c r="C55" s="23">
         <v>100000</v>
       </c>
-      <c r="D55" s="28"/>
+      <c r="D55" s="26"/>
     </row>
     <row r="56" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
@@ -2594,7 +2676,7 @@
       <c r="C56" s="23">
         <v>50000</v>
       </c>
-      <c r="D56" s="28"/>
+      <c r="D56" s="26"/>
     </row>
     <row r="57" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
@@ -2606,7 +2688,7 @@
       <c r="C57" s="23">
         <v>150000</v>
       </c>
-      <c r="D57" s="28"/>
+      <c r="D57" s="26"/>
     </row>
     <row r="58" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
@@ -2618,7 +2700,7 @@
       <c r="C58" s="23">
         <v>20000</v>
       </c>
-      <c r="D58" s="28"/>
+      <c r="D58" s="26"/>
     </row>
     <row r="59" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
@@ -2630,7 +2712,7 @@
       <c r="C59" s="23">
         <v>100000</v>
       </c>
-      <c r="D59" s="28"/>
+      <c r="D59" s="26"/>
     </row>
     <row r="60" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
@@ -2642,7 +2724,7 @@
       <c r="C60" s="23">
         <v>120000</v>
       </c>
-      <c r="D60" s="28"/>
+      <c r="D60" s="26"/>
     </row>
     <row r="61" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
@@ -2654,7 +2736,7 @@
       <c r="C61" s="23">
         <v>20000</v>
       </c>
-      <c r="D61" s="28"/>
+      <c r="D61" s="26"/>
     </row>
     <row r="62" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A62" s="24">
@@ -2666,7 +2748,7 @@
       <c r="C62" s="23">
         <v>50000</v>
       </c>
-      <c r="D62" s="28"/>
+      <c r="D62" s="26"/>
     </row>
     <row r="63" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A63" s="24">
@@ -2678,7 +2760,7 @@
       <c r="C63" s="23">
         <v>95000</v>
       </c>
-      <c r="D63" s="28"/>
+      <c r="D63" s="26"/>
     </row>
     <row r="64" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A64" s="24">
@@ -2690,7 +2772,7 @@
       <c r="C64" s="23">
         <v>150000</v>
       </c>
-      <c r="D64" s="28" t="s">
+      <c r="D64" s="26" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2704,7 +2786,7 @@
       <c r="C65" s="23">
         <v>340000</v>
       </c>
-      <c r="D65" s="28" t="s">
+      <c r="D65" s="26" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2718,7 +2800,7 @@
       <c r="C66" s="23">
         <v>20000</v>
       </c>
-      <c r="D66" s="28" t="s">
+      <c r="D66" s="26" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2732,7 +2814,7 @@
       <c r="C67" s="23">
         <v>50000</v>
       </c>
-      <c r="D67" s="28" t="s">
+      <c r="D67" s="26" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2746,7 +2828,7 @@
       <c r="C68" s="23">
         <v>20000</v>
       </c>
-      <c r="D68" s="28" t="s">
+      <c r="D68" s="26" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2760,7 +2842,7 @@
       <c r="C69" s="23">
         <v>20000</v>
       </c>
-      <c r="D69" s="28" t="s">
+      <c r="D69" s="26" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2774,7 +2856,7 @@
       <c r="C70" s="23">
         <v>100000</v>
       </c>
-      <c r="D70" s="28" t="s">
+      <c r="D70" s="26" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2788,7 +2870,7 @@
       <c r="C71" s="23">
         <v>20000</v>
       </c>
-      <c r="D71" s="28" t="s">
+      <c r="D71" s="26" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2802,7 +2884,7 @@
       <c r="C72" s="23">
         <v>5000</v>
       </c>
-      <c r="D72" s="28" t="s">
+      <c r="D72" s="26" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2816,7 +2898,7 @@
       <c r="C73" s="23">
         <v>20000</v>
       </c>
-      <c r="D73" s="28" t="s">
+      <c r="D73" s="26" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2824,43 +2906,43 @@
       <c r="A74" s="24"/>
       <c r="B74" s="22"/>
       <c r="C74" s="23"/>
-      <c r="D74" s="28"/>
+      <c r="D74" s="26"/>
     </row>
     <row r="75" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A75" s="24"/>
       <c r="B75" s="22"/>
       <c r="C75" s="23"/>
-      <c r="D75" s="28"/>
+      <c r="D75" s="26"/>
     </row>
     <row r="76" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A76" s="24"/>
       <c r="B76" s="22"/>
       <c r="C76" s="23"/>
-      <c r="D76" s="28"/>
+      <c r="D76" s="26"/>
     </row>
     <row r="77" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A77" s="24"/>
       <c r="B77" s="22"/>
       <c r="C77" s="23"/>
-      <c r="D77" s="28"/>
+      <c r="D77" s="26"/>
     </row>
     <row r="78" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A78" s="24"/>
       <c r="B78" s="22"/>
       <c r="C78" s="23"/>
-      <c r="D78" s="28"/>
+      <c r="D78" s="26"/>
     </row>
     <row r="79" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A79" s="24"/>
       <c r="B79" s="22"/>
       <c r="C79" s="23"/>
-      <c r="D79" s="28"/>
+      <c r="D79" s="26"/>
     </row>
     <row r="80" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A80" s="24"/>
       <c r="B80" s="22"/>
       <c r="C80" s="23"/>
-      <c r="D80" s="28"/>
+      <c r="D80" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C751E6B-0FCC-40A6-B2C2-606EBF24F834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA78023-DC2B-4AAA-96E3-092AC162EAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="100">
   <si>
     <t>STT</t>
   </si>
@@ -623,12 +623,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -643,6 +637,12 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -990,7 +990,7 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,42 +1396,42 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="47">
+      <c r="D10" s="45">
         <f>20000+20000+50000</f>
         <v>90000</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="45">
         <f>50000+40000</f>
         <v>90000</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="45">
         <f t="shared" ref="F10" si="9">(D10+I10)-E10</f>
         <v>0</v>
       </c>
-      <c r="G10" s="47">
-        <v>0</v>
-      </c>
-      <c r="H10" s="48">
-        <v>0</v>
-      </c>
-      <c r="I10" s="47">
+      <c r="G10" s="45">
+        <v>0</v>
+      </c>
+      <c r="H10" s="46">
+        <v>0</v>
+      </c>
+      <c r="I10" s="45">
         <f t="shared" ref="I10" si="10">D10*H10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="49">
+      <c r="J10" s="47">
         <v>46003</v>
       </c>
-      <c r="K10" s="49">
+      <c r="K10" s="47">
         <v>46005</v>
       </c>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46" t="s">
+      <c r="L10" s="44"/>
+      <c r="M10" s="44" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1869,18 +1869,42 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="B21" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="45">
+        <v>50000</v>
+      </c>
+      <c r="E21" s="45">
+        <v>50000</v>
+      </c>
+      <c r="F21" s="45">
+        <f t="shared" ref="F21" si="27">(D21+I21)-E21</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="45">
+        <v>0</v>
+      </c>
+      <c r="H21" s="46">
+        <v>0</v>
+      </c>
+      <c r="I21" s="45">
+        <f t="shared" ref="I21" si="28">D21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="47">
+        <v>46004</v>
+      </c>
+      <c r="K21" s="47">
+        <v>46005</v>
+      </c>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -1904,33 +1928,33 @@
         <v>33</v>
       </c>
       <c r="C23" s="40"/>
-      <c r="D23" s="44" t="s">
+      <c r="D23" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="43"/>
+      <c r="E24" s="48"/>
       <c r="F24" s="41">
         <f>SUM(D2:D22)</f>
-        <v>1690000</v>
+        <v>1740000</v>
       </c>
       <c r="G24" s="42"/>
       <c r="J24" s="42"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="43"/>
+      <c r="E25" s="48"/>
       <c r="F25" s="41">
         <f>SUM(E2:E22)</f>
-        <v>134000</v>
+        <v>184000</v>
       </c>
       <c r="G25" s="42"/>
       <c r="M25" s="30" t="s">
@@ -1938,10 +1962,10 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="43"/>
+      <c r="E26" s="48"/>
       <c r="F26" s="41">
         <f>-SUM(F2:F22)</f>
         <v>-1608500</v>
@@ -1988,10 +2012,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA131776-2E13-4A0E-8D22-F638A9EA7E4B}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2862,16 +2886,16 @@
     </row>
     <row r="71" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A71" s="24">
-        <v>46005</v>
+        <v>46004</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="C71" s="23">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -2879,13 +2903,13 @@
         <v>46005</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C72" s="23">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="D72" s="26" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -2893,20 +2917,28 @@
         <v>46005</v>
       </c>
       <c r="B73" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C73" s="23">
+        <v>5000</v>
+      </c>
+      <c r="D73" s="26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="24">
+        <v>46005</v>
+      </c>
+      <c r="B74" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C73" s="23">
+      <c r="C74" s="23">
         <v>20000</v>
       </c>
-      <c r="D73" s="26" t="s">
+      <c r="D74" s="26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="24"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="26"/>
     </row>
     <row r="75" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A75" s="24"/>
@@ -2943,6 +2975,12 @@
       <c r="B80" s="22"/>
       <c r="C80" s="23"/>
       <c r="D80" s="26"/>
+    </row>
+    <row r="81" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="24"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2951,12 +2989,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2244E0B0-ACF7-443D-861C-F5014E4A339F}">
-  <sheetPr codeName="Sheet3" filterMode="1"/>
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3048,7 +3086,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45979</v>
       </c>
@@ -3076,7 +3114,7 @@
       <c r="T2" s="12"/>
       <c r="U2" s="12"/>
     </row>
-    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45980</v>
       </c>
@@ -3101,7 +3139,7 @@
       <c r="T3" s="12"/>
       <c r="U3" s="12"/>
     </row>
-    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45981</v>
       </c>
@@ -3128,7 +3166,7 @@
       <c r="T4" s="12"/>
       <c r="U4" s="12"/>
     </row>
-    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45982</v>
       </c>
@@ -3165,7 +3203,7 @@
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
     </row>
-    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45983</v>
       </c>
@@ -3192,7 +3230,7 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
     </row>
-    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45984</v>
       </c>
@@ -3219,7 +3257,7 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
     </row>
-    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>45985</v>
       </c>
@@ -3251,7 +3289,7 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
     </row>
-    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45986</v>
       </c>
@@ -3276,7 +3314,7 @@
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
     </row>
-    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45987</v>
       </c>
@@ -3314,7 +3352,7 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
     </row>
-    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45988</v>
       </c>
@@ -3341,7 +3379,7 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
     </row>
-    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>45989</v>
       </c>
@@ -3368,7 +3406,7 @@
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
     </row>
-    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45990</v>
       </c>
@@ -3397,7 +3435,7 @@
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
     </row>
-    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45991</v>
       </c>
@@ -3426,7 +3464,7 @@
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
     </row>
-    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45992</v>
       </c>
@@ -3457,7 +3495,7 @@
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
     </row>
-    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>45993</v>
       </c>
@@ -3495,7 +3533,7 @@
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
     </row>
-    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45994</v>
       </c>
@@ -3526,7 +3564,7 @@
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
     </row>
-    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45995</v>
       </c>
@@ -3555,7 +3593,7 @@
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
     </row>
-    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45996</v>
       </c>
@@ -3587,7 +3625,7 @@
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
     </row>
-    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>45997</v>
       </c>
@@ -3621,7 +3659,7 @@
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
     </row>
-    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>45998</v>
       </c>
@@ -3648,7 +3686,7 @@
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
     </row>
-    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45999</v>
       </c>
@@ -3679,7 +3717,7 @@
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
     </row>
-    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>46000</v>
       </c>
@@ -3708,7 +3746,7 @@
       <c r="T23" s="12"/>
       <c r="U23" s="12"/>
     </row>
-    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>46001</v>
       </c>
@@ -3741,7 +3779,7 @@
       <c r="T24" s="12"/>
       <c r="U24" s="12"/>
     </row>
-    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>46002</v>
       </c>
@@ -3771,7 +3809,7 @@
       <c r="T25" s="12"/>
       <c r="U25" s="12"/>
     </row>
-    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>46003</v>
       </c>
@@ -3807,7 +3845,7 @@
       <c r="T26" s="12"/>
       <c r="U26" s="12"/>
     </row>
-    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>46004</v>
       </c>
@@ -3822,7 +3860,9 @@
       <c r="F27" s="12">
         <v>50000</v>
       </c>
-      <c r="G27" s="12"/>
+      <c r="G27" s="12">
+        <v>50000</v>
+      </c>
       <c r="H27" s="12"/>
       <c r="I27" s="12">
         <v>20000</v>
@@ -3873,7 +3913,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>46006</v>
       </c>
@@ -3898,7 +3938,7 @@
       <c r="T29" s="12"/>
       <c r="U29" s="12"/>
     </row>
-    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>46007</v>
       </c>
@@ -3923,7 +3963,7 @@
       <c r="T30" s="12"/>
       <c r="U30" s="12"/>
     </row>
-    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>46008</v>
       </c>
@@ -3948,7 +3988,7 @@
       <c r="T31" s="12"/>
       <c r="U31" s="12"/>
     </row>
-    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>46009</v>
       </c>
@@ -3973,7 +4013,7 @@
       <c r="T32" s="12"/>
       <c r="U32" s="12"/>
     </row>
-    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>46010</v>
       </c>
@@ -3998,7 +4038,7 @@
       <c r="T33" s="12"/>
       <c r="U33" s="12"/>
     </row>
-    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>46011</v>
       </c>
@@ -4023,7 +4063,7 @@
       <c r="T34" s="12"/>
       <c r="U34" s="12"/>
     </row>
-    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>46012</v>
       </c>
@@ -4048,7 +4088,7 @@
       <c r="T35" s="12"/>
       <c r="U35" s="12"/>
     </row>
-    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>46013</v>
       </c>
@@ -4073,7 +4113,7 @@
       <c r="T36" s="12"/>
       <c r="U36" s="12"/>
     </row>
-    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>46014</v>
       </c>
@@ -4098,7 +4138,7 @@
       <c r="T37" s="12"/>
       <c r="U37" s="12"/>
     </row>
-    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>46015</v>
       </c>
@@ -4123,7 +4163,7 @@
       <c r="T38" s="12"/>
       <c r="U38" s="12"/>
     </row>
-    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>46016</v>
       </c>
@@ -4148,7 +4188,7 @@
       <c r="T39" s="12"/>
       <c r="U39" s="12"/>
     </row>
-    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>46017</v>
       </c>
@@ -4173,7 +4213,7 @@
       <c r="T40" s="12"/>
       <c r="U40" s="12"/>
     </row>
-    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>46018</v>
       </c>
@@ -4246,7 +4286,7 @@
       </c>
       <c r="G43" s="12">
         <f t="shared" si="0"/>
-        <v>420000</v>
+        <v>470000</v>
       </c>
       <c r="H43" s="12">
         <f t="shared" si="0"/>
@@ -4332,13 +4372,7 @@
       <c r="G46" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U41" xr:uid="{2244E0B0-ACF7-443D-861C-F5014E4A339F}">
-    <filterColumn colId="0">
-      <filters calendarType="gregorian">
-        <dateGroupItem year="2025" month="12" day="14" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:U41" xr:uid="{2244E0B0-ACF7-443D-861C-F5014E4A339F}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA78023-DC2B-4AAA-96E3-092AC162EAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0387CB-8524-4BF2-ACB6-B4C1A9F243D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="101">
   <si>
     <t>STT</t>
   </si>
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t>Đã trả đủ</t>
+  </si>
+  <si>
+    <t>BỎ</t>
   </si>
 </sst>
 </file>
@@ -354,7 +357,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0.000\ [$₫-42A]_-;\-* #,##0.000\ [$₫-42A]_-;_-* &quot;-&quot;???\ [$₫-42A]_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0\ [$₫-42A]_-;\-* #,##0\ [$₫-42A]_-;_-* &quot;-&quot;\ [$₫-42A]_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,6 +414,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="150"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -444,7 +454,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -500,12 +510,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -643,6 +662,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -987,10 +1018,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,7 +1029,9 @@
     <col min="1" max="1" width="3.5703125" style="30" customWidth="1"/>
     <col min="2" max="2" width="31.140625" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="5" width="12.140625" style="30" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" style="30" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" style="30" customWidth="1"/>
     <col min="10" max="11" width="12.140625" style="30" customWidth="1"/>
@@ -1882,7 +1915,7 @@
         <v>50000</v>
       </c>
       <c r="F21" s="45">
-        <f t="shared" ref="F21" si="27">(D21+I21)-E21</f>
+        <f t="shared" ref="F21:F22" si="27">(D21+I21)-E21</f>
         <v>0</v>
       </c>
       <c r="G21" s="45">
@@ -1892,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="45">
-        <f t="shared" ref="I21" si="28">D21*H21</f>
+        <f t="shared" ref="I21:I22" si="28">D21*H21</f>
         <v>0</v>
       </c>
       <c r="J21" s="47">
@@ -1910,77 +1943,116 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-    </row>
-    <row r="23" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="B23" s="40" t="s">
+      <c r="B22" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="52">
+        <v>50000</v>
+      </c>
+      <c r="E22" s="52">
+        <v>0</v>
+      </c>
+      <c r="F22" s="33">
+        <f t="shared" si="27"/>
+        <v>50000</v>
+      </c>
+      <c r="G22" s="33">
+        <v>0</v>
+      </c>
+      <c r="H22" s="34">
+        <v>0</v>
+      </c>
+      <c r="I22" s="33">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>46005</v>
+      </c>
+      <c r="K22" s="4">
+        <v>46011</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+    </row>
+    <row r="24" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="B24" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="49" t="s">
+      <c r="C24" s="40"/>
+      <c r="D24" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D24" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="48"/>
-      <c r="F24" s="41">
-        <f>SUM(D2:D22)</f>
-        <v>1740000</v>
-      </c>
-      <c r="G24" s="42"/>
-      <c r="J24" s="42"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D25" s="48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E25" s="48"/>
       <c r="F25" s="41">
-        <f>SUM(E2:E22)</f>
-        <v>184000</v>
+        <f>SUM(D2:D23)</f>
+        <v>1790000</v>
       </c>
       <c r="G25" s="42"/>
-      <c r="M25" s="30" t="s">
-        <v>42</v>
-      </c>
+      <c r="J25" s="42"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D26" s="48" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E26" s="48"/>
       <c r="F26" s="41">
-        <f>-SUM(F2:F22)</f>
-        <v>-1608500</v>
+        <f>SUM(E2:E23)</f>
+        <v>184000</v>
       </c>
       <c r="G26" s="42"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D28" s="30">
+      <c r="M26" s="30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D27" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="48"/>
+      <c r="F27" s="41">
+        <f>-SUM(F2:F23)</f>
+        <v>-1658500</v>
+      </c>
+      <c r="G27" s="42"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D29" s="30">
         <f>340+50+100</f>
         <v>490</v>
       </c>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
     </row>
@@ -1990,20 +2062,24 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F32" s="42"/>
     </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="42"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D24:E24"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D24:G24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D23" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
+    <hyperlink ref="D24" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2015,7 +2091,7 @@
   <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2941,10 +3017,18 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="24"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="26"/>
+      <c r="A75" s="24">
+        <v>46005</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" s="23">
+        <v>50000</v>
+      </c>
+      <c r="D75" s="26" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="76" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A76" s="24"/>
@@ -2989,12 +3073,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2244E0B0-ACF7-443D-861C-F5014E4A339F}">
-  <sheetPr codeName="Sheet3"/>
+  <sheetPr codeName="Sheet3" filterMode="1"/>
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3086,7 +3170,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45979</v>
       </c>
@@ -3114,7 +3198,7 @@
       <c r="T2" s="12"/>
       <c r="U2" s="12"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45980</v>
       </c>
@@ -3139,7 +3223,7 @@
       <c r="T3" s="12"/>
       <c r="U3" s="12"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45981</v>
       </c>
@@ -3166,7 +3250,7 @@
       <c r="T4" s="12"/>
       <c r="U4" s="12"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45982</v>
       </c>
@@ -3203,7 +3287,7 @@
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45983</v>
       </c>
@@ -3230,7 +3314,7 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45984</v>
       </c>
@@ -3257,7 +3341,7 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>45985</v>
       </c>
@@ -3289,7 +3373,7 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45986</v>
       </c>
@@ -3314,7 +3398,7 @@
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45987</v>
       </c>
@@ -3352,7 +3436,7 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45988</v>
       </c>
@@ -3379,7 +3463,7 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>45989</v>
       </c>
@@ -3406,7 +3490,7 @@
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45990</v>
       </c>
@@ -3435,7 +3519,7 @@
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45991</v>
       </c>
@@ -3464,7 +3548,7 @@
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45992</v>
       </c>
@@ -3495,7 +3579,7 @@
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>45993</v>
       </c>
@@ -3533,7 +3617,7 @@
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45994</v>
       </c>
@@ -3564,7 +3648,7 @@
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45995</v>
       </c>
@@ -3593,7 +3677,7 @@
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45996</v>
       </c>
@@ -3625,7 +3709,7 @@
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>45997</v>
       </c>
@@ -3659,7 +3743,7 @@
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>45998</v>
       </c>
@@ -3686,7 +3770,7 @@
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45999</v>
       </c>
@@ -3717,7 +3801,7 @@
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>46000</v>
       </c>
@@ -3746,7 +3830,7 @@
       <c r="T23" s="12"/>
       <c r="U23" s="12"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>46001</v>
       </c>
@@ -3779,7 +3863,7 @@
       <c r="T24" s="12"/>
       <c r="U24" s="12"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>46002</v>
       </c>
@@ -3809,7 +3893,7 @@
       <c r="T25" s="12"/>
       <c r="U25" s="12"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>46003</v>
       </c>
@@ -3845,7 +3929,7 @@
       <c r="T26" s="12"/>
       <c r="U26" s="12"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>46004</v>
       </c>
@@ -3901,7 +3985,9 @@
       </c>
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
+      <c r="M28" s="12">
+        <v>50000</v>
+      </c>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
       <c r="P28" s="12"/>
@@ -3913,7 +3999,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>46006</v>
       </c>
@@ -3938,7 +4024,7 @@
       <c r="T29" s="12"/>
       <c r="U29" s="12"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>46007</v>
       </c>
@@ -3963,7 +4049,7 @@
       <c r="T30" s="12"/>
       <c r="U30" s="12"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>46008</v>
       </c>
@@ -3988,7 +4074,7 @@
       <c r="T31" s="12"/>
       <c r="U31" s="12"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>46009</v>
       </c>
@@ -4013,7 +4099,7 @@
       <c r="T32" s="12"/>
       <c r="U32" s="12"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>46010</v>
       </c>
@@ -4038,7 +4124,7 @@
       <c r="T33" s="12"/>
       <c r="U33" s="12"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>46011</v>
       </c>
@@ -4063,7 +4149,7 @@
       <c r="T34" s="12"/>
       <c r="U34" s="12"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>46012</v>
       </c>
@@ -4088,7 +4174,7 @@
       <c r="T35" s="12"/>
       <c r="U35" s="12"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>46013</v>
       </c>
@@ -4113,7 +4199,7 @@
       <c r="T36" s="12"/>
       <c r="U36" s="12"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>46014</v>
       </c>
@@ -4138,7 +4224,7 @@
       <c r="T37" s="12"/>
       <c r="U37" s="12"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>46015</v>
       </c>
@@ -4163,7 +4249,7 @@
       <c r="T38" s="12"/>
       <c r="U38" s="12"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>46016</v>
       </c>
@@ -4188,7 +4274,7 @@
       <c r="T39" s="12"/>
       <c r="U39" s="12"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>46017</v>
       </c>
@@ -4213,7 +4299,7 @@
       <c r="T40" s="12"/>
       <c r="U40" s="12"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>46018</v>
       </c>
@@ -4310,7 +4396,7 @@
       </c>
       <c r="M43" s="12">
         <f t="shared" si="0"/>
-        <v>115000</v>
+        <v>165000</v>
       </c>
       <c r="N43" s="12">
         <f t="shared" si="0"/>
@@ -4372,7 +4458,13 @@
       <c r="G46" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U41" xr:uid="{2244E0B0-ACF7-443D-861C-F5014E4A339F}"/>
+  <autoFilter ref="A1:U41" xr:uid="{2244E0B0-ACF7-443D-861C-F5014E4A339F}">
+    <filterColumn colId="0">
+      <filters calendarType="gregorian">
+        <dateGroupItem year="2025" month="12" day="14" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4380,10 +4472,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81508C41-0585-4655-BAAC-78773108D623}">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C18" sqref="C17:C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4393,7 +4485,7 @@
     <col min="3" max="4" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>56</v>
       </c>
@@ -4407,7 +4499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>58</v>
       </c>
@@ -4419,7 +4511,7 @@
       </c>
       <c r="D2" s="19"/>
     </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="187.5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>58</v>
       </c>
@@ -4430,8 +4522,11 @@
         <v>59</v>
       </c>
       <c r="D3" s="19"/>
-    </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="F3" s="53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>60</v>
       </c>
@@ -4443,7 +4538,7 @@
       </c>
       <c r="D4" s="19"/>
     </row>
-    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>62</v>
       </c>
@@ -4455,7 +4550,7 @@
       </c>
       <c r="D5" s="19"/>
     </row>
-    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>62</v>
       </c>
@@ -4467,7 +4562,7 @@
       </c>
       <c r="D6" s="19"/>
     </row>
-    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>62</v>
       </c>
@@ -4479,7 +4574,7 @@
       </c>
       <c r="D7" s="19"/>
     </row>
-    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>62</v>
       </c>
@@ -4491,7 +4586,7 @@
       </c>
       <c r="D8" s="19"/>
     </row>
-    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>62</v>
       </c>
@@ -4503,7 +4598,7 @@
       </c>
       <c r="D9" s="19"/>
     </row>
-    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
         <v>62</v>
       </c>
@@ -4515,7 +4610,7 @@
       </c>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>68</v>
       </c>
@@ -4527,7 +4622,7 @@
       </c>
       <c r="D11" s="19"/>
     </row>
-    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>70</v>
       </c>
@@ -4539,7 +4634,7 @@
       </c>
       <c r="D12" s="19"/>
     </row>
-    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>72</v>
       </c>
@@ -4551,7 +4646,7 @@
       </c>
       <c r="D13" s="19"/>
     </row>
-    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>72</v>
       </c>
@@ -4563,7 +4658,7 @@
       </c>
       <c r="D14" s="19"/>
     </row>
-    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>72</v>
       </c>
@@ -4575,7 +4670,7 @@
       </c>
       <c r="D15" s="19"/>
     </row>
-    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>75</v>
       </c>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0387CB-8524-4BF2-ACB6-B4C1A9F243D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC82595-AA8B-420F-B281-774871D8D2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="100">
   <si>
     <t>STT</t>
   </si>
@@ -182,9 +182,6 @@
     <t>Mua Robux</t>
   </si>
   <si>
-    <t>1 ngày</t>
-  </si>
-  <si>
     <t>6 ngày</t>
   </si>
   <si>
@@ -197,9 +194,6 @@
     <t>Mua quân huy</t>
   </si>
   <si>
-    <t>7 ngày</t>
-  </si>
-  <si>
     <t>Lê Hoàng Thiên Ân</t>
   </si>
   <si>
@@ -341,10 +335,13 @@
     <t>14/12/2025</t>
   </si>
   <si>
-    <t>Đã trả đủ</t>
-  </si>
-  <si>
     <t>BỎ</t>
+  </si>
+  <si>
+    <t>2 ngày</t>
+  </si>
+  <si>
+    <t>4 ngày</t>
   </si>
 </sst>
 </file>
@@ -422,7 +419,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,12 +441,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF4F4F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,7 +515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -642,38 +633,14 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1018,10 +985,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,7 +1088,7 @@
         <v>46011</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>14</v>
@@ -1243,10 +1210,10 @@
         <v>45999</v>
       </c>
       <c r="K5" s="16">
-        <v>46005</v>
+        <v>46008</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M5" s="15" t="s">
         <v>14</v>
@@ -1289,7 +1256,7 @@
         <v>46007</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>14</v>
@@ -1332,7 +1299,7 @@
         <v>46007</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>14</v>
@@ -1376,7 +1343,7 @@
         <v>46007</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>14</v>
@@ -1419,7 +1386,7 @@
         <v>46007</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>14</v>
@@ -1427,66 +1394,66 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="45">
-        <f>20000+20000+50000</f>
-        <v>90000</v>
-      </c>
-      <c r="E10" s="45">
-        <f>50000+40000</f>
-        <v>90000</v>
-      </c>
-      <c r="F10" s="45">
+        <v>10</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="33">
+        <v>150000</v>
+      </c>
+      <c r="E10" s="33">
+        <v>0</v>
+      </c>
+      <c r="F10" s="33">
         <f t="shared" ref="F10" si="9">(D10+I10)-E10</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="45">
-        <v>0</v>
-      </c>
-      <c r="H10" s="46">
-        <v>0</v>
-      </c>
-      <c r="I10" s="45">
+        <v>150000</v>
+      </c>
+      <c r="G10" s="33">
+        <v>0</v>
+      </c>
+      <c r="H10" s="34">
+        <v>0</v>
+      </c>
+      <c r="I10" s="33">
         <f t="shared" ref="I10" si="10">D10*H10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="47">
+      <c r="J10" s="4">
         <v>46003</v>
       </c>
-      <c r="K10" s="47">
-        <v>46005</v>
-      </c>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44" t="s">
+      <c r="K10" s="4">
+        <v>46009</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>99</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D11" s="33">
-        <v>150000</v>
+        <v>340000</v>
       </c>
       <c r="E11" s="33">
         <v>0</v>
       </c>
       <c r="F11" s="33">
         <f t="shared" ref="F11" si="11">(D11+I11)-E11</f>
-        <v>150000</v>
+        <v>340000</v>
       </c>
       <c r="G11" s="33">
         <v>0</v>
@@ -1505,7 +1472,7 @@
         <v>46009</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>14</v>
@@ -1513,23 +1480,23 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D12" s="33">
-        <v>340000</v>
+        <v>50000</v>
       </c>
       <c r="E12" s="33">
         <v>0</v>
       </c>
       <c r="F12" s="33">
         <f t="shared" ref="F12" si="13">(D12+I12)-E12</f>
-        <v>340000</v>
+        <v>50000</v>
       </c>
       <c r="G12" s="33">
         <v>0</v>
@@ -1542,13 +1509,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="4">
-        <v>46003</v>
+        <v>46004</v>
       </c>
       <c r="K12" s="4">
-        <v>46009</v>
+        <v>46010</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>14</v>
@@ -1556,23 +1523,23 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="D13" s="33">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="E13" s="33">
         <v>0</v>
       </c>
       <c r="F13" s="33">
-        <f t="shared" ref="F13" si="15">(D13+I13)-E13</f>
-        <v>50000</v>
+        <f t="shared" ref="F13:F14" si="15">(D13+I13)-E13</f>
+        <v>20000</v>
       </c>
       <c r="G13" s="33">
         <v>0</v>
@@ -1581,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="33">
-        <f t="shared" ref="I13" si="16">D13*H13</f>
+        <f t="shared" ref="I13:I14" si="16">D13*H13</f>
         <v>0</v>
       </c>
       <c r="J13" s="4">
@@ -1591,7 +1558,7 @@
         <v>46010</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>14</v>
@@ -1599,10 +1566,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>16</v>
@@ -1614,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="33">
-        <f t="shared" ref="F14:F15" si="17">(D14+I14)-E14</f>
+        <f t="shared" si="15"/>
         <v>20000</v>
       </c>
       <c r="G14" s="33">
@@ -1624,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="33">
-        <f t="shared" ref="I14:I15" si="18">D14*H14</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J14" s="4">
@@ -1634,7 +1601,7 @@
         <v>46010</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>14</v>
@@ -1642,23 +1609,23 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D15" s="33">
-        <v>20000</v>
+        <v>100000</v>
       </c>
       <c r="E15" s="33">
         <v>0</v>
       </c>
       <c r="F15" s="33">
-        <f t="shared" si="17"/>
-        <v>20000</v>
+        <f t="shared" ref="F15" si="17">(D15+I15)-E15</f>
+        <v>100000</v>
       </c>
       <c r="G15" s="33">
         <v>0</v>
@@ -1667,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="33">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="I15" si="18">D15*H15</f>
         <v>0</v>
       </c>
       <c r="J15" s="4">
@@ -1677,7 +1644,7 @@
         <v>46010</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>14</v>
@@ -1685,23 +1652,23 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D16" s="33">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="E16" s="33">
         <v>0</v>
       </c>
       <c r="F16" s="33">
         <f t="shared" ref="F16" si="19">(D16+I16)-E16</f>
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="G16" s="33">
         <v>0</v>
@@ -1714,13 +1681,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="4">
-        <v>46004</v>
+        <v>46005</v>
       </c>
       <c r="K16" s="4">
-        <v>46010</v>
+        <v>46011</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>14</v>
@@ -1728,13 +1695,13 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D17" s="33">
         <v>20000</v>
@@ -1743,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="33">
-        <f t="shared" ref="F17" si="21">(D17+I17)-E17</f>
+        <f t="shared" ref="F17:F18" si="21">(D17+I17)-E17</f>
         <v>20000</v>
       </c>
       <c r="G17" s="33">
@@ -1753,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="33">
-        <f t="shared" ref="I17" si="22">D17*H17</f>
+        <f t="shared" ref="I17:I18" si="22">D17*H17</f>
         <v>0</v>
       </c>
       <c r="J17" s="4">
@@ -1763,7 +1730,7 @@
         <v>46011</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>14</v>
@@ -1771,23 +1738,23 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D18" s="33">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="E18" s="33">
         <v>0</v>
       </c>
       <c r="F18" s="33">
-        <f t="shared" ref="F18:F19" si="23">(D18+I18)-E18</f>
-        <v>20000</v>
+        <f t="shared" si="21"/>
+        <v>5000</v>
       </c>
       <c r="G18" s="33">
         <v>0</v>
@@ -1796,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="33">
-        <f t="shared" ref="I18:I19" si="24">D18*H18</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="J18" s="4">
@@ -1806,7 +1773,7 @@
         <v>46011</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>14</v>
@@ -1814,13 +1781,13 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D19" s="33">
         <v>5000</v>
@@ -1829,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="33">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="F19" si="23">(D19+I19)-E19</f>
         <v>5000</v>
       </c>
       <c r="G19" s="33">
@@ -1839,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="33">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="I19" si="24">D19*H19</f>
         <v>0</v>
       </c>
       <c r="J19" s="4">
@@ -1849,7 +1816,7 @@
         <v>46011</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>14</v>
@@ -1857,23 +1824,23 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D20" s="33">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="E20" s="33">
         <v>0</v>
       </c>
       <c r="F20" s="33">
         <f t="shared" ref="F20" si="25">(D20+I20)-E20</f>
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="G20" s="33">
         <v>0</v>
@@ -1892,7 +1859,7 @@
         <v>46011</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>14</v>
@@ -1900,186 +1867,102 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="45">
-        <v>50000</v>
-      </c>
-      <c r="E21" s="45">
-        <v>50000</v>
-      </c>
-      <c r="F21" s="45">
-        <f t="shared" ref="F21:F22" si="27">(D21+I21)-E21</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="45">
-        <v>0</v>
-      </c>
-      <c r="H21" s="46">
-        <v>0</v>
-      </c>
-      <c r="I21" s="45">
-        <f t="shared" ref="I21:I22" si="28">D21*H21</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="47">
-        <v>46004</v>
-      </c>
-      <c r="K21" s="47">
-        <v>46005</v>
-      </c>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="52">
-        <v>50000</v>
-      </c>
-      <c r="E22" s="52">
-        <v>0</v>
-      </c>
-      <c r="F22" s="33">
-        <f t="shared" si="27"/>
-        <v>50000</v>
-      </c>
-      <c r="G22" s="33">
-        <v>0</v>
-      </c>
-      <c r="H22" s="34">
-        <v>0</v>
-      </c>
-      <c r="I22" s="33">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="4">
-        <v>46005</v>
-      </c>
-      <c r="K22" s="4">
-        <v>46011</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B21" s="28"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+    </row>
+    <row r="22" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="B22" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="40"/>
+      <c r="D22" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-    </row>
-    <row r="24" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="B24" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
+      <c r="D23" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="44"/>
+      <c r="F23" s="41">
+        <f>SUM(D2:D21)</f>
+        <v>1650000</v>
+      </c>
+      <c r="G23" s="42"/>
+      <c r="J23" s="42"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D24" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="44"/>
+      <c r="F24" s="41">
+        <f>SUM(E2:E21)</f>
+        <v>44000</v>
+      </c>
+      <c r="G24" s="42"/>
+      <c r="M24" s="30" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D25" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="48"/>
+      <c r="D25" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="44"/>
       <c r="F25" s="41">
-        <f>SUM(D2:D23)</f>
-        <v>1790000</v>
+        <f>-SUM(F2:F21)</f>
+        <v>-1658500</v>
       </c>
       <c r="G25" s="42"/>
-      <c r="J25" s="42"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D26" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="48"/>
-      <c r="F26" s="41">
-        <f>SUM(E2:E23)</f>
-        <v>184000</v>
-      </c>
-      <c r="G26" s="42"/>
-      <c r="M26" s="30" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D27" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="48"/>
-      <c r="F27" s="41">
-        <f>-SUM(F2:F23)</f>
-        <v>-1658500</v>
-      </c>
-      <c r="G27" s="42"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D29" s="30">
+      <c r="D27" s="30">
         <f>340+50+100</f>
         <v>490</v>
       </c>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F29" s="42"/>
       <c r="G29" s="42"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F32" s="42"/>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F33" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
     <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D22:G22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D24" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
+    <hyperlink ref="D22" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2104,13 +1987,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>2</v>
@@ -2603,7 +2486,7 @@
         <v>45996</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C42" s="23">
         <v>540000</v>
@@ -2687,7 +2570,7 @@
         <v>45998</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C49" s="23">
         <v>100000</v>
@@ -2881,7 +2764,7 @@
         <v>46003</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C65" s="23">
         <v>340000</v>
@@ -2923,7 +2806,7 @@
         <v>46004</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C68" s="23">
         <v>20000</v>
@@ -2979,7 +2862,7 @@
         <v>46005</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C72" s="23">
         <v>20000</v>
@@ -3164,10 +3047,10 @@
         <v>38</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="U1" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
@@ -4487,13 +4370,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>2</v>
@@ -4501,316 +4384,316 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:6" ht="187.5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D3" s="19"/>
-      <c r="F3" s="53" t="s">
-        <v>100</v>
+      <c r="F3" s="43" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D6" s="19"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D8" s="19"/>
     </row>
     <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D9" s="19"/>
     </row>
     <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D11" s="19"/>
     </row>
     <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D12" s="19"/>
     </row>
     <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D13" s="19"/>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D15" s="19"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D16" s="19"/>
     </row>
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="19"/>
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D21" s="19"/>
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D23" s="19"/>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D24" s="19"/>
     </row>
     <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D25" s="19"/>
     </row>
     <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D26" s="19"/>
     </row>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="19"/>
     </row>
@@ -4822,7 +4705,7 @@
         <v>17</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D28" s="19"/>
     </row>
@@ -4834,7 +4717,7 @@
         <v>26</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D29" s="19"/>
     </row>
@@ -4846,7 +4729,7 @@
         <v>22</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D30" s="19"/>
     </row>
@@ -4858,7 +4741,7 @@
         <v>20</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D31" s="19"/>
     </row>
@@ -4870,7 +4753,7 @@
         <v>17</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D32" s="19"/>
     </row>
@@ -4882,7 +4765,7 @@
         <v>15</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D33" s="19"/>
     </row>
@@ -4894,7 +4777,7 @@
         <v>36</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D34" s="19"/>
     </row>
@@ -4906,7 +4789,7 @@
         <v>21</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D35" s="19"/>
     </row>
@@ -4918,7 +4801,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D36" s="19"/>
     </row>
@@ -4930,7 +4813,7 @@
         <v>20</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D37" s="19"/>
     </row>
@@ -4942,7 +4825,7 @@
         <v>15</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D38" s="19"/>
     </row>
@@ -4954,7 +4837,7 @@
         <v>21</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D39" s="19"/>
     </row>
@@ -4966,7 +4849,7 @@
         <v>20</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D40" s="19"/>
     </row>
@@ -4978,7 +4861,7 @@
         <v>17</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D41" s="19"/>
     </row>
@@ -4990,7 +4873,7 @@
         <v>37</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D42" s="19"/>
     </row>
@@ -5002,7 +4885,7 @@
         <v>26</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D43" s="19"/>
     </row>
@@ -5011,10 +4894,10 @@
         <v>45789</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D44" s="19"/>
     </row>
@@ -5026,7 +4909,7 @@
         <v>8</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D45" s="19"/>
     </row>
@@ -5038,7 +4921,7 @@
         <v>41</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D46" s="19"/>
     </row>
@@ -5050,7 +4933,7 @@
         <v>25</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D47" s="19"/>
     </row>
@@ -5062,7 +4945,7 @@
         <v>18</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D48" s="19"/>
     </row>
@@ -5071,10 +4954,10 @@
         <v>45850</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D49" s="19"/>
     </row>
@@ -5086,7 +4969,7 @@
         <v>8</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D50" s="19"/>
     </row>
@@ -5098,7 +4981,7 @@
         <v>41</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D51" s="19"/>
     </row>
@@ -5110,7 +4993,7 @@
         <v>20</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D52" s="19"/>
     </row>
@@ -5122,7 +5005,7 @@
         <v>19</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D53" s="19"/>
     </row>
@@ -5134,7 +5017,7 @@
         <v>26</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D54" s="19"/>
     </row>
@@ -5146,7 +5029,7 @@
         <v>8</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D55" s="19"/>
     </row>
@@ -5158,7 +5041,7 @@
         <v>44</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D56" s="19"/>
     </row>
@@ -5170,7 +5053,7 @@
         <v>20</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D57" s="19"/>
     </row>
@@ -5182,7 +5065,7 @@
         <v>26</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D58" s="19"/>
     </row>
@@ -5194,7 +5077,7 @@
         <v>19</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D59" s="19"/>
     </row>
@@ -5206,7 +5089,7 @@
         <v>26</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D60" s="19"/>
     </row>
@@ -5218,7 +5101,7 @@
         <v>8</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D61" s="19"/>
     </row>
@@ -5230,7 +5113,7 @@
         <v>22</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D62" s="19"/>
     </row>
@@ -5242,7 +5125,7 @@
         <v>26</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D63" s="19"/>
     </row>
@@ -5254,7 +5137,7 @@
         <v>39</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D64" s="19"/>
     </row>
@@ -5263,82 +5146,82 @@
         <v>46003</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D65" s="19"/>
     </row>
     <row r="66" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B66" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D66" s="19"/>
     </row>
     <row r="67" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B67" s="19" t="s">
         <v>41</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D67" s="19"/>
     </row>
     <row r="68" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A68" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B68" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D68" s="19"/>
     </row>
     <row r="69" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B69" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D69" s="19"/>
     </row>
     <row r="70" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A70" s="19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D70" s="19"/>
     </row>
     <row r="71" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A71" s="19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D71" s="19"/>
     </row>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC82595-AA8B-420F-B281-774871D8D2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208153EE-5408-4185-B946-9F47B8F04FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
   <sheets>
     <sheet name="DANH SÁCH NỢ" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="8" r:id="rId2"/>
+    <sheet name="THONG KE NAP " sheetId="8" r:id="rId2"/>
     <sheet name="THỐNG KÊ NẠP" sheetId="4" r:id="rId3"/>
     <sheet name="THỐNG KÊ NẠP NEW" sheetId="6" r:id="rId4"/>
   </sheets>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="100">
   <si>
     <t>STT</t>
   </si>
@@ -341,7 +341,7 @@
     <t>2 ngày</t>
   </si>
   <si>
-    <t>4 ngày</t>
+    <t>Đã trả đủ</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,6 +441,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF4F4F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,7 +521,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -641,6 +647,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -988,7 +1009,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,12 +1210,12 @@
         <v>120000</v>
       </c>
       <c r="E5" s="37">
-        <f>50000-16000</f>
-        <v>34000</v>
+        <f>50000-16000+50000</f>
+        <v>84000</v>
       </c>
       <c r="F5" s="37">
         <f t="shared" ref="F5" si="2">(D5+I5)-E5</f>
-        <v>86000</v>
+        <v>36000</v>
       </c>
       <c r="G5" s="37">
         <v>0</v>
@@ -1320,11 +1341,12 @@
         <v>150000</v>
       </c>
       <c r="E8" s="33">
-        <v>0</v>
+        <f>10000</f>
+        <v>10000</v>
       </c>
       <c r="F8" s="33">
         <f t="shared" ref="F8:F9" si="7">(D8+I8)-E8</f>
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="G8" s="33">
         <v>0</v>
@@ -1396,129 +1418,126 @@
       <c r="A10" s="1">
         <v>10</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="48">
         <v>150000</v>
       </c>
-      <c r="E10" s="33">
-        <v>0</v>
-      </c>
-      <c r="F10" s="33">
+      <c r="E10" s="48">
+        <f>150000</f>
+        <v>150000</v>
+      </c>
+      <c r="F10" s="48">
         <f t="shared" ref="F10" si="9">(D10+I10)-E10</f>
-        <v>150000</v>
-      </c>
-      <c r="G10" s="33">
-        <v>0</v>
-      </c>
-      <c r="H10" s="34">
-        <v>0</v>
-      </c>
-      <c r="I10" s="33">
+        <v>0</v>
+      </c>
+      <c r="G10" s="48">
+        <v>0</v>
+      </c>
+      <c r="H10" s="49">
+        <v>0</v>
+      </c>
+      <c r="I10" s="48">
         <f t="shared" ref="I10" si="10">D10*H10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="50">
         <v>46003</v>
       </c>
-      <c r="K10" s="4">
-        <v>46009</v>
-      </c>
-      <c r="L10" s="1" t="s">
+      <c r="K10" s="50">
+        <v>46006</v>
+      </c>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47" t="s">
         <v>99</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>11</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="48">
         <v>340000</v>
       </c>
-      <c r="E11" s="33">
-        <v>0</v>
-      </c>
-      <c r="F11" s="33">
+      <c r="E11" s="48">
+        <f>340000</f>
+        <v>340000</v>
+      </c>
+      <c r="F11" s="48">
         <f t="shared" ref="F11" si="11">(D11+I11)-E11</f>
-        <v>340000</v>
-      </c>
-      <c r="G11" s="33">
-        <v>0</v>
-      </c>
-      <c r="H11" s="34">
-        <v>0</v>
-      </c>
-      <c r="I11" s="33">
+        <v>0</v>
+      </c>
+      <c r="G11" s="48">
+        <v>0</v>
+      </c>
+      <c r="H11" s="49">
+        <v>0</v>
+      </c>
+      <c r="I11" s="48">
         <f t="shared" ref="I11" si="12">D11*H11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="50">
         <v>46003</v>
       </c>
-      <c r="K11" s="4">
-        <v>46009</v>
-      </c>
-      <c r="L11" s="1" t="s">
+      <c r="K11" s="50">
+        <v>46006</v>
+      </c>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47" t="s">
         <v>99</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>12</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="48">
         <v>50000</v>
       </c>
-      <c r="E12" s="33">
-        <v>0</v>
-      </c>
-      <c r="F12" s="33">
+      <c r="E12" s="48">
+        <f>50000</f>
+        <v>50000</v>
+      </c>
+      <c r="F12" s="48">
         <f t="shared" ref="F12" si="13">(D12+I12)-E12</f>
-        <v>50000</v>
-      </c>
-      <c r="G12" s="33">
-        <v>0</v>
-      </c>
-      <c r="H12" s="34">
-        <v>0</v>
-      </c>
-      <c r="I12" s="33">
+        <v>0</v>
+      </c>
+      <c r="G12" s="48">
+        <v>0</v>
+      </c>
+      <c r="H12" s="49">
+        <v>0</v>
+      </c>
+      <c r="I12" s="48">
         <f t="shared" ref="I12" si="14">D12*H12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="50">
         <v>46004</v>
       </c>
-      <c r="K12" s="4">
-        <v>46010</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>14</v>
+      <c r="K12" s="50">
+        <v>46006</v>
+      </c>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -1568,86 +1587,84 @@
       <c r="A14" s="1">
         <v>14</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="33">
+      <c r="D14" s="48">
         <v>20000</v>
       </c>
-      <c r="E14" s="33">
-        <v>0</v>
-      </c>
-      <c r="F14" s="33">
+      <c r="E14" s="48">
+        <f>20000</f>
+        <v>20000</v>
+      </c>
+      <c r="F14" s="48">
         <f t="shared" si="15"/>
-        <v>20000</v>
-      </c>
-      <c r="G14" s="33">
-        <v>0</v>
-      </c>
-      <c r="H14" s="34">
-        <v>0</v>
-      </c>
-      <c r="I14" s="33">
+        <v>0</v>
+      </c>
+      <c r="G14" s="48">
+        <v>0</v>
+      </c>
+      <c r="H14" s="49">
+        <v>0</v>
+      </c>
+      <c r="I14" s="48">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="50">
         <v>46004</v>
       </c>
-      <c r="K14" s="4">
-        <v>46010</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>14</v>
+      <c r="K14" s="50">
+        <v>46006</v>
+      </c>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>15</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="33">
+      <c r="D15" s="48">
         <v>100000</v>
       </c>
-      <c r="E15" s="33">
-        <v>0</v>
-      </c>
-      <c r="F15" s="33">
+      <c r="E15" s="48">
+        <f>100000</f>
+        <v>100000</v>
+      </c>
+      <c r="F15" s="48">
         <f t="shared" ref="F15" si="17">(D15+I15)-E15</f>
-        <v>100000</v>
-      </c>
-      <c r="G15" s="33">
-        <v>0</v>
-      </c>
-      <c r="H15" s="34">
-        <v>0</v>
-      </c>
-      <c r="I15" s="33">
+        <v>0</v>
+      </c>
+      <c r="G15" s="48">
+        <v>0</v>
+      </c>
+      <c r="H15" s="49">
+        <v>0</v>
+      </c>
+      <c r="I15" s="48">
         <f t="shared" ref="I15" si="18">D15*H15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="50">
         <v>46004</v>
       </c>
-      <c r="K15" s="4">
-        <v>46010</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>14</v>
+      <c r="K15" s="50">
+        <v>46006</v>
+      </c>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -1913,7 +1930,7 @@
       <c r="E24" s="44"/>
       <c r="F24" s="41">
         <f>SUM(E2:E21)</f>
-        <v>44000</v>
+        <v>764000</v>
       </c>
       <c r="G24" s="42"/>
       <c r="M24" s="30" t="s">
@@ -1927,15 +1944,11 @@
       <c r="E25" s="44"/>
       <c r="F25" s="41">
         <f>-SUM(F2:F21)</f>
-        <v>-1658500</v>
+        <v>-938500</v>
       </c>
       <c r="G25" s="42"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D27" s="30">
-        <f>340+50+100</f>
-        <v>490</v>
-      </c>
       <c r="F27" s="42"/>
       <c r="G27" s="42"/>
     </row>
@@ -1973,7 +1986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA131776-2E13-4A0E-8D22-F638A9EA7E4B}">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208153EE-5408-4185-B946-9F47B8F04FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B9971F-A157-43EB-AA6B-5AD1804E8FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="101">
   <si>
     <t>STT</t>
   </si>
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t>Đã trả đủ</t>
+  </si>
+  <si>
+    <t>7 ngày</t>
   </si>
 </sst>
 </file>
@@ -642,12 +645,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -662,6 +659,12 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1006,10 +1009,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1287,43 +1290,41 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="46">
         <v>50000</v>
       </c>
-      <c r="E7" s="33">
-        <v>0</v>
-      </c>
-      <c r="F7" s="33">
+      <c r="E7" s="46">
+        <v>50000</v>
+      </c>
+      <c r="F7" s="46">
         <f>(D7+I7)-E7</f>
-        <v>50000</v>
-      </c>
-      <c r="G7" s="33">
-        <v>0</v>
-      </c>
-      <c r="H7" s="34">
-        <v>0</v>
-      </c>
-      <c r="I7" s="33">
+        <v>0</v>
+      </c>
+      <c r="G7" s="46">
+        <v>0</v>
+      </c>
+      <c r="H7" s="47">
+        <v>0</v>
+      </c>
+      <c r="I7" s="46">
         <f t="shared" ref="I7" si="6">D7*H7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="48">
         <v>46001</v>
       </c>
-      <c r="K7" s="4">
-        <v>46007</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>14</v>
+      <c r="K7" s="48">
+        <v>46006</v>
+      </c>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1418,41 +1419,41 @@
       <c r="A10" s="1">
         <v>10</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="46">
         <v>150000</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="46">
         <f>150000</f>
         <v>150000</v>
       </c>
-      <c r="F10" s="48">
+      <c r="F10" s="46">
         <f t="shared" ref="F10" si="9">(D10+I10)-E10</f>
         <v>0</v>
       </c>
-      <c r="G10" s="48">
-        <v>0</v>
-      </c>
-      <c r="H10" s="49">
-        <v>0</v>
-      </c>
-      <c r="I10" s="48">
+      <c r="G10" s="46">
+        <v>0</v>
+      </c>
+      <c r="H10" s="47">
+        <v>0</v>
+      </c>
+      <c r="I10" s="46">
         <f t="shared" ref="I10" si="10">D10*H10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="50">
+      <c r="J10" s="48">
         <v>46003</v>
       </c>
-      <c r="K10" s="50">
+      <c r="K10" s="48">
         <v>46006</v>
       </c>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47" t="s">
+      <c r="L10" s="45"/>
+      <c r="M10" s="45" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1460,41 +1461,41 @@
       <c r="A11" s="1">
         <v>11</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="46">
         <v>340000</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="46">
         <f>340000</f>
         <v>340000</v>
       </c>
-      <c r="F11" s="48">
+      <c r="F11" s="46">
         <f t="shared" ref="F11" si="11">(D11+I11)-E11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="48">
-        <v>0</v>
-      </c>
-      <c r="H11" s="49">
-        <v>0</v>
-      </c>
-      <c r="I11" s="48">
+      <c r="G11" s="46">
+        <v>0</v>
+      </c>
+      <c r="H11" s="47">
+        <v>0</v>
+      </c>
+      <c r="I11" s="46">
         <f t="shared" ref="I11" si="12">D11*H11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="50">
+      <c r="J11" s="48">
         <v>46003</v>
       </c>
-      <c r="K11" s="50">
+      <c r="K11" s="48">
         <v>46006</v>
       </c>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47" t="s">
+      <c r="L11" s="45"/>
+      <c r="M11" s="45" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1502,41 +1503,41 @@
       <c r="A12" s="1">
         <v>12</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="46">
         <v>50000</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="46">
         <f>50000</f>
         <v>50000</v>
       </c>
-      <c r="F12" s="48">
+      <c r="F12" s="46">
         <f t="shared" ref="F12" si="13">(D12+I12)-E12</f>
         <v>0</v>
       </c>
-      <c r="G12" s="48">
-        <v>0</v>
-      </c>
-      <c r="H12" s="49">
-        <v>0</v>
-      </c>
-      <c r="I12" s="48">
+      <c r="G12" s="46">
+        <v>0</v>
+      </c>
+      <c r="H12" s="47">
+        <v>0</v>
+      </c>
+      <c r="I12" s="46">
         <f t="shared" ref="I12" si="14">D12*H12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="50">
+      <c r="J12" s="48">
         <v>46004</v>
       </c>
-      <c r="K12" s="50">
+      <c r="K12" s="48">
         <v>46006</v>
       </c>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47" t="s">
+      <c r="L12" s="45"/>
+      <c r="M12" s="45" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1587,41 +1588,41 @@
       <c r="A14" s="1">
         <v>14</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="46">
         <v>20000</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="46">
         <f>20000</f>
         <v>20000</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="46">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="G14" s="48">
-        <v>0</v>
-      </c>
-      <c r="H14" s="49">
-        <v>0</v>
-      </c>
-      <c r="I14" s="48">
+      <c r="G14" s="46">
+        <v>0</v>
+      </c>
+      <c r="H14" s="47">
+        <v>0</v>
+      </c>
+      <c r="I14" s="46">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="J14" s="50">
+      <c r="J14" s="48">
         <v>46004</v>
       </c>
-      <c r="K14" s="50">
+      <c r="K14" s="48">
         <v>46006</v>
       </c>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47" t="s">
+      <c r="L14" s="45"/>
+      <c r="M14" s="45" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1629,41 +1630,41 @@
       <c r="A15" s="1">
         <v>15</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C15" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="48">
+      <c r="D15" s="46">
         <v>100000</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="46">
         <f>100000</f>
         <v>100000</v>
       </c>
-      <c r="F15" s="48">
+      <c r="F15" s="46">
         <f t="shared" ref="F15" si="17">(D15+I15)-E15</f>
         <v>0</v>
       </c>
-      <c r="G15" s="48">
-        <v>0</v>
-      </c>
-      <c r="H15" s="49">
-        <v>0</v>
-      </c>
-      <c r="I15" s="48">
+      <c r="G15" s="46">
+        <v>0</v>
+      </c>
+      <c r="H15" s="47">
+        <v>0</v>
+      </c>
+      <c r="I15" s="46">
         <f t="shared" ref="I15" si="18">D15*H15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="50">
+      <c r="J15" s="48">
         <v>46004</v>
       </c>
-      <c r="K15" s="50">
+      <c r="K15" s="48">
         <v>46006</v>
       </c>
-      <c r="L15" s="47"/>
-      <c r="M15" s="47" t="s">
+      <c r="L15" s="45"/>
+      <c r="M15" s="45" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1841,7 +1842,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="28" t="s">
         <v>21</v>
@@ -1884,98 +1885,244 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
+        <v>21</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="33">
+        <v>70000</v>
+      </c>
+      <c r="E21" s="33">
+        <v>0</v>
+      </c>
+      <c r="F21" s="33">
+        <f t="shared" ref="F21" si="27">(D21+I21)-E21</f>
+        <v>70000</v>
+      </c>
+      <c r="G21" s="33">
+        <v>0</v>
+      </c>
+      <c r="H21" s="34">
+        <v>0</v>
+      </c>
+      <c r="I21" s="33">
+        <f t="shared" ref="I21" si="28">D21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>46006</v>
+      </c>
+      <c r="K21" s="4">
+        <v>46012</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>22</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-    </row>
-    <row r="22" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="33">
+        <v>20000</v>
+      </c>
+      <c r="E22" s="33">
+        <v>0</v>
+      </c>
+      <c r="F22" s="33">
+        <f t="shared" ref="F22:F23" si="29">(D22+I22)-E22</f>
+        <v>20000</v>
+      </c>
+      <c r="G22" s="33">
+        <v>0</v>
+      </c>
+      <c r="H22" s="34">
+        <v>0</v>
+      </c>
+      <c r="I22" s="33">
+        <f t="shared" ref="I22:I23" si="30">D22*H22</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>46006</v>
+      </c>
+      <c r="K22" s="4">
+        <v>46012</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>23</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="33">
+        <v>10000</v>
+      </c>
+      <c r="E23" s="33">
+        <v>0</v>
+      </c>
+      <c r="F23" s="33">
+        <f t="shared" si="29"/>
+        <v>10000</v>
+      </c>
+      <c r="G23" s="33">
+        <v>0</v>
+      </c>
+      <c r="H23" s="34">
+        <v>0</v>
+      </c>
+      <c r="I23" s="33">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
+        <v>46006</v>
+      </c>
+      <c r="K23" s="4">
+        <v>46012</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>24</v>
+      </c>
+      <c r="B24" s="28"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
+      <c r="B25" s="28"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+    </row>
+    <row r="26" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="B26" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="45" t="s">
+      <c r="C26" s="40"/>
+      <c r="D26" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D23" s="44" t="s">
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D27" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="44"/>
-      <c r="F23" s="41">
-        <f>SUM(D2:D21)</f>
-        <v>1650000</v>
-      </c>
-      <c r="G23" s="42"/>
-      <c r="J23" s="42"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D24" s="44" t="s">
+      <c r="E27" s="49"/>
+      <c r="F27" s="41">
+        <f>SUM(D2:D25)</f>
+        <v>1750000</v>
+      </c>
+      <c r="G27" s="42"/>
+      <c r="J27" s="42"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D28" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="44"/>
-      <c r="F24" s="41">
-        <f>SUM(E2:E21)</f>
-        <v>764000</v>
-      </c>
-      <c r="G24" s="42"/>
-      <c r="M24" s="30" t="s">
+      <c r="E28" s="49"/>
+      <c r="F28" s="41">
+        <f>SUM(E2:E25)</f>
+        <v>814000</v>
+      </c>
+      <c r="G28" s="42"/>
+      <c r="M28" s="30" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D25" s="44" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D29" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="44"/>
-      <c r="F25" s="41">
-        <f>-SUM(F2:F21)</f>
-        <v>-938500</v>
-      </c>
-      <c r="G25" s="42"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F29" s="42"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="41">
+        <f>-SUM(F2:F25)</f>
+        <v>-988500</v>
+      </c>
       <c r="G29" s="42"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F30" s="42"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F34" s="42"/>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F35" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D26:G26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D22" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
+    <hyperlink ref="D26" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1986,8 +2133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA131776-2E13-4A0E-8D22-F638A9EA7E4B}">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2927,22 +3074,46 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="24"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="26"/>
+      <c r="A76" s="24">
+        <v>46006</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" s="23">
+        <v>70000</v>
+      </c>
+      <c r="D76" s="26" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="77" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="24"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="26"/>
+      <c r="A77" s="24">
+        <v>46006</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="23">
+        <v>20000</v>
+      </c>
+      <c r="D77" s="26" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="78" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="24"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="26"/>
+      <c r="A78" s="24">
+        <v>46006</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C78" s="23">
+        <v>10000</v>
+      </c>
+      <c r="D78" s="26" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="79" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A79" s="24"/>
@@ -2972,9 +3143,9 @@
   <sheetPr codeName="Sheet3" filterMode="1"/>
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L55" sqref="L55"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3862,7 +4033,7 @@
       </c>
       <c r="U27" s="12"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>46005</v>
       </c>
@@ -3895,11 +4066,13 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>46006</v>
       </c>
-      <c r="B29" s="12"/>
+      <c r="B29" s="12">
+        <v>20000</v>
+      </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
@@ -3908,14 +4081,18 @@
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
+      <c r="K29" s="12">
+        <v>10000</v>
+      </c>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
+      <c r="R29" s="12">
+        <v>70000</v>
+      </c>
       <c r="S29" s="12"/>
       <c r="T29" s="12"/>
       <c r="U29" s="12"/>
@@ -4248,7 +4425,7 @@
       </c>
       <c r="B43" s="12">
         <f t="shared" ref="B43:U43" si="0">SUM(B2:B42)</f>
-        <v>700000</v>
+        <v>720000</v>
       </c>
       <c r="C43" s="12">
         <f t="shared" si="0"/>
@@ -4284,7 +4461,7 @@
       </c>
       <c r="K43" s="12">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="L43" s="12">
         <f t="shared" si="0"/>
@@ -4312,7 +4489,7 @@
       </c>
       <c r="R43" s="12">
         <f t="shared" si="0"/>
-        <v>1385000</v>
+        <v>1455000</v>
       </c>
       <c r="S43" s="12">
         <f t="shared" si="0"/>
@@ -4357,7 +4534,7 @@
   <autoFilter ref="A1:U41" xr:uid="{2244E0B0-ACF7-443D-861C-F5014E4A339F}">
     <filterColumn colId="0">
       <filters calendarType="gregorian">
-        <dateGroupItem year="2025" month="12" day="14" dateTimeGrouping="day"/>
+        <dateGroupItem year="2025" month="12" day="15" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B9971F-A157-43EB-AA6B-5AD1804E8FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CB162A-9115-4403-AFDC-18616B66C4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="100">
   <si>
     <t>STT</t>
   </si>
@@ -198,9 +198,6 @@
   </si>
   <si>
     <t>3 ngày</t>
-  </si>
-  <si>
-    <t>5 ngày</t>
   </si>
   <si>
     <t>Bùi Khánh Duy</t>
@@ -1012,7 +1009,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,7 +1277,7 @@
         <v>46007</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>14</v>
@@ -1324,7 +1321,7 @@
       </c>
       <c r="L7" s="45"/>
       <c r="M7" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1366,7 +1363,7 @@
         <v>46007</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>14</v>
@@ -1409,7 +1406,7 @@
         <v>46007</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>14</v>
@@ -1454,7 +1451,7 @@
       </c>
       <c r="L10" s="45"/>
       <c r="M10" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1496,7 +1493,7 @@
       </c>
       <c r="L11" s="45"/>
       <c r="M11" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1538,50 +1535,48 @@
       </c>
       <c r="L12" s="45"/>
       <c r="M12" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>13</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="33">
+      <c r="D13" s="46">
         <v>20000</v>
       </c>
-      <c r="E13" s="33">
-        <v>0</v>
-      </c>
-      <c r="F13" s="33">
+      <c r="E13" s="46">
+        <v>20000</v>
+      </c>
+      <c r="F13" s="46">
         <f t="shared" ref="F13:F14" si="15">(D13+I13)-E13</f>
-        <v>20000</v>
-      </c>
-      <c r="G13" s="33">
-        <v>0</v>
-      </c>
-      <c r="H13" s="34">
-        <v>0</v>
-      </c>
-      <c r="I13" s="33">
+        <v>0</v>
+      </c>
+      <c r="G13" s="46">
+        <v>0</v>
+      </c>
+      <c r="H13" s="47">
+        <v>0</v>
+      </c>
+      <c r="I13" s="46">
         <f t="shared" ref="I13:I14" si="16">D13*H13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="48">
         <v>46004</v>
       </c>
-      <c r="K13" s="4">
-        <v>46010</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>14</v>
+      <c r="K13" s="48">
+        <v>46006</v>
+      </c>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1623,7 +1618,7 @@
       </c>
       <c r="L14" s="45"/>
       <c r="M14" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -1665,93 +1660,89 @@
       </c>
       <c r="L15" s="45"/>
       <c r="M15" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>16</v>
       </c>
-      <c r="B16" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="33">
+      <c r="D16" s="46">
         <v>20000</v>
       </c>
-      <c r="E16" s="33">
-        <v>0</v>
-      </c>
-      <c r="F16" s="33">
+      <c r="E16" s="46">
+        <v>20000</v>
+      </c>
+      <c r="F16" s="46">
         <f t="shared" ref="F16" si="19">(D16+I16)-E16</f>
-        <v>20000</v>
-      </c>
-      <c r="G16" s="33">
-        <v>0</v>
-      </c>
-      <c r="H16" s="34">
-        <v>0</v>
-      </c>
-      <c r="I16" s="33">
+        <v>0</v>
+      </c>
+      <c r="G16" s="46">
+        <v>0</v>
+      </c>
+      <c r="H16" s="47">
+        <v>0</v>
+      </c>
+      <c r="I16" s="46">
         <f t="shared" ref="I16" si="20">D16*H16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="48">
         <v>46005</v>
       </c>
-      <c r="K16" s="4">
-        <v>46011</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>14</v>
+      <c r="K16" s="48">
+        <v>46006</v>
+      </c>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>17</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="46">
         <v>20000</v>
       </c>
-      <c r="E17" s="33">
-        <v>0</v>
-      </c>
-      <c r="F17" s="33">
+      <c r="E17" s="46">
+        <v>20000</v>
+      </c>
+      <c r="F17" s="46">
         <f t="shared" ref="F17:F18" si="21">(D17+I17)-E17</f>
-        <v>20000</v>
-      </c>
-      <c r="G17" s="33">
-        <v>0</v>
-      </c>
-      <c r="H17" s="34">
-        <v>0</v>
-      </c>
-      <c r="I17" s="33">
+        <v>0</v>
+      </c>
+      <c r="G17" s="46">
+        <v>0</v>
+      </c>
+      <c r="H17" s="47">
+        <v>0</v>
+      </c>
+      <c r="I17" s="46">
         <f t="shared" ref="I17:I18" si="22">D17*H17</f>
         <v>0</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="48">
         <v>46005</v>
       </c>
-      <c r="K17" s="4">
-        <v>46011</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>14</v>
+      <c r="K17" s="48">
+        <v>46006</v>
+      </c>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1844,43 +1835,41 @@
       <c r="A20" s="1">
         <v>20</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="46">
         <v>50000</v>
       </c>
-      <c r="E20" s="33">
-        <v>0</v>
-      </c>
-      <c r="F20" s="33">
+      <c r="E20" s="46">
+        <v>50000</v>
+      </c>
+      <c r="F20" s="46">
         <f t="shared" ref="F20" si="25">(D20+I20)-E20</f>
-        <v>50000</v>
-      </c>
-      <c r="G20" s="33">
-        <v>0</v>
-      </c>
-      <c r="H20" s="34">
-        <v>0</v>
-      </c>
-      <c r="I20" s="33">
+        <v>0</v>
+      </c>
+      <c r="G20" s="46">
+        <v>0</v>
+      </c>
+      <c r="H20" s="47">
+        <v>0</v>
+      </c>
+      <c r="I20" s="46">
         <f t="shared" ref="I20" si="26">D20*H20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="48">
         <v>46005</v>
       </c>
-      <c r="K20" s="4">
-        <v>46011</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>14</v>
+      <c r="K20" s="48">
+        <v>46006</v>
+      </c>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1920,7 +1909,7 @@
         <v>46012</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>14</v>
@@ -1963,7 +1952,7 @@
         <v>46012</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>14</v>
@@ -2006,7 +1995,7 @@
         <v>46012</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>14</v>
@@ -2077,7 +2066,7 @@
       <c r="E28" s="49"/>
       <c r="F28" s="41">
         <f>SUM(E2:E25)</f>
-        <v>814000</v>
+        <v>924000</v>
       </c>
       <c r="G28" s="42"/>
       <c r="M28" s="30" t="s">
@@ -2091,7 +2080,7 @@
       <c r="E29" s="49"/>
       <c r="F29" s="41">
         <f>-SUM(F2:F25)</f>
-        <v>-988500</v>
+        <v>-878500</v>
       </c>
       <c r="G29" s="42"/>
     </row>
@@ -2147,13 +2136,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>2</v>
@@ -2646,7 +2635,7 @@
         <v>45996</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C42" s="23">
         <v>540000</v>
@@ -2730,7 +2719,7 @@
         <v>45998</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C49" s="23">
         <v>100000</v>
@@ -2924,7 +2913,7 @@
         <v>46003</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C65" s="23">
         <v>340000</v>
@@ -3022,7 +3011,7 @@
         <v>46005</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C72" s="23">
         <v>20000</v>
@@ -3234,7 +3223,7 @@
         <v>50</v>
       </c>
       <c r="U1" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
@@ -4560,13 +4549,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>2</v>
@@ -4574,316 +4563,316 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:6" ht="187.5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="19"/>
       <c r="F3" s="43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="19"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" s="19"/>
     </row>
     <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="19"/>
     </row>
     <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="19"/>
     </row>
     <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="19"/>
     </row>
     <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="19"/>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" s="19"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D16" s="19"/>
     </row>
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="19"/>
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D21" s="19"/>
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D23" s="19"/>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" s="19"/>
     </row>
     <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" s="19"/>
     </row>
     <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" s="19"/>
     </row>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="19"/>
     </row>
@@ -4895,7 +4884,7 @@
         <v>17</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="19"/>
     </row>
@@ -4907,7 +4896,7 @@
         <v>26</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D29" s="19"/>
     </row>
@@ -4919,7 +4908,7 @@
         <v>22</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D30" s="19"/>
     </row>
@@ -4931,7 +4920,7 @@
         <v>20</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D31" s="19"/>
     </row>
@@ -4943,7 +4932,7 @@
         <v>17</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D32" s="19"/>
     </row>
@@ -4955,7 +4944,7 @@
         <v>15</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D33" s="19"/>
     </row>
@@ -4967,7 +4956,7 @@
         <v>36</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D34" s="19"/>
     </row>
@@ -4979,7 +4968,7 @@
         <v>21</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D35" s="19"/>
     </row>
@@ -4991,7 +4980,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D36" s="19"/>
     </row>
@@ -5003,7 +4992,7 @@
         <v>20</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D37" s="19"/>
     </row>
@@ -5015,7 +5004,7 @@
         <v>15</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D38" s="19"/>
     </row>
@@ -5027,7 +5016,7 @@
         <v>21</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D39" s="19"/>
     </row>
@@ -5039,7 +5028,7 @@
         <v>20</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D40" s="19"/>
     </row>
@@ -5051,7 +5040,7 @@
         <v>17</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D41" s="19"/>
     </row>
@@ -5063,7 +5052,7 @@
         <v>37</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D42" s="19"/>
     </row>
@@ -5075,7 +5064,7 @@
         <v>26</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D43" s="19"/>
     </row>
@@ -5084,10 +5073,10 @@
         <v>45789</v>
       </c>
       <c r="B44" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="25" t="s">
         <v>86</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>87</v>
       </c>
       <c r="D44" s="19"/>
     </row>
@@ -5099,7 +5088,7 @@
         <v>8</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D45" s="19"/>
     </row>
@@ -5111,7 +5100,7 @@
         <v>41</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D46" s="19"/>
     </row>
@@ -5123,7 +5112,7 @@
         <v>25</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D47" s="19"/>
     </row>
@@ -5135,7 +5124,7 @@
         <v>18</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D48" s="19"/>
     </row>
@@ -5144,10 +5133,10 @@
         <v>45850</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D49" s="19"/>
     </row>
@@ -5159,7 +5148,7 @@
         <v>8</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D50" s="19"/>
     </row>
@@ -5171,7 +5160,7 @@
         <v>41</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D51" s="19"/>
     </row>
@@ -5183,7 +5172,7 @@
         <v>20</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D52" s="19"/>
     </row>
@@ -5195,7 +5184,7 @@
         <v>19</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D53" s="19"/>
     </row>
@@ -5207,7 +5196,7 @@
         <v>26</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D54" s="19"/>
     </row>
@@ -5219,7 +5208,7 @@
         <v>8</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D55" s="19"/>
     </row>
@@ -5231,7 +5220,7 @@
         <v>44</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D56" s="19"/>
     </row>
@@ -5243,7 +5232,7 @@
         <v>20</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="19"/>
     </row>
@@ -5255,7 +5244,7 @@
         <v>26</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D58" s="19"/>
     </row>
@@ -5267,7 +5256,7 @@
         <v>19</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D59" s="19"/>
     </row>
@@ -5279,7 +5268,7 @@
         <v>26</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D60" s="19"/>
     </row>
@@ -5291,7 +5280,7 @@
         <v>8</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D61" s="19"/>
     </row>
@@ -5303,7 +5292,7 @@
         <v>22</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D62" s="19"/>
     </row>
@@ -5315,7 +5304,7 @@
         <v>26</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D63" s="19"/>
     </row>
@@ -5327,7 +5316,7 @@
         <v>39</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D64" s="19"/>
     </row>
@@ -5336,82 +5325,82 @@
         <v>46003</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D65" s="19"/>
     </row>
     <row r="66" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B66" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D66" s="19"/>
     </row>
     <row r="67" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B67" s="19" t="s">
         <v>41</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D67" s="19"/>
     </row>
     <row r="68" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A68" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B68" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D68" s="19"/>
     </row>
     <row r="69" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B69" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D69" s="19"/>
     </row>
     <row r="70" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A70" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B70" s="19" t="s">
         <v>50</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D70" s="19"/>
     </row>
     <row r="71" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A71" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D71" s="19"/>
     </row>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CB162A-9115-4403-AFDC-18616B66C4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903C8841-9B0E-4C5C-BBA8-F3D2B9A569B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="100">
   <si>
     <t>STT</t>
   </si>
@@ -1006,10 +1006,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2005,18 +2005,44 @@
       <c r="A24" s="1">
         <v>24</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+      <c r="B24" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="33">
+        <v>60000</v>
+      </c>
+      <c r="E24" s="33">
+        <v>0</v>
+      </c>
+      <c r="F24" s="33">
+        <f t="shared" ref="F24" si="31">(D24+I24)-E24</f>
+        <v>60000</v>
+      </c>
+      <c r="G24" s="33">
+        <v>0</v>
+      </c>
+      <c r="H24" s="34">
+        <v>0</v>
+      </c>
+      <c r="I24" s="33">
+        <f t="shared" ref="I24" si="32">D24*H24</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>46006</v>
+      </c>
+      <c r="K24" s="4">
+        <v>46012</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -2024,94 +2050,162 @@
       </c>
       <c r="B25" s="28"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-    </row>
-    <row r="26" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="B26" s="40" t="s">
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>26</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>27</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>28</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>29</v>
+      </c>
+      <c r="B29" s="28"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+    </row>
+    <row r="30" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="B30" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="50" t="s">
+      <c r="C30" s="40"/>
+      <c r="D30" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D27" s="49" t="s">
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D31" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="49"/>
-      <c r="F27" s="41">
-        <f>SUM(D2:D25)</f>
-        <v>1750000</v>
-      </c>
-      <c r="G27" s="42"/>
-      <c r="J27" s="42"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D28" s="49" t="s">
+      <c r="E31" s="49"/>
+      <c r="F31" s="41">
+        <f>SUM(D2:D29)</f>
+        <v>1810000</v>
+      </c>
+      <c r="G31" s="42"/>
+      <c r="J31" s="42"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D32" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="49"/>
-      <c r="F28" s="41">
-        <f>SUM(E2:E25)</f>
+      <c r="E32" s="49"/>
+      <c r="F32" s="41">
+        <f>SUM(E2:E29)</f>
         <v>924000</v>
       </c>
-      <c r="G28" s="42"/>
-      <c r="M28" s="30" t="s">
+      <c r="G32" s="42"/>
+      <c r="M32" s="30" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D29" s="49" t="s">
+    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D33" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="49"/>
-      <c r="F29" s="41">
-        <f>-SUM(F2:F25)</f>
-        <v>-878500</v>
-      </c>
-      <c r="G29" s="42"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-    </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F33" s="42"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="41">
+        <f>-SUM(F2:F29)</f>
+        <v>-938500</v>
+      </c>
       <c r="G33" s="42"/>
     </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F34" s="42"/>
-    </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
       <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F38" s="42"/>
+    </row>
+    <row r="39" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F39" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D30:G30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D26" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
+    <hyperlink ref="D30" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2123,7 +2217,7 @@
   <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3105,10 +3199,18 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="24"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="26"/>
+      <c r="A79" s="24">
+        <v>46006</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C79" s="23">
+        <v>60000</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="80" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A80" s="24"/>
@@ -3132,9 +3234,9 @@
   <sheetPr codeName="Sheet3" filterMode="1"/>
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
+      <selection pane="bottomLeft" activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4077,7 +4179,9 @@
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
+      <c r="P29" s="12">
+        <v>60000</v>
+      </c>
       <c r="Q29" s="12"/>
       <c r="R29" s="12">
         <v>70000</v>
@@ -4470,7 +4574,7 @@
       </c>
       <c r="P43" s="12">
         <f t="shared" si="0"/>
-        <v>350000</v>
+        <v>410000</v>
       </c>
       <c r="Q43" s="12">
         <f t="shared" si="0"/>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903C8841-9B0E-4C5C-BBA8-F3D2B9A569B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBDE73F-B9BA-47AF-AA6D-D4AEF5E55652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -1009,7 +1009,7 @@
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1883,14 +1883,15 @@
         <v>45</v>
       </c>
       <c r="D21" s="33">
-        <v>70000</v>
+        <f>70000+150000+20000+20000</f>
+        <v>260000</v>
       </c>
       <c r="E21" s="33">
         <v>0</v>
       </c>
       <c r="F21" s="33">
         <f t="shared" ref="F21" si="27">(D21+I21)-E21</f>
-        <v>70000</v>
+        <v>260000</v>
       </c>
       <c r="G21" s="33">
         <v>0</v>
@@ -2148,7 +2149,7 @@
       <c r="E31" s="49"/>
       <c r="F31" s="41">
         <f>SUM(D2:D29)</f>
-        <v>1810000</v>
+        <v>2000000</v>
       </c>
       <c r="G31" s="42"/>
       <c r="J31" s="42"/>
@@ -2174,7 +2175,7 @@
       <c r="E33" s="49"/>
       <c r="F33" s="41">
         <f>-SUM(F2:F29)</f>
-        <v>-938500</v>
+        <v>-1128500</v>
       </c>
       <c r="G33" s="42"/>
     </row>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBDE73F-B9BA-47AF-AA6D-D4AEF5E55652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB055FCA-8E1F-4717-A867-71E6A9B40640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="95">
   <si>
     <t>STT</t>
   </si>
@@ -173,9 +173,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Võ Thị Diễm Hằng</t>
-  </si>
-  <si>
     <t>Lê Ngọc Như Ý</t>
   </si>
   <si>
@@ -185,21 +182,9 @@
     <t>6 ngày</t>
   </si>
   <si>
-    <t>Nguyễn Phước Đăng Tùng (NaOH)</t>
-  </si>
-  <si>
-    <t>Nạp điện thoại</t>
-  </si>
-  <si>
-    <t>Mua quân huy</t>
-  </si>
-  <si>
     <t>Lê Hoàng Thiên Ân</t>
   </si>
   <si>
-    <t>3 ngày</t>
-  </si>
-  <si>
     <t>Bùi Khánh Duy</t>
   </si>
   <si>
@@ -338,10 +323,10 @@
     <t>2 ngày</t>
   </si>
   <si>
-    <t>Đã trả đủ</t>
-  </si>
-  <si>
-    <t>7 ngày</t>
+    <t>5 ngày</t>
+  </si>
+  <si>
+    <t>1 ngày</t>
   </si>
 </sst>
 </file>
@@ -419,7 +404,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,12 +426,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF4F4F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -521,7 +500,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -641,21 +620,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1006,10 +970,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1109,7 +1073,7 @@
         <v>46011</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>14</v>
@@ -1234,7 +1198,7 @@
         <v>46008</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="M5" s="15" t="s">
         <v>14</v>
@@ -1277,7 +1241,7 @@
         <v>46007</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>14</v>
@@ -1287,41 +1251,45 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="46">
-        <v>50000</v>
-      </c>
-      <c r="E7" s="46">
-        <v>50000</v>
-      </c>
-      <c r="F7" s="46">
-        <f>(D7+I7)-E7</f>
+      <c r="B7" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="33">
+        <f>100000+50000</f>
+        <v>150000</v>
+      </c>
+      <c r="E7" s="33">
+        <f>10000</f>
+        <v>10000</v>
+      </c>
+      <c r="F7" s="33">
+        <f t="shared" ref="F7:F8" si="6">(D7+I7)-E7</f>
+        <v>140000</v>
+      </c>
+      <c r="G7" s="33">
         <v>0</v>
       </c>
-      <c r="G7" s="46">
+      <c r="H7" s="34">
         <v>0</v>
       </c>
-      <c r="H7" s="47">
+      <c r="I7" s="33">
+        <f t="shared" ref="I7:I8" si="7">D7*H7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="46">
-        <f t="shared" ref="I7" si="6">D7*H7</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="48">
+      <c r="J7" s="4">
         <v>46001</v>
       </c>
-      <c r="K7" s="48">
-        <v>46006</v>
-      </c>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45" t="s">
-        <v>98</v>
+      <c r="K7" s="4">
+        <v>46007</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1329,22 +1297,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="33">
-        <f>100000+50000</f>
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="E8" s="33">
-        <f>10000</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="33">
-        <f t="shared" ref="F8:F9" si="7">(D8+I8)-E8</f>
-        <v>140000</v>
+        <f t="shared" si="6"/>
+        <v>50000</v>
       </c>
       <c r="G8" s="33">
         <v>0</v>
@@ -1353,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="33">
-        <f t="shared" ref="I8:I9" si="8">D8*H8</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J8" s="4">
@@ -1363,7 +1329,7 @@
         <v>46007</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>14</v>
@@ -1374,20 +1340,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D9" s="33">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="E9" s="33">
         <v>0</v>
       </c>
       <c r="F9" s="33">
-        <f t="shared" si="7"/>
-        <v>50000</v>
+        <f t="shared" ref="F9" si="8">(D9+I9)-E9</f>
+        <v>5000</v>
       </c>
       <c r="G9" s="33">
         <v>0</v>
@@ -1396,17 +1362,17 @@
         <v>0</v>
       </c>
       <c r="I9" s="33">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="I9" si="9">D9*H9</f>
         <v>0</v>
       </c>
       <c r="J9" s="4">
-        <v>46001</v>
+        <v>46005</v>
       </c>
       <c r="K9" s="4">
-        <v>46007</v>
+        <v>46011</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>14</v>
@@ -1414,799 +1380,382 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>10</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="46">
-        <v>150000</v>
-      </c>
-      <c r="E10" s="46">
-        <f>150000</f>
-        <v>150000</v>
-      </c>
-      <c r="F10" s="46">
-        <f t="shared" ref="F10" si="9">(D10+I10)-E10</f>
+        <v>9</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="33">
+        <v>5000</v>
+      </c>
+      <c r="E10" s="33">
         <v>0</v>
       </c>
-      <c r="G10" s="46">
+      <c r="F10" s="33">
+        <f t="shared" ref="F10" si="10">(D10+I10)-E10</f>
+        <v>5000</v>
+      </c>
+      <c r="G10" s="33">
         <v>0</v>
       </c>
-      <c r="H10" s="47">
+      <c r="H10" s="34">
         <v>0</v>
       </c>
-      <c r="I10" s="46">
-        <f t="shared" ref="I10" si="10">D10*H10</f>
+      <c r="I10" s="33">
+        <f t="shared" ref="I10" si="11">D10*H10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="48">
-        <v>46003</v>
-      </c>
-      <c r="K10" s="48">
-        <v>46006</v>
-      </c>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45" t="s">
-        <v>98</v>
+      <c r="J10" s="4">
+        <v>46005</v>
+      </c>
+      <c r="K10" s="4">
+        <v>46011</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>11</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="46">
-        <v>340000</v>
-      </c>
-      <c r="E11" s="46">
-        <f>340000</f>
-        <v>340000</v>
-      </c>
-      <c r="F11" s="46">
-        <f t="shared" ref="F11" si="11">(D11+I11)-E11</f>
+        <v>10</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="33">
+        <f>70000+150000+20000+20000</f>
+        <v>260000</v>
+      </c>
+      <c r="E11" s="33">
         <v>0</v>
       </c>
-      <c r="G11" s="46">
+      <c r="F11" s="33">
+        <f t="shared" ref="F11" si="12">(D11+I11)-E11</f>
+        <v>260000</v>
+      </c>
+      <c r="G11" s="33">
         <v>0</v>
       </c>
-      <c r="H11" s="47">
+      <c r="H11" s="34">
         <v>0</v>
       </c>
-      <c r="I11" s="46">
-        <f t="shared" ref="I11" si="12">D11*H11</f>
+      <c r="I11" s="33">
+        <f t="shared" ref="I11" si="13">D11*H11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="48">
-        <v>46003</v>
-      </c>
-      <c r="K11" s="48">
+      <c r="J11" s="4">
         <v>46006</v>
       </c>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45" t="s">
-        <v>98</v>
+      <c r="K11" s="4">
+        <v>46012</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>12</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="46">
-        <v>50000</v>
-      </c>
-      <c r="E12" s="46">
-        <f>50000</f>
-        <v>50000</v>
-      </c>
-      <c r="F12" s="46">
-        <f t="shared" ref="F12" si="13">(D12+I12)-E12</f>
+        <v>11</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="33">
+        <v>20000</v>
+      </c>
+      <c r="E12" s="33">
         <v>0</v>
       </c>
-      <c r="G12" s="46">
+      <c r="F12" s="33">
+        <f t="shared" ref="F12:F13" si="14">(D12+I12)-E12</f>
+        <v>20000</v>
+      </c>
+      <c r="G12" s="33">
         <v>0</v>
       </c>
-      <c r="H12" s="47">
+      <c r="H12" s="34">
         <v>0</v>
       </c>
-      <c r="I12" s="46">
-        <f t="shared" ref="I12" si="14">D12*H12</f>
+      <c r="I12" s="33">
+        <f t="shared" ref="I12:I13" si="15">D12*H12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="48">
-        <v>46004</v>
-      </c>
-      <c r="K12" s="48">
+      <c r="J12" s="4">
         <v>46006</v>
       </c>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45" t="s">
-        <v>98</v>
+      <c r="K12" s="4">
+        <v>46012</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>13</v>
-      </c>
-      <c r="B13" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="46">
-        <v>20000</v>
-      </c>
-      <c r="E13" s="46">
-        <v>20000</v>
-      </c>
-      <c r="F13" s="46">
-        <f t="shared" ref="F13:F14" si="15">(D13+I13)-E13</f>
+        <v>12</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="33">
+        <v>10000</v>
+      </c>
+      <c r="E13" s="33">
         <v>0</v>
       </c>
-      <c r="G13" s="46">
+      <c r="F13" s="33">
+        <f t="shared" si="14"/>
+        <v>10000</v>
+      </c>
+      <c r="G13" s="33">
         <v>0</v>
       </c>
-      <c r="H13" s="47">
+      <c r="H13" s="34">
         <v>0</v>
       </c>
-      <c r="I13" s="46">
-        <f t="shared" ref="I13:I14" si="16">D13*H13</f>
+      <c r="I13" s="33">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J13" s="48">
-        <v>46004</v>
-      </c>
-      <c r="K13" s="48">
+      <c r="J13" s="4">
         <v>46006</v>
       </c>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45" t="s">
-        <v>98</v>
+      <c r="K13" s="4">
+        <v>46012</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="33">
+        <v>60000</v>
+      </c>
+      <c r="E14" s="33">
+        <v>0</v>
+      </c>
+      <c r="F14" s="33">
+        <f t="shared" ref="F14" si="16">(D14+I14)-E14</f>
+        <v>60000</v>
+      </c>
+      <c r="G14" s="33">
+        <v>0</v>
+      </c>
+      <c r="H14" s="34">
+        <v>0</v>
+      </c>
+      <c r="I14" s="33">
+        <f t="shared" ref="I14" si="17">D14*H14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>46006</v>
+      </c>
+      <c r="K14" s="4">
+        <v>46012</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="46">
-        <v>20000</v>
-      </c>
-      <c r="E14" s="46">
-        <f>20000</f>
-        <v>20000</v>
-      </c>
-      <c r="F14" s="46">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="46">
-        <v>0</v>
-      </c>
-      <c r="H14" s="47">
-        <v>0</v>
-      </c>
-      <c r="I14" s="46">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="48">
-        <v>46004</v>
-      </c>
-      <c r="K14" s="48">
-        <v>46006</v>
-      </c>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>15</v>
-      </c>
-      <c r="B15" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="46">
-        <v>100000</v>
-      </c>
-      <c r="E15" s="46">
-        <f>100000</f>
-        <v>100000</v>
-      </c>
-      <c r="F15" s="46">
-        <f t="shared" ref="F15" si="17">(D15+I15)-E15</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="46">
-        <v>0</v>
-      </c>
-      <c r="H15" s="47">
-        <v>0</v>
-      </c>
-      <c r="I15" s="46">
-        <f t="shared" ref="I15" si="18">D15*H15</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="48">
-        <v>46004</v>
-      </c>
-      <c r="K15" s="48">
-        <v>46006</v>
-      </c>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45" t="s">
-        <v>98</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>16</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="46">
-        <v>20000</v>
-      </c>
-      <c r="E16" s="46">
-        <v>20000</v>
-      </c>
-      <c r="F16" s="46">
-        <f t="shared" ref="F16" si="19">(D16+I16)-E16</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="46">
-        <v>0</v>
-      </c>
-      <c r="H16" s="47">
-        <v>0</v>
-      </c>
-      <c r="I16" s="46">
-        <f t="shared" ref="I16" si="20">D16*H16</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="48">
-        <v>46005</v>
-      </c>
-      <c r="K16" s="48">
-        <v>46006</v>
-      </c>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45" t="s">
-        <v>98</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>17</v>
-      </c>
-      <c r="B17" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="46">
-        <v>20000</v>
-      </c>
-      <c r="E17" s="46">
-        <v>20000</v>
-      </c>
-      <c r="F17" s="46">
-        <f t="shared" ref="F17:F18" si="21">(D17+I17)-E17</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="46">
-        <v>0</v>
-      </c>
-      <c r="H17" s="47">
-        <v>0</v>
-      </c>
-      <c r="I17" s="46">
-        <f t="shared" ref="I17:I18" si="22">D17*H17</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="48">
-        <v>46005</v>
-      </c>
-      <c r="K17" s="48">
-        <v>46006</v>
-      </c>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45" t="s">
-        <v>98</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>18</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="33">
-        <v>5000</v>
-      </c>
-      <c r="E18" s="33">
-        <v>0</v>
-      </c>
-      <c r="F18" s="33">
-        <f t="shared" si="21"/>
-        <v>5000</v>
-      </c>
-      <c r="G18" s="33">
-        <v>0</v>
-      </c>
-      <c r="H18" s="34">
-        <v>0</v>
-      </c>
-      <c r="I18" s="33">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <v>46005</v>
-      </c>
-      <c r="K18" s="4">
-        <v>46011</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>19</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="33">
-        <v>5000</v>
-      </c>
-      <c r="E19" s="33">
-        <v>0</v>
-      </c>
-      <c r="F19" s="33">
-        <f t="shared" ref="F19" si="23">(D19+I19)-E19</f>
-        <v>5000</v>
-      </c>
-      <c r="G19" s="33">
-        <v>0</v>
-      </c>
-      <c r="H19" s="34">
-        <v>0</v>
-      </c>
-      <c r="I19" s="33">
-        <f t="shared" ref="I19" si="24">D19*H19</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <v>46005</v>
-      </c>
-      <c r="K19" s="4">
-        <v>46011</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>20</v>
-      </c>
-      <c r="B20" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="46">
-        <v>50000</v>
-      </c>
-      <c r="E20" s="46">
-        <v>50000</v>
-      </c>
-      <c r="F20" s="46">
-        <f t="shared" ref="F20" si="25">(D20+I20)-E20</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="46">
-        <v>0</v>
-      </c>
-      <c r="H20" s="47">
-        <v>0</v>
-      </c>
-      <c r="I20" s="46">
-        <f t="shared" ref="I20" si="26">D20*H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="48">
-        <v>46005</v>
-      </c>
-      <c r="K20" s="48">
-        <v>46006</v>
-      </c>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45" t="s">
-        <v>98</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B19" s="28"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+    </row>
+    <row r="20" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="B20" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>21</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="33">
-        <f>70000+150000+20000+20000</f>
-        <v>260000</v>
-      </c>
-      <c r="E21" s="33">
-        <v>0</v>
-      </c>
-      <c r="F21" s="33">
-        <f t="shared" ref="F21" si="27">(D21+I21)-E21</f>
-        <v>260000</v>
-      </c>
-      <c r="G21" s="33">
-        <v>0</v>
-      </c>
-      <c r="H21" s="34">
-        <v>0</v>
-      </c>
-      <c r="I21" s="33">
-        <f t="shared" ref="I21" si="28">D21*H21</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <v>46006</v>
-      </c>
-      <c r="K21" s="4">
-        <v>46012</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="D21" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="44"/>
+      <c r="F21" s="41">
+        <f>SUM(D2:D19)</f>
+        <v>1180000</v>
+      </c>
+      <c r="G21" s="42"/>
+      <c r="J21" s="42"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>22</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="33">
-        <v>20000</v>
-      </c>
-      <c r="E22" s="33">
-        <v>0</v>
-      </c>
-      <c r="F22" s="33">
-        <f t="shared" ref="F22:F23" si="29">(D22+I22)-E22</f>
-        <v>20000</v>
-      </c>
-      <c r="G22" s="33">
-        <v>0</v>
-      </c>
-      <c r="H22" s="34">
-        <v>0</v>
-      </c>
-      <c r="I22" s="33">
-        <f t="shared" ref="I22:I23" si="30">D22*H22</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="4">
-        <v>46006</v>
-      </c>
-      <c r="K22" s="4">
-        <v>46012</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>14</v>
+      <c r="D22" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="44"/>
+      <c r="F22" s="41">
+        <f>SUM(E2:E19)</f>
+        <v>104000</v>
+      </c>
+      <c r="G22" s="42"/>
+      <c r="M22" s="30" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>23</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="33">
-        <v>10000</v>
-      </c>
-      <c r="E23" s="33">
-        <v>0</v>
-      </c>
-      <c r="F23" s="33">
-        <f t="shared" si="29"/>
-        <v>10000</v>
-      </c>
-      <c r="G23" s="33">
-        <v>0</v>
-      </c>
-      <c r="H23" s="34">
-        <v>0</v>
-      </c>
-      <c r="I23" s="33">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="4">
-        <v>46006</v>
-      </c>
-      <c r="K23" s="4">
-        <v>46012</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>24</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="33">
-        <v>60000</v>
-      </c>
-      <c r="E24" s="33">
-        <v>0</v>
-      </c>
-      <c r="F24" s="33">
-        <f t="shared" ref="F24" si="31">(D24+I24)-E24</f>
-        <v>60000</v>
-      </c>
-      <c r="G24" s="33">
-        <v>0</v>
-      </c>
-      <c r="H24" s="34">
-        <v>0</v>
-      </c>
-      <c r="I24" s="33">
-        <f t="shared" ref="I24" si="32">D24*H24</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="4">
-        <v>46006</v>
-      </c>
-      <c r="K24" s="4">
-        <v>46012</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="D23" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="44"/>
+      <c r="F23" s="41">
+        <f>-SUM(F2:F19)</f>
+        <v>-1128500</v>
+      </c>
+      <c r="G23" s="42"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>25</v>
-      </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>26</v>
-      </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>27</v>
-      </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="33"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>28</v>
-      </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="F28" s="42"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>29</v>
-      </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-    </row>
-    <row r="30" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="B30" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D31" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="49"/>
-      <c r="F31" s="41">
-        <f>SUM(D2:D29)</f>
-        <v>2000000</v>
-      </c>
-      <c r="G31" s="42"/>
-      <c r="J31" s="42"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D32" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="49"/>
-      <c r="F32" s="41">
-        <f>SUM(E2:E29)</f>
-        <v>924000</v>
-      </c>
-      <c r="G32" s="42"/>
-      <c r="M32" s="30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D33" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="E33" s="49"/>
-      <c r="F33" s="41">
-        <f>-SUM(F2:F29)</f>
-        <v>-1128500</v>
-      </c>
-      <c r="G33" s="42"/>
-    </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-    </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-    </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-    </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="F38" s="42"/>
-    </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="F39" s="42"/>
+      <c r="F29" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D20:G20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D30" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
+    <hyperlink ref="D20" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2231,13 +1780,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>2</v>
@@ -2730,7 +2279,7 @@
         <v>45996</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C42" s="23">
         <v>540000</v>
@@ -2814,7 +2363,7 @@
         <v>45998</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C49" s="23">
         <v>100000</v>
@@ -2898,7 +2447,7 @@
         <v>46001</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="23">
         <v>50000</v>
@@ -3008,7 +2557,7 @@
         <v>46003</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C65" s="23">
         <v>340000</v>
@@ -3050,7 +2599,7 @@
         <v>46004</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C68" s="23">
         <v>20000</v>
@@ -3098,7 +2647,7 @@
         <v>50000</v>
       </c>
       <c r="D71" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -3106,7 +2655,7 @@
         <v>46005</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C72" s="23">
         <v>20000</v>
@@ -3168,7 +2717,7 @@
         <v>70000</v>
       </c>
       <c r="D76" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -3272,7 +2821,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>41</v>
@@ -3323,10 +2872,10 @@
         <v>38</v>
       </c>
       <c r="T1" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="U1" s="17" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
@@ -4654,13 +4203,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>2</v>
@@ -4668,316 +4217,316 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:6" ht="187.5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D3" s="19"/>
       <c r="F3" s="43" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D6" s="19"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D8" s="19"/>
     </row>
     <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D9" s="19"/>
     </row>
     <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D11" s="19"/>
     </row>
     <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D12" s="19"/>
     </row>
     <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D13" s="19"/>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D15" s="19"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D16" s="19"/>
     </row>
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D20" s="19"/>
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D21" s="19"/>
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D23" s="19"/>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D24" s="19"/>
     </row>
     <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D25" s="19"/>
     </row>
     <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D26" s="19"/>
     </row>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D27" s="19"/>
     </row>
@@ -4989,7 +4538,7 @@
         <v>17</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D28" s="19"/>
     </row>
@@ -5001,7 +4550,7 @@
         <v>26</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D29" s="19"/>
     </row>
@@ -5013,7 +4562,7 @@
         <v>22</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D30" s="19"/>
     </row>
@@ -5025,7 +4574,7 @@
         <v>20</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D31" s="19"/>
     </row>
@@ -5037,7 +4586,7 @@
         <v>17</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D32" s="19"/>
     </row>
@@ -5049,7 +4598,7 @@
         <v>15</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D33" s="19"/>
     </row>
@@ -5061,7 +4610,7 @@
         <v>36</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D34" s="19"/>
     </row>
@@ -5073,7 +4622,7 @@
         <v>21</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D35" s="19"/>
     </row>
@@ -5085,7 +4634,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D36" s="19"/>
     </row>
@@ -5097,7 +4646,7 @@
         <v>20</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D37" s="19"/>
     </row>
@@ -5109,7 +4658,7 @@
         <v>15</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D38" s="19"/>
     </row>
@@ -5121,7 +4670,7 @@
         <v>21</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D39" s="19"/>
     </row>
@@ -5133,7 +4682,7 @@
         <v>20</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D40" s="19"/>
     </row>
@@ -5145,7 +4694,7 @@
         <v>17</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D41" s="19"/>
     </row>
@@ -5157,7 +4706,7 @@
         <v>37</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D42" s="19"/>
     </row>
@@ -5169,7 +4718,7 @@
         <v>26</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D43" s="19"/>
     </row>
@@ -5178,10 +4727,10 @@
         <v>45789</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D44" s="19"/>
     </row>
@@ -5193,7 +4742,7 @@
         <v>8</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D45" s="19"/>
     </row>
@@ -5205,7 +4754,7 @@
         <v>41</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D46" s="19"/>
     </row>
@@ -5217,7 +4766,7 @@
         <v>25</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D47" s="19"/>
     </row>
@@ -5229,7 +4778,7 @@
         <v>18</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D48" s="19"/>
     </row>
@@ -5238,10 +4787,10 @@
         <v>45850</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D49" s="19"/>
     </row>
@@ -5253,7 +4802,7 @@
         <v>8</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D50" s="19"/>
     </row>
@@ -5265,7 +4814,7 @@
         <v>41</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D51" s="19"/>
     </row>
@@ -5277,7 +4826,7 @@
         <v>20</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D52" s="19"/>
     </row>
@@ -5289,7 +4838,7 @@
         <v>19</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D53" s="19"/>
     </row>
@@ -5301,7 +4850,7 @@
         <v>26</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D54" s="19"/>
     </row>
@@ -5313,7 +4862,7 @@
         <v>8</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D55" s="19"/>
     </row>
@@ -5322,10 +4871,10 @@
         <v>45942</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D56" s="19"/>
     </row>
@@ -5337,7 +4886,7 @@
         <v>20</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D57" s="19"/>
     </row>
@@ -5349,7 +4898,7 @@
         <v>26</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D58" s="19"/>
     </row>
@@ -5361,7 +4910,7 @@
         <v>19</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D59" s="19"/>
     </row>
@@ -5373,7 +4922,7 @@
         <v>26</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D60" s="19"/>
     </row>
@@ -5385,7 +4934,7 @@
         <v>8</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D61" s="19"/>
     </row>
@@ -5397,7 +4946,7 @@
         <v>22</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D62" s="19"/>
     </row>
@@ -5409,7 +4958,7 @@
         <v>26</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D63" s="19"/>
     </row>
@@ -5421,7 +4970,7 @@
         <v>39</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D64" s="19"/>
     </row>
@@ -5430,82 +4979,82 @@
         <v>46003</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D65" s="19"/>
     </row>
     <row r="66" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B66" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D66" s="19"/>
     </row>
     <row r="67" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B67" s="19" t="s">
         <v>41</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D67" s="19"/>
     </row>
     <row r="68" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A68" s="19" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B68" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D68" s="19"/>
     </row>
     <row r="69" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B69" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D69" s="19"/>
     </row>
     <row r="70" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A70" s="19" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D70" s="19"/>
     </row>
     <row r="71" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A71" s="19" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D71" s="19"/>
     </row>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB055FCA-8E1F-4717-A867-71E6A9B40640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78045987-AF69-4500-92AA-94E8A5511AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="98">
   <si>
     <t>STT</t>
   </si>
@@ -326,7 +326,16 @@
     <t>5 ngày</t>
   </si>
   <si>
-    <t>1 ngày</t>
+    <t>Đã trả đủ</t>
+  </si>
+  <si>
+    <t>Nạp Robux</t>
+  </si>
+  <si>
+    <t>4 ngày</t>
+  </si>
+  <si>
+    <t>ư</t>
   </si>
 </sst>
 </file>
@@ -404,7 +413,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,6 +435,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF4F4F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,7 +515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -626,6 +641,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -973,7 +1003,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,12 +1204,12 @@
         <v>120000</v>
       </c>
       <c r="E5" s="37">
-        <f>50000-16000+50000</f>
-        <v>84000</v>
+        <f>50000-16000+50000+7000</f>
+        <v>91000</v>
       </c>
       <c r="F5" s="37">
         <f t="shared" ref="F5" si="2">(D5+I5)-E5</f>
-        <v>36000</v>
+        <v>29000</v>
       </c>
       <c r="G5" s="37">
         <v>0</v>
@@ -1208,42 +1238,42 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="37">
         <v>100000</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="37">
         <v>0</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="37">
         <f t="shared" ref="F6" si="4">(D6+I6)-E6</f>
         <v>100000</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="37">
         <v>0</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="38">
         <v>0</v>
       </c>
-      <c r="I6" s="33">
+      <c r="I6" s="37">
         <f t="shared" ref="I6" si="5">D6*H6</f>
         <v>0</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="16">
         <v>46001</v>
       </c>
-      <c r="K6" s="4">
-        <v>46007</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="K6" s="16">
+        <v>46010</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="M6" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1251,44 +1281,44 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="37">
         <f>100000+50000</f>
         <v>150000</v>
       </c>
-      <c r="E7" s="33">
-        <f>10000</f>
-        <v>10000</v>
-      </c>
-      <c r="F7" s="33">
+      <c r="E7" s="37">
+        <f>10000+5000+23000</f>
+        <v>38000</v>
+      </c>
+      <c r="F7" s="37">
         <f t="shared" ref="F7:F8" si="6">(D7+I7)-E7</f>
-        <v>140000</v>
-      </c>
-      <c r="G7" s="33">
+        <v>112000</v>
+      </c>
+      <c r="G7" s="37">
         <v>0</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="38">
         <v>0</v>
       </c>
-      <c r="I7" s="33">
+      <c r="I7" s="37">
         <f t="shared" ref="I7:I8" si="7">D7*H7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="16">
         <v>46001</v>
       </c>
-      <c r="K7" s="4">
-        <v>46007</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="M7" s="1" t="s">
+      <c r="K7" s="16">
+        <v>46010</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1296,42 +1326,43 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="37">
         <v>50000</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="37">
+        <f>30000</f>
+        <v>30000</v>
+      </c>
+      <c r="F8" s="37">
+        <f t="shared" si="6"/>
+        <v>20000</v>
+      </c>
+      <c r="G8" s="37">
         <v>0</v>
       </c>
-      <c r="F8" s="33">
-        <f t="shared" si="6"/>
-        <v>50000</v>
-      </c>
-      <c r="G8" s="33">
+      <c r="H8" s="38">
         <v>0</v>
       </c>
-      <c r="H8" s="34">
-        <v>0</v>
-      </c>
-      <c r="I8" s="33">
+      <c r="I8" s="37">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="16">
         <v>46001</v>
       </c>
-      <c r="K8" s="4">
-        <v>46007</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="M8" s="1" t="s">
+      <c r="K8" s="16">
+        <v>46010</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1339,43 +1370,41 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="48">
         <v>5000</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="48" t="e">
+        <f t="shared" ref="F9" si="8">(D9+I9)-E9</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G9" s="48">
         <v>0</v>
       </c>
-      <c r="F9" s="33">
-        <f t="shared" ref="F9" si="8">(D9+I9)-E9</f>
-        <v>5000</v>
-      </c>
-      <c r="G9" s="33">
+      <c r="H9" s="49">
         <v>0</v>
       </c>
-      <c r="H9" s="34">
-        <v>0</v>
-      </c>
-      <c r="I9" s="33">
+      <c r="I9" s="48">
         <f t="shared" ref="I9" si="9">D9*H9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="50">
         <v>46005</v>
       </c>
-      <c r="K9" s="4">
-        <v>46011</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>14</v>
+      <c r="K9" s="50">
+        <v>46007</v>
+      </c>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -1598,18 +1627,44 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="B15" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="33">
+        <v>20000</v>
+      </c>
+      <c r="E15" s="33">
+        <v>0</v>
+      </c>
+      <c r="F15" s="33">
+        <f t="shared" ref="F15" si="18">(D15+I15)-E15</f>
+        <v>20000</v>
+      </c>
+      <c r="G15" s="33">
+        <v>0</v>
+      </c>
+      <c r="H15" s="34">
+        <v>0</v>
+      </c>
+      <c r="I15" s="33">
+        <f t="shared" ref="I15" si="19">D15*H15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>46007</v>
+      </c>
+      <c r="K15" s="4">
+        <v>46013</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1698,7 +1753,7 @@
       <c r="E21" s="44"/>
       <c r="F21" s="41">
         <f>SUM(D2:D19)</f>
-        <v>1180000</v>
+        <v>1200000</v>
       </c>
       <c r="G21" s="42"/>
       <c r="J21" s="42"/>
@@ -1710,7 +1765,7 @@
       <c r="E22" s="44"/>
       <c r="F22" s="41">
         <f>SUM(E2:E19)</f>
-        <v>104000</v>
+        <v>169000</v>
       </c>
       <c r="G22" s="42"/>
       <c r="M22" s="30" t="s">
@@ -1722,9 +1777,9 @@
         <v>27</v>
       </c>
       <c r="E23" s="44"/>
-      <c r="F23" s="41">
+      <c r="F23" s="41" t="e">
         <f>-SUM(F2:F19)</f>
-        <v>-1128500</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G23" s="42"/>
     </row>
@@ -1764,10 +1819,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA131776-2E13-4A0E-8D22-F638A9EA7E4B}">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:XFD81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2763,16 +2818,132 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="24"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="26"/>
+      <c r="A80" s="24">
+        <v>46007</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80" s="23">
+        <v>20000</v>
+      </c>
+      <c r="D80" s="26" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="81" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A81" s="24"/>
       <c r="B81" s="22"/>
       <c r="C81" s="23"/>
       <c r="D81" s="26"/>
+    </row>
+    <row r="82" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="24"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="26"/>
+    </row>
+    <row r="83" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="24"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="23"/>
+      <c r="D83" s="26"/>
+    </row>
+    <row r="84" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="24"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="26"/>
+    </row>
+    <row r="85" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="24"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="26"/>
+    </row>
+    <row r="86" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="24"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="26"/>
+    </row>
+    <row r="87" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="24"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="23"/>
+      <c r="D87" s="26"/>
+    </row>
+    <row r="88" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="24"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="26"/>
+    </row>
+    <row r="89" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="24"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="26"/>
+    </row>
+    <row r="90" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="24"/>
+      <c r="B90" s="22"/>
+      <c r="C90" s="23"/>
+      <c r="D90" s="26"/>
+    </row>
+    <row r="91" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="24"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="26"/>
+    </row>
+    <row r="92" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="24"/>
+      <c r="B92" s="22"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="26"/>
+    </row>
+    <row r="93" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="24"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="26"/>
+    </row>
+    <row r="94" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="24"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="26"/>
+    </row>
+    <row r="95" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="24"/>
+      <c r="B95" s="22"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="26"/>
+    </row>
+    <row r="96" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="24"/>
+      <c r="B96" s="22"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="26"/>
+    </row>
+    <row r="97" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="24"/>
+      <c r="B97" s="22"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="26"/>
+    </row>
+    <row r="98" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="24"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="26"/>
+    </row>
+    <row r="99" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="24"/>
+      <c r="B99" s="22"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2781,12 +2952,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2244E0B0-ACF7-443D-861C-F5014E4A339F}">
-  <sheetPr codeName="Sheet3" filterMode="1"/>
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P42" sqref="P42"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S58" sqref="S58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2878,7 +3049,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>45979</v>
       </c>
@@ -2906,7 +3077,7 @@
       <c r="T2" s="12"/>
       <c r="U2" s="12"/>
     </row>
-    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45980</v>
       </c>
@@ -2931,7 +3102,7 @@
       <c r="T3" s="12"/>
       <c r="U3" s="12"/>
     </row>
-    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45981</v>
       </c>
@@ -2958,7 +3129,7 @@
       <c r="T4" s="12"/>
       <c r="U4" s="12"/>
     </row>
-    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>45982</v>
       </c>
@@ -2995,7 +3166,7 @@
       <c r="T5" s="12"/>
       <c r="U5" s="12"/>
     </row>
-    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>45983</v>
       </c>
@@ -3022,7 +3193,7 @@
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
     </row>
-    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>45984</v>
       </c>
@@ -3049,7 +3220,7 @@
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
     </row>
-    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>45985</v>
       </c>
@@ -3081,7 +3252,7 @@
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
     </row>
-    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>45986</v>
       </c>
@@ -3106,7 +3277,7 @@
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
     </row>
-    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>45987</v>
       </c>
@@ -3144,7 +3315,7 @@
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
     </row>
-    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>45988</v>
       </c>
@@ -3171,7 +3342,7 @@
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
     </row>
-    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>45989</v>
       </c>
@@ -3198,7 +3369,7 @@
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
     </row>
-    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45990</v>
       </c>
@@ -3227,7 +3398,7 @@
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
     </row>
-    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>45991</v>
       </c>
@@ -3256,7 +3427,7 @@
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
     </row>
-    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>45992</v>
       </c>
@@ -3287,7 +3458,7 @@
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
     </row>
-    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>45993</v>
       </c>
@@ -3325,7 +3496,7 @@
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
     </row>
-    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>45994</v>
       </c>
@@ -3356,7 +3527,7 @@
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
     </row>
-    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45995</v>
       </c>
@@ -3385,7 +3556,7 @@
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
     </row>
-    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45996</v>
       </c>
@@ -3417,7 +3588,7 @@
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
     </row>
-    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>45997</v>
       </c>
@@ -3451,7 +3622,7 @@
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
     </row>
-    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>45998</v>
       </c>
@@ -3478,7 +3649,7 @@
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
     </row>
-    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45999</v>
       </c>
@@ -3509,7 +3680,7 @@
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
     </row>
-    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>46000</v>
       </c>
@@ -3538,7 +3709,7 @@
       <c r="T23" s="12"/>
       <c r="U23" s="12"/>
     </row>
-    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>46001</v>
       </c>
@@ -3571,7 +3742,7 @@
       <c r="T24" s="12"/>
       <c r="U24" s="12"/>
     </row>
-    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>46002</v>
       </c>
@@ -3601,7 +3772,7 @@
       <c r="T25" s="12"/>
       <c r="U25" s="12"/>
     </row>
-    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>46003</v>
       </c>
@@ -3637,7 +3808,7 @@
       <c r="T26" s="12"/>
       <c r="U26" s="12"/>
     </row>
-    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>46004</v>
       </c>
@@ -3674,7 +3845,7 @@
       </c>
       <c r="U27" s="12"/>
     </row>
-    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>46005</v>
       </c>
@@ -3740,7 +3911,7 @@
       <c r="T29" s="12"/>
       <c r="U29" s="12"/>
     </row>
-    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>46007</v>
       </c>
@@ -3760,12 +3931,14 @@
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
-      <c r="R30" s="12"/>
+      <c r="R30" s="12">
+        <v>20000</v>
+      </c>
       <c r="S30" s="12"/>
       <c r="T30" s="12"/>
       <c r="U30" s="12"/>
     </row>
-    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>46008</v>
       </c>
@@ -3790,7 +3963,7 @@
       <c r="T31" s="12"/>
       <c r="U31" s="12"/>
     </row>
-    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>46009</v>
       </c>
@@ -3815,7 +3988,7 @@
       <c r="T32" s="12"/>
       <c r="U32" s="12"/>
     </row>
-    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>46010</v>
       </c>
@@ -3840,7 +4013,7 @@
       <c r="T33" s="12"/>
       <c r="U33" s="12"/>
     </row>
-    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>46011</v>
       </c>
@@ -3865,7 +4038,7 @@
       <c r="T34" s="12"/>
       <c r="U34" s="12"/>
     </row>
-    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>46012</v>
       </c>
@@ -3890,7 +4063,7 @@
       <c r="T35" s="12"/>
       <c r="U35" s="12"/>
     </row>
-    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>46013</v>
       </c>
@@ -3915,7 +4088,7 @@
       <c r="T36" s="12"/>
       <c r="U36" s="12"/>
     </row>
-    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>46014</v>
       </c>
@@ -3940,7 +4113,7 @@
       <c r="T37" s="12"/>
       <c r="U37" s="12"/>
     </row>
-    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>46015</v>
       </c>
@@ -3965,7 +4138,7 @@
       <c r="T38" s="12"/>
       <c r="U38" s="12"/>
     </row>
-    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>46016</v>
       </c>
@@ -3990,7 +4163,7 @@
       <c r="T39" s="12"/>
       <c r="U39" s="12"/>
     </row>
-    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>46017</v>
       </c>
@@ -4015,7 +4188,7 @@
       <c r="T40" s="12"/>
       <c r="U40" s="12"/>
     </row>
-    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>46018</v>
       </c>
@@ -4132,7 +4305,7 @@
       </c>
       <c r="R43" s="12">
         <f t="shared" si="0"/>
-        <v>1455000</v>
+        <v>1475000</v>
       </c>
       <c r="S43" s="12">
         <f t="shared" si="0"/>
@@ -4174,13 +4347,7 @@
       <c r="G46" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U41" xr:uid="{2244E0B0-ACF7-443D-861C-F5014E4A339F}">
-    <filterColumn colId="0">
-      <filters calendarType="gregorian">
-        <dateGroupItem year="2025" month="12" day="15" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:U41" xr:uid="{2244E0B0-ACF7-443D-861C-F5014E4A339F}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78045987-AF69-4500-92AA-94E8A5511AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB1E4C6-5BBE-4FFB-B641-18A6ADC64B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="97">
   <si>
     <t>STT</t>
   </si>
@@ -333,9 +333,6 @@
   </si>
   <si>
     <t>4 ngày</t>
-  </si>
-  <si>
-    <t>ư</t>
   </si>
 </sst>
 </file>
@@ -636,12 +633,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -656,6 +647,12 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1003,7 +1000,7 @@
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1370,40 +1367,40 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D9" s="46">
         <v>5000</v>
       </c>
-      <c r="E9" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="48" t="e">
+      <c r="E9" s="46">
+        <v>5000</v>
+      </c>
+      <c r="F9" s="46">
         <f t="shared" ref="F9" si="8">(D9+I9)-E9</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G9" s="48">
         <v>0</v>
       </c>
-      <c r="H9" s="49">
+      <c r="G9" s="46">
         <v>0</v>
       </c>
-      <c r="I9" s="48">
+      <c r="H9" s="47">
+        <v>0</v>
+      </c>
+      <c r="I9" s="46">
         <f t="shared" ref="I9" si="9">D9*H9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="50">
+      <c r="J9" s="48">
         <v>46005</v>
       </c>
-      <c r="K9" s="50">
+      <c r="K9" s="48">
         <v>46007</v>
       </c>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47" t="s">
+      <c r="L9" s="45"/>
+      <c r="M9" s="45" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1739,18 +1736,18 @@
         <v>33</v>
       </c>
       <c r="C20" s="40"/>
-      <c r="D20" s="45" t="s">
+      <c r="D20" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="44"/>
+      <c r="E21" s="49"/>
       <c r="F21" s="41">
         <f>SUM(D2:D19)</f>
         <v>1200000</v>
@@ -1759,13 +1756,13 @@
       <c r="J21" s="42"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D22" s="44" t="s">
+      <c r="D22" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="44"/>
+      <c r="E22" s="49"/>
       <c r="F22" s="41">
         <f>SUM(E2:E19)</f>
-        <v>169000</v>
+        <v>174000</v>
       </c>
       <c r="G22" s="42"/>
       <c r="M22" s="30" t="s">
@@ -1773,13 +1770,13 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D23" s="44" t="s">
+      <c r="D23" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="44"/>
-      <c r="F23" s="41" t="e">
+      <c r="E23" s="49"/>
+      <c r="F23" s="41">
         <f>-SUM(F2:F19)</f>
-        <v>#VALUE!</v>
+        <v>-1078500</v>
       </c>
       <c r="G23" s="42"/>
     </row>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB1E4C6-5BBE-4FFB-B641-18A6ADC64B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D43470-B6D7-46F8-BFBD-8AE45E7C6F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="96">
   <si>
     <t>STT</t>
   </si>
@@ -179,9 +179,6 @@
     <t>Mua Robux</t>
   </si>
   <si>
-    <t>6 ngày</t>
-  </si>
-  <si>
     <t>Lê Hoàng Thiên Ân</t>
   </si>
   <si>
@@ -320,9 +317,6 @@
     <t>BỎ</t>
   </si>
   <si>
-    <t>2 ngày</t>
-  </si>
-  <si>
     <t>5 ngày</t>
   </si>
   <si>
@@ -333,6 +327,9 @@
   </si>
   <si>
     <t>4 ngày</t>
+  </si>
+  <si>
+    <t>3 ngày</t>
   </si>
 </sst>
 </file>
@@ -997,10 +994,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,7 +1097,7 @@
         <v>46011</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>14</v>
@@ -1191,44 +1188,42 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="46">
         <v>120000</v>
       </c>
-      <c r="E5" s="37">
-        <f>50000-16000+50000+7000</f>
-        <v>91000</v>
-      </c>
-      <c r="F5" s="37">
+      <c r="E5" s="46">
+        <f>50000-16000+50000+7000+29000</f>
+        <v>120000</v>
+      </c>
+      <c r="F5" s="46">
         <f t="shared" ref="F5" si="2">(D5+I5)-E5</f>
-        <v>29000</v>
-      </c>
-      <c r="G5" s="37">
         <v>0</v>
       </c>
-      <c r="H5" s="38">
+      <c r="G5" s="46">
         <v>0</v>
       </c>
-      <c r="I5" s="37">
+      <c r="H5" s="47">
+        <v>0</v>
+      </c>
+      <c r="I5" s="46">
         <f t="shared" ref="I5" si="3">D5*H5</f>
         <v>0</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="48">
         <v>45999</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="48">
         <v>46008</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="45"/>
+      <c r="M5" s="45" t="s">
         <v>92</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1245,11 +1240,12 @@
         <v>100000</v>
       </c>
       <c r="E6" s="37">
-        <v>0</v>
+        <f>50000-29000</f>
+        <v>21000</v>
       </c>
       <c r="F6" s="37">
         <f t="shared" ref="F6" si="4">(D6+I6)-E6</f>
-        <v>100000</v>
+        <v>79000</v>
       </c>
       <c r="G6" s="37">
         <v>0</v>
@@ -1268,7 +1264,7 @@
         <v>46010</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M6" s="15" t="s">
         <v>14</v>
@@ -1313,7 +1309,7 @@
         <v>46010</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M7" s="15" t="s">
         <v>14</v>
@@ -1357,7 +1353,7 @@
         <v>46010</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M8" s="15" t="s">
         <v>14</v>
@@ -1365,13 +1361,13 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D9" s="46">
         <v>5000</v>
@@ -1396,77 +1392,73 @@
       <c r="J9" s="48">
         <v>46005</v>
       </c>
-      <c r="K9" s="48">
-        <v>46007</v>
-      </c>
+      <c r="K9" s="48"/>
       <c r="L9" s="45"/>
       <c r="M9" s="45" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="33">
-        <v>5000</v>
-      </c>
-      <c r="E10" s="33">
+      <c r="C10" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="46">
+        <f>70000+150000+20000+20000</f>
+        <v>260000</v>
+      </c>
+      <c r="E10" s="46">
+        <v>260000</v>
+      </c>
+      <c r="F10" s="46">
+        <f t="shared" ref="F10" si="10">(D10+I10)-E10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="33">
-        <f t="shared" ref="F10" si="10">(D10+I10)-E10</f>
-        <v>5000</v>
-      </c>
-      <c r="G10" s="33">
+      <c r="G10" s="46">
         <v>0</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="47">
         <v>0</v>
       </c>
-      <c r="I10" s="33">
+      <c r="I10" s="46">
         <f t="shared" ref="I10" si="11">D10*H10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="4">
-        <v>46005</v>
-      </c>
-      <c r="K10" s="4">
-        <v>46011</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>14</v>
+      <c r="J10" s="48">
+        <v>46006</v>
+      </c>
+      <c r="K10" s="48">
+        <v>46008</v>
+      </c>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D11" s="33">
-        <f>70000+150000+20000+20000</f>
-        <v>260000</v>
+        <v>20000</v>
       </c>
       <c r="E11" s="33">
         <v>0</v>
       </c>
       <c r="F11" s="33">
-        <f t="shared" ref="F11" si="12">(D11+I11)-E11</f>
-        <v>260000</v>
+        <f t="shared" ref="F11:F12" si="12">(D11+I11)-E11</f>
+        <v>20000</v>
       </c>
       <c r="G11" s="33">
         <v>0</v>
@@ -1475,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="33">
-        <f t="shared" ref="I11" si="13">D11*H11</f>
+        <f t="shared" ref="I11:I12" si="13">D11*H11</f>
         <v>0</v>
       </c>
       <c r="J11" s="4">
@@ -1485,7 +1477,7 @@
         <v>46012</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>14</v>
@@ -1493,179 +1485,147 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="33">
-        <v>20000</v>
-      </c>
-      <c r="E12" s="33">
+        <v>12</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="46">
+        <v>10000</v>
+      </c>
+      <c r="E12" s="46">
+        <v>10000</v>
+      </c>
+      <c r="F12" s="46">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="F12" s="33">
-        <f t="shared" ref="F12:F13" si="14">(D12+I12)-E12</f>
-        <v>20000</v>
-      </c>
-      <c r="G12" s="33">
+      <c r="G12" s="46">
         <v>0</v>
       </c>
-      <c r="H12" s="34">
+      <c r="H12" s="47">
         <v>0</v>
       </c>
-      <c r="I12" s="33">
-        <f t="shared" ref="I12:I13" si="15">D12*H12</f>
+      <c r="I12" s="46">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="48">
         <v>46006</v>
       </c>
-      <c r="K12" s="4">
-        <v>46012</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>14</v>
+      <c r="K12" s="48">
+        <v>46008</v>
+      </c>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="33">
-        <v>10000</v>
-      </c>
-      <c r="E13" s="33">
+      <c r="D13" s="46">
+        <v>60000</v>
+      </c>
+      <c r="E13" s="46">
+        <v>60000</v>
+      </c>
+      <c r="F13" s="46">
+        <f t="shared" ref="F13" si="14">(D13+I13)-E13</f>
         <v>0</v>
       </c>
-      <c r="F13" s="33">
-        <f t="shared" si="14"/>
-        <v>10000</v>
-      </c>
-      <c r="G13" s="33">
+      <c r="G13" s="46">
         <v>0</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="47">
         <v>0</v>
       </c>
-      <c r="I13" s="33">
-        <f t="shared" si="15"/>
+      <c r="I13" s="46">
+        <f t="shared" ref="I13" si="15">D13*H13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="48">
         <v>46006</v>
       </c>
-      <c r="K13" s="4">
-        <v>46012</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>14</v>
+      <c r="K13" s="48">
+        <v>46008</v>
+      </c>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="33">
-        <v>60000</v>
-      </c>
-      <c r="E14" s="33">
+        <v>14</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="46">
+        <v>20000</v>
+      </c>
+      <c r="E14" s="46">
+        <v>20000</v>
+      </c>
+      <c r="F14" s="46">
+        <f t="shared" ref="F14" si="16">(D14+I14)-E14</f>
         <v>0</v>
       </c>
-      <c r="F14" s="33">
-        <f t="shared" ref="F14" si="16">(D14+I14)-E14</f>
-        <v>60000</v>
-      </c>
-      <c r="G14" s="33">
+      <c r="G14" s="46">
         <v>0</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="47">
         <v>0</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="46">
         <f t="shared" ref="I14" si="17">D14*H14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="4">
-        <v>46006</v>
-      </c>
-      <c r="K14" s="4">
-        <v>46012</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>14</v>
+      <c r="J14" s="48">
+        <v>46007</v>
+      </c>
+      <c r="K14" s="48">
+        <v>46008</v>
+      </c>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D15" s="33">
-        <v>20000</v>
-      </c>
-      <c r="E15" s="33">
-        <v>0</v>
-      </c>
-      <c r="F15" s="33">
-        <f t="shared" ref="F15" si="18">(D15+I15)-E15</f>
-        <v>20000</v>
-      </c>
-      <c r="G15" s="33">
-        <v>0</v>
-      </c>
-      <c r="H15" s="34">
-        <v>0</v>
-      </c>
-      <c r="I15" s="33">
-        <f t="shared" ref="I15" si="19">D15*H15</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
-        <v>46007</v>
-      </c>
-      <c r="K15" s="4">
-        <v>46013</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="1"/>
@@ -1682,7 +1642,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="28"/>
       <c r="C17" s="1"/>
@@ -1699,86 +1659,73 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-    </row>
-    <row r="20" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="B20" s="40" t="s">
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+    </row>
+    <row r="19" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="B19" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="50" t="s">
+      <c r="C19" s="40"/>
+      <c r="D19" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D20" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="49"/>
+      <c r="F20" s="41">
+        <f>SUM(D2:D18)</f>
+        <v>1195000</v>
+      </c>
+      <c r="G20" s="42"/>
+      <c r="J20" s="42"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D21" s="49" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E21" s="49"/>
       <c r="F21" s="41">
-        <f>SUM(D2:D19)</f>
-        <v>1200000</v>
+        <f>SUM(E2:E18)</f>
+        <v>574000</v>
       </c>
       <c r="G21" s="42"/>
-      <c r="J21" s="42"/>
+      <c r="M21" s="30" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D22" s="49" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E22" s="49"/>
       <c r="F22" s="41">
-        <f>SUM(E2:E19)</f>
-        <v>174000</v>
+        <f>-SUM(F2:F18)</f>
+        <v>-673500</v>
       </c>
       <c r="G22" s="42"/>
-      <c r="M22" s="30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D23" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="49"/>
-      <c r="F23" s="41">
-        <f>-SUM(F2:F19)</f>
-        <v>-1078500</v>
-      </c>
-      <c r="G23" s="42"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F25" s="42"/>
@@ -1790,24 +1737,20 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F28" s="42"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F29" s="42"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D19:G19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D20" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
+    <hyperlink ref="D19" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1832,13 +1775,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>2</v>
@@ -2331,7 +2274,7 @@
         <v>45996</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C42" s="23">
         <v>540000</v>
@@ -2415,7 +2358,7 @@
         <v>45998</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C49" s="23">
         <v>100000</v>
@@ -2609,7 +2552,7 @@
         <v>46003</v>
       </c>
       <c r="B65" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C65" s="23">
         <v>340000</v>
@@ -2651,7 +2594,7 @@
         <v>46004</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C68" s="23">
         <v>20000</v>
@@ -2707,7 +2650,7 @@
         <v>46005</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C72" s="23">
         <v>20000</v>
@@ -3040,10 +2983,10 @@
         <v>38</v>
       </c>
       <c r="T1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="17" t="s">
         <v>46</v>
-      </c>
-      <c r="U1" s="17" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -4367,13 +4310,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>2</v>
@@ -4381,316 +4324,316 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:6" ht="187.5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="19"/>
       <c r="F3" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="19"/>
     </row>
     <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="19"/>
     </row>
     <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D8" s="19"/>
     </row>
     <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="19"/>
     </row>
     <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="19"/>
     </row>
     <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="19"/>
     </row>
     <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="19"/>
     </row>
     <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="19"/>
     </row>
     <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" s="19"/>
     </row>
     <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="19"/>
     </row>
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B17" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="19"/>
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21" s="19" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="19"/>
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B23" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="19"/>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24" s="19"/>
     </row>
     <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B25" s="19" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" s="19"/>
     </row>
     <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" s="19"/>
     </row>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D27" s="19"/>
     </row>
@@ -4702,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" s="19"/>
     </row>
@@ -4714,7 +4657,7 @@
         <v>26</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" s="19"/>
     </row>
@@ -4726,7 +4669,7 @@
         <v>22</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D30" s="19"/>
     </row>
@@ -4738,7 +4681,7 @@
         <v>20</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D31" s="19"/>
     </row>
@@ -4750,7 +4693,7 @@
         <v>17</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D32" s="19"/>
     </row>
@@ -4762,7 +4705,7 @@
         <v>15</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D33" s="19"/>
     </row>
@@ -4774,7 +4717,7 @@
         <v>36</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D34" s="19"/>
     </row>
@@ -4786,7 +4729,7 @@
         <v>21</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D35" s="19"/>
     </row>
@@ -4798,7 +4741,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D36" s="19"/>
     </row>
@@ -4810,7 +4753,7 @@
         <v>20</v>
       </c>
       <c r="C37" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D37" s="19"/>
     </row>
@@ -4822,7 +4765,7 @@
         <v>15</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D38" s="19"/>
     </row>
@@ -4834,7 +4777,7 @@
         <v>21</v>
       </c>
       <c r="C39" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D39" s="19"/>
     </row>
@@ -4846,7 +4789,7 @@
         <v>20</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D40" s="19"/>
     </row>
@@ -4858,7 +4801,7 @@
         <v>17</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D41" s="19"/>
     </row>
@@ -4870,7 +4813,7 @@
         <v>37</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D42" s="19"/>
     </row>
@@ -4882,7 +4825,7 @@
         <v>26</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D43" s="19"/>
     </row>
@@ -4891,10 +4834,10 @@
         <v>45789</v>
       </c>
       <c r="B44" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="25" t="s">
         <v>80</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>81</v>
       </c>
       <c r="D44" s="19"/>
     </row>
@@ -4906,7 +4849,7 @@
         <v>8</v>
       </c>
       <c r="C45" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D45" s="19"/>
     </row>
@@ -4918,7 +4861,7 @@
         <v>41</v>
       </c>
       <c r="C46" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D46" s="19"/>
     </row>
@@ -4930,7 +4873,7 @@
         <v>25</v>
       </c>
       <c r="C47" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D47" s="19"/>
     </row>
@@ -4942,7 +4885,7 @@
         <v>18</v>
       </c>
       <c r="C48" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D48" s="19"/>
     </row>
@@ -4951,10 +4894,10 @@
         <v>45850</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D49" s="19"/>
     </row>
@@ -4966,7 +4909,7 @@
         <v>8</v>
       </c>
       <c r="C50" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D50" s="19"/>
     </row>
@@ -4978,7 +4921,7 @@
         <v>41</v>
       </c>
       <c r="C51" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D51" s="19"/>
     </row>
@@ -4990,7 +4933,7 @@
         <v>20</v>
       </c>
       <c r="C52" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D52" s="19"/>
     </row>
@@ -5002,7 +4945,7 @@
         <v>19</v>
       </c>
       <c r="C53" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D53" s="19"/>
     </row>
@@ -5014,7 +4957,7 @@
         <v>26</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D54" s="19"/>
     </row>
@@ -5026,7 +4969,7 @@
         <v>8</v>
       </c>
       <c r="C55" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D55" s="19"/>
     </row>
@@ -5038,7 +4981,7 @@
         <v>43</v>
       </c>
       <c r="C56" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D56" s="19"/>
     </row>
@@ -5050,7 +4993,7 @@
         <v>20</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D57" s="19"/>
     </row>
@@ -5062,7 +5005,7 @@
         <v>26</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D58" s="19"/>
     </row>
@@ -5074,7 +5017,7 @@
         <v>19</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D59" s="19"/>
     </row>
@@ -5086,7 +5029,7 @@
         <v>26</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D60" s="19"/>
     </row>
@@ -5098,7 +5041,7 @@
         <v>8</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D61" s="19"/>
     </row>
@@ -5110,7 +5053,7 @@
         <v>22</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D62" s="19"/>
     </row>
@@ -5122,7 +5065,7 @@
         <v>26</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D63" s="19"/>
     </row>
@@ -5134,7 +5077,7 @@
         <v>39</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D64" s="19"/>
     </row>
@@ -5143,82 +5086,82 @@
         <v>46003</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C65" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D65" s="19"/>
     </row>
     <row r="66" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B66" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D66" s="19"/>
     </row>
     <row r="67" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B67" s="19" t="s">
         <v>41</v>
       </c>
       <c r="C67" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D67" s="19"/>
     </row>
     <row r="68" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A68" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B68" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C68" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D68" s="19"/>
     </row>
     <row r="69" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B69" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C69" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D69" s="19"/>
     </row>
     <row r="70" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A70" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C70" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D70" s="19"/>
     </row>
     <row r="71" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A71" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C71" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D71" s="19"/>
     </row>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D43470-B6D7-46F8-BFBD-8AE45E7C6F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F944CF4-FE79-4082-9C29-569895E77D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="DANH SÁCH NỢ" sheetId="3" r:id="rId1"/>
     <sheet name="THONG KE NAP " sheetId="8" r:id="rId2"/>
     <sheet name="THỐNG KÊ NẠP" sheetId="4" r:id="rId3"/>
-    <sheet name="THỐNG KÊ NẠP NEW" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'THỐNG KÊ NẠP'!$A$1:$U$41</definedName>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="57">
   <si>
     <t>STT</t>
   </si>
@@ -191,132 +190,9 @@
     <t>Số tiền</t>
   </si>
   <si>
-    <t>18/11/2025</t>
-  </si>
-  <si>
-    <t>100.000 đ</t>
-  </si>
-  <si>
-    <t>20/11/2025</t>
-  </si>
-  <si>
-    <t>20.000 đ</t>
-  </si>
-  <si>
-    <t>21/11/2025</t>
-  </si>
-  <si>
-    <t>230.000 đ</t>
-  </si>
-  <si>
-    <t>75.000 đ</t>
-  </si>
-  <si>
-    <t>300.000 đ</t>
-  </si>
-  <si>
-    <t>50.000 đ</t>
-  </si>
-  <si>
-    <t>5.000 đ</t>
-  </si>
-  <si>
-    <t>22/11/2025</t>
-  </si>
-  <si>
-    <t>250.000 đ</t>
-  </si>
-  <si>
-    <t>23/11/2025</t>
-  </si>
-  <si>
-    <t>350.000 đ</t>
-  </si>
-  <si>
-    <t>24/11/2025</t>
-  </si>
-  <si>
-    <t>130.000 đ</t>
-  </si>
-  <si>
-    <t>200.000 đ</t>
-  </si>
-  <si>
-    <t>26/11/2025</t>
-  </si>
-  <si>
-    <t>180.000 đ</t>
-  </si>
-  <si>
-    <t>70.000 đ</t>
-  </si>
-  <si>
-    <t>27/11/2025</t>
-  </si>
-  <si>
-    <t>28/11/2025</t>
-  </si>
-  <si>
-    <t>60.000 đ</t>
-  </si>
-  <si>
-    <t>29/11/2025</t>
-  </si>
-  <si>
-    <t>175.000 đ</t>
-  </si>
-  <si>
-    <t>30/11/2025</t>
-  </si>
-  <si>
-    <t>270.000 đ</t>
-  </si>
-  <si>
-    <t>40.000 đ</t>
-  </si>
-  <si>
-    <t>80.000 đ</t>
-  </si>
-  <si>
-    <t>500.000 đ</t>
-  </si>
-  <si>
     <t>Nguyễn Phước Dũng Tùng (NaOH)</t>
   </si>
   <si>
-    <t>540.000 đ</t>
-  </si>
-  <si>
-    <t>145.000 đ</t>
-  </si>
-  <si>
-    <t>10.000 đ</t>
-  </si>
-  <si>
-    <t>120.000 đ</t>
-  </si>
-  <si>
-    <t>105.000 đ</t>
-  </si>
-  <si>
-    <t>150.000 đ</t>
-  </si>
-  <si>
-    <t>95.000 đ</t>
-  </si>
-  <si>
-    <t>340.000 đ</t>
-  </si>
-  <si>
-    <t>13/12/2025</t>
-  </si>
-  <si>
-    <t>14/12/2025</t>
-  </si>
-  <si>
-    <t>BỎ</t>
-  </si>
-  <si>
     <t>5 ngày</t>
   </si>
   <si>
@@ -330,6 +206,12 @@
   </si>
   <si>
     <t>3 ngày</t>
+  </si>
+  <si>
+    <t>Nạp điện thoại</t>
+  </si>
+  <si>
+    <t>7 ngày</t>
   </si>
 </sst>
 </file>
@@ -342,7 +224,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0.000\ [$₫-42A]_-;\-* #,##0.000\ [$₫-42A]_-;_-* &quot;-&quot;???\ [$₫-42A]_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0\ [$₫-42A]_-;\-* #,##0\ [$₫-42A]_-;_-* &quot;-&quot;\ [$₫-42A]_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,13 +281,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="150"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -439,7 +314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -495,21 +370,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -552,15 +418,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
@@ -572,9 +429,6 @@
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
@@ -626,9 +480,6 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -997,26 +848,26 @@
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="30" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.140625" style="30" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="30" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" style="30" customWidth="1"/>
-    <col min="10" max="11" width="12.140625" style="30" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="30" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="30" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" style="30" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="30"/>
-    <col min="16" max="16" width="10.5703125" style="30" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" width="3.5703125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.140625" style="26" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="26" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="26" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="26" customWidth="1"/>
+    <col min="10" max="11" width="12.140625" style="26" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="26" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="26" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" style="26" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="26"/>
+    <col min="16" max="16" width="10.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -1064,29 +915,29 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="33">
+      <c r="D2" s="29">
         <v>350000</v>
       </c>
-      <c r="E2" s="33">
-        <v>0</v>
-      </c>
-      <c r="F2" s="33">
+      <c r="E2" s="29">
+        <v>0</v>
+      </c>
+      <c r="F2" s="29">
         <f>(D2+I2)-E2</f>
         <v>402500</v>
       </c>
-      <c r="G2" s="33">
-        <v>0</v>
-      </c>
-      <c r="H2" s="34">
+      <c r="G2" s="29">
+        <v>0</v>
+      </c>
+      <c r="H2" s="30">
         <v>0.15</v>
       </c>
-      <c r="I2" s="33">
+      <c r="I2" s="29">
         <f>(D2*H2)</f>
         <v>52500</v>
       </c>
@@ -1097,7 +948,7 @@
         <v>46011</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>14</v>
@@ -1108,30 +959,30 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="27" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="31">
         <v>20000</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="31">
         <f>10000</f>
         <v>10000</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="31">
         <f t="shared" ref="F3" si="0">(D3+I3)-E3</f>
         <v>10000</v>
       </c>
-      <c r="G3" s="35">
-        <v>0</v>
-      </c>
-      <c r="H3" s="36">
-        <v>0</v>
-      </c>
-      <c r="I3" s="35">
+      <c r="G3" s="31">
+        <v>0</v>
+      </c>
+      <c r="H3" s="32">
+        <v>0</v>
+      </c>
+      <c r="I3" s="31">
         <f t="shared" ref="I3" si="1">D3*H3</f>
         <v>0</v>
       </c>
@@ -1149,29 +1000,29 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="31">
         <v>30000</v>
       </c>
-      <c r="E4" s="35">
-        <v>0</v>
-      </c>
-      <c r="F4" s="35">
+      <c r="E4" s="31">
+        <v>0</v>
+      </c>
+      <c r="F4" s="31">
         <f>(D4+I4)-E4</f>
         <v>30000</v>
       </c>
-      <c r="G4" s="35">
-        <v>0</v>
-      </c>
-      <c r="H4" s="36">
-        <v>0</v>
-      </c>
-      <c r="I4" s="35">
+      <c r="G4" s="31">
+        <v>0</v>
+      </c>
+      <c r="H4" s="32">
+        <v>0</v>
+      </c>
+      <c r="I4" s="31">
         <f>D4*H4</f>
         <v>0</v>
       </c>
@@ -1188,72 +1039,72 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="41">
         <v>120000</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="41">
         <f>50000-16000+50000+7000+29000</f>
         <v>120000</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="41">
         <f t="shared" ref="F5" si="2">(D5+I5)-E5</f>
         <v>0</v>
       </c>
-      <c r="G5" s="46">
-        <v>0</v>
-      </c>
-      <c r="H5" s="47">
-        <v>0</v>
-      </c>
-      <c r="I5" s="46">
+      <c r="G5" s="41">
+        <v>0</v>
+      </c>
+      <c r="H5" s="42">
+        <v>0</v>
+      </c>
+      <c r="I5" s="41">
         <f t="shared" ref="I5" si="3">D5*H5</f>
         <v>0</v>
       </c>
-      <c r="J5" s="48">
+      <c r="J5" s="43">
         <v>45999</v>
       </c>
-      <c r="K5" s="48">
+      <c r="K5" s="43">
         <v>46008</v>
       </c>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45" t="s">
-        <v>92</v>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="28" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="33">
         <v>100000</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="33">
         <f>50000-29000</f>
         <v>21000</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="33">
         <f t="shared" ref="F6" si="4">(D6+I6)-E6</f>
         <v>79000</v>
       </c>
-      <c r="G6" s="37">
-        <v>0</v>
-      </c>
-      <c r="H6" s="38">
-        <v>0</v>
-      </c>
-      <c r="I6" s="37">
+      <c r="G6" s="33">
+        <v>0</v>
+      </c>
+      <c r="H6" s="34">
+        <v>0</v>
+      </c>
+      <c r="I6" s="33">
         <f t="shared" ref="I6" si="5">D6*H6</f>
         <v>0</v>
       </c>
@@ -1264,7 +1115,7 @@
         <v>46010</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="M6" s="15" t="s">
         <v>14</v>
@@ -1274,31 +1125,31 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="28" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="33">
         <f>100000+50000</f>
         <v>150000</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="33">
         <f>10000+5000+23000</f>
         <v>38000</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="33">
         <f t="shared" ref="F7:F8" si="6">(D7+I7)-E7</f>
         <v>112000</v>
       </c>
-      <c r="G7" s="37">
-        <v>0</v>
-      </c>
-      <c r="H7" s="38">
-        <v>0</v>
-      </c>
-      <c r="I7" s="37">
+      <c r="G7" s="33">
+        <v>0</v>
+      </c>
+      <c r="H7" s="34">
+        <v>0</v>
+      </c>
+      <c r="I7" s="33">
         <f t="shared" ref="I7:I8" si="7">D7*H7</f>
         <v>0</v>
       </c>
@@ -1309,7 +1160,7 @@
         <v>46010</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="M7" s="15" t="s">
         <v>14</v>
@@ -1319,30 +1170,30 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="28" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="33">
         <v>50000</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="33">
         <f>30000</f>
         <v>30000</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="33">
         <f t="shared" si="6"/>
         <v>20000</v>
       </c>
-      <c r="G8" s="37">
-        <v>0</v>
-      </c>
-      <c r="H8" s="38">
-        <v>0</v>
-      </c>
-      <c r="I8" s="37">
+      <c r="G8" s="33">
+        <v>0</v>
+      </c>
+      <c r="H8" s="34">
+        <v>0</v>
+      </c>
+      <c r="I8" s="33">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1353,7 +1204,7 @@
         <v>46010</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="M8" s="15" t="s">
         <v>14</v>
@@ -1363,110 +1214,110 @@
       <c r="A9" s="1">
         <v>9</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="41">
         <v>5000</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="41">
         <v>5000</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="41">
         <f t="shared" ref="F9" si="8">(D9+I9)-E9</f>
         <v>0</v>
       </c>
-      <c r="G9" s="46">
-        <v>0</v>
-      </c>
-      <c r="H9" s="47">
-        <v>0</v>
-      </c>
-      <c r="I9" s="46">
+      <c r="G9" s="41">
+        <v>0</v>
+      </c>
+      <c r="H9" s="42">
+        <v>0</v>
+      </c>
+      <c r="I9" s="41">
         <f t="shared" ref="I9" si="9">D9*H9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="48">
+      <c r="J9" s="43">
         <v>46005</v>
       </c>
-      <c r="K9" s="48"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45" t="s">
-        <v>92</v>
+      <c r="K9" s="43"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="41">
         <f>70000+150000+20000+20000</f>
         <v>260000</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="41">
         <v>260000</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="41">
         <f t="shared" ref="F10" si="10">(D10+I10)-E10</f>
         <v>0</v>
       </c>
-      <c r="G10" s="46">
-        <v>0</v>
-      </c>
-      <c r="H10" s="47">
-        <v>0</v>
-      </c>
-      <c r="I10" s="46">
+      <c r="G10" s="41">
+        <v>0</v>
+      </c>
+      <c r="H10" s="42">
+        <v>0</v>
+      </c>
+      <c r="I10" s="41">
         <f t="shared" ref="I10" si="11">D10*H10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="48">
+      <c r="J10" s="43">
         <v>46006</v>
       </c>
-      <c r="K10" s="48">
+      <c r="K10" s="43">
         <v>46008</v>
       </c>
-      <c r="L10" s="45"/>
-      <c r="M10" s="45" t="s">
-        <v>92</v>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>11</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="24" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="29">
         <v>20000</v>
       </c>
-      <c r="E11" s="33">
-        <v>0</v>
-      </c>
-      <c r="F11" s="33">
+      <c r="E11" s="29">
+        <v>0</v>
+      </c>
+      <c r="F11" s="29">
         <f t="shared" ref="F11:F12" si="12">(D11+I11)-E11</f>
         <v>20000</v>
       </c>
-      <c r="G11" s="33">
-        <v>0</v>
-      </c>
-      <c r="H11" s="34">
-        <v>0</v>
-      </c>
-      <c r="I11" s="33">
+      <c r="G11" s="29">
+        <v>0</v>
+      </c>
+      <c r="H11" s="30">
+        <v>0</v>
+      </c>
+      <c r="I11" s="29">
         <f t="shared" ref="I11:I12" si="13">D11*H11</f>
         <v>0</v>
       </c>
@@ -1477,7 +1328,7 @@
         <v>46012</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>14</v>
@@ -1487,154 +1338,180 @@
       <c r="A12" s="1">
         <v>12</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="41">
         <v>10000</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="41">
         <v>10000</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G12" s="46">
-        <v>0</v>
-      </c>
-      <c r="H12" s="47">
-        <v>0</v>
-      </c>
-      <c r="I12" s="46">
+      <c r="G12" s="41">
+        <v>0</v>
+      </c>
+      <c r="H12" s="42">
+        <v>0</v>
+      </c>
+      <c r="I12" s="41">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J12" s="48">
+      <c r="J12" s="43">
         <v>46006</v>
       </c>
-      <c r="K12" s="48">
+      <c r="K12" s="43">
         <v>46008</v>
       </c>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45" t="s">
-        <v>92</v>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>13</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="41">
         <v>60000</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="41">
         <v>60000</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="41">
         <f t="shared" ref="F13" si="14">(D13+I13)-E13</f>
         <v>0</v>
       </c>
-      <c r="G13" s="46">
-        <v>0</v>
-      </c>
-      <c r="H13" s="47">
-        <v>0</v>
-      </c>
-      <c r="I13" s="46">
+      <c r="G13" s="41">
+        <v>0</v>
+      </c>
+      <c r="H13" s="42">
+        <v>0</v>
+      </c>
+      <c r="I13" s="41">
         <f t="shared" ref="I13" si="15">D13*H13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="48">
+      <c r="J13" s="43">
         <v>46006</v>
       </c>
-      <c r="K13" s="48">
+      <c r="K13" s="43">
         <v>46008</v>
       </c>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45" t="s">
-        <v>92</v>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>14</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="46">
+      <c r="C14" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="41">
         <v>20000</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="41">
         <v>20000</v>
       </c>
-      <c r="F14" s="46">
-        <f t="shared" ref="F14" si="16">(D14+I14)-E14</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="46">
-        <v>0</v>
-      </c>
-      <c r="H14" s="47">
-        <v>0</v>
-      </c>
-      <c r="I14" s="46">
-        <f t="shared" ref="I14" si="17">D14*H14</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="48">
+      <c r="F14" s="41">
+        <f t="shared" ref="F14:F15" si="16">(D14+I14)-E14</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="41">
+        <v>0</v>
+      </c>
+      <c r="H14" s="42">
+        <v>0</v>
+      </c>
+      <c r="I14" s="41">
+        <f t="shared" ref="I14:I15" si="17">D14*H14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="43">
         <v>46007</v>
       </c>
-      <c r="K14" s="48">
+      <c r="K14" s="43">
         <v>46008</v>
       </c>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45" t="s">
-        <v>92</v>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>15</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="B15" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="29">
+        <v>20000</v>
+      </c>
+      <c r="E15" s="29">
+        <v>0</v>
+      </c>
+      <c r="F15" s="29">
+        <f t="shared" si="16"/>
+        <v>20000</v>
+      </c>
+      <c r="G15" s="29">
+        <v>0</v>
+      </c>
+      <c r="H15" s="30">
+        <v>0</v>
+      </c>
+      <c r="I15" s="29">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>46008</v>
+      </c>
+      <c r="K15" s="4">
+        <v>46014</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>16</v>
       </c>
-      <c r="B16" s="28"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="33"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="29"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="1"/>
@@ -1644,14 +1521,14 @@
       <c r="A17" s="1">
         <v>17</v>
       </c>
-      <c r="B17" s="28"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="33"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="29"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="1"/>
@@ -1661,85 +1538,85 @@
       <c r="A18" s="1">
         <v>18</v>
       </c>
-      <c r="B18" s="28"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
     </row>
     <row r="19" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="40"/>
-      <c r="D19" s="50" t="s">
+      <c r="C19" s="36"/>
+      <c r="D19" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D20" s="49" t="s">
+      <c r="D20" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="49"/>
-      <c r="F20" s="41">
+      <c r="E20" s="44"/>
+      <c r="F20" s="37">
         <f>SUM(D2:D18)</f>
-        <v>1195000</v>
-      </c>
-      <c r="G20" s="42"/>
-      <c r="J20" s="42"/>
+        <v>1215000</v>
+      </c>
+      <c r="G20" s="38"/>
+      <c r="J20" s="38"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D21" s="49" t="s">
+      <c r="D21" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="49"/>
-      <c r="F21" s="41">
+      <c r="E21" s="44"/>
+      <c r="F21" s="37">
         <f>SUM(E2:E18)</f>
         <v>574000</v>
       </c>
-      <c r="G21" s="42"/>
-      <c r="M21" s="30" t="s">
+      <c r="G21" s="38"/>
+      <c r="M21" s="26" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D22" s="49" t="s">
+      <c r="D22" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="49"/>
-      <c r="F22" s="41">
+      <c r="E22" s="44"/>
+      <c r="F22" s="37">
         <f>-SUM(F2:F18)</f>
-        <v>-673500</v>
-      </c>
-      <c r="G22" s="42"/>
+        <v>-693500</v>
+      </c>
+      <c r="G22" s="38"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F27" s="42"/>
+      <c r="F27" s="38"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F28" s="42"/>
+      <c r="F28" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1761,8 +1638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA131776-2E13-4A0E-8D22-F638A9EA7E4B}">
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81:XFD81"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1770,1120 +1647,1144 @@
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
+      <c r="A2" s="21">
         <v>45979</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="20">
         <v>100000</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
+      <c r="A3" s="21">
         <v>45979</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="20">
         <v>100000</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
+      <c r="A4" s="21">
         <v>45981</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="20">
         <v>20000</v>
       </c>
-      <c r="D4" s="26"/>
+      <c r="D4" s="22"/>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="A5" s="21">
         <v>45982</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="20">
         <v>50000</v>
       </c>
-      <c r="D5" s="26"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
+      <c r="A6" s="21">
         <v>45982</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="20">
         <v>300000</v>
       </c>
-      <c r="D6" s="26"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+      <c r="A7" s="21">
         <v>45982</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="20">
         <v>5000</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
+      <c r="A8" s="21">
         <v>45982</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="20">
         <v>230000</v>
       </c>
-      <c r="D8" s="26"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="A9" s="21">
         <v>45982</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="20">
         <v>100000</v>
       </c>
-      <c r="D9" s="26"/>
+      <c r="D9" s="22"/>
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
+      <c r="A10" s="21">
         <v>45982</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="20">
         <v>75000</v>
       </c>
-      <c r="D10" s="26"/>
+      <c r="D10" s="22"/>
     </row>
     <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
+      <c r="A11" s="21">
         <v>45983</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="20">
         <v>250000</v>
       </c>
-      <c r="D11" s="26"/>
+      <c r="D11" s="22"/>
     </row>
     <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
+      <c r="A12" s="21">
         <v>45984</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="20">
         <v>350000</v>
       </c>
-      <c r="D12" s="26"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
+      <c r="A13" s="21">
         <v>45985</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="20">
         <v>20000</v>
       </c>
-      <c r="D13" s="26"/>
+      <c r="D13" s="22"/>
     </row>
     <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
+      <c r="A14" s="21">
         <v>45985</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="20">
         <v>130000</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="22"/>
     </row>
     <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
+      <c r="A15" s="21">
         <v>45985</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="20">
         <v>200000</v>
       </c>
-      <c r="D15" s="26"/>
+      <c r="D15" s="22"/>
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
+      <c r="A16" s="21">
         <v>45987</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="20">
         <v>20000</v>
       </c>
-      <c r="D16" s="26"/>
+      <c r="D16" s="22"/>
     </row>
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
+      <c r="A17" s="21">
         <v>45987</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="20">
         <v>70000</v>
       </c>
-      <c r="D17" s="26"/>
+      <c r="D17" s="22"/>
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
+      <c r="A18" s="21">
         <v>45987</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="20">
         <v>50000</v>
       </c>
-      <c r="D18" s="26"/>
+      <c r="D18" s="22"/>
     </row>
     <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+      <c r="A19" s="21">
         <v>45987</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="20">
         <v>100000</v>
       </c>
-      <c r="D19" s="26"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
+      <c r="A20" s="21">
         <v>45987</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="20">
         <v>200000</v>
       </c>
-      <c r="D20" s="26"/>
+      <c r="D20" s="22"/>
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
+      <c r="A21" s="21">
         <v>45987</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="20">
         <v>180000</v>
       </c>
-      <c r="D21" s="26"/>
+      <c r="D21" s="22"/>
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
+      <c r="A22" s="21">
         <v>45988</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="20">
         <v>20000</v>
       </c>
-      <c r="D22" s="26"/>
+      <c r="D22" s="22"/>
     </row>
     <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
+      <c r="A23" s="21">
         <v>45989</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="20">
         <v>60000</v>
       </c>
-      <c r="D23" s="26"/>
+      <c r="D23" s="22"/>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
+      <c r="A24" s="21">
         <v>45990</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="20">
         <v>175000</v>
       </c>
-      <c r="D24" s="26"/>
+      <c r="D24" s="22"/>
     </row>
     <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
+      <c r="A25" s="21">
         <v>45990</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="20">
         <v>200000</v>
       </c>
-      <c r="D25" s="26"/>
+      <c r="D25" s="22"/>
     </row>
     <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="24">
+      <c r="A26" s="21">
         <v>45991</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="20">
         <v>100000</v>
       </c>
-      <c r="D26" s="26"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="24">
+      <c r="A27" s="21">
         <v>45991</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="20">
         <v>270000</v>
       </c>
-      <c r="D27" s="26"/>
+      <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="24">
+      <c r="A28" s="21">
         <v>45992</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="20">
         <v>5000</v>
       </c>
-      <c r="D28" s="26"/>
+      <c r="D28" s="22"/>
     </row>
     <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="24">
+      <c r="A29" s="21">
         <v>45992</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="20">
         <v>5000</v>
       </c>
-      <c r="D29" s="26"/>
+      <c r="D29" s="22"/>
     </row>
     <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="24">
+      <c r="A30" s="21">
         <v>45992</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="20">
         <v>5000</v>
       </c>
-      <c r="D30" s="26"/>
+      <c r="D30" s="22"/>
     </row>
     <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="24">
+      <c r="A31" s="21">
         <v>45993</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="20">
         <v>5000</v>
       </c>
-      <c r="D31" s="26"/>
+      <c r="D31" s="22"/>
     </row>
     <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="24">
+      <c r="A32" s="21">
         <v>45993</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="20">
         <v>5000</v>
       </c>
-      <c r="D32" s="26"/>
+      <c r="D32" s="22"/>
     </row>
     <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="24">
+      <c r="A33" s="21">
         <v>45993</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="20">
         <v>5000</v>
       </c>
-      <c r="D33" s="26"/>
+      <c r="D33" s="22"/>
     </row>
     <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="24">
+      <c r="A34" s="21">
         <v>45993</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="23">
+      <c r="C34" s="20">
         <v>40000</v>
       </c>
-      <c r="D34" s="26"/>
+      <c r="D34" s="22"/>
     </row>
     <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="24">
+      <c r="A35" s="21">
         <v>45993</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="23">
+      <c r="C35" s="20">
         <v>20000</v>
       </c>
-      <c r="D35" s="26"/>
+      <c r="D35" s="22"/>
     </row>
     <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="24">
+      <c r="A36" s="21">
         <v>45993</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="23">
+      <c r="C36" s="20">
         <v>80000</v>
       </c>
-      <c r="D36" s="26"/>
+      <c r="D36" s="22"/>
     </row>
     <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="24">
+      <c r="A37" s="21">
         <v>45994</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="23">
+      <c r="C37" s="20">
         <v>100000</v>
       </c>
-      <c r="D37" s="26"/>
+      <c r="D37" s="22"/>
     </row>
     <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="24">
+      <c r="A38" s="21">
         <v>45994</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="23">
+      <c r="C38" s="20">
         <v>50000</v>
       </c>
-      <c r="D38" s="26"/>
+      <c r="D38" s="22"/>
     </row>
     <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="24">
+      <c r="A39" s="21">
         <v>45994</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="23">
+      <c r="C39" s="20">
         <v>40000</v>
       </c>
-      <c r="D39" s="26"/>
+      <c r="D39" s="22"/>
     </row>
     <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="24">
+      <c r="A40" s="21">
         <v>45995</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="23">
+      <c r="C40" s="20">
         <v>100000</v>
       </c>
-      <c r="D40" s="26"/>
+      <c r="D40" s="22"/>
     </row>
     <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="24">
+      <c r="A41" s="21">
         <v>45995</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="23">
+      <c r="C41" s="20">
         <v>50000</v>
       </c>
-      <c r="D41" s="26"/>
+      <c r="D41" s="22"/>
     </row>
     <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="24">
+      <c r="A42" s="21">
         <v>45996</v>
       </c>
-      <c r="B42" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" s="23">
+      <c r="B42" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="20">
         <v>540000</v>
       </c>
-      <c r="D42" s="26"/>
+      <c r="D42" s="22"/>
     </row>
     <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="24">
+      <c r="A43" s="21">
         <v>45996</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C43" s="23">
+      <c r="C43" s="20">
         <v>5000</v>
       </c>
-      <c r="D43" s="26"/>
+      <c r="D43" s="22"/>
     </row>
     <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="24">
+      <c r="A44" s="21">
         <v>45996</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="23">
+      <c r="C44" s="20">
         <v>500000</v>
       </c>
-      <c r="D44" s="26"/>
+      <c r="D44" s="22"/>
     </row>
     <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="24">
+      <c r="A45" s="21">
         <v>45997</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="23">
+      <c r="C45" s="20">
         <v>100000</v>
       </c>
-      <c r="D45" s="26"/>
+      <c r="D45" s="22"/>
     </row>
     <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="24">
+      <c r="A46" s="21">
         <v>45997</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="23">
+      <c r="C46" s="20">
         <v>200000</v>
       </c>
-      <c r="D46" s="26"/>
+      <c r="D46" s="22"/>
     </row>
     <row r="47" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="24">
+      <c r="A47" s="21">
         <v>45997</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C47" s="20">
         <v>145000</v>
       </c>
-      <c r="D47" s="26"/>
+      <c r="D47" s="22"/>
     </row>
     <row r="48" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="24">
+      <c r="A48" s="21">
         <v>45997</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="23">
+      <c r="C48" s="20">
         <v>10000</v>
       </c>
-      <c r="D48" s="26"/>
+      <c r="D48" s="22"/>
     </row>
     <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="24">
+      <c r="A49" s="21">
         <v>45998</v>
       </c>
-      <c r="B49" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="23">
+      <c r="B49" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="20">
         <v>100000</v>
       </c>
-      <c r="D49" s="26"/>
+      <c r="D49" s="22"/>
     </row>
     <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="24">
+      <c r="A50" s="21">
         <v>45999</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C50" s="23">
+      <c r="C50" s="20">
         <v>200000</v>
       </c>
-      <c r="D50" s="26"/>
+      <c r="D50" s="22"/>
     </row>
     <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="24">
+      <c r="A51" s="21">
         <v>45999</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="23">
+      <c r="C51" s="20">
         <v>100000</v>
       </c>
-      <c r="D51" s="26"/>
+      <c r="D51" s="22"/>
     </row>
     <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="24">
+      <c r="A52" s="21">
         <v>45999</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="23">
+      <c r="C52" s="20">
         <v>120000</v>
       </c>
-      <c r="D52" s="26"/>
+      <c r="D52" s="22"/>
     </row>
     <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="24">
+      <c r="A53" s="21">
         <v>46000</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="23">
+      <c r="C53" s="20">
         <v>200000</v>
       </c>
-      <c r="D53" s="26"/>
+      <c r="D53" s="22"/>
     </row>
     <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="24">
+      <c r="A54" s="21">
         <v>46000</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C54" s="23">
+      <c r="C54" s="20">
         <v>105000</v>
       </c>
-      <c r="D54" s="26"/>
+      <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="24">
+      <c r="A55" s="21">
         <v>46001</v>
       </c>
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="23">
+      <c r="C55" s="20">
         <v>100000</v>
       </c>
-      <c r="D55" s="26"/>
+      <c r="D55" s="22"/>
     </row>
     <row r="56" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="24">
+      <c r="A56" s="21">
         <v>46001</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="23">
+      <c r="C56" s="20">
         <v>50000</v>
       </c>
-      <c r="D56" s="26"/>
+      <c r="D56" s="22"/>
     </row>
     <row r="57" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="24">
+      <c r="A57" s="21">
         <v>46001</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C57" s="23">
+      <c r="C57" s="20">
         <v>150000</v>
       </c>
-      <c r="D57" s="26"/>
+      <c r="D57" s="22"/>
     </row>
     <row r="58" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="24">
+      <c r="A58" s="21">
         <v>46001</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C58" s="23">
+      <c r="C58" s="20">
         <v>20000</v>
       </c>
-      <c r="D58" s="26"/>
+      <c r="D58" s="22"/>
     </row>
     <row r="59" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="24">
+      <c r="A59" s="21">
         <v>46002</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="23">
+      <c r="C59" s="20">
         <v>100000</v>
       </c>
-      <c r="D59" s="26"/>
+      <c r="D59" s="22"/>
     </row>
     <row r="60" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="24">
+      <c r="A60" s="21">
         <v>46002</v>
       </c>
-      <c r="B60" s="22" t="s">
+      <c r="B60" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C60" s="23">
+      <c r="C60" s="20">
         <v>120000</v>
       </c>
-      <c r="D60" s="26"/>
+      <c r="D60" s="22"/>
     </row>
     <row r="61" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="24">
+      <c r="A61" s="21">
         <v>46003</v>
       </c>
-      <c r="B61" s="22" t="s">
+      <c r="B61" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="23">
+      <c r="C61" s="20">
         <v>20000</v>
       </c>
-      <c r="D61" s="26"/>
+      <c r="D61" s="22"/>
     </row>
     <row r="62" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="24">
+      <c r="A62" s="21">
         <v>46003</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C62" s="23">
+      <c r="C62" s="20">
         <v>50000</v>
       </c>
-      <c r="D62" s="26"/>
+      <c r="D62" s="22"/>
     </row>
     <row r="63" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="24">
+      <c r="A63" s="21">
         <v>46003</v>
       </c>
-      <c r="B63" s="22" t="s">
+      <c r="B63" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C63" s="23">
+      <c r="C63" s="20">
         <v>95000</v>
       </c>
-      <c r="D63" s="26"/>
+      <c r="D63" s="22"/>
     </row>
     <row r="64" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="24">
+      <c r="A64" s="21">
         <v>46003</v>
       </c>
-      <c r="B64" s="22" t="s">
+      <c r="B64" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C64" s="23">
+      <c r="C64" s="20">
         <v>150000</v>
       </c>
-      <c r="D64" s="26" t="s">
+      <c r="D64" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="24">
+      <c r="A65" s="21">
         <v>46003</v>
       </c>
-      <c r="B65" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C65" s="23">
+      <c r="B65" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C65" s="20">
         <v>340000</v>
       </c>
-      <c r="D65" s="26" t="s">
+      <c r="D65" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="24">
+      <c r="A66" s="21">
         <v>46004</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C66" s="23">
+      <c r="C66" s="20">
         <v>20000</v>
       </c>
-      <c r="D66" s="26" t="s">
+      <c r="D66" s="22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="24">
+      <c r="A67" s="21">
         <v>46004</v>
       </c>
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="23">
+      <c r="C67" s="20">
         <v>50000</v>
       </c>
-      <c r="D67" s="26" t="s">
+      <c r="D67" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="24">
+      <c r="A68" s="21">
         <v>46004</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C68" s="23">
+      <c r="C68" s="20">
         <v>20000</v>
       </c>
-      <c r="D68" s="26" t="s">
+      <c r="D68" s="22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="24">
+      <c r="A69" s="21">
         <v>46004</v>
       </c>
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="23">
+      <c r="C69" s="20">
         <v>20000</v>
       </c>
-      <c r="D69" s="26" t="s">
+      <c r="D69" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="24">
+      <c r="A70" s="21">
         <v>46004</v>
       </c>
-      <c r="B70" s="22" t="s">
+      <c r="B70" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C70" s="23">
+      <c r="C70" s="20">
         <v>100000</v>
       </c>
-      <c r="D70" s="26" t="s">
+      <c r="D70" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="24">
+      <c r="A71" s="21">
         <v>46004</v>
       </c>
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C71" s="23">
+      <c r="C71" s="20">
         <v>50000</v>
       </c>
-      <c r="D71" s="26" t="s">
+      <c r="D71" s="22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="24">
+      <c r="A72" s="21">
         <v>46005</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="B72" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C72" s="23">
+      <c r="C72" s="20">
         <v>20000</v>
       </c>
-      <c r="D72" s="26" t="s">
+      <c r="D72" s="22" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="24">
+      <c r="A73" s="21">
         <v>46005</v>
       </c>
-      <c r="B73" s="22" t="s">
+      <c r="B73" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C73" s="23">
+      <c r="C73" s="20">
         <v>5000</v>
       </c>
-      <c r="D73" s="26" t="s">
+      <c r="D73" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="24">
+      <c r="A74" s="21">
         <v>46005</v>
       </c>
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C74" s="23">
+      <c r="C74" s="20">
         <v>20000</v>
       </c>
-      <c r="D74" s="26" t="s">
+      <c r="D74" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="24">
+      <c r="A75" s="21">
         <v>46005</v>
       </c>
-      <c r="B75" s="22" t="s">
+      <c r="B75" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C75" s="23">
+      <c r="C75" s="20">
         <v>50000</v>
       </c>
-      <c r="D75" s="26" t="s">
+      <c r="D75" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="24">
+      <c r="A76" s="21">
         <v>46006</v>
       </c>
-      <c r="B76" s="22" t="s">
+      <c r="B76" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C76" s="23">
+      <c r="C76" s="20">
         <v>70000</v>
       </c>
-      <c r="D76" s="26" t="s">
+      <c r="D76" s="22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="24">
+      <c r="A77" s="21">
         <v>46006</v>
       </c>
-      <c r="B77" s="22" t="s">
+      <c r="B77" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C77" s="23">
+      <c r="C77" s="20">
         <v>20000</v>
       </c>
-      <c r="D77" s="26" t="s">
+      <c r="D77" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="24">
+      <c r="A78" s="21">
         <v>46006</v>
       </c>
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C78" s="23">
+      <c r="C78" s="20">
         <v>10000</v>
       </c>
-      <c r="D78" s="26" t="s">
+      <c r="D78" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="24">
+      <c r="A79" s="21">
         <v>46006</v>
       </c>
-      <c r="B79" s="22" t="s">
+      <c r="B79" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C79" s="23">
+      <c r="C79" s="20">
         <v>60000</v>
       </c>
-      <c r="D79" s="26" t="s">
+      <c r="D79" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="24">
+      <c r="A80" s="21">
         <v>46007</v>
       </c>
-      <c r="B80" s="22" t="s">
+      <c r="B80" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C80" s="23">
+      <c r="C80" s="20">
         <v>20000</v>
       </c>
-      <c r="D80" s="26" t="s">
+      <c r="D80" s="22" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="24"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="26"/>
+      <c r="A81" s="21">
+        <v>46008</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" s="20">
+        <v>55000</v>
+      </c>
+      <c r="D81" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="82" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="24"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="23"/>
-      <c r="D82" s="26"/>
+      <c r="A82" s="21">
+        <v>46008</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D82" s="22" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="83" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="24"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="23"/>
-      <c r="D83" s="26"/>
+      <c r="A83" s="21">
+        <v>46008</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83" s="20">
+        <v>100000</v>
+      </c>
+      <c r="D83" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="84" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="24"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="23"/>
-      <c r="D84" s="26"/>
+      <c r="A84" s="21"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="20"/>
+      <c r="D84" s="22"/>
     </row>
     <row r="85" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="24"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="23"/>
-      <c r="D85" s="26"/>
+      <c r="A85" s="21"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="20"/>
+      <c r="D85" s="22"/>
     </row>
     <row r="86" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="24"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="23"/>
-      <c r="D86" s="26"/>
+      <c r="A86" s="21"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="22"/>
     </row>
     <row r="87" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="24"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="26"/>
+      <c r="A87" s="21"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="20"/>
+      <c r="D87" s="22"/>
     </row>
     <row r="88" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="24"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="26"/>
+      <c r="A88" s="21"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="20"/>
+      <c r="D88" s="22"/>
     </row>
     <row r="89" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="24"/>
-      <c r="B89" s="22"/>
-      <c r="C89" s="23"/>
-      <c r="D89" s="26"/>
+      <c r="A89" s="21"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="22"/>
     </row>
     <row r="90" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="24"/>
-      <c r="B90" s="22"/>
-      <c r="C90" s="23"/>
-      <c r="D90" s="26"/>
+      <c r="A90" s="21"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="20"/>
+      <c r="D90" s="22"/>
     </row>
     <row r="91" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="24"/>
-      <c r="B91" s="22"/>
-      <c r="C91" s="23"/>
-      <c r="D91" s="26"/>
+      <c r="A91" s="21"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="20"/>
+      <c r="D91" s="22"/>
     </row>
     <row r="92" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="24"/>
-      <c r="B92" s="22"/>
-      <c r="C92" s="23"/>
-      <c r="D92" s="26"/>
+      <c r="A92" s="21"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="22"/>
     </row>
     <row r="93" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="24"/>
-      <c r="B93" s="22"/>
-      <c r="C93" s="23"/>
-      <c r="D93" s="26"/>
+      <c r="A93" s="21"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="20"/>
+      <c r="D93" s="22"/>
     </row>
     <row r="94" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="24"/>
-      <c r="B94" s="22"/>
-      <c r="C94" s="23"/>
-      <c r="D94" s="26"/>
+      <c r="A94" s="21"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="20"/>
+      <c r="D94" s="22"/>
     </row>
     <row r="95" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="24"/>
-      <c r="B95" s="22"/>
-      <c r="C95" s="23"/>
-      <c r="D95" s="26"/>
+      <c r="A95" s="21"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="22"/>
     </row>
     <row r="96" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="24"/>
-      <c r="B96" s="22"/>
-      <c r="C96" s="23"/>
-      <c r="D96" s="26"/>
+      <c r="A96" s="21"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="20"/>
+      <c r="D96" s="22"/>
     </row>
     <row r="97" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="24"/>
-      <c r="B97" s="22"/>
-      <c r="C97" s="23"/>
-      <c r="D97" s="26"/>
+      <c r="A97" s="21"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="20"/>
+      <c r="D97" s="22"/>
     </row>
     <row r="98" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="24"/>
-      <c r="B98" s="22"/>
-      <c r="C98" s="23"/>
-      <c r="D98" s="26"/>
+      <c r="A98" s="21"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="22"/>
     </row>
     <row r="99" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="24"/>
-      <c r="B99" s="22"/>
-      <c r="C99" s="23"/>
-      <c r="D99" s="26"/>
+      <c r="A99" s="21"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="20"/>
+      <c r="D99" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2896,7 +2797,7 @@
   <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="S58" sqref="S58"/>
     </sheetView>
   </sheetViews>
@@ -4291,923 +4192,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81508C41-0585-4655-BAAC-78773108D623}">
-  <dimension ref="A1:F78"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:L3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="19"/>
-    </row>
-    <row r="3" spans="1:6" ht="187.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="F3" s="43" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="19"/>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="19"/>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="19"/>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="19"/>
-    </row>
-    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="19"/>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="19"/>
-    </row>
-    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="19"/>
-    </row>
-    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="19"/>
-    </row>
-    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="19"/>
-    </row>
-    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="19"/>
-    </row>
-    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="19"/>
-    </row>
-    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="19"/>
-    </row>
-    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="19"/>
-    </row>
-    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="19"/>
-    </row>
-    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="19"/>
-    </row>
-    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="19"/>
-    </row>
-    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="19"/>
-    </row>
-    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="19"/>
-    </row>
-    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="19"/>
-    </row>
-    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="19"/>
-    </row>
-    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="19"/>
-    </row>
-    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="19"/>
-    </row>
-    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="19"/>
-    </row>
-    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="19"/>
-    </row>
-    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="20">
-        <v>45669</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="19"/>
-    </row>
-    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="20">
-        <v>45669</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="19"/>
-    </row>
-    <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="20">
-        <v>45669</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" s="19"/>
-    </row>
-    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="20">
-        <v>45700</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="19"/>
-    </row>
-    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="20">
-        <v>45700</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="19"/>
-    </row>
-    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="20">
-        <v>45700</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="19"/>
-    </row>
-    <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="20">
-        <v>45700</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="19"/>
-    </row>
-    <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="20">
-        <v>45700</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="19"/>
-    </row>
-    <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="20">
-        <v>45700</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="19"/>
-    </row>
-    <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="20">
-        <v>45728</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="19"/>
-    </row>
-    <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="20">
-        <v>45728</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="19"/>
-    </row>
-    <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="20">
-        <v>45728</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="19"/>
-    </row>
-    <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="20">
-        <v>45759</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40" s="19"/>
-    </row>
-    <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="20">
-        <v>45759</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" s="19"/>
-    </row>
-    <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="20">
-        <v>45789</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="19"/>
-    </row>
-    <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="20">
-        <v>45789</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" s="19"/>
-    </row>
-    <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="20">
-        <v>45789</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="D44" s="19"/>
-    </row>
-    <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="20">
-        <v>45820</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" s="19"/>
-    </row>
-    <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="20">
-        <v>45820</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D46" s="19"/>
-    </row>
-    <row r="47" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="20">
-        <v>45820</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D47" s="19"/>
-    </row>
-    <row r="48" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="20">
-        <v>45820</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" s="19"/>
-    </row>
-    <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="20">
-        <v>45850</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D49" s="19"/>
-    </row>
-    <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="20">
-        <v>45881</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D50" s="19"/>
-    </row>
-    <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="20">
-        <v>45881</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D51" s="19"/>
-    </row>
-    <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="20">
-        <v>45881</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C52" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D52" s="19"/>
-    </row>
-    <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="20">
-        <v>45912</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D53" s="19"/>
-    </row>
-    <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="20">
-        <v>45912</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C54" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="D54" s="19"/>
-    </row>
-    <row r="55" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="20">
-        <v>45942</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D55" s="19"/>
-    </row>
-    <row r="56" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="20">
-        <v>45942</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C56" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D56" s="19"/>
-    </row>
-    <row r="57" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="20">
-        <v>45942</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D57" s="19"/>
-    </row>
-    <row r="58" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="20">
-        <v>45942</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D58" s="19"/>
-    </row>
-    <row r="59" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="20">
-        <v>45973</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D59" s="19"/>
-    </row>
-    <row r="60" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="20">
-        <v>45973</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C60" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D60" s="19"/>
-    </row>
-    <row r="61" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="20">
-        <v>46003</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D61" s="19"/>
-    </row>
-    <row r="62" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="20">
-        <v>46003</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D62" s="19"/>
-    </row>
-    <row r="63" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="20">
-        <v>46003</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C63" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D63" s="19"/>
-    </row>
-    <row r="64" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="20">
-        <v>46003</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="D64" s="19"/>
-    </row>
-    <row r="65" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="20">
-        <v>46003</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C65" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="D65" s="19"/>
-    </row>
-    <row r="66" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D66" s="19"/>
-    </row>
-    <row r="67" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C67" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D67" s="19"/>
-    </row>
-    <row r="68" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B68" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C68" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D68" s="19"/>
-    </row>
-    <row r="69" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B69" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C69" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D69" s="19"/>
-    </row>
-    <row r="70" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B70" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C70" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D70" s="19"/>
-    </row>
-    <row r="71" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B71" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C71" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D71" s="19"/>
-    </row>
-    <row r="72" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="19"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="19"/>
-    </row>
-    <row r="73" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="19"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="19"/>
-    </row>
-    <row r="74" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="19"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="19"/>
-    </row>
-    <row r="75" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="19"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="19"/>
-    </row>
-    <row r="76" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="19"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="19"/>
-    </row>
-    <row r="77" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="19"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="19"/>
-    </row>
-    <row r="78" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="19"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="19"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F944CF4-FE79-4082-9C29-569895E77D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2769EBC7-CAC7-4259-9D4B-A2AF962E54F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="56">
   <si>
     <t>STT</t>
   </si>
@@ -163,9 +163,6 @@
     <t>Bùi Anh Tài</t>
   </si>
   <si>
-    <t>Thông thường</t>
-  </si>
-  <si>
     <t>Nguyễn Hoàng Như Hảo</t>
   </si>
   <si>
@@ -193,15 +190,9 @@
     <t>Nguyễn Phước Dũng Tùng (NaOH)</t>
   </si>
   <si>
-    <t>5 ngày</t>
-  </si>
-  <si>
     <t>Đã trả đủ</t>
   </si>
   <si>
-    <t>Nạp Robux</t>
-  </si>
-  <si>
     <t>4 ngày</t>
   </si>
   <si>
@@ -212,6 +203,12 @@
   </si>
   <si>
     <t>7 ngày</t>
+  </si>
+  <si>
+    <t>2 ngày</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoằng Gia Bảo</t>
   </si>
 </sst>
 </file>
@@ -845,10 +842,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,7 +945,7 @@
         <v>46011</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>14</v>
@@ -1037,66 +1034,69 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="41">
-        <v>120000</v>
-      </c>
-      <c r="E5" s="41">
-        <f>50000-16000+50000+7000+29000</f>
-        <v>120000</v>
-      </c>
-      <c r="F5" s="41">
+      <c r="D5" s="33">
+        <v>100000</v>
+      </c>
+      <c r="E5" s="33">
+        <f>50000-29000+20000</f>
+        <v>41000</v>
+      </c>
+      <c r="F5" s="33">
         <f t="shared" ref="F5" si="2">(D5+I5)-E5</f>
+        <v>59000</v>
+      </c>
+      <c r="G5" s="33">
         <v>0</v>
       </c>
-      <c r="G5" s="41">
+      <c r="H5" s="34">
         <v>0</v>
       </c>
-      <c r="H5" s="42">
-        <v>0</v>
-      </c>
-      <c r="I5" s="41">
+      <c r="I5" s="33">
         <f t="shared" ref="I5" si="3">D5*H5</f>
         <v>0</v>
       </c>
-      <c r="J5" s="43">
-        <v>45999</v>
-      </c>
-      <c r="K5" s="43">
-        <v>46008</v>
-      </c>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40" t="s">
-        <v>51</v>
+      <c r="J5" s="16">
+        <v>46001</v>
+      </c>
+      <c r="K5" s="16">
+        <v>46010</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="33">
-        <v>100000</v>
+        <f>100000+50000</f>
+        <v>150000</v>
       </c>
       <c r="E6" s="33">
-        <f>50000-29000</f>
-        <v>21000</v>
+        <f>10000+5000+23000+10000</f>
+        <v>48000</v>
       </c>
       <c r="F6" s="33">
-        <f t="shared" ref="F6" si="4">(D6+I6)-E6</f>
-        <v>79000</v>
+        <f t="shared" ref="F6:F7" si="4">(D6+I6)-E6</f>
+        <v>102000</v>
       </c>
       <c r="G6" s="33">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="33">
-        <f t="shared" ref="I6" si="5">D6*H6</f>
+        <f t="shared" ref="I6:I7" si="5">D6*H6</f>
         <v>0</v>
       </c>
       <c r="J6" s="16">
@@ -1123,108 +1123,104 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="33">
-        <f>100000+50000</f>
-        <v>150000</v>
-      </c>
-      <c r="E7" s="33">
-        <f>10000+5000+23000</f>
-        <v>38000</v>
-      </c>
-      <c r="F7" s="33">
-        <f t="shared" ref="F7:F8" si="6">(D7+I7)-E7</f>
-        <v>112000</v>
-      </c>
-      <c r="G7" s="33">
+      <c r="D7" s="41">
+        <v>50000</v>
+      </c>
+      <c r="E7" s="41">
+        <f>30000+20000</f>
+        <v>50000</v>
+      </c>
+      <c r="F7" s="41">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H7" s="34">
+      <c r="G7" s="41">
         <v>0</v>
       </c>
-      <c r="I7" s="33">
-        <f t="shared" ref="I7:I8" si="7">D7*H7</f>
+      <c r="H7" s="42">
         <v>0</v>
       </c>
-      <c r="J7" s="16">
+      <c r="I7" s="41">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="43">
         <v>46001</v>
       </c>
-      <c r="K7" s="16">
-        <v>46010</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="M7" s="15" t="s">
-        <v>14</v>
+      <c r="K7" s="43">
+        <v>46009</v>
+      </c>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="33">
-        <v>50000</v>
-      </c>
-      <c r="E8" s="33">
-        <f>30000</f>
-        <v>30000</v>
-      </c>
-      <c r="F8" s="33">
-        <f t="shared" si="6"/>
+      <c r="D8" s="29">
         <v>20000</v>
       </c>
-      <c r="G8" s="33">
+      <c r="E8" s="29">
         <v>0</v>
       </c>
-      <c r="H8" s="34">
+      <c r="F8" s="29">
+        <f t="shared" ref="F8" si="6">(D8+I8)-E8</f>
+        <v>20000</v>
+      </c>
+      <c r="G8" s="29">
         <v>0</v>
       </c>
-      <c r="I8" s="33">
-        <f t="shared" si="7"/>
+      <c r="H8" s="30">
         <v>0</v>
       </c>
-      <c r="J8" s="16">
-        <v>46001</v>
-      </c>
-      <c r="K8" s="16">
-        <v>46010</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" s="15" t="s">
+      <c r="I8" s="29">
+        <f t="shared" ref="I8" si="7">D8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>46006</v>
+      </c>
+      <c r="K8" s="4">
+        <v>46012</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D9" s="41">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="E9" s="41">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="F9" s="41">
         <f t="shared" ref="F9" si="8">(D9+I9)-E9</f>
@@ -1241,393 +1237,194 @@
         <v>0</v>
       </c>
       <c r="J9" s="43">
-        <v>46005</v>
-      </c>
-      <c r="K9" s="43"/>
+        <v>46008</v>
+      </c>
+      <c r="K9" s="43">
+        <v>46009</v>
+      </c>
       <c r="L9" s="40"/>
       <c r="M9" s="40" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>10</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="41">
-        <f>70000+150000+20000+20000</f>
-        <v>260000</v>
-      </c>
-      <c r="E10" s="41">
-        <v>260000</v>
-      </c>
-      <c r="F10" s="41">
+        <v>16</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="29">
+        <v>50000</v>
+      </c>
+      <c r="E10" s="29">
+        <v>0</v>
+      </c>
+      <c r="F10" s="29">
         <f t="shared" ref="F10" si="10">(D10+I10)-E10</f>
+        <v>50000</v>
+      </c>
+      <c r="G10" s="29">
         <v>0</v>
       </c>
-      <c r="G10" s="41">
+      <c r="H10" s="30">
         <v>0</v>
       </c>
-      <c r="H10" s="42">
-        <v>0</v>
-      </c>
-      <c r="I10" s="41">
+      <c r="I10" s="29">
         <f t="shared" ref="I10" si="11">D10*H10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="43">
-        <v>46006</v>
-      </c>
-      <c r="K10" s="43">
-        <v>46008</v>
-      </c>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40" t="s">
-        <v>51</v>
+      <c r="J10" s="4">
+        <v>46009</v>
+      </c>
+      <c r="K10" s="4">
+        <v>46015</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>11</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="29">
-        <v>20000</v>
-      </c>
-      <c r="E11" s="29">
+        <v>17</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="41">
+        <v>5000</v>
+      </c>
+      <c r="E11" s="41">
+        <v>5000</v>
+      </c>
+      <c r="F11" s="41">
+        <f t="shared" ref="F11" si="12">(D11+I11)-E11</f>
         <v>0</v>
       </c>
-      <c r="F11" s="29">
-        <f t="shared" ref="F11:F12" si="12">(D11+I11)-E11</f>
-        <v>20000</v>
-      </c>
-      <c r="G11" s="29">
+      <c r="G11" s="41">
         <v>0</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="42">
         <v>0</v>
       </c>
-      <c r="I11" s="29">
-        <f t="shared" ref="I11:I12" si="13">D11*H11</f>
+      <c r="I11" s="41">
+        <f t="shared" ref="I11" si="13">D11*H11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="4">
-        <v>46006</v>
-      </c>
-      <c r="K11" s="4">
-        <v>46012</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>14</v>
+      <c r="J11" s="43">
+        <v>46009</v>
+      </c>
+      <c r="K11" s="43">
+        <v>46009</v>
+      </c>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>12</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="41">
-        <v>10000</v>
-      </c>
-      <c r="E12" s="41">
-        <v>10000</v>
-      </c>
-      <c r="F12" s="41">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="41">
-        <v>0</v>
-      </c>
-      <c r="H12" s="42">
-        <v>0</v>
-      </c>
-      <c r="I12" s="41">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="43">
-        <v>46006</v>
-      </c>
-      <c r="K12" s="43">
-        <v>46008</v>
-      </c>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>13</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="41">
-        <v>60000</v>
-      </c>
-      <c r="E13" s="41">
-        <v>60000</v>
-      </c>
-      <c r="F13" s="41">
-        <f t="shared" ref="F13" si="14">(D13+I13)-E13</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="41">
-        <v>0</v>
-      </c>
-      <c r="H13" s="42">
-        <v>0</v>
-      </c>
-      <c r="I13" s="41">
-        <f t="shared" ref="I13" si="15">D13*H13</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="43">
-        <v>46006</v>
-      </c>
-      <c r="K13" s="43">
-        <v>46008</v>
-      </c>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40" t="s">
-        <v>51</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+    </row>
+    <row r="13" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+      <c r="B13" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>14</v>
-      </c>
-      <c r="B14" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="41">
-        <v>20000</v>
-      </c>
-      <c r="E14" s="41">
-        <v>20000</v>
-      </c>
-      <c r="F14" s="41">
-        <f t="shared" ref="F14:F15" si="16">(D14+I14)-E14</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="41">
-        <v>0</v>
-      </c>
-      <c r="H14" s="42">
-        <v>0</v>
-      </c>
-      <c r="I14" s="41">
-        <f t="shared" ref="I14:I15" si="17">D14*H14</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="43">
-        <v>46007</v>
-      </c>
-      <c r="K14" s="43">
-        <v>46008</v>
-      </c>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40" t="s">
-        <v>51</v>
-      </c>
+      <c r="D14" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="44"/>
+      <c r="F14" s="37">
+        <f>SUM(D2:D12)</f>
+        <v>795000</v>
+      </c>
+      <c r="G14" s="38"/>
+      <c r="J14" s="38"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>15</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="29">
-        <v>20000</v>
-      </c>
-      <c r="E15" s="29">
-        <v>0</v>
-      </c>
-      <c r="F15" s="29">
-        <f t="shared" si="16"/>
-        <v>20000</v>
-      </c>
-      <c r="G15" s="29">
-        <v>0</v>
-      </c>
-      <c r="H15" s="30">
-        <v>0</v>
-      </c>
-      <c r="I15" s="29">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
-        <v>46008</v>
-      </c>
-      <c r="K15" s="4">
-        <v>46014</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>14</v>
+      <c r="D15" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="44"/>
+      <c r="F15" s="37">
+        <f>SUM(E2:E12)</f>
+        <v>174000</v>
+      </c>
+      <c r="G15" s="38"/>
+      <c r="M15" s="26" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>16</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>17</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>18</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-    </row>
-    <row r="19" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="B19" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="36"/>
-      <c r="D19" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D20" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="37">
-        <f>SUM(D2:D18)</f>
-        <v>1215000</v>
-      </c>
+      <c r="D16" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="44"/>
+      <c r="F16" s="37">
+        <f>-SUM(F2:F12)</f>
+        <v>-673500</v>
+      </c>
+      <c r="G16" s="38"/>
+    </row>
+    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+    </row>
+    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+    </row>
+    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F20" s="38"/>
       <c r="G20" s="38"/>
-      <c r="J20" s="38"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D21" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="37">
-        <f>SUM(E2:E18)</f>
-        <v>574000</v>
-      </c>
-      <c r="G21" s="38"/>
-      <c r="M21" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D22" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="37">
-        <f>-SUM(F2:F18)</f>
-        <v>-693500</v>
-      </c>
-      <c r="G22" s="38"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F27" s="38"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F28" s="38"/>
+    </row>
+    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="38"/>
+    </row>
+    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D13:G13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D19" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
+    <hyperlink ref="D13" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1639,7 +1436,7 @@
   <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="F82" sqref="F82"/>
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1652,13 +1449,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>2</v>
@@ -2151,7 +1948,7 @@
         <v>45996</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42" s="20">
         <v>540000</v>
@@ -2199,7 +1996,7 @@
         <v>45997</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C46" s="20">
         <v>200000</v>
@@ -2235,7 +2032,7 @@
         <v>45998</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C49" s="20">
         <v>100000</v>
@@ -2247,7 +2044,7 @@
         <v>45999</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C50" s="20">
         <v>200000</v>
@@ -2319,7 +2116,7 @@
         <v>46001</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C56" s="20">
         <v>50000</v>
@@ -2429,7 +2226,7 @@
         <v>46003</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C65" s="20">
         <v>340000</v>
@@ -2471,7 +2268,7 @@
         <v>46004</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C68" s="20">
         <v>20000</v>
@@ -2499,7 +2296,7 @@
         <v>46004</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C70" s="20">
         <v>100000</v>
@@ -2519,7 +2316,7 @@
         <v>50000</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -2527,7 +2324,7 @@
         <v>46005</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C72" s="20">
         <v>20000</v>
@@ -2589,7 +2386,7 @@
         <v>70000</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -2645,7 +2442,7 @@
         <v>20000</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -2673,7 +2470,7 @@
         <v>20000</v>
       </c>
       <c r="D82" s="22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -2691,16 +2488,32 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="21"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="22"/>
+      <c r="A84" s="21">
+        <v>46009</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C84" s="20">
+        <v>5000</v>
+      </c>
+      <c r="D84" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="85" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="21"/>
-      <c r="B85" s="19"/>
-      <c r="C85" s="20"/>
-      <c r="D85" s="22"/>
+      <c r="A85" s="21">
+        <v>46009</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" s="20">
+        <v>50000</v>
+      </c>
+      <c r="D85" s="22" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="86" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A86" s="21"/>
@@ -2833,10 +2646,10 @@
         <v>8</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>20</v>
@@ -2884,10 +2697,10 @@
         <v>38</v>
       </c>
       <c r="T1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="17" t="s">
         <v>45</v>
-      </c>
-      <c r="U1" s="17" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2769EBC7-CAC7-4259-9D4B-A2AF962E54F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8A444F-F613-4BC2-83E9-10ABC5C1A234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -845,7 +845,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="L9" s="40"/>
       <c r="M9" s="40" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8A444F-F613-4BC2-83E9-10ABC5C1A234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3391221D-6135-4113-BF2A-2EA3A6061B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="55">
   <si>
     <t>STT</t>
   </si>
@@ -193,9 +193,6 @@
     <t>Đã trả đủ</t>
   </si>
   <si>
-    <t>4 ngày</t>
-  </si>
-  <si>
     <t>3 ngày</t>
   </si>
   <si>
@@ -208,7 +205,7 @@
     <t>2 ngày</t>
   </si>
   <si>
-    <t>Nguyễn Hoằng Gia Bảo</t>
+    <t>1 ngày</t>
   </si>
 </sst>
 </file>
@@ -372,7 +369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -436,9 +433,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -466,9 +460,6 @@
     <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -498,6 +489,27 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -842,29 +854,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="26" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.140625" style="26" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="26" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="26" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" style="26" customWidth="1"/>
-    <col min="10" max="11" width="12.140625" style="26" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="26" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="26" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" style="26" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="26"/>
-    <col min="16" max="16" width="10.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="26"/>
+    <col min="1" max="1" width="3.5703125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.140625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="25" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="25" customWidth="1"/>
+    <col min="10" max="11" width="12.140625" style="25" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="25" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="25" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" style="25" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="25"/>
+    <col min="16" max="16" width="10.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -918,23 +930,23 @@
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="28">
         <v>350000</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="28">
         <v>0</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="28">
         <f>(D2+I2)-E2</f>
         <v>402500</v>
       </c>
-      <c r="G2" s="29">
+      <c r="G2" s="28">
         <v>0</v>
       </c>
-      <c r="H2" s="30">
+      <c r="H2" s="29">
         <v>0.15</v>
       </c>
-      <c r="I2" s="29">
+      <c r="I2" s="28">
         <f>(D2*H2)</f>
         <v>52500</v>
       </c>
@@ -945,7 +957,7 @@
         <v>46011</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>14</v>
@@ -956,30 +968,30 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>23</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="30">
         <v>20000</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="30">
         <f>10000</f>
         <v>10000</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="30">
         <f t="shared" ref="F3" si="0">(D3+I3)-E3</f>
         <v>10000</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="30">
         <v>0</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="31">
         <v>0</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="30">
         <f t="shared" ref="I3" si="1">D3*H3</f>
         <v>0</v>
       </c>
@@ -997,29 +1009,29 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="30">
         <v>30000</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="30">
         <v>0</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="30">
         <f>(D4+I4)-E4</f>
         <v>30000</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="30">
         <v>0</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="31">
         <v>0</v>
       </c>
-      <c r="I4" s="31">
+      <c r="I4" s="30">
         <f>D4*H4</f>
         <v>0</v>
       </c>
@@ -1034,32 +1046,32 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>5</v>
-      </c>
-      <c r="B5" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="32">
         <v>100000</v>
       </c>
-      <c r="E5" s="33">
-        <f>50000-29000+20000</f>
-        <v>41000</v>
-      </c>
-      <c r="F5" s="33">
+      <c r="E5" s="32">
+        <f>50000-29000+20000+10000</f>
+        <v>51000</v>
+      </c>
+      <c r="F5" s="32">
         <f t="shared" ref="F5" si="2">(D5+I5)-E5</f>
-        <v>59000</v>
-      </c>
-      <c r="G5" s="33">
+        <v>49000</v>
+      </c>
+      <c r="G5" s="32">
         <v>0</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="33">
         <v>0</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="32">
         <f t="shared" ref="I5" si="3">D5*H5</f>
         <v>0</v>
       </c>
@@ -1078,34 +1090,34 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>6</v>
-      </c>
-      <c r="B6" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="32">
         <f>100000+50000</f>
         <v>150000</v>
       </c>
-      <c r="E6" s="33">
-        <f>10000+5000+23000+10000</f>
-        <v>48000</v>
-      </c>
-      <c r="F6" s="33">
-        <f t="shared" ref="F6:F7" si="4">(D6+I6)-E6</f>
-        <v>102000</v>
-      </c>
-      <c r="G6" s="33">
+      <c r="E6" s="32">
+        <f>10000+5000+23000+10000+50000+20000</f>
+        <v>118000</v>
+      </c>
+      <c r="F6" s="32">
+        <f t="shared" ref="F6" si="4">(D6+I6)-E6</f>
+        <v>32000</v>
+      </c>
+      <c r="G6" s="32">
         <v>0</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="33">
         <v>0</v>
       </c>
-      <c r="I6" s="33">
-        <f t="shared" ref="I6:I7" si="5">D6*H6</f>
+      <c r="I6" s="32">
+        <f t="shared" ref="I6" si="5">D6*H6</f>
         <v>0</v>
       </c>
       <c r="J6" s="16">
@@ -1123,168 +1135,169 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>7</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="41">
-        <v>50000</v>
-      </c>
-      <c r="E7" s="41">
-        <f>30000+20000</f>
-        <v>50000</v>
-      </c>
-      <c r="F7" s="41">
-        <f t="shared" si="4"/>
+      <c r="D7" s="28">
+        <v>20000</v>
+      </c>
+      <c r="E7" s="28">
         <v>0</v>
       </c>
-      <c r="G7" s="41">
+      <c r="F7" s="28">
+        <f t="shared" ref="F7" si="6">(D7+I7)-E7</f>
+        <v>20000</v>
+      </c>
+      <c r="G7" s="28">
         <v>0</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="29">
         <v>0</v>
       </c>
-      <c r="I7" s="41">
-        <f t="shared" si="5"/>
+      <c r="I7" s="28">
+        <f t="shared" ref="I7" si="7">D7*H7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="43">
-        <v>46001</v>
-      </c>
-      <c r="K7" s="43">
-        <v>46009</v>
-      </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40" t="s">
-        <v>49</v>
+      <c r="J7" s="4">
+        <v>46006</v>
+      </c>
+      <c r="K7" s="4">
+        <v>46012</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>11</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="29">
-        <v>20000</v>
-      </c>
-      <c r="E8" s="29">
+        <v>7</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="39">
+        <v>50000</v>
+      </c>
+      <c r="E8" s="39">
+        <v>50000</v>
+      </c>
+      <c r="F8" s="39">
+        <f t="shared" ref="F8:F9" si="8">(D8+I8)-E8</f>
         <v>0</v>
       </c>
-      <c r="F8" s="29">
-        <f t="shared" ref="F8" si="6">(D8+I8)-E8</f>
-        <v>20000</v>
-      </c>
-      <c r="G8" s="29">
+      <c r="G8" s="39">
         <v>0</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="40">
         <v>0</v>
       </c>
-      <c r="I8" s="29">
-        <f t="shared" ref="I8" si="7">D8*H8</f>
+      <c r="I8" s="39">
+        <f t="shared" ref="I8:I9" si="9">D8*H8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="4">
-        <v>46006</v>
-      </c>
-      <c r="K8" s="4">
-        <v>46012</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>14</v>
+      <c r="J8" s="41">
+        <v>46009</v>
+      </c>
+      <c r="K8" s="41">
+        <v>46010</v>
+      </c>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>15</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="46">
+        <v>20000</v>
+      </c>
+      <c r="E9" s="46">
+        <v>0</v>
+      </c>
+      <c r="F9" s="28">
+        <f t="shared" si="8"/>
+        <v>20000</v>
+      </c>
+      <c r="G9" s="28">
+        <v>0</v>
+      </c>
+      <c r="H9" s="29">
+        <v>0</v>
+      </c>
+      <c r="I9" s="28">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>46010</v>
+      </c>
+      <c r="K9" s="4">
+        <v>46016</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="41">
-        <v>20000</v>
-      </c>
-      <c r="E9" s="41">
-        <v>20000</v>
-      </c>
-      <c r="F9" s="41">
-        <f t="shared" ref="F9" si="8">(D9+I9)-E9</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="41">
-        <v>0</v>
-      </c>
-      <c r="H9" s="42">
-        <v>0</v>
-      </c>
-      <c r="I9" s="41">
-        <f t="shared" ref="I9" si="9">D9*H9</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="43">
-        <v>46008</v>
-      </c>
-      <c r="K9" s="43">
-        <v>46009</v>
-      </c>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40" t="s">
-        <v>49</v>
+      <c r="M9" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>16</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="29">
-        <v>50000</v>
-      </c>
-      <c r="E10" s="29">
+        <v>9</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="46">
+        <v>100000</v>
+      </c>
+      <c r="E10" s="46">
         <v>0</v>
       </c>
-      <c r="F10" s="29">
-        <f t="shared" ref="F10" si="10">(D10+I10)-E10</f>
-        <v>50000</v>
-      </c>
-      <c r="G10" s="29">
+      <c r="F10" s="28">
+        <f t="shared" ref="F10:F11" si="10">(D10+I10)-E10</f>
+        <v>100000</v>
+      </c>
+      <c r="G10" s="28">
         <v>0</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="29">
         <v>0</v>
       </c>
-      <c r="I10" s="29">
-        <f t="shared" ref="I10" si="11">D10*H10</f>
+      <c r="I10" s="28">
+        <f t="shared" ref="I10:I11" si="11">D10*H10</f>
         <v>0</v>
       </c>
       <c r="J10" s="4">
-        <v>46009</v>
+        <v>46010</v>
       </c>
       <c r="K10" s="4">
-        <v>46015</v>
+        <v>46016</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>14</v>
@@ -1292,139 +1305,244 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="41">
-        <v>5000</v>
-      </c>
-      <c r="E11" s="41">
-        <v>5000</v>
-      </c>
-      <c r="F11" s="41">
-        <f t="shared" ref="F11" si="12">(D11+I11)-E11</f>
+      <c r="D11" s="46">
+        <f>50000+110000</f>
+        <v>160000</v>
+      </c>
+      <c r="E11" s="46">
         <v>0</v>
       </c>
-      <c r="G11" s="41">
+      <c r="F11" s="28">
+        <f t="shared" si="10"/>
+        <v>160000</v>
+      </c>
+      <c r="G11" s="28">
         <v>0</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="29">
         <v>0</v>
       </c>
-      <c r="I11" s="41">
-        <f t="shared" ref="I11" si="13">D11*H11</f>
+      <c r="I11" s="28">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J11" s="43">
-        <v>46009</v>
-      </c>
-      <c r="K11" s="43">
-        <v>46009</v>
-      </c>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40" t="s">
-        <v>49</v>
+      <c r="J11" s="4">
+        <v>46010</v>
+      </c>
+      <c r="K11" s="4">
+        <v>46016</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>18</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-    </row>
-    <row r="13" spans="1:17" ht="24" x14ac:dyDescent="0.25">
-      <c r="B13" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="45"/>
+      <c r="M15" s="45"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+    </row>
+    <row r="19" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="B19" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="45" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D14" s="44" t="s">
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D20" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="37">
-        <f>SUM(D2:D12)</f>
-        <v>795000</v>
-      </c>
-      <c r="G14" s="38"/>
-      <c r="J14" s="38"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D15" s="44" t="s">
+      <c r="E20" s="42"/>
+      <c r="F20" s="35">
+        <f>SUM(D2:D18)</f>
+        <v>1000000</v>
+      </c>
+      <c r="G20" s="36"/>
+      <c r="J20" s="36"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D21" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="37">
-        <f>SUM(E2:E12)</f>
-        <v>174000</v>
-      </c>
-      <c r="G15" s="38"/>
-      <c r="M15" s="26" t="s">
+      <c r="E21" s="42"/>
+      <c r="F21" s="35">
+        <f>SUM(E2:E18)</f>
+        <v>229000</v>
+      </c>
+      <c r="G21" s="36"/>
+      <c r="M21" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D16" s="44" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D22" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="44"/>
-      <c r="F16" s="37">
-        <f>-SUM(F2:F12)</f>
-        <v>-673500</v>
-      </c>
-      <c r="G16" s="38"/>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-    </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-    </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-    </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F21" s="38"/>
-    </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F22" s="38"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="35">
+        <f>-SUM(F2:F18)</f>
+        <v>-823500</v>
+      </c>
+      <c r="G22" s="36"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F27" s="36"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F28" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D19:G19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D13" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
+    <hyperlink ref="D19" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1435,8 +1553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA131776-2E13-4A0E-8D22-F638A9EA7E4B}">
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2470,7 +2588,7 @@
         <v>20000</v>
       </c>
       <c r="D82" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -2516,40 +2634,88 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="21"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="20"/>
-      <c r="D86" s="22"/>
+      <c r="A86" s="21">
+        <v>46010</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C86" s="20">
+        <v>100000</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="87" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="21"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="22"/>
+      <c r="A87" s="21">
+        <v>46010</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C87" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D87" s="22" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="88" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="21"/>
-      <c r="B88" s="19"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="22"/>
+      <c r="A88" s="21">
+        <v>46010</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" s="20">
+        <v>300000</v>
+      </c>
+      <c r="D88" s="22" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="89" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="21"/>
-      <c r="B89" s="19"/>
-      <c r="C89" s="20"/>
-      <c r="D89" s="22"/>
+      <c r="A89" s="21">
+        <v>46010</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C89" s="20">
+        <v>100000</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="90" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="21"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="20"/>
-      <c r="D90" s="22"/>
+      <c r="A90" s="21">
+        <v>46010</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="20">
+        <v>50000</v>
+      </c>
+      <c r="D90" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="91" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="21"/>
-      <c r="B91" s="19"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="22"/>
+      <c r="A91" s="21">
+        <v>46010</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="20">
+        <v>110000</v>
+      </c>
+      <c r="D91" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="92" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A92" s="21"/>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3391221D-6135-4113-BF2A-2EA3A6061B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE08E13D-7145-4EB8-AEAE-998E9547727A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="57">
   <si>
     <t>STT</t>
   </si>
@@ -206,6 +206,12 @@
   </si>
   <si>
     <t>1 ngày</t>
+  </si>
+  <si>
+    <t>Nạp FC Mobile</t>
+  </si>
+  <si>
+    <t>6 ngày</t>
   </si>
 </sst>
 </file>
@@ -369,7 +375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -484,32 +490,17 @@
     <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -854,10 +845,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -924,42 +915,42 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="32">
         <v>350000</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="32">
         <v>0</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="32">
         <f>(D2+I2)-E2</f>
         <v>402500</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="32">
         <v>0</v>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="33">
         <v>0.15</v>
       </c>
-      <c r="I2" s="28">
+      <c r="I2" s="32">
         <f>(D2*H2)</f>
         <v>52500</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="16">
         <v>45984</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="16">
         <v>46011</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="L2" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="15" t="s">
         <v>14</v>
       </c>
       <c r="Q2" s="6"/>
@@ -1079,10 +1070,10 @@
         <v>46001</v>
       </c>
       <c r="K5" s="16">
-        <v>46010</v>
+        <v>46013</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M5" s="15" t="s">
         <v>14</v>
@@ -1124,10 +1115,10 @@
         <v>46001</v>
       </c>
       <c r="K6" s="16">
-        <v>46010</v>
+        <v>46013</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M6" s="15" t="s">
         <v>14</v>
@@ -1170,7 +1161,7 @@
         <v>46012</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>14</v>
@@ -1178,22 +1169,22 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D8" s="39">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="E8" s="39">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="F8" s="39">
-        <f t="shared" ref="F8:F9" si="8">(D8+I8)-E8</f>
+        <f t="shared" ref="F8" si="8">(D8+I8)-E8</f>
         <v>0</v>
       </c>
       <c r="G8" s="39">
@@ -1203,14 +1194,14 @@
         <v>0</v>
       </c>
       <c r="I8" s="39">
-        <f t="shared" ref="I8:I9" si="9">D8*H8</f>
+        <f t="shared" ref="I8" si="9">D8*H8</f>
         <v>0</v>
       </c>
       <c r="J8" s="41">
-        <v>46009</v>
+        <v>46010</v>
       </c>
       <c r="K8" s="41">
-        <v>46010</v>
+        <v>46011</v>
       </c>
       <c r="L8" s="38"/>
       <c r="M8" s="38" t="s">
@@ -1219,23 +1210,23 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="46">
-        <v>20000</v>
-      </c>
-      <c r="E9" s="46">
+        <v>9</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="28">
+        <v>100000</v>
+      </c>
+      <c r="E9" s="28">
         <v>0</v>
       </c>
       <c r="F9" s="28">
-        <f t="shared" si="8"/>
-        <v>20000</v>
+        <f t="shared" ref="F9:F10" si="10">(D9+I9)-E9</f>
+        <v>100000</v>
       </c>
       <c r="G9" s="28">
         <v>0</v>
@@ -1244,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="I9:I10" si="11">D9*H9</f>
         <v>0</v>
       </c>
       <c r="J9" s="4">
@@ -1254,7 +1245,7 @@
         <v>46016</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>14</v>
@@ -1262,23 +1253,24 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="46">
-        <v>100000</v>
-      </c>
-      <c r="E10" s="46">
+      <c r="D10" s="28">
+        <f>50000+110000</f>
+        <v>160000</v>
+      </c>
+      <c r="E10" s="28">
         <v>0</v>
       </c>
       <c r="F10" s="28">
-        <f t="shared" ref="F10:F11" si="10">(D10+I10)-E10</f>
-        <v>100000</v>
+        <f t="shared" si="10"/>
+        <v>160000</v>
       </c>
       <c r="G10" s="28">
         <v>0</v>
@@ -1287,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="28">
-        <f t="shared" ref="I10:I11" si="11">D10*H10</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J10" s="4">
@@ -1297,7 +1289,7 @@
         <v>46016</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>14</v>
@@ -1305,24 +1297,23 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="46">
-        <f>50000+110000</f>
-        <v>160000</v>
-      </c>
-      <c r="E11" s="46">
+        <v>11</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="28">
+        <v>50000</v>
+      </c>
+      <c r="E11" s="28">
         <v>0</v>
       </c>
       <c r="F11" s="28">
-        <f t="shared" si="10"/>
-        <v>160000</v>
+        <f t="shared" ref="F11" si="12">(D11+I11)-E11</f>
+        <v>50000</v>
       </c>
       <c r="G11" s="28">
         <v>0</v>
@@ -1331,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="I11" si="13">D11*H11</f>
         <v>0</v>
       </c>
       <c r="J11" s="4">
@@ -1341,7 +1332,7 @@
         <v>46016</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>14</v>
@@ -1349,171 +1340,184 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
+        <v>12</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="28">
+        <v>100000</v>
+      </c>
+      <c r="E12" s="28">
+        <v>0</v>
+      </c>
+      <c r="F12" s="28">
+        <f t="shared" ref="F12" si="14">(D12+I12)-E12</f>
+        <v>100000</v>
+      </c>
+      <c r="G12" s="28">
+        <v>0</v>
+      </c>
+      <c r="H12" s="29">
+        <v>0</v>
+      </c>
+      <c r="I12" s="28">
+        <f t="shared" ref="I12" si="15">D12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>46011</v>
+      </c>
+      <c r="K12" s="4">
+        <v>46017</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
+        <v>13</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
+        <v>14</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
+        <v>15</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
+        <v>16</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-    </row>
-    <row r="19" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="B19" s="34" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+    </row>
+    <row r="18" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="B18" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="43" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D19" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="44"/>
+      <c r="F19" s="35">
+        <f>SUM(D2:D17)</f>
+        <v>1100000</v>
+      </c>
+      <c r="G19" s="36"/>
+      <c r="J19" s="36"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D20" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="42"/>
+      <c r="D20" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="44"/>
       <c r="F20" s="35">
-        <f>SUM(D2:D18)</f>
-        <v>1000000</v>
+        <f>SUM(E2:E17)</f>
+        <v>199000</v>
       </c>
       <c r="G20" s="36"/>
-      <c r="J20" s="36"/>
+      <c r="M20" s="25" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D21" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="42"/>
+      <c r="D21" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="44"/>
       <c r="F21" s="35">
-        <f>SUM(E2:E18)</f>
-        <v>229000</v>
+        <f>-SUM(F2:F17)</f>
+        <v>-953500</v>
       </c>
       <c r="G21" s="36"/>
-      <c r="M21" s="25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D22" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="35">
-        <f>-SUM(F2:F18)</f>
-        <v>-823500</v>
-      </c>
-      <c r="G22" s="36"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F24" s="36"/>
@@ -1525,24 +1529,20 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F27" s="36"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F28" s="36"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="D19:E19"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D18:G18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D19" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
+    <hyperlink ref="D18" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1553,8 +1553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA131776-2E13-4A0E-8D22-F638A9EA7E4B}">
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="G91" sqref="G91"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2718,22 +2718,46 @@
       </c>
     </row>
     <row r="92" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="21"/>
-      <c r="B92" s="19"/>
-      <c r="C92" s="20"/>
-      <c r="D92" s="22"/>
+      <c r="A92" s="21">
+        <v>46010</v>
+      </c>
+      <c r="B92" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" s="20">
+        <v>100000</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="93" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="21"/>
-      <c r="B93" s="19"/>
-      <c r="C93" s="20"/>
-      <c r="D93" s="22"/>
+      <c r="A93" s="21">
+        <v>46010</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93" s="20">
+        <v>50000</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="94" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="21"/>
-      <c r="B94" s="19"/>
-      <c r="C94" s="20"/>
-      <c r="D94" s="22"/>
+      <c r="A94" s="21">
+        <v>46011</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C94" s="20">
+        <v>100000</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="95" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A95" s="21"/>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE08E13D-7145-4EB8-AEAE-998E9547727A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811E5E82-2AE0-45C3-A3DF-A98C95E32474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="57">
   <si>
     <t>STT</t>
   </si>
@@ -190,12 +190,6 @@
     <t>Nguyễn Phước Dũng Tùng (NaOH)</t>
   </si>
   <si>
-    <t>Đã trả đủ</t>
-  </si>
-  <si>
-    <t>3 ngày</t>
-  </si>
-  <si>
     <t>Nạp điện thoại</t>
   </si>
   <si>
@@ -212,6 +206,12 @@
   </si>
   <si>
     <t>6 ngày</t>
+  </si>
+  <si>
+    <t>Nạp Robux</t>
+  </si>
+  <si>
+    <t>5 ngày</t>
   </si>
 </sst>
 </file>
@@ -282,7 +282,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,12 +304,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF4F4F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,7 +369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -474,21 +468,6 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -845,10 +824,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,26 +908,26 @@
       </c>
       <c r="F2" s="32">
         <f>(D2+I2)-E2</f>
-        <v>402500</v>
+        <v>420000</v>
       </c>
       <c r="G2" s="32">
         <v>0</v>
       </c>
       <c r="H2" s="33">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="I2" s="32">
         <f>(D2*H2)</f>
-        <v>52500</v>
+        <v>70000</v>
       </c>
       <c r="J2" s="16">
         <v>45984</v>
       </c>
       <c r="K2" s="16">
-        <v>46011</v>
+        <v>46018</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="M2" s="15" t="s">
         <v>14</v>
@@ -1073,7 +1052,7 @@
         <v>46013</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M5" s="15" t="s">
         <v>14</v>
@@ -1118,7 +1097,7 @@
         <v>46013</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M6" s="15" t="s">
         <v>14</v>
@@ -1128,105 +1107,108 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="32">
         <v>20000</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="32">
         <v>0</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="32">
         <f t="shared" ref="F7" si="6">(D7+I7)-E7</f>
         <v>20000</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="32">
         <v>0</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="33">
         <v>0</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="32">
         <f t="shared" ref="I7" si="7">D7*H7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="16">
         <v>46006</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="16">
         <v>46012</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M7" s="1" t="s">
+      <c r="L7" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>8</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="39">
-        <v>20000</v>
-      </c>
-      <c r="E8" s="39">
-        <v>20000</v>
-      </c>
-      <c r="F8" s="39">
-        <f t="shared" ref="F8" si="8">(D8+I8)-E8</f>
+        <v>7</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="28">
+        <v>100000</v>
+      </c>
+      <c r="E8" s="28">
         <v>0</v>
       </c>
-      <c r="G8" s="39">
+      <c r="F8" s="28">
+        <f t="shared" ref="F8:F9" si="8">(D8+I8)-E8</f>
+        <v>100000</v>
+      </c>
+      <c r="G8" s="28">
         <v>0</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="29">
         <v>0</v>
       </c>
-      <c r="I8" s="39">
-        <f t="shared" ref="I8" si="9">D8*H8</f>
+      <c r="I8" s="28">
+        <f t="shared" ref="I8:I9" si="9">D8*H8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="4">
         <v>46010</v>
       </c>
-      <c r="K8" s="41">
-        <v>46011</v>
-      </c>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38" t="s">
-        <v>49</v>
+      <c r="K8" s="4">
+        <v>46016</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="28">
-        <v>100000</v>
+        <f>50000+110000</f>
+        <v>160000</v>
       </c>
       <c r="E9" s="28">
         <v>0</v>
       </c>
       <c r="F9" s="28">
-        <f t="shared" ref="F9:F10" si="10">(D9+I9)-E9</f>
-        <v>100000</v>
+        <f t="shared" si="8"/>
+        <v>160000</v>
       </c>
       <c r="G9" s="28">
         <v>0</v>
@@ -1235,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="28">
-        <f t="shared" ref="I9:I10" si="11">D9*H9</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J9" s="4">
@@ -1253,24 +1235,23 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D10" s="28">
-        <f>50000+110000</f>
-        <v>160000</v>
+        <v>50000</v>
       </c>
       <c r="E10" s="28">
         <v>0</v>
       </c>
       <c r="F10" s="28">
-        <f t="shared" si="10"/>
-        <v>160000</v>
+        <f t="shared" ref="F10" si="10">(D10+I10)-E10</f>
+        <v>50000</v>
       </c>
       <c r="G10" s="28">
         <v>0</v>
@@ -1279,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="28">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="I10" si="11">D10*H10</f>
         <v>0</v>
       </c>
       <c r="J10" s="4">
@@ -1297,23 +1278,23 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D11" s="28">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="E11" s="28">
         <v>0</v>
       </c>
       <c r="F11" s="28">
         <f t="shared" ref="F11" si="12">(D11+I11)-E11</f>
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="G11" s="28">
         <v>0</v>
@@ -1326,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="4">
-        <v>46010</v>
+        <v>46011</v>
       </c>
       <c r="K11" s="4">
-        <v>46016</v>
+        <v>46017</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>14</v>
@@ -1340,50 +1321,24 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>12</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="28">
-        <v>100000</v>
-      </c>
-      <c r="E12" s="28">
-        <v>0</v>
-      </c>
-      <c r="F12" s="28">
-        <f t="shared" ref="F12" si="14">(D12+I12)-E12</f>
-        <v>100000</v>
-      </c>
-      <c r="G12" s="28">
-        <v>0</v>
-      </c>
-      <c r="H12" s="29">
-        <v>0</v>
-      </c>
-      <c r="I12" s="28">
-        <f t="shared" ref="I12" si="15">D12*H12</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <v>46011</v>
-      </c>
-      <c r="K12" s="4">
-        <v>46017</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="1"/>
@@ -1400,149 +1355,98 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>15</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+    </row>
+    <row r="15" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+      <c r="B15" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>16</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>17</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-    </row>
-    <row r="18" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="B18" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D19" s="44" t="s">
+      <c r="D16" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="44"/>
-      <c r="F19" s="35">
-        <f>SUM(D2:D17)</f>
-        <v>1100000</v>
-      </c>
-      <c r="G19" s="36"/>
-      <c r="J19" s="36"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D20" s="44" t="s">
+      <c r="E16" s="39"/>
+      <c r="F16" s="35">
+        <f>SUM(D2:D14)</f>
+        <v>1080000</v>
+      </c>
+      <c r="G16" s="36"/>
+      <c r="J16" s="36"/>
+    </row>
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D17" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="35">
-        <f>SUM(E2:E17)</f>
-        <v>199000</v>
-      </c>
+      <c r="E17" s="39"/>
+      <c r="F17" s="35">
+        <f>SUM(E2:E14)</f>
+        <v>179000</v>
+      </c>
+      <c r="G17" s="36"/>
+      <c r="M17" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D18" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="39"/>
+      <c r="F18" s="35">
+        <f>-SUM(F2:F14)</f>
+        <v>-971000</v>
+      </c>
+      <c r="G18" s="36"/>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F20" s="36"/>
       <c r="G20" s="36"/>
-      <c r="M20" s="25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D21" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="44"/>
-      <c r="F21" s="35">
-        <f>-SUM(F2:F17)</f>
-        <v>-953500</v>
-      </c>
+    </row>
+    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F21" s="36"/>
       <c r="G21" s="36"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+    </row>
+    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F26" s="36"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F27" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D15:G15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D18" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
+    <hyperlink ref="D15" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1553,8 +1457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA131776-2E13-4A0E-8D22-F638A9EA7E4B}">
   <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2588,7 +2492,7 @@
         <v>20000</v>
       </c>
       <c r="D82" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -2742,7 +2646,7 @@
         <v>50000</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -2760,22 +2664,46 @@
       </c>
     </row>
     <row r="95" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="21"/>
-      <c r="B95" s="19"/>
-      <c r="C95" s="20"/>
-      <c r="D95" s="22"/>
+      <c r="A95" s="21">
+        <v>46011</v>
+      </c>
+      <c r="B95" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C95" s="20">
+        <v>100000</v>
+      </c>
+      <c r="D95" s="22" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="96" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="21"/>
-      <c r="B96" s="19"/>
-      <c r="C96" s="20"/>
-      <c r="D96" s="22"/>
+      <c r="A96" s="21">
+        <v>46011</v>
+      </c>
+      <c r="B96" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C96" s="20">
+        <v>50000</v>
+      </c>
+      <c r="D96" s="22" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="97" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="21"/>
-      <c r="B97" s="19"/>
-      <c r="C97" s="20"/>
-      <c r="D97" s="22"/>
+      <c r="A97" s="21">
+        <v>46011</v>
+      </c>
+      <c r="B97" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C97" s="20">
+        <v>100000</v>
+      </c>
+      <c r="D97" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="98" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A98" s="21"/>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811E5E82-2AE0-45C3-A3DF-A98C95E32474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A6744B-60FF-449E-9E98-E00861D98A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -18,7 +18,9 @@
     <sheet name="THỐNG KÊ NẠP" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DANH SÁCH NỢ'!$A$1:$L$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'THỐNG KÊ NẠP'!$A$1:$U$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'THONG KE NAP '!$A$1:$D$99</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="54">
   <si>
     <t>STT</t>
   </si>
@@ -193,25 +195,16 @@
     <t>Nạp điện thoại</t>
   </si>
   <si>
-    <t>7 ngày</t>
-  </si>
-  <si>
-    <t>2 ngày</t>
-  </si>
-  <si>
-    <t>1 ngày</t>
-  </si>
-  <si>
     <t>Nạp FC Mobile</t>
   </si>
   <si>
-    <t>6 ngày</t>
-  </si>
-  <si>
     <t>Nạp Robux</t>
   </si>
   <si>
-    <t>5 ngày</t>
+    <t>Đã trả đủ</t>
+  </si>
+  <si>
+    <t>Mua thẻ Garena</t>
   </si>
 </sst>
 </file>
@@ -282,7 +275,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -304,6 +297,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF4F4F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,7 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -480,6 +479,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -824,10 +838,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,18 +852,18 @@
     <col min="4" max="5" width="12.140625" style="25" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="25" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" style="25" customWidth="1"/>
-    <col min="10" max="11" width="12.140625" style="25" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="25" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" style="25" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" style="25" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="25"/>
-    <col min="16" max="16" width="10.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="25"/>
+    <col min="8" max="8" width="17.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="25" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" style="25" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="25"/>
+    <col min="15" max="15" width="10.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -884,13 +898,10 @@
         <v>6</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -927,14 +938,11 @@
         <v>46018</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="6"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -948,12 +956,12 @@
         <v>20000</v>
       </c>
       <c r="E3" s="30">
-        <f>10000</f>
-        <v>10000</v>
+        <f>10000+5000</f>
+        <v>15000</v>
       </c>
       <c r="F3" s="30">
         <f t="shared" ref="F3" si="0">(D3+I3)-E3</f>
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G3" s="30">
         <v>0</v>
@@ -969,13 +977,12 @@
         <v>45985</v>
       </c>
       <c r="K3" s="8"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="6"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1009,144 +1016,130 @@
         <v>45987</v>
       </c>
       <c r="K4" s="8"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="30">
         <v>100000</v>
       </c>
-      <c r="E5" s="32">
-        <f>50000-29000+20000+10000</f>
-        <v>51000</v>
-      </c>
-      <c r="F5" s="32">
+      <c r="E5" s="30">
+        <f>50000-29000+20000+10000+30000</f>
+        <v>81000</v>
+      </c>
+      <c r="F5" s="30">
         <f t="shared" ref="F5" si="2">(D5+I5)-E5</f>
-        <v>49000</v>
-      </c>
-      <c r="G5" s="32">
+        <v>19000</v>
+      </c>
+      <c r="G5" s="30">
         <v>0</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="31">
         <v>0</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="30">
         <f t="shared" ref="I5" si="3">D5*H5</f>
         <v>0</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="8">
         <v>46001</v>
       </c>
-      <c r="K5" s="16">
-        <v>46013</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" s="15" t="s">
+      <c r="K5" s="8"/>
+      <c r="L5" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="43">
         <f>100000+50000</f>
         <v>150000</v>
       </c>
-      <c r="E6" s="32">
-        <f>10000+5000+23000+10000+50000+20000</f>
-        <v>118000</v>
-      </c>
-      <c r="F6" s="32">
+      <c r="E6" s="43">
+        <f>10000+5000+23000+10000+50000+20000+39000</f>
+        <v>157000</v>
+      </c>
+      <c r="F6" s="43">
         <f t="shared" ref="F6" si="4">(D6+I6)-E6</f>
-        <v>32000</v>
-      </c>
-      <c r="G6" s="32">
+        <v>-7000</v>
+      </c>
+      <c r="G6" s="43">
+        <v>7000</v>
+      </c>
+      <c r="H6" s="44">
         <v>0</v>
       </c>
-      <c r="H6" s="33">
-        <v>0</v>
-      </c>
-      <c r="I6" s="32">
+      <c r="I6" s="43">
         <f t="shared" ref="I6" si="5">D6*H6</f>
         <v>0</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="45">
         <v>46001</v>
       </c>
-      <c r="K6" s="16">
-        <v>46013</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K6" s="45">
+        <v>46014</v>
+      </c>
+      <c r="L6" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="30">
         <v>20000</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="30">
         <v>0</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="30">
         <f t="shared" ref="F7" si="6">(D7+I7)-E7</f>
         <v>20000</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="30">
         <v>0</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="31">
         <v>0</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="30">
         <f t="shared" ref="I7" si="7">D7*H7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="8">
         <v>46006</v>
       </c>
-      <c r="K7" s="16">
-        <v>46012</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="M7" s="15" t="s">
+      <c r="K7" s="8"/>
+      <c r="L7" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1183,13 +1176,10 @@
         <v>46016</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1227,31 +1217,28 @@
         <v>46016</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="D10" s="28">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="E10" s="28">
         <v>0</v>
       </c>
       <c r="F10" s="28">
         <f t="shared" ref="F10" si="10">(D10+I10)-E10</f>
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="G10" s="28">
         <v>0</v>
@@ -1264,37 +1251,34 @@
         <v>0</v>
       </c>
       <c r="J10" s="4">
-        <v>46010</v>
+        <v>46011</v>
       </c>
       <c r="K10" s="4">
-        <v>46016</v>
+        <v>46017</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D11" s="28">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="E11" s="28">
         <v>0</v>
       </c>
       <c r="F11" s="28">
         <f t="shared" ref="F11" si="12">(D11+I11)-E11</f>
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="G11" s="28">
         <v>0</v>
@@ -1307,36 +1291,56 @@
         <v>0</v>
       </c>
       <c r="J11" s="4">
-        <v>46011</v>
+        <v>46013</v>
       </c>
       <c r="K11" s="4">
-        <v>46017</v>
+        <v>46019</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="28">
+        <v>50000</v>
+      </c>
+      <c r="E12" s="28">
+        <v>0</v>
+      </c>
+      <c r="F12" s="28">
+        <f t="shared" ref="F12" si="14">(D12+I12)-E12</f>
+        <v>50000</v>
+      </c>
+      <c r="G12" s="28">
+        <v>0</v>
+      </c>
+      <c r="H12" s="29">
+        <v>0</v>
+      </c>
+      <c r="I12" s="28">
+        <f t="shared" ref="I12" si="15">D12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>46014</v>
+      </c>
+      <c r="K12" s="4">
+        <v>46020</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1351,102 +1355,133 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-    </row>
-    <row r="15" spans="1:17" ht="24" x14ac:dyDescent="0.25">
-      <c r="B15" s="34" t="s">
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="24"/>
+    </row>
+    <row r="17" spans="2:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="B17" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="40" t="s">
+      <c r="C17" s="34"/>
+      <c r="D17" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D16" s="39" t="s">
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D18" s="39" t="s">
         <v>28</v>
-      </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="35">
-        <f>SUM(D2:D14)</f>
-        <v>1080000</v>
-      </c>
-      <c r="G16" s="36"/>
-      <c r="J16" s="36"/>
-    </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D17" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="35">
-        <f>SUM(E2:E14)</f>
-        <v>179000</v>
-      </c>
-      <c r="G17" s="36"/>
-      <c r="M17" s="25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D18" s="39" t="s">
-        <v>27</v>
       </c>
       <c r="E18" s="39"/>
       <c r="F18" s="35">
-        <f>-SUM(F2:F14)</f>
-        <v>-971000</v>
+        <f>SUM(D2:D16)</f>
+        <v>1130000</v>
       </c>
       <c r="G18" s="36"/>
-    </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="F20" s="36"/>
+      <c r="J18" s="36"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D19" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="39"/>
+      <c r="F19" s="35">
+        <f>SUM(E2:E16)</f>
+        <v>253000</v>
+      </c>
+      <c r="G19" s="36"/>
+      <c r="L19" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="D20" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="39"/>
+      <c r="F20" s="35">
+        <f>-SUM(F2:F16)</f>
+        <v>-947000</v>
+      </c>
       <c r="G20" s="36"/>
     </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-    </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F22" s="36"/>
       <c r="G22" s="36"/>
     </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F23" s="36"/>
-    </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="G23" s="36"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F25" s="36"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F26" s="36"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L20" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}"/>
   <mergeCells count="4">
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D17:G17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D15" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
+    <hyperlink ref="D17" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1455,10 +1490,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA131776-2E13-4A0E-8D22-F638A9EA7E4B}">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:D129"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2646,7 +2681,7 @@
         <v>50000</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -2674,7 +2709,7 @@
         <v>100000</v>
       </c>
       <c r="D95" s="22" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -2688,7 +2723,7 @@
         <v>50000</v>
       </c>
       <c r="D96" s="22" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -2706,18 +2741,215 @@
       </c>
     </row>
     <row r="98" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="21"/>
-      <c r="B98" s="19"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="22"/>
+      <c r="A98" s="21">
+        <v>46013</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C98" s="20">
+        <v>50000</v>
+      </c>
+      <c r="D98" s="22" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="99" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="21"/>
-      <c r="B99" s="19"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="22"/>
+      <c r="A99" s="21">
+        <v>46014</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C99" s="20">
+        <v>50000</v>
+      </c>
+      <c r="D99" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="21"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="22"/>
+    </row>
+    <row r="101" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="21"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="22"/>
+    </row>
+    <row r="102" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="21"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="22"/>
+    </row>
+    <row r="103" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="21"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="22"/>
+    </row>
+    <row r="104" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="21"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="20"/>
+      <c r="D104" s="22"/>
+    </row>
+    <row r="105" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="21"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="20"/>
+      <c r="D105" s="22"/>
+    </row>
+    <row r="106" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="21"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="20"/>
+      <c r="D106" s="22"/>
+    </row>
+    <row r="107" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="21"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="22"/>
+    </row>
+    <row r="108" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="21"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="22"/>
+    </row>
+    <row r="109" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="21"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="20"/>
+      <c r="D109" s="22"/>
+    </row>
+    <row r="110" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="21"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="22"/>
+    </row>
+    <row r="111" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="21"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="20"/>
+      <c r="D111" s="22"/>
+    </row>
+    <row r="112" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="21"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="20"/>
+      <c r="D112" s="22"/>
+    </row>
+    <row r="113" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="21"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="22"/>
+    </row>
+    <row r="114" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="21"/>
+      <c r="B114" s="19"/>
+      <c r="C114" s="20"/>
+      <c r="D114" s="22"/>
+    </row>
+    <row r="115" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="21"/>
+      <c r="B115" s="19"/>
+      <c r="C115" s="20"/>
+      <c r="D115" s="22"/>
+    </row>
+    <row r="116" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="21"/>
+      <c r="B116" s="19"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="22"/>
+    </row>
+    <row r="117" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="21"/>
+      <c r="B117" s="19"/>
+      <c r="C117" s="20"/>
+      <c r="D117" s="22"/>
+    </row>
+    <row r="118" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="21"/>
+      <c r="B118" s="19"/>
+      <c r="C118" s="20"/>
+      <c r="D118" s="22"/>
+    </row>
+    <row r="119" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A119" s="21"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="22"/>
+    </row>
+    <row r="120" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A120" s="21"/>
+      <c r="B120" s="19"/>
+      <c r="C120" s="20"/>
+      <c r="D120" s="22"/>
+    </row>
+    <row r="121" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="21"/>
+      <c r="B121" s="19"/>
+      <c r="C121" s="20"/>
+      <c r="D121" s="22"/>
+    </row>
+    <row r="122" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="21"/>
+      <c r="B122" s="19"/>
+      <c r="C122" s="20"/>
+      <c r="D122" s="22"/>
+    </row>
+    <row r="123" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="21"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="20"/>
+      <c r="D123" s="22"/>
+    </row>
+    <row r="124" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="21"/>
+      <c r="B124" s="19"/>
+      <c r="C124" s="20"/>
+      <c r="D124" s="22"/>
+    </row>
+    <row r="125" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="21"/>
+      <c r="B125" s="19"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="22"/>
+    </row>
+    <row r="126" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="21"/>
+      <c r="B126" s="19"/>
+      <c r="C126" s="20"/>
+      <c r="D126" s="22"/>
+    </row>
+    <row r="127" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="21"/>
+      <c r="B127" s="19"/>
+      <c r="C127" s="20"/>
+      <c r="D127" s="22"/>
+    </row>
+    <row r="128" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="21"/>
+      <c r="B128" s="19"/>
+      <c r="C128" s="20"/>
+      <c r="D128" s="22"/>
+    </row>
+    <row r="129" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="21"/>
+      <c r="B129" s="19"/>
+      <c r="C129" s="20"/>
+      <c r="D129" s="22"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D99" xr:uid="{CA131776-2E13-4A0E-8D22-F638A9EA7E4B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A6744B-60FF-449E-9E98-E00861D98A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B08213C-434D-465C-829B-6A0ECEF5A890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="THỐNG KÊ NẠP" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DANH SÁCH NỢ'!$A$1:$L$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DANH SÁCH NỢ'!$A$1:$M$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'THỐNG KÊ NẠP'!$A$1:$U$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'THONG KE NAP '!$A$1:$D$99</definedName>
   </definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="54">
   <si>
     <t>STT</t>
   </si>
@@ -474,12 +474,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -494,6 +488,12 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -838,10 +838,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,14 +856,15 @@
     <col min="9" max="9" width="20.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="25" customWidth="1"/>
-    <col min="13" max="13" width="9.5703125" style="25" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="25"/>
-    <col min="15" max="15" width="10.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="25"/>
+    <col min="12" max="12" width="13.28515625" style="25" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="25" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" style="25" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="25"/>
+    <col min="16" max="16" width="10.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -898,10 +899,13 @@
         <v>6</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -937,12 +941,13 @@
       <c r="K2" s="16">
         <v>46018</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="16"/>
+      <c r="M2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -977,12 +982,13 @@
         <v>45985</v>
       </c>
       <c r="K3" s="8"/>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="8"/>
+      <c r="M3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="6"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="6"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1016,11 +1022,12 @@
         <v>45987</v>
       </c>
       <c r="K4" s="8"/>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="8"/>
+      <c r="M4" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1055,53 +1062,55 @@
         <v>46001</v>
       </c>
       <c r="K5" s="8"/>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="8"/>
+      <c r="M5" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="41">
         <f>100000+50000</f>
         <v>150000</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="41">
         <f>10000+5000+23000+10000+50000+20000+39000</f>
         <v>157000</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="41">
         <f t="shared" ref="F6" si="4">(D6+I6)-E6</f>
         <v>-7000</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="41">
         <v>7000</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="42">
         <v>0</v>
       </c>
-      <c r="I6" s="43">
+      <c r="I6" s="41">
         <f t="shared" ref="I6" si="5">D6*H6</f>
         <v>0</v>
       </c>
-      <c r="J6" s="45">
+      <c r="J6" s="43">
         <v>46001</v>
       </c>
-      <c r="K6" s="45">
+      <c r="K6" s="43">
         <v>46014</v>
       </c>
-      <c r="L6" s="42" t="s">
+      <c r="L6" s="43"/>
+      <c r="M6" s="40" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1135,11 +1144,12 @@
         <v>46006</v>
       </c>
       <c r="K7" s="8"/>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="8"/>
+      <c r="M7" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1175,11 +1185,12 @@
       <c r="K8" s="4">
         <v>46016</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="4"/>
+      <c r="M8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1216,11 +1227,12 @@
       <c r="K9" s="4">
         <v>46016</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="4"/>
+      <c r="M9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1256,11 +1268,12 @@
       <c r="K10" s="4">
         <v>46017</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="4"/>
+      <c r="M10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1296,11 +1309,12 @@
       <c r="K11" s="4">
         <v>46019</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="4"/>
+      <c r="M11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1336,11 +1350,12 @@
       <c r="K12" s="4">
         <v>46020</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="4"/>
+      <c r="M12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1354,9 +1369,10 @@
       <c r="I13" s="28"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L13" s="4"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1370,9 +1386,10 @@
       <c r="I14" s="28"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L14" s="4"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1386,9 +1403,10 @@
       <c r="I15" s="28"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L15" s="4"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1402,25 +1420,26 @@
       <c r="I16" s="37"/>
       <c r="J16" s="24"/>
       <c r="K16" s="38"/>
-      <c r="L16" s="24"/>
-    </row>
-    <row r="17" spans="2:12" ht="24" x14ac:dyDescent="0.25">
+      <c r="L16" s="38"/>
+      <c r="M16" s="24"/>
+    </row>
+    <row r="17" spans="2:13" ht="24" x14ac:dyDescent="0.25">
       <c r="B17" s="34" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="34"/>
-      <c r="D17" s="40" t="s">
+      <c r="D17" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D18" s="39" t="s">
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D18" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="39"/>
+      <c r="E18" s="44"/>
       <c r="F18" s="35">
         <f>SUM(D2:D16)</f>
         <v>1130000</v>
@@ -1428,51 +1447,51 @@
       <c r="G18" s="36"/>
       <c r="J18" s="36"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D19" s="39" t="s">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D19" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="39"/>
+      <c r="E19" s="44"/>
       <c r="F19" s="35">
         <f>SUM(E2:E16)</f>
         <v>253000</v>
       </c>
       <c r="G19" s="36"/>
-      <c r="L19" s="25" t="s">
+      <c r="M19" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D20" s="39" t="s">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D20" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="39"/>
+      <c r="E20" s="44"/>
       <c r="F20" s="35">
         <f>-SUM(F2:F16)</f>
         <v>-947000</v>
       </c>
       <c r="G20" s="36"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F22" s="36"/>
       <c r="G22" s="36"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F24" s="36"/>
       <c r="G24" s="36"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F25" s="36"/>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F26" s="36"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L20" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}"/>
+  <autoFilter ref="A1:M20" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}"/>
   <mergeCells count="4">
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B08213C-434D-465C-829B-6A0ECEF5A890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CA84C8-741A-4E23-9B04-F94B96CEF80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="THỐNG KÊ NẠP" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DANH SÁCH NỢ'!$A$1:$M$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DANH SÁCH NỢ'!$A$1:$M$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'THỐNG KÊ NẠP'!$A$1:$U$41</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'THONG KE NAP '!$A$1:$D$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'THONG KE NAP '!$A$1:$D$102</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="56">
   <si>
     <t>STT</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>Mua thẻ Garena</t>
+  </si>
+  <si>
+    <t>Huỳnh Gua Phú</t>
+  </si>
+  <si>
+    <t>Mua quân huy</t>
   </si>
 </sst>
 </file>
@@ -838,10 +844,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,219 +1075,217 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="41">
-        <f>100000+50000</f>
-        <v>150000</v>
-      </c>
-      <c r="E6" s="41">
-        <f>10000+5000+23000+10000+50000+20000+39000</f>
-        <v>157000</v>
-      </c>
-      <c r="F6" s="41">
+      <c r="D6" s="30">
+        <v>20000</v>
+      </c>
+      <c r="E6" s="30">
+        <v>0</v>
+      </c>
+      <c r="F6" s="30">
         <f t="shared" ref="F6" si="4">(D6+I6)-E6</f>
-        <v>-7000</v>
-      </c>
-      <c r="G6" s="41">
-        <v>7000</v>
-      </c>
-      <c r="H6" s="42">
+        <v>20000</v>
+      </c>
+      <c r="G6" s="30">
         <v>0</v>
       </c>
-      <c r="I6" s="41">
+      <c r="H6" s="31">
+        <v>0</v>
+      </c>
+      <c r="I6" s="30">
         <f t="shared" ref="I6" si="5">D6*H6</f>
         <v>0</v>
       </c>
-      <c r="J6" s="43">
-        <v>46001</v>
-      </c>
-      <c r="K6" s="43">
-        <v>46014</v>
-      </c>
-      <c r="L6" s="43"/>
-      <c r="M6" s="40" t="s">
-        <v>52</v>
+      <c r="J6" s="8">
+        <v>46006</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="30">
-        <v>20000</v>
-      </c>
-      <c r="E7" s="30">
+        <v>7</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="41">
+        <v>100000</v>
+      </c>
+      <c r="E7" s="41">
+        <v>100000</v>
+      </c>
+      <c r="F7" s="41">
+        <f t="shared" ref="F7:F8" si="6">(D7+I7)-E7</f>
         <v>0</v>
       </c>
-      <c r="F7" s="30">
-        <f t="shared" ref="F7" si="6">(D7+I7)-E7</f>
-        <v>20000</v>
-      </c>
-      <c r="G7" s="30">
+      <c r="G7" s="41">
         <v>0</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="42">
         <v>0</v>
       </c>
-      <c r="I7" s="30">
-        <f t="shared" ref="I7" si="7">D7*H7</f>
+      <c r="I7" s="41">
+        <f t="shared" ref="I7:I8" si="7">D7*H7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="8">
-        <v>46006</v>
-      </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="7" t="s">
-        <v>14</v>
+      <c r="J7" s="43">
+        <v>46010</v>
+      </c>
+      <c r="K7" s="43">
+        <v>46015</v>
+      </c>
+      <c r="L7" s="43"/>
+      <c r="M7" s="40" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="28">
-        <v>100000</v>
-      </c>
-      <c r="E8" s="28">
+      <c r="D8" s="41">
+        <f>50000+110000</f>
+        <v>160000</v>
+      </c>
+      <c r="E8" s="41">
+        <v>160000</v>
+      </c>
+      <c r="F8" s="41">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F8" s="28">
-        <f t="shared" ref="F8:F9" si="8">(D8+I8)-E8</f>
-        <v>100000</v>
-      </c>
-      <c r="G8" s="28">
+      <c r="G8" s="41">
         <v>0</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="42">
         <v>0</v>
       </c>
-      <c r="I8" s="28">
-        <f t="shared" ref="I8:I9" si="9">D8*H8</f>
+      <c r="I8" s="41">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="43">
         <v>46010</v>
       </c>
-      <c r="K8" s="4">
-        <v>46016</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="1" t="s">
-        <v>14</v>
+      <c r="K8" s="43">
+        <v>46015</v>
+      </c>
+      <c r="L8" s="43"/>
+      <c r="M8" s="40" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="28">
-        <f>50000+110000</f>
-        <v>160000</v>
-      </c>
-      <c r="E9" s="28">
+      <c r="D9" s="41">
+        <v>100000</v>
+      </c>
+      <c r="E9" s="41">
+        <v>100000</v>
+      </c>
+      <c r="F9" s="41">
+        <f t="shared" ref="F9" si="8">(D9+I9)-E9</f>
         <v>0</v>
       </c>
-      <c r="F9" s="28">
-        <f t="shared" si="8"/>
-        <v>160000</v>
-      </c>
-      <c r="G9" s="28">
+      <c r="G9" s="41">
         <v>0</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="42">
         <v>0</v>
       </c>
-      <c r="I9" s="28">
-        <f t="shared" si="9"/>
+      <c r="I9" s="41">
+        <f t="shared" ref="I9" si="9">D9*H9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="4">
-        <v>46010</v>
-      </c>
-      <c r="K9" s="4">
-        <v>46016</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="1" t="s">
-        <v>14</v>
+      <c r="J9" s="43">
+        <v>46011</v>
+      </c>
+      <c r="K9" s="43">
+        <v>46015</v>
+      </c>
+      <c r="L9" s="43"/>
+      <c r="M9" s="40" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="28">
-        <v>100000</v>
-      </c>
-      <c r="E10" s="28">
+        <v>10</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="41">
+        <v>50000</v>
+      </c>
+      <c r="E10" s="41">
+        <v>50000</v>
+      </c>
+      <c r="F10" s="41">
+        <f t="shared" ref="F10" si="10">(D10+I10)-E10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="28">
-        <f t="shared" ref="F10" si="10">(D10+I10)-E10</f>
-        <v>100000</v>
-      </c>
-      <c r="G10" s="28">
+      <c r="G10" s="41">
         <v>0</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="42">
         <v>0</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="41">
         <f t="shared" ref="I10" si="11">D10*H10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="4">
-        <v>46011</v>
-      </c>
-      <c r="K10" s="4">
-        <v>46017</v>
-      </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="1" t="s">
-        <v>14</v>
+      <c r="J10" s="43">
+        <v>46013</v>
+      </c>
+      <c r="K10" s="43">
+        <v>46015</v>
+      </c>
+      <c r="L10" s="43"/>
+      <c r="M10" s="40" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D11" s="28">
         <v>50000</v>
@@ -1304,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="4">
-        <v>46013</v>
+        <v>46014</v>
       </c>
       <c r="K11" s="4">
-        <v>46019</v>
+        <v>46020</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="1" t="s">
@@ -1316,48 +1320,48 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="28">
-        <v>50000</v>
-      </c>
-      <c r="E12" s="28">
+        <v>12</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="41">
+        <v>25000</v>
+      </c>
+      <c r="E12" s="41">
+        <v>25000</v>
+      </c>
+      <c r="F12" s="41">
+        <f t="shared" ref="F12" si="14">(D12+I12)-E12</f>
         <v>0</v>
       </c>
-      <c r="F12" s="28">
-        <f t="shared" ref="F12" si="14">(D12+I12)-E12</f>
-        <v>50000</v>
-      </c>
-      <c r="G12" s="28">
+      <c r="G12" s="41">
         <v>0</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="42">
         <v>0</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="41">
         <f t="shared" ref="I12" si="15">D12*H12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="4">
-        <v>46014</v>
-      </c>
-      <c r="K12" s="4">
-        <v>46020</v>
-      </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="1" t="s">
-        <v>14</v>
+      <c r="J12" s="43">
+        <v>46010</v>
+      </c>
+      <c r="K12" s="43">
+        <v>46015</v>
+      </c>
+      <c r="L12" s="43"/>
+      <c r="M12" s="40" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="1"/>
@@ -1374,7 +1378,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="1"/>
@@ -1391,116 +1395,99 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="24"/>
-    </row>
-    <row r="17" spans="2:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="B17" s="34" t="s">
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="24"/>
+    </row>
+    <row r="16" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+      <c r="B16" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="45" t="s">
+      <c r="C16" s="34"/>
+      <c r="D16" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+    </row>
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D17" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="44"/>
+      <c r="F17" s="35">
+        <f>SUM(D2:D15)</f>
+        <v>1005000</v>
+      </c>
+      <c r="G17" s="36"/>
+      <c r="J17" s="36"/>
+    </row>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D18" s="44" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E18" s="44"/>
       <c r="F18" s="35">
-        <f>SUM(D2:D16)</f>
-        <v>1130000</v>
+        <f>SUM(E2:E15)</f>
+        <v>531000</v>
       </c>
       <c r="G18" s="36"/>
-      <c r="J18" s="36"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="M18" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D19" s="44" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E19" s="44"/>
       <c r="F19" s="35">
-        <f>SUM(E2:E16)</f>
-        <v>253000</v>
+        <f>-SUM(F2:F15)</f>
+        <v>-544000</v>
       </c>
       <c r="G19" s="36"/>
-      <c r="M19" s="25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D20" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="35">
-        <f>-SUM(F2:F16)</f>
-        <v>-947000</v>
-      </c>
-      <c r="G20" s="36"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+    </row>
+    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F22" s="36"/>
       <c r="G22" s="36"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F23" s="36"/>
       <c r="G23" s="36"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F25" s="36"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F26" s="36"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:M20" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}"/>
+  <autoFilter ref="A1:M19" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}"/>
   <mergeCells count="4">
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D16:G16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D17" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
+    <hyperlink ref="D16" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1509,10 +1496,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA131776-2E13-4A0E-8D22-F638A9EA7E4B}">
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2694,27 +2681,27 @@
         <v>46010</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C93" s="20">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="D93" s="22" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A94" s="21">
-        <v>46011</v>
+        <v>46010</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C94" s="20">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="D94" s="22" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -2722,13 +2709,13 @@
         <v>46011</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C95" s="20">
         <v>100000</v>
       </c>
       <c r="D95" s="22" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -2739,7 +2726,7 @@
         <v>26</v>
       </c>
       <c r="C96" s="20">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="D96" s="22" t="s">
         <v>51</v>
@@ -2753,57 +2740,81 @@
         <v>26</v>
       </c>
       <c r="C97" s="20">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="D97" s="22" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A98" s="21">
-        <v>46013</v>
+        <v>46011</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="C98" s="20">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="D98" s="22" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A99" s="21">
-        <v>46014</v>
+        <v>46013</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="C99" s="20">
         <v>50000</v>
       </c>
       <c r="D99" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="21">
+        <v>46014</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C100" s="20">
+        <v>50000</v>
+      </c>
+      <c r="D100" s="22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="21"/>
-      <c r="B100" s="19"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="22"/>
-    </row>
     <row r="101" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="21"/>
-      <c r="B101" s="19"/>
-      <c r="C101" s="20"/>
-      <c r="D101" s="22"/>
+      <c r="A101" s="21">
+        <v>46015</v>
+      </c>
+      <c r="B101" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C101" s="20">
+        <v>10000</v>
+      </c>
+      <c r="D101" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="102" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="21"/>
-      <c r="B102" s="19"/>
-      <c r="C102" s="20"/>
-      <c r="D102" s="22"/>
+      <c r="A102" s="21">
+        <v>46015</v>
+      </c>
+      <c r="B102" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C102" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D102" s="22" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="103" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A103" s="21"/>
@@ -2967,8 +2978,14 @@
       <c r="C129" s="20"/>
       <c r="D129" s="22"/>
     </row>
+    <row r="130" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A130" s="21"/>
+      <c r="B130" s="19"/>
+      <c r="C130" s="20"/>
+      <c r="D130" s="22"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D99" xr:uid="{CA131776-2E13-4A0E-8D22-F638A9EA7E4B}"/>
+  <autoFilter ref="A1:D102" xr:uid="{CA131776-2E13-4A0E-8D22-F638A9EA7E4B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CA84C8-741A-4E23-9B04-F94B96CEF80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D76F91-7F2F-48DA-9BFD-A16BD2E3E578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="55">
   <si>
     <t>STT</t>
   </si>
@@ -201,16 +201,13 @@
     <t>Nạp Robux</t>
   </si>
   <si>
-    <t>Đã trả đủ</t>
-  </si>
-  <si>
     <t>Mua thẻ Garena</t>
   </si>
   <si>
     <t>Huỳnh Gua Phú</t>
   </si>
   <si>
-    <t>Mua quân huy</t>
+    <t>Mua thẻ Mobi</t>
   </si>
 </sst>
 </file>
@@ -281,7 +278,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,12 +300,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF4F4F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,7 +365,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -479,21 +470,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -847,7 +823,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,7 +1051,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>8</v>
@@ -1114,254 +1090,181 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>7</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="41">
-        <v>100000</v>
-      </c>
-      <c r="E7" s="41">
-        <v>100000</v>
-      </c>
-      <c r="F7" s="41">
-        <f t="shared" ref="F7:F8" si="6">(D7+I7)-E7</f>
+        <v>6</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="28">
+        <v>20000</v>
+      </c>
+      <c r="E7" s="28">
         <v>0</v>
       </c>
-      <c r="G7" s="41">
+      <c r="F7" s="28">
+        <f t="shared" ref="F7" si="6">(D7+I7)-E7</f>
+        <v>20000</v>
+      </c>
+      <c r="G7" s="28">
         <v>0</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="29">
         <v>0</v>
       </c>
-      <c r="I7" s="41">
-        <f t="shared" ref="I7:I8" si="7">D7*H7</f>
+      <c r="I7" s="28">
+        <f t="shared" ref="I7" si="7">D7*H7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="43">
-        <v>46010</v>
-      </c>
-      <c r="K7" s="43">
+      <c r="J7" s="4">
         <v>46015</v>
       </c>
-      <c r="L7" s="43"/>
-      <c r="M7" s="40" t="s">
-        <v>52</v>
+      <c r="K7" s="4">
+        <v>46021</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>8</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="41">
-        <f>50000+110000</f>
-        <v>160000</v>
-      </c>
-      <c r="E8" s="41">
-        <v>160000</v>
-      </c>
-      <c r="F8" s="41">
-        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="28">
+        <v>100000</v>
+      </c>
+      <c r="E8" s="28">
         <v>0</v>
       </c>
-      <c r="G8" s="41">
+      <c r="F8" s="28">
+        <f t="shared" ref="F8" si="8">(D8+I8)-E8</f>
+        <v>100000</v>
+      </c>
+      <c r="G8" s="28">
         <v>0</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="29">
         <v>0</v>
       </c>
-      <c r="I8" s="41">
-        <f t="shared" si="7"/>
+      <c r="I8" s="28">
+        <f t="shared" ref="I8" si="9">D8*H8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="43">
-        <v>46010</v>
-      </c>
-      <c r="K8" s="43">
-        <v>46015</v>
-      </c>
-      <c r="L8" s="43"/>
-      <c r="M8" s="40" t="s">
-        <v>52</v>
+      <c r="J8" s="4">
+        <v>46016</v>
+      </c>
+      <c r="K8" s="4">
+        <v>46022</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>9</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="41">
-        <v>100000</v>
-      </c>
-      <c r="E9" s="41">
-        <v>100000</v>
-      </c>
-      <c r="F9" s="41">
-        <f t="shared" ref="F9" si="8">(D9+I9)-E9</f>
+        <v>8</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="28">
+        <v>20000</v>
+      </c>
+      <c r="E9" s="28">
         <v>0</v>
       </c>
-      <c r="G9" s="41">
+      <c r="F9" s="28">
+        <f t="shared" ref="F9" si="10">(D9+I9)-E9</f>
+        <v>20000</v>
+      </c>
+      <c r="G9" s="28">
         <v>0</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="29">
         <v>0</v>
       </c>
-      <c r="I9" s="41">
-        <f t="shared" ref="I9" si="9">D9*H9</f>
+      <c r="I9" s="28">
+        <f t="shared" ref="I9" si="11">D9*H9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="43">
-        <v>46011</v>
-      </c>
-      <c r="K9" s="43">
-        <v>46015</v>
-      </c>
-      <c r="L9" s="43"/>
-      <c r="M9" s="40" t="s">
-        <v>52</v>
+      <c r="J9" s="4">
+        <v>46016</v>
+      </c>
+      <c r="K9" s="4">
+        <v>46022</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>10</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="41">
-        <v>50000</v>
-      </c>
-      <c r="E10" s="41">
-        <v>50000</v>
-      </c>
-      <c r="F10" s="41">
-        <f t="shared" ref="F10" si="10">(D10+I10)-E10</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="41">
-        <v>0</v>
-      </c>
-      <c r="H10" s="42">
-        <v>0</v>
-      </c>
-      <c r="I10" s="41">
-        <f t="shared" ref="I10" si="11">D10*H10</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="43">
-        <v>46013</v>
-      </c>
-      <c r="K10" s="43">
-        <v>46015</v>
-      </c>
-      <c r="L10" s="43"/>
-      <c r="M10" s="40" t="s">
-        <v>52</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>11</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="28">
-        <v>50000</v>
-      </c>
-      <c r="E11" s="28">
-        <v>0</v>
-      </c>
-      <c r="F11" s="28">
-        <f t="shared" ref="F11" si="12">(D11+I11)-E11</f>
-        <v>50000</v>
-      </c>
-      <c r="G11" s="28">
-        <v>0</v>
-      </c>
-      <c r="H11" s="29">
-        <v>0</v>
-      </c>
-      <c r="I11" s="28">
-        <f t="shared" ref="I11" si="13">D11*H11</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <v>46014</v>
-      </c>
-      <c r="K11" s="4">
-        <v>46020</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>12</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="41">
-        <v>25000</v>
-      </c>
-      <c r="E12" s="41">
-        <v>25000</v>
-      </c>
-      <c r="F12" s="41">
-        <f t="shared" ref="F12" si="14">(D12+I12)-E12</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="41">
-        <v>0</v>
-      </c>
-      <c r="H12" s="42">
-        <v>0</v>
-      </c>
-      <c r="I12" s="41">
-        <f t="shared" ref="I12" si="15">D12*H12</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="43">
-        <v>46010</v>
-      </c>
-      <c r="K12" s="43">
-        <v>46015</v>
-      </c>
-      <c r="L12" s="43"/>
-      <c r="M12" s="40" t="s">
-        <v>52</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="1"/>
@@ -1378,7 +1281,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="1"/>
@@ -1395,7 +1298,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="1"/>
@@ -1415,33 +1318,33 @@
         <v>33</v>
       </c>
       <c r="C16" s="34"/>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
     </row>
     <row r="17" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="44"/>
+      <c r="E17" s="39"/>
       <c r="F17" s="35">
         <f>SUM(D2:D15)</f>
-        <v>1005000</v>
+        <v>660000</v>
       </c>
       <c r="G17" s="36"/>
       <c r="J17" s="36"/>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="44"/>
+      <c r="E18" s="39"/>
       <c r="F18" s="35">
         <f>SUM(E2:E15)</f>
-        <v>531000</v>
+        <v>96000</v>
       </c>
       <c r="G18" s="36"/>
       <c r="M18" s="25" t="s">
@@ -1449,13 +1352,13 @@
       </c>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="44"/>
+      <c r="E19" s="39"/>
       <c r="F19" s="35">
         <f>-SUM(F2:F15)</f>
-        <v>-544000</v>
+        <v>-634000</v>
       </c>
       <c r="G19" s="36"/>
     </row>
@@ -1498,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA131776-2E13-4A0E-8D22-F638A9EA7E4B}">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2681,7 +2584,7 @@
         <v>46010</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C93" s="20">
         <v>25000</v>
@@ -2771,7 +2674,7 @@
         <v>50000</v>
       </c>
       <c r="D99" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -2817,22 +2720,46 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="21"/>
-      <c r="B103" s="19"/>
-      <c r="C103" s="20"/>
-      <c r="D103" s="22"/>
+      <c r="A103" s="21">
+        <v>46015</v>
+      </c>
+      <c r="B103" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C103" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D103" s="22" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="104" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="21"/>
-      <c r="B104" s="19"/>
-      <c r="C104" s="20"/>
-      <c r="D104" s="22"/>
+      <c r="A104" s="21">
+        <v>46016</v>
+      </c>
+      <c r="B104" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C104" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D104" s="22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="105" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="21"/>
-      <c r="B105" s="19"/>
-      <c r="C105" s="20"/>
-      <c r="D105" s="22"/>
+      <c r="A105" s="21">
+        <v>46016</v>
+      </c>
+      <c r="B105" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C105" s="20">
+        <v>100000</v>
+      </c>
+      <c r="D105" s="22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="106" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A106" s="21"/>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D76F91-7F2F-48DA-9BFD-A16BD2E3E578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943E8BA9-FE77-486D-9DD4-0A305C31B11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="57">
   <si>
     <t>STT</t>
   </si>
@@ -208,6 +208,12 @@
   </si>
   <si>
     <t>Mua thẻ Mobi</t>
+  </si>
+  <si>
+    <t>Đã trả đủ</t>
+  </si>
+  <si>
+    <t>Bùi Bích Ngọc</t>
   </si>
 </sst>
 </file>
@@ -278,7 +284,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,6 +306,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF4F4F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,7 +377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -470,6 +482,21 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -823,7 +850,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1092,41 +1119,41 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="28">
-        <v>20000</v>
-      </c>
-      <c r="E7" s="28">
+      <c r="D7" s="41">
+        <v>20000</v>
+      </c>
+      <c r="E7" s="41">
+        <v>20000</v>
+      </c>
+      <c r="F7" s="41">
+        <f t="shared" ref="F7" si="6">(D7+I7)-E7</f>
         <v>0</v>
       </c>
-      <c r="F7" s="28">
-        <f t="shared" ref="F7" si="6">(D7+I7)-E7</f>
-        <v>20000</v>
-      </c>
-      <c r="G7" s="28">
+      <c r="G7" s="41">
         <v>0</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="42">
         <v>0</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="41">
         <f t="shared" ref="I7" si="7">D7*H7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="43">
         <v>46015</v>
       </c>
-      <c r="K7" s="4">
-        <v>46021</v>
-      </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="1" t="s">
-        <v>14</v>
+      <c r="K7" s="43">
+        <v>46016</v>
+      </c>
+      <c r="L7" s="43"/>
+      <c r="M7" s="40" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1215,52 +1242,124 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="B10" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="28">
+        <v>50000</v>
+      </c>
+      <c r="E10" s="28">
+        <v>0</v>
+      </c>
+      <c r="F10" s="28">
+        <f t="shared" ref="F10" si="12">(D10+I10)-E10</f>
+        <v>50000</v>
+      </c>
+      <c r="G10" s="28">
+        <v>0</v>
+      </c>
+      <c r="H10" s="29">
+        <v>0</v>
+      </c>
+      <c r="I10" s="28">
+        <f t="shared" ref="I10" si="13">D10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>46016</v>
+      </c>
+      <c r="K10" s="4">
+        <v>46022</v>
+      </c>
       <c r="L10" s="4"/>
-      <c r="M10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="B11" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="28">
+        <v>20000</v>
+      </c>
+      <c r="E11" s="28">
+        <v>0</v>
+      </c>
+      <c r="F11" s="28">
+        <f t="shared" ref="F11" si="14">(D11+I11)-E11</f>
+        <v>20000</v>
+      </c>
+      <c r="G11" s="28">
+        <v>0</v>
+      </c>
+      <c r="H11" s="29">
+        <v>0</v>
+      </c>
+      <c r="I11" s="28">
+        <f t="shared" ref="I11" si="15">D11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>46017</v>
+      </c>
+      <c r="K11" s="4">
+        <v>46023</v>
+      </c>
       <c r="L11" s="4"/>
-      <c r="M11" s="1"/>
+      <c r="M11" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="B12" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="28">
+        <v>20000</v>
+      </c>
+      <c r="E12" s="28">
+        <v>0</v>
+      </c>
+      <c r="F12" s="28">
+        <f t="shared" ref="F12" si="16">(D12+I12)-E12</f>
+        <v>20000</v>
+      </c>
+      <c r="G12" s="28">
+        <v>0</v>
+      </c>
+      <c r="H12" s="29">
+        <v>0</v>
+      </c>
+      <c r="I12" s="28">
+        <f t="shared" ref="I12" si="17">D12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>46017</v>
+      </c>
+      <c r="K12" s="4">
+        <v>46023</v>
+      </c>
       <c r="L12" s="4"/>
-      <c r="M12" s="1"/>
+      <c r="M12" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1318,33 +1417,33 @@
         <v>33</v>
       </c>
       <c r="C16" s="34"/>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
     </row>
     <row r="17" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="39"/>
+      <c r="E17" s="44"/>
       <c r="F17" s="35">
         <f>SUM(D2:D15)</f>
-        <v>660000</v>
+        <v>750000</v>
       </c>
       <c r="G17" s="36"/>
       <c r="J17" s="36"/>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="39"/>
+      <c r="E18" s="44"/>
       <c r="F18" s="35">
         <f>SUM(E2:E15)</f>
-        <v>96000</v>
+        <v>116000</v>
       </c>
       <c r="G18" s="36"/>
       <c r="M18" s="25" t="s">
@@ -1352,13 +1451,13 @@
       </c>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="39"/>
+      <c r="E19" s="44"/>
       <c r="F19" s="35">
         <f>-SUM(F2:F15)</f>
-        <v>-634000</v>
+        <v>-704000</v>
       </c>
       <c r="G19" s="36"/>
     </row>
@@ -1402,7 +1501,7 @@
   <dimension ref="A1:D130"/>
   <sheetViews>
     <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2762,28 +2861,60 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="21"/>
-      <c r="B106" s="19"/>
-      <c r="C106" s="20"/>
-      <c r="D106" s="22"/>
+      <c r="A106" s="21">
+        <v>46016</v>
+      </c>
+      <c r="B106" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D106" s="22" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="107" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="21"/>
-      <c r="B107" s="19"/>
-      <c r="C107" s="20"/>
-      <c r="D107" s="22"/>
+      <c r="A107" s="21">
+        <v>46016</v>
+      </c>
+      <c r="B107" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C107" s="20">
+        <v>50000</v>
+      </c>
+      <c r="D107" s="22" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="108" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A108" s="21"/>
-      <c r="B108" s="19"/>
-      <c r="C108" s="20"/>
-      <c r="D108" s="22"/>
+      <c r="A108" s="21">
+        <v>46017</v>
+      </c>
+      <c r="B108" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D108" s="22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="109" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="21"/>
-      <c r="B109" s="19"/>
-      <c r="C109" s="20"/>
-      <c r="D109" s="22"/>
+      <c r="A109" s="21">
+        <v>46017</v>
+      </c>
+      <c r="B109" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C109" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D109" s="22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="110" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A110" s="21"/>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943E8BA9-FE77-486D-9DD4-0A305C31B11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A105F3B0-C85D-41FE-AD00-509293FF556A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="THỐNG KÊ NẠP" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DANH SÁCH NỢ'!$A$1:$M$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DANH SÁCH NỢ'!$A$1:$M$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'THỐNG KÊ NẠP'!$A$1:$U$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'THONG KE NAP '!$A$1:$D$102</definedName>
   </definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="56">
   <si>
     <t>STT</t>
   </si>
@@ -208,9 +208,6 @@
   </si>
   <si>
     <t>Mua thẻ Mobi</t>
-  </si>
-  <si>
-    <t>Đã trả đủ</t>
   </si>
   <si>
     <t>Bùi Bích Ngọc</t>
@@ -284,7 +281,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,12 +303,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF4F4F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,7 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -482,21 +473,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -847,10 +823,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,41 +1095,41 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="41">
-        <v>20000</v>
-      </c>
-      <c r="E7" s="41">
-        <v>20000</v>
-      </c>
-      <c r="F7" s="41">
+      <c r="B7" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="28">
+        <v>100000</v>
+      </c>
+      <c r="E7" s="28">
+        <v>0</v>
+      </c>
+      <c r="F7" s="28">
         <f t="shared" ref="F7" si="6">(D7+I7)-E7</f>
+        <v>100000</v>
+      </c>
+      <c r="G7" s="28">
         <v>0</v>
       </c>
-      <c r="G7" s="41">
+      <c r="H7" s="29">
         <v>0</v>
       </c>
-      <c r="H7" s="42">
-        <v>0</v>
-      </c>
-      <c r="I7" s="41">
+      <c r="I7" s="28">
         <f t="shared" ref="I7" si="7">D7*H7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="43">
-        <v>46015</v>
-      </c>
-      <c r="K7" s="43">
+      <c r="J7" s="4">
         <v>46016</v>
       </c>
-      <c r="L7" s="43"/>
-      <c r="M7" s="40" t="s">
-        <v>55</v>
+      <c r="K7" s="4">
+        <v>46022</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1161,20 +1137,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="28">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="E8" s="28">
         <v>0</v>
       </c>
       <c r="F8" s="28">
         <f t="shared" ref="F8" si="8">(D8+I8)-E8</f>
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="G8" s="28">
         <v>0</v>
@@ -1202,20 +1178,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="D9" s="28">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="E9" s="28">
         <v>0</v>
       </c>
       <c r="F9" s="28">
         <f t="shared" ref="F9" si="10">(D9+I9)-E9</f>
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="G9" s="28">
         <v>0</v>
@@ -1243,20 +1219,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="D10" s="28">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="E10" s="28">
         <v>0</v>
       </c>
       <c r="F10" s="28">
         <f t="shared" ref="F10" si="12">(D10+I10)-E10</f>
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="G10" s="28">
         <v>0</v>
@@ -1269,10 +1245,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="4">
-        <v>46016</v>
+        <v>46017</v>
       </c>
       <c r="K10" s="4">
-        <v>46022</v>
+        <v>46023</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="1" t="s">
@@ -1284,7 +1260,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
@@ -1324,42 +1300,18 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="28">
-        <v>20000</v>
-      </c>
-      <c r="E12" s="28">
-        <v>0</v>
-      </c>
-      <c r="F12" s="28">
-        <f t="shared" ref="F12" si="16">(D12+I12)-E12</f>
-        <v>20000</v>
-      </c>
-      <c r="G12" s="28">
-        <v>0</v>
-      </c>
-      <c r="H12" s="29">
-        <v>0</v>
-      </c>
-      <c r="I12" s="28">
-        <f t="shared" ref="I12" si="17">D12*H12</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <v>46017</v>
-      </c>
-      <c r="K12" s="4">
-        <v>46023</v>
-      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1384,82 +1336,69 @@
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="24"/>
-    </row>
-    <row r="16" spans="1:17" ht="24" x14ac:dyDescent="0.25">
-      <c r="B16" s="34" t="s">
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="24"/>
+    </row>
+    <row r="15" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+      <c r="B15" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="34"/>
-      <c r="D16" s="45" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D16" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="39"/>
+      <c r="F16" s="35">
+        <f>SUM(D2:D14)</f>
+        <v>730000</v>
+      </c>
+      <c r="G16" s="36"/>
+      <c r="J16" s="36"/>
     </row>
     <row r="17" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D17" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="44"/>
+      <c r="D17" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="39"/>
       <c r="F17" s="35">
-        <f>SUM(D2:D15)</f>
-        <v>750000</v>
+        <f>SUM(E2:E14)</f>
+        <v>96000</v>
       </c>
       <c r="G17" s="36"/>
-      <c r="J17" s="36"/>
+      <c r="M17" s="25" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D18" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="44"/>
+      <c r="D18" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="39"/>
       <c r="F18" s="35">
-        <f>SUM(E2:E15)</f>
-        <v>116000</v>
+        <f>-SUM(F2:F14)</f>
+        <v>-704000</v>
       </c>
       <c r="G18" s="36"/>
-      <c r="M18" s="25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D19" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="44"/>
-      <c r="F19" s="35">
-        <f>-SUM(F2:F15)</f>
-        <v>-704000</v>
-      </c>
-      <c r="G19" s="36"/>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F21" s="36"/>
@@ -1471,25 +1410,21 @@
     </row>
     <row r="23" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
     </row>
     <row r="24" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F24" s="36"/>
     </row>
-    <row r="25" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="F25" s="36"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:M19" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}"/>
+  <autoFilter ref="A1:M18" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}"/>
   <mergeCells count="4">
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D15:G15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D16" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
+    <hyperlink ref="D15" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2907,7 +2842,7 @@
         <v>46017</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C109" s="20">
         <v>20000</v>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A105F3B0-C85D-41FE-AD00-509293FF556A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51B7010-313D-4852-8F47-1497BFC1A8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="57">
   <si>
     <t>STT</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>Bùi Bích Ngọc</t>
+  </si>
+  <si>
+    <t>Nguyễn Đăng Khoa (9a3)</t>
   </si>
 </sst>
 </file>
@@ -826,7 +829,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1300,18 +1303,42 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="B12" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="28">
+        <v>20000</v>
+      </c>
+      <c r="E12" s="28">
+        <v>0</v>
+      </c>
+      <c r="F12" s="28">
+        <f t="shared" ref="F12" si="16">(D12+I12)-E12</f>
+        <v>20000</v>
+      </c>
+      <c r="G12" s="28">
+        <v>0</v>
+      </c>
+      <c r="H12" s="29">
+        <v>0</v>
+      </c>
+      <c r="I12" s="28">
+        <f t="shared" ref="I12" si="17">D12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>46018</v>
+      </c>
+      <c r="K12" s="4">
+        <v>46024</v>
+      </c>
       <c r="L12" s="4"/>
-      <c r="M12" s="1"/>
+      <c r="M12" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1366,7 +1393,7 @@
       <c r="E16" s="39"/>
       <c r="F16" s="35">
         <f>SUM(D2:D14)</f>
-        <v>730000</v>
+        <v>750000</v>
       </c>
       <c r="G16" s="36"/>
       <c r="J16" s="36"/>
@@ -1392,7 +1419,7 @@
       <c r="E18" s="39"/>
       <c r="F18" s="35">
         <f>-SUM(F2:F14)</f>
-        <v>-704000</v>
+        <v>-724000</v>
       </c>
       <c r="G18" s="36"/>
     </row>
@@ -1435,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA131776-2E13-4A0E-8D22-F638A9EA7E4B}">
   <dimension ref="A1:D130"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2852,10 +2879,18 @@
       </c>
     </row>
     <row r="110" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="21"/>
-      <c r="B110" s="19"/>
-      <c r="C110" s="20"/>
-      <c r="D110" s="22"/>
+      <c r="A110" s="21">
+        <v>46018</v>
+      </c>
+      <c r="B110" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C110" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D110" s="22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="111" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A111" s="21"/>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51B7010-313D-4852-8F47-1497BFC1A8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F05561-9614-4A01-9D0B-F82B6147808B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="THỐNG KÊ NẠP" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DANH SÁCH NỢ'!$A$1:$M$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DANH SÁCH NỢ'!$A$1:$M$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'THỐNG KÊ NẠP'!$A$1:$U$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'THONG KE NAP '!$A$1:$D$102</definedName>
   </definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="58">
   <si>
     <t>STT</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>Nguyễn Đăng Khoa (9a3)</t>
+  </si>
+  <si>
+    <t>Đã trả đủ</t>
   </si>
 </sst>
 </file>
@@ -284,7 +287,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,6 +309,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF4F4F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,7 +380,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -482,6 +491,36 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -826,10 +865,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,155 +1342,213 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="28">
-        <v>20000</v>
-      </c>
-      <c r="E12" s="28">
+      <c r="D12" s="43">
+        <v>20000</v>
+      </c>
+      <c r="E12" s="43">
+        <v>20000</v>
+      </c>
+      <c r="F12" s="43">
+        <f t="shared" ref="F12" si="16">(D12+I12)-E12</f>
         <v>0</v>
       </c>
-      <c r="F12" s="28">
-        <f t="shared" ref="F12" si="16">(D12+I12)-E12</f>
-        <v>20000</v>
-      </c>
-      <c r="G12" s="28">
+      <c r="G12" s="43">
         <v>0</v>
       </c>
-      <c r="H12" s="29">
+      <c r="H12" s="44">
         <v>0</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="43">
         <f t="shared" ref="I12" si="17">D12*H12</f>
         <v>0</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="45">
         <v>46018</v>
       </c>
-      <c r="K12" s="4">
-        <v>46024</v>
-      </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="1" t="s">
-        <v>14</v>
+      <c r="K12" s="45">
+        <v>46018</v>
+      </c>
+      <c r="L12" s="45"/>
+      <c r="M12" s="42" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="1"/>
+      <c r="B13" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="43">
+        <v>220000</v>
+      </c>
+      <c r="E13" s="43">
+        <v>220000</v>
+      </c>
+      <c r="F13" s="43">
+        <f t="shared" ref="F13" si="18">(D13+I13)-E13</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="43">
+        <v>0</v>
+      </c>
+      <c r="H13" s="44">
+        <v>0</v>
+      </c>
+      <c r="I13" s="43">
+        <f t="shared" ref="I13" si="19">D13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="45">
+        <v>46017</v>
+      </c>
+      <c r="K13" s="45">
+        <v>46018</v>
+      </c>
+      <c r="L13" s="45"/>
+      <c r="M13" s="42" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="24"/>
-    </row>
-    <row r="15" spans="1:17" ht="24" x14ac:dyDescent="0.25">
-      <c r="B15" s="34" t="s">
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="47"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="47"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="24"/>
+    </row>
+    <row r="17" spans="2:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="B17" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="40" t="s">
+      <c r="C17" s="34"/>
+      <c r="D17" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D16" s="39" t="s">
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D18" s="39" t="s">
         <v>28</v>
-      </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="35">
-        <f>SUM(D2:D14)</f>
-        <v>750000</v>
-      </c>
-      <c r="G16" s="36"/>
-      <c r="J16" s="36"/>
-    </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D17" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="35">
-        <f>SUM(E2:E14)</f>
-        <v>96000</v>
-      </c>
-      <c r="G17" s="36"/>
-      <c r="M17" s="25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D18" s="39" t="s">
-        <v>27</v>
       </c>
       <c r="E18" s="39"/>
       <c r="F18" s="35">
-        <f>-SUM(F2:F14)</f>
-        <v>-724000</v>
+        <f>SUM(D2:D16)</f>
+        <v>970000</v>
       </c>
       <c r="G18" s="36"/>
-    </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="F20" s="36"/>
+      <c r="J18" s="36"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D19" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="39"/>
+      <c r="F19" s="35">
+        <f>SUM(E2:E16)</f>
+        <v>336000</v>
+      </c>
+      <c r="G19" s="36"/>
+      <c r="M19" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D20" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="39"/>
+      <c r="F20" s="35">
+        <f>-SUM(F2:F16)</f>
+        <v>-704000</v>
+      </c>
       <c r="G20" s="36"/>
     </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-    </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F22" s="36"/>
       <c r="G22" s="36"/>
     </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F23" s="36"/>
-    </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="G23" s="36"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F25" s="36"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F26" s="36"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M18" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}"/>
+  <autoFilter ref="A1:M20" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}"/>
   <mergeCells count="4">
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D17:G17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D15" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
+    <hyperlink ref="D17" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1460,10 +1557,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA131776-2E13-4A0E-8D22-F638A9EA7E4B}">
-  <dimension ref="A1:D130"/>
+  <dimension ref="A1:D131"/>
   <sheetViews>
     <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2880,23 +2977,31 @@
     </row>
     <row r="110" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A110" s="21">
+        <v>46017</v>
+      </c>
+      <c r="B110" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C110" s="20">
+        <v>220000</v>
+      </c>
+      <c r="D110" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="21">
         <v>46018</v>
       </c>
-      <c r="B110" s="19" t="s">
+      <c r="B111" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C110" s="20">
-        <v>20000</v>
-      </c>
-      <c r="D110" s="22" t="s">
+      <c r="C111" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D111" s="22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="21"/>
-      <c r="B111" s="19"/>
-      <c r="C111" s="20"/>
-      <c r="D111" s="22"/>
     </row>
     <row r="112" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A112" s="21"/>
@@ -3011,6 +3116,12 @@
       <c r="B130" s="19"/>
       <c r="C130" s="20"/>
       <c r="D130" s="22"/>
+    </row>
+    <row r="131" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A131" s="21"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="20"/>
+      <c r="D131" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D102" xr:uid="{CA131776-2E13-4A0E-8D22-F638A9EA7E4B}"/>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F05561-9614-4A01-9D0B-F82B6147808B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF52D05A-D56F-407C-9FB2-59CD576216AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="THỐNG KÊ NẠP" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DANH SÁCH NỢ'!$A$1:$M$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DANH SÁCH NỢ'!$A$1:$M$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'THỐNG KÊ NẠP'!$A$1:$U$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'THONG KE NAP '!$A$1:$D$102</definedName>
   </definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="57">
   <si>
     <t>STT</t>
   </si>
@@ -214,9 +214,6 @@
   </si>
   <si>
     <t>Nguyễn Đăng Khoa (9a3)</t>
-  </si>
-  <si>
-    <t>Đã trả đủ</t>
   </si>
 </sst>
 </file>
@@ -287,7 +284,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,12 +306,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF4F4F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,7 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -491,36 +482,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -865,10 +826,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,23 +911,23 @@
       </c>
       <c r="F2" s="32">
         <f>(D2+I2)-E2</f>
-        <v>420000</v>
+        <v>437500</v>
       </c>
       <c r="G2" s="32">
         <v>0</v>
       </c>
       <c r="H2" s="33">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="I2" s="32">
         <f>(D2*H2)</f>
-        <v>70000</v>
+        <v>87500</v>
       </c>
       <c r="J2" s="16">
         <v>45984</v>
       </c>
       <c r="K2" s="16">
-        <v>46018</v>
+        <v>45660</v>
       </c>
       <c r="L2" s="16"/>
       <c r="M2" s="15" t="s">
@@ -1340,215 +1301,133 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="43">
-        <v>20000</v>
-      </c>
-      <c r="E12" s="43">
-        <v>20000</v>
-      </c>
-      <c r="F12" s="43">
-        <f t="shared" ref="F12" si="16">(D12+I12)-E12</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="43">
-        <v>0</v>
-      </c>
-      <c r="H12" s="44">
-        <v>0</v>
-      </c>
-      <c r="I12" s="43">
-        <f t="shared" ref="I12" si="17">D12*H12</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="45">
-        <v>46018</v>
-      </c>
-      <c r="K12" s="45">
-        <v>46018</v>
-      </c>
-      <c r="L12" s="45"/>
-      <c r="M12" s="42" t="s">
-        <v>57</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="43">
-        <v>220000</v>
-      </c>
-      <c r="E13" s="43">
-        <v>220000</v>
-      </c>
-      <c r="F13" s="43">
-        <f t="shared" ref="F13" si="18">(D13+I13)-E13</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="43">
-        <v>0</v>
-      </c>
-      <c r="H13" s="44">
-        <v>0</v>
-      </c>
-      <c r="I13" s="43">
-        <f t="shared" ref="I13" si="19">D13*H13</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="45">
-        <v>46017</v>
-      </c>
-      <c r="K13" s="45">
-        <v>46018</v>
-      </c>
-      <c r="L13" s="45"/>
-      <c r="M13" s="42" t="s">
-        <v>57</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="47"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="47"/>
+        <v>15</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="24"/>
+    </row>
+    <row r="15" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+      <c r="B15" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="24"/>
-    </row>
-    <row r="17" spans="2:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="B17" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D16" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="39"/>
+      <c r="F16" s="35">
+        <f>SUM(D2:D14)</f>
+        <v>730000</v>
+      </c>
+      <c r="G16" s="36"/>
+      <c r="J16" s="36"/>
+    </row>
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D17" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="39"/>
+      <c r="F17" s="35">
+        <f>SUM(E2:E14)</f>
+        <v>96000</v>
+      </c>
+      <c r="G17" s="36"/>
+      <c r="M17" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D18" s="39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="39"/>
       <c r="F18" s="35">
-        <f>SUM(D2:D16)</f>
-        <v>970000</v>
+        <f>-SUM(F2:F14)</f>
+        <v>-721500</v>
       </c>
       <c r="G18" s="36"/>
-      <c r="J18" s="36"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D19" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="35">
-        <f>SUM(E2:E16)</f>
-        <v>336000</v>
-      </c>
-      <c r="G19" s="36"/>
-      <c r="M19" s="25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D20" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="35">
-        <f>-SUM(F2:F16)</f>
-        <v>-704000</v>
-      </c>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F20" s="36"/>
       <c r="G20" s="36"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+    </row>
+    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F22" s="36"/>
       <c r="G22" s="36"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F25" s="36"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F26" s="36"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M20" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}"/>
+  <autoFilter ref="A1:M18" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}"/>
   <mergeCells count="4">
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D15:G15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D17" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
+    <hyperlink ref="D15" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF52D05A-D56F-407C-9FB2-59CD576216AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7807D235-1F2F-4077-87C7-13BE2C7D0EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="THỐNG KÊ NẠP" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DANH SÁCH NỢ'!$A$1:$M$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DANH SÁCH NỢ'!$A$1:$M$21</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'THỐNG KÊ NẠP'!$A$1:$U$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'THONG KE NAP '!$A$1:$D$102</definedName>
   </definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="57">
   <si>
     <t>STT</t>
   </si>
@@ -826,10 +826,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1301,133 +1301,256 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>13</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="28">
+        <v>200000</v>
+      </c>
+      <c r="E12" s="28">
+        <v>0</v>
+      </c>
+      <c r="F12" s="28">
+        <f t="shared" ref="F12" si="16">(D12+I12)-E12</f>
+        <v>200000</v>
+      </c>
+      <c r="G12" s="28">
+        <v>0</v>
+      </c>
+      <c r="H12" s="29">
+        <v>0</v>
+      </c>
+      <c r="I12" s="28">
+        <f t="shared" ref="I12" si="17">D12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>46018</v>
+      </c>
+      <c r="K12" s="4">
+        <v>46024</v>
+      </c>
       <c r="L12" s="4"/>
-      <c r="M12" s="1"/>
+      <c r="M12" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="28">
+        <v>100000</v>
+      </c>
+      <c r="E13" s="28">
+        <v>0</v>
+      </c>
+      <c r="F13" s="28">
+        <f t="shared" ref="F13" si="18">(D13+I13)-E13</f>
+        <v>100000</v>
+      </c>
+      <c r="G13" s="28">
+        <v>0</v>
+      </c>
+      <c r="H13" s="29">
+        <v>0</v>
+      </c>
+      <c r="I13" s="28">
+        <f t="shared" ref="I13" si="19">D13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>46019</v>
+      </c>
+      <c r="K13" s="4">
+        <v>46025</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="28">
+        <v>100000</v>
+      </c>
+      <c r="E14" s="28">
+        <v>0</v>
+      </c>
+      <c r="F14" s="28">
+        <f t="shared" ref="F14" si="20">(D14+I14)-E14</f>
+        <v>100000</v>
+      </c>
+      <c r="G14" s="28">
+        <v>0</v>
+      </c>
+      <c r="H14" s="29">
+        <v>0</v>
+      </c>
+      <c r="I14" s="28">
+        <f t="shared" ref="I14" si="21">D14*H14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <v>46019</v>
+      </c>
+      <c r="K14" s="4">
+        <v>46025</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="24"/>
-    </row>
-    <row r="15" spans="1:17" ht="24" x14ac:dyDescent="0.25">
-      <c r="B15" s="34" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="24"/>
+    </row>
+    <row r="18" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="B18" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="40" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D16" s="39" t="s">
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D19" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="35">
-        <f>SUM(D2:D14)</f>
-        <v>730000</v>
-      </c>
-      <c r="G16" s="36"/>
-      <c r="J16" s="36"/>
-    </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D17" s="39" t="s">
+      <c r="E19" s="39"/>
+      <c r="F19" s="35">
+        <f>SUM(D2:D17)</f>
+        <v>1130000</v>
+      </c>
+      <c r="G19" s="36"/>
+      <c r="J19" s="36"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D20" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="35">
-        <f>SUM(E2:E14)</f>
+      <c r="E20" s="39"/>
+      <c r="F20" s="35">
+        <f>SUM(E2:E17)</f>
         <v>96000</v>
       </c>
-      <c r="G17" s="36"/>
-      <c r="M17" s="25" t="s">
+      <c r="G20" s="36"/>
+      <c r="M20" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D18" s="39" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D21" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="35">
-        <f>-SUM(F2:F14)</f>
-        <v>-721500</v>
-      </c>
-      <c r="G18" s="36"/>
-    </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-    </row>
-    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="F21" s="36"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="35">
+        <f>-SUM(F2:F17)</f>
+        <v>-1121500</v>
+      </c>
       <c r="G21" s="36"/>
     </row>
-    <row r="22" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-    </row>
-    <row r="23" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F23" s="36"/>
-    </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="G23" s="36"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F26" s="36"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F27" s="36"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M18" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}"/>
+  <autoFilter ref="A1:M21" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}"/>
   <mergeCells count="4">
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D18:G18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D15" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
+    <hyperlink ref="D18" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1438,8 +1561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA131776-2E13-4A0E-8D22-F638A9EA7E4B}">
   <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2883,28 +3006,60 @@
       </c>
     </row>
     <row r="112" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A112" s="21"/>
-      <c r="B112" s="19"/>
-      <c r="C112" s="20"/>
-      <c r="D112" s="22"/>
+      <c r="A112" s="21">
+        <v>46018</v>
+      </c>
+      <c r="B112" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C112" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D112" s="22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="113" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A113" s="21"/>
-      <c r="B113" s="19"/>
-      <c r="C113" s="20"/>
-      <c r="D113" s="22"/>
+      <c r="A113" s="21">
+        <v>46018</v>
+      </c>
+      <c r="B113" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C113" s="20">
+        <v>200000</v>
+      </c>
+      <c r="D113" s="22" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="114" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="21"/>
-      <c r="B114" s="19"/>
-      <c r="C114" s="20"/>
-      <c r="D114" s="22"/>
+      <c r="A114" s="21">
+        <v>46019</v>
+      </c>
+      <c r="B114" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C114" s="20">
+        <v>100000</v>
+      </c>
+      <c r="D114" s="22" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="115" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A115" s="21"/>
-      <c r="B115" s="19"/>
-      <c r="C115" s="20"/>
-      <c r="D115" s="22"/>
+      <c r="A115" s="21">
+        <v>46019</v>
+      </c>
+      <c r="B115" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C115" s="20">
+        <v>100000</v>
+      </c>
+      <c r="D115" s="22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="116" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A116" s="21"/>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7807D235-1F2F-4077-87C7-13BE2C7D0EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFD7DDF-C6CB-4DB5-9EB5-9A9E4E9D3996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -829,7 +829,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,7 +927,7 @@
         <v>45984</v>
       </c>
       <c r="K2" s="16">
-        <v>45660</v>
+        <v>46025</v>
       </c>
       <c r="L2" s="16"/>
       <c r="M2" s="15" t="s">

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFD7DDF-C6CB-4DB5-9EB5-9A9E4E9D3996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A65F25-F058-4CB2-A498-7EEA34211A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="THỐNG KÊ NẠP" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DANH SÁCH NỢ'!$A$1:$M$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DANH SÁCH NỢ'!$A$1:$M$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'THỐNG KÊ NẠP'!$A$1:$U$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'THONG KE NAP '!$A$1:$D$102</definedName>
   </definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="57">
   <si>
     <t>STT</t>
   </si>
@@ -826,10 +826,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1426,35 +1426,83 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="B15" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="28">
+        <v>75000</v>
+      </c>
+      <c r="E15" s="28">
+        <v>0</v>
+      </c>
+      <c r="F15" s="28">
+        <f t="shared" ref="F15:F16" si="22">(D15+I15)-E15</f>
+        <v>75000</v>
+      </c>
+      <c r="G15" s="28">
+        <v>0</v>
+      </c>
+      <c r="H15" s="29">
+        <v>0</v>
+      </c>
+      <c r="I15" s="28">
+        <f t="shared" ref="I15:I16" si="23">D15*H15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>46019</v>
+      </c>
+      <c r="K15" s="4">
+        <v>46025</v>
+      </c>
       <c r="L15" s="4"/>
-      <c r="M15" s="1"/>
+      <c r="M15" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="B16" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="28">
+        <v>100000</v>
+      </c>
+      <c r="E16" s="28">
+        <v>0</v>
+      </c>
+      <c r="F16" s="28">
+        <f t="shared" si="22"/>
+        <v>100000</v>
+      </c>
+      <c r="G16" s="28">
+        <v>0</v>
+      </c>
+      <c r="H16" s="29">
+        <v>0</v>
+      </c>
+      <c r="I16" s="28">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>46019</v>
+      </c>
+      <c r="K16" s="4">
+        <v>46025</v>
+      </c>
       <c r="L16" s="4"/>
-      <c r="M16" s="1"/>
+      <c r="M16" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -1462,95 +1510,163 @@
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="24"/>
-    </row>
-    <row r="18" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="B18" s="34" t="s">
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="24"/>
+    </row>
+    <row r="22" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="B22" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="40" t="s">
+      <c r="C22" s="34"/>
+      <c r="D22" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D19" s="39" t="s">
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D23" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="35">
-        <f>SUM(D2:D17)</f>
-        <v>1130000</v>
-      </c>
-      <c r="G19" s="36"/>
-      <c r="J19" s="36"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D20" s="39" t="s">
+      <c r="E23" s="39"/>
+      <c r="F23" s="35">
+        <f>SUM(D2:D21)</f>
+        <v>1305000</v>
+      </c>
+      <c r="G23" s="36"/>
+      <c r="J23" s="36"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D24" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="35">
-        <f>SUM(E2:E17)</f>
+      <c r="E24" s="39"/>
+      <c r="F24" s="35">
+        <f>SUM(E2:E21)</f>
         <v>96000</v>
       </c>
-      <c r="G20" s="36"/>
-      <c r="M20" s="25" t="s">
+      <c r="G24" s="36"/>
+      <c r="M24" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D21" s="39" t="s">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D25" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="35">
-        <f>-SUM(F2:F17)</f>
-        <v>-1121500</v>
-      </c>
-      <c r="G21" s="36"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F25" s="36"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="35">
+        <f>-SUM(F2:F21)</f>
+        <v>-1296500</v>
+      </c>
       <c r="G25" s="36"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F26" s="36"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F30" s="36"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F31" s="36"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M21" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}"/>
+  <autoFilter ref="A1:M25" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}"/>
   <mergeCells count="4">
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D22:G22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D18" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
+    <hyperlink ref="D22" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1562,7 +1678,7 @@
   <dimension ref="A1:D131"/>
   <sheetViews>
     <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116"/>
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3062,16 +3178,32 @@
       </c>
     </row>
     <row r="116" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="21"/>
-      <c r="B116" s="19"/>
-      <c r="C116" s="20"/>
-      <c r="D116" s="22"/>
+      <c r="A116" s="21">
+        <v>46019</v>
+      </c>
+      <c r="B116" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116" s="20">
+        <v>75000</v>
+      </c>
+      <c r="D116" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="117" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="21"/>
-      <c r="B117" s="19"/>
-      <c r="C117" s="20"/>
-      <c r="D117" s="22"/>
+      <c r="A117" s="21">
+        <v>46019</v>
+      </c>
+      <c r="B117" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C117" s="20">
+        <v>100000</v>
+      </c>
+      <c r="D117" s="22" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="118" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A118" s="21"/>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A65F25-F058-4CB2-A498-7EEA34211A51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFA2A4D-0423-44F9-AB08-ACD6F16512E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="57">
   <si>
     <t>STT</t>
   </si>
@@ -829,7 +829,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1508,18 +1508,42 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="B17" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="28">
+        <v>50000</v>
+      </c>
+      <c r="E17" s="28">
+        <v>0</v>
+      </c>
+      <c r="F17" s="28">
+        <f t="shared" ref="F17" si="24">(D17+I17)-E17</f>
+        <v>50000</v>
+      </c>
+      <c r="G17" s="28">
+        <v>0</v>
+      </c>
+      <c r="H17" s="29">
+        <v>0</v>
+      </c>
+      <c r="I17" s="28">
+        <f t="shared" ref="I17" si="25">D17*H17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="4">
+        <v>46020</v>
+      </c>
+      <c r="K17" s="4">
+        <v>46026</v>
+      </c>
       <c r="L17" s="4"/>
-      <c r="M17" s="1"/>
+      <c r="M17" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -1608,7 +1632,7 @@
       <c r="E23" s="39"/>
       <c r="F23" s="35">
         <f>SUM(D2:D21)</f>
-        <v>1305000</v>
+        <v>1355000</v>
       </c>
       <c r="G23" s="36"/>
       <c r="J23" s="36"/>
@@ -1634,7 +1658,7 @@
       <c r="E25" s="39"/>
       <c r="F25" s="35">
         <f>-SUM(F2:F21)</f>
-        <v>-1296500</v>
+        <v>-1346500</v>
       </c>
       <c r="G25" s="36"/>
     </row>
@@ -1678,7 +1702,7 @@
   <dimension ref="A1:D131"/>
   <sheetViews>
     <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D118" sqref="D118"/>
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3206,10 +3230,18 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A118" s="21"/>
-      <c r="B118" s="19"/>
-      <c r="C118" s="20"/>
-      <c r="D118" s="22"/>
+      <c r="A118" s="21">
+        <v>46020</v>
+      </c>
+      <c r="B118" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118" s="20">
+        <v>50000</v>
+      </c>
+      <c r="D118" s="22" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="119" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A119" s="21"/>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFA2A4D-0423-44F9-AB08-ACD6F16512E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA665B1-659A-4197-BCCC-03F06A46FD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="58">
   <si>
     <t>STT</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>Nguyễn Đăng Khoa (9a3)</t>
+  </si>
+  <si>
+    <t>Nạp sò</t>
   </si>
 </sst>
 </file>
@@ -829,7 +832,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,35 +1552,83 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="B18" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="28">
+        <v>350000</v>
+      </c>
+      <c r="E18" s="28">
+        <v>0</v>
+      </c>
+      <c r="F18" s="28">
+        <f t="shared" ref="F18" si="26">(D18+I18)-E18</f>
+        <v>350000</v>
+      </c>
+      <c r="G18" s="28">
+        <v>0</v>
+      </c>
+      <c r="H18" s="29">
+        <v>0</v>
+      </c>
+      <c r="I18" s="28">
+        <f t="shared" ref="I18" si="27">D18*H18</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>46020</v>
+      </c>
+      <c r="K18" s="4">
+        <v>46026</v>
+      </c>
       <c r="L18" s="4"/>
-      <c r="M18" s="1"/>
+      <c r="M18" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="B19" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="28">
+        <v>350000</v>
+      </c>
+      <c r="E19" s="28">
+        <v>0</v>
+      </c>
+      <c r="F19" s="28">
+        <f t="shared" ref="F19" si="28">(D19+I19)-E19</f>
+        <v>350000</v>
+      </c>
+      <c r="G19" s="28">
+        <v>0</v>
+      </c>
+      <c r="H19" s="29">
+        <v>0</v>
+      </c>
+      <c r="I19" s="28">
+        <f t="shared" ref="I19" si="29">D19*H19</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <v>46020</v>
+      </c>
+      <c r="K19" s="4">
+        <v>46026</v>
+      </c>
       <c r="L19" s="4"/>
-      <c r="M19" s="1"/>
+      <c r="M19" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -1632,7 +1683,7 @@
       <c r="E23" s="39"/>
       <c r="F23" s="35">
         <f>SUM(D2:D21)</f>
-        <v>1355000</v>
+        <v>2055000</v>
       </c>
       <c r="G23" s="36"/>
       <c r="J23" s="36"/>
@@ -1658,7 +1709,7 @@
       <c r="E25" s="39"/>
       <c r="F25" s="35">
         <f>-SUM(F2:F21)</f>
-        <v>-1346500</v>
+        <v>-2046500</v>
       </c>
       <c r="G25" s="36"/>
     </row>
@@ -1702,7 +1753,7 @@
   <dimension ref="A1:D131"/>
   <sheetViews>
     <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3244,16 +3295,32 @@
       </c>
     </row>
     <row r="119" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A119" s="21"/>
-      <c r="B119" s="19"/>
-      <c r="C119" s="20"/>
-      <c r="D119" s="22"/>
+      <c r="A119" s="21">
+        <v>46020</v>
+      </c>
+      <c r="B119" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" s="20">
+        <v>350000</v>
+      </c>
+      <c r="D119" s="22" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="120" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="21"/>
-      <c r="B120" s="19"/>
-      <c r="C120" s="20"/>
-      <c r="D120" s="22"/>
+      <c r="A120" s="21">
+        <v>46020</v>
+      </c>
+      <c r="B120" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C120" s="20">
+        <v>350000</v>
+      </c>
+      <c r="D120" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="121" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A121" s="21"/>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA665B1-659A-4197-BCCC-03F06A46FD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E15D982-F5D2-4A79-9410-D4D2AC208824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="THỐNG KÊ NẠP" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DANH SÁCH NỢ'!$A$1:$M$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DANH SÁCH NỢ'!$A$1:$M$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'THỐNG KÊ NẠP'!$A$1:$U$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'THONG KE NAP '!$A$1:$D$102</definedName>
   </definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="61">
   <si>
     <t>STT</t>
   </si>
@@ -217,6 +217,15 @@
   </si>
   <si>
     <t>Nạp sò</t>
+  </si>
+  <si>
+    <t>Đã trả đủ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phụ thu đổi thẻ Zing </t>
+  </si>
+  <si>
+    <t>Phụ thu đổi thẻ Zing</t>
   </si>
 </sst>
 </file>
@@ -287,7 +296,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -309,6 +318,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF4F4F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,7 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -485,6 +500,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -829,17 +859,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="25" customWidth="1"/>
     <col min="2" max="2" width="31.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="25" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.140625" style="25" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" style="25" customWidth="1"/>
@@ -949,7 +979,8 @@
         <v>24</v>
       </c>
       <c r="D3" s="30">
-        <v>20000</v>
+        <f>20000+10000</f>
+        <v>30000</v>
       </c>
       <c r="E3" s="30">
         <f>10000+5000</f>
@@ -957,7 +988,7 @@
       </c>
       <c r="F3" s="30">
         <f t="shared" ref="F3" si="0">(D3+I3)-E3</f>
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="G3" s="30">
         <v>0</v>
@@ -1022,79 +1053,84 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="43">
         <v>100000</v>
       </c>
-      <c r="E5" s="30">
-        <f>50000-29000+20000+10000+30000</f>
-        <v>81000</v>
-      </c>
-      <c r="F5" s="30">
-        <f t="shared" ref="F5" si="2">(D5+I5)-E5</f>
-        <v>19000</v>
-      </c>
-      <c r="G5" s="30">
-        <v>0</v>
-      </c>
-      <c r="H5" s="31">
-        <v>0</v>
-      </c>
-      <c r="I5" s="30">
-        <f t="shared" ref="I5" si="3">D5*H5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="8">
+      <c r="E5" s="43">
+        <f>50000-29000+20000+10000+30000+19000</f>
+        <v>100000</v>
+      </c>
+      <c r="F5" s="43">
+        <f>(D5+I5)-E5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="43">
+        <v>0</v>
+      </c>
+      <c r="H5" s="44">
+        <v>0</v>
+      </c>
+      <c r="I5" s="43">
+        <f t="shared" ref="I5" si="2">D5*H5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="45">
         <v>46001</v>
       </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="7" t="s">
-        <v>14</v>
+      <c r="K5" s="45">
+        <v>46021</v>
+      </c>
+      <c r="L5" s="45"/>
+      <c r="M5" s="42" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="43">
         <v>20000</v>
       </c>
-      <c r="E6" s="30">
-        <v>0</v>
-      </c>
-      <c r="F6" s="30">
-        <f t="shared" ref="F6" si="4">(D6+I6)-E6</f>
+      <c r="E6" s="43">
+        <f>20000</f>
         <v>20000</v>
       </c>
-      <c r="G6" s="30">
-        <v>0</v>
-      </c>
-      <c r="H6" s="31">
-        <v>0</v>
-      </c>
-      <c r="I6" s="30">
-        <f t="shared" ref="I6" si="5">D6*H6</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
+      <c r="F6" s="43">
+        <f t="shared" ref="F6" si="3">(D6+I6)-E6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="43">
+        <v>11000</v>
+      </c>
+      <c r="H6" s="44">
+        <v>0</v>
+      </c>
+      <c r="I6" s="43">
+        <f t="shared" ref="I6" si="4">D6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="45">
         <v>46006</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="7" t="s">
-        <v>14</v>
+      <c r="K6" s="45">
+        <v>46021</v>
+      </c>
+      <c r="L6" s="45"/>
+      <c r="M6" s="42" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1114,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="28">
-        <f t="shared" ref="F7" si="6">(D7+I7)-E7</f>
+        <f t="shared" ref="F7" si="5">(D7+I7)-E7</f>
         <v>100000</v>
       </c>
       <c r="G7" s="28">
@@ -1124,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="28">
-        <f t="shared" ref="I7" si="7">D7*H7</f>
+        <f t="shared" ref="I7" si="6">D7*H7</f>
         <v>0</v>
       </c>
       <c r="J7" s="4">
@@ -1155,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="28">
-        <f t="shared" ref="F8" si="8">(D8+I8)-E8</f>
+        <f t="shared" ref="F8" si="7">(D8+I8)-E8</f>
         <v>20000</v>
       </c>
       <c r="G8" s="28">
@@ -1165,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="28">
-        <f t="shared" ref="I8" si="9">D8*H8</f>
+        <f t="shared" ref="I8" si="8">D8*H8</f>
         <v>0</v>
       </c>
       <c r="J8" s="4">
@@ -1196,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="28">
-        <f t="shared" ref="F9" si="10">(D9+I9)-E9</f>
+        <f t="shared" ref="F9" si="9">(D9+I9)-E9</f>
         <v>50000</v>
       </c>
       <c r="G9" s="28">
@@ -1206,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="28">
-        <f t="shared" ref="I9" si="11">D9*H9</f>
+        <f t="shared" ref="I9" si="10">D9*H9</f>
         <v>0</v>
       </c>
       <c r="J9" s="4">
@@ -1224,41 +1260,41 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="43">
         <v>20000</v>
       </c>
-      <c r="E10" s="28">
-        <v>0</v>
-      </c>
-      <c r="F10" s="28">
-        <f t="shared" ref="F10" si="12">(D10+I10)-E10</f>
+      <c r="E10" s="43">
         <v>20000</v>
       </c>
-      <c r="G10" s="28">
-        <v>0</v>
-      </c>
-      <c r="H10" s="29">
-        <v>0</v>
-      </c>
-      <c r="I10" s="28">
-        <f t="shared" ref="I10" si="13">D10*H10</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="4">
+      <c r="F10" s="43">
+        <f t="shared" ref="F10" si="11">(D10+I10)-E10</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="43">
+        <v>0</v>
+      </c>
+      <c r="H10" s="44">
+        <v>0</v>
+      </c>
+      <c r="I10" s="43">
+        <f t="shared" ref="I10" si="12">D10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="45">
         <v>46017</v>
       </c>
-      <c r="K10" s="4">
-        <v>46023</v>
-      </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="1" t="s">
-        <v>14</v>
+      <c r="K10" s="45">
+        <v>46021</v>
+      </c>
+      <c r="L10" s="45"/>
+      <c r="M10" s="42" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1278,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="28">
-        <f t="shared" ref="F11" si="14">(D11+I11)-E11</f>
+        <f t="shared" ref="F11" si="13">(D11+I11)-E11</f>
         <v>20000</v>
       </c>
       <c r="G11" s="28">
@@ -1288,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="28">
-        <f t="shared" ref="I11" si="15">D11*H11</f>
+        <f t="shared" ref="I11" si="14">D11*H11</f>
         <v>0</v>
       </c>
       <c r="J11" s="4">
@@ -1316,11 +1352,12 @@
         <v>200000</v>
       </c>
       <c r="E12" s="28">
-        <v>0</v>
+        <f>40000</f>
+        <v>40000</v>
       </c>
       <c r="F12" s="28">
-        <f t="shared" ref="F12" si="16">(D12+I12)-E12</f>
-        <v>200000</v>
+        <f t="shared" ref="F12" si="15">(D12+I12)-E12</f>
+        <v>160000</v>
       </c>
       <c r="G12" s="28">
         <v>0</v>
@@ -1329,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="28">
-        <f t="shared" ref="I12" si="17">D12*H12</f>
+        <f t="shared" ref="I12" si="16">D12*H12</f>
         <v>0</v>
       </c>
       <c r="J12" s="4">
@@ -1360,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="28">
-        <f t="shared" ref="F13" si="18">(D13+I13)-E13</f>
+        <f t="shared" ref="F13" si="17">(D13+I13)-E13</f>
         <v>100000</v>
       </c>
       <c r="G13" s="28">
@@ -1370,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="28">
-        <f t="shared" ref="I13" si="19">D13*H13</f>
+        <f t="shared" ref="I13" si="18">D13*H13</f>
         <v>0</v>
       </c>
       <c r="J13" s="4">
@@ -1401,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="28">
-        <f t="shared" ref="F14" si="20">(D14+I14)-E14</f>
+        <f t="shared" ref="F14" si="19">(D14+I14)-E14</f>
         <v>100000</v>
       </c>
       <c r="G14" s="28">
@@ -1411,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="28">
-        <f t="shared" ref="I14" si="21">D14*H14</f>
+        <f t="shared" ref="I14" si="20">D14*H14</f>
         <v>0</v>
       </c>
       <c r="J14" s="4">
@@ -1429,41 +1466,41 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="43">
         <v>75000</v>
       </c>
-      <c r="E15" s="28">
-        <v>0</v>
-      </c>
-      <c r="F15" s="28">
-        <f t="shared" ref="F15:F16" si="22">(D15+I15)-E15</f>
+      <c r="E15" s="43">
         <v>75000</v>
       </c>
-      <c r="G15" s="28">
-        <v>0</v>
-      </c>
-      <c r="H15" s="29">
-        <v>0</v>
-      </c>
-      <c r="I15" s="28">
-        <f t="shared" ref="I15:I16" si="23">D15*H15</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
+      <c r="F15" s="43">
+        <f t="shared" ref="F15:F16" si="21">(D15+I15)-E15</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="43">
+        <v>0</v>
+      </c>
+      <c r="H15" s="44">
+        <v>0</v>
+      </c>
+      <c r="I15" s="43">
+        <f t="shared" ref="I15:I16" si="22">D15*H15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="45">
         <v>46019</v>
       </c>
-      <c r="K15" s="4">
-        <v>46025</v>
-      </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="1" t="s">
-        <v>14</v>
+      <c r="K15" s="45">
+        <v>46021</v>
+      </c>
+      <c r="L15" s="45"/>
+      <c r="M15" s="42" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -1483,17 +1520,17 @@
         <v>0</v>
       </c>
       <c r="F16" s="28">
+        <f t="shared" si="21"/>
+        <v>100000</v>
+      </c>
+      <c r="G16" s="28">
+        <v>0</v>
+      </c>
+      <c r="H16" s="29">
+        <v>0</v>
+      </c>
+      <c r="I16" s="28">
         <f t="shared" si="22"/>
-        <v>100000</v>
-      </c>
-      <c r="G16" s="28">
-        <v>0</v>
-      </c>
-      <c r="H16" s="29">
-        <v>0</v>
-      </c>
-      <c r="I16" s="28">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="J16" s="4">
@@ -1524,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="28">
-        <f t="shared" ref="F17" si="24">(D17+I17)-E17</f>
+        <f t="shared" ref="F17" si="23">(D17+I17)-E17</f>
         <v>50000</v>
       </c>
       <c r="G17" s="28">
@@ -1534,7 +1571,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="28">
-        <f t="shared" ref="I17" si="25">D17*H17</f>
+        <f t="shared" ref="I17" si="24">D17*H17</f>
         <v>0</v>
       </c>
       <c r="J17" s="4">
@@ -1562,11 +1599,12 @@
         <v>350000</v>
       </c>
       <c r="E18" s="28">
-        <v>0</v>
+        <f>(240000-75000)</f>
+        <v>165000</v>
       </c>
       <c r="F18" s="28">
-        <f t="shared" ref="F18" si="26">(D18+I18)-E18</f>
-        <v>350000</v>
+        <f t="shared" ref="F18" si="25">(D18+I18)-E18</f>
+        <v>185000</v>
       </c>
       <c r="G18" s="28">
         <v>0</v>
@@ -1575,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="28">
-        <f t="shared" ref="I18" si="27">D18*H18</f>
+        <f t="shared" ref="I18" si="26">D18*H18</f>
         <v>0</v>
       </c>
       <c r="J18" s="4">
@@ -1606,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="28">
-        <f t="shared" ref="F19" si="28">(D19+I19)-E19</f>
+        <f t="shared" ref="F19" si="27">(D19+I19)-E19</f>
         <v>350000</v>
       </c>
       <c r="G19" s="28">
@@ -1616,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="28">
-        <f t="shared" ref="I19" si="29">D19*H19</f>
+        <f t="shared" ref="I19" si="28">D19*H19</f>
         <v>0</v>
       </c>
       <c r="J19" s="4">
@@ -1634,114 +1672,364 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="B20" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="28">
+        <v>50000</v>
+      </c>
+      <c r="E20" s="28">
+        <v>0</v>
+      </c>
+      <c r="F20" s="28">
+        <f t="shared" ref="F20" si="29">(D20+I20)-E20</f>
+        <v>50000</v>
+      </c>
+      <c r="G20" s="28">
+        <v>0</v>
+      </c>
+      <c r="H20" s="29">
+        <v>0</v>
+      </c>
+      <c r="I20" s="28">
+        <f t="shared" ref="I20" si="30">D20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>46021</v>
+      </c>
+      <c r="K20" s="4">
+        <v>46027</v>
+      </c>
       <c r="L20" s="4"/>
-      <c r="M20" s="1"/>
+      <c r="M20" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="24"/>
-    </row>
-    <row r="22" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="B22" s="34" t="s">
+      <c r="B21" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="28">
+        <f>50000+50000+20000</f>
+        <v>120000</v>
+      </c>
+      <c r="E21" s="28">
+        <v>0</v>
+      </c>
+      <c r="F21" s="28">
+        <f t="shared" ref="F21:F22" si="31">(D21+I21)-E21</f>
+        <v>120000</v>
+      </c>
+      <c r="G21" s="28">
+        <v>0</v>
+      </c>
+      <c r="H21" s="29">
+        <v>0</v>
+      </c>
+      <c r="I21" s="28">
+        <f t="shared" ref="I21:I22" si="32">D21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>46021</v>
+      </c>
+      <c r="K21" s="4">
+        <v>46027</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="28">
+        <v>50000</v>
+      </c>
+      <c r="E22" s="28">
+        <v>0</v>
+      </c>
+      <c r="F22" s="28">
+        <f t="shared" si="31"/>
+        <v>50000</v>
+      </c>
+      <c r="G22" s="28">
+        <v>0</v>
+      </c>
+      <c r="H22" s="29">
+        <v>0</v>
+      </c>
+      <c r="I22" s="28">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>46021</v>
+      </c>
+      <c r="K22" s="4">
+        <v>46027</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="28">
+        <v>12000</v>
+      </c>
+      <c r="E23" s="28">
+        <v>0</v>
+      </c>
+      <c r="F23" s="28">
+        <f t="shared" ref="F23" si="33">(D23+I23)-E23</f>
+        <v>12000</v>
+      </c>
+      <c r="G23" s="28">
+        <v>0</v>
+      </c>
+      <c r="H23" s="29">
+        <v>0</v>
+      </c>
+      <c r="I23" s="28">
+        <f t="shared" ref="I23" si="34">D23*H23</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
+        <v>46021</v>
+      </c>
+      <c r="K23" s="4">
+        <v>46027</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="24"/>
+    </row>
+    <row r="31" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="B31" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="40" t="s">
+      <c r="C31" s="34"/>
+      <c r="D31" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D23" s="39" t="s">
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D32" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="35">
-        <f>SUM(D2:D21)</f>
-        <v>2055000</v>
-      </c>
-      <c r="G23" s="36"/>
-      <c r="J23" s="36"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D24" s="39" t="s">
+      <c r="E32" s="39"/>
+      <c r="F32" s="35">
+        <f>SUM(D2:D30)</f>
+        <v>2297000</v>
+      </c>
+      <c r="G32" s="36"/>
+      <c r="J32" s="36"/>
+    </row>
+    <row r="33" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D33" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="35">
-        <f>SUM(E2:E21)</f>
-        <v>96000</v>
-      </c>
-      <c r="G24" s="36"/>
-      <c r="M24" s="25" t="s">
+      <c r="E33" s="39"/>
+      <c r="F33" s="35">
+        <f>SUM(E2:E30)</f>
+        <v>435000</v>
+      </c>
+      <c r="G33" s="36"/>
+      <c r="M33" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D25" s="39" t="s">
+    <row r="34" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D34" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="35">
-        <f>-SUM(F2:F21)</f>
-        <v>-2046500</v>
-      </c>
-      <c r="G25" s="36"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F30" s="36"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F31" s="36"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="35">
+        <f>-SUM(F2:F30)</f>
+        <v>-1949500</v>
+      </c>
+      <c r="G34" s="36"/>
+    </row>
+    <row r="36" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+    </row>
+    <row r="37" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+    </row>
+    <row r="38" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+    </row>
+    <row r="39" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F39" s="36"/>
+    </row>
+    <row r="40" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F40" s="36"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M25" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}"/>
+  <autoFilter ref="A1:M34" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}"/>
   <mergeCells count="4">
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D31:G31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D22" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
+    <hyperlink ref="D31" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1752,8 +2040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA131776-2E13-4A0E-8D22-F638A9EA7E4B}">
   <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="H125" sqref="H125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1761,7 +2049,7 @@
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -3323,46 +3611,102 @@
       </c>
     </row>
     <row r="121" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A121" s="21"/>
-      <c r="B121" s="19"/>
-      <c r="C121" s="20"/>
-      <c r="D121" s="22"/>
+      <c r="A121" s="21">
+        <v>46021</v>
+      </c>
+      <c r="B121" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C121" s="20">
+        <v>50000</v>
+      </c>
+      <c r="D121" s="22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="122" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="21"/>
-      <c r="B122" s="19"/>
-      <c r="C122" s="20"/>
-      <c r="D122" s="22"/>
+      <c r="A122" s="21">
+        <v>46021</v>
+      </c>
+      <c r="B122" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C122" s="20">
+        <v>50000</v>
+      </c>
+      <c r="D122" s="22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="123" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="21"/>
-      <c r="B123" s="19"/>
-      <c r="C123" s="20"/>
-      <c r="D123" s="22"/>
+      <c r="A123" s="21">
+        <v>46021</v>
+      </c>
+      <c r="B123" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C123" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D123" s="22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="124" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A124" s="21"/>
-      <c r="B124" s="19"/>
-      <c r="C124" s="20"/>
-      <c r="D124" s="22"/>
+      <c r="A124" s="21">
+        <v>46021</v>
+      </c>
+      <c r="B124" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C124" s="20">
+        <v>50000</v>
+      </c>
+      <c r="D124" s="22" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="125" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="21"/>
-      <c r="B125" s="19"/>
-      <c r="C125" s="20"/>
-      <c r="D125" s="22"/>
+      <c r="A125" s="21">
+        <v>46021</v>
+      </c>
+      <c r="B125" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C125" s="20">
+        <v>100000</v>
+      </c>
+      <c r="D125" s="22" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="126" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="21"/>
-      <c r="B126" s="19"/>
-      <c r="C126" s="20"/>
-      <c r="D126" s="22"/>
+      <c r="A126" s="21">
+        <v>46021</v>
+      </c>
+      <c r="B126" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C126" s="20">
+        <v>50000</v>
+      </c>
+      <c r="D126" s="22" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="127" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="21"/>
-      <c r="B127" s="19"/>
-      <c r="C127" s="20"/>
-      <c r="D127" s="22"/>
+      <c r="A127" s="21">
+        <v>46021</v>
+      </c>
+      <c r="B127" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C127" s="20">
+        <v>12000</v>
+      </c>
+      <c r="D127" s="22" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="128" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A128" s="21"/>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E15D982-F5D2-4A79-9410-D4D2AC208824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192CB071-4724-43B4-8261-9755E0C5DFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="THỐNG KÊ NẠP" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DANH SÁCH NỢ'!$A$1:$M$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DANH SÁCH NỢ'!$A$1:$M$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'THỐNG KÊ NẠP'!$A$1:$U$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'THONG KE NAP '!$A$1:$D$102</definedName>
   </definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="63">
   <si>
     <t>STT</t>
   </si>
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t>Phụ thu đổi thẻ Zing</t>
+  </si>
+  <si>
+    <t>Hồ Nhã Lan</t>
+  </si>
+  <si>
+    <t>Nợ</t>
   </si>
 </sst>
 </file>
@@ -389,7 +395,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -495,12 +501,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -514,6 +514,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -859,10 +868,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1051,189 +1060,188 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="43">
+      <c r="D5" s="41">
         <v>100000</v>
       </c>
-      <c r="E5" s="43">
-        <f>50000-29000+20000+10000+30000+19000</f>
+      <c r="E5" s="41">
         <v>100000</v>
       </c>
-      <c r="F5" s="43">
-        <f>(D5+I5)-E5</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="43">
-        <v>0</v>
-      </c>
-      <c r="H5" s="44">
-        <v>0</v>
-      </c>
-      <c r="I5" s="43">
-        <f t="shared" ref="I5" si="2">D5*H5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="45">
-        <v>46001</v>
-      </c>
-      <c r="K5" s="45">
-        <v>46021</v>
-      </c>
-      <c r="L5" s="45"/>
-      <c r="M5" s="42" t="s">
+      <c r="F5" s="41">
+        <f t="shared" ref="F5" si="2">(D5+I5)-E5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="41">
+        <v>0</v>
+      </c>
+      <c r="H5" s="42">
+        <v>0</v>
+      </c>
+      <c r="I5" s="41">
+        <f t="shared" ref="I5" si="3">D5*H5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="43">
+        <v>46016</v>
+      </c>
+      <c r="K5" s="43">
+        <v>46022</v>
+      </c>
+      <c r="L5" s="43"/>
+      <c r="M5" s="40" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="41">
         <v>20000</v>
       </c>
-      <c r="E6" s="43">
-        <f>20000</f>
+      <c r="E6" s="41">
         <v>20000</v>
       </c>
-      <c r="F6" s="43">
-        <f t="shared" ref="F6" si="3">(D6+I6)-E6</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="43">
-        <v>11000</v>
-      </c>
-      <c r="H6" s="44">
-        <v>0</v>
-      </c>
-      <c r="I6" s="43">
-        <f t="shared" ref="I6" si="4">D6*H6</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="45">
-        <v>46006</v>
-      </c>
-      <c r="K6" s="45">
-        <v>46021</v>
-      </c>
-      <c r="L6" s="45"/>
-      <c r="M6" s="42" t="s">
+      <c r="F6" s="41">
+        <f t="shared" ref="F6" si="4">(D6+I6)-E6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="41">
+        <v>0</v>
+      </c>
+      <c r="H6" s="42">
+        <v>0</v>
+      </c>
+      <c r="I6" s="41">
+        <f t="shared" ref="I6" si="5">D6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="43">
+        <v>46016</v>
+      </c>
+      <c r="K6" s="43">
+        <v>46022</v>
+      </c>
+      <c r="L6" s="43"/>
+      <c r="M6" s="40" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="28">
-        <v>100000</v>
-      </c>
-      <c r="E7" s="28">
-        <v>0</v>
-      </c>
-      <c r="F7" s="28">
-        <f t="shared" ref="F7" si="5">(D7+I7)-E7</f>
-        <v>100000</v>
-      </c>
-      <c r="G7" s="28">
-        <v>0</v>
-      </c>
-      <c r="H7" s="29">
-        <v>0</v>
-      </c>
-      <c r="I7" s="28">
-        <f t="shared" ref="I7" si="6">D7*H7</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="4">
+        <v>8</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="41">
+        <v>50000</v>
+      </c>
+      <c r="E7" s="41">
+        <v>50000</v>
+      </c>
+      <c r="F7" s="41">
+        <f t="shared" ref="F7" si="6">(D7+I7)-E7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="41">
+        <v>0</v>
+      </c>
+      <c r="H7" s="42">
+        <v>0</v>
+      </c>
+      <c r="I7" s="41">
+        <f t="shared" ref="I7" si="7">D7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="43">
         <v>46016</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="43">
         <v>46022</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="1" t="s">
-        <v>14</v>
+      <c r="L7" s="43"/>
+      <c r="M7" s="40" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="41">
         <v>20000</v>
       </c>
-      <c r="E8" s="28">
-        <v>0</v>
-      </c>
-      <c r="F8" s="28">
-        <f t="shared" ref="F8" si="7">(D8+I8)-E8</f>
+      <c r="E8" s="41">
         <v>20000</v>
       </c>
-      <c r="G8" s="28">
-        <v>0</v>
-      </c>
-      <c r="H8" s="29">
-        <v>0</v>
-      </c>
-      <c r="I8" s="28">
-        <f t="shared" ref="I8" si="8">D8*H8</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="4">
-        <v>46016</v>
-      </c>
-      <c r="K8" s="4">
+      <c r="F8" s="41">
+        <f t="shared" ref="F8" si="8">(D8+I8)-E8</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="41">
+        <v>0</v>
+      </c>
+      <c r="H8" s="42">
+        <v>0</v>
+      </c>
+      <c r="I8" s="41">
+        <f t="shared" ref="I8" si="9">D8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="43">
+        <v>46017</v>
+      </c>
+      <c r="K8" s="43">
         <v>46022</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="1" t="s">
-        <v>14</v>
+      <c r="L8" s="43"/>
+      <c r="M8" s="40" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="D9" s="28">
-        <v>50000</v>
+        <v>200000</v>
       </c>
       <c r="E9" s="28">
-        <v>0</v>
+        <f>40000</f>
+        <v>40000</v>
       </c>
       <c r="F9" s="28">
-        <f t="shared" ref="F9" si="9">(D9+I9)-E9</f>
-        <v>50000</v>
+        <f t="shared" ref="F9" si="10">(D9+I9)-E9</f>
+        <v>160000</v>
       </c>
       <c r="G9" s="28">
         <v>0</v>
@@ -1242,14 +1250,14 @@
         <v>0</v>
       </c>
       <c r="I9" s="28">
-        <f t="shared" ref="I9" si="10">D9*H9</f>
+        <f t="shared" ref="I9" si="11">D9*H9</f>
         <v>0</v>
       </c>
       <c r="J9" s="4">
-        <v>46016</v>
+        <v>46018</v>
       </c>
       <c r="K9" s="4">
-        <v>46022</v>
+        <v>46024</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="1" t="s">
@@ -1258,65 +1266,65 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="43">
-        <v>20000</v>
-      </c>
-      <c r="E10" s="43">
-        <v>20000</v>
-      </c>
-      <c r="F10" s="43">
-        <f t="shared" ref="F10" si="11">(D10+I10)-E10</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="43">
-        <v>0</v>
-      </c>
-      <c r="H10" s="44">
-        <v>0</v>
-      </c>
-      <c r="I10" s="43">
-        <f t="shared" ref="I10" si="12">D10*H10</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="45">
-        <v>46017</v>
-      </c>
-      <c r="K10" s="45">
-        <v>46021</v>
-      </c>
-      <c r="L10" s="45"/>
-      <c r="M10" s="42" t="s">
-        <v>58</v>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="28">
+        <v>100000</v>
+      </c>
+      <c r="E10" s="28">
+        <v>0</v>
+      </c>
+      <c r="F10" s="28">
+        <f t="shared" ref="F10" si="12">(D10+I10)-E10</f>
+        <v>100000</v>
+      </c>
+      <c r="G10" s="28">
+        <v>0</v>
+      </c>
+      <c r="H10" s="29">
+        <v>0</v>
+      </c>
+      <c r="I10" s="28">
+        <f t="shared" ref="I10" si="13">D10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>46019</v>
+      </c>
+      <c r="K10" s="4">
+        <v>46025</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="28">
+        <v>100000</v>
+      </c>
+      <c r="E11" s="28">
+        <v>80000</v>
+      </c>
+      <c r="F11" s="28">
+        <f t="shared" ref="F11" si="14">(D11+I11)-E11</f>
         <v>20000</v>
       </c>
-      <c r="E11" s="28">
-        <v>0</v>
-      </c>
-      <c r="F11" s="28">
-        <f t="shared" ref="F11" si="13">(D11+I11)-E11</f>
-        <v>20000</v>
-      </c>
       <c r="G11" s="28">
         <v>0</v>
       </c>
@@ -1324,14 +1332,14 @@
         <v>0</v>
       </c>
       <c r="I11" s="28">
-        <f t="shared" ref="I11" si="14">D11*H11</f>
+        <f t="shared" ref="I11" si="15">D11*H11</f>
         <v>0</v>
       </c>
       <c r="J11" s="4">
-        <v>46017</v>
+        <v>46019</v>
       </c>
       <c r="K11" s="4">
-        <v>46023</v>
+        <v>46025</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="1" t="s">
@@ -1340,106 +1348,106 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="28">
-        <v>200000</v>
-      </c>
-      <c r="E12" s="28">
-        <f>40000</f>
-        <v>40000</v>
-      </c>
-      <c r="F12" s="28">
-        <f t="shared" ref="F12" si="15">(D12+I12)-E12</f>
-        <v>160000</v>
-      </c>
-      <c r="G12" s="28">
-        <v>0</v>
-      </c>
-      <c r="H12" s="29">
-        <v>0</v>
-      </c>
-      <c r="I12" s="28">
-        <f t="shared" ref="I12" si="16">D12*H12</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <v>46018</v>
-      </c>
-      <c r="K12" s="4">
-        <v>46024</v>
-      </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="41">
+        <v>100000</v>
+      </c>
+      <c r="E12" s="41">
+        <v>100000</v>
+      </c>
+      <c r="F12" s="41">
+        <f t="shared" ref="F12" si="16">(D12+I12)-E12</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="41">
+        <v>0</v>
+      </c>
+      <c r="H12" s="42">
+        <v>0</v>
+      </c>
+      <c r="I12" s="41">
+        <f t="shared" ref="I12" si="17">D12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="43">
+        <v>46019</v>
+      </c>
+      <c r="K12" s="43">
+        <v>46022</v>
+      </c>
+      <c r="L12" s="43"/>
+      <c r="M12" s="40" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="28">
-        <v>100000</v>
-      </c>
-      <c r="E13" s="28">
-        <v>0</v>
-      </c>
-      <c r="F13" s="28">
-        <f t="shared" ref="F13" si="17">(D13+I13)-E13</f>
-        <v>100000</v>
-      </c>
-      <c r="G13" s="28">
-        <v>0</v>
-      </c>
-      <c r="H13" s="29">
-        <v>0</v>
-      </c>
-      <c r="I13" s="28">
-        <f t="shared" ref="I13" si="18">D13*H13</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="4">
-        <v>46019</v>
-      </c>
-      <c r="K13" s="4">
-        <v>46025</v>
-      </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="1" t="s">
-        <v>14</v>
+      <c r="B13" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="41">
+        <v>50000</v>
+      </c>
+      <c r="E13" s="41">
+        <v>50000</v>
+      </c>
+      <c r="F13" s="41">
+        <f t="shared" ref="F13" si="18">(D13+I13)-E13</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="41">
+        <v>0</v>
+      </c>
+      <c r="H13" s="42">
+        <v>0</v>
+      </c>
+      <c r="I13" s="41">
+        <f t="shared" ref="I13" si="19">D13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="43">
+        <v>46020</v>
+      </c>
+      <c r="K13" s="43">
+        <v>46022</v>
+      </c>
+      <c r="L13" s="43"/>
+      <c r="M13" s="40" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="D14" s="28">
-        <v>100000</v>
+        <v>350000</v>
       </c>
       <c r="E14" s="28">
-        <v>0</v>
+        <f>(240000-75000)+25000</f>
+        <v>190000</v>
       </c>
       <c r="F14" s="28">
-        <f t="shared" ref="F14" si="19">(D14+I14)-E14</f>
-        <v>100000</v>
+        <f t="shared" ref="F14" si="20">(D14+I14)-E14</f>
+        <v>160000</v>
       </c>
       <c r="G14" s="28">
         <v>0</v>
@@ -1448,14 +1456,14 @@
         <v>0</v>
       </c>
       <c r="I14" s="28">
-        <f t="shared" ref="I14" si="20">D14*H14</f>
+        <f t="shared" ref="I14" si="21">D14*H14</f>
         <v>0</v>
       </c>
       <c r="J14" s="4">
-        <v>46019</v>
+        <v>46020</v>
       </c>
       <c r="K14" s="4">
-        <v>46025</v>
+        <v>46026</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="1" t="s">
@@ -1463,106 +1471,107 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="42" t="s">
+      <c r="A15" s="46">
+        <v>18</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="43">
-        <v>75000</v>
-      </c>
-      <c r="E15" s="43">
-        <v>75000</v>
-      </c>
-      <c r="F15" s="43">
-        <f t="shared" ref="F15:F16" si="21">(D15+I15)-E15</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="43">
-        <v>0</v>
-      </c>
-      <c r="H15" s="44">
-        <v>0</v>
-      </c>
-      <c r="I15" s="43">
-        <f t="shared" ref="I15:I16" si="22">D15*H15</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="45">
-        <v>46019</v>
-      </c>
-      <c r="K15" s="45">
+      <c r="D15" s="41">
+        <v>350000</v>
+      </c>
+      <c r="E15" s="41">
+        <v>350000</v>
+      </c>
+      <c r="F15" s="41">
+        <f t="shared" ref="F15" si="22">(D15+I15)-E15</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="41">
+        <v>0</v>
+      </c>
+      <c r="H15" s="42">
+        <v>0</v>
+      </c>
+      <c r="I15" s="41">
+        <f t="shared" ref="I15" si="23">D15*H15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="43">
+        <v>46020</v>
+      </c>
+      <c r="K15" s="43">
+        <v>46022</v>
+      </c>
+      <c r="L15" s="43"/>
+      <c r="M15" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="46">
+        <v>19</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="41">
+        <v>50000</v>
+      </c>
+      <c r="E16" s="41">
+        <v>50000</v>
+      </c>
+      <c r="F16" s="41">
+        <f t="shared" ref="F16" si="24">(D16+I16)-E16</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="41">
+        <v>0</v>
+      </c>
+      <c r="H16" s="42">
+        <v>0</v>
+      </c>
+      <c r="I16" s="41">
+        <f t="shared" ref="I16" si="25">D16*H16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="43">
         <v>46021</v>
       </c>
-      <c r="L15" s="45"/>
-      <c r="M15" s="42" t="s">
+      <c r="K16" s="43">
+        <v>46022</v>
+      </c>
+      <c r="L16" s="43"/>
+      <c r="M16" s="40" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="28">
-        <v>100000</v>
-      </c>
-      <c r="E16" s="28">
-        <v>0</v>
-      </c>
-      <c r="F16" s="28">
-        <f t="shared" si="21"/>
-        <v>100000</v>
-      </c>
-      <c r="G16" s="28">
-        <v>0</v>
-      </c>
-      <c r="H16" s="29">
-        <v>0</v>
-      </c>
-      <c r="I16" s="28">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <v>46019</v>
-      </c>
-      <c r="K16" s="4">
-        <v>46025</v>
-      </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D17" s="28">
-        <v>50000</v>
+        <f>50000+50000+20000</f>
+        <v>120000</v>
       </c>
       <c r="E17" s="28">
         <v>0</v>
       </c>
       <c r="F17" s="28">
-        <f t="shared" ref="F17" si="23">(D17+I17)-E17</f>
-        <v>50000</v>
+        <f t="shared" ref="F17:F18" si="26">(D17+I17)-E17</f>
+        <v>120000</v>
       </c>
       <c r="G17" s="28">
         <v>0</v>
@@ -1571,14 +1580,14 @@
         <v>0</v>
       </c>
       <c r="I17" s="28">
-        <f t="shared" ref="I17" si="24">D17*H17</f>
+        <f t="shared" ref="I17:I18" si="27">D17*H17</f>
         <v>0</v>
       </c>
       <c r="J17" s="4">
-        <v>46020</v>
+        <v>46021</v>
       </c>
       <c r="K17" s="4">
-        <v>46026</v>
+        <v>46027</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="1" t="s">
@@ -1587,24 +1596,23 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="D18" s="28">
-        <v>350000</v>
+        <v>50000</v>
       </c>
       <c r="E18" s="28">
-        <f>(240000-75000)</f>
-        <v>165000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="28">
-        <f t="shared" ref="F18" si="25">(D18+I18)-E18</f>
-        <v>185000</v>
+        <f t="shared" si="26"/>
+        <v>50000</v>
       </c>
       <c r="G18" s="28">
         <v>0</v>
@@ -1613,14 +1621,14 @@
         <v>0</v>
       </c>
       <c r="I18" s="28">
-        <f t="shared" ref="I18" si="26">D18*H18</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="J18" s="4">
-        <v>46020</v>
+        <v>46021</v>
       </c>
       <c r="K18" s="4">
-        <v>46026</v>
+        <v>46027</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="1" t="s">
@@ -1629,23 +1637,23 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="D19" s="28">
-        <v>350000</v>
+        <v>12000</v>
       </c>
       <c r="E19" s="28">
         <v>0</v>
       </c>
       <c r="F19" s="28">
-        <f t="shared" ref="F19" si="27">(D19+I19)-E19</f>
-        <v>350000</v>
+        <f t="shared" ref="F19" si="28">(D19+I19)-E19</f>
+        <v>12000</v>
       </c>
       <c r="G19" s="28">
         <v>0</v>
@@ -1654,14 +1662,14 @@
         <v>0</v>
       </c>
       <c r="I19" s="28">
-        <f t="shared" ref="I19" si="28">D19*H19</f>
+        <f t="shared" ref="I19" si="29">D19*H19</f>
         <v>0</v>
       </c>
       <c r="J19" s="4">
-        <v>46020</v>
+        <v>46021</v>
       </c>
       <c r="K19" s="4">
-        <v>46026</v>
+        <v>46027</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="1" t="s">
@@ -1670,23 +1678,23 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D20" s="28">
-        <v>50000</v>
+        <v>2000</v>
       </c>
       <c r="E20" s="28">
         <v>0</v>
       </c>
       <c r="F20" s="28">
-        <f t="shared" ref="F20" si="29">(D20+I20)-E20</f>
-        <v>50000</v>
+        <f t="shared" ref="F20" si="30">(D20+I20)-E20</f>
+        <v>2000</v>
       </c>
       <c r="G20" s="28">
         <v>0</v>
@@ -1695,14 +1703,14 @@
         <v>0</v>
       </c>
       <c r="I20" s="28">
-        <f t="shared" ref="I20" si="30">D20*H20</f>
+        <f t="shared" ref="I20" si="31">D20*H20</f>
         <v>0</v>
       </c>
       <c r="J20" s="4">
-        <v>46021</v>
+        <v>46022</v>
       </c>
       <c r="K20" s="4">
-        <v>46027</v>
+        <v>46028</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="1" t="s">
@@ -1711,131 +1719,58 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="28">
-        <f>50000+50000+20000</f>
-        <v>120000</v>
-      </c>
-      <c r="E21" s="28">
-        <v>0</v>
-      </c>
-      <c r="F21" s="28">
-        <f t="shared" ref="F21:F22" si="31">(D21+I21)-E21</f>
-        <v>120000</v>
-      </c>
-      <c r="G21" s="28">
-        <v>0</v>
-      </c>
-      <c r="H21" s="29">
-        <v>0</v>
-      </c>
-      <c r="I21" s="28">
-        <f t="shared" ref="I21:I22" si="32">D21*H21</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <v>46021</v>
-      </c>
-      <c r="K21" s="4">
-        <v>46027</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="28">
-        <v>50000</v>
-      </c>
-      <c r="E22" s="28">
-        <v>0</v>
-      </c>
-      <c r="F22" s="28">
-        <f t="shared" si="31"/>
-        <v>50000</v>
-      </c>
-      <c r="G22" s="28">
-        <v>0</v>
-      </c>
-      <c r="H22" s="29">
-        <v>0</v>
-      </c>
-      <c r="I22" s="28">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="4">
-        <v>46021</v>
-      </c>
-      <c r="K22" s="4">
-        <v>46027</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="28">
-        <v>12000</v>
-      </c>
-      <c r="E23" s="28">
-        <v>0</v>
-      </c>
-      <c r="F23" s="28">
-        <f t="shared" ref="F23" si="33">(D23+I23)-E23</f>
-        <v>12000</v>
-      </c>
-      <c r="G23" s="28">
-        <v>0</v>
-      </c>
-      <c r="H23" s="29">
-        <v>0</v>
-      </c>
-      <c r="I23" s="28">
-        <f t="shared" ref="I23" si="34">D23*H23</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="4">
-        <v>46021</v>
-      </c>
-      <c r="K23" s="4">
-        <v>46027</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="1"/>
@@ -1852,7 +1787,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B25" s="24"/>
       <c r="C25" s="1"/>
@@ -1869,167 +1804,99 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B26" s="24"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="1"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="24"/>
+    </row>
+    <row r="27" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="B27" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="34"/>
+      <c r="D27" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="D28" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="44"/>
+      <c r="F28" s="35">
+        <f>SUM(D2:D26)</f>
+        <v>2084000</v>
+      </c>
+      <c r="G28" s="36"/>
+      <c r="J28" s="36"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D29" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="44"/>
+      <c r="F29" s="35">
+        <f>SUM(E2:E26)</f>
+        <v>1065000</v>
+      </c>
+      <c r="G29" s="36"/>
+      <c r="M29" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D30" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="24"/>
-    </row>
-    <row r="31" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="B31" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="35">
+        <f>-SUM(F2:F26)</f>
+        <v>-1106500</v>
+      </c>
+      <c r="G30" s="36"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D32" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="39"/>
-      <c r="F32" s="35">
-        <f>SUM(D2:D30)</f>
-        <v>2297000</v>
-      </c>
+      <c r="F32" s="36"/>
       <c r="G32" s="36"/>
-      <c r="J32" s="36"/>
-    </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D33" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="39"/>
-      <c r="F33" s="35">
-        <f>SUM(E2:E30)</f>
-        <v>435000</v>
-      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F33" s="36"/>
       <c r="G33" s="36"/>
-      <c r="M33" s="25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D34" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="39"/>
-      <c r="F34" s="35">
-        <f>-SUM(F2:F30)</f>
-        <v>-1949500</v>
-      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F34" s="36"/>
       <c r="G34" s="36"/>
     </row>
-    <row r="36" spans="4:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F35" s="36"/>
+    </row>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-    </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-    </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-    </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="F39" s="36"/>
-    </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="F40" s="36"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M34" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}"/>
+  <autoFilter ref="A1:M30" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}"/>
   <mergeCells count="4">
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D27:G27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D31" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
+    <hyperlink ref="D27" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192CB071-4724-43B4-8261-9755E0C5DFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F995428-62E6-490A-AE20-B336DBA85C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="62">
   <si>
     <t>STT</t>
   </si>
@@ -217,9 +217,6 @@
   </si>
   <si>
     <t>Nạp sò</t>
-  </si>
-  <si>
-    <t>Đã trả đủ</t>
   </si>
   <si>
     <t xml:space="preserve">Phụ thu đổi thẻ Zing </t>
@@ -244,7 +241,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0.000\ [$₫-42A]_-;\-* #,##0.000\ [$₫-42A]_-;_-* &quot;-&quot;???\ [$₫-42A]_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0\ [$₫-42A]_-;\-* #,##0\ [$₫-42A]_-;_-* &quot;-&quot;\ [$₫-42A]_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,8 +298,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,12 +328,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF4F4F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,11 +389,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -501,19 +500,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -522,13 +509,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -870,8 +855,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,188 +1045,190 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>6</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="41">
-        <v>100000</v>
-      </c>
-      <c r="E5" s="41">
-        <v>100000</v>
-      </c>
-      <c r="F5" s="41">
+        <v>4</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="28">
+        <v>200000</v>
+      </c>
+      <c r="E5" s="28">
+        <f>40000</f>
+        <v>40000</v>
+      </c>
+      <c r="F5" s="28">
         <f t="shared" ref="F5" si="2">(D5+I5)-E5</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="41">
-        <v>0</v>
-      </c>
-      <c r="H5" s="42">
-        <v>0</v>
-      </c>
-      <c r="I5" s="41">
+        <v>160000</v>
+      </c>
+      <c r="G5" s="28">
+        <v>0</v>
+      </c>
+      <c r="H5" s="29">
+        <v>0</v>
+      </c>
+      <c r="I5" s="28">
         <f t="shared" ref="I5" si="3">D5*H5</f>
         <v>0</v>
       </c>
-      <c r="J5" s="43">
-        <v>46016</v>
-      </c>
-      <c r="K5" s="43">
-        <v>46022</v>
-      </c>
-      <c r="L5" s="43"/>
-      <c r="M5" s="40" t="s">
-        <v>58</v>
+      <c r="J5" s="4">
+        <v>46018</v>
+      </c>
+      <c r="K5" s="4">
+        <v>46024</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>7</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="41">
-        <v>20000</v>
-      </c>
-      <c r="E6" s="41">
-        <v>20000</v>
-      </c>
-      <c r="F6" s="41">
+        <v>5</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="28">
+        <v>100000</v>
+      </c>
+      <c r="E6" s="28">
+        <v>0</v>
+      </c>
+      <c r="F6" s="28">
         <f t="shared" ref="F6" si="4">(D6+I6)-E6</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="41">
-        <v>0</v>
-      </c>
-      <c r="H6" s="42">
-        <v>0</v>
-      </c>
-      <c r="I6" s="41">
+        <v>100000</v>
+      </c>
+      <c r="G6" s="28">
+        <v>0</v>
+      </c>
+      <c r="H6" s="29">
+        <v>0</v>
+      </c>
+      <c r="I6" s="28">
         <f t="shared" ref="I6" si="5">D6*H6</f>
         <v>0</v>
       </c>
-      <c r="J6" s="43">
-        <v>46016</v>
-      </c>
-      <c r="K6" s="43">
-        <v>46022</v>
-      </c>
-      <c r="L6" s="43"/>
-      <c r="M6" s="40" t="s">
-        <v>58</v>
+      <c r="J6" s="4">
+        <v>46019</v>
+      </c>
+      <c r="K6" s="4">
+        <v>46025</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>8</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="41">
-        <v>50000</v>
-      </c>
-      <c r="E7" s="41">
-        <v>50000</v>
-      </c>
-      <c r="F7" s="41">
+        <v>6</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="28">
+        <v>100000</v>
+      </c>
+      <c r="E7" s="28">
+        <v>80000</v>
+      </c>
+      <c r="F7" s="28">
         <f t="shared" ref="F7" si="6">(D7+I7)-E7</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="41">
-        <v>0</v>
-      </c>
-      <c r="H7" s="42">
-        <v>0</v>
-      </c>
-      <c r="I7" s="41">
+        <v>20000</v>
+      </c>
+      <c r="G7" s="28">
+        <v>0</v>
+      </c>
+      <c r="H7" s="29">
+        <v>0</v>
+      </c>
+      <c r="I7" s="28">
         <f t="shared" ref="I7" si="7">D7*H7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="43">
-        <v>46016</v>
-      </c>
-      <c r="K7" s="43">
-        <v>46022</v>
-      </c>
-      <c r="L7" s="43"/>
-      <c r="M7" s="40" t="s">
-        <v>58</v>
+      <c r="J7" s="4">
+        <v>46019</v>
+      </c>
+      <c r="K7" s="4">
+        <v>46025</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>10</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="41">
-        <v>20000</v>
-      </c>
-      <c r="E8" s="41">
-        <v>20000</v>
-      </c>
-      <c r="F8" s="41">
+        <v>7</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="28">
+        <v>350000</v>
+      </c>
+      <c r="E8" s="28">
+        <f>(240000-75000)+25000</f>
+        <v>190000</v>
+      </c>
+      <c r="F8" s="28">
         <f t="shared" ref="F8" si="8">(D8+I8)-E8</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="41">
-        <v>0</v>
-      </c>
-      <c r="H8" s="42">
-        <v>0</v>
-      </c>
-      <c r="I8" s="41">
+        <v>160000</v>
+      </c>
+      <c r="G8" s="28">
+        <v>0</v>
+      </c>
+      <c r="H8" s="29">
+        <v>0</v>
+      </c>
+      <c r="I8" s="28">
         <f t="shared" ref="I8" si="9">D8*H8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="43">
-        <v>46017</v>
-      </c>
-      <c r="K8" s="43">
-        <v>46022</v>
-      </c>
-      <c r="L8" s="43"/>
-      <c r="M8" s="40" t="s">
-        <v>58</v>
+      <c r="J8" s="4">
+        <v>46020</v>
+      </c>
+      <c r="K8" s="4">
+        <v>46026</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D9" s="28">
-        <v>200000</v>
+        <f>50000+50000+20000</f>
+        <v>120000</v>
       </c>
       <c r="E9" s="28">
-        <f>40000</f>
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="28">
-        <f t="shared" ref="F9" si="10">(D9+I9)-E9</f>
-        <v>160000</v>
+        <f t="shared" ref="F9:F10" si="10">(D9+I9)-E9</f>
+        <v>120000</v>
       </c>
       <c r="G9" s="28">
         <v>0</v>
@@ -1250,14 +1237,14 @@
         <v>0</v>
       </c>
       <c r="I9" s="28">
-        <f t="shared" ref="I9" si="11">D9*H9</f>
+        <f t="shared" ref="I9:I10" si="11">D9*H9</f>
         <v>0</v>
       </c>
       <c r="J9" s="4">
-        <v>46018</v>
+        <v>46021</v>
       </c>
       <c r="K9" s="4">
-        <v>46024</v>
+        <v>46027</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="1" t="s">
@@ -1266,23 +1253,23 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D10" s="28">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="E10" s="28">
         <v>0</v>
       </c>
       <c r="F10" s="28">
-        <f t="shared" ref="F10" si="12">(D10+I10)-E10</f>
-        <v>100000</v>
+        <f t="shared" si="10"/>
+        <v>50000</v>
       </c>
       <c r="G10" s="28">
         <v>0</v>
@@ -1291,14 +1278,14 @@
         <v>0</v>
       </c>
       <c r="I10" s="28">
-        <f t="shared" ref="I10" si="13">D10*H10</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J10" s="4">
-        <v>46019</v>
+        <v>46021</v>
       </c>
       <c r="K10" s="4">
-        <v>46025</v>
+        <v>46027</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="1" t="s">
@@ -1307,23 +1294,23 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>58</v>
       </c>
       <c r="D11" s="28">
-        <v>100000</v>
+        <v>12000</v>
       </c>
       <c r="E11" s="28">
-        <v>80000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="28">
-        <f t="shared" ref="F11" si="14">(D11+I11)-E11</f>
-        <v>20000</v>
+        <f t="shared" ref="F11" si="12">(D11+I11)-E11</f>
+        <v>12000</v>
       </c>
       <c r="G11" s="28">
         <v>0</v>
@@ -1332,14 +1319,14 @@
         <v>0</v>
       </c>
       <c r="I11" s="28">
-        <f t="shared" ref="I11" si="15">D11*H11</f>
+        <f t="shared" ref="I11" si="13">D11*H11</f>
         <v>0</v>
       </c>
       <c r="J11" s="4">
-        <v>46019</v>
+        <v>46021</v>
       </c>
       <c r="K11" s="4">
-        <v>46025</v>
+        <v>46027</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="1" t="s">
@@ -1348,106 +1335,105 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>15</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="41">
-        <v>100000</v>
-      </c>
-      <c r="E12" s="41">
-        <v>100000</v>
-      </c>
-      <c r="F12" s="41">
-        <f t="shared" ref="F12" si="16">(D12+I12)-E12</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="41">
-        <v>0</v>
-      </c>
-      <c r="H12" s="42">
-        <v>0</v>
-      </c>
-      <c r="I12" s="41">
-        <f t="shared" ref="I12" si="17">D12*H12</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="43">
-        <v>46019</v>
-      </c>
-      <c r="K12" s="43">
+        <v>11</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="28">
+        <v>2000</v>
+      </c>
+      <c r="E12" s="28">
+        <v>0</v>
+      </c>
+      <c r="F12" s="28">
+        <f t="shared" ref="F12" si="14">(D12+I12)-E12</f>
+        <v>2000</v>
+      </c>
+      <c r="G12" s="28">
+        <v>0</v>
+      </c>
+      <c r="H12" s="29">
+        <v>0</v>
+      </c>
+      <c r="I12" s="28">
+        <f t="shared" ref="I12" si="15">D12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
         <v>46022</v>
       </c>
-      <c r="L12" s="43"/>
-      <c r="M12" s="40" t="s">
-        <v>58</v>
+      <c r="K12" s="4">
+        <v>46028</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>16</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="41">
-        <v>50000</v>
-      </c>
-      <c r="E13" s="41">
-        <v>50000</v>
-      </c>
-      <c r="F13" s="41">
-        <f t="shared" ref="F13" si="18">(D13+I13)-E13</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="41">
-        <v>0</v>
-      </c>
-      <c r="H13" s="42">
-        <v>0</v>
-      </c>
-      <c r="I13" s="41">
-        <f t="shared" ref="I13" si="19">D13*H13</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="43">
-        <v>46020</v>
-      </c>
-      <c r="K13" s="43">
+        <v>12</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="28">
+        <v>20000</v>
+      </c>
+      <c r="E13" s="28">
+        <v>0</v>
+      </c>
+      <c r="F13" s="28">
+        <f t="shared" ref="F13" si="16">(D13+I13)-E13</f>
+        <v>20000</v>
+      </c>
+      <c r="G13" s="28">
+        <v>0</v>
+      </c>
+      <c r="H13" s="29">
+        <v>0</v>
+      </c>
+      <c r="I13" s="28">
+        <f t="shared" ref="I13" si="17">D13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
         <v>46022</v>
       </c>
-      <c r="L13" s="43"/>
-      <c r="M13" s="40" t="s">
-        <v>58</v>
+      <c r="K13" s="4">
+        <v>46028</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="D14" s="28">
-        <v>350000</v>
+        <v>20000</v>
       </c>
       <c r="E14" s="28">
-        <f>(240000-75000)+25000</f>
-        <v>190000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="28">
-        <f t="shared" ref="F14" si="20">(D14+I14)-E14</f>
-        <v>160000</v>
+        <f t="shared" ref="F14" si="18">(D14+I14)-E14</f>
+        <v>20000</v>
       </c>
       <c r="G14" s="28">
         <v>0</v>
@@ -1456,14 +1442,14 @@
         <v>0</v>
       </c>
       <c r="I14" s="28">
-        <f t="shared" ref="I14" si="21">D14*H14</f>
+        <f t="shared" ref="I14" si="19">D14*H14</f>
         <v>0</v>
       </c>
       <c r="J14" s="4">
-        <v>46020</v>
+        <v>46023</v>
       </c>
       <c r="K14" s="4">
-        <v>46026</v>
+        <v>46029</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="1" t="s">
@@ -1471,107 +1457,106 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="46">
-        <v>18</v>
-      </c>
-      <c r="B15" s="39" t="s">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="28">
+        <v>100000</v>
+      </c>
+      <c r="E15" s="28">
+        <v>0</v>
+      </c>
+      <c r="F15" s="28">
+        <f t="shared" ref="F15" si="20">(D15+I15)-E15</f>
+        <v>100000</v>
+      </c>
+      <c r="G15" s="28">
+        <v>0</v>
+      </c>
+      <c r="H15" s="29">
+        <v>0</v>
+      </c>
+      <c r="I15" s="28">
+        <f t="shared" ref="I15" si="21">D15*H15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <v>46023</v>
+      </c>
+      <c r="K15" s="4">
+        <v>46029</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="41">
-        <v>350000</v>
-      </c>
-      <c r="E15" s="41">
-        <v>350000</v>
-      </c>
-      <c r="F15" s="41">
-        <f t="shared" ref="F15" si="22">(D15+I15)-E15</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="41">
-        <v>0</v>
-      </c>
-      <c r="H15" s="42">
-        <v>0</v>
-      </c>
-      <c r="I15" s="41">
-        <f t="shared" ref="I15" si="23">D15*H15</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="43">
-        <v>46020</v>
-      </c>
-      <c r="K15" s="43">
-        <v>46022</v>
-      </c>
-      <c r="L15" s="43"/>
-      <c r="M15" s="40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="46">
-        <v>19</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="41">
-        <v>50000</v>
-      </c>
-      <c r="E16" s="41">
-        <v>50000</v>
-      </c>
-      <c r="F16" s="41">
-        <f t="shared" ref="F16" si="24">(D16+I16)-E16</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="41">
-        <v>0</v>
-      </c>
-      <c r="H16" s="42">
-        <v>0</v>
-      </c>
-      <c r="I16" s="41">
-        <f t="shared" ref="I16" si="25">D16*H16</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="43">
-        <v>46021</v>
-      </c>
-      <c r="K16" s="43">
-        <v>46022</v>
-      </c>
-      <c r="L16" s="43"/>
-      <c r="M16" s="40" t="s">
-        <v>58</v>
+      <c r="D16" s="28">
+        <v>500000</v>
+      </c>
+      <c r="E16" s="28">
+        <v>0</v>
+      </c>
+      <c r="F16" s="28">
+        <f t="shared" ref="F16" si="22">(D16+I16)-E16</f>
+        <v>500000</v>
+      </c>
+      <c r="G16" s="28">
+        <v>0</v>
+      </c>
+      <c r="H16" s="29">
+        <v>0</v>
+      </c>
+      <c r="I16" s="28">
+        <f t="shared" ref="I16" si="23">D16*H16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>46023</v>
+      </c>
+      <c r="K16" s="4">
+        <v>46029</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="D17" s="28">
-        <f>50000+50000+20000</f>
-        <v>120000</v>
+        <v>20000</v>
       </c>
       <c r="E17" s="28">
         <v>0</v>
       </c>
       <c r="F17" s="28">
-        <f t="shared" ref="F17:F18" si="26">(D17+I17)-E17</f>
-        <v>120000</v>
+        <f t="shared" ref="F17" si="24">(D17+I17)-E17</f>
+        <v>20000</v>
       </c>
       <c r="G17" s="28">
         <v>0</v>
@@ -1580,14 +1565,14 @@
         <v>0</v>
       </c>
       <c r="I17" s="28">
-        <f t="shared" ref="I17:I18" si="27">D17*H17</f>
+        <f t="shared" ref="I17" si="25">D17*H17</f>
         <v>0</v>
       </c>
       <c r="J17" s="4">
-        <v>46021</v>
+        <v>46023</v>
       </c>
       <c r="K17" s="4">
-        <v>46027</v>
+        <v>46029</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="1" t="s">
@@ -1596,23 +1581,23 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D18" s="28">
-        <v>50000</v>
+        <v>200000</v>
       </c>
       <c r="E18" s="28">
         <v>0</v>
       </c>
       <c r="F18" s="28">
-        <f t="shared" si="26"/>
-        <v>50000</v>
+        <f t="shared" ref="F18" si="26">(D18+I18)-E18</f>
+        <v>200000</v>
       </c>
       <c r="G18" s="28">
         <v>0</v>
@@ -1621,14 +1606,14 @@
         <v>0</v>
       </c>
       <c r="I18" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="I18" si="27">D18*H18</f>
         <v>0</v>
       </c>
       <c r="J18" s="4">
-        <v>46021</v>
+        <v>46023</v>
       </c>
       <c r="K18" s="4">
-        <v>46027</v>
+        <v>46029</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="1" t="s">
@@ -1637,89 +1622,41 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>22</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="28">
-        <v>12000</v>
-      </c>
-      <c r="E19" s="28">
-        <v>0</v>
-      </c>
-      <c r="F19" s="28">
-        <f t="shared" ref="F19" si="28">(D19+I19)-E19</f>
-        <v>12000</v>
-      </c>
-      <c r="G19" s="28">
-        <v>0</v>
-      </c>
-      <c r="H19" s="29">
-        <v>0</v>
-      </c>
-      <c r="I19" s="28">
-        <f t="shared" ref="I19" si="29">D19*H19</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <v>46021</v>
-      </c>
-      <c r="K19" s="4">
-        <v>46027</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>23</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="28">
-        <v>2000</v>
-      </c>
-      <c r="E20" s="28">
-        <v>0</v>
-      </c>
-      <c r="F20" s="28">
-        <f t="shared" ref="F20" si="30">(D20+I20)-E20</f>
-        <v>2000</v>
-      </c>
-      <c r="G20" s="28">
-        <v>0</v>
-      </c>
-      <c r="H20" s="29">
-        <v>0</v>
-      </c>
-      <c r="I20" s="28">
-        <f t="shared" ref="I20" si="31">D20*H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <v>46022</v>
-      </c>
-      <c r="K20" s="4">
-        <v>46028</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="1"/>
@@ -1736,7 +1673,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="1"/>
@@ -1753,7 +1690,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="1"/>
@@ -1770,7 +1707,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="1"/>
@@ -1787,7 +1724,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B25" s="24"/>
       <c r="C25" s="1"/>
@@ -1804,7 +1741,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B26" s="24"/>
       <c r="C26" s="1"/>
@@ -1824,33 +1761,33 @@
         <v>33</v>
       </c>
       <c r="C27" s="34"/>
-      <c r="D27" s="45" t="s">
+      <c r="D27" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D28" s="44" t="s">
+      <c r="D28" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="44"/>
+      <c r="E28" s="40"/>
       <c r="F28" s="35">
         <f>SUM(D2:D26)</f>
-        <v>2084000</v>
+        <v>2204000</v>
       </c>
       <c r="G28" s="36"/>
       <c r="J28" s="36"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D29" s="44" t="s">
+      <c r="D29" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="44"/>
+      <c r="E29" s="40"/>
       <c r="F29" s="35">
         <f>SUM(E2:E26)</f>
-        <v>1065000</v>
+        <v>325000</v>
       </c>
       <c r="G29" s="36"/>
       <c r="M29" s="25" t="s">
@@ -1858,13 +1795,13 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D30" s="44" t="s">
+      <c r="D30" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="44"/>
+      <c r="E30" s="40"/>
       <c r="F30" s="35">
         <f>-SUM(F2:F26)</f>
-        <v>-1106500</v>
+        <v>-1966500</v>
       </c>
       <c r="G30" s="36"/>
     </row>
@@ -1905,10 +1842,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA131776-2E13-4A0E-8D22-F638A9EA7E4B}">
-  <dimension ref="A1:D131"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="H125" sqref="H125"/>
+    <sheetView topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="G135" sqref="G135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3572,32 +3509,194 @@
         <v>12000</v>
       </c>
       <c r="D127" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="21"/>
-      <c r="B128" s="19"/>
-      <c r="C128" s="20"/>
-      <c r="D128" s="22"/>
+      <c r="A128" s="21">
+        <v>46022</v>
+      </c>
+      <c r="B128" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C128" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D128" s="22" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="129" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="21"/>
-      <c r="B129" s="19"/>
-      <c r="C129" s="20"/>
-      <c r="D129" s="22"/>
+      <c r="A129" s="21">
+        <v>46023</v>
+      </c>
+      <c r="B129" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D129" s="22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="130" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="21"/>
-      <c r="B130" s="19"/>
-      <c r="C130" s="20"/>
-      <c r="D130" s="22"/>
+      <c r="A130" s="21">
+        <v>46023</v>
+      </c>
+      <c r="B130" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C130" s="20">
+        <v>500000</v>
+      </c>
+      <c r="D130" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="131" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="21"/>
-      <c r="B131" s="19"/>
-      <c r="C131" s="20"/>
-      <c r="D131" s="22"/>
+      <c r="A131" s="21">
+        <v>46023</v>
+      </c>
+      <c r="B131" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C131" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D131" s="22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A132" s="21">
+        <v>46023</v>
+      </c>
+      <c r="B132" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C132" s="20">
+        <v>200000</v>
+      </c>
+      <c r="D132" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A133" s="21">
+        <v>46023</v>
+      </c>
+      <c r="B133" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C133" s="20">
+        <v>100000</v>
+      </c>
+      <c r="D133" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A134" s="21"/>
+      <c r="B134" s="19"/>
+      <c r="C134" s="20"/>
+      <c r="D134" s="22"/>
+    </row>
+    <row r="135" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="21"/>
+      <c r="B135" s="19"/>
+      <c r="C135" s="20"/>
+      <c r="D135" s="22"/>
+    </row>
+    <row r="136" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="21"/>
+      <c r="B136" s="19"/>
+      <c r="C136" s="20"/>
+      <c r="D136" s="22"/>
+    </row>
+    <row r="137" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A137" s="21"/>
+      <c r="B137" s="19"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="22"/>
+    </row>
+    <row r="138" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A138" s="21"/>
+      <c r="B138" s="19"/>
+      <c r="C138" s="20"/>
+      <c r="D138" s="22"/>
+    </row>
+    <row r="139" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A139" s="21"/>
+      <c r="B139" s="19"/>
+      <c r="C139" s="20"/>
+      <c r="D139" s="22"/>
+    </row>
+    <row r="140" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="21"/>
+      <c r="B140" s="19"/>
+      <c r="C140" s="20"/>
+      <c r="D140" s="22"/>
+    </row>
+    <row r="141" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="21"/>
+      <c r="B141" s="19"/>
+      <c r="C141" s="20"/>
+      <c r="D141" s="22"/>
+    </row>
+    <row r="142" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="21"/>
+      <c r="B142" s="19"/>
+      <c r="C142" s="20"/>
+      <c r="D142" s="22"/>
+    </row>
+    <row r="143" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="21"/>
+      <c r="B143" s="19"/>
+      <c r="C143" s="20"/>
+      <c r="D143" s="22"/>
+    </row>
+    <row r="144" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="21"/>
+      <c r="B144" s="19"/>
+      <c r="C144" s="20"/>
+      <c r="D144" s="22"/>
+    </row>
+    <row r="145" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="21"/>
+      <c r="B145" s="19"/>
+      <c r="C145" s="20"/>
+      <c r="D145" s="22"/>
+    </row>
+    <row r="146" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="21"/>
+      <c r="B146" s="19"/>
+      <c r="C146" s="20"/>
+      <c r="D146" s="22"/>
+    </row>
+    <row r="147" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="21"/>
+      <c r="B147" s="19"/>
+      <c r="C147" s="20"/>
+      <c r="D147" s="22"/>
+    </row>
+    <row r="148" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A148" s="21"/>
+      <c r="B148" s="19"/>
+      <c r="C148" s="20"/>
+      <c r="D148" s="22"/>
+    </row>
+    <row r="149" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A149" s="21"/>
+      <c r="B149" s="19"/>
+      <c r="C149" s="20"/>
+      <c r="D149" s="22"/>
+    </row>
+    <row r="150" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="21"/>
+      <c r="B150" s="19"/>
+      <c r="C150" s="20"/>
+      <c r="D150" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D102" xr:uid="{CA131776-2E13-4A0E-8D22-F638A9EA7E4B}"/>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F995428-62E6-490A-AE20-B336DBA85C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87491E64-E539-4A64-9C9B-68F4200A4C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" activeTab="1" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
   <sheets>
     <sheet name="DANH SÁCH NỢ" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="62">
   <si>
     <t>STT</t>
   </si>
@@ -855,8 +855,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,18 +1624,42 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="B19" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="28">
+        <v>15000</v>
+      </c>
+      <c r="E19" s="28">
+        <v>0</v>
+      </c>
+      <c r="F19" s="28">
+        <f t="shared" ref="F19" si="28">(D19+I19)-E19</f>
+        <v>15000</v>
+      </c>
+      <c r="G19" s="28">
+        <v>0</v>
+      </c>
+      <c r="H19" s="29">
+        <v>0</v>
+      </c>
+      <c r="I19" s="28">
+        <f t="shared" ref="I19" si="29">D19*H19</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <v>46023</v>
+      </c>
+      <c r="K19" s="4">
+        <v>46029</v>
+      </c>
       <c r="L19" s="4"/>
-      <c r="M19" s="1"/>
+      <c r="M19" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -1775,7 +1799,7 @@
       <c r="E28" s="40"/>
       <c r="F28" s="35">
         <f>SUM(D2:D26)</f>
-        <v>2204000</v>
+        <v>2219000</v>
       </c>
       <c r="G28" s="36"/>
       <c r="J28" s="36"/>
@@ -1801,7 +1825,7 @@
       <c r="E30" s="40"/>
       <c r="F30" s="35">
         <f>-SUM(F2:F26)</f>
-        <v>-1966500</v>
+        <v>-1981500</v>
       </c>
       <c r="G30" s="36"/>
     </row>
@@ -1844,8 +1868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA131776-2E13-4A0E-8D22-F638A9EA7E4B}">
   <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="G135" sqref="G135"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="D135" sqref="D135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3597,10 +3621,18 @@
       </c>
     </row>
     <row r="134" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="21"/>
-      <c r="B134" s="19"/>
-      <c r="C134" s="20"/>
-      <c r="D134" s="22"/>
+      <c r="A134" s="21">
+        <v>46023</v>
+      </c>
+      <c r="B134" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C134" s="20">
+        <v>15000</v>
+      </c>
+      <c r="D134" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="135" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A135" s="21"/>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87491E64-E539-4A64-9C9B-68F4200A4C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C740EE-7A6F-4A57-AC4E-87A8792F036F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" activeTab="1" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
   <sheets>
     <sheet name="DANH SÁCH NỢ" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="62">
   <si>
     <t>STT</t>
   </si>
@@ -855,8 +855,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1665,35 +1665,83 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="B20" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="28">
+        <v>20000</v>
+      </c>
+      <c r="E20" s="28">
+        <v>0</v>
+      </c>
+      <c r="F20" s="28">
+        <f t="shared" ref="F20:F21" si="30">(D20+I20)-E20</f>
+        <v>20000</v>
+      </c>
+      <c r="G20" s="28">
+        <v>0</v>
+      </c>
+      <c r="H20" s="29">
+        <v>0</v>
+      </c>
+      <c r="I20" s="28">
+        <f t="shared" ref="I20:I21" si="31">D20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>46024</v>
+      </c>
+      <c r="K20" s="4">
+        <v>46030</v>
+      </c>
       <c r="L20" s="4"/>
-      <c r="M20" s="1"/>
+      <c r="M20" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="B21" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="28">
+        <v>75000</v>
+      </c>
+      <c r="E21" s="28">
+        <v>0</v>
+      </c>
+      <c r="F21" s="28">
+        <f t="shared" si="30"/>
+        <v>75000</v>
+      </c>
+      <c r="G21" s="28">
+        <v>0</v>
+      </c>
+      <c r="H21" s="29">
+        <v>0</v>
+      </c>
+      <c r="I21" s="28">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>46024</v>
+      </c>
+      <c r="K21" s="4">
+        <v>46030</v>
+      </c>
       <c r="L21" s="4"/>
-      <c r="M21" s="1"/>
+      <c r="M21" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -1799,7 +1847,7 @@
       <c r="E28" s="40"/>
       <c r="F28" s="35">
         <f>SUM(D2:D26)</f>
-        <v>2219000</v>
+        <v>2314000</v>
       </c>
       <c r="G28" s="36"/>
       <c r="J28" s="36"/>
@@ -1825,7 +1873,7 @@
       <c r="E30" s="40"/>
       <c r="F30" s="35">
         <f>-SUM(F2:F26)</f>
-        <v>-1981500</v>
+        <v>-2076500</v>
       </c>
       <c r="G30" s="36"/>
     </row>
@@ -1868,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA131776-2E13-4A0E-8D22-F638A9EA7E4B}">
   <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="D135" sqref="D135"/>
+    <sheetView topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3635,16 +3683,32 @@
       </c>
     </row>
     <row r="135" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="21"/>
-      <c r="B135" s="19"/>
-      <c r="C135" s="20"/>
-      <c r="D135" s="22"/>
+      <c r="A135" s="21">
+        <v>46024</v>
+      </c>
+      <c r="B135" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C135" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D135" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="136" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="21"/>
-      <c r="B136" s="19"/>
-      <c r="C136" s="20"/>
-      <c r="D136" s="22"/>
+      <c r="A136" s="21">
+        <v>46024</v>
+      </c>
+      <c r="B136" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C136" s="20">
+        <v>75000</v>
+      </c>
+      <c r="D136" s="22" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="137" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A137" s="21"/>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20C740EE-7A6F-4A57-AC4E-87A8792F036F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F954D2A-6C06-4B74-A7A7-6BA717CF13BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="63">
   <si>
     <t>STT</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>Nợ</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -394,7 +397,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -508,6 +511,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -855,8 +861,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1747,41 +1753,91 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+      <c r="B22" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="28">
+        <v>20000</v>
+      </c>
+      <c r="E22" s="28">
+        <v>0</v>
+      </c>
+      <c r="F22" s="28">
+        <f t="shared" ref="F22:F23" si="32">(D22+I22)-E22</f>
+        <v>20000</v>
+      </c>
+      <c r="G22" s="28">
+        <v>0</v>
+      </c>
+      <c r="H22" s="29">
+        <v>0</v>
+      </c>
+      <c r="I22" s="28">
+        <f t="shared" ref="I22:I23" si="33">D22*H22</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>46024</v>
+      </c>
+      <c r="K22" s="4">
+        <v>46030</v>
+      </c>
       <c r="L22" s="4"/>
-      <c r="M22" s="1"/>
+      <c r="M22" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
+      <c r="B23" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="28">
+        <v>20000</v>
+      </c>
+      <c r="E23" s="28">
+        <v>0</v>
+      </c>
+      <c r="F23" s="28">
+        <f t="shared" si="32"/>
+        <v>20000</v>
+      </c>
+      <c r="G23" s="28">
+        <v>0</v>
+      </c>
+      <c r="H23" s="29">
+        <v>0</v>
+      </c>
+      <c r="I23" s="28">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
+        <v>46024</v>
+      </c>
+      <c r="K23" s="4">
+        <v>46030</v>
+      </c>
       <c r="L23" s="4"/>
-      <c r="M23" s="1"/>
+      <c r="M23" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="24"/>
+      <c r="B24" s="42" t="s">
+        <v>62</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
@@ -1847,7 +1903,7 @@
       <c r="E28" s="40"/>
       <c r="F28" s="35">
         <f>SUM(D2:D26)</f>
-        <v>2314000</v>
+        <v>2354000</v>
       </c>
       <c r="G28" s="36"/>
       <c r="J28" s="36"/>
@@ -1873,7 +1929,7 @@
       <c r="E30" s="40"/>
       <c r="F30" s="35">
         <f>-SUM(F2:F26)</f>
-        <v>-2076500</v>
+        <v>-2116500</v>
       </c>
       <c r="G30" s="36"/>
     </row>
@@ -1916,8 +1972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA131776-2E13-4A0E-8D22-F638A9EA7E4B}">
   <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="D137" sqref="D137"/>
+    <sheetView topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3711,16 +3767,32 @@
       </c>
     </row>
     <row r="137" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="21"/>
-      <c r="B137" s="19"/>
-      <c r="C137" s="20"/>
-      <c r="D137" s="22"/>
+      <c r="A137" s="21">
+        <v>46024</v>
+      </c>
+      <c r="B137" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C137" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D137" s="22" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="138" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="21"/>
-      <c r="B138" s="19"/>
-      <c r="C138" s="20"/>
-      <c r="D138" s="22"/>
+      <c r="A138" s="21">
+        <v>46024</v>
+      </c>
+      <c r="B138" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C138" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D138" s="22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="139" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A139" s="21"/>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F954D2A-6C06-4B74-A7A7-6BA717CF13BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEBDAFE-981E-43BE-BC81-0B62E7A7FD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="THỐNG KÊ NẠP" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DANH SÁCH NỢ'!$A$1:$M$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DANH SÁCH NỢ'!$A$1:$M$37</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'THỐNG KÊ NẠP'!$A$1:$U$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'THONG KE NAP '!$A$1:$D$102</definedName>
   </definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="62">
   <si>
     <t>STT</t>
   </si>
@@ -229,9 +229,6 @@
   </si>
   <si>
     <t>Nợ</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -506,14 +503,14 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -859,10 +856,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1835,20 +1832,42 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
+      <c r="B24" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="28">
+        <v>60000</v>
+      </c>
+      <c r="E24" s="28">
+        <v>0</v>
+      </c>
+      <c r="F24" s="28">
+        <f t="shared" ref="F24" si="34">(D24+I24)-E24</f>
+        <v>60000</v>
+      </c>
+      <c r="G24" s="28">
+        <v>0</v>
+      </c>
+      <c r="H24" s="29">
+        <v>0</v>
+      </c>
+      <c r="I24" s="28">
+        <f t="shared" ref="I24" si="35">D24*H24</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>46025</v>
+      </c>
+      <c r="K24" s="4">
+        <v>46031</v>
+      </c>
       <c r="L24" s="4"/>
-      <c r="M24" s="1"/>
+      <c r="M24" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -1873,95 +1892,214 @@
       </c>
       <c r="B26" s="24"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
-      <c r="M26" s="24"/>
-    </row>
-    <row r="27" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="B27" s="34" t="s">
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="24"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="24"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="24"/>
+    </row>
+    <row r="34" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="B34" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="41" t="s">
+      <c r="C34" s="34"/>
+      <c r="D34" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D28" s="40" t="s">
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D35" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="35">
-        <f>SUM(D2:D26)</f>
-        <v>2354000</v>
-      </c>
-      <c r="G28" s="36"/>
-      <c r="J28" s="36"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D29" s="40" t="s">
+      <c r="E35" s="41"/>
+      <c r="F35" s="35">
+        <f>SUM(D2:D33)</f>
+        <v>2414000</v>
+      </c>
+      <c r="G35" s="36"/>
+      <c r="J35" s="36"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D36" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="35">
-        <f>SUM(E2:E26)</f>
+      <c r="E36" s="41"/>
+      <c r="F36" s="35">
+        <f>SUM(E2:E33)</f>
         <v>325000</v>
       </c>
-      <c r="G29" s="36"/>
-      <c r="M29" s="25" t="s">
+      <c r="G36" s="36"/>
+      <c r="M36" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D30" s="40" t="s">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D37" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="40"/>
-      <c r="F30" s="35">
-        <f>-SUM(F2:F26)</f>
-        <v>-2116500</v>
-      </c>
-      <c r="G30" s="36"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-    </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-    </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-    </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F35" s="36"/>
-    </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F36" s="36"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="35">
+        <f>-SUM(F2:F33)</f>
+        <v>-2176500</v>
+      </c>
+      <c r="G37" s="36"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F42" s="36"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F43" s="36"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M30" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}"/>
+  <autoFilter ref="A1:M37" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}"/>
   <mergeCells count="4">
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D34:G34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D27" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
+    <hyperlink ref="D34" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1973,7 +2111,7 @@
   <dimension ref="A1:D150"/>
   <sheetViews>
     <sheetView topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="A139" sqref="A139"/>
+      <selection activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3795,10 +3933,18 @@
       </c>
     </row>
     <row r="139" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="21"/>
-      <c r="B139" s="19"/>
-      <c r="C139" s="20"/>
-      <c r="D139" s="22"/>
+      <c r="A139" s="21">
+        <v>46025</v>
+      </c>
+      <c r="B139" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" s="20">
+        <v>60000</v>
+      </c>
+      <c r="D139" s="22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="140" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A140" s="21"/>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEEBDAFE-981E-43BE-BC81-0B62E7A7FD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49CA4C4-7AE3-411F-A695-C055A65F31FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="62">
   <si>
     <t>STT</t>
   </si>
@@ -858,8 +858,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,23 +941,23 @@
       </c>
       <c r="F2" s="32">
         <f>(D2+I2)-E2</f>
-        <v>437500</v>
+        <v>455000</v>
       </c>
       <c r="G2" s="32">
         <v>0</v>
       </c>
       <c r="H2" s="33">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="I2" s="32">
         <f>(D2*H2)</f>
-        <v>87500</v>
+        <v>105000</v>
       </c>
       <c r="J2" s="16">
         <v>45984</v>
       </c>
       <c r="K2" s="16">
-        <v>46025</v>
+        <v>46032</v>
       </c>
       <c r="L2" s="16"/>
       <c r="M2" s="15" t="s">
@@ -1050,41 +1050,39 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="30">
         <v>200000</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="30">
         <f>40000</f>
         <v>40000</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="30">
         <f t="shared" ref="F5" si="2">(D5+I5)-E5</f>
         <v>160000</v>
       </c>
-      <c r="G5" s="28">
-        <v>0</v>
-      </c>
-      <c r="H5" s="29">
-        <v>0</v>
-      </c>
-      <c r="I5" s="28">
+      <c r="G5" s="30">
+        <v>0</v>
+      </c>
+      <c r="H5" s="31">
+        <v>0</v>
+      </c>
+      <c r="I5" s="30">
         <f t="shared" ref="I5" si="3">D5*H5</f>
         <v>0</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="8">
         <v>46018</v>
       </c>
-      <c r="K5" s="4">
-        <v>46024</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="1" t="s">
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1092,40 +1090,38 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="30">
         <v>100000</v>
       </c>
-      <c r="E6" s="28">
-        <v>0</v>
-      </c>
-      <c r="F6" s="28">
+      <c r="E6" s="30">
+        <v>0</v>
+      </c>
+      <c r="F6" s="30">
         <f t="shared" ref="F6" si="4">(D6+I6)-E6</f>
         <v>100000</v>
       </c>
-      <c r="G6" s="28">
-        <v>0</v>
-      </c>
-      <c r="H6" s="29">
-        <v>0</v>
-      </c>
-      <c r="I6" s="28">
+      <c r="G6" s="30">
+        <v>0</v>
+      </c>
+      <c r="H6" s="31">
+        <v>0</v>
+      </c>
+      <c r="I6" s="30">
         <f t="shared" ref="I6" si="5">D6*H6</f>
         <v>0</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="8">
         <v>46019</v>
       </c>
-      <c r="K6" s="4">
-        <v>46025</v>
-      </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="1" t="s">
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1133,40 +1129,38 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="30">
         <v>100000</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="30">
         <v>80000</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="30">
         <f t="shared" ref="F7" si="6">(D7+I7)-E7</f>
         <v>20000</v>
       </c>
-      <c r="G7" s="28">
-        <v>0</v>
-      </c>
-      <c r="H7" s="29">
-        <v>0</v>
-      </c>
-      <c r="I7" s="28">
+      <c r="G7" s="30">
+        <v>0</v>
+      </c>
+      <c r="H7" s="31">
+        <v>0</v>
+      </c>
+      <c r="I7" s="30">
         <f t="shared" ref="I7" si="7">D7*H7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="8">
         <v>46019</v>
       </c>
-      <c r="K7" s="4">
-        <v>46025</v>
-      </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="1" t="s">
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1873,18 +1867,42 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
+      <c r="B25" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="28">
+        <v>80000</v>
+      </c>
+      <c r="E25" s="28">
+        <v>0</v>
+      </c>
+      <c r="F25" s="28">
+        <f t="shared" ref="F25" si="36">(D25+I25)-E25</f>
+        <v>80000</v>
+      </c>
+      <c r="G25" s="28">
+        <v>0</v>
+      </c>
+      <c r="H25" s="29">
+        <v>0</v>
+      </c>
+      <c r="I25" s="28">
+        <f t="shared" ref="I25" si="37">D25*H25</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>46026</v>
+      </c>
+      <c r="K25" s="4">
+        <v>46032</v>
+      </c>
       <c r="L25" s="4"/>
-      <c r="M25" s="1"/>
+      <c r="M25" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -2041,7 +2059,7 @@
       <c r="E35" s="41"/>
       <c r="F35" s="35">
         <f>SUM(D2:D33)</f>
-        <v>2414000</v>
+        <v>2494000</v>
       </c>
       <c r="G35" s="36"/>
       <c r="J35" s="36"/>
@@ -2067,7 +2085,7 @@
       <c r="E37" s="41"/>
       <c r="F37" s="35">
         <f>-SUM(F2:F33)</f>
-        <v>-2176500</v>
+        <v>-2274000</v>
       </c>
       <c r="G37" s="36"/>
     </row>
@@ -2110,8 +2128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA131776-2E13-4A0E-8D22-F638A9EA7E4B}">
   <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="D140" sqref="D140"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="D141" sqref="D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3947,10 +3965,18 @@
       </c>
     </row>
     <row r="140" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="21"/>
-      <c r="B140" s="19"/>
-      <c r="C140" s="20"/>
-      <c r="D140" s="22"/>
+      <c r="A140" s="21">
+        <v>46026</v>
+      </c>
+      <c r="B140" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C140" s="20">
+        <v>80000</v>
+      </c>
+      <c r="D140" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="141" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A141" s="21"/>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49CA4C4-7AE3-411F-A695-C055A65F31FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351BD819-8614-4F8C-9777-7D3E883C711C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="63">
   <si>
     <t>STT</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>Nợ</t>
+  </si>
+  <si>
+    <t>Đã trả đủ</t>
   </si>
 </sst>
 </file>
@@ -306,7 +309,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,6 +331,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF4F4F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,7 +403,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -500,9 +509,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -511,6 +517,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -858,8 +882,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Q43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,7 +901,7 @@
     <col min="12" max="12" width="13.28515625" style="25" customWidth="1"/>
     <col min="13" max="13" width="15.7109375" style="25" customWidth="1"/>
     <col min="14" max="14" width="9.5703125" style="25" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="25"/>
+    <col min="15" max="15" width="10.42578125" style="25" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.5703125" style="25" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="25"/>
   </cols>
@@ -1011,39 +1035,41 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="44">
         <v>30000</v>
       </c>
-      <c r="E4" s="30">
-        <v>0</v>
-      </c>
-      <c r="F4" s="30">
+      <c r="E4" s="44">
+        <v>30000</v>
+      </c>
+      <c r="F4" s="44">
         <f>(D4+I4)-E4</f>
-        <v>30000</v>
-      </c>
-      <c r="G4" s="30">
-        <v>0</v>
-      </c>
-      <c r="H4" s="31">
-        <v>0</v>
-      </c>
-      <c r="I4" s="30">
+        <v>0</v>
+      </c>
+      <c r="G4" s="44">
+        <v>0</v>
+      </c>
+      <c r="H4" s="45">
+        <v>0</v>
+      </c>
+      <c r="I4" s="44">
         <f>D4*H4</f>
         <v>0</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="46">
         <v>45987</v>
       </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="7" t="s">
-        <v>14</v>
+      <c r="K4" s="46">
+        <v>46027</v>
+      </c>
+      <c r="L4" s="46"/>
+      <c r="M4" s="43" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1060,12 +1086,12 @@
         <v>200000</v>
       </c>
       <c r="E5" s="30">
-        <f>40000</f>
-        <v>40000</v>
+        <f>40000+120000</f>
+        <v>160000</v>
       </c>
       <c r="F5" s="30">
         <f t="shared" ref="F5" si="2">(D5+I5)-E5</f>
-        <v>160000</v>
+        <v>40000</v>
       </c>
       <c r="G5" s="30">
         <v>0</v>
@@ -1129,205 +1155,209 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="44">
         <v>100000</v>
       </c>
-      <c r="E7" s="30">
-        <v>80000</v>
-      </c>
-      <c r="F7" s="30">
+      <c r="E7" s="44">
+        <f>80000+20000</f>
+        <v>100000</v>
+      </c>
+      <c r="F7" s="44">
         <f t="shared" ref="F7" si="6">(D7+I7)-E7</f>
-        <v>20000</v>
-      </c>
-      <c r="G7" s="30">
-        <v>0</v>
-      </c>
-      <c r="H7" s="31">
-        <v>0</v>
-      </c>
-      <c r="I7" s="30">
+        <v>0</v>
+      </c>
+      <c r="G7" s="44">
+        <v>0</v>
+      </c>
+      <c r="H7" s="45">
+        <v>0</v>
+      </c>
+      <c r="I7" s="44">
         <f t="shared" ref="I7" si="7">D7*H7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="46">
         <v>46019</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="7" t="s">
-        <v>14</v>
+      <c r="K7" s="46">
+        <v>46027</v>
+      </c>
+      <c r="L7" s="46"/>
+      <c r="M7" s="43" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="44">
         <v>350000</v>
       </c>
-      <c r="E8" s="28">
-        <f>(240000-75000)+25000</f>
-        <v>190000</v>
-      </c>
-      <c r="F8" s="28">
+      <c r="E8" s="44">
+        <f>(240000-75000)+25000+160000</f>
+        <v>350000</v>
+      </c>
+      <c r="F8" s="44">
         <f t="shared" ref="F8" si="8">(D8+I8)-E8</f>
-        <v>160000</v>
-      </c>
-      <c r="G8" s="28">
-        <v>0</v>
-      </c>
-      <c r="H8" s="29">
-        <v>0</v>
-      </c>
-      <c r="I8" s="28">
+        <v>0</v>
+      </c>
+      <c r="G8" s="44">
+        <v>0</v>
+      </c>
+      <c r="H8" s="45">
+        <v>0</v>
+      </c>
+      <c r="I8" s="44">
         <f t="shared" ref="I8" si="9">D8*H8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="46">
         <v>46020</v>
       </c>
-      <c r="K8" s="4">
-        <v>46026</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="1" t="s">
-        <v>14</v>
+      <c r="K8" s="46">
+        <v>46027</v>
+      </c>
+      <c r="L8" s="46"/>
+      <c r="M8" s="43" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="44">
         <f>50000+50000+20000</f>
         <v>120000</v>
       </c>
-      <c r="E9" s="28">
-        <v>0</v>
-      </c>
-      <c r="F9" s="28">
+      <c r="E9" s="44">
+        <v>120000</v>
+      </c>
+      <c r="F9" s="44">
         <f t="shared" ref="F9:F10" si="10">(D9+I9)-E9</f>
-        <v>120000</v>
-      </c>
-      <c r="G9" s="28">
-        <v>0</v>
-      </c>
-      <c r="H9" s="29">
-        <v>0</v>
-      </c>
-      <c r="I9" s="28">
+        <v>0</v>
+      </c>
+      <c r="G9" s="44">
+        <v>0</v>
+      </c>
+      <c r="H9" s="45">
+        <v>0</v>
+      </c>
+      <c r="I9" s="44">
         <f t="shared" ref="I9:I10" si="11">D9*H9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="46">
         <v>46021</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="46">
         <v>46027</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="L9" s="46"/>
+      <c r="M9" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="O9" s="35"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="44">
         <v>50000</v>
       </c>
-      <c r="E10" s="28">
-        <v>0</v>
-      </c>
-      <c r="F10" s="28">
+      <c r="E10" s="44">
+        <v>50000</v>
+      </c>
+      <c r="F10" s="44">
         <f t="shared" si="10"/>
-        <v>50000</v>
-      </c>
-      <c r="G10" s="28">
-        <v>0</v>
-      </c>
-      <c r="H10" s="29">
-        <v>0</v>
-      </c>
-      <c r="I10" s="28">
+        <v>0</v>
+      </c>
+      <c r="G10" s="44">
+        <v>0</v>
+      </c>
+      <c r="H10" s="45">
+        <v>0</v>
+      </c>
+      <c r="I10" s="44">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="46">
         <v>46021</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="46">
         <v>46027</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="1" t="s">
-        <v>14</v>
+      <c r="L10" s="46"/>
+      <c r="M10" s="43" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="44">
         <v>12000</v>
       </c>
-      <c r="E11" s="28">
-        <v>0</v>
-      </c>
-      <c r="F11" s="28">
+      <c r="E11" s="44">
+        <v>12000</v>
+      </c>
+      <c r="F11" s="44">
         <f t="shared" ref="F11" si="12">(D11+I11)-E11</f>
-        <v>12000</v>
-      </c>
-      <c r="G11" s="28">
-        <v>0</v>
-      </c>
-      <c r="H11" s="29">
-        <v>0</v>
-      </c>
-      <c r="I11" s="28">
+        <v>0</v>
+      </c>
+      <c r="G11" s="44">
+        <v>0</v>
+      </c>
+      <c r="H11" s="45">
+        <v>0</v>
+      </c>
+      <c r="I11" s="44">
         <f t="shared" ref="I11" si="13">D11*H11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="46">
         <v>46021</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="46">
         <v>46027</v>
       </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="1" t="s">
-        <v>14</v>
+      <c r="L11" s="46"/>
+      <c r="M11" s="43" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1376,7 +1406,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>49</v>
@@ -1467,11 +1497,11 @@
         <v>100000</v>
       </c>
       <c r="E15" s="28">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="F15" s="28">
         <f t="shared" ref="F15" si="20">(D15+I15)-E15</f>
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="G15" s="28">
         <v>0</v>
@@ -1498,41 +1528,41 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="44">
         <v>500000</v>
       </c>
-      <c r="E16" s="28">
-        <v>0</v>
-      </c>
-      <c r="F16" s="28">
+      <c r="E16" s="44">
+        <v>500000</v>
+      </c>
+      <c r="F16" s="44">
         <f t="shared" ref="F16" si="22">(D16+I16)-E16</f>
-        <v>500000</v>
-      </c>
-      <c r="G16" s="28">
-        <v>0</v>
-      </c>
-      <c r="H16" s="29">
-        <v>0</v>
-      </c>
-      <c r="I16" s="28">
+        <v>0</v>
+      </c>
+      <c r="G16" s="44">
+        <v>0</v>
+      </c>
+      <c r="H16" s="45">
+        <v>0</v>
+      </c>
+      <c r="I16" s="44">
         <f t="shared" ref="I16" si="23">D16*H16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="46">
         <v>46023</v>
       </c>
-      <c r="K16" s="4">
-        <v>46029</v>
-      </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="1" t="s">
-        <v>14</v>
+      <c r="K16" s="46">
+        <v>46027</v>
+      </c>
+      <c r="L16" s="46"/>
+      <c r="M16" s="43" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1580,41 +1610,41 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="44">
         <v>200000</v>
       </c>
-      <c r="E18" s="28">
-        <v>0</v>
-      </c>
-      <c r="F18" s="28">
+      <c r="E18" s="44">
+        <v>200000</v>
+      </c>
+      <c r="F18" s="44">
         <f t="shared" ref="F18" si="26">(D18+I18)-E18</f>
-        <v>200000</v>
-      </c>
-      <c r="G18" s="28">
-        <v>0</v>
-      </c>
-      <c r="H18" s="29">
-        <v>0</v>
-      </c>
-      <c r="I18" s="28">
+        <v>0</v>
+      </c>
+      <c r="G18" s="44">
+        <v>0</v>
+      </c>
+      <c r="H18" s="45">
+        <v>0</v>
+      </c>
+      <c r="I18" s="44">
         <f t="shared" ref="I18" si="27">D18*H18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="46">
         <v>46023</v>
       </c>
-      <c r="K18" s="4">
-        <v>46029</v>
-      </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="1" t="s">
-        <v>14</v>
+      <c r="K18" s="46">
+        <v>46027</v>
+      </c>
+      <c r="L18" s="46"/>
+      <c r="M18" s="43" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1703,130 +1733,130 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="28">
+      <c r="D21" s="44">
         <v>75000</v>
       </c>
-      <c r="E21" s="28">
-        <v>0</v>
-      </c>
-      <c r="F21" s="28">
+      <c r="E21" s="44">
+        <v>75000</v>
+      </c>
+      <c r="F21" s="44">
         <f t="shared" si="30"/>
-        <v>75000</v>
-      </c>
-      <c r="G21" s="28">
-        <v>0</v>
-      </c>
-      <c r="H21" s="29">
-        <v>0</v>
-      </c>
-      <c r="I21" s="28">
+        <v>0</v>
+      </c>
+      <c r="G21" s="44">
+        <v>0</v>
+      </c>
+      <c r="H21" s="45">
+        <v>0</v>
+      </c>
+      <c r="I21" s="44">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="46">
         <v>46024</v>
       </c>
-      <c r="K21" s="4">
-        <v>46030</v>
-      </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="1" t="s">
-        <v>14</v>
+      <c r="K21" s="46">
+        <v>46027</v>
+      </c>
+      <c r="L21" s="46"/>
+      <c r="M21" s="43" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="D22" s="28">
-        <v>20000</v>
-      </c>
-      <c r="E22" s="28">
-        <v>0</v>
-      </c>
-      <c r="F22" s="28">
+      <c r="D22" s="44">
+        <v>20000</v>
+      </c>
+      <c r="E22" s="44">
+        <v>20000</v>
+      </c>
+      <c r="F22" s="44">
         <f t="shared" ref="F22:F23" si="32">(D22+I22)-E22</f>
-        <v>20000</v>
-      </c>
-      <c r="G22" s="28">
-        <v>0</v>
-      </c>
-      <c r="H22" s="29">
-        <v>0</v>
-      </c>
-      <c r="I22" s="28">
+        <v>0</v>
+      </c>
+      <c r="G22" s="44">
+        <v>0</v>
+      </c>
+      <c r="H22" s="45">
+        <v>0</v>
+      </c>
+      <c r="I22" s="44">
         <f t="shared" ref="I22:I23" si="33">D22*H22</f>
         <v>0</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="46">
         <v>46024</v>
       </c>
-      <c r="K22" s="4">
-        <v>46030</v>
-      </c>
-      <c r="L22" s="4"/>
-      <c r="M22" s="1" t="s">
-        <v>14</v>
+      <c r="K22" s="46">
+        <v>46027</v>
+      </c>
+      <c r="L22" s="46"/>
+      <c r="M22" s="43" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="28">
-        <v>20000</v>
-      </c>
-      <c r="E23" s="28">
-        <v>0</v>
-      </c>
-      <c r="F23" s="28">
+      <c r="D23" s="44">
+        <v>20000</v>
+      </c>
+      <c r="E23" s="44">
+        <v>20000</v>
+      </c>
+      <c r="F23" s="44">
         <f t="shared" si="32"/>
-        <v>20000</v>
-      </c>
-      <c r="G23" s="28">
-        <v>0</v>
-      </c>
-      <c r="H23" s="29">
-        <v>0</v>
-      </c>
-      <c r="I23" s="28">
+        <v>0</v>
+      </c>
+      <c r="G23" s="44">
+        <v>0</v>
+      </c>
+      <c r="H23" s="45">
+        <v>0</v>
+      </c>
+      <c r="I23" s="44">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="46">
         <v>46024</v>
       </c>
-      <c r="K23" s="4">
-        <v>46030</v>
-      </c>
-      <c r="L23" s="4"/>
-      <c r="M23" s="1" t="s">
-        <v>14</v>
+      <c r="K23" s="46">
+        <v>46027</v>
+      </c>
+      <c r="L23" s="46"/>
+      <c r="M23" s="43" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="39" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -2045,18 +2075,18 @@
         <v>33</v>
       </c>
       <c r="C34" s="34"/>
-      <c r="D34" s="42" t="s">
+      <c r="D34" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D35" s="41" t="s">
+      <c r="D35" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="41"/>
+      <c r="E35" s="40"/>
       <c r="F35" s="35">
         <f>SUM(D2:D33)</f>
         <v>2494000</v>
@@ -2065,13 +2095,13 @@
       <c r="J35" s="36"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D36" s="41" t="s">
+      <c r="D36" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="41"/>
+      <c r="E36" s="40"/>
       <c r="F36" s="35">
         <f>SUM(E2:E33)</f>
-        <v>325000</v>
+        <v>1672000</v>
       </c>
       <c r="G36" s="36"/>
       <c r="M36" s="25" t="s">
@@ -2079,13 +2109,13 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D37" s="41" t="s">
+      <c r="D37" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="41"/>
+      <c r="E37" s="40"/>
       <c r="F37" s="35">
         <f>-SUM(F2:F33)</f>
-        <v>-2274000</v>
+        <v>-927000</v>
       </c>
       <c r="G37" s="36"/>
     </row>
@@ -2128,8 +2158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA131776-2E13-4A0E-8D22-F638A9EA7E4B}">
   <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="D141" sqref="D141"/>
+    <sheetView topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3801,7 +3831,7 @@
         <v>46022</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C128" s="20">
         <v>20000</v>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351BD819-8614-4F8C-9777-7D3E883C711C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435EFFD7-2504-4672-A273-6302238AEED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" activeTab="1" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
   <sheets>
     <sheet name="DANH SÁCH NỢ" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="THỐNG KÊ NẠP" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DANH SÁCH NỢ'!$A$1:$M$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DANH SÁCH NỢ'!$A$1:$M$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'THỐNG KÊ NẠP'!$A$1:$U$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'THONG KE NAP '!$A$1:$D$102</definedName>
   </definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="63">
   <si>
     <t>STT</t>
   </si>
@@ -219,9 +219,6 @@
     <t>Nạp sò</t>
   </si>
   <si>
-    <t xml:space="preserve">Phụ thu đổi thẻ Zing </t>
-  </si>
-  <si>
     <t>Phụ thu đổi thẻ Zing</t>
   </si>
   <si>
@@ -229,6 +226,9 @@
   </si>
   <si>
     <t>Nợ</t>
+  </si>
+  <si>
+    <t>Trương Gia Hân</t>
   </si>
   <si>
     <t>Đã trả đủ</t>
@@ -244,7 +244,7 @@
     <numFmt numFmtId="166" formatCode="_-* #,##0.000\ [$₫-42A]_-;\-* #,##0.000\ [$₫-42A]_-;_-* &quot;-&quot;???\ [$₫-42A]_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0\ [$₫-42A]_-;\-* #,##0\ [$₫-42A]_-;_-* &quot;-&quot;\ [$₫-42A]_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,13 +300,6 @@
       <color rgb="FF1F1F1F"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -398,12 +391,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -509,15 +501,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -533,14 +516,16 @@
     <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -880,10 +865,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,7 +966,7 @@
         <v>45984</v>
       </c>
       <c r="K2" s="16">
-        <v>46032</v>
+        <v>46039</v>
       </c>
       <c r="L2" s="16"/>
       <c r="M2" s="15" t="s">
@@ -1035,80 +1020,80 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="44">
-        <v>30000</v>
-      </c>
-      <c r="E4" s="44">
-        <v>30000</v>
-      </c>
-      <c r="F4" s="44">
-        <f>(D4+I4)-E4</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="44">
-        <v>0</v>
-      </c>
-      <c r="H4" s="45">
-        <v>0</v>
-      </c>
-      <c r="I4" s="44">
-        <f>D4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="46">
-        <v>45987</v>
-      </c>
-      <c r="K4" s="46">
-        <v>46027</v>
-      </c>
-      <c r="L4" s="46"/>
-      <c r="M4" s="43" t="s">
-        <v>62</v>
+      <c r="B4" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="30">
+        <v>100000</v>
+      </c>
+      <c r="E4" s="30">
+        <f>(40000-15000)+23000+50000+2000</f>
+        <v>100000</v>
+      </c>
+      <c r="F4" s="30">
+        <f t="shared" ref="F4" si="2">(D4+I4)-E4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="30">
+        <v>0</v>
+      </c>
+      <c r="H4" s="31">
+        <v>0</v>
+      </c>
+      <c r="I4" s="30">
+        <f t="shared" ref="I4" si="3">D4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>46019</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="30">
-        <v>200000</v>
-      </c>
-      <c r="E5" s="30">
-        <f>40000+120000</f>
-        <v>160000</v>
-      </c>
-      <c r="F5" s="30">
-        <f t="shared" ref="F5" si="2">(D5+I5)-E5</f>
-        <v>40000</v>
-      </c>
-      <c r="G5" s="30">
-        <v>0</v>
-      </c>
-      <c r="H5" s="31">
-        <v>0</v>
-      </c>
-      <c r="I5" s="30">
-        <f t="shared" ref="I5" si="3">D5*H5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="8">
-        <v>46018</v>
-      </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="7" t="s">
+      <c r="B5" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="28">
+        <v>2000</v>
+      </c>
+      <c r="E5" s="28">
+        <v>0</v>
+      </c>
+      <c r="F5" s="28">
+        <f t="shared" ref="F5" si="4">(D5+I5)-E5</f>
+        <v>2100</v>
+      </c>
+      <c r="G5" s="28">
+        <v>0</v>
+      </c>
+      <c r="H5" s="29">
+        <v>0.05</v>
+      </c>
+      <c r="I5" s="28">
+        <f t="shared" ref="I5" si="5">D5*H5</f>
+        <v>100</v>
+      </c>
+      <c r="J5" s="4">
+        <v>46022</v>
+      </c>
+      <c r="K5" s="4">
+        <v>46035</v>
+      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1116,38 +1101,40 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="30">
-        <v>100000</v>
-      </c>
-      <c r="E6" s="30">
-        <v>0</v>
-      </c>
-      <c r="F6" s="30">
-        <f t="shared" ref="F6" si="4">(D6+I6)-E6</f>
-        <v>100000</v>
-      </c>
-      <c r="G6" s="30">
-        <v>0</v>
-      </c>
-      <c r="H6" s="31">
-        <v>0</v>
-      </c>
-      <c r="I6" s="30">
-        <f t="shared" ref="I6" si="5">D6*H6</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
-        <v>46019</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="7" t="s">
+      <c r="B6" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="28">
+        <v>5000</v>
+      </c>
+      <c r="E6" s="28">
+        <v>0</v>
+      </c>
+      <c r="F6" s="28">
+        <f t="shared" ref="F6" si="6">(D6+I6)-E6</f>
+        <v>5000</v>
+      </c>
+      <c r="G6" s="28">
+        <v>0</v>
+      </c>
+      <c r="H6" s="29">
+        <v>0</v>
+      </c>
+      <c r="I6" s="28">
+        <f t="shared" ref="I6" si="7">D6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>46029</v>
+      </c>
+      <c r="K6" s="4">
+        <v>46035</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1155,83 +1142,82 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="43" t="s">
+      <c r="B7" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="44">
-        <v>100000</v>
-      </c>
-      <c r="E7" s="44">
-        <f>80000+20000</f>
-        <v>100000</v>
-      </c>
-      <c r="F7" s="44">
-        <f t="shared" ref="F7" si="6">(D7+I7)-E7</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="44">
-        <v>0</v>
-      </c>
-      <c r="H7" s="45">
-        <v>0</v>
-      </c>
-      <c r="I7" s="44">
-        <f t="shared" ref="I7" si="7">D7*H7</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="46">
-        <v>46019</v>
-      </c>
-      <c r="K7" s="46">
-        <v>46027</v>
-      </c>
-      <c r="L7" s="46"/>
-      <c r="M7" s="43" t="s">
-        <v>62</v>
+      <c r="D7" s="28">
+        <v>50000</v>
+      </c>
+      <c r="E7" s="28">
+        <v>0</v>
+      </c>
+      <c r="F7" s="28">
+        <f t="shared" ref="F7" si="8">(D7+I7)-E7</f>
+        <v>50000</v>
+      </c>
+      <c r="G7" s="28">
+        <v>0</v>
+      </c>
+      <c r="H7" s="29">
+        <v>0</v>
+      </c>
+      <c r="I7" s="28">
+        <f t="shared" ref="I7" si="9">D7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>46031</v>
+      </c>
+      <c r="K7" s="4">
+        <v>46037</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="44">
-        <v>350000</v>
-      </c>
-      <c r="E8" s="44">
-        <f>(240000-75000)+25000+160000</f>
-        <v>350000</v>
-      </c>
-      <c r="F8" s="44">
-        <f t="shared" ref="F8" si="8">(D8+I8)-E8</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="44">
-        <v>0</v>
-      </c>
-      <c r="H8" s="45">
-        <v>0</v>
-      </c>
-      <c r="I8" s="44">
-        <f t="shared" ref="I8" si="9">D8*H8</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="46">
-        <v>46020</v>
-      </c>
-      <c r="K8" s="46">
-        <v>46027</v>
-      </c>
-      <c r="L8" s="46"/>
-      <c r="M8" s="43" t="s">
+      <c r="B8" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="41">
+        <v>20000</v>
+      </c>
+      <c r="E8" s="41">
+        <f>10000+10000</f>
+        <v>20000</v>
+      </c>
+      <c r="F8" s="41">
+        <f t="shared" ref="F8" si="10">(D8+I8)-E8</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="41">
+        <v>0</v>
+      </c>
+      <c r="H8" s="42">
+        <v>0</v>
+      </c>
+      <c r="I8" s="41">
+        <f t="shared" ref="I8" si="11">D8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="43">
+        <v>46031</v>
+      </c>
+      <c r="K8" s="43">
+        <v>46037</v>
+      </c>
+      <c r="L8" s="43"/>
+      <c r="M8" s="40" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1239,124 +1225,122 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="44">
-        <f>50000+50000+20000</f>
-        <v>120000</v>
-      </c>
-      <c r="E9" s="44">
-        <v>120000</v>
-      </c>
-      <c r="F9" s="44">
-        <f t="shared" ref="F9:F10" si="10">(D9+I9)-E9</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="44">
-        <v>0</v>
-      </c>
-      <c r="H9" s="45">
-        <v>0</v>
-      </c>
-      <c r="I9" s="44">
-        <f t="shared" ref="I9:I10" si="11">D9*H9</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="46">
-        <v>46021</v>
-      </c>
-      <c r="K9" s="46">
-        <v>46027</v>
-      </c>
-      <c r="L9" s="46"/>
-      <c r="M9" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="O9" s="35"/>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="28">
+        <v>20000</v>
+      </c>
+      <c r="E9" s="28">
+        <v>0</v>
+      </c>
+      <c r="F9" s="28">
+        <f t="shared" ref="F9" si="12">(D9+I9)-E9</f>
+        <v>20000</v>
+      </c>
+      <c r="G9" s="28">
+        <v>0</v>
+      </c>
+      <c r="H9" s="29">
+        <v>0</v>
+      </c>
+      <c r="I9" s="28">
+        <f t="shared" ref="I9" si="13">D9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>46032</v>
+      </c>
+      <c r="K9" s="4">
+        <v>46038</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="44">
-        <v>50000</v>
-      </c>
-      <c r="E10" s="44">
-        <v>50000</v>
-      </c>
-      <c r="F10" s="44">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="44">
-        <v>0</v>
-      </c>
-      <c r="H10" s="45">
-        <v>0</v>
-      </c>
-      <c r="I10" s="44">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="46">
-        <v>46021</v>
-      </c>
-      <c r="K10" s="46">
-        <v>46027</v>
-      </c>
-      <c r="L10" s="46"/>
-      <c r="M10" s="43" t="s">
-        <v>62</v>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="28">
+        <v>100000</v>
+      </c>
+      <c r="E10" s="28">
+        <v>0</v>
+      </c>
+      <c r="F10" s="28">
+        <f t="shared" ref="F10" si="14">(D10+I10)-E10</f>
+        <v>100000</v>
+      </c>
+      <c r="G10" s="28">
+        <v>0</v>
+      </c>
+      <c r="H10" s="29">
+        <v>0</v>
+      </c>
+      <c r="I10" s="28">
+        <f t="shared" ref="I10" si="15">D10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>46033</v>
+      </c>
+      <c r="K10" s="4">
+        <v>46039</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="44">
-        <v>12000</v>
-      </c>
-      <c r="E11" s="44">
-        <v>12000</v>
-      </c>
-      <c r="F11" s="44">
-        <f t="shared" ref="F11" si="12">(D11+I11)-E11</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="44">
-        <v>0</v>
-      </c>
-      <c r="H11" s="45">
-        <v>0</v>
-      </c>
-      <c r="I11" s="44">
-        <f t="shared" ref="I11" si="13">D11*H11</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="46">
-        <v>46021</v>
-      </c>
-      <c r="K11" s="46">
-        <v>46027</v>
-      </c>
-      <c r="L11" s="46"/>
-      <c r="M11" s="43" t="s">
+      <c r="B11" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="41">
+        <v>20000</v>
+      </c>
+      <c r="E11" s="41">
+        <v>20000</v>
+      </c>
+      <c r="F11" s="41">
+        <f t="shared" ref="F11" si="16">(D11+I11)-E11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="41">
+        <v>0</v>
+      </c>
+      <c r="H11" s="42">
+        <v>0</v>
+      </c>
+      <c r="I11" s="41">
+        <f t="shared" ref="I11" si="17">D11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="43">
+        <v>46033</v>
+      </c>
+      <c r="K11" s="43">
+        <v>46037</v>
+      </c>
+      <c r="L11" s="43"/>
+      <c r="M11" s="40" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1365,20 +1349,21 @@
         <v>11</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="D12" s="28">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="E12" s="28">
-        <v>0</v>
+        <f>15000-7000</f>
+        <v>8000</v>
       </c>
       <c r="F12" s="28">
-        <f t="shared" ref="F12" si="14">(D12+I12)-E12</f>
-        <v>2000</v>
+        <f t="shared" ref="F12" si="18">(D12+I12)-E12</f>
+        <v>12000</v>
       </c>
       <c r="G12" s="28">
         <v>0</v>
@@ -1387,14 +1372,14 @@
         <v>0</v>
       </c>
       <c r="I12" s="28">
-        <f t="shared" ref="I12" si="15">D12*H12</f>
+        <f t="shared" ref="I12" si="19">D12*H12</f>
         <v>0</v>
       </c>
       <c r="J12" s="4">
-        <v>46022</v>
+        <v>46035</v>
       </c>
       <c r="K12" s="4">
-        <v>46028</v>
+        <v>46041</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="1" t="s">
@@ -1406,7 +1391,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>49</v>
@@ -1418,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="28">
-        <f t="shared" ref="F13" si="16">(D13+I13)-E13</f>
+        <f t="shared" ref="F13" si="20">(D13+I13)-E13</f>
         <v>20000</v>
       </c>
       <c r="G13" s="28">
@@ -1428,14 +1413,14 @@
         <v>0</v>
       </c>
       <c r="I13" s="28">
-        <f t="shared" ref="I13" si="17">D13*H13</f>
+        <f t="shared" ref="I13" si="21">D13*H13</f>
         <v>0</v>
       </c>
       <c r="J13" s="4">
-        <v>46022</v>
+        <v>46036</v>
       </c>
       <c r="K13" s="4">
-        <v>46028</v>
+        <v>46042</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="1" t="s">
@@ -1447,20 +1432,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D14" s="28">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="E14" s="28">
         <v>0</v>
       </c>
       <c r="F14" s="28">
-        <f t="shared" ref="F14" si="18">(D14+I14)-E14</f>
-        <v>20000</v>
+        <f t="shared" ref="F14" si="22">(D14+I14)-E14</f>
+        <v>50000</v>
       </c>
       <c r="G14" s="28">
         <v>0</v>
@@ -1469,14 +1454,14 @@
         <v>0</v>
       </c>
       <c r="I14" s="28">
-        <f t="shared" ref="I14" si="19">D14*H14</f>
+        <f t="shared" ref="I14" si="23">D14*H14</f>
         <v>0</v>
       </c>
       <c r="J14" s="4">
-        <v>46023</v>
+        <v>46036</v>
       </c>
       <c r="K14" s="4">
-        <v>46029</v>
+        <v>46042</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="1" t="s">
@@ -1488,20 +1473,20 @@
         <v>14</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D15" s="28">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="E15" s="28">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="28">
-        <f t="shared" ref="F15" si="20">(D15+I15)-E15</f>
-        <v>80000</v>
+        <f t="shared" ref="F15:F16" si="24">(D15+I15)-E15</f>
+        <v>120000</v>
       </c>
       <c r="G15" s="28">
         <v>0</v>
@@ -1510,14 +1495,14 @@
         <v>0</v>
       </c>
       <c r="I15" s="28">
-        <f t="shared" ref="I15" si="21">D15*H15</f>
+        <f t="shared" ref="I15:I16" si="25">D15*H15</f>
         <v>0</v>
       </c>
       <c r="J15" s="4">
-        <v>46023</v>
+        <v>46037</v>
       </c>
       <c r="K15" s="4">
-        <v>46029</v>
+        <v>46043</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="1" t="s">
@@ -1528,41 +1513,43 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="44">
-        <v>500000</v>
-      </c>
-      <c r="E16" s="44">
-        <v>500000</v>
-      </c>
-      <c r="F16" s="44">
-        <f t="shared" ref="F16" si="22">(D16+I16)-E16</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="44">
-        <v>0</v>
-      </c>
-      <c r="H16" s="45">
-        <v>0</v>
-      </c>
-      <c r="I16" s="44">
-        <f t="shared" ref="I16" si="23">D16*H16</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="46">
-        <v>46023</v>
-      </c>
-      <c r="K16" s="46">
-        <v>46027</v>
-      </c>
-      <c r="L16" s="46"/>
-      <c r="M16" s="43" t="s">
-        <v>62</v>
+      <c r="B16" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="28">
+        <f>100000+20000+10000</f>
+        <v>130000</v>
+      </c>
+      <c r="E16" s="28">
+        <f>10000</f>
+        <v>10000</v>
+      </c>
+      <c r="F16" s="28">
+        <f t="shared" si="24"/>
+        <v>120000</v>
+      </c>
+      <c r="G16" s="28">
+        <v>0</v>
+      </c>
+      <c r="H16" s="29">
+        <v>0</v>
+      </c>
+      <c r="I16" s="28">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>46037</v>
+      </c>
+      <c r="K16" s="4">
+        <v>46043</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1570,20 +1557,20 @@
         <v>16</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="D17" s="28">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="E17" s="28">
         <v>0</v>
       </c>
       <c r="F17" s="28">
-        <f t="shared" ref="F17" si="24">(D17+I17)-E17</f>
-        <v>20000</v>
+        <f t="shared" ref="F17" si="26">(D17+I17)-E17</f>
+        <v>50000</v>
       </c>
       <c r="G17" s="28">
         <v>0</v>
@@ -1592,14 +1579,14 @@
         <v>0</v>
       </c>
       <c r="I17" s="28">
-        <f t="shared" ref="I17" si="25">D17*H17</f>
+        <f t="shared" ref="I17" si="27">D17*H17</f>
         <v>0</v>
       </c>
       <c r="J17" s="4">
-        <v>46023</v>
+        <v>46037</v>
       </c>
       <c r="K17" s="4">
-        <v>46029</v>
+        <v>46043</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="1" t="s">
@@ -1610,544 +1597,131 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="44">
-        <v>200000</v>
-      </c>
-      <c r="E18" s="44">
-        <v>200000</v>
-      </c>
-      <c r="F18" s="44">
-        <f t="shared" ref="F18" si="26">(D18+I18)-E18</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="44">
-        <v>0</v>
-      </c>
-      <c r="H18" s="45">
-        <v>0</v>
-      </c>
-      <c r="I18" s="44">
-        <f t="shared" ref="I18" si="27">D18*H18</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="46">
-        <v>46023</v>
-      </c>
-      <c r="K18" s="46">
-        <v>46027</v>
-      </c>
-      <c r="L18" s="46"/>
-      <c r="M18" s="43" t="s">
-        <v>62</v>
-      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="28">
-        <v>15000</v>
-      </c>
-      <c r="E19" s="28">
-        <v>0</v>
-      </c>
-      <c r="F19" s="28">
-        <f t="shared" ref="F19" si="28">(D19+I19)-E19</f>
-        <v>15000</v>
-      </c>
-      <c r="G19" s="28">
-        <v>0</v>
-      </c>
-      <c r="H19" s="29">
-        <v>0</v>
-      </c>
-      <c r="I19" s="28">
-        <f t="shared" ref="I19" si="29">D19*H19</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <v>46023</v>
-      </c>
-      <c r="K19" s="4">
-        <v>46029</v>
-      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="28">
-        <v>20000</v>
-      </c>
-      <c r="E20" s="28">
-        <v>0</v>
-      </c>
-      <c r="F20" s="28">
-        <f t="shared" ref="F20:F21" si="30">(D20+I20)-E20</f>
-        <v>20000</v>
-      </c>
-      <c r="G20" s="28">
-        <v>0</v>
-      </c>
-      <c r="H20" s="29">
-        <v>0</v>
-      </c>
-      <c r="I20" s="28">
-        <f t="shared" ref="I20:I21" si="31">D20*H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <v>46024</v>
-      </c>
-      <c r="K20" s="4">
-        <v>46030</v>
-      </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="44">
-        <v>75000</v>
-      </c>
-      <c r="E21" s="44">
-        <v>75000</v>
-      </c>
-      <c r="F21" s="44">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="44">
-        <v>0</v>
-      </c>
-      <c r="H21" s="45">
-        <v>0</v>
-      </c>
-      <c r="I21" s="44">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="46">
-        <v>46024</v>
-      </c>
-      <c r="K21" s="46">
-        <v>46027</v>
-      </c>
-      <c r="L21" s="46"/>
-      <c r="M21" s="43" t="s">
-        <v>62</v>
-      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="24"/>
+    </row>
+    <row r="21" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="B21" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="34"/>
+      <c r="D21" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="44">
-        <v>20000</v>
-      </c>
-      <c r="E22" s="44">
-        <v>20000</v>
-      </c>
-      <c r="F22" s="44">
-        <f t="shared" ref="F22:F23" si="32">(D22+I22)-E22</f>
-        <v>0</v>
-      </c>
-      <c r="G22" s="44">
-        <v>0</v>
-      </c>
-      <c r="H22" s="45">
-        <v>0</v>
-      </c>
-      <c r="I22" s="44">
-        <f t="shared" ref="I22:I23" si="33">D22*H22</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="46">
-        <v>46024</v>
-      </c>
-      <c r="K22" s="46">
-        <v>46027</v>
-      </c>
-      <c r="L22" s="46"/>
-      <c r="M22" s="43" t="s">
-        <v>62</v>
-      </c>
+      <c r="D22" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="44"/>
+      <c r="F22" s="35">
+        <f>SUM(D2:D20)</f>
+        <v>1087000</v>
+      </c>
+      <c r="G22" s="36"/>
+      <c r="J22" s="36"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="44">
-        <v>20000</v>
-      </c>
-      <c r="E23" s="44">
-        <v>20000</v>
-      </c>
-      <c r="F23" s="44">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="44">
-        <v>0</v>
-      </c>
-      <c r="H23" s="45">
-        <v>0</v>
-      </c>
-      <c r="I23" s="44">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="46">
-        <v>46024</v>
-      </c>
-      <c r="K23" s="46">
-        <v>46027</v>
-      </c>
-      <c r="L23" s="46"/>
-      <c r="M23" s="43" t="s">
-        <v>62</v>
+      <c r="D23" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="44"/>
+      <c r="F23" s="35">
+        <f>SUM(E2:E20)</f>
+        <v>173000</v>
+      </c>
+      <c r="G23" s="36"/>
+      <c r="M23" s="25" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="28">
-        <v>60000</v>
-      </c>
-      <c r="E24" s="28">
-        <v>0</v>
-      </c>
-      <c r="F24" s="28">
-        <f t="shared" ref="F24" si="34">(D24+I24)-E24</f>
-        <v>60000</v>
-      </c>
-      <c r="G24" s="28">
-        <v>0</v>
-      </c>
-      <c r="H24" s="29">
-        <v>0</v>
-      </c>
-      <c r="I24" s="28">
-        <f t="shared" ref="I24" si="35">D24*H24</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="4">
-        <v>46025</v>
-      </c>
-      <c r="K24" s="4">
-        <v>46031</v>
-      </c>
-      <c r="L24" s="4"/>
-      <c r="M24" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="28">
-        <v>80000</v>
-      </c>
-      <c r="E25" s="28">
-        <v>0</v>
-      </c>
-      <c r="F25" s="28">
-        <f t="shared" ref="F25" si="36">(D25+I25)-E25</f>
-        <v>80000</v>
-      </c>
-      <c r="G25" s="28">
-        <v>0</v>
-      </c>
-      <c r="H25" s="29">
-        <v>0</v>
-      </c>
-      <c r="I25" s="28">
-        <f t="shared" ref="I25" si="37">D25*H25</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="4">
-        <v>46026</v>
-      </c>
-      <c r="K25" s="4">
-        <v>46032</v>
-      </c>
-      <c r="L25" s="4"/>
-      <c r="M25" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="D24" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="44"/>
+      <c r="F24" s="35">
+        <f>-SUM(F2:F20)</f>
+        <v>-1019100</v>
+      </c>
+      <c r="G24" s="36"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="1"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="1"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="1"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="1"/>
+      <c r="F29" s="36"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="1"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="1"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="1"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="24"/>
-    </row>
-    <row r="34" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="B34" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D35" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="40"/>
-      <c r="F35" s="35">
-        <f>SUM(D2:D33)</f>
-        <v>2494000</v>
-      </c>
-      <c r="G35" s="36"/>
-      <c r="J35" s="36"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D36" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" s="40"/>
-      <c r="F36" s="35">
-        <f>SUM(E2:E33)</f>
-        <v>1672000</v>
-      </c>
-      <c r="G36" s="36"/>
-      <c r="M36" s="25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D37" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="E37" s="40"/>
-      <c r="F37" s="35">
-        <f>-SUM(F2:F33)</f>
-        <v>-927000</v>
-      </c>
-      <c r="G37" s="36"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F42" s="36"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F43" s="36"/>
+      <c r="F30" s="36"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M37" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}"/>
+  <autoFilter ref="A1:M24" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}"/>
   <mergeCells count="4">
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D21:G21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D34" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
+    <hyperlink ref="D21" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2156,10 +1730,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA131776-2E13-4A0E-8D22-F638A9EA7E4B}">
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:D177"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="G159" sqref="G159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3823,7 +3397,7 @@
         <v>12000</v>
       </c>
       <c r="D127" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -4009,64 +3583,442 @@
       </c>
     </row>
     <row r="141" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A141" s="21"/>
-      <c r="B141" s="19"/>
-      <c r="C141" s="20"/>
-      <c r="D141" s="22"/>
+      <c r="A141" s="21">
+        <v>46027</v>
+      </c>
+      <c r="B141" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C141" s="20">
+        <v>100000</v>
+      </c>
+      <c r="D141" s="22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="142" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="21"/>
-      <c r="B142" s="19"/>
-      <c r="C142" s="20"/>
-      <c r="D142" s="22"/>
+      <c r="A142" s="21">
+        <v>46028</v>
+      </c>
+      <c r="B142" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C142" s="20">
+        <v>170000</v>
+      </c>
+      <c r="D142" s="22" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="143" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="21"/>
-      <c r="B143" s="19"/>
-      <c r="C143" s="20"/>
-      <c r="D143" s="22"/>
+      <c r="A143" s="21">
+        <v>46029</v>
+      </c>
+      <c r="B143" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C143" s="20">
+        <v>100000</v>
+      </c>
+      <c r="D143" s="22" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="144" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="21"/>
-      <c r="B144" s="19"/>
-      <c r="C144" s="20"/>
-      <c r="D144" s="22"/>
+      <c r="A144" s="21">
+        <v>46030</v>
+      </c>
+      <c r="B144" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C144" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D144" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="145" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A145" s="21"/>
-      <c r="B145" s="19"/>
-      <c r="C145" s="20"/>
-      <c r="D145" s="22"/>
+      <c r="A145" s="21">
+        <v>46030</v>
+      </c>
+      <c r="B145" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C145" s="20">
+        <v>50000</v>
+      </c>
+      <c r="D145" s="22" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="146" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A146" s="21"/>
-      <c r="B146" s="19"/>
-      <c r="C146" s="20"/>
-      <c r="D146" s="22"/>
+      <c r="A146" s="21">
+        <v>46030</v>
+      </c>
+      <c r="B146" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C146" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D146" s="22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="147" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="21"/>
-      <c r="B147" s="19"/>
-      <c r="C147" s="20"/>
-      <c r="D147" s="22"/>
+      <c r="A147" s="21">
+        <v>46030</v>
+      </c>
+      <c r="B147" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C147" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D147" s="22" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="148" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="21"/>
-      <c r="B148" s="19"/>
-      <c r="C148" s="20"/>
-      <c r="D148" s="22"/>
+      <c r="A148" s="21">
+        <v>46031</v>
+      </c>
+      <c r="B148" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C148" s="20">
+        <v>150000</v>
+      </c>
+      <c r="D148" s="22" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="149" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="21"/>
-      <c r="B149" s="19"/>
-      <c r="C149" s="20"/>
-      <c r="D149" s="22"/>
+      <c r="A149" s="21">
+        <v>46031</v>
+      </c>
+      <c r="B149" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C149" s="20">
+        <v>50000</v>
+      </c>
+      <c r="D149" s="22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="150" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="21"/>
-      <c r="B150" s="19"/>
-      <c r="C150" s="20"/>
-      <c r="D150" s="22"/>
+      <c r="A150" s="21">
+        <v>46031</v>
+      </c>
+      <c r="B150" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C150" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D150" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A151" s="21">
+        <v>46031</v>
+      </c>
+      <c r="B151" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D151" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A152" s="21">
+        <v>46031</v>
+      </c>
+      <c r="B152" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C152" s="20">
+        <v>60000</v>
+      </c>
+      <c r="D152" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A153" s="21">
+        <v>46031</v>
+      </c>
+      <c r="B153" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C153" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D153" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="21">
+        <v>46032</v>
+      </c>
+      <c r="B154" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C154" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D154" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A155" s="21">
+        <v>46033</v>
+      </c>
+      <c r="B155" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C155" s="20">
+        <v>100000</v>
+      </c>
+      <c r="D155" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A156" s="21">
+        <v>46033</v>
+      </c>
+      <c r="B156" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C156" s="20">
+        <v>500000</v>
+      </c>
+      <c r="D156" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A157" s="21">
+        <v>46033</v>
+      </c>
+      <c r="B157" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D157" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="21">
+        <v>46034</v>
+      </c>
+      <c r="B158" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C158" s="20">
+        <v>50000</v>
+      </c>
+      <c r="D158" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A159" s="21">
+        <v>46035</v>
+      </c>
+      <c r="B159" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C159" s="20">
+        <v>50000</v>
+      </c>
+      <c r="D159" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A160" s="21">
+        <v>46035</v>
+      </c>
+      <c r="B160" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C160" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D160" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A161" s="21">
+        <v>46035</v>
+      </c>
+      <c r="B161" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C161" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D161" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A162" s="21">
+        <v>46035</v>
+      </c>
+      <c r="B162" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C162" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D162" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A163" s="21">
+        <v>46036</v>
+      </c>
+      <c r="B163" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C163" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D163" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A164" s="21">
+        <v>46036</v>
+      </c>
+      <c r="B164" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C164" s="20">
+        <v>50000</v>
+      </c>
+      <c r="D164" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A165" s="21">
+        <v>46037</v>
+      </c>
+      <c r="B165" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C165" s="20">
+        <v>120000</v>
+      </c>
+      <c r="D165" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A166" s="21">
+        <v>46037</v>
+      </c>
+      <c r="B166" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166" s="20">
+        <v>130000</v>
+      </c>
+      <c r="D166" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A167" s="21">
+        <v>46037</v>
+      </c>
+      <c r="B167" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C167" s="20">
+        <v>50000</v>
+      </c>
+      <c r="D167" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A168" s="21"/>
+      <c r="B168" s="19"/>
+      <c r="C168" s="20"/>
+      <c r="D168" s="22"/>
+    </row>
+    <row r="169" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A169" s="21"/>
+      <c r="B169" s="19"/>
+      <c r="C169" s="20"/>
+      <c r="D169" s="22"/>
+    </row>
+    <row r="170" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A170" s="21"/>
+      <c r="B170" s="19"/>
+      <c r="C170" s="20"/>
+      <c r="D170" s="22"/>
+    </row>
+    <row r="171" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A171" s="21"/>
+      <c r="B171" s="19"/>
+      <c r="C171" s="20"/>
+      <c r="D171" s="22"/>
+    </row>
+    <row r="172" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A172" s="21"/>
+      <c r="B172" s="19"/>
+      <c r="C172" s="20"/>
+      <c r="D172" s="22"/>
+    </row>
+    <row r="173" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A173" s="21"/>
+      <c r="B173" s="19"/>
+      <c r="C173" s="20"/>
+      <c r="D173" s="22"/>
+    </row>
+    <row r="174" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A174" s="21"/>
+      <c r="B174" s="19"/>
+      <c r="C174" s="20"/>
+      <c r="D174" s="22"/>
+    </row>
+    <row r="175" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A175" s="21"/>
+      <c r="B175" s="19"/>
+      <c r="C175" s="20"/>
+      <c r="D175" s="22"/>
+    </row>
+    <row r="176" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A176" s="21"/>
+      <c r="B176" s="19"/>
+      <c r="C176" s="20"/>
+      <c r="D176" s="22"/>
+    </row>
+    <row r="177" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A177" s="21"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="20"/>
+      <c r="D177" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D102" xr:uid="{CA131776-2E13-4A0E-8D22-F638A9EA7E4B}"/>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435EFFD7-2504-4672-A273-6302238AEED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789E5239-3975-477D-A35E-E3C767F4ABF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" activeTab="1" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
   <sheets>
     <sheet name="DANH SÁCH NỢ" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="THỐNG KÊ NẠP" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DANH SÁCH NỢ'!$A$1:$M$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DANH SÁCH NỢ'!$A$1:$M$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'THỐNG KÊ NẠP'!$A$1:$U$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'THONG KE NAP '!$A$1:$D$102</definedName>
   </definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="67">
   <si>
     <t>STT</t>
   </si>
@@ -231,7 +231,19 @@
     <t>Trương Gia Hân</t>
   </si>
   <si>
-    <t>Đã trả đủ</t>
+    <t>Nợ ba</t>
+  </si>
+  <si>
+    <t>Đỗ Mai Linh</t>
+  </si>
+  <si>
+    <t>Mua thẻ Zing + Garena</t>
+  </si>
+  <si>
+    <t>Phan Trà Phương Trang</t>
+  </si>
+  <si>
+    <t>Chênh lệch:</t>
   </si>
 </sst>
 </file>
@@ -302,7 +314,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,12 +336,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF4F4F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,7 +401,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -501,20 +507,8 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -865,17 +859,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="25" customWidth="1"/>
     <col min="2" max="2" width="31.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.140625" style="25" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" style="25" customWidth="1"/>
@@ -950,23 +944,23 @@
       </c>
       <c r="F2" s="32">
         <f>(D2+I2)-E2</f>
-        <v>455000</v>
+        <v>472500</v>
       </c>
       <c r="G2" s="32">
         <v>0</v>
       </c>
       <c r="H2" s="33">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="I2" s="32">
         <f>(D2*H2)</f>
-        <v>105000</v>
+        <v>122499.99999999999</v>
       </c>
       <c r="J2" s="16">
         <v>45984</v>
       </c>
       <c r="K2" s="16">
-        <v>46039</v>
+        <v>46046</v>
       </c>
       <c r="L2" s="16"/>
       <c r="M2" s="15" t="s">
@@ -1020,39 +1014,40 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="30">
-        <v>100000</v>
-      </c>
-      <c r="E4" s="30">
-        <f>(40000-15000)+23000+50000+2000</f>
-        <v>100000</v>
-      </c>
-      <c r="F4" s="30">
+      <c r="B4" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="28">
+        <v>2000</v>
+      </c>
+      <c r="E4" s="28">
+        <v>0</v>
+      </c>
+      <c r="F4" s="28">
         <f t="shared" ref="F4" si="2">(D4+I4)-E4</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="30">
-        <v>0</v>
-      </c>
-      <c r="H4" s="31">
-        <v>0</v>
-      </c>
-      <c r="I4" s="30">
+        <v>2200</v>
+      </c>
+      <c r="G4" s="28">
+        <v>0</v>
+      </c>
+      <c r="H4" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="28">
         <f t="shared" ref="I4" si="3">D4*H4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="8">
-        <v>46019</v>
-      </c>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="J4" s="4">
+        <v>46022</v>
+      </c>
+      <c r="K4" s="4">
+        <v>46049</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1061,36 +1056,36 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="D5" s="28">
-        <v>2000</v>
+        <v>50000</v>
       </c>
       <c r="E5" s="28">
         <v>0</v>
       </c>
       <c r="F5" s="28">
         <f t="shared" ref="F5" si="4">(D5+I5)-E5</f>
-        <v>2100</v>
+        <v>50000</v>
       </c>
       <c r="G5" s="28">
         <v>0</v>
       </c>
       <c r="H5" s="29">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I5" s="28">
         <f t="shared" ref="I5" si="5">D5*H5</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J5" s="4">
-        <v>46022</v>
+        <v>46037</v>
       </c>
       <c r="K5" s="4">
-        <v>46035</v>
+        <v>46043</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="1" t="s">
@@ -1102,20 +1097,21 @@
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="D6" s="28">
-        <v>5000</v>
+        <v>120000</v>
       </c>
       <c r="E6" s="28">
-        <v>0</v>
+        <f>38000+50000+15000</f>
+        <v>103000</v>
       </c>
       <c r="F6" s="28">
-        <f t="shared" ref="F6" si="6">(D6+I6)-E6</f>
-        <v>5000</v>
+        <f t="shared" ref="F6:F7" si="6">(D6+I6)-E6</f>
+        <v>17000</v>
       </c>
       <c r="G6" s="28">
         <v>0</v>
@@ -1124,14 +1120,14 @@
         <v>0</v>
       </c>
       <c r="I6" s="28">
-        <f t="shared" ref="I6" si="7">D6*H6</f>
+        <f t="shared" ref="I6:I7" si="7">D6*H6</f>
         <v>0</v>
       </c>
       <c r="J6" s="4">
-        <v>46029</v>
+        <v>46037</v>
       </c>
       <c r="K6" s="4">
-        <v>46035</v>
+        <v>46043</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="1" t="s">
@@ -1143,20 +1139,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="28">
-        <v>50000</v>
+        <f>100000+20000+10000</f>
+        <v>130000</v>
       </c>
       <c r="E7" s="28">
-        <v>0</v>
+        <f>10000+5000+5000+10000</f>
+        <v>30000</v>
       </c>
       <c r="F7" s="28">
-        <f t="shared" ref="F7" si="8">(D7+I7)-E7</f>
-        <v>50000</v>
+        <f t="shared" si="6"/>
+        <v>100000</v>
       </c>
       <c r="G7" s="28">
         <v>0</v>
@@ -1165,14 +1163,14 @@
         <v>0</v>
       </c>
       <c r="I7" s="28">
-        <f t="shared" ref="I7" si="9">D7*H7</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J7" s="4">
-        <v>46031</v>
+        <v>46037</v>
       </c>
       <c r="K7" s="4">
-        <v>46037</v>
+        <v>46043</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="1" t="s">
@@ -1181,65 +1179,65 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="41">
-        <v>20000</v>
-      </c>
-      <c r="E8" s="41">
-        <f>10000+10000</f>
-        <v>20000</v>
-      </c>
-      <c r="F8" s="41">
-        <f t="shared" ref="F8" si="10">(D8+I8)-E8</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="41">
-        <v>0</v>
-      </c>
-      <c r="H8" s="42">
-        <v>0</v>
-      </c>
-      <c r="I8" s="41">
-        <f t="shared" ref="I8" si="11">D8*H8</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="43">
-        <v>46031</v>
-      </c>
-      <c r="K8" s="43">
-        <v>46037</v>
-      </c>
-      <c r="L8" s="43"/>
-      <c r="M8" s="40" t="s">
-        <v>62</v>
+        <v>11</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="28">
+        <v>100000</v>
+      </c>
+      <c r="E8" s="28">
+        <v>0</v>
+      </c>
+      <c r="F8" s="28">
+        <f t="shared" ref="F8" si="8">(D8+I8)-E8</f>
+        <v>100000</v>
+      </c>
+      <c r="G8" s="28">
+        <v>0</v>
+      </c>
+      <c r="H8" s="29">
+        <v>0</v>
+      </c>
+      <c r="I8" s="28">
+        <f t="shared" ref="I8" si="9">D8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="4">
+        <v>46041</v>
+      </c>
+      <c r="K8" s="4">
+        <v>46054</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="D9" s="28">
-        <v>20000</v>
+        <v>100000</v>
       </c>
       <c r="E9" s="28">
-        <v>0</v>
+        <f>92000</f>
+        <v>92000</v>
       </c>
       <c r="F9" s="28">
-        <f t="shared" ref="F9" si="12">(D9+I9)-E9</f>
-        <v>20000</v>
+        <f t="shared" ref="F9" si="10">(D9+I9)-E9</f>
+        <v>8000</v>
       </c>
       <c r="G9" s="28">
         <v>0</v>
@@ -1248,14 +1246,14 @@
         <v>0</v>
       </c>
       <c r="I9" s="28">
-        <f t="shared" ref="I9" si="13">D9*H9</f>
+        <f t="shared" ref="I9" si="11">D9*H9</f>
         <v>0</v>
       </c>
       <c r="J9" s="4">
-        <v>46032</v>
+        <v>46041</v>
       </c>
       <c r="K9" s="4">
-        <v>46038</v>
+        <v>46047</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="1" t="s">
@@ -1264,23 +1262,23 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D10" s="28">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="E10" s="28">
         <v>0</v>
       </c>
       <c r="F10" s="28">
-        <f t="shared" ref="F10" si="14">(D10+I10)-E10</f>
-        <v>100000</v>
+        <f t="shared" ref="F10:F11" si="12">(D10+I10)-E10</f>
+        <v>20000</v>
       </c>
       <c r="G10" s="28">
         <v>0</v>
@@ -1289,14 +1287,14 @@
         <v>0</v>
       </c>
       <c r="I10" s="28">
-        <f t="shared" ref="I10" si="15">D10*H10</f>
+        <f t="shared" ref="I10:I11" si="13">D10*H10</f>
         <v>0</v>
       </c>
       <c r="J10" s="4">
-        <v>46033</v>
+        <v>46041</v>
       </c>
       <c r="K10" s="4">
-        <v>46039</v>
+        <v>46047</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="1" t="s">
@@ -1305,65 +1303,65 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="41">
-        <v>20000</v>
-      </c>
-      <c r="E11" s="41">
-        <v>20000</v>
-      </c>
-      <c r="F11" s="41">
-        <f t="shared" ref="F11" si="16">(D11+I11)-E11</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="41">
-        <v>0</v>
-      </c>
-      <c r="H11" s="42">
-        <v>0</v>
-      </c>
-      <c r="I11" s="41">
-        <f t="shared" ref="I11" si="17">D11*H11</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="43">
-        <v>46033</v>
-      </c>
-      <c r="K11" s="43">
-        <v>46037</v>
-      </c>
-      <c r="L11" s="43"/>
-      <c r="M11" s="40" t="s">
-        <v>62</v>
+        <v>18</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="28">
+        <v>20000</v>
+      </c>
+      <c r="E11" s="28">
+        <v>0</v>
+      </c>
+      <c r="F11" s="28">
+        <f t="shared" si="12"/>
+        <v>20000</v>
+      </c>
+      <c r="G11" s="28">
+        <v>0</v>
+      </c>
+      <c r="H11" s="29">
+        <v>0</v>
+      </c>
+      <c r="I11" s="28">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>46041</v>
+      </c>
+      <c r="K11" s="4">
+        <v>46047</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D12" s="28">
-        <v>20000</v>
+        <f>50000+20000+20000</f>
+        <v>90000</v>
       </c>
       <c r="E12" s="28">
-        <f>15000-7000</f>
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="28">
-        <f t="shared" ref="F12" si="18">(D12+I12)-E12</f>
-        <v>12000</v>
+        <f t="shared" ref="F12" si="14">(D12+I12)-E12</f>
+        <v>90000</v>
       </c>
       <c r="G12" s="28">
         <v>0</v>
@@ -1372,14 +1370,14 @@
         <v>0</v>
       </c>
       <c r="I12" s="28">
-        <f t="shared" ref="I12" si="19">D12*H12</f>
+        <f t="shared" ref="I12" si="15">D12*H12</f>
         <v>0</v>
       </c>
       <c r="J12" s="4">
-        <v>46035</v>
+        <v>46042</v>
       </c>
       <c r="K12" s="4">
-        <v>46041</v>
+        <v>46048</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="1" t="s">
@@ -1388,23 +1386,23 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="24" t="s">
         <v>20</v>
       </c>
+      <c r="B13" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="C13" s="1" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="D13" s="28">
-        <v>20000</v>
+        <v>100000</v>
       </c>
       <c r="E13" s="28">
         <v>0</v>
       </c>
       <c r="F13" s="28">
-        <f t="shared" ref="F13" si="20">(D13+I13)-E13</f>
-        <v>20000</v>
+        <f t="shared" ref="F13" si="16">(D13+I13)-E13</f>
+        <v>100000</v>
       </c>
       <c r="G13" s="28">
         <v>0</v>
@@ -1413,14 +1411,14 @@
         <v>0</v>
       </c>
       <c r="I13" s="28">
-        <f t="shared" ref="I13" si="21">D13*H13</f>
+        <f t="shared" ref="I13" si="17">D13*H13</f>
         <v>0</v>
       </c>
       <c r="J13" s="4">
-        <v>46036</v>
+        <v>46042</v>
       </c>
       <c r="K13" s="4">
-        <v>46042</v>
+        <v>46048</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="1" t="s">
@@ -1429,23 +1427,23 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D14" s="28">
-        <v>50000</v>
+        <v>5000</v>
       </c>
       <c r="E14" s="28">
         <v>0</v>
       </c>
       <c r="F14" s="28">
-        <f t="shared" ref="F14" si="22">(D14+I14)-E14</f>
-        <v>50000</v>
+        <f t="shared" ref="F14" si="18">(D14+I14)-E14</f>
+        <v>5000</v>
       </c>
       <c r="G14" s="28">
         <v>0</v>
@@ -1454,14 +1452,14 @@
         <v>0</v>
       </c>
       <c r="I14" s="28">
-        <f t="shared" ref="I14" si="23">D14*H14</f>
+        <f t="shared" ref="I14" si="19">D14*H14</f>
         <v>0</v>
       </c>
       <c r="J14" s="4">
-        <v>46036</v>
+        <v>46043</v>
       </c>
       <c r="K14" s="4">
-        <v>46042</v>
+        <v>46049</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="1" t="s">
@@ -1470,23 +1468,23 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D15" s="28">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="E15" s="28">
         <v>0</v>
       </c>
       <c r="F15" s="28">
-        <f t="shared" ref="F15:F16" si="24">(D15+I15)-E15</f>
-        <v>120000</v>
+        <f t="shared" ref="F15:F22" si="20">(D15+I15)-E15</f>
+        <v>150000</v>
       </c>
       <c r="G15" s="28">
         <v>0</v>
@@ -1495,14 +1493,14 @@
         <v>0</v>
       </c>
       <c r="I15" s="28">
-        <f t="shared" ref="I15:I16" si="25">D15*H15</f>
+        <f t="shared" ref="I15:I22" si="21">D15*H15</f>
         <v>0</v>
       </c>
       <c r="J15" s="4">
-        <v>46037</v>
+        <v>46043</v>
       </c>
       <c r="K15" s="4">
-        <v>46043</v>
+        <v>46049</v>
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="1" t="s">
@@ -1511,25 +1509,23 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D16" s="28">
-        <f>100000+20000+10000</f>
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="E16" s="28">
-        <f>10000</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="28">
-        <f t="shared" si="24"/>
-        <v>120000</v>
+        <f t="shared" si="20"/>
+        <v>150000</v>
       </c>
       <c r="G16" s="28">
         <v>0</v>
@@ -1538,14 +1534,14 @@
         <v>0</v>
       </c>
       <c r="I16" s="28">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J16" s="4">
-        <v>46037</v>
+        <v>46043</v>
       </c>
       <c r="K16" s="4">
-        <v>46043</v>
+        <v>46049</v>
       </c>
       <c r="L16" s="4"/>
       <c r="M16" s="1" t="s">
@@ -1554,23 +1550,23 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="D17" s="28">
-        <v>50000</v>
+        <v>190000</v>
       </c>
       <c r="E17" s="28">
         <v>0</v>
       </c>
       <c r="F17" s="28">
-        <f t="shared" ref="F17" si="26">(D17+I17)-E17</f>
-        <v>50000</v>
+        <f t="shared" si="20"/>
+        <v>190000</v>
       </c>
       <c r="G17" s="28">
         <v>0</v>
@@ -1579,14 +1575,14 @@
         <v>0</v>
       </c>
       <c r="I17" s="28">
-        <f t="shared" ref="I17" si="27">D17*H17</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J17" s="4">
-        <v>46037</v>
+        <v>46043</v>
       </c>
       <c r="K17" s="4">
-        <v>46043</v>
+        <v>46049</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="1" t="s">
@@ -1595,133 +1591,426 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="28">
+        <v>50000</v>
+      </c>
+      <c r="E18" s="28">
+        <v>0</v>
+      </c>
+      <c r="F18" s="28">
+        <f t="shared" si="20"/>
+        <v>50000</v>
+      </c>
+      <c r="G18" s="28">
+        <v>0</v>
+      </c>
+      <c r="H18" s="29">
+        <v>0</v>
+      </c>
+      <c r="I18" s="28">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="4">
+        <v>46043</v>
+      </c>
+      <c r="K18" s="4">
+        <v>46049</v>
+      </c>
       <c r="L18" s="4"/>
-      <c r="M18" s="1"/>
+      <c r="M18" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="28">
+        <v>50000</v>
+      </c>
+      <c r="E19" s="28">
+        <v>0</v>
+      </c>
+      <c r="F19" s="28">
+        <f t="shared" si="20"/>
+        <v>50000</v>
+      </c>
+      <c r="G19" s="28">
+        <v>0</v>
+      </c>
+      <c r="H19" s="29">
+        <v>0</v>
+      </c>
+      <c r="I19" s="28">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <v>46043</v>
+      </c>
+      <c r="K19" s="4">
+        <v>46049</v>
+      </c>
       <c r="L19" s="4"/>
-      <c r="M19" s="1"/>
+      <c r="M19" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="24"/>
-    </row>
-    <row r="21" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="B21" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="28">
+        <v>500000</v>
+      </c>
+      <c r="E20" s="28">
+        <v>0</v>
+      </c>
+      <c r="F20" s="28">
+        <f t="shared" si="20"/>
+        <v>500000</v>
+      </c>
+      <c r="G20" s="28">
+        <v>0</v>
+      </c>
+      <c r="H20" s="29">
+        <v>0</v>
+      </c>
+      <c r="I20" s="28">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>46043</v>
+      </c>
+      <c r="K20" s="4">
+        <v>46049</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>28</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="28">
+        <v>10000</v>
+      </c>
+      <c r="E21" s="28">
+        <v>0</v>
+      </c>
+      <c r="F21" s="28">
+        <f t="shared" si="20"/>
+        <v>10000</v>
+      </c>
+      <c r="G21" s="28">
+        <v>0</v>
+      </c>
+      <c r="H21" s="29">
+        <v>0</v>
+      </c>
+      <c r="I21" s="28">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>46043</v>
+      </c>
+      <c r="K21" s="4">
+        <v>46049</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>29</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="28">
+        <v>10000</v>
+      </c>
+      <c r="E22" s="28">
+        <v>0</v>
+      </c>
+      <c r="F22" s="28">
+        <f t="shared" si="20"/>
+        <v>10000</v>
+      </c>
+      <c r="G22" s="28">
+        <v>0</v>
+      </c>
+      <c r="H22" s="29">
+        <v>0</v>
+      </c>
+      <c r="I22" s="28">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>46043</v>
+      </c>
+      <c r="K22" s="4">
+        <v>46049</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>30</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>31</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>32</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>33</v>
       </c>
-      <c r="C21" s="34"/>
-      <c r="D21" s="45" t="s">
+      <c r="B26" s="24"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>34</v>
       </c>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D22" s="44" t="s">
+      <c r="B27" s="24"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>35</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>36</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="24"/>
+    </row>
+    <row r="30" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="B30" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="34"/>
+      <c r="D30" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D31" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="35">
-        <f>SUM(D2:D20)</f>
-        <v>1087000</v>
-      </c>
-      <c r="G22" s="36"/>
-      <c r="J22" s="36"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D23" s="44" t="s">
+      <c r="E31" s="40"/>
+      <c r="F31" s="35">
+        <f>SUM(D2:D29)</f>
+        <v>2227000</v>
+      </c>
+      <c r="G31" s="36"/>
+      <c r="J31" s="36"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D32" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="44"/>
-      <c r="F23" s="35">
-        <f>SUM(E2:E20)</f>
-        <v>173000</v>
-      </c>
-      <c r="G23" s="36"/>
-      <c r="M23" s="25" t="s">
+      <c r="E32" s="40"/>
+      <c r="F32" s="35">
+        <f>SUM(E2:E29)</f>
+        <v>240000</v>
+      </c>
+      <c r="G32" s="36"/>
+      <c r="M32" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D24" s="44" t="s">
+    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D33" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="40"/>
+      <c r="F33" s="35">
+        <f>F32-F31</f>
+        <v>-1987000</v>
+      </c>
+      <c r="G33" s="36"/>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D34" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="44"/>
-      <c r="F24" s="35">
-        <f>-SUM(F2:F20)</f>
-        <v>-1019100</v>
-      </c>
-      <c r="G24" s="36"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F29" s="36"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F30" s="36"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="35">
+        <f>SUM(F2:F29)</f>
+        <v>2109700</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G35" s="36"/>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D36" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="28">
+        <f>100000+300000+100000+100000+100000+50000+40000+25000+100000+530000+250000+500000</f>
+        <v>2195000</v>
+      </c>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F38" s="36"/>
+    </row>
+    <row r="39" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F39" s="36"/>
+    </row>
+    <row r="40" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F40" s="36"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M24" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}"/>
-  <mergeCells count="4">
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D21:G21"/>
+  <autoFilter ref="A1:M33" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}"/>
+  <mergeCells count="5">
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D33:E33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D21" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
+    <hyperlink ref="D30" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1730,10 +2019,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA131776-2E13-4A0E-8D22-F638A9EA7E4B}">
-  <dimension ref="A1:D177"/>
+  <dimension ref="A1:D211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="G159" sqref="G159"/>
+    <sheetView topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="B199" sqref="B199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3892,16 +4181,16 @@
     </row>
     <row r="163" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A163" s="21">
-        <v>46036</v>
+        <v>46035</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C163" s="20">
         <v>20000</v>
       </c>
       <c r="D163" s="22" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -3909,27 +4198,27 @@
         <v>46036</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C164" s="20">
-        <v>50000</v>
+        <v>20000</v>
       </c>
       <c r="D164" s="22" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A165" s="21">
-        <v>46037</v>
+        <v>46036</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C165" s="20">
-        <v>120000</v>
+        <v>50000</v>
       </c>
       <c r="D165" s="22" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -3937,10 +4226,10 @@
         <v>46037</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C166" s="20">
-        <v>130000</v>
+        <v>120000</v>
       </c>
       <c r="D166" s="22" t="s">
         <v>3</v>
@@ -3951,74 +4240,486 @@
         <v>46037</v>
       </c>
       <c r="B167" s="19" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="C167" s="20">
-        <v>50000</v>
+        <v>130000</v>
       </c>
       <c r="D167" s="22" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A168" s="21"/>
-      <c r="B168" s="19"/>
-      <c r="C168" s="20"/>
-      <c r="D168" s="22"/>
+      <c r="A168" s="21">
+        <v>46037</v>
+      </c>
+      <c r="B168" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C168" s="20">
+        <v>50000</v>
+      </c>
+      <c r="D168" s="22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="169" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A169" s="21"/>
-      <c r="B169" s="19"/>
-      <c r="C169" s="20"/>
-      <c r="D169" s="22"/>
+      <c r="A169" s="21">
+        <v>46037</v>
+      </c>
+      <c r="B169" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C169" s="20">
+        <v>100000</v>
+      </c>
+      <c r="D169" s="22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="170" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A170" s="21"/>
-      <c r="B170" s="19"/>
-      <c r="C170" s="20"/>
-      <c r="D170" s="22"/>
+      <c r="A170" s="21">
+        <v>46038</v>
+      </c>
+      <c r="B170" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C170" s="20">
+        <v>50000</v>
+      </c>
+      <c r="D170" s="22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="171" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A171" s="21"/>
-      <c r="B171" s="19"/>
-      <c r="C171" s="20"/>
-      <c r="D171" s="22"/>
+      <c r="A171" s="21">
+        <v>46040</v>
+      </c>
+      <c r="B171" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C171" s="20">
+        <v>10000</v>
+      </c>
+      <c r="D171" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="172" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A172" s="21"/>
-      <c r="B172" s="19"/>
-      <c r="C172" s="20"/>
-      <c r="D172" s="22"/>
+      <c r="A172" s="21">
+        <v>46041</v>
+      </c>
+      <c r="B172" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C172" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D172" s="22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="173" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A173" s="21"/>
-      <c r="B173" s="19"/>
-      <c r="C173" s="20"/>
-      <c r="D173" s="22"/>
+      <c r="A173" s="21">
+        <v>46041</v>
+      </c>
+      <c r="B173" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C173" s="20">
+        <v>100000</v>
+      </c>
+      <c r="D173" s="22" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="174" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A174" s="21"/>
-      <c r="B174" s="19"/>
-      <c r="C174" s="20"/>
-      <c r="D174" s="22"/>
+      <c r="A174" s="21">
+        <v>46041</v>
+      </c>
+      <c r="B174" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C174" s="20">
+        <v>300000</v>
+      </c>
+      <c r="D174" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="175" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A175" s="21"/>
-      <c r="B175" s="19"/>
-      <c r="C175" s="20"/>
-      <c r="D175" s="22"/>
+      <c r="A175" s="21">
+        <v>46041</v>
+      </c>
+      <c r="B175" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C175" s="20">
+        <v>100000</v>
+      </c>
+      <c r="D175" s="22" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="176" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A176" s="21"/>
-      <c r="B176" s="19"/>
-      <c r="C176" s="20"/>
-      <c r="D176" s="22"/>
+      <c r="A176" s="21">
+        <v>46041</v>
+      </c>
+      <c r="B176" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C176" s="20">
+        <v>100000</v>
+      </c>
+      <c r="D176" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="177" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A177" s="21"/>
-      <c r="B177" s="19"/>
-      <c r="C177" s="20"/>
-      <c r="D177" s="22"/>
+      <c r="A177" s="21">
+        <v>46041</v>
+      </c>
+      <c r="B177" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C177" s="20">
+        <v>100000</v>
+      </c>
+      <c r="D177" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A178" s="21">
+        <v>46041</v>
+      </c>
+      <c r="B178" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C178" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D178" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A179" s="21">
+        <v>46041</v>
+      </c>
+      <c r="B179" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C179" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D179" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A180" s="21">
+        <v>46041</v>
+      </c>
+      <c r="B180" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C180" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D180" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A181" s="21">
+        <v>46042</v>
+      </c>
+      <c r="B181" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C181" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D181" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A182" s="21">
+        <v>46042</v>
+      </c>
+      <c r="B182" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C182" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D182" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A183" s="21">
+        <v>46042</v>
+      </c>
+      <c r="B183" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C183" s="20">
+        <v>50000</v>
+      </c>
+      <c r="D183" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A184" s="21">
+        <v>46042</v>
+      </c>
+      <c r="B184" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C184" s="20">
+        <v>100000</v>
+      </c>
+      <c r="D184" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A185" s="21">
+        <v>46043</v>
+      </c>
+      <c r="B185" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C185" s="20">
+        <v>5000</v>
+      </c>
+      <c r="D185" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A186" s="21">
+        <v>46043</v>
+      </c>
+      <c r="B186" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C186" s="20">
+        <v>150000</v>
+      </c>
+      <c r="D186" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A187" s="21">
+        <v>46043</v>
+      </c>
+      <c r="B187" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C187" s="20">
+        <v>150000</v>
+      </c>
+      <c r="D187" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A188" s="21">
+        <v>46043</v>
+      </c>
+      <c r="B188" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C188" s="20">
+        <v>190000</v>
+      </c>
+      <c r="D188" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A189" s="21">
+        <v>46043</v>
+      </c>
+      <c r="B189" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C189" s="20">
+        <v>50000</v>
+      </c>
+      <c r="D189" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A190" s="21">
+        <v>46043</v>
+      </c>
+      <c r="B190" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C190" s="20">
+        <v>50000</v>
+      </c>
+      <c r="D190" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A191" s="21">
+        <v>46043</v>
+      </c>
+      <c r="B191" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C191" s="20">
+        <v>500000</v>
+      </c>
+      <c r="D191" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A192" s="21">
+        <v>46043</v>
+      </c>
+      <c r="B192" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C192" s="20">
+        <v>10000</v>
+      </c>
+      <c r="D192" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A193" s="21">
+        <v>46043</v>
+      </c>
+      <c r="B193" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C193" s="20">
+        <v>10000</v>
+      </c>
+      <c r="D193" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A194" s="21"/>
+      <c r="B194" s="19"/>
+      <c r="C194" s="20"/>
+      <c r="D194" s="22"/>
+    </row>
+    <row r="195" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A195" s="21"/>
+      <c r="B195" s="19"/>
+      <c r="C195" s="20"/>
+      <c r="D195" s="22"/>
+    </row>
+    <row r="196" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A196" s="21"/>
+      <c r="B196" s="19"/>
+      <c r="C196" s="20"/>
+      <c r="D196" s="22"/>
+    </row>
+    <row r="197" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A197" s="21"/>
+      <c r="B197" s="19"/>
+      <c r="C197" s="20"/>
+      <c r="D197" s="22"/>
+    </row>
+    <row r="198" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A198" s="21"/>
+      <c r="B198" s="19"/>
+      <c r="C198" s="20"/>
+      <c r="D198" s="22"/>
+    </row>
+    <row r="199" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A199" s="21"/>
+      <c r="B199" s="19"/>
+      <c r="C199" s="20"/>
+      <c r="D199" s="22"/>
+    </row>
+    <row r="200" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A200" s="21"/>
+      <c r="B200" s="19"/>
+      <c r="C200" s="20"/>
+      <c r="D200" s="22"/>
+    </row>
+    <row r="201" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A201" s="21"/>
+      <c r="B201" s="19"/>
+      <c r="C201" s="20"/>
+      <c r="D201" s="22"/>
+    </row>
+    <row r="202" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A202" s="21"/>
+      <c r="B202" s="19"/>
+      <c r="C202" s="20"/>
+      <c r="D202" s="22"/>
+    </row>
+    <row r="203" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A203" s="21"/>
+      <c r="B203" s="19"/>
+      <c r="C203" s="20"/>
+      <c r="D203" s="22"/>
+    </row>
+    <row r="204" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A204" s="21"/>
+      <c r="B204" s="19"/>
+      <c r="C204" s="20"/>
+      <c r="D204" s="22"/>
+    </row>
+    <row r="205" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A205" s="21"/>
+      <c r="B205" s="19"/>
+      <c r="C205" s="20"/>
+      <c r="D205" s="22"/>
+    </row>
+    <row r="206" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A206" s="21"/>
+      <c r="B206" s="19"/>
+      <c r="C206" s="20"/>
+      <c r="D206" s="22"/>
+    </row>
+    <row r="207" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A207" s="21"/>
+      <c r="B207" s="19"/>
+      <c r="C207" s="20"/>
+      <c r="D207" s="22"/>
+    </row>
+    <row r="208" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A208" s="21"/>
+      <c r="B208" s="19"/>
+      <c r="C208" s="20"/>
+      <c r="D208" s="22"/>
+    </row>
+    <row r="209" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A209" s="21"/>
+      <c r="B209" s="19"/>
+      <c r="C209" s="20"/>
+      <c r="D209" s="22"/>
+    </row>
+    <row r="210" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A210" s="21"/>
+      <c r="B210" s="19"/>
+      <c r="C210" s="20"/>
+      <c r="D210" s="22"/>
+    </row>
+    <row r="211" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A211" s="21"/>
+      <c r="B211" s="19"/>
+      <c r="C211" s="20"/>
+      <c r="D211" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D102" xr:uid="{CA131776-2E13-4A0E-8D22-F638A9EA7E4B}"/>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789E5239-3975-477D-A35E-E3C767F4ABF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28F373E-3B8E-4D18-BF8A-9A2F5755471E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="THỐNG KÊ NẠP" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DANH SÁCH NỢ'!$A$1:$M$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DANH SÁCH NỢ'!$A$1:$M$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'THỐNG KÊ NẠP'!$A$1:$U$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'THONG KE NAP '!$A$1:$D$102</definedName>
   </definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="71">
   <si>
     <t>STT</t>
   </si>
@@ -244,17 +244,30 @@
   </si>
   <si>
     <t>Chênh lệch:</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Gia Hân</t>
+  </si>
+  <si>
+    <t>Mua thẻ tháng Free Fire</t>
+  </si>
+  <si>
+    <t>Nợ mẹ</t>
+  </si>
+  <si>
+    <t>Đã trả đủ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.000\ [$₫-42A]_-;\-* #,##0.000\ [$₫-42A]_-;_-* &quot;-&quot;???\ [$₫-42A]_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0\ [$₫-42A]_-;\-* #,##0\ [$₫-42A]_-;_-* &quot;-&quot;\ [$₫-42A]_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0\ [$₫-42A]_-;\-* #,##0\ [$₫-42A]_-;_-* &quot;-&quot;???\ [$₫-42A]_-;_-@_-"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -314,7 +327,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,6 +349,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF4F4F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,7 +420,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -509,6 +528,24 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -859,19 +896,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="25" customWidth="1"/>
     <col min="2" max="2" width="31.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="25" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.140625" style="25" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.140625" style="25" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" style="25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" style="25" bestFit="1" customWidth="1"/>
@@ -1053,23 +1090,25 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D5" s="28">
-        <v>50000</v>
+        <f>100000+20000+10000</f>
+        <v>130000</v>
       </c>
       <c r="E5" s="28">
-        <v>0</v>
+        <f>10000+5000+5000+10000+30000</f>
+        <v>60000</v>
       </c>
       <c r="F5" s="28">
         <f t="shared" ref="F5" si="4">(D5+I5)-E5</f>
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="G5" s="28">
         <v>0</v>
@@ -1094,24 +1133,23 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="D6" s="28">
-        <v>120000</v>
+        <v>100000</v>
       </c>
       <c r="E6" s="28">
-        <f>38000+50000+15000</f>
-        <v>103000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="28">
-        <f t="shared" ref="F6:F7" si="6">(D6+I6)-E6</f>
-        <v>17000</v>
+        <f t="shared" ref="F6" si="6">(D6+I6)-E6</f>
+        <v>100000</v>
       </c>
       <c r="G6" s="28">
         <v>0</v>
@@ -1120,14 +1158,14 @@
         <v>0</v>
       </c>
       <c r="I6" s="28">
-        <f t="shared" ref="I6:I7" si="7">D6*H6</f>
+        <f t="shared" ref="I6" si="7">D6*H6</f>
         <v>0</v>
       </c>
       <c r="J6" s="4">
-        <v>46037</v>
+        <v>46041</v>
       </c>
       <c r="K6" s="4">
-        <v>46043</v>
+        <v>46054</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="1" t="s">
@@ -1136,25 +1174,24 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D7" s="28">
-        <f>100000+20000+10000</f>
-        <v>130000</v>
+        <v>100000</v>
       </c>
       <c r="E7" s="28">
-        <f>10000+5000+5000+10000</f>
-        <v>30000</v>
+        <f>92000</f>
+        <v>92000</v>
       </c>
       <c r="F7" s="28">
-        <f t="shared" si="6"/>
-        <v>100000</v>
+        <f t="shared" ref="F7" si="8">(D7+I7)-E7</f>
+        <v>8000</v>
       </c>
       <c r="G7" s="28">
         <v>0</v>
@@ -1163,14 +1200,14 @@
         <v>0</v>
       </c>
       <c r="I7" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="I7" si="9">D7*H7</f>
         <v>0</v>
       </c>
       <c r="J7" s="4">
-        <v>46037</v>
+        <v>46041</v>
       </c>
       <c r="K7" s="4">
-        <v>46043</v>
+        <v>46047</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="1" t="s">
@@ -1179,23 +1216,23 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D8" s="28">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="E8" s="28">
         <v>0</v>
       </c>
       <c r="F8" s="28">
-        <f t="shared" ref="F8" si="8">(D8+I8)-E8</f>
-        <v>100000</v>
+        <f t="shared" ref="F8" si="10">(D8+I8)-E8</f>
+        <v>20000</v>
       </c>
       <c r="G8" s="28">
         <v>0</v>
@@ -1204,14 +1241,14 @@
         <v>0</v>
       </c>
       <c r="I8" s="28">
-        <f t="shared" ref="I8" si="9">D8*H8</f>
+        <f t="shared" ref="I8" si="11">D8*H8</f>
         <v>0</v>
       </c>
       <c r="J8" s="4">
         <v>46041</v>
       </c>
       <c r="K8" s="4">
-        <v>46054</v>
+        <v>46047</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="1" t="s">
@@ -1220,24 +1257,24 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D9" s="28">
-        <v>100000</v>
+        <f>50000+20000+20000</f>
+        <v>90000</v>
       </c>
       <c r="E9" s="28">
-        <f>92000</f>
-        <v>92000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="28">
-        <f t="shared" ref="F9" si="10">(D9+I9)-E9</f>
-        <v>8000</v>
+        <f t="shared" ref="F9" si="12">(D9+I9)-E9</f>
+        <v>90000</v>
       </c>
       <c r="G9" s="28">
         <v>0</v>
@@ -1246,14 +1283,14 @@
         <v>0</v>
       </c>
       <c r="I9" s="28">
-        <f t="shared" ref="I9" si="11">D9*H9</f>
+        <f t="shared" ref="I9" si="13">D9*H9</f>
         <v>0</v>
       </c>
       <c r="J9" s="4">
-        <v>46041</v>
+        <v>46042</v>
       </c>
       <c r="K9" s="4">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="1" t="s">
@@ -1262,23 +1299,24 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>16</v>
-      </c>
-      <c r="B10" s="24" t="s">
         <v>20</v>
       </c>
+      <c r="B10" s="39" t="s">
+        <v>20</v>
+      </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D10" s="28">
-        <v>20000</v>
+        <v>100000</v>
       </c>
       <c r="E10" s="28">
-        <v>0</v>
+        <f>13000+83000</f>
+        <v>96000</v>
       </c>
       <c r="F10" s="28">
-        <f t="shared" ref="F10:F11" si="12">(D10+I10)-E10</f>
-        <v>20000</v>
+        <f t="shared" ref="F10" si="14">(D10+I10)-E10</f>
+        <v>4000</v>
       </c>
       <c r="G10" s="28">
         <v>0</v>
@@ -1287,14 +1325,14 @@
         <v>0</v>
       </c>
       <c r="I10" s="28">
-        <f t="shared" ref="I10:I11" si="13">D10*H10</f>
+        <f t="shared" ref="I10" si="15">D10*H10</f>
         <v>0</v>
       </c>
       <c r="J10" s="4">
-        <v>46041</v>
+        <v>46042</v>
       </c>
       <c r="K10" s="4">
-        <v>46047</v>
+        <v>46048</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="1" t="s">
@@ -1303,65 +1341,64 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>18</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="28">
-        <v>20000</v>
-      </c>
-      <c r="E11" s="28">
-        <v>0</v>
-      </c>
-      <c r="F11" s="28">
-        <f t="shared" si="12"/>
-        <v>20000</v>
-      </c>
-      <c r="G11" s="28">
-        <v>0</v>
-      </c>
-      <c r="H11" s="29">
-        <v>0</v>
-      </c>
-      <c r="I11" s="28">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <v>46041</v>
-      </c>
-      <c r="K11" s="4">
-        <v>46047</v>
-      </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="43">
+        <v>5000</v>
+      </c>
+      <c r="E11" s="43">
+        <v>5000</v>
+      </c>
+      <c r="F11" s="43">
+        <f t="shared" ref="F11" si="16">(D11+I11)-E11</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="43">
+        <v>0</v>
+      </c>
+      <c r="H11" s="44">
+        <v>0</v>
+      </c>
+      <c r="I11" s="43">
+        <f t="shared" ref="I11" si="17">D11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="45">
+        <v>46043</v>
+      </c>
+      <c r="K11" s="45">
+        <v>46048</v>
+      </c>
+      <c r="L11" s="45"/>
+      <c r="M11" s="42" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="D12" s="28">
-        <f>50000+20000+20000</f>
-        <v>90000</v>
+        <v>150000</v>
       </c>
       <c r="E12" s="28">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="F12" s="28">
-        <f t="shared" ref="F12" si="14">(D12+I12)-E12</f>
-        <v>90000</v>
+        <f t="shared" ref="F12:F16" si="18">(D12+I12)-E12</f>
+        <v>50000</v>
       </c>
       <c r="G12" s="28">
         <v>0</v>
@@ -1370,14 +1407,14 @@
         <v>0</v>
       </c>
       <c r="I12" s="28">
-        <f t="shared" ref="I12" si="15">D12*H12</f>
+        <f t="shared" ref="I12:I16" si="19">D12*H12</f>
         <v>0</v>
       </c>
       <c r="J12" s="4">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="K12" s="4">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="1" t="s">
@@ -1386,23 +1423,24 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>20</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="D13" s="28">
-        <v>100000</v>
+        <v>190000</v>
       </c>
       <c r="E13" s="28">
-        <v>0</v>
+        <f>150000</f>
+        <v>150000</v>
       </c>
       <c r="F13" s="28">
-        <f t="shared" ref="F13" si="16">(D13+I13)-E13</f>
-        <v>100000</v>
+        <f t="shared" si="18"/>
+        <v>40000</v>
       </c>
       <c r="G13" s="28">
         <v>0</v>
@@ -1411,14 +1449,14 @@
         <v>0</v>
       </c>
       <c r="I13" s="28">
-        <f t="shared" ref="I13" si="17">D13*H13</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J13" s="4">
-        <v>46042</v>
+        <v>46043</v>
       </c>
       <c r="K13" s="4">
-        <v>46048</v>
+        <v>46049</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="1" t="s">
@@ -1427,23 +1465,23 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D14" s="28">
-        <v>5000</v>
+        <v>50000</v>
       </c>
       <c r="E14" s="28">
         <v>0</v>
       </c>
       <c r="F14" s="28">
-        <f t="shared" ref="F14" si="18">(D14+I14)-E14</f>
-        <v>5000</v>
+        <f t="shared" si="18"/>
+        <v>50000</v>
       </c>
       <c r="G14" s="28">
         <v>0</v>
@@ -1452,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="28">
-        <f t="shared" ref="I14" si="19">D14*H14</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J14" s="4">
@@ -1468,105 +1506,105 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>22</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="28">
-        <v>150000</v>
-      </c>
-      <c r="E15" s="28">
-        <v>0</v>
-      </c>
-      <c r="F15" s="28">
-        <f t="shared" ref="F15:F22" si="20">(D15+I15)-E15</f>
-        <v>150000</v>
-      </c>
-      <c r="G15" s="28">
-        <v>0</v>
-      </c>
-      <c r="H15" s="29">
-        <v>0</v>
-      </c>
-      <c r="I15" s="28">
-        <f t="shared" ref="I15:I22" si="21">D15*H15</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="4">
+      <c r="D15" s="43">
+        <v>10000</v>
+      </c>
+      <c r="E15" s="43">
+        <v>10000</v>
+      </c>
+      <c r="F15" s="43">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="43">
+        <v>0</v>
+      </c>
+      <c r="H15" s="44">
+        <v>0</v>
+      </c>
+      <c r="I15" s="43">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="45">
         <v>46043</v>
       </c>
-      <c r="K15" s="4">
-        <v>46049</v>
-      </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="1" t="s">
-        <v>14</v>
+      <c r="K15" s="45">
+        <v>46048</v>
+      </c>
+      <c r="L15" s="45"/>
+      <c r="M15" s="42" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>23</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="28">
-        <v>150000</v>
-      </c>
-      <c r="E16" s="28">
-        <v>0</v>
-      </c>
-      <c r="F16" s="28">
-        <f t="shared" si="20"/>
-        <v>150000</v>
-      </c>
-      <c r="G16" s="28">
-        <v>0</v>
-      </c>
-      <c r="H16" s="29">
-        <v>0</v>
-      </c>
-      <c r="I16" s="28">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
+        <v>29</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="43">
+        <v>10000</v>
+      </c>
+      <c r="E16" s="43">
+        <v>10000</v>
+      </c>
+      <c r="F16" s="43">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="43">
+        <v>0</v>
+      </c>
+      <c r="H16" s="44">
+        <v>0</v>
+      </c>
+      <c r="I16" s="43">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="45">
         <v>46043</v>
       </c>
-      <c r="K16" s="4">
-        <v>46049</v>
-      </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="1" t="s">
-        <v>14</v>
+      <c r="K16" s="45">
+        <v>46048</v>
+      </c>
+      <c r="L16" s="45"/>
+      <c r="M16" s="42" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="D17" s="28">
-        <v>190000</v>
+        <v>120000</v>
       </c>
       <c r="E17" s="28">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="F17" s="28">
-        <f t="shared" si="20"/>
-        <v>190000</v>
+        <f t="shared" ref="F17" si="20">(D17+I17)-E17</f>
+        <v>20000</v>
       </c>
       <c r="G17" s="28">
         <v>0</v>
@@ -1575,14 +1613,14 @@
         <v>0</v>
       </c>
       <c r="I17" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="I17" si="21">D17*H17</f>
         <v>0</v>
       </c>
       <c r="J17" s="4">
-        <v>46043</v>
+        <v>46044</v>
       </c>
       <c r="K17" s="4">
-        <v>46049</v>
+        <v>46050</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="1" t="s">
@@ -1591,23 +1629,24 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D18" s="28">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="E18" s="28">
-        <v>0</v>
+        <f>75000</f>
+        <v>75000</v>
       </c>
       <c r="F18" s="28">
-        <f t="shared" si="20"/>
-        <v>50000</v>
+        <f t="shared" ref="F18" si="22">(D18+I18)-E18</f>
+        <v>25000</v>
       </c>
       <c r="G18" s="28">
         <v>0</v>
@@ -1616,14 +1655,14 @@
         <v>0</v>
       </c>
       <c r="I18" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="I18" si="23">D18*H18</f>
         <v>0</v>
       </c>
       <c r="J18" s="4">
-        <v>46043</v>
+        <v>46045</v>
       </c>
       <c r="K18" s="4">
-        <v>46049</v>
+        <v>46051</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="1" t="s">
@@ -1632,23 +1671,23 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D19" s="28">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="E19" s="28">
         <v>0</v>
       </c>
       <c r="F19" s="28">
-        <f t="shared" si="20"/>
-        <v>50000</v>
+        <f t="shared" ref="F19:F20" si="24">(D19+I19)-E19</f>
+        <v>100000</v>
       </c>
       <c r="G19" s="28">
         <v>0</v>
@@ -1657,14 +1696,14 @@
         <v>0</v>
       </c>
       <c r="I19" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="I19:I20" si="25">D19*H19</f>
         <v>0</v>
       </c>
       <c r="J19" s="4">
-        <v>46043</v>
+        <v>46045</v>
       </c>
       <c r="K19" s="4">
-        <v>46049</v>
+        <v>46051</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="1" t="s">
@@ -1673,64 +1712,64 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>27</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="28">
-        <v>500000</v>
-      </c>
-      <c r="E20" s="28">
-        <v>0</v>
-      </c>
-      <c r="F20" s="28">
-        <f t="shared" si="20"/>
-        <v>500000</v>
-      </c>
-      <c r="G20" s="28">
-        <v>0</v>
-      </c>
-      <c r="H20" s="29">
-        <v>0</v>
-      </c>
-      <c r="I20" s="28">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <v>46043</v>
-      </c>
-      <c r="K20" s="4">
-        <v>46049</v>
-      </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="43">
+        <v>60000</v>
+      </c>
+      <c r="E20" s="43">
+        <v>60000</v>
+      </c>
+      <c r="F20" s="43">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="43">
+        <v>0</v>
+      </c>
+      <c r="H20" s="44">
+        <v>0</v>
+      </c>
+      <c r="I20" s="43">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="45">
+        <v>46045</v>
+      </c>
+      <c r="K20" s="45">
+        <v>46048</v>
+      </c>
+      <c r="L20" s="45"/>
+      <c r="M20" s="42" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D21" s="28">
-        <v>10000</v>
+        <v>200000</v>
       </c>
       <c r="E21" s="28">
         <v>0</v>
       </c>
       <c r="F21" s="28">
-        <f t="shared" si="20"/>
-        <v>10000</v>
+        <f t="shared" ref="F21" si="26">(D21+I21)-E21</f>
+        <v>200000</v>
       </c>
       <c r="G21" s="28">
         <v>0</v>
@@ -1739,14 +1778,14 @@
         <v>0</v>
       </c>
       <c r="I21" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="I21" si="27">D21*H21</f>
         <v>0</v>
       </c>
       <c r="J21" s="4">
-        <v>46043</v>
+        <v>46045</v>
       </c>
       <c r="K21" s="4">
-        <v>46049</v>
+        <v>46051</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" s="1" t="s">
@@ -1755,23 +1794,24 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D22" s="28">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="E22" s="28">
-        <v>0</v>
+        <f>20000</f>
+        <v>20000</v>
       </c>
       <c r="F22" s="28">
-        <f t="shared" si="20"/>
-        <v>10000</v>
+        <f t="shared" ref="F22" si="28">(D22+I22)-E22</f>
+        <v>80000</v>
       </c>
       <c r="G22" s="28">
         <v>0</v>
@@ -1780,14 +1820,14 @@
         <v>0</v>
       </c>
       <c r="I22" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="I22" si="29">D22*H22</f>
         <v>0</v>
       </c>
       <c r="J22" s="4">
-        <v>46043</v>
+        <v>46046</v>
       </c>
       <c r="K22" s="4">
-        <v>46049</v>
+        <v>46052</v>
       </c>
       <c r="L22" s="4"/>
       <c r="M22" s="1" t="s">
@@ -1796,75 +1836,170 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>30</v>
-      </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="28">
+        <v>20000</v>
+      </c>
+      <c r="E23" s="28">
+        <v>0</v>
+      </c>
+      <c r="F23" s="28">
+        <f t="shared" ref="F23" si="30">(D23+I23)-E23</f>
+        <v>20000</v>
+      </c>
+      <c r="G23" s="28">
+        <v>0</v>
+      </c>
+      <c r="H23" s="29">
+        <v>0</v>
+      </c>
+      <c r="I23" s="28">
+        <f t="shared" ref="I23" si="31">D23*H23</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="4">
+        <v>46046</v>
+      </c>
+      <c r="K23" s="4">
+        <v>46052</v>
+      </c>
       <c r="L23" s="4"/>
-      <c r="M23" s="1"/>
+      <c r="M23" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>31</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="28">
+        <v>200000</v>
+      </c>
+      <c r="E24" s="28">
+        <v>0</v>
+      </c>
+      <c r="F24" s="28">
+        <f t="shared" ref="F24:F25" si="32">(D24+I24)-E24</f>
+        <v>200000</v>
+      </c>
+      <c r="G24" s="28">
+        <v>0</v>
+      </c>
+      <c r="H24" s="29">
+        <v>0</v>
+      </c>
+      <c r="I24" s="28">
+        <f t="shared" ref="I24:I25" si="33">D24*H24</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="4">
+        <v>46047</v>
+      </c>
+      <c r="K24" s="4">
+        <v>46053</v>
+      </c>
       <c r="L24" s="4"/>
-      <c r="M24" s="1"/>
+      <c r="M24" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>32</v>
-      </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="43">
+        <v>100000</v>
+      </c>
+      <c r="E25" s="43">
+        <v>100000</v>
+      </c>
+      <c r="F25" s="43">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="43">
+        <v>0</v>
+      </c>
+      <c r="H25" s="44">
+        <v>0</v>
+      </c>
+      <c r="I25" s="43">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="45">
+        <v>46047</v>
+      </c>
+      <c r="K25" s="45">
+        <v>46048</v>
+      </c>
+      <c r="L25" s="45"/>
+      <c r="M25" s="42" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>33</v>
-      </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="43">
+        <v>50000</v>
+      </c>
+      <c r="E26" s="43">
+        <v>50000</v>
+      </c>
+      <c r="F26" s="43">
+        <v>50000</v>
+      </c>
+      <c r="G26" s="43">
+        <v>0</v>
+      </c>
+      <c r="H26" s="44">
+        <v>0</v>
+      </c>
+      <c r="I26" s="43">
+        <f t="shared" ref="I26" si="34">D26*H26</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="45">
+        <v>46047</v>
+      </c>
+      <c r="K26" s="45">
+        <v>46048</v>
+      </c>
+      <c r="L26" s="45"/>
+      <c r="M26" s="42" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="1"/>
@@ -1881,7 +2016,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="1"/>
@@ -1898,119 +2033,142 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B29" s="24"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="24"/>
-    </row>
-    <row r="30" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="B30" s="34" t="s">
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>46</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="24"/>
+    </row>
+    <row r="31" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="B31" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="41" t="s">
+      <c r="C31" s="34"/>
+      <c r="D31" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D31" s="40" t="s">
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D32" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="40"/>
-      <c r="F31" s="35">
-        <f>SUM(D2:D29)</f>
-        <v>2227000</v>
-      </c>
-      <c r="G31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D32" s="40" t="s">
+      <c r="E32" s="46"/>
+      <c r="F32" s="35">
+        <f>SUM(D2:D30)</f>
+        <v>2387000</v>
+      </c>
+      <c r="G32" s="36"/>
+      <c r="J32" s="36"/>
+    </row>
+    <row r="33" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D33" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="35">
-        <f>SUM(E2:E29)</f>
-        <v>240000</v>
-      </c>
-      <c r="G32" s="36"/>
-      <c r="M32" s="25" t="s">
+      <c r="E33" s="46"/>
+      <c r="F33" s="35">
+        <f>SUM(E2:E30)</f>
+        <v>943000</v>
+      </c>
+      <c r="G33" s="36"/>
+      <c r="M33" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D33" s="40" t="s">
+    <row r="34" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D34" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="35">
-        <f>F32-F31</f>
-        <v>-1987000</v>
-      </c>
-      <c r="G33" s="36"/>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D34" s="40" t="s">
+      <c r="E34" s="46"/>
+      <c r="F34" s="35">
+        <f>F33-F32</f>
+        <v>-1444000</v>
+      </c>
+      <c r="G34" s="36"/>
+    </row>
+    <row r="35" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D35" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="40"/>
-      <c r="F34" s="35">
-        <f>SUM(F2:F29)</f>
-        <v>2109700</v>
-      </c>
-    </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="G35" s="36"/>
-    </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D36" s="25" t="s">
+      <c r="E35" s="46"/>
+      <c r="F35" s="35">
+        <f>SUM(F2:F30)</f>
+        <v>1616700</v>
+      </c>
+    </row>
+    <row r="36" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="G36" s="36"/>
+    </row>
+    <row r="37" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D37" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="E36" s="28">
-        <f>100000+300000+100000+100000+100000+50000+40000+25000+100000+530000+250000+500000</f>
-        <v>2195000</v>
-      </c>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-    </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E37" s="28">
+        <f>150000+100000+400000</f>
+        <v>650000</v>
+      </c>
       <c r="F37" s="36"/>
       <c r="G37" s="36"/>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D38" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="28">
+        <v>0</v>
+      </c>
       <c r="F38" s="36"/>
-    </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G38" s="36"/>
+    </row>
+    <row r="39" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F39" s="36"/>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="F40" s="36"/>
+    <row r="40" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F40" s="40"/>
+    </row>
+    <row r="41" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F41" s="36"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M33" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}"/>
+  <autoFilter ref="A1:M34" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}"/>
   <mergeCells count="5">
-    <mergeCell ref="D31:E31"/>
     <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D31:G31"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D30:G30"/>
-    <mergeCell ref="D33:E33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D30" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
+    <hyperlink ref="D31" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2021,8 +2179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA131776-2E13-4A0E-8D22-F638A9EA7E4B}">
   <dimension ref="A1:D211"/>
   <sheetViews>
-    <sheetView topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="B199" sqref="B199"/>
+    <sheetView topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="D209" sqref="D209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2030,7 +2188,7 @@
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -4614,94 +4772,214 @@
       </c>
     </row>
     <row r="194" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A194" s="21"/>
-      <c r="B194" s="19"/>
-      <c r="C194" s="20"/>
-      <c r="D194" s="22"/>
+      <c r="A194" s="21">
+        <v>46043</v>
+      </c>
+      <c r="B194" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C194" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D194" s="22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="195" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A195" s="21"/>
-      <c r="B195" s="19"/>
-      <c r="C195" s="20"/>
-      <c r="D195" s="22"/>
+      <c r="A195" s="21">
+        <v>46044</v>
+      </c>
+      <c r="B195" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C195" s="20">
+        <v>220000</v>
+      </c>
+      <c r="D195" s="22" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="196" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A196" s="21"/>
-      <c r="B196" s="19"/>
-      <c r="C196" s="20"/>
-      <c r="D196" s="22"/>
+      <c r="A196" s="21">
+        <v>46044</v>
+      </c>
+      <c r="B196" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C196" s="20">
+        <v>220000</v>
+      </c>
+      <c r="D196" s="22" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="197" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A197" s="21"/>
-      <c r="B197" s="19"/>
-      <c r="C197" s="20"/>
-      <c r="D197" s="22"/>
+      <c r="A197" s="21">
+        <v>46044</v>
+      </c>
+      <c r="B197" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C197" s="20">
+        <v>120000</v>
+      </c>
+      <c r="D197" s="22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="198" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A198" s="21"/>
-      <c r="B198" s="19"/>
-      <c r="C198" s="20"/>
-      <c r="D198" s="22"/>
+      <c r="A198" s="21">
+        <v>46045</v>
+      </c>
+      <c r="B198" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C198" s="20">
+        <v>100000</v>
+      </c>
+      <c r="D198" s="22" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="199" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A199" s="21"/>
-      <c r="B199" s="19"/>
-      <c r="C199" s="20"/>
-      <c r="D199" s="22"/>
+      <c r="A199" s="21">
+        <v>46045</v>
+      </c>
+      <c r="B199" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C199" s="20">
+        <v>50000</v>
+      </c>
+      <c r="D199" s="22" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="200" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A200" s="21"/>
-      <c r="B200" s="19"/>
-      <c r="C200" s="20"/>
-      <c r="D200" s="22"/>
+      <c r="A200" s="21">
+        <v>46045</v>
+      </c>
+      <c r="B200" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C200" s="20">
+        <v>50000</v>
+      </c>
+      <c r="D200" s="22" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="201" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A201" s="21"/>
-      <c r="B201" s="19"/>
-      <c r="C201" s="20"/>
-      <c r="D201" s="22"/>
+      <c r="A201" s="21">
+        <v>46045</v>
+      </c>
+      <c r="B201" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C201" s="20">
+        <v>100000</v>
+      </c>
+      <c r="D201" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="202" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A202" s="21"/>
-      <c r="B202" s="19"/>
-      <c r="C202" s="20"/>
-      <c r="D202" s="22"/>
+      <c r="A202" s="21">
+        <v>46045</v>
+      </c>
+      <c r="B202" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C202" s="20">
+        <v>60000</v>
+      </c>
+      <c r="D202" s="22" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="203" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A203" s="21"/>
-      <c r="B203" s="19"/>
-      <c r="C203" s="20"/>
-      <c r="D203" s="22"/>
+      <c r="A203" s="21">
+        <v>46045</v>
+      </c>
+      <c r="B203" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C203" s="20">
+        <v>200000</v>
+      </c>
+      <c r="D203" s="22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="204" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A204" s="21"/>
-      <c r="B204" s="19"/>
-      <c r="C204" s="20"/>
-      <c r="D204" s="22"/>
+      <c r="A204" s="21">
+        <v>46046</v>
+      </c>
+      <c r="B204" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C204" s="20">
+        <v>100000</v>
+      </c>
+      <c r="D204" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="205" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A205" s="21"/>
-      <c r="B205" s="19"/>
-      <c r="C205" s="20"/>
-      <c r="D205" s="22"/>
+      <c r="A205" s="21">
+        <v>46046</v>
+      </c>
+      <c r="B205" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C205" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D205" s="22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="206" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A206" s="21"/>
-      <c r="B206" s="19"/>
-      <c r="C206" s="20"/>
-      <c r="D206" s="22"/>
+      <c r="A206" s="21">
+        <v>46047</v>
+      </c>
+      <c r="B206" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C206" s="20">
+        <v>200000</v>
+      </c>
+      <c r="D206" s="22" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="207" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A207" s="21"/>
-      <c r="B207" s="19"/>
-      <c r="C207" s="20"/>
-      <c r="D207" s="22"/>
+      <c r="A207" s="21">
+        <v>46047</v>
+      </c>
+      <c r="B207" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C207" s="20">
+        <v>100000</v>
+      </c>
+      <c r="D207" s="22" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="208" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A208" s="21"/>
-      <c r="B208" s="19"/>
-      <c r="C208" s="20"/>
-      <c r="D208" s="22"/>
+      <c r="A208" s="21">
+        <v>46047</v>
+      </c>
+      <c r="B208" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C208" s="20">
+        <v>50000</v>
+      </c>
+      <c r="D208" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="209" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A209" s="21"/>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28F373E-3B8E-4D18-BF8A-9A2F5755471E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C61833-3217-4866-9168-9AB6E279F339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -899,7 +899,7 @@
   <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,23 +981,23 @@
       </c>
       <c r="F2" s="32">
         <f>(D2+I2)-E2</f>
-        <v>472500</v>
+        <v>490000</v>
       </c>
       <c r="G2" s="32">
         <v>0</v>
       </c>
       <c r="H2" s="33">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="I2" s="32">
         <f>(D2*H2)</f>
-        <v>122499.99999999999</v>
+        <v>140000</v>
       </c>
       <c r="J2" s="16">
         <v>45984</v>
       </c>
       <c r="K2" s="16">
-        <v>46046</v>
+        <v>46053</v>
       </c>
       <c r="L2" s="16"/>
       <c r="M2" s="15" t="s">
@@ -1090,7 +1090,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
         <v>8</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>22</v>
@@ -1174,90 +1174,90 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>15</v>
-      </c>
-      <c r="B7" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="43">
         <v>100000</v>
       </c>
-      <c r="E7" s="28">
-        <f>92000</f>
-        <v>92000</v>
-      </c>
-      <c r="F7" s="28">
+      <c r="E7" s="43">
+        <f>92000+8000</f>
+        <v>100000</v>
+      </c>
+      <c r="F7" s="43">
         <f t="shared" ref="F7" si="8">(D7+I7)-E7</f>
-        <v>8000</v>
-      </c>
-      <c r="G7" s="28">
-        <v>0</v>
-      </c>
-      <c r="H7" s="29">
-        <v>0</v>
-      </c>
-      <c r="I7" s="28">
+        <v>0</v>
+      </c>
+      <c r="G7" s="43">
+        <v>0</v>
+      </c>
+      <c r="H7" s="44">
+        <v>0</v>
+      </c>
+      <c r="I7" s="43">
         <f t="shared" ref="I7" si="9">D7*H7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="45">
         <v>46041</v>
       </c>
-      <c r="K7" s="4">
-        <v>46047</v>
-      </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="1" t="s">
-        <v>14</v>
+      <c r="K7" s="45">
+        <v>46048</v>
+      </c>
+      <c r="L7" s="45"/>
+      <c r="M7" s="42" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>18</v>
-      </c>
-      <c r="B8" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="28">
-        <v>20000</v>
-      </c>
-      <c r="E8" s="28">
-        <v>0</v>
-      </c>
-      <c r="F8" s="28">
+      <c r="D8" s="43">
+        <v>20000</v>
+      </c>
+      <c r="E8" s="43">
+        <v>20000</v>
+      </c>
+      <c r="F8" s="43">
         <f t="shared" ref="F8" si="10">(D8+I8)-E8</f>
-        <v>20000</v>
-      </c>
-      <c r="G8" s="28">
-        <v>0</v>
-      </c>
-      <c r="H8" s="29">
-        <v>0</v>
-      </c>
-      <c r="I8" s="28">
+        <v>0</v>
+      </c>
+      <c r="G8" s="43">
+        <v>0</v>
+      </c>
+      <c r="H8" s="44">
+        <v>0</v>
+      </c>
+      <c r="I8" s="43">
         <f t="shared" ref="I8" si="11">D8*H8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="45">
         <v>46041</v>
       </c>
-      <c r="K8" s="4">
-        <v>46047</v>
-      </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="1" t="s">
-        <v>14</v>
+      <c r="K8" s="45">
+        <v>46048</v>
+      </c>
+      <c r="L8" s="45"/>
+      <c r="M8" s="42" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>22</v>
@@ -1270,11 +1270,12 @@
         <v>90000</v>
       </c>
       <c r="E9" s="28">
-        <v>0</v>
+        <f>22000</f>
+        <v>22000</v>
       </c>
       <c r="F9" s="28">
         <f t="shared" ref="F9" si="12">(D9+I9)-E9</f>
-        <v>90000</v>
+        <v>68000</v>
       </c>
       <c r="G9" s="28">
         <v>0</v>
@@ -1299,7 +1300,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B10" s="39" t="s">
         <v>20</v>
@@ -1341,7 +1342,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B11" s="41" t="s">
         <v>26</v>
@@ -1382,7 +1383,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B12" s="24" t="s">
         <v>39</v>
@@ -1423,7 +1424,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B13" s="24" t="s">
         <v>25</v>
@@ -1465,7 +1466,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>42</v>
@@ -1506,7 +1507,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B15" s="41" t="s">
         <v>26</v>
@@ -1547,7 +1548,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B16" s="41" t="s">
         <v>26</v>
@@ -1588,7 +1589,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>67</v>
@@ -1629,7 +1630,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B18" s="24" t="s">
         <v>26</v>
@@ -1671,7 +1672,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>42</v>
@@ -1712,7 +1713,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B20" s="41" t="s">
         <v>17</v>
@@ -1753,7 +1754,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B21" s="24" t="s">
         <v>67</v>
@@ -1794,7 +1795,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>21</v>
@@ -1836,7 +1837,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B23" s="24" t="s">
         <v>36</v>
@@ -1877,7 +1878,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>19</v>
@@ -1918,7 +1919,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B25" s="41" t="s">
         <v>65</v>
@@ -1959,7 +1960,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B26" s="41" t="s">
         <v>15</v>
@@ -1999,7 +2000,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="1"/>
@@ -2016,7 +2017,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="1"/>
@@ -2033,7 +2034,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B29" s="24"/>
       <c r="C29" s="1"/>
@@ -2050,7 +2051,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="1"/>
@@ -2096,7 +2097,7 @@
       <c r="E33" s="46"/>
       <c r="F33" s="35">
         <f>SUM(E2:E30)</f>
-        <v>943000</v>
+        <v>993000</v>
       </c>
       <c r="G33" s="36"/>
       <c r="M33" s="25" t="s">
@@ -2110,7 +2111,7 @@
       <c r="E34" s="46"/>
       <c r="F34" s="35">
         <f>F33-F32</f>
-        <v>-1444000</v>
+        <v>-1394000</v>
       </c>
       <c r="G34" s="36"/>
     </row>
@@ -2121,7 +2122,7 @@
       <c r="E35" s="46"/>
       <c r="F35" s="35">
         <f>SUM(F2:F30)</f>
-        <v>1616700</v>
+        <v>1584200</v>
       </c>
     </row>
     <row r="36" spans="4:13" x14ac:dyDescent="0.25">

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C61833-3217-4866-9168-9AB6E279F339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8902DC3-C888-45D1-9D27-75B2CFCC6D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -899,7 +899,7 @@
   <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,23 +1108,23 @@
       </c>
       <c r="F5" s="28">
         <f t="shared" ref="F5" si="4">(D5+I5)-E5</f>
-        <v>70000</v>
+        <v>76500</v>
       </c>
       <c r="G5" s="28">
         <v>0</v>
       </c>
       <c r="H5" s="29">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I5" s="28">
         <f t="shared" ref="I5" si="5">D5*H5</f>
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="J5" s="4">
         <v>46037</v>
       </c>
       <c r="K5" s="4">
-        <v>46043</v>
+        <v>46049</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="1" t="s">
@@ -2122,7 +2122,7 @@
       <c r="E35" s="46"/>
       <c r="F35" s="35">
         <f>SUM(F2:F30)</f>
-        <v>1584200</v>
+        <v>1590700</v>
       </c>
     </row>
     <row r="36" spans="4:13" x14ac:dyDescent="0.25">

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8902DC3-C888-45D1-9D27-75B2CFCC6D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637EE11D-0A9B-471D-B30B-E6F47F2C2319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="THỐNG KÊ NẠP" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DANH SÁCH NỢ'!$A$1:$M$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DANH SÁCH NỢ'!$A$1:$M$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'THỐNG KÊ NẠP'!$A$1:$U$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'THONG KE NAP '!$A$1:$D$102</definedName>
   </definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="75">
   <si>
     <t>STT</t>
   </si>
@@ -255,7 +255,19 @@
     <t>Nợ mẹ</t>
   </si>
   <si>
+    <t>Đinh Gia Bảo (bi)</t>
+  </si>
+  <si>
+    <t>Nguyễn Dũng Giang Danh</t>
+  </si>
+  <si>
+    <t>Phạm Công Minh</t>
+  </si>
+  <si>
     <t>Đã trả đủ</t>
+  </si>
+  <si>
+    <t>Trần Minh Đạt</t>
   </si>
 </sst>
 </file>
@@ -526,11 +538,17 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -546,12 +564,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -896,10 +908,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,23 +1077,23 @@
       </c>
       <c r="F4" s="28">
         <f t="shared" ref="F4" si="2">(D4+I4)-E4</f>
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="G4" s="28">
         <v>0</v>
       </c>
       <c r="H4" s="29">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="I4" s="28">
         <f t="shared" ref="I4" si="3">D4*H4</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J4" s="4">
         <v>46022</v>
       </c>
       <c r="K4" s="4">
-        <v>46049</v>
+        <v>46056</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="1" t="s">
@@ -1093,38 +1105,36 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="D5" s="28">
-        <f>100000+20000+10000</f>
-        <v>130000</v>
+        <v>100000</v>
       </c>
       <c r="E5" s="28">
-        <f>10000+5000+5000+10000+30000</f>
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="28">
         <f t="shared" ref="F5" si="4">(D5+I5)-E5</f>
-        <v>76500</v>
+        <v>100000</v>
       </c>
       <c r="G5" s="28">
         <v>0</v>
       </c>
       <c r="H5" s="29">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I5" s="28">
         <f t="shared" ref="I5" si="5">D5*H5</f>
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="J5" s="4">
-        <v>46037</v>
+        <v>46041</v>
       </c>
       <c r="K5" s="4">
-        <v>46049</v>
+        <v>46054</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="1" t="s">
@@ -1139,33 +1149,35 @@
         <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D6" s="28">
-        <v>100000</v>
+        <f>50000+20000+20000</f>
+        <v>90000</v>
       </c>
       <c r="E6" s="28">
-        <v>0</v>
+        <f>22000+50000</f>
+        <v>72000</v>
       </c>
       <c r="F6" s="28">
         <f t="shared" ref="F6" si="6">(D6+I6)-E6</f>
-        <v>100000</v>
+        <v>22500</v>
       </c>
       <c r="G6" s="28">
         <v>0</v>
       </c>
       <c r="H6" s="29">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I6" s="28">
         <f t="shared" ref="I6" si="7">D6*H6</f>
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="J6" s="4">
-        <v>46041</v>
+        <v>46042</v>
       </c>
       <c r="K6" s="4">
-        <v>46054</v>
+        <v>46055</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="1" t="s">
@@ -1176,83 +1188,80 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="43">
-        <v>100000</v>
-      </c>
-      <c r="E7" s="43">
-        <f>92000+8000</f>
-        <v>100000</v>
-      </c>
-      <c r="F7" s="43">
+      <c r="B7" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="45">
+        <v>200000</v>
+      </c>
+      <c r="E7" s="45">
+        <v>200000</v>
+      </c>
+      <c r="F7" s="45">
         <f t="shared" ref="F7" si="8">(D7+I7)-E7</f>
+        <v>10000</v>
+      </c>
+      <c r="G7" s="45">
         <v>0</v>
       </c>
-      <c r="G7" s="43">
-        <v>0</v>
-      </c>
-      <c r="H7" s="44">
-        <v>0</v>
-      </c>
-      <c r="I7" s="43">
+      <c r="H7" s="46">
+        <v>0.05</v>
+      </c>
+      <c r="I7" s="45">
         <f t="shared" ref="I7" si="9">D7*H7</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="45">
-        <v>46041</v>
-      </c>
-      <c r="K7" s="45">
-        <v>46048</v>
-      </c>
-      <c r="L7" s="45"/>
-      <c r="M7" s="42" t="s">
-        <v>70</v>
+        <v>10000</v>
+      </c>
+      <c r="J7" s="47">
+        <v>46045</v>
+      </c>
+      <c r="K7" s="47">
+        <v>46054</v>
+      </c>
+      <c r="L7" s="47"/>
+      <c r="M7" s="44" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="43">
-        <v>20000</v>
-      </c>
-      <c r="E8" s="43">
-        <v>20000</v>
-      </c>
-      <c r="F8" s="43">
-        <f t="shared" ref="F8" si="10">(D8+I8)-E8</f>
+      <c r="B8" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="30">
+        <v>100000</v>
+      </c>
+      <c r="E8" s="30">
         <v>0</v>
       </c>
-      <c r="G8" s="43">
+      <c r="F8" s="30">
+        <f t="shared" ref="F8:F11" si="10">(D8+I8)-E8</f>
+        <v>100000</v>
+      </c>
+      <c r="G8" s="30">
         <v>0</v>
       </c>
-      <c r="H8" s="44">
+      <c r="H8" s="31">
         <v>0</v>
       </c>
-      <c r="I8" s="43">
-        <f t="shared" ref="I8" si="11">D8*H8</f>
+      <c r="I8" s="30">
+        <f t="shared" ref="I8:I11" si="11">D8*H8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="45">
-        <v>46041</v>
-      </c>
-      <c r="K8" s="45">
+      <c r="J8" s="8">
         <v>46048</v>
       </c>
-      <c r="L8" s="45"/>
-      <c r="M8" s="42" t="s">
-        <v>70</v>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1260,22 +1269,21 @@
         <v>8</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="D9" s="28">
-        <f>50000+20000+20000</f>
-        <v>90000</v>
+        <v>30000</v>
       </c>
       <c r="E9" s="28">
-        <f>22000</f>
-        <v>22000</v>
+        <f>1000+20000</f>
+        <v>21000</v>
       </c>
       <c r="F9" s="28">
-        <f t="shared" ref="F9" si="12">(D9+I9)-E9</f>
-        <v>68000</v>
+        <f t="shared" si="10"/>
+        <v>9000</v>
       </c>
       <c r="G9" s="28">
         <v>0</v>
@@ -1284,14 +1292,14 @@
         <v>0</v>
       </c>
       <c r="I9" s="28">
-        <f t="shared" ref="I9" si="13">D9*H9</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J9" s="4">
-        <v>46042</v>
+        <v>46049</v>
       </c>
       <c r="K9" s="4">
-        <v>46048</v>
+        <v>46055</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="1" t="s">
@@ -1302,22 +1310,21 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="39" t="s">
-        <v>20</v>
+      <c r="B10" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="28">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="E10" s="28">
-        <f>13000+83000</f>
-        <v>96000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="28">
-        <f t="shared" ref="F10" si="14">(D10+I10)-E10</f>
-        <v>4000</v>
+        <f t="shared" si="10"/>
+        <v>20000</v>
       </c>
       <c r="G10" s="28">
         <v>0</v>
@@ -1326,14 +1333,14 @@
         <v>0</v>
       </c>
       <c r="I10" s="28">
-        <f t="shared" ref="I10" si="15">D10*H10</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J10" s="4">
-        <v>46042</v>
+        <v>46049</v>
       </c>
       <c r="K10" s="4">
-        <v>46048</v>
+        <v>46055</v>
       </c>
       <c r="L10" s="4"/>
       <c r="M10" s="1" t="s">
@@ -1344,41 +1351,41 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="43">
-        <v>5000</v>
-      </c>
-      <c r="E11" s="43">
-        <v>5000</v>
-      </c>
-      <c r="F11" s="43">
-        <f t="shared" ref="F11" si="16">(D11+I11)-E11</f>
+      <c r="B11" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="28">
+        <v>20000</v>
+      </c>
+      <c r="E11" s="28">
         <v>0</v>
       </c>
-      <c r="G11" s="43">
+      <c r="F11" s="28">
+        <f t="shared" si="10"/>
+        <v>20000</v>
+      </c>
+      <c r="G11" s="28">
         <v>0</v>
       </c>
-      <c r="H11" s="44">
+      <c r="H11" s="29">
         <v>0</v>
       </c>
-      <c r="I11" s="43">
-        <f t="shared" ref="I11" si="17">D11*H11</f>
+      <c r="I11" s="28">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="J11" s="45">
-        <v>46043</v>
-      </c>
-      <c r="K11" s="45">
-        <v>46048</v>
-      </c>
-      <c r="L11" s="45"/>
-      <c r="M11" s="42" t="s">
-        <v>70</v>
+      <c r="J11" s="4">
+        <v>46050</v>
+      </c>
+      <c r="K11" s="4">
+        <v>46056</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1386,20 +1393,22 @@
         <v>11</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D12" s="28">
-        <v>150000</v>
+        <f>150000+10000-70000</f>
+        <v>90000</v>
       </c>
       <c r="E12" s="28">
-        <v>100000</v>
+        <f>50000</f>
+        <v>50000</v>
       </c>
       <c r="F12" s="28">
-        <f t="shared" ref="F12:F16" si="18">(D12+I12)-E12</f>
-        <v>50000</v>
+        <f t="shared" ref="F12" si="12">(D12+I12)-E12</f>
+        <v>40000</v>
       </c>
       <c r="G12" s="28">
         <v>0</v>
@@ -1408,14 +1417,14 @@
         <v>0</v>
       </c>
       <c r="I12" s="28">
-        <f t="shared" ref="I12:I16" si="19">D12*H12</f>
+        <f t="shared" ref="I12" si="13">D12*H12</f>
         <v>0</v>
       </c>
       <c r="J12" s="4">
-        <v>46043</v>
+        <v>46051</v>
       </c>
       <c r="K12" s="4">
-        <v>46049</v>
+        <v>46057</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="1" t="s">
@@ -1427,21 +1436,21 @@
         <v>12</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="D13" s="28">
-        <v>190000</v>
+        <f>180000+50000</f>
+        <v>230000</v>
       </c>
       <c r="E13" s="28">
-        <f>150000</f>
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="28">
-        <f t="shared" si="18"/>
-        <v>40000</v>
+        <f t="shared" ref="F13" si="14">(D13+I13)-E13</f>
+        <v>230000</v>
       </c>
       <c r="G13" s="28">
         <v>0</v>
@@ -1450,14 +1459,14 @@
         <v>0</v>
       </c>
       <c r="I13" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="I13" si="15">D13*H13</f>
         <v>0</v>
       </c>
       <c r="J13" s="4">
-        <v>46043</v>
+        <v>46051</v>
       </c>
       <c r="K13" s="4">
-        <v>46049</v>
+        <v>46057</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="1" t="s">
@@ -1468,123 +1477,123 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="28">
-        <v>50000</v>
-      </c>
-      <c r="E14" s="28">
+      <c r="D14" s="45">
+        <v>500000</v>
+      </c>
+      <c r="E14" s="45">
+        <v>500000</v>
+      </c>
+      <c r="F14" s="45">
+        <f t="shared" ref="F14" si="16">(D14+I14)-E14</f>
         <v>0</v>
       </c>
-      <c r="F14" s="28">
-        <f t="shared" si="18"/>
-        <v>50000</v>
-      </c>
-      <c r="G14" s="28">
+      <c r="G14" s="45">
         <v>0</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" s="46">
         <v>0</v>
       </c>
-      <c r="I14" s="28">
-        <f t="shared" si="19"/>
+      <c r="I14" s="45">
+        <f t="shared" ref="I14" si="17">D14*H14</f>
         <v>0</v>
       </c>
-      <c r="J14" s="4">
-        <v>46043</v>
-      </c>
-      <c r="K14" s="4">
-        <v>46049</v>
-      </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="1" t="s">
-        <v>14</v>
+      <c r="J14" s="47">
+        <v>46053</v>
+      </c>
+      <c r="K14" s="47">
+        <v>46054</v>
+      </c>
+      <c r="L14" s="47"/>
+      <c r="M14" s="44" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="43">
-        <v>10000</v>
-      </c>
-      <c r="E15" s="43">
-        <v>10000</v>
-      </c>
-      <c r="F15" s="43">
-        <f t="shared" si="18"/>
+      <c r="B15" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="28">
+        <v>20000</v>
+      </c>
+      <c r="E15" s="28">
         <v>0</v>
       </c>
-      <c r="G15" s="43">
+      <c r="F15" s="28">
+        <f t="shared" ref="F15" si="18">(D15+I15)-E15</f>
+        <v>20000</v>
+      </c>
+      <c r="G15" s="28">
         <v>0</v>
       </c>
-      <c r="H15" s="44">
+      <c r="H15" s="29">
         <v>0</v>
       </c>
-      <c r="I15" s="43">
-        <f t="shared" si="19"/>
+      <c r="I15" s="28">
+        <f t="shared" ref="I15" si="19">D15*H15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="45">
-        <v>46043</v>
-      </c>
-      <c r="K15" s="45">
-        <v>46048</v>
-      </c>
-      <c r="L15" s="45"/>
-      <c r="M15" s="42" t="s">
-        <v>70</v>
+      <c r="J15" s="4">
+        <v>46052</v>
+      </c>
+      <c r="K15" s="4">
+        <v>46058</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="43">
-        <v>10000</v>
-      </c>
-      <c r="E16" s="43">
-        <v>10000</v>
-      </c>
-      <c r="F16" s="43">
-        <f t="shared" si="18"/>
+      <c r="B16" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="28">
+        <v>100000</v>
+      </c>
+      <c r="E16" s="28">
         <v>0</v>
       </c>
-      <c r="G16" s="43">
+      <c r="F16" s="28">
+        <f t="shared" ref="F16" si="20">(D16+I16)-E16</f>
+        <v>100000</v>
+      </c>
+      <c r="G16" s="28">
         <v>0</v>
       </c>
-      <c r="H16" s="44">
+      <c r="H16" s="29">
         <v>0</v>
       </c>
-      <c r="I16" s="43">
-        <f t="shared" si="19"/>
+      <c r="I16" s="28">
+        <f t="shared" ref="I16" si="21">D16*H16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="45">
-        <v>46043</v>
-      </c>
-      <c r="K16" s="45">
-        <v>46048</v>
-      </c>
-      <c r="L16" s="45"/>
-      <c r="M16" s="42" t="s">
-        <v>70</v>
+      <c r="J16" s="4">
+        <v>46053</v>
+      </c>
+      <c r="K16" s="4">
+        <v>46059</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1592,20 +1601,21 @@
         <v>16</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D17" s="28">
-        <v>120000</v>
+        <f>500000+200000+10000</f>
+        <v>710000</v>
       </c>
       <c r="E17" s="28">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="28">
-        <f t="shared" ref="F17" si="20">(D17+I17)-E17</f>
-        <v>20000</v>
+        <f t="shared" ref="F17" si="22">(D17+I17)-E17</f>
+        <v>710000</v>
       </c>
       <c r="G17" s="28">
         <v>0</v>
@@ -1614,14 +1624,14 @@
         <v>0</v>
       </c>
       <c r="I17" s="28">
-        <f t="shared" ref="I17" si="21">D17*H17</f>
+        <f t="shared" ref="I17" si="23">D17*H17</f>
         <v>0</v>
       </c>
       <c r="J17" s="4">
-        <v>46044</v>
+        <v>46054</v>
       </c>
       <c r="K17" s="4">
-        <v>46050</v>
+        <v>46060</v>
       </c>
       <c r="L17" s="4"/>
       <c r="M17" s="1" t="s">
@@ -1630,24 +1640,23 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D18" s="28">
-        <v>100000</v>
+        <v>325000</v>
       </c>
       <c r="E18" s="28">
-        <f>75000</f>
-        <v>75000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="28">
-        <f t="shared" ref="F18" si="22">(D18+I18)-E18</f>
-        <v>25000</v>
+        <f t="shared" ref="F18:F19" si="24">(D18+I18)-E18</f>
+        <v>325000</v>
       </c>
       <c r="G18" s="28">
         <v>0</v>
@@ -1656,14 +1665,14 @@
         <v>0</v>
       </c>
       <c r="I18" s="28">
-        <f t="shared" ref="I18" si="23">D18*H18</f>
+        <f t="shared" ref="I18:I19" si="25">D18*H18</f>
         <v>0</v>
       </c>
       <c r="J18" s="4">
-        <v>46045</v>
+        <v>46054</v>
       </c>
       <c r="K18" s="4">
-        <v>46051</v>
+        <v>46060</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="1" t="s">
@@ -1672,23 +1681,24 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D19" s="28">
-        <v>100000</v>
+        <f>50000+50000+20000+10000</f>
+        <v>130000</v>
       </c>
       <c r="E19" s="28">
         <v>0</v>
       </c>
       <c r="F19" s="28">
-        <f t="shared" ref="F19:F20" si="24">(D19+I19)-E19</f>
-        <v>100000</v>
+        <f t="shared" si="24"/>
+        <v>130000</v>
       </c>
       <c r="G19" s="28">
         <v>0</v>
@@ -1697,14 +1707,14 @@
         <v>0</v>
       </c>
       <c r="I19" s="28">
-        <f t="shared" ref="I19:I20" si="25">D19*H19</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="J19" s="4">
-        <v>46045</v>
+        <v>46054</v>
       </c>
       <c r="K19" s="4">
-        <v>46051</v>
+        <v>46060</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="1" t="s">
@@ -1713,463 +1723,193 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="43">
-        <v>60000</v>
-      </c>
-      <c r="E20" s="43">
-        <v>60000</v>
-      </c>
-      <c r="F20" s="43">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="43">
-        <v>0</v>
-      </c>
-      <c r="H20" s="44">
-        <v>0</v>
-      </c>
-      <c r="I20" s="43">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="45">
-        <v>46045</v>
-      </c>
-      <c r="K20" s="45">
-        <v>46048</v>
-      </c>
-      <c r="L20" s="45"/>
-      <c r="M20" s="42" t="s">
-        <v>70</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="28">
-        <v>200000</v>
-      </c>
-      <c r="E21" s="28">
-        <v>0</v>
-      </c>
-      <c r="F21" s="28">
-        <f t="shared" ref="F21" si="26">(D21+I21)-E21</f>
-        <v>200000</v>
-      </c>
-      <c r="G21" s="28">
-        <v>0</v>
-      </c>
-      <c r="H21" s="29">
-        <v>0</v>
-      </c>
-      <c r="I21" s="28">
-        <f t="shared" ref="I21" si="27">D21*H21</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <v>46045</v>
-      </c>
-      <c r="K21" s="4">
-        <v>46051</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="28">
-        <v>100000</v>
-      </c>
-      <c r="E22" s="28">
-        <f>20000</f>
-        <v>20000</v>
-      </c>
-      <c r="F22" s="28">
-        <f t="shared" ref="F22" si="28">(D22+I22)-E22</f>
-        <v>80000</v>
-      </c>
-      <c r="G22" s="28">
-        <v>0</v>
-      </c>
-      <c r="H22" s="29">
-        <v>0</v>
-      </c>
-      <c r="I22" s="28">
-        <f t="shared" ref="I22" si="29">D22*H22</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="4">
-        <v>46046</v>
-      </c>
-      <c r="K22" s="4">
-        <v>46052</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="28">
-        <v>20000</v>
-      </c>
-      <c r="E23" s="28">
-        <v>0</v>
-      </c>
-      <c r="F23" s="28">
-        <f t="shared" ref="F23" si="30">(D23+I23)-E23</f>
-        <v>20000</v>
-      </c>
-      <c r="G23" s="28">
-        <v>0</v>
-      </c>
-      <c r="H23" s="29">
-        <v>0</v>
-      </c>
-      <c r="I23" s="28">
-        <f t="shared" ref="I23" si="31">D23*H23</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="4">
-        <v>46046</v>
-      </c>
-      <c r="K23" s="4">
-        <v>46052</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="28">
-        <v>200000</v>
-      </c>
-      <c r="E24" s="28">
+        <v>24</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="24"/>
+    </row>
+    <row r="25" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="B25" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="34"/>
+      <c r="D25" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D26" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="40"/>
+      <c r="F26" s="35">
+        <f>SUM(D2:D24)</f>
+        <v>3047000</v>
+      </c>
+      <c r="G26" s="36"/>
+      <c r="J26" s="36"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D27" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="40"/>
+      <c r="F27" s="35">
+        <f>SUM(E2:E24)</f>
+        <v>858000</v>
+      </c>
+      <c r="G27" s="36"/>
+      <c r="M27" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D28" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="40"/>
+      <c r="F28" s="35">
+        <f>F27-F26</f>
+        <v>-2189000</v>
+      </c>
+      <c r="G28" s="36"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D29" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="40"/>
+      <c r="F29" s="35">
+        <f>SUM(F2:F24)</f>
+        <v>2343800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G30" s="36"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D31" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="28">
+        <f>1120000</f>
+        <v>1120000</v>
+      </c>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D32" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="28">
         <v>0</v>
       </c>
-      <c r="F24" s="28">
-        <f t="shared" ref="F24:F25" si="32">(D24+I24)-E24</f>
-        <v>200000</v>
-      </c>
-      <c r="G24" s="28">
-        <v>0</v>
-      </c>
-      <c r="H24" s="29">
-        <v>0</v>
-      </c>
-      <c r="I24" s="28">
-        <f t="shared" ref="I24:I25" si="33">D24*H24</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="4">
-        <v>46047</v>
-      </c>
-      <c r="K24" s="4">
-        <v>46053</v>
-      </c>
-      <c r="L24" s="4"/>
-      <c r="M24" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="43">
-        <v>100000</v>
-      </c>
-      <c r="E25" s="43">
-        <v>100000</v>
-      </c>
-      <c r="F25" s="43">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="43">
-        <v>0</v>
-      </c>
-      <c r="H25" s="44">
-        <v>0</v>
-      </c>
-      <c r="I25" s="43">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="45">
-        <v>46047</v>
-      </c>
-      <c r="K25" s="45">
-        <v>46048</v>
-      </c>
-      <c r="L25" s="45"/>
-      <c r="M25" s="42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="43">
-        <v>50000</v>
-      </c>
-      <c r="E26" s="43">
-        <v>50000</v>
-      </c>
-      <c r="F26" s="43">
-        <v>50000</v>
-      </c>
-      <c r="G26" s="43">
-        <v>0</v>
-      </c>
-      <c r="H26" s="44">
-        <v>0</v>
-      </c>
-      <c r="I26" s="43">
-        <f t="shared" ref="I26" si="34">D26*H26</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="45">
-        <v>46047</v>
-      </c>
-      <c r="K26" s="45">
-        <v>46048</v>
-      </c>
-      <c r="L26" s="45"/>
-      <c r="M26" s="42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
-      <c r="M30" s="24"/>
-    </row>
-    <row r="31" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="B31" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D32" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="46"/>
-      <c r="F32" s="35">
-        <f>SUM(D2:D30)</f>
-        <v>2387000</v>
-      </c>
+      <c r="F32" s="36"/>
       <c r="G32" s="36"/>
-      <c r="J32" s="36"/>
-    </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D33" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="46"/>
-      <c r="F33" s="35">
-        <f>SUM(E2:E30)</f>
-        <v>993000</v>
-      </c>
-      <c r="G33" s="36"/>
-      <c r="M33" s="25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D34" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" s="46"/>
-      <c r="F34" s="35">
-        <f>F33-F32</f>
-        <v>-1394000</v>
-      </c>
-      <c r="G34" s="36"/>
-    </row>
-    <row r="35" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D35" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35" s="46"/>
-      <c r="F35" s="35">
-        <f>SUM(F2:F30)</f>
-        <v>1590700</v>
-      </c>
-    </row>
-    <row r="36" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="G36" s="36"/>
-    </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D37" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="E37" s="28">
-        <f>150000+100000+400000</f>
-        <v>650000</v>
-      </c>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36"/>
-    </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D38" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" s="28">
-        <v>0</v>
-      </c>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-    </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="F39" s="36"/>
-    </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="F40" s="40"/>
-    </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="F41" s="36"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="36"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="39"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="36"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M34" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}"/>
+  <autoFilter ref="A1:M28" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}"/>
   <mergeCells count="5">
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D28:E28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D31" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
+    <hyperlink ref="D25" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2178,10 +1918,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA131776-2E13-4A0E-8D22-F638A9EA7E4B}">
-  <dimension ref="A1:D211"/>
+  <dimension ref="A1:D263"/>
   <sheetViews>
-    <sheetView topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="D209" sqref="D209"/>
+    <sheetView topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="A238" sqref="A238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4983,22 +4723,563 @@
       </c>
     </row>
     <row r="209" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A209" s="21"/>
-      <c r="B209" s="19"/>
-      <c r="C209" s="20"/>
-      <c r="D209" s="22"/>
+      <c r="A209" s="21">
+        <v>46048</v>
+      </c>
+      <c r="B209" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C209" s="20">
+        <v>100000</v>
+      </c>
+      <c r="D209" s="22" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="210" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A210" s="21"/>
-      <c r="B210" s="19"/>
-      <c r="C210" s="20"/>
-      <c r="D210" s="22"/>
+      <c r="A210" s="21">
+        <v>46049</v>
+      </c>
+      <c r="B210" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C210" s="20">
+        <v>260000</v>
+      </c>
+      <c r="D210" s="22" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="211" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A211" s="21"/>
-      <c r="B211" s="19"/>
-      <c r="C211" s="20"/>
-      <c r="D211" s="22"/>
+      <c r="A211" s="21">
+        <v>46049</v>
+      </c>
+      <c r="B211" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C211" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D211" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A212" s="21">
+        <v>46049</v>
+      </c>
+      <c r="B212" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C212" s="20">
+        <v>10000</v>
+      </c>
+      <c r="D212" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A213" s="21">
+        <v>46049</v>
+      </c>
+      <c r="B213" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C213" s="20">
+        <v>100000</v>
+      </c>
+      <c r="D213" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A214" s="21">
+        <v>46049</v>
+      </c>
+      <c r="B214" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C214" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D214" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A215" s="21">
+        <v>46049</v>
+      </c>
+      <c r="B215" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C215" s="20">
+        <v>100000</v>
+      </c>
+      <c r="D215" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A216" s="21">
+        <v>46049</v>
+      </c>
+      <c r="B216" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C216" s="20">
+        <v>10000</v>
+      </c>
+      <c r="D216" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A217" s="21">
+        <v>46050</v>
+      </c>
+      <c r="B217" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C217" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D217" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A218" s="21">
+        <v>46050</v>
+      </c>
+      <c r="B218" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C218" s="20">
+        <v>40000</v>
+      </c>
+      <c r="D218" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A219" s="21">
+        <v>46050</v>
+      </c>
+      <c r="B219" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C219" s="20">
+        <v>180000</v>
+      </c>
+      <c r="D219" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A220" s="21">
+        <v>46051</v>
+      </c>
+      <c r="B220" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C220" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D220" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A221" s="21">
+        <v>46051</v>
+      </c>
+      <c r="B221" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C221" s="20">
+        <v>50000</v>
+      </c>
+      <c r="D221" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A222" s="21">
+        <v>46051</v>
+      </c>
+      <c r="B222" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C222" s="20">
+        <v>180000</v>
+      </c>
+      <c r="D222" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A223" s="21">
+        <v>46051</v>
+      </c>
+      <c r="B223" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C223" s="20">
+        <v>50000</v>
+      </c>
+      <c r="D223" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A224" s="21">
+        <v>46051</v>
+      </c>
+      <c r="B224" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C224" s="20">
+        <v>100000</v>
+      </c>
+      <c r="D224" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A225" s="21">
+        <v>46051</v>
+      </c>
+      <c r="B225" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C225" s="20">
+        <v>160000</v>
+      </c>
+      <c r="D225" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A226" s="21">
+        <v>46051</v>
+      </c>
+      <c r="B226" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C226" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D226" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A227" s="21">
+        <v>45687</v>
+      </c>
+      <c r="B227" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C227" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D227" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A228" s="21">
+        <v>46053</v>
+      </c>
+      <c r="B228" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C228" s="20">
+        <v>500000</v>
+      </c>
+      <c r="D228" s="22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A229" s="21">
+        <v>46053</v>
+      </c>
+      <c r="B229" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C229" s="20">
+        <v>100000</v>
+      </c>
+      <c r="D229" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A230" s="21">
+        <v>46054</v>
+      </c>
+      <c r="B230" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C230" s="20">
+        <v>200000</v>
+      </c>
+      <c r="D230" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A231" s="21">
+        <v>46054</v>
+      </c>
+      <c r="B231" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C231" s="20">
+        <v>500000</v>
+      </c>
+      <c r="D231" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A232" s="21">
+        <v>46054</v>
+      </c>
+      <c r="B232" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C232" s="20">
+        <v>10000</v>
+      </c>
+      <c r="D232" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A233" s="21">
+        <v>46054</v>
+      </c>
+      <c r="B233" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C233" s="20">
+        <v>50000</v>
+      </c>
+      <c r="D233" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A234" s="21">
+        <v>46054</v>
+      </c>
+      <c r="B234" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C234" s="20">
+        <v>50000</v>
+      </c>
+      <c r="D234" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A235" s="21">
+        <v>46054</v>
+      </c>
+      <c r="B235" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C235" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D235" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A236" s="21">
+        <v>46054</v>
+      </c>
+      <c r="B236" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C236" s="20">
+        <v>10000</v>
+      </c>
+      <c r="D236" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A237" s="21">
+        <v>46054</v>
+      </c>
+      <c r="B237" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C237" s="20">
+        <v>325000</v>
+      </c>
+      <c r="D237" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A238" s="21"/>
+      <c r="B238" s="19"/>
+      <c r="C238" s="20"/>
+      <c r="D238" s="22"/>
+    </row>
+    <row r="239" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A239" s="21"/>
+      <c r="B239" s="19"/>
+      <c r="C239" s="20"/>
+      <c r="D239" s="22"/>
+    </row>
+    <row r="240" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A240" s="21"/>
+      <c r="B240" s="19"/>
+      <c r="C240" s="20"/>
+      <c r="D240" s="22"/>
+    </row>
+    <row r="241" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A241" s="21"/>
+      <c r="B241" s="19"/>
+      <c r="C241" s="20"/>
+      <c r="D241" s="22"/>
+    </row>
+    <row r="242" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A242" s="21"/>
+      <c r="B242" s="19"/>
+      <c r="C242" s="20"/>
+      <c r="D242" s="22"/>
+    </row>
+    <row r="243" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A243" s="21"/>
+      <c r="B243" s="19"/>
+      <c r="C243" s="20"/>
+      <c r="D243" s="22"/>
+    </row>
+    <row r="244" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A244" s="21"/>
+      <c r="B244" s="19"/>
+      <c r="C244" s="20"/>
+      <c r="D244" s="22"/>
+    </row>
+    <row r="245" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A245" s="21"/>
+      <c r="B245" s="19"/>
+      <c r="C245" s="20"/>
+      <c r="D245" s="22"/>
+    </row>
+    <row r="246" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A246" s="21"/>
+      <c r="B246" s="19"/>
+      <c r="C246" s="20"/>
+      <c r="D246" s="22"/>
+    </row>
+    <row r="247" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A247" s="21"/>
+      <c r="B247" s="19"/>
+      <c r="C247" s="20"/>
+      <c r="D247" s="22"/>
+    </row>
+    <row r="248" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A248" s="21"/>
+      <c r="B248" s="19"/>
+      <c r="C248" s="20"/>
+      <c r="D248" s="22"/>
+    </row>
+    <row r="249" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A249" s="21"/>
+      <c r="B249" s="19"/>
+      <c r="C249" s="20"/>
+      <c r="D249" s="22"/>
+    </row>
+    <row r="250" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A250" s="21"/>
+      <c r="B250" s="19"/>
+      <c r="C250" s="20"/>
+      <c r="D250" s="22"/>
+    </row>
+    <row r="251" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A251" s="21"/>
+      <c r="B251" s="19"/>
+      <c r="C251" s="20"/>
+      <c r="D251" s="22"/>
+    </row>
+    <row r="252" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A252" s="21"/>
+      <c r="B252" s="19"/>
+      <c r="C252" s="20"/>
+      <c r="D252" s="22"/>
+    </row>
+    <row r="253" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A253" s="21"/>
+      <c r="B253" s="19"/>
+      <c r="C253" s="20"/>
+      <c r="D253" s="22"/>
+    </row>
+    <row r="254" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A254" s="21"/>
+      <c r="B254" s="19"/>
+      <c r="C254" s="20"/>
+      <c r="D254" s="22"/>
+    </row>
+    <row r="255" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A255" s="21"/>
+      <c r="B255" s="19"/>
+      <c r="C255" s="20"/>
+      <c r="D255" s="22"/>
+    </row>
+    <row r="256" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A256" s="21"/>
+      <c r="B256" s="19"/>
+      <c r="C256" s="20"/>
+      <c r="D256" s="22"/>
+    </row>
+    <row r="257" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A257" s="21"/>
+      <c r="B257" s="19"/>
+      <c r="C257" s="20"/>
+      <c r="D257" s="22"/>
+    </row>
+    <row r="258" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A258" s="21"/>
+      <c r="B258" s="19"/>
+      <c r="C258" s="20"/>
+      <c r="D258" s="22"/>
+    </row>
+    <row r="259" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A259" s="21"/>
+      <c r="B259" s="19"/>
+      <c r="C259" s="20"/>
+      <c r="D259" s="22"/>
+    </row>
+    <row r="260" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A260" s="21"/>
+      <c r="B260" s="19"/>
+      <c r="C260" s="20"/>
+      <c r="D260" s="22"/>
+    </row>
+    <row r="261" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A261" s="21"/>
+      <c r="B261" s="19"/>
+      <c r="C261" s="20"/>
+      <c r="D261" s="22"/>
+    </row>
+    <row r="262" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A262" s="21"/>
+      <c r="B262" s="19"/>
+      <c r="C262" s="20"/>
+      <c r="D262" s="22"/>
+    </row>
+    <row r="263" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A263" s="21"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D102" xr:uid="{CA131776-2E13-4A0E-8D22-F638A9EA7E4B}"/>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637EE11D-0A9B-471D-B30B-E6F47F2C2319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61194347-9CDF-4573-A216-FA870B22E39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="THỐNG KÊ NẠP" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DANH SÁCH NỢ'!$A$1:$M$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DANH SÁCH NỢ'!$A$1:$M$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'THỐNG KÊ NẠP'!$A$1:$U$41</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'THONG KE NAP '!$A$1:$D$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'THONG KE NAP '!$A$1:$D$237</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="83">
   <si>
     <t>STT</t>
   </si>
@@ -237,9 +237,6 @@
     <t>Đỗ Mai Linh</t>
   </si>
   <si>
-    <t>Mua thẻ Zing + Garena</t>
-  </si>
-  <si>
     <t>Phan Trà Phương Trang</t>
   </si>
   <si>
@@ -264,10 +261,37 @@
     <t>Phạm Công Minh</t>
   </si>
   <si>
+    <t>Trần Minh Đạt</t>
+  </si>
+  <si>
     <t>Đã trả đủ</t>
   </si>
   <si>
-    <t>Trần Minh Đạt</t>
+    <t>bảo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bảo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vinh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">khánh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nhân </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ý </t>
+  </si>
+  <si>
+    <t xml:space="preserve">thư </t>
+  </si>
+  <si>
+    <t xml:space="preserve">trân </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nghĩa </t>
   </si>
 </sst>
 </file>
@@ -281,7 +305,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0\ [$₫-42A]_-;\-* #,##0\ [$₫-42A]_-;_-* &quot;-&quot;\ [$₫-42A]_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0\ [$₫-42A]_-;\-* #,##0\ [$₫-42A]_-;_-* &quot;-&quot;???\ [$₫-42A]_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,6 +361,21 @@
       <color rgb="FF1F1F1F"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -432,7 +471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -502,9 +541,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -564,6 +600,12 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -908,10 +950,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="A2" sqref="A2:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,37 +1021,37 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="48" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="31">
         <v>350000</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="31">
+        <v>280000</v>
+      </c>
+      <c r="F2" s="31">
+        <f>(D2+I2)-E2</f>
+        <v>245000</v>
+      </c>
+      <c r="G2" s="31">
         <v>0</v>
       </c>
-      <c r="F2" s="32">
-        <f>(D2+I2)-E2</f>
-        <v>490000</v>
-      </c>
-      <c r="G2" s="32">
-        <v>0</v>
-      </c>
-      <c r="H2" s="33">
-        <v>0.4</v>
-      </c>
-      <c r="I2" s="32">
+      <c r="H2" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="I2" s="31">
         <f>(D2*H2)</f>
-        <v>140000</v>
+        <v>175000</v>
       </c>
       <c r="J2" s="16">
         <v>45984</v>
       </c>
       <c r="K2" s="16">
-        <v>46053</v>
+        <v>46067</v>
       </c>
       <c r="L2" s="16"/>
       <c r="M2" s="15" t="s">
@@ -1027,25 +1069,25 @@
       <c r="C3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="29">
         <f>20000+10000</f>
         <v>30000</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="29">
         <f>10000+5000</f>
         <v>15000</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="29">
         <f t="shared" ref="F3" si="0">(D3+I3)-E3</f>
         <v>15000</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="29">
         <v>0</v>
       </c>
-      <c r="H3" s="31">
+      <c r="H3" s="30">
         <v>0</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="29">
         <f t="shared" ref="I3" si="1">D3*H3</f>
         <v>0</v>
       </c>
@@ -1069,31 +1111,31 @@
       <c r="C4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="27">
         <v>2000</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="27">
         <v>0</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="27">
         <f t="shared" ref="F4" si="2">(D4+I4)-E4</f>
-        <v>2300</v>
-      </c>
-      <c r="G4" s="28">
+        <v>2400</v>
+      </c>
+      <c r="G4" s="27">
         <v>0</v>
       </c>
-      <c r="H4" s="29">
-        <v>0.15</v>
-      </c>
-      <c r="I4" s="28">
+      <c r="H4" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="I4" s="27">
         <f t="shared" ref="I4" si="3">D4*H4</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J4" s="4">
         <v>46022</v>
       </c>
       <c r="K4" s="4">
-        <v>46056</v>
+        <v>46063</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="1" t="s">
@@ -1105,36 +1147,36 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="28">
-        <v>100000</v>
-      </c>
-      <c r="E5" s="28">
+        <v>3</v>
+      </c>
+      <c r="D5" s="27">
+        <v>20000</v>
+      </c>
+      <c r="E5" s="27">
         <v>0</v>
       </c>
-      <c r="F5" s="28">
-        <f t="shared" ref="F5" si="4">(D5+I5)-E5</f>
-        <v>100000</v>
-      </c>
-      <c r="G5" s="28">
+      <c r="F5" s="27">
+        <f t="shared" ref="F5:F6" si="4">(D5+I5)-E5</f>
+        <v>21000</v>
+      </c>
+      <c r="G5" s="27">
         <v>0</v>
       </c>
-      <c r="H5" s="29">
-        <v>0</v>
-      </c>
-      <c r="I5" s="28">
-        <f t="shared" ref="I5" si="5">D5*H5</f>
-        <v>0</v>
+      <c r="H5" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="I5" s="27">
+        <f t="shared" ref="I5:I6" si="5">D5*H5</f>
+        <v>1000</v>
       </c>
       <c r="J5" s="4">
-        <v>46041</v>
+        <v>46049</v>
       </c>
       <c r="K5" s="4">
-        <v>46054</v>
+        <v>46062</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="1" t="s">
@@ -1146,38 +1188,36 @@
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="28">
-        <f>50000+20000+20000</f>
-        <v>90000</v>
-      </c>
-      <c r="E6" s="28">
-        <f>22000+50000</f>
-        <v>72000</v>
-      </c>
-      <c r="F6" s="28">
-        <f t="shared" ref="F6" si="6">(D6+I6)-E6</f>
-        <v>22500</v>
-      </c>
-      <c r="G6" s="28">
+        <v>3</v>
+      </c>
+      <c r="D6" s="27">
+        <v>20000</v>
+      </c>
+      <c r="E6" s="27">
         <v>0</v>
       </c>
-      <c r="H6" s="29">
+      <c r="F6" s="27">
+        <f t="shared" si="4"/>
+        <v>21000</v>
+      </c>
+      <c r="G6" s="27">
+        <v>0</v>
+      </c>
+      <c r="H6" s="28">
         <v>0.05</v>
       </c>
-      <c r="I6" s="28">
-        <f t="shared" ref="I6" si="7">D6*H6</f>
-        <v>4500</v>
+      <c r="I6" s="27">
+        <f t="shared" si="5"/>
+        <v>1000</v>
       </c>
       <c r="J6" s="4">
-        <v>46042</v>
+        <v>46050</v>
       </c>
       <c r="K6" s="4">
-        <v>46055</v>
+        <v>46063</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="1" t="s">
@@ -1188,79 +1228,81 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="45">
-        <v>200000</v>
-      </c>
-      <c r="E7" s="45">
-        <v>200000</v>
-      </c>
-      <c r="F7" s="45">
-        <f t="shared" ref="F7" si="8">(D7+I7)-E7</f>
-        <v>10000</v>
-      </c>
-      <c r="G7" s="45">
+      <c r="B7" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="27">
+        <v>325000</v>
+      </c>
+      <c r="E7" s="27">
         <v>0</v>
       </c>
-      <c r="H7" s="46">
+      <c r="F7" s="27">
+        <f t="shared" ref="F7" si="6">(D7+I7)-E7</f>
+        <v>341250</v>
+      </c>
+      <c r="G7" s="27">
+        <v>0</v>
+      </c>
+      <c r="H7" s="28">
         <v>0.05</v>
       </c>
-      <c r="I7" s="45">
-        <f t="shared" ref="I7" si="9">D7*H7</f>
-        <v>10000</v>
-      </c>
-      <c r="J7" s="47">
-        <v>46045</v>
-      </c>
-      <c r="K7" s="47">
+      <c r="I7" s="27">
+        <f t="shared" ref="I7" si="7">D7*H7</f>
+        <v>16250</v>
+      </c>
+      <c r="J7" s="4">
         <v>46054</v>
       </c>
-      <c r="L7" s="47"/>
-      <c r="M7" s="44" t="s">
-        <v>73</v>
+      <c r="K7" s="4">
+        <v>46067</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="30">
+      <c r="B8" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="27">
         <v>100000</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="27">
         <v>0</v>
       </c>
-      <c r="F8" s="30">
-        <f t="shared" ref="F8:F11" si="10">(D8+I8)-E8</f>
-        <v>100000</v>
-      </c>
-      <c r="G8" s="30">
+      <c r="F8" s="27">
+        <f t="shared" ref="F8" si="8">(D8+I8)-E8</f>
+        <v>105000</v>
+      </c>
+      <c r="G8" s="27">
         <v>0</v>
       </c>
-      <c r="H8" s="31">
-        <v>0</v>
-      </c>
-      <c r="I8" s="30">
-        <f t="shared" ref="I8:I11" si="11">D8*H8</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="8">
-        <v>46048</v>
-      </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="7" t="s">
+      <c r="H8" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="I8" s="27">
+        <f t="shared" ref="I8" si="9">D8*H8</f>
+        <v>5000</v>
+      </c>
+      <c r="J8" s="4">
+        <v>46054</v>
+      </c>
+      <c r="K8" s="4">
+        <v>46067</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1268,83 +1310,83 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="28">
-        <v>30000</v>
-      </c>
-      <c r="E9" s="28">
-        <f>1000+20000</f>
-        <v>21000</v>
-      </c>
-      <c r="F9" s="28">
-        <f t="shared" si="10"/>
-        <v>9000</v>
-      </c>
-      <c r="G9" s="28">
+      <c r="B9" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="44">
+        <v>100000</v>
+      </c>
+      <c r="E9" s="44">
+        <v>100000</v>
+      </c>
+      <c r="F9" s="44">
+        <f t="shared" ref="F9" si="10">(D9+I9)-E9</f>
+        <v>5000</v>
+      </c>
+      <c r="G9" s="44">
         <v>0</v>
       </c>
-      <c r="H9" s="29">
-        <v>0</v>
-      </c>
-      <c r="I9" s="28">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="4">
-        <v>46049</v>
-      </c>
-      <c r="K9" s="4">
+      <c r="H9" s="45">
+        <v>0.05</v>
+      </c>
+      <c r="I9" s="44">
+        <f t="shared" ref="I9" si="11">D9*H9</f>
+        <v>5000</v>
+      </c>
+      <c r="J9" s="46">
         <v>46055</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="1" t="s">
-        <v>14</v>
+      <c r="K9" s="46">
+        <v>46062</v>
+      </c>
+      <c r="L9" s="46"/>
+      <c r="M9" s="43" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="28">
-        <v>20000</v>
-      </c>
-      <c r="E10" s="28">
+      <c r="D10" s="44">
+        <v>80000</v>
+      </c>
+      <c r="E10" s="44">
+        <f>50000+30000</f>
+        <v>80000</v>
+      </c>
+      <c r="F10" s="44">
+        <f t="shared" ref="F10:F12" si="12">(D10+I10)-E10</f>
         <v>0</v>
       </c>
-      <c r="F10" s="28">
-        <f t="shared" si="10"/>
-        <v>20000</v>
-      </c>
-      <c r="G10" s="28">
+      <c r="G10" s="44">
         <v>0</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="45">
         <v>0</v>
       </c>
-      <c r="I10" s="28">
-        <f t="shared" si="11"/>
+      <c r="I10" s="44">
+        <f t="shared" ref="I10:I12" si="13">D10*H10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="4">
-        <v>46049</v>
-      </c>
-      <c r="K10" s="4">
-        <v>46055</v>
-      </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="1" t="s">
-        <v>14</v>
+      <c r="J10" s="46">
+        <v>46056</v>
+      </c>
+      <c r="K10" s="46">
+        <v>46062</v>
+      </c>
+      <c r="L10" s="46"/>
+      <c r="M10" s="43" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1352,36 +1394,37 @@
         <v>10</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="28">
-        <v>20000</v>
-      </c>
-      <c r="E11" s="28">
+        <v>57</v>
+      </c>
+      <c r="D11" s="27">
+        <v>280000</v>
+      </c>
+      <c r="E11" s="27">
+        <f>70000</f>
+        <v>70000</v>
+      </c>
+      <c r="F11" s="27">
+        <f t="shared" si="12"/>
+        <v>210000</v>
+      </c>
+      <c r="G11" s="27">
         <v>0</v>
       </c>
-      <c r="F11" s="28">
-        <f t="shared" si="10"/>
-        <v>20000</v>
-      </c>
-      <c r="G11" s="28">
+      <c r="H11" s="28">
         <v>0</v>
       </c>
-      <c r="H11" s="29">
+      <c r="I11" s="27">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I11" s="28">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="J11" s="4">
-        <v>46050</v>
+        <v>46056</v>
       </c>
       <c r="K11" s="4">
-        <v>46056</v>
+        <v>46062</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="1" t="s">
@@ -1392,287 +1435,300 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="28">
-        <f>150000+10000-70000</f>
-        <v>90000</v>
-      </c>
-      <c r="E12" s="28">
-        <f>50000</f>
+      <c r="B12" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="44">
         <v>50000</v>
       </c>
-      <c r="F12" s="28">
-        <f t="shared" ref="F12" si="12">(D12+I12)-E12</f>
-        <v>40000</v>
-      </c>
-      <c r="G12" s="28">
+      <c r="E12" s="44">
+        <f>10000+40000</f>
+        <v>50000</v>
+      </c>
+      <c r="F12" s="44">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H12" s="29">
+      <c r="G12" s="44">
         <v>0</v>
       </c>
-      <c r="I12" s="28">
-        <f t="shared" ref="I12" si="13">D12*H12</f>
+      <c r="H12" s="45">
         <v>0</v>
       </c>
-      <c r="J12" s="4">
-        <v>46051</v>
-      </c>
-      <c r="K12" s="4">
-        <v>46057</v>
-      </c>
-      <c r="L12" s="4"/>
-      <c r="M12" s="1" t="s">
-        <v>14</v>
+      <c r="I12" s="44">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="46">
+        <v>46056</v>
+      </c>
+      <c r="K12" s="46">
+        <v>46062</v>
+      </c>
+      <c r="L12" s="46"/>
+      <c r="M12" s="43" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="28">
-        <f>180000+50000</f>
-        <v>230000</v>
-      </c>
-      <c r="E13" s="28">
+      <c r="B13" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="44">
+        <v>20000</v>
+      </c>
+      <c r="E13" s="44">
         <v>0</v>
       </c>
-      <c r="F13" s="28">
-        <f t="shared" ref="F13" si="14">(D13+I13)-E13</f>
-        <v>230000</v>
-      </c>
-      <c r="G13" s="28">
+      <c r="F13" s="44">
+        <f t="shared" ref="F13:F14" si="14">(D13+I13)-E13</f>
+        <v>20000</v>
+      </c>
+      <c r="G13" s="44">
         <v>0</v>
       </c>
-      <c r="H13" s="29">
+      <c r="H13" s="45">
         <v>0</v>
       </c>
-      <c r="I13" s="28">
-        <f t="shared" ref="I13" si="15">D13*H13</f>
+      <c r="I13" s="44">
+        <f t="shared" ref="I13:I14" si="15">D13*H13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="4">
-        <v>46051</v>
-      </c>
-      <c r="K13" s="4">
-        <v>46057</v>
-      </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="1" t="s">
-        <v>14</v>
+      <c r="J13" s="46">
+        <v>46058</v>
+      </c>
+      <c r="K13" s="46">
+        <v>46062</v>
+      </c>
+      <c r="L13" s="46"/>
+      <c r="M13" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="O13" s="25">
+        <v>300</v>
+      </c>
+      <c r="P13" s="25">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="44" t="s">
+      <c r="B14" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="45">
-        <v>500000</v>
-      </c>
-      <c r="E14" s="45">
-        <v>500000</v>
-      </c>
-      <c r="F14" s="45">
-        <f t="shared" ref="F14" si="16">(D14+I14)-E14</f>
+      <c r="D14" s="27">
+        <v>20000</v>
+      </c>
+      <c r="E14" s="27">
         <v>0</v>
       </c>
-      <c r="G14" s="45">
+      <c r="F14" s="27">
+        <f t="shared" si="14"/>
+        <v>20000</v>
+      </c>
+      <c r="G14" s="27">
         <v>0</v>
       </c>
-      <c r="H14" s="46">
+      <c r="H14" s="28">
         <v>0</v>
       </c>
-      <c r="I14" s="45">
-        <f t="shared" ref="I14" si="17">D14*H14</f>
+      <c r="I14" s="27">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="J14" s="47">
-        <v>46053</v>
-      </c>
-      <c r="K14" s="47">
-        <v>46054</v>
-      </c>
-      <c r="L14" s="47"/>
-      <c r="M14" s="44" t="s">
-        <v>73</v>
+      <c r="J14" s="4">
+        <v>46058</v>
+      </c>
+      <c r="K14" s="4">
+        <v>46064</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" s="25">
+        <v>280</v>
+      </c>
+      <c r="P14" s="25">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="28">
-        <v>20000</v>
-      </c>
-      <c r="E15" s="28">
+      <c r="B15" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="44">
+        <v>5000</v>
+      </c>
+      <c r="E15" s="44">
+        <v>5000</v>
+      </c>
+      <c r="F15" s="44">
+        <f t="shared" ref="F15" si="16">(D15+I15)-E15</f>
         <v>0</v>
       </c>
-      <c r="F15" s="28">
-        <f t="shared" ref="F15" si="18">(D15+I15)-E15</f>
-        <v>20000</v>
-      </c>
-      <c r="G15" s="28">
+      <c r="G15" s="44">
         <v>0</v>
       </c>
-      <c r="H15" s="29">
+      <c r="H15" s="45">
         <v>0</v>
       </c>
-      <c r="I15" s="28">
-        <f t="shared" ref="I15" si="19">D15*H15</f>
+      <c r="I15" s="44">
+        <f t="shared" ref="I15" si="17">D15*H15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="4">
-        <v>46052</v>
-      </c>
-      <c r="K15" s="4">
-        <v>46058</v>
-      </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="1" t="s">
-        <v>14</v>
+      <c r="J15" s="46">
+        <v>46059</v>
+      </c>
+      <c r="K15" s="46">
+        <v>46062</v>
+      </c>
+      <c r="L15" s="46"/>
+      <c r="M15" s="43" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="28">
-        <v>100000</v>
-      </c>
-      <c r="E16" s="28">
+      <c r="B16" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="44">
+        <v>200000</v>
+      </c>
+      <c r="E16" s="44">
+        <v>200000</v>
+      </c>
+      <c r="F16" s="44">
+        <f t="shared" ref="F16:F18" si="18">(D16+I16)-E16</f>
         <v>0</v>
       </c>
-      <c r="F16" s="28">
-        <f t="shared" ref="F16" si="20">(D16+I16)-E16</f>
-        <v>100000</v>
-      </c>
-      <c r="G16" s="28">
+      <c r="G16" s="44">
         <v>0</v>
       </c>
-      <c r="H16" s="29">
+      <c r="H16" s="45">
         <v>0</v>
       </c>
-      <c r="I16" s="28">
-        <f t="shared" ref="I16" si="21">D16*H16</f>
+      <c r="I16" s="44">
+        <f t="shared" ref="I16:I18" si="19">D16*H16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="4">
-        <v>46053</v>
-      </c>
-      <c r="K16" s="4">
-        <v>46059</v>
-      </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="1" t="s">
-        <v>14</v>
+      <c r="J16" s="46">
+        <v>46060</v>
+      </c>
+      <c r="K16" s="46">
+        <v>46062</v>
+      </c>
+      <c r="L16" s="46"/>
+      <c r="M16" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="O16" s="25" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="28">
-        <f>500000+200000+10000</f>
-        <v>710000</v>
-      </c>
-      <c r="E17" s="28">
+      <c r="B17" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="44">
+        <v>400000</v>
+      </c>
+      <c r="E17" s="44">
+        <v>400000</v>
+      </c>
+      <c r="F17" s="44">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="F17" s="28">
-        <f t="shared" ref="F17" si="22">(D17+I17)-E17</f>
-        <v>710000</v>
-      </c>
-      <c r="G17" s="28">
+      <c r="G17" s="44">
         <v>0</v>
       </c>
-      <c r="H17" s="29">
+      <c r="H17" s="45">
         <v>0</v>
       </c>
-      <c r="I17" s="28">
-        <f t="shared" ref="I17" si="23">D17*H17</f>
+      <c r="I17" s="44">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J17" s="4">
-        <v>46054</v>
-      </c>
-      <c r="K17" s="4">
+      <c r="J17" s="46">
         <v>46060</v>
       </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="1" t="s">
-        <v>14</v>
+      <c r="K17" s="46">
+        <v>46066</v>
+      </c>
+      <c r="L17" s="46"/>
+      <c r="M17" s="43" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="28">
-        <v>325000</v>
-      </c>
-      <c r="E18" s="28">
+      <c r="D18" s="27">
+        <v>100000</v>
+      </c>
+      <c r="E18" s="27">
         <v>0</v>
       </c>
-      <c r="F18" s="28">
-        <f t="shared" ref="F18:F19" si="24">(D18+I18)-E18</f>
-        <v>325000</v>
-      </c>
-      <c r="G18" s="28">
+      <c r="F18" s="27">
+        <f t="shared" si="18"/>
+        <v>100000</v>
+      </c>
+      <c r="G18" s="27">
         <v>0</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="28">
         <v>0</v>
       </c>
-      <c r="I18" s="28">
-        <f t="shared" ref="I18:I19" si="25">D18*H18</f>
+      <c r="I18" s="27">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J18" s="4">
-        <v>46054</v>
+        <v>46060</v>
       </c>
       <c r="K18" s="4">
-        <v>46060</v>
+        <v>46066</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="1" t="s">
@@ -1681,40 +1737,39 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="28">
-        <f>50000+50000+20000+10000</f>
-        <v>130000</v>
-      </c>
-      <c r="E19" s="28">
+        <v>3</v>
+      </c>
+      <c r="D19" s="27">
+        <v>50000</v>
+      </c>
+      <c r="E19" s="27">
         <v>0</v>
       </c>
-      <c r="F19" s="28">
-        <f t="shared" si="24"/>
-        <v>130000</v>
-      </c>
-      <c r="G19" s="28">
+      <c r="F19" s="27">
+        <f t="shared" ref="F19" si="20">(D19+I19)-E19</f>
+        <v>50000</v>
+      </c>
+      <c r="G19" s="27">
         <v>0</v>
       </c>
-      <c r="H19" s="29">
+      <c r="H19" s="28">
         <v>0</v>
       </c>
-      <c r="I19" s="28">
-        <f t="shared" si="25"/>
+      <c r="I19" s="27">
+        <f t="shared" ref="I19" si="21">D19*H19</f>
         <v>0</v>
       </c>
       <c r="J19" s="4">
-        <v>46054</v>
+        <v>46061</v>
       </c>
       <c r="K19" s="4">
-        <v>46060</v>
+        <v>46067</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="1" t="s">
@@ -1723,193 +1778,457 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>20</v>
-      </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="27">
+        <v>50000</v>
+      </c>
+      <c r="E20" s="27">
+        <v>0</v>
+      </c>
+      <c r="F20" s="27">
+        <f t="shared" ref="F20:F21" si="22">(D20+I20)-E20</f>
+        <v>50000</v>
+      </c>
+      <c r="G20" s="27">
+        <v>0</v>
+      </c>
+      <c r="H20" s="28">
+        <v>0</v>
+      </c>
+      <c r="I20" s="27">
+        <f t="shared" ref="I20:I21" si="23">D20*H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4">
+        <v>46061</v>
+      </c>
+      <c r="K20" s="4">
+        <v>46067</v>
+      </c>
       <c r="L20" s="4"/>
-      <c r="M20" s="1"/>
+      <c r="M20" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>21</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="27">
+        <v>100000</v>
+      </c>
+      <c r="E21" s="27">
+        <v>0</v>
+      </c>
+      <c r="F21" s="27">
+        <f t="shared" si="22"/>
+        <v>100000</v>
+      </c>
+      <c r="G21" s="27">
+        <v>0</v>
+      </c>
+      <c r="H21" s="28">
+        <v>0</v>
+      </c>
+      <c r="I21" s="27">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <v>46061</v>
+      </c>
+      <c r="K21" s="4">
+        <v>46067</v>
+      </c>
       <c r="L21" s="4"/>
-      <c r="M21" s="1"/>
+      <c r="M21" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>22</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="27">
+        <v>20000</v>
+      </c>
+      <c r="E22" s="27">
+        <v>0</v>
+      </c>
+      <c r="F22" s="27">
+        <f t="shared" ref="F22" si="24">(D22+I22)-E22</f>
+        <v>20000</v>
+      </c>
+      <c r="G22" s="27">
+        <v>0</v>
+      </c>
+      <c r="H22" s="28">
+        <v>0</v>
+      </c>
+      <c r="I22" s="27">
+        <f t="shared" ref="I22" si="25">D22*H22</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>46061</v>
+      </c>
+      <c r="K22" s="4">
+        <v>46067</v>
+      </c>
       <c r="L22" s="4"/>
-      <c r="M22" s="1"/>
+      <c r="M22" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>23</v>
-      </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="44">
+        <v>20000</v>
+      </c>
+      <c r="E23" s="44">
+        <v>20000</v>
+      </c>
+      <c r="F23" s="44">
+        <f t="shared" ref="F23" si="26">(D23+I23)-E23</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="44">
+        <v>0</v>
+      </c>
+      <c r="H23" s="45">
+        <v>0</v>
+      </c>
+      <c r="I23" s="44">
+        <f t="shared" ref="I23" si="27">D23*H23</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="46">
+        <v>46061</v>
+      </c>
+      <c r="K23" s="46">
+        <v>46062</v>
+      </c>
+      <c r="L23" s="46"/>
+      <c r="M23" s="43" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="24"/>
-    </row>
-    <row r="25" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="B25" s="34" t="s">
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="24"/>
+    </row>
+    <row r="31" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="B31" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="41" t="s">
+      <c r="C31" s="33"/>
+      <c r="D31" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D26" s="40" t="s">
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D32" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="35">
-        <f>SUM(D2:D24)</f>
-        <v>3047000</v>
-      </c>
-      <c r="G26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D27" s="40" t="s">
+      <c r="E32" s="39"/>
+      <c r="F32" s="34">
+        <f>SUM(D2:D30)</f>
+        <v>2342000</v>
+      </c>
+      <c r="G32" s="35"/>
+      <c r="J32" s="35"/>
+    </row>
+    <row r="33" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D33" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="35">
-        <f>SUM(E2:E24)</f>
-        <v>858000</v>
-      </c>
-      <c r="G27" s="36"/>
-      <c r="M27" s="25" t="s">
+      <c r="E33" s="39"/>
+      <c r="F33" s="34">
+        <f>SUM(E2:E30)</f>
+        <v>1220000</v>
+      </c>
+      <c r="G33" s="35"/>
+      <c r="M33" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D28" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="35">
-        <f>F27-F26</f>
-        <v>-2189000</v>
-      </c>
-      <c r="G28" s="36"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D29" s="40" t="s">
+    <row r="34" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D34" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="39"/>
+      <c r="F34" s="34">
+        <f>F33-F32</f>
+        <v>-1122000</v>
+      </c>
+      <c r="G34" s="35"/>
+    </row>
+    <row r="35" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D35" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="35">
-        <f>SUM(F2:F24)</f>
-        <v>2343800</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G30" s="36"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D31" s="25" t="s">
+      <c r="E35" s="39"/>
+      <c r="F35" s="34">
+        <f>SUM(F2:F30)</f>
+        <v>1325650</v>
+      </c>
+    </row>
+    <row r="36" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="G36" s="35"/>
+      <c r="J36" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="K36" s="25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="37" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D37" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="28">
-        <f>1120000</f>
-        <v>1120000</v>
-      </c>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D32" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E32" s="28">
+      <c r="E37" s="27">
+        <f>150000+700000+20000+700000-875000</f>
+        <v>695000</v>
+      </c>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="25">
+        <f>1+2*2+5*3+10*25+20*4+50*3+100*5+200-20</f>
+        <v>1180</v>
+      </c>
+      <c r="J37" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="K37" s="25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D38" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="27">
         <v>0</v>
       </c>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F33" s="36"/>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F34" s="39"/>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F35" s="36"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="J38" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="K38" s="25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F39" s="35"/>
+      <c r="J39" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="K39" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F40" s="38"/>
+      <c r="J40" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="K40" s="25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F41" s="35"/>
+      <c r="J41" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="K41" s="25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F42" s="35"/>
+      <c r="J42" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="K42" s="25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="43" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="J43" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="K43" s="25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F45" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="K45" s="25">
+        <f>SUM(K36:K43)</f>
+        <v>1185</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M28" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}"/>
+  <autoFilter ref="A1:M34" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}"/>
   <mergeCells count="5">
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D34:E34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D25" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
+    <hyperlink ref="D31" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1918,10 +2237,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA131776-2E13-4A0E-8D22-F638A9EA7E4B}">
-  <dimension ref="A1:D263"/>
+  <dimension ref="A1:F336"/>
   <sheetViews>
-    <sheetView topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="A238" sqref="A238"/>
+    <sheetView topLeftCell="A250" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I256" sqref="I256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1930,6 +2249,7 @@
     <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.140625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -4461,7 +4781,7 @@
         <v>46043</v>
       </c>
       <c r="B190" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C190" s="20">
         <v>50000</v>
@@ -4517,7 +4837,7 @@
         <v>46043</v>
       </c>
       <c r="B194" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C194" s="20">
         <v>20000</v>
@@ -4537,7 +4857,7 @@
         <v>220000</v>
       </c>
       <c r="D195" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -4551,7 +4871,7 @@
         <v>220000</v>
       </c>
       <c r="D196" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -4559,7 +4879,7 @@
         <v>46044</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C197" s="20">
         <v>120000</v>
@@ -4643,7 +4963,7 @@
         <v>46045</v>
       </c>
       <c r="B203" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C203" s="20">
         <v>200000</v>
@@ -4699,7 +5019,7 @@
         <v>46047</v>
       </c>
       <c r="B207" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C207" s="20">
         <v>100000</v>
@@ -4727,7 +5047,7 @@
         <v>46048</v>
       </c>
       <c r="B209" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C209" s="20">
         <v>100000</v>
@@ -4783,7 +5103,7 @@
         <v>46049</v>
       </c>
       <c r="B213" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C213" s="20">
         <v>100000</v>
@@ -4797,7 +5117,7 @@
         <v>46049</v>
       </c>
       <c r="B214" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C214" s="20">
         <v>20000</v>
@@ -4839,7 +5159,7 @@
         <v>46050</v>
       </c>
       <c r="B217" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C217" s="20">
         <v>20000</v>
@@ -4867,7 +5187,7 @@
         <v>46050</v>
       </c>
       <c r="B219" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C219" s="20">
         <v>180000</v>
@@ -4895,7 +5215,7 @@
         <v>46051</v>
       </c>
       <c r="B221" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C221" s="20">
         <v>50000</v>
@@ -4946,7 +5266,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A225" s="21">
         <v>46051</v>
       </c>
@@ -4960,7 +5280,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A226" s="21">
         <v>46051</v>
       </c>
@@ -4974,7 +5294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A227" s="21">
         <v>45687</v>
       </c>
@@ -4988,12 +5308,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A228" s="21">
         <v>46053</v>
       </c>
       <c r="B228" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C228" s="20">
         <v>500000</v>
@@ -5002,12 +5322,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A229" s="21">
         <v>46053</v>
       </c>
       <c r="B229" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C229" s="20">
         <v>100000</v>
@@ -5016,7 +5336,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="230" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A230" s="21">
         <v>46054</v>
       </c>
@@ -5030,7 +5350,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A231" s="21">
         <v>46054</v>
       </c>
@@ -5044,7 +5364,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A232" s="21">
         <v>46054</v>
       </c>
@@ -5058,7 +5378,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="233" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A233" s="21">
         <v>46054</v>
       </c>
@@ -5072,7 +5392,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="234" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A234" s="21">
         <v>46054</v>
       </c>
@@ -5086,7 +5406,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="235" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A235" s="21">
         <v>46054</v>
       </c>
@@ -5100,7 +5420,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A236" s="21">
         <v>46054</v>
       </c>
@@ -5114,7 +5434,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A237" s="21">
         <v>46054</v>
       </c>
@@ -5128,161 +5448,800 @@
         <v>57</v>
       </c>
     </row>
-    <row r="238" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A238" s="21"/>
-      <c r="B238" s="19"/>
-      <c r="C238" s="20"/>
-      <c r="D238" s="22"/>
-    </row>
-    <row r="239" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A239" s="21"/>
-      <c r="B239" s="19"/>
-      <c r="C239" s="20"/>
-      <c r="D239" s="22"/>
-    </row>
-    <row r="240" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A240" s="21"/>
-      <c r="B240" s="19"/>
-      <c r="C240" s="20"/>
-      <c r="D240" s="22"/>
+    <row r="238" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A238" s="21">
+        <v>46054</v>
+      </c>
+      <c r="B238" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C238" s="20">
+        <v>100000</v>
+      </c>
+      <c r="D238" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F238" s="13"/>
+    </row>
+    <row r="239" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A239" s="21">
+        <v>46055</v>
+      </c>
+      <c r="B239" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C239" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D239" s="22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A240" s="21">
+        <v>46055</v>
+      </c>
+      <c r="B240" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C240" s="20">
+        <v>100000</v>
+      </c>
+      <c r="D240" s="22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="241" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A241" s="21"/>
-      <c r="B241" s="19"/>
-      <c r="C241" s="20"/>
-      <c r="D241" s="22"/>
+      <c r="A241" s="21">
+        <v>46056</v>
+      </c>
+      <c r="B241" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C241" s="20">
+        <v>300000</v>
+      </c>
+      <c r="D241" s="22" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="242" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A242" s="21"/>
-      <c r="B242" s="19"/>
-      <c r="C242" s="20"/>
-      <c r="D242" s="22"/>
+      <c r="A242" s="21">
+        <v>46056</v>
+      </c>
+      <c r="B242" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C242" s="20">
+        <v>55000</v>
+      </c>
+      <c r="D242" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="243" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A243" s="21"/>
-      <c r="B243" s="19"/>
-      <c r="C243" s="20"/>
-      <c r="D243" s="22"/>
+      <c r="A243" s="21">
+        <v>46056</v>
+      </c>
+      <c r="B243" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C243" s="20">
+        <v>80000</v>
+      </c>
+      <c r="D243" s="22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="244" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A244" s="21"/>
-      <c r="B244" s="19"/>
-      <c r="C244" s="20"/>
-      <c r="D244" s="22"/>
+      <c r="A244" s="21">
+        <v>46056</v>
+      </c>
+      <c r="B244" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C244" s="20">
+        <v>280000</v>
+      </c>
+      <c r="D244" s="22" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="245" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A245" s="21"/>
-      <c r="B245" s="19"/>
-      <c r="C245" s="20"/>
-      <c r="D245" s="22"/>
+      <c r="A245" s="21">
+        <v>46056</v>
+      </c>
+      <c r="B245" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C245" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D245" s="22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="246" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A246" s="21"/>
-      <c r="B246" s="19"/>
-      <c r="C246" s="20"/>
-      <c r="D246" s="22"/>
+      <c r="A246" s="21">
+        <v>46056</v>
+      </c>
+      <c r="B246" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C246" s="20">
+        <v>50000</v>
+      </c>
+      <c r="D246" s="22" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="247" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A247" s="21"/>
-      <c r="B247" s="19"/>
-      <c r="C247" s="20"/>
-      <c r="D247" s="22"/>
+      <c r="A247" s="21">
+        <v>46057</v>
+      </c>
+      <c r="B247" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C247" s="20">
+        <v>250000</v>
+      </c>
+      <c r="D247" s="22" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="248" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A248" s="21"/>
-      <c r="B248" s="19"/>
-      <c r="C248" s="20"/>
-      <c r="D248" s="22"/>
+      <c r="A248" s="21">
+        <v>46058</v>
+      </c>
+      <c r="B248" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C248" s="20">
+        <v>150000</v>
+      </c>
+      <c r="D248" s="22" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="249" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A249" s="21"/>
-      <c r="B249" s="19"/>
-      <c r="C249" s="20"/>
-      <c r="D249" s="22"/>
+      <c r="A249" s="21">
+        <v>46058</v>
+      </c>
+      <c r="B249" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C249" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D249" s="22" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="250" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A250" s="21"/>
-      <c r="B250" s="19"/>
-      <c r="C250" s="20"/>
-      <c r="D250" s="22"/>
+      <c r="A250" s="21">
+        <v>46058</v>
+      </c>
+      <c r="B250" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C250" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D250" s="22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="251" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A251" s="21"/>
-      <c r="B251" s="19"/>
-      <c r="C251" s="20"/>
-      <c r="D251" s="22"/>
+      <c r="A251" s="21">
+        <v>46059</v>
+      </c>
+      <c r="B251" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C251" s="20">
+        <v>200000</v>
+      </c>
+      <c r="D251" s="22" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="252" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A252" s="21"/>
-      <c r="B252" s="19"/>
-      <c r="C252" s="20"/>
-      <c r="D252" s="22"/>
+      <c r="A252" s="21">
+        <v>46059</v>
+      </c>
+      <c r="B252" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C252" s="20">
+        <v>500000</v>
+      </c>
+      <c r="D252" s="22" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="253" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A253" s="21"/>
-      <c r="B253" s="19"/>
-      <c r="C253" s="20"/>
-      <c r="D253" s="22"/>
+      <c r="A253" s="21">
+        <v>46059</v>
+      </c>
+      <c r="B253" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C253" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D253" s="22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="254" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A254" s="21"/>
-      <c r="B254" s="19"/>
-      <c r="C254" s="20"/>
-      <c r="D254" s="22"/>
+      <c r="A254" s="21">
+        <v>46059</v>
+      </c>
+      <c r="B254" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C254" s="20">
+        <v>5000</v>
+      </c>
+      <c r="D254" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="255" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A255" s="21"/>
-      <c r="B255" s="19"/>
-      <c r="C255" s="20"/>
-      <c r="D255" s="22"/>
+      <c r="A255" s="21">
+        <v>46060</v>
+      </c>
+      <c r="B255" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C255" s="20">
+        <v>200000</v>
+      </c>
+      <c r="D255" s="22" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="256" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A256" s="21"/>
-      <c r="B256" s="19"/>
-      <c r="C256" s="20"/>
-      <c r="D256" s="22"/>
+      <c r="A256" s="21">
+        <v>46060</v>
+      </c>
+      <c r="B256" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C256" s="20">
+        <v>400000</v>
+      </c>
+      <c r="D256" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="257" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A257" s="21"/>
-      <c r="B257" s="19"/>
-      <c r="C257" s="20"/>
-      <c r="D257" s="22"/>
+      <c r="A257" s="21">
+        <v>46060</v>
+      </c>
+      <c r="B257" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C257" s="20">
+        <v>100000</v>
+      </c>
+      <c r="D257" s="22" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="258" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A258" s="21"/>
-      <c r="B258" s="19"/>
-      <c r="C258" s="20"/>
-      <c r="D258" s="22"/>
+      <c r="A258" s="21">
+        <v>46061</v>
+      </c>
+      <c r="B258" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C258" s="20">
+        <v>50000</v>
+      </c>
+      <c r="D258" s="22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="259" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A259" s="21"/>
-      <c r="B259" s="19"/>
-      <c r="C259" s="20"/>
-      <c r="D259" s="22"/>
+      <c r="A259" s="21">
+        <v>46061</v>
+      </c>
+      <c r="B259" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C259" s="20">
+        <v>100000</v>
+      </c>
+      <c r="D259" s="22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="260" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A260" s="21"/>
-      <c r="B260" s="19"/>
-      <c r="C260" s="20"/>
-      <c r="D260" s="22"/>
+      <c r="A260" s="21">
+        <v>46061</v>
+      </c>
+      <c r="B260" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C260" s="20">
+        <v>50000</v>
+      </c>
+      <c r="D260" s="22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="261" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A261" s="21"/>
-      <c r="B261" s="19"/>
-      <c r="C261" s="20"/>
-      <c r="D261" s="22"/>
+      <c r="A261" s="21">
+        <v>46061</v>
+      </c>
+      <c r="B261" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C261" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D261" s="22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="262" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A262" s="21"/>
-      <c r="B262" s="19"/>
-      <c r="C262" s="20"/>
-      <c r="D262" s="22"/>
+      <c r="A262" s="21">
+        <v>46061</v>
+      </c>
+      <c r="B262" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C262" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D262" s="22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="263" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A263" s="21"/>
+      <c r="B263" s="19"/>
+      <c r="C263" s="20"/>
+      <c r="D263" s="22"/>
+    </row>
+    <row r="264" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A264" s="21"/>
+      <c r="B264" s="19"/>
+      <c r="C264" s="20"/>
+      <c r="D264" s="22"/>
+    </row>
+    <row r="265" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A265" s="21"/>
+      <c r="B265" s="19"/>
+      <c r="C265" s="20"/>
+      <c r="D265" s="22"/>
+    </row>
+    <row r="266" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A266" s="21"/>
+      <c r="B266" s="19"/>
+      <c r="C266" s="20"/>
+      <c r="D266" s="22"/>
+    </row>
+    <row r="267" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A267" s="21"/>
+      <c r="B267" s="19"/>
+      <c r="C267" s="20"/>
+      <c r="D267" s="22"/>
+    </row>
+    <row r="268" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A268" s="21"/>
+      <c r="B268" s="19"/>
+      <c r="C268" s="20"/>
+      <c r="D268" s="22"/>
+    </row>
+    <row r="269" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A269" s="21"/>
+      <c r="B269" s="19"/>
+      <c r="C269" s="20"/>
+      <c r="D269" s="22"/>
+    </row>
+    <row r="270" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A270" s="21"/>
+      <c r="B270" s="19"/>
+      <c r="C270" s="20"/>
+      <c r="D270" s="22"/>
+    </row>
+    <row r="271" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A271" s="21"/>
+      <c r="B271" s="19"/>
+      <c r="C271" s="20"/>
+      <c r="D271" s="22"/>
+    </row>
+    <row r="272" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A272" s="21"/>
+      <c r="B272" s="19"/>
+      <c r="C272" s="20"/>
+      <c r="D272" s="22"/>
+    </row>
+    <row r="273" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A273" s="21"/>
+      <c r="B273" s="19"/>
+      <c r="C273" s="20"/>
+      <c r="D273" s="22"/>
+    </row>
+    <row r="274" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A274" s="21"/>
+      <c r="B274" s="19"/>
+      <c r="C274" s="20"/>
+      <c r="D274" s="22"/>
+    </row>
+    <row r="275" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A275" s="21"/>
+      <c r="B275" s="19"/>
+      <c r="C275" s="20"/>
+      <c r="D275" s="22"/>
+    </row>
+    <row r="276" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A276" s="21"/>
+      <c r="B276" s="19"/>
+      <c r="C276" s="20"/>
+      <c r="D276" s="22"/>
+    </row>
+    <row r="277" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A277" s="21"/>
+      <c r="B277" s="19"/>
+      <c r="C277" s="20"/>
+      <c r="D277" s="22"/>
+    </row>
+    <row r="278" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A278" s="21"/>
+      <c r="B278" s="19"/>
+      <c r="C278" s="20"/>
+      <c r="D278" s="22"/>
+    </row>
+    <row r="279" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A279" s="21"/>
+      <c r="B279" s="19"/>
+      <c r="C279" s="20"/>
+      <c r="D279" s="22"/>
+    </row>
+    <row r="280" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A280" s="21"/>
+      <c r="B280" s="19"/>
+      <c r="C280" s="20"/>
+      <c r="D280" s="22"/>
+    </row>
+    <row r="281" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A281" s="21"/>
+      <c r="B281" s="19"/>
+      <c r="C281" s="20"/>
+      <c r="D281" s="22"/>
+    </row>
+    <row r="282" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A282" s="21"/>
+      <c r="B282" s="19"/>
+      <c r="C282" s="20"/>
+      <c r="D282" s="22"/>
+    </row>
+    <row r="283" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A283" s="21"/>
+      <c r="B283" s="19"/>
+      <c r="C283" s="20"/>
+      <c r="D283" s="22"/>
+    </row>
+    <row r="284" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A284" s="21"/>
+      <c r="B284" s="19"/>
+      <c r="C284" s="20"/>
+      <c r="D284" s="22"/>
+    </row>
+    <row r="285" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A285" s="21"/>
+      <c r="B285" s="19"/>
+      <c r="C285" s="20"/>
+      <c r="D285" s="22"/>
+    </row>
+    <row r="286" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A286" s="21"/>
+      <c r="B286" s="19"/>
+      <c r="C286" s="20"/>
+      <c r="D286" s="22"/>
+    </row>
+    <row r="287" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A287" s="21"/>
+      <c r="B287" s="19"/>
+      <c r="C287" s="20"/>
+      <c r="D287" s="22"/>
+    </row>
+    <row r="288" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A288" s="21"/>
+      <c r="B288" s="19"/>
+      <c r="C288" s="20"/>
+      <c r="D288" s="22"/>
+    </row>
+    <row r="289" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A289" s="21"/>
+      <c r="B289" s="19"/>
+      <c r="C289" s="20"/>
+      <c r="D289" s="22"/>
+    </row>
+    <row r="290" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A290" s="21"/>
+      <c r="B290" s="19"/>
+      <c r="C290" s="20"/>
+      <c r="D290" s="22"/>
+    </row>
+    <row r="291" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A291" s="21"/>
+      <c r="B291" s="19"/>
+      <c r="C291" s="20"/>
+      <c r="D291" s="22"/>
+    </row>
+    <row r="292" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A292" s="21"/>
+      <c r="B292" s="19"/>
+      <c r="C292" s="20"/>
+      <c r="D292" s="22"/>
+    </row>
+    <row r="293" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A293" s="21"/>
+      <c r="B293" s="19"/>
+      <c r="C293" s="20"/>
+      <c r="D293" s="22"/>
+    </row>
+    <row r="294" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A294" s="21"/>
+      <c r="B294" s="19"/>
+      <c r="C294" s="20"/>
+      <c r="D294" s="22"/>
+    </row>
+    <row r="295" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A295" s="21"/>
+      <c r="B295" s="19"/>
+      <c r="C295" s="20"/>
+      <c r="D295" s="22"/>
+    </row>
+    <row r="296" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A296" s="21"/>
+      <c r="B296" s="19"/>
+      <c r="C296" s="20"/>
+      <c r="D296" s="22"/>
+    </row>
+    <row r="297" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A297" s="21"/>
+      <c r="B297" s="19"/>
+      <c r="C297" s="20"/>
+      <c r="D297" s="22"/>
+    </row>
+    <row r="298" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A298" s="21"/>
+      <c r="B298" s="19"/>
+      <c r="C298" s="20"/>
+      <c r="D298" s="22"/>
+    </row>
+    <row r="299" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A299" s="21"/>
+      <c r="B299" s="19"/>
+      <c r="C299" s="20"/>
+      <c r="D299" s="22"/>
+    </row>
+    <row r="300" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A300" s="21"/>
+      <c r="B300" s="19"/>
+      <c r="C300" s="20"/>
+      <c r="D300" s="22"/>
+    </row>
+    <row r="301" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A301" s="21"/>
+      <c r="B301" s="19"/>
+      <c r="C301" s="20"/>
+      <c r="D301" s="22"/>
+    </row>
+    <row r="302" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A302" s="21"/>
+      <c r="B302" s="19"/>
+      <c r="C302" s="20"/>
+      <c r="D302" s="22"/>
+    </row>
+    <row r="303" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A303" s="21"/>
+      <c r="B303" s="19"/>
+      <c r="C303" s="20"/>
+      <c r="D303" s="22"/>
+    </row>
+    <row r="304" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A304" s="21"/>
+      <c r="B304" s="19"/>
+      <c r="C304" s="20"/>
+      <c r="D304" s="22"/>
+    </row>
+    <row r="305" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A305" s="21"/>
+      <c r="B305" s="19"/>
+      <c r="C305" s="20"/>
+      <c r="D305" s="22"/>
+    </row>
+    <row r="306" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A306" s="21"/>
+      <c r="B306" s="19"/>
+      <c r="C306" s="20"/>
+      <c r="D306" s="22"/>
+    </row>
+    <row r="307" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A307" s="21"/>
+      <c r="B307" s="19"/>
+      <c r="C307" s="20"/>
+      <c r="D307" s="22"/>
+    </row>
+    <row r="308" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A308" s="21"/>
+      <c r="B308" s="19"/>
+      <c r="C308" s="20"/>
+      <c r="D308" s="22"/>
+    </row>
+    <row r="309" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A309" s="21"/>
+      <c r="B309" s="19"/>
+      <c r="C309" s="20"/>
+      <c r="D309" s="22"/>
+    </row>
+    <row r="310" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A310" s="21"/>
+      <c r="B310" s="19"/>
+      <c r="C310" s="20"/>
+      <c r="D310" s="22"/>
+    </row>
+    <row r="311" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A311" s="21"/>
+      <c r="B311" s="19"/>
+      <c r="C311" s="20"/>
+      <c r="D311" s="22"/>
+    </row>
+    <row r="312" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A312" s="21"/>
+      <c r="B312" s="19"/>
+      <c r="C312" s="20"/>
+      <c r="D312" s="22"/>
+    </row>
+    <row r="313" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A313" s="21"/>
+      <c r="B313" s="19"/>
+      <c r="C313" s="20"/>
+      <c r="D313" s="22"/>
+    </row>
+    <row r="314" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A314" s="21"/>
+      <c r="B314" s="19"/>
+      <c r="C314" s="20"/>
+      <c r="D314" s="22"/>
+    </row>
+    <row r="315" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A315" s="21"/>
+      <c r="B315" s="19"/>
+      <c r="C315" s="20"/>
+      <c r="D315" s="22"/>
+    </row>
+    <row r="316" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A316" s="21"/>
+      <c r="B316" s="19"/>
+      <c r="C316" s="20"/>
+      <c r="D316" s="22"/>
+    </row>
+    <row r="317" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A317" s="21"/>
+      <c r="B317" s="19"/>
+      <c r="C317" s="20"/>
+      <c r="D317" s="22"/>
+    </row>
+    <row r="318" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A318" s="21"/>
+      <c r="B318" s="19"/>
+      <c r="C318" s="20"/>
+      <c r="D318" s="22"/>
+    </row>
+    <row r="319" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A319" s="21"/>
+      <c r="B319" s="19"/>
+      <c r="C319" s="20"/>
+      <c r="D319" s="22"/>
+    </row>
+    <row r="320" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A320" s="21"/>
+      <c r="B320" s="19"/>
+      <c r="C320" s="20"/>
+      <c r="D320" s="22"/>
+    </row>
+    <row r="321" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A321" s="21"/>
+      <c r="B321" s="19"/>
+      <c r="C321" s="20"/>
+      <c r="D321" s="22"/>
+    </row>
+    <row r="322" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A322" s="21"/>
+      <c r="B322" s="19"/>
+      <c r="C322" s="20"/>
+      <c r="D322" s="22"/>
+    </row>
+    <row r="323" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A323" s="21"/>
+      <c r="B323" s="19"/>
+      <c r="C323" s="20"/>
+      <c r="D323" s="22"/>
+    </row>
+    <row r="324" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A324" s="21"/>
+      <c r="B324" s="19"/>
+      <c r="C324" s="20"/>
+      <c r="D324" s="22"/>
+    </row>
+    <row r="325" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A325" s="21"/>
+      <c r="B325" s="19"/>
+      <c r="C325" s="20"/>
+      <c r="D325" s="22"/>
+    </row>
+    <row r="326" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A326" s="21"/>
+      <c r="B326" s="19"/>
+      <c r="C326" s="20"/>
+      <c r="D326" s="22"/>
+    </row>
+    <row r="327" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A327" s="21"/>
+      <c r="B327" s="19"/>
+      <c r="C327" s="20"/>
+      <c r="D327" s="22"/>
+    </row>
+    <row r="328" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A328" s="21"/>
+      <c r="B328" s="19"/>
+      <c r="C328" s="20"/>
+      <c r="D328" s="22"/>
+    </row>
+    <row r="329" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A329" s="21"/>
+      <c r="B329" s="19"/>
+      <c r="C329" s="20"/>
+      <c r="D329" s="22"/>
+    </row>
+    <row r="330" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A330" s="21"/>
+      <c r="B330" s="19"/>
+      <c r="C330" s="20"/>
+      <c r="D330" s="22"/>
+    </row>
+    <row r="331" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A331" s="21"/>
+      <c r="B331" s="19"/>
+      <c r="C331" s="20"/>
+      <c r="D331" s="22"/>
+    </row>
+    <row r="332" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A332" s="21"/>
+      <c r="B332" s="19"/>
+      <c r="C332" s="20"/>
+      <c r="D332" s="22"/>
+    </row>
+    <row r="333" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A333" s="21"/>
+      <c r="B333" s="19"/>
+      <c r="C333" s="20"/>
+      <c r="D333" s="22"/>
+    </row>
+    <row r="334" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A334" s="21"/>
+      <c r="B334" s="19"/>
+      <c r="C334" s="20"/>
+      <c r="D334" s="22"/>
+    </row>
+    <row r="335" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A335" s="21"/>
+      <c r="B335" s="19"/>
+      <c r="C335" s="20"/>
+      <c r="D335" s="22"/>
+    </row>
+    <row r="336" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A336" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D102" xr:uid="{CA131776-2E13-4A0E-8D22-F638A9EA7E4B}"/>
+  <autoFilter ref="A1:D237" xr:uid="{CA131776-2E13-4A0E-8D22-F638A9EA7E4B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61194347-9CDF-4573-A216-FA870B22E39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D224600-F387-4910-96A7-96F648B9DC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -577,15 +577,6 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -606,6 +597,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -952,8 +952,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,7 +1021,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="45" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -1310,40 +1310,40 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="41">
         <v>100000</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="41">
         <v>100000</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="41">
         <f t="shared" ref="F9" si="10">(D9+I9)-E9</f>
         <v>5000</v>
       </c>
-      <c r="G9" s="44">
+      <c r="G9" s="41">
         <v>0</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="42">
         <v>0.05</v>
       </c>
-      <c r="I9" s="44">
+      <c r="I9" s="41">
         <f t="shared" ref="I9" si="11">D9*H9</f>
         <v>5000</v>
       </c>
-      <c r="J9" s="46">
+      <c r="J9" s="43">
         <v>46055</v>
       </c>
-      <c r="K9" s="46">
+      <c r="K9" s="43">
         <v>46062</v>
       </c>
-      <c r="L9" s="46"/>
-      <c r="M9" s="43" t="s">
+      <c r="L9" s="43"/>
+      <c r="M9" s="40" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1351,41 +1351,41 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="41">
         <v>80000</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="41">
         <f>50000+30000</f>
         <v>80000</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="41">
         <f t="shared" ref="F10:F12" si="12">(D10+I10)-E10</f>
         <v>0</v>
       </c>
-      <c r="G10" s="44">
+      <c r="G10" s="41">
         <v>0</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="42">
         <v>0</v>
       </c>
-      <c r="I10" s="44">
+      <c r="I10" s="41">
         <f t="shared" ref="I10:I12" si="13">D10*H10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="46">
+      <c r="J10" s="43">
         <v>46056</v>
       </c>
-      <c r="K10" s="46">
+      <c r="K10" s="43">
         <v>46062</v>
       </c>
-      <c r="L10" s="46"/>
-      <c r="M10" s="43" t="s">
+      <c r="L10" s="43"/>
+      <c r="M10" s="40" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1435,41 +1435,41 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="41">
         <v>50000</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="41">
         <f>10000+40000</f>
         <v>50000</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="41">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G12" s="44">
+      <c r="G12" s="41">
         <v>0</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="42">
         <v>0</v>
       </c>
-      <c r="I12" s="44">
+      <c r="I12" s="41">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J12" s="46">
+      <c r="J12" s="43">
         <v>46056</v>
       </c>
-      <c r="K12" s="46">
+      <c r="K12" s="43">
         <v>46062</v>
       </c>
-      <c r="L12" s="46"/>
-      <c r="M12" s="43" t="s">
+      <c r="L12" s="43"/>
+      <c r="M12" s="40" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1477,40 +1477,40 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="44">
-        <v>20000</v>
-      </c>
-      <c r="E13" s="44">
+      <c r="D13" s="41">
+        <v>20000</v>
+      </c>
+      <c r="E13" s="41">
+        <v>20000</v>
+      </c>
+      <c r="F13" s="41">
+        <f t="shared" ref="F13:F14" si="14">(D13+I13)-E13</f>
         <v>0</v>
       </c>
-      <c r="F13" s="44">
-        <f t="shared" ref="F13:F14" si="14">(D13+I13)-E13</f>
-        <v>20000</v>
-      </c>
-      <c r="G13" s="44">
+      <c r="G13" s="41">
         <v>0</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="42">
         <v>0</v>
       </c>
-      <c r="I13" s="44">
+      <c r="I13" s="41">
         <f t="shared" ref="I13:I14" si="15">D13*H13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="46">
+      <c r="J13" s="43">
         <v>46058</v>
       </c>
-      <c r="K13" s="46">
+      <c r="K13" s="43">
         <v>46062</v>
       </c>
-      <c r="L13" s="46"/>
-      <c r="M13" s="43" t="s">
+      <c r="L13" s="43"/>
+      <c r="M13" s="40" t="s">
         <v>73</v>
       </c>
       <c r="O13" s="25">
@@ -1571,40 +1571,40 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="41">
         <v>5000</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="41">
         <v>5000</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="41">
         <f t="shared" ref="F15" si="16">(D15+I15)-E15</f>
         <v>0</v>
       </c>
-      <c r="G15" s="44">
+      <c r="G15" s="41">
         <v>0</v>
       </c>
-      <c r="H15" s="45">
+      <c r="H15" s="42">
         <v>0</v>
       </c>
-      <c r="I15" s="44">
+      <c r="I15" s="41">
         <f t="shared" ref="I15" si="17">D15*H15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="46">
+      <c r="J15" s="43">
         <v>46059</v>
       </c>
-      <c r="K15" s="46">
+      <c r="K15" s="43">
         <v>46062</v>
       </c>
-      <c r="L15" s="46"/>
-      <c r="M15" s="43" t="s">
+      <c r="L15" s="43"/>
+      <c r="M15" s="40" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1612,40 +1612,40 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="44">
+      <c r="D16" s="41">
         <v>200000</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="41">
         <v>200000</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="41">
         <f t="shared" ref="F16:F18" si="18">(D16+I16)-E16</f>
         <v>0</v>
       </c>
-      <c r="G16" s="44">
+      <c r="G16" s="41">
         <v>0</v>
       </c>
-      <c r="H16" s="45">
+      <c r="H16" s="42">
         <v>0</v>
       </c>
-      <c r="I16" s="44">
+      <c r="I16" s="41">
         <f t="shared" ref="I16:I18" si="19">D16*H16</f>
         <v>0</v>
       </c>
-      <c r="J16" s="46">
+      <c r="J16" s="43">
         <v>46060</v>
       </c>
-      <c r="K16" s="46">
+      <c r="K16" s="43">
         <v>46062</v>
       </c>
-      <c r="L16" s="46"/>
-      <c r="M16" s="43" t="s">
+      <c r="L16" s="43"/>
+      <c r="M16" s="40" t="s">
         <v>73</v>
       </c>
       <c r="O16" s="25" t="e">
@@ -1657,40 +1657,40 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="44">
+      <c r="D17" s="41">
         <v>400000</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="41">
         <v>400000</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="41">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="G17" s="44">
+      <c r="G17" s="41">
         <v>0</v>
       </c>
-      <c r="H17" s="45">
+      <c r="H17" s="42">
         <v>0</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="41">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J17" s="46">
+      <c r="J17" s="43">
         <v>46060</v>
       </c>
-      <c r="K17" s="46">
+      <c r="K17" s="43">
         <v>46066</v>
       </c>
-      <c r="L17" s="46"/>
-      <c r="M17" s="43" t="s">
+      <c r="L17" s="43"/>
+      <c r="M17" s="40" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1903,40 +1903,40 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="44">
-        <v>20000</v>
-      </c>
-      <c r="E23" s="44">
-        <v>20000</v>
-      </c>
-      <c r="F23" s="44">
+      <c r="D23" s="41">
+        <v>20000</v>
+      </c>
+      <c r="E23" s="41">
+        <v>20000</v>
+      </c>
+      <c r="F23" s="41">
         <f t="shared" ref="F23" si="26">(D23+I23)-E23</f>
         <v>0</v>
       </c>
-      <c r="G23" s="44">
+      <c r="G23" s="41">
         <v>0</v>
       </c>
-      <c r="H23" s="45">
+      <c r="H23" s="42">
         <v>0</v>
       </c>
-      <c r="I23" s="44">
+      <c r="I23" s="41">
         <f t="shared" ref="I23" si="27">D23*H23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="46">
+      <c r="J23" s="43">
         <v>46061</v>
       </c>
-      <c r="K23" s="46">
+      <c r="K23" s="43">
         <v>46062</v>
       </c>
-      <c r="L23" s="46"/>
-      <c r="M23" s="43" t="s">
+      <c r="L23" s="43"/>
+      <c r="M23" s="40" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2064,18 +2064,18 @@
         <v>33</v>
       </c>
       <c r="C31" s="33"/>
-      <c r="D31" s="40" t="s">
+      <c r="D31" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D32" s="39" t="s">
+      <c r="D32" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="39"/>
+      <c r="E32" s="46"/>
       <c r="F32" s="34">
         <f>SUM(D2:D30)</f>
         <v>2342000</v>
@@ -2084,13 +2084,13 @@
       <c r="J32" s="35"/>
     </row>
     <row r="33" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D33" s="39" t="s">
+      <c r="D33" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="39"/>
+      <c r="E33" s="46"/>
       <c r="F33" s="34">
         <f>SUM(E2:E30)</f>
-        <v>1220000</v>
+        <v>1240000</v>
       </c>
       <c r="G33" s="35"/>
       <c r="M33" s="25" t="s">
@@ -2098,24 +2098,24 @@
       </c>
     </row>
     <row r="34" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D34" s="39" t="s">
+      <c r="D34" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="39"/>
+      <c r="E34" s="46"/>
       <c r="F34" s="34">
         <f>F33-F32</f>
-        <v>-1122000</v>
+        <v>-1102000</v>
       </c>
       <c r="G34" s="35"/>
     </row>
     <row r="35" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D35" s="39" t="s">
+      <c r="D35" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="39"/>
+      <c r="E35" s="46"/>
       <c r="F35" s="34">
         <f>SUM(F2:F30)</f>
-        <v>1325650</v>
+        <v>1305650</v>
       </c>
     </row>
     <row r="36" spans="4:13" x14ac:dyDescent="0.25">

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D224600-F387-4910-96A7-96F648B9DC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44F1068-29AA-45E8-8957-54E5A4037B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="THỐNG KÊ NẠP" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DANH SÁCH NỢ'!$A$1:$M$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DANH SÁCH NỢ'!$A$1:$M$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'THỐNG KÊ NẠP'!$A$1:$U$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'THONG KE NAP '!$A$1:$D$237</definedName>
   </definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="77">
   <si>
     <t>STT</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>Điều khoản dịch vụ:</t>
-  </si>
-  <si>
-    <t>https://tinyurl.com/dieukhoan29</t>
   </si>
   <si>
     <t>Lại Quốc Khải</t>
@@ -264,42 +261,26 @@
     <t>Trần Minh Đạt</t>
   </si>
   <si>
-    <t>Đã trả đủ</t>
+    <t>https://tinyurl.com/dieukhoan02112026</t>
   </si>
   <si>
-    <t>bảo</t>
+    <t>Điền</t>
   </si>
   <si>
-    <t xml:space="preserve">bảo </t>
+    <t>Trần Hoàng Minh</t>
   </si>
   <si>
-    <t xml:space="preserve">vinh </t>
+    <t xml:space="preserve">Nguyễn Hoàng Gia Bảo </t>
   </si>
   <si>
-    <t xml:space="preserve">khánh </t>
-  </si>
-  <si>
-    <t xml:space="preserve">nhân </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ý </t>
-  </si>
-  <si>
-    <t xml:space="preserve">thư </t>
-  </si>
-  <si>
-    <t xml:space="preserve">trân </t>
-  </si>
-  <si>
-    <t xml:space="preserve">nghĩa </t>
+    <t>Nguyễn Hoàng Huy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+  <numFmts count="4">
     <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.000\ [$₫-42A]_-;\-* #,##0.000\ [$₫-42A]_-;_-* &quot;-&quot;???\ [$₫-42A]_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0\ [$₫-42A]_-;\-* #,##0\ [$₫-42A]_-;_-* &quot;-&quot;\ [$₫-42A]_-;_-@_-"/>
@@ -335,14 +316,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="18"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Aptos Narrow"/>
@@ -363,16 +336,23 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="15"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
+      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -405,7 +385,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFF0066"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,7 +451,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -493,10 +473,10 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -511,22 +491,22 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -568,35 +548,26 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -604,7 +575,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -616,9 +587,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF0066"/>
+      <color rgb="FFCC0099"/>
+      <color rgb="FFFF1D1D"/>
+      <color rgb="FFFF2929"/>
       <color rgb="FFFF4F4F"/>
-      <color rgb="FFFF2929"/>
-      <color rgb="FFFF1D1D"/>
     </mruColors>
   </colors>
   <extLst>
@@ -950,10 +923,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,7 +994,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="37" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -1035,23 +1008,23 @@
       </c>
       <c r="F2" s="31">
         <f>(D2+I2)-E2</f>
-        <v>245000</v>
+        <v>262500</v>
       </c>
       <c r="G2" s="31">
         <v>0</v>
       </c>
       <c r="H2" s="32">
-        <v>0.5</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I2" s="31">
         <f>(D2*H2)</f>
-        <v>175000</v>
+        <v>192500.00000000003</v>
       </c>
       <c r="J2" s="16">
         <v>45984</v>
       </c>
-      <c r="K2" s="16">
-        <v>46067</v>
+      <c r="K2" s="42">
+        <v>46083</v>
       </c>
       <c r="L2" s="16"/>
       <c r="M2" s="15" t="s">
@@ -1106,10 +1079,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D4" s="27">
         <v>2000</v>
@@ -1119,23 +1092,23 @@
       </c>
       <c r="F4" s="27">
         <f t="shared" ref="F4" si="2">(D4+I4)-E4</f>
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="G4" s="27">
         <v>0</v>
       </c>
       <c r="H4" s="28">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I4" s="27">
         <f t="shared" ref="I4" si="3">D4*H4</f>
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="J4" s="4">
         <v>46022</v>
       </c>
-      <c r="K4" s="4">
-        <v>46063</v>
+      <c r="K4" s="42">
+        <v>46083</v>
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="1" t="s">
@@ -1147,7 +1120,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>3</v>
@@ -1160,23 +1133,23 @@
       </c>
       <c r="F5" s="27">
         <f t="shared" ref="F5:F6" si="4">(D5+I5)-E5</f>
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="G5" s="27">
         <v>0</v>
       </c>
       <c r="H5" s="28">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="I5" s="27">
         <f t="shared" ref="I5:I6" si="5">D5*H5</f>
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="J5" s="4">
         <v>46049</v>
       </c>
-      <c r="K5" s="4">
-        <v>46062</v>
+      <c r="K5" s="42">
+        <v>46083</v>
       </c>
       <c r="L5" s="4"/>
       <c r="M5" s="1" t="s">
@@ -1188,7 +1161,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -1201,23 +1174,23 @@
       </c>
       <c r="F6" s="27">
         <f t="shared" si="4"/>
-        <v>21000</v>
+        <v>23000</v>
       </c>
       <c r="G6" s="27">
         <v>0</v>
       </c>
       <c r="H6" s="28">
-        <v>0.05</v>
+        <v>0.15</v>
       </c>
       <c r="I6" s="27">
         <f t="shared" si="5"/>
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="J6" s="4">
         <v>46050</v>
       </c>
-      <c r="K6" s="4">
-        <v>46063</v>
+      <c r="K6" s="42">
+        <v>46083</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="1" t="s">
@@ -1229,10 +1202,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D7" s="27">
         <v>325000</v>
@@ -1242,23 +1215,23 @@
       </c>
       <c r="F7" s="27">
         <f t="shared" ref="F7" si="6">(D7+I7)-E7</f>
-        <v>341250</v>
+        <v>357500</v>
       </c>
       <c r="G7" s="27">
         <v>0</v>
       </c>
       <c r="H7" s="28">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I7" s="27">
         <f t="shared" ref="I7" si="7">D7*H7</f>
-        <v>16250</v>
+        <v>32500</v>
       </c>
       <c r="J7" s="4">
         <v>46054</v>
       </c>
-      <c r="K7" s="4">
-        <v>46067</v>
+      <c r="K7" s="42">
+        <v>46083</v>
       </c>
       <c r="L7" s="4"/>
       <c r="M7" s="1" t="s">
@@ -1270,7 +1243,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
@@ -1283,23 +1256,23 @@
       </c>
       <c r="F8" s="27">
         <f t="shared" ref="F8" si="8">(D8+I8)-E8</f>
-        <v>105000</v>
+        <v>110000</v>
       </c>
       <c r="G8" s="27">
         <v>0</v>
       </c>
       <c r="H8" s="28">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I8" s="27">
         <f t="shared" ref="I8" si="9">D8*H8</f>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="J8" s="4">
         <v>46054</v>
       </c>
-      <c r="K8" s="4">
-        <v>46067</v>
+      <c r="K8" s="42">
+        <v>46083</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="1" t="s">
@@ -1310,83 +1283,89 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="41">
-        <v>100000</v>
-      </c>
-      <c r="E9" s="41">
-        <v>100000</v>
-      </c>
-      <c r="F9" s="41">
+      <c r="B9" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="27">
+        <v>280000</v>
+      </c>
+      <c r="E9" s="27">
+        <f>70000</f>
+        <v>70000</v>
+      </c>
+      <c r="F9" s="27">
         <f t="shared" ref="F9" si="10">(D9+I9)-E9</f>
-        <v>5000</v>
-      </c>
-      <c r="G9" s="41">
-        <v>0</v>
-      </c>
-      <c r="H9" s="42">
-        <v>0.05</v>
-      </c>
-      <c r="I9" s="41">
+        <v>238000</v>
+      </c>
+      <c r="G9" s="27">
+        <v>0</v>
+      </c>
+      <c r="H9" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="I9" s="27">
         <f t="shared" ref="I9" si="11">D9*H9</f>
-        <v>5000</v>
-      </c>
-      <c r="J9" s="43">
-        <v>46055</v>
-      </c>
-      <c r="K9" s="43">
-        <v>46062</v>
-      </c>
-      <c r="L9" s="43"/>
-      <c r="M9" s="40" t="s">
-        <v>73</v>
+        <v>28000</v>
+      </c>
+      <c r="J9" s="4">
+        <v>46056</v>
+      </c>
+      <c r="K9" s="42">
+        <v>46083</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="40" t="s">
+      <c r="B10" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="41">
-        <v>80000</v>
-      </c>
-      <c r="E10" s="41">
-        <f>50000+30000</f>
-        <v>80000</v>
-      </c>
-      <c r="F10" s="41">
-        <f t="shared" ref="F10:F12" si="12">(D10+I10)-E10</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="41">
-        <v>0</v>
-      </c>
-      <c r="H10" s="42">
-        <v>0</v>
-      </c>
-      <c r="I10" s="41">
-        <f t="shared" ref="I10:I12" si="13">D10*H10</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="43">
-        <v>46056</v>
-      </c>
-      <c r="K10" s="43">
-        <v>46062</v>
-      </c>
-      <c r="L10" s="43"/>
-      <c r="M10" s="40" t="s">
-        <v>73</v>
+      <c r="D10" s="27">
+        <v>20000</v>
+      </c>
+      <c r="E10" s="27">
+        <v>0</v>
+      </c>
+      <c r="F10" s="27">
+        <f t="shared" ref="F10" si="12">(D10+I10)-E10</f>
+        <v>21000</v>
+      </c>
+      <c r="G10" s="27">
+        <v>0</v>
+      </c>
+      <c r="H10" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="I10" s="27">
+        <f t="shared" ref="I10" si="13">D10*H10</f>
+        <v>1000</v>
+      </c>
+      <c r="J10" s="4">
+        <v>46058</v>
+      </c>
+      <c r="K10" s="42">
+        <v>46083</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="25">
+        <v>280</v>
+      </c>
+      <c r="P10" s="25">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -1397,34 +1376,33 @@
         <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="27">
-        <v>280000</v>
+        <v>100000</v>
       </c>
       <c r="E11" s="27">
-        <f>70000</f>
-        <v>70000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="27">
-        <f t="shared" si="12"/>
-        <v>210000</v>
+        <f t="shared" ref="F11" si="14">(D11+I11)-E11</f>
+        <v>105000</v>
       </c>
       <c r="G11" s="27">
         <v>0</v>
       </c>
       <c r="H11" s="28">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I11" s="27">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" ref="I11" si="15">D11*H11</f>
+        <v>5000</v>
       </c>
       <c r="J11" s="4">
-        <v>46056</v>
-      </c>
-      <c r="K11" s="4">
-        <v>46062</v>
+        <v>46060</v>
+      </c>
+      <c r="K11" s="42">
+        <v>46083</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="1" t="s">
@@ -1435,89 +1413,82 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="41">
+      <c r="B12" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="27">
         <v>50000</v>
       </c>
-      <c r="E12" s="41">
-        <f>10000+40000</f>
-        <v>50000</v>
-      </c>
-      <c r="F12" s="41">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="41">
-        <v>0</v>
-      </c>
-      <c r="H12" s="42">
-        <v>0</v>
-      </c>
-      <c r="I12" s="41">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="43">
-        <v>46056</v>
-      </c>
-      <c r="K12" s="43">
-        <v>46062</v>
-      </c>
-      <c r="L12" s="43"/>
-      <c r="M12" s="40" t="s">
-        <v>73</v>
+      <c r="E12" s="27">
+        <v>0</v>
+      </c>
+      <c r="F12" s="27">
+        <f t="shared" ref="F12:F13" si="16">(D12+I12)-E12</f>
+        <v>52500</v>
+      </c>
+      <c r="G12" s="27">
+        <v>0</v>
+      </c>
+      <c r="H12" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="I12" s="27">
+        <f t="shared" ref="I12:I13" si="17">D12*H12</f>
+        <v>2500</v>
+      </c>
+      <c r="J12" s="4">
+        <v>46061</v>
+      </c>
+      <c r="K12" s="42">
+        <v>46083</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="41">
-        <v>20000</v>
-      </c>
-      <c r="E13" s="41">
-        <v>20000</v>
-      </c>
-      <c r="F13" s="41">
-        <f t="shared" ref="F13:F14" si="14">(D13+I13)-E13</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="41">
-        <v>0</v>
-      </c>
-      <c r="H13" s="42">
-        <v>0</v>
-      </c>
-      <c r="I13" s="41">
-        <f t="shared" ref="I13:I14" si="15">D13*H13</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="43">
-        <v>46058</v>
-      </c>
-      <c r="K13" s="43">
-        <v>46062</v>
-      </c>
-      <c r="L13" s="43"/>
-      <c r="M13" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="O13" s="25">
-        <v>300</v>
-      </c>
-      <c r="P13" s="25">
-        <v>10</v>
+      <c r="B13" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="27">
+        <v>100000</v>
+      </c>
+      <c r="E13" s="27">
+        <v>0</v>
+      </c>
+      <c r="F13" s="27">
+        <f t="shared" si="16"/>
+        <v>105000</v>
+      </c>
+      <c r="G13" s="27">
+        <v>0</v>
+      </c>
+      <c r="H13" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="I13" s="27">
+        <f t="shared" si="17"/>
+        <v>5000</v>
+      </c>
+      <c r="J13" s="4">
+        <v>46061</v>
+      </c>
+      <c r="K13" s="42">
+        <v>46083</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
@@ -1525,7 +1496,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>3</v>
@@ -1537,201 +1508,191 @@
         <v>0</v>
       </c>
       <c r="F14" s="27">
-        <f t="shared" si="14"/>
-        <v>20000</v>
+        <f t="shared" ref="F14" si="18">(D14+I14)-E14</f>
+        <v>21000</v>
       </c>
       <c r="G14" s="27">
         <v>0</v>
       </c>
       <c r="H14" s="28">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="I14" s="27">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" ref="I14" si="19">D14*H14</f>
+        <v>1000</v>
       </c>
       <c r="J14" s="4">
-        <v>46058</v>
-      </c>
-      <c r="K14" s="4">
-        <v>46064</v>
+        <v>46061</v>
+      </c>
+      <c r="K14" s="42">
+        <v>46083</v>
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O14" s="25">
-        <v>280</v>
-      </c>
-      <c r="P14" s="25">
-        <v>20</v>
-      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="41">
-        <v>5000</v>
-      </c>
-      <c r="E15" s="41">
-        <v>5000</v>
-      </c>
-      <c r="F15" s="41">
-        <f t="shared" ref="F15" si="16">(D15+I15)-E15</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="41">
-        <v>0</v>
-      </c>
-      <c r="H15" s="42">
-        <v>0</v>
-      </c>
-      <c r="I15" s="41">
-        <f t="shared" ref="I15" si="17">D15*H15</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="43">
-        <v>46059</v>
-      </c>
-      <c r="K15" s="43">
-        <v>46062</v>
-      </c>
-      <c r="L15" s="43"/>
-      <c r="M15" s="40" t="s">
-        <v>73</v>
+      <c r="B15" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="40">
+        <v>350000</v>
+      </c>
+      <c r="E15" s="40">
+        <v>0</v>
+      </c>
+      <c r="F15" s="40">
+        <f t="shared" ref="F15:F17" si="20">(D15+I15)-E15</f>
+        <v>350000</v>
+      </c>
+      <c r="G15" s="40">
+        <v>0</v>
+      </c>
+      <c r="H15" s="41">
+        <v>0</v>
+      </c>
+      <c r="I15" s="40">
+        <f t="shared" ref="I15:I17" si="21">D15*H15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="42">
+        <v>46065</v>
+      </c>
+      <c r="K15" s="42">
+        <v>46083</v>
+      </c>
+      <c r="L15" s="42"/>
+      <c r="M15" s="39" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="41">
-        <v>200000</v>
-      </c>
-      <c r="E16" s="41">
-        <v>200000</v>
-      </c>
-      <c r="F16" s="41">
-        <f t="shared" ref="F16:F18" si="18">(D16+I16)-E16</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="41">
-        <v>0</v>
-      </c>
-      <c r="H16" s="42">
-        <v>0</v>
-      </c>
-      <c r="I16" s="41">
-        <f t="shared" ref="I16:I18" si="19">D16*H16</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="43">
-        <v>46060</v>
-      </c>
-      <c r="K16" s="43">
-        <v>46062</v>
-      </c>
-      <c r="L16" s="43"/>
-      <c r="M16" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="O16" s="25" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
+      <c r="B16" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="40">
+        <v>300000</v>
+      </c>
+      <c r="E16" s="40">
+        <v>0</v>
+      </c>
+      <c r="F16" s="40">
+        <f t="shared" si="20"/>
+        <v>300000</v>
+      </c>
+      <c r="G16" s="40">
+        <v>0</v>
+      </c>
+      <c r="H16" s="41">
+        <v>0</v>
+      </c>
+      <c r="I16" s="40">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="42">
+        <v>46066</v>
+      </c>
+      <c r="K16" s="42">
+        <v>46083</v>
+      </c>
+      <c r="L16" s="42"/>
+      <c r="M16" s="39" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="40" t="s">
+      <c r="B17" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="41">
-        <v>400000</v>
-      </c>
-      <c r="E17" s="41">
-        <v>400000</v>
-      </c>
-      <c r="F17" s="41">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="41">
-        <v>0</v>
-      </c>
-      <c r="H17" s="42">
-        <v>0</v>
-      </c>
-      <c r="I17" s="41">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="43">
-        <v>46060</v>
-      </c>
-      <c r="K17" s="43">
+      <c r="D17" s="40">
+        <v>100000</v>
+      </c>
+      <c r="E17" s="40">
+        <v>0</v>
+      </c>
+      <c r="F17" s="40">
+        <f t="shared" si="20"/>
+        <v>100000</v>
+      </c>
+      <c r="G17" s="40">
+        <v>0</v>
+      </c>
+      <c r="H17" s="41">
+        <v>0</v>
+      </c>
+      <c r="I17" s="40">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="42">
         <v>46066</v>
       </c>
-      <c r="L17" s="43"/>
-      <c r="M17" s="40" t="s">
-        <v>73</v>
+      <c r="K17" s="42">
+        <v>46083</v>
+      </c>
+      <c r="L17" s="42"/>
+      <c r="M17" s="39" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="27">
-        <v>100000</v>
-      </c>
-      <c r="E18" s="27">
-        <v>0</v>
-      </c>
-      <c r="F18" s="27">
-        <f t="shared" si="18"/>
-        <v>100000</v>
-      </c>
-      <c r="G18" s="27">
-        <v>0</v>
-      </c>
-      <c r="H18" s="28">
-        <v>0</v>
-      </c>
-      <c r="I18" s="27">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="4">
-        <v>46060</v>
-      </c>
-      <c r="K18" s="4">
-        <v>46066</v>
-      </c>
-      <c r="L18" s="4"/>
-      <c r="M18" s="1" t="s">
+      <c r="B18" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="40">
+        <v>250000</v>
+      </c>
+      <c r="E18" s="40">
+        <v>0</v>
+      </c>
+      <c r="F18" s="40">
+        <f t="shared" ref="F18:F20" si="22">(D18+I18)-E18</f>
+        <v>250000</v>
+      </c>
+      <c r="G18" s="40">
+        <v>0</v>
+      </c>
+      <c r="H18" s="41">
+        <v>0</v>
+      </c>
+      <c r="I18" s="40">
+        <f t="shared" ref="I18:I20" si="23">D18*H18</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="42">
+        <v>46068</v>
+      </c>
+      <c r="K18" s="42">
+        <v>46083</v>
+      </c>
+      <c r="L18" s="42"/>
+      <c r="M18" s="39" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1739,40 +1700,40 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="40">
         <v>50000</v>
       </c>
-      <c r="E19" s="27">
-        <v>0</v>
-      </c>
-      <c r="F19" s="27">
-        <f t="shared" ref="F19" si="20">(D19+I19)-E19</f>
+      <c r="E19" s="40">
+        <v>0</v>
+      </c>
+      <c r="F19" s="40">
+        <f t="shared" si="22"/>
         <v>50000</v>
       </c>
-      <c r="G19" s="27">
-        <v>0</v>
-      </c>
-      <c r="H19" s="28">
-        <v>0</v>
-      </c>
-      <c r="I19" s="27">
-        <f t="shared" ref="I19" si="21">D19*H19</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="4">
-        <v>46061</v>
-      </c>
-      <c r="K19" s="4">
-        <v>46067</v>
-      </c>
-      <c r="L19" s="4"/>
-      <c r="M19" s="1" t="s">
+      <c r="G19" s="40">
+        <v>0</v>
+      </c>
+      <c r="H19" s="41">
+        <v>0</v>
+      </c>
+      <c r="I19" s="40">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="42">
+        <v>46068</v>
+      </c>
+      <c r="K19" s="42">
+        <v>46083</v>
+      </c>
+      <c r="L19" s="42"/>
+      <c r="M19" s="39" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1780,40 +1741,40 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="27">
-        <v>50000</v>
-      </c>
-      <c r="E20" s="27">
-        <v>0</v>
-      </c>
-      <c r="F20" s="27">
-        <f t="shared" ref="F20:F21" si="22">(D20+I20)-E20</f>
-        <v>50000</v>
-      </c>
-      <c r="G20" s="27">
-        <v>0</v>
-      </c>
-      <c r="H20" s="28">
-        <v>0</v>
-      </c>
-      <c r="I20" s="27">
-        <f t="shared" ref="I20:I21" si="23">D20*H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="4">
-        <v>46061</v>
-      </c>
-      <c r="K20" s="4">
-        <v>46067</v>
-      </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="1" t="s">
+      <c r="B20" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="40">
+        <v>500000</v>
+      </c>
+      <c r="E20" s="40">
+        <v>0</v>
+      </c>
+      <c r="F20" s="40">
+        <f t="shared" si="22"/>
+        <v>500000</v>
+      </c>
+      <c r="G20" s="40">
+        <v>0</v>
+      </c>
+      <c r="H20" s="41">
+        <v>0</v>
+      </c>
+      <c r="I20" s="40">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="42">
+        <v>46068</v>
+      </c>
+      <c r="K20" s="42">
+        <v>46083</v>
+      </c>
+      <c r="L20" s="42"/>
+      <c r="M20" s="39" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1821,40 +1782,41 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="27">
-        <v>100000</v>
-      </c>
-      <c r="E21" s="27">
-        <v>0</v>
-      </c>
-      <c r="F21" s="27">
-        <f t="shared" si="22"/>
-        <v>100000</v>
-      </c>
-      <c r="G21" s="27">
-        <v>0</v>
-      </c>
-      <c r="H21" s="28">
-        <v>0</v>
-      </c>
-      <c r="I21" s="27">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <v>46061</v>
-      </c>
-      <c r="K21" s="4">
-        <v>46067</v>
-      </c>
-      <c r="L21" s="4"/>
-      <c r="M21" s="1" t="s">
+      <c r="D21" s="40">
+        <f>50000+20000+10000</f>
+        <v>80000</v>
+      </c>
+      <c r="E21" s="40">
+        <v>0</v>
+      </c>
+      <c r="F21" s="40">
+        <f t="shared" ref="F21:F23" si="24">(D21+I21)-E21</f>
+        <v>80000</v>
+      </c>
+      <c r="G21" s="40">
+        <v>0</v>
+      </c>
+      <c r="H21" s="41">
+        <v>0</v>
+      </c>
+      <c r="I21" s="40">
+        <f t="shared" ref="I21:I23" si="25">D21*H21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="42">
+        <v>46069</v>
+      </c>
+      <c r="K21" s="42">
+        <v>46083</v>
+      </c>
+      <c r="L21" s="42"/>
+      <c r="M21" s="39" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1862,40 +1824,40 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="27">
-        <v>20000</v>
-      </c>
-      <c r="E22" s="27">
-        <v>0</v>
-      </c>
-      <c r="F22" s="27">
-        <f t="shared" ref="F22" si="24">(D22+I22)-E22</f>
-        <v>20000</v>
-      </c>
-      <c r="G22" s="27">
-        <v>0</v>
-      </c>
-      <c r="H22" s="28">
-        <v>0</v>
-      </c>
-      <c r="I22" s="27">
-        <f t="shared" ref="I22" si="25">D22*H22</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="4">
-        <v>46061</v>
-      </c>
-      <c r="K22" s="4">
-        <v>46067</v>
-      </c>
-      <c r="L22" s="4"/>
-      <c r="M22" s="1" t="s">
+      <c r="B22" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="40">
+        <v>200000</v>
+      </c>
+      <c r="E22" s="40">
+        <v>0</v>
+      </c>
+      <c r="F22" s="40">
+        <f t="shared" ref="F22" si="26">(D22+I22)-E22</f>
+        <v>200000</v>
+      </c>
+      <c r="G22" s="40">
+        <v>0</v>
+      </c>
+      <c r="H22" s="41">
+        <v>0</v>
+      </c>
+      <c r="I22" s="40">
+        <f t="shared" ref="I22" si="27">D22*H22</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="42">
+        <v>46069</v>
+      </c>
+      <c r="K22" s="42">
+        <v>46083</v>
+      </c>
+      <c r="L22" s="42"/>
+      <c r="M22" s="39" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1903,332 +1865,656 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="41">
-        <v>20000</v>
-      </c>
-      <c r="E23" s="41">
-        <v>20000</v>
-      </c>
-      <c r="F23" s="41">
-        <f t="shared" ref="F23" si="26">(D23+I23)-E23</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="41">
-        <v>0</v>
-      </c>
-      <c r="H23" s="42">
-        <v>0</v>
-      </c>
-      <c r="I23" s="41">
-        <f t="shared" ref="I23" si="27">D23*H23</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="43">
-        <v>46061</v>
-      </c>
-      <c r="K23" s="43">
-        <v>46062</v>
-      </c>
-      <c r="L23" s="43"/>
-      <c r="M23" s="40" t="s">
-        <v>73</v>
+      <c r="B23" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="40">
+        <f>200000+50000</f>
+        <v>250000</v>
+      </c>
+      <c r="E23" s="40">
+        <v>0</v>
+      </c>
+      <c r="F23" s="40">
+        <f t="shared" si="24"/>
+        <v>250000</v>
+      </c>
+      <c r="G23" s="40">
+        <v>0</v>
+      </c>
+      <c r="H23" s="41">
+        <v>0</v>
+      </c>
+      <c r="I23" s="40">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="42">
+        <v>46069</v>
+      </c>
+      <c r="K23" s="42">
+        <v>46083</v>
+      </c>
+      <c r="L23" s="42"/>
+      <c r="M23" s="39" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="1"/>
+      <c r="B24" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="40">
+        <v>280000</v>
+      </c>
+      <c r="E24" s="40">
+        <v>0</v>
+      </c>
+      <c r="F24" s="40">
+        <f t="shared" ref="F24:F31" si="28">(D24+I24)-E24</f>
+        <v>280000</v>
+      </c>
+      <c r="G24" s="40">
+        <v>0</v>
+      </c>
+      <c r="H24" s="41">
+        <v>0</v>
+      </c>
+      <c r="I24" s="40">
+        <f t="shared" ref="I24:I31" si="29">D24*H24</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="42">
+        <v>46070</v>
+      </c>
+      <c r="K24" s="42">
+        <v>46083</v>
+      </c>
+      <c r="L24" s="42"/>
+      <c r="M24" s="39" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="1"/>
+      <c r="B25" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="40">
+        <v>20000</v>
+      </c>
+      <c r="E25" s="40">
+        <v>0</v>
+      </c>
+      <c r="F25" s="40">
+        <f t="shared" si="28"/>
+        <v>20000</v>
+      </c>
+      <c r="G25" s="40">
+        <v>0</v>
+      </c>
+      <c r="H25" s="41">
+        <v>0</v>
+      </c>
+      <c r="I25" s="40">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="42">
+        <v>46071</v>
+      </c>
+      <c r="K25" s="42">
+        <v>46083</v>
+      </c>
+      <c r="L25" s="42"/>
+      <c r="M25" s="39" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="1"/>
+      <c r="B26" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="40">
+        <f>70000+150000</f>
+        <v>220000</v>
+      </c>
+      <c r="E26" s="40">
+        <v>0</v>
+      </c>
+      <c r="F26" s="40">
+        <f t="shared" si="28"/>
+        <v>220000</v>
+      </c>
+      <c r="G26" s="40">
+        <v>0</v>
+      </c>
+      <c r="H26" s="41">
+        <v>0</v>
+      </c>
+      <c r="I26" s="40">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="42">
+        <v>46071</v>
+      </c>
+      <c r="K26" s="42">
+        <v>46083</v>
+      </c>
+      <c r="L26" s="42"/>
+      <c r="M26" s="39" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="1"/>
+      <c r="B27" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="40">
+        <v>60000</v>
+      </c>
+      <c r="E27" s="40">
+        <v>0</v>
+      </c>
+      <c r="F27" s="40">
+        <f t="shared" si="28"/>
+        <v>60000</v>
+      </c>
+      <c r="G27" s="40">
+        <v>0</v>
+      </c>
+      <c r="H27" s="41">
+        <v>0</v>
+      </c>
+      <c r="I27" s="40">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="42">
+        <v>46071</v>
+      </c>
+      <c r="K27" s="42">
+        <v>46083</v>
+      </c>
+      <c r="L27" s="42"/>
+      <c r="M27" s="39" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="1"/>
+      <c r="B28" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="40">
+        <v>50000</v>
+      </c>
+      <c r="E28" s="40">
+        <v>0</v>
+      </c>
+      <c r="F28" s="40">
+        <f t="shared" si="28"/>
+        <v>50000</v>
+      </c>
+      <c r="G28" s="40">
+        <v>0</v>
+      </c>
+      <c r="H28" s="41">
+        <v>0</v>
+      </c>
+      <c r="I28" s="40">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="42">
+        <v>46071</v>
+      </c>
+      <c r="K28" s="42">
+        <v>46083</v>
+      </c>
+      <c r="L28" s="42"/>
+      <c r="M28" s="39" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="1"/>
+      <c r="B29" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="40">
+        <v>150000</v>
+      </c>
+      <c r="E29" s="40">
+        <v>0</v>
+      </c>
+      <c r="F29" s="40">
+        <f t="shared" si="28"/>
+        <v>150000</v>
+      </c>
+      <c r="G29" s="40">
+        <v>0</v>
+      </c>
+      <c r="H29" s="41">
+        <v>0</v>
+      </c>
+      <c r="I29" s="40">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="42">
+        <v>46071</v>
+      </c>
+      <c r="K29" s="42">
+        <v>46083</v>
+      </c>
+      <c r="L29" s="42"/>
+      <c r="M29" s="39" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="24"/>
-    </row>
-    <row r="31" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="B31" s="33" t="s">
+      <c r="B30" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="40">
+        <v>300000</v>
+      </c>
+      <c r="E30" s="40">
+        <v>0</v>
+      </c>
+      <c r="F30" s="40">
+        <f t="shared" si="28"/>
+        <v>300000</v>
+      </c>
+      <c r="G30" s="40">
+        <v>0</v>
+      </c>
+      <c r="H30" s="41">
+        <v>0</v>
+      </c>
+      <c r="I30" s="40">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="42">
+        <v>46071</v>
+      </c>
+      <c r="K30" s="42">
+        <v>46083</v>
+      </c>
+      <c r="L30" s="42"/>
+      <c r="M30" s="39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="40">
+        <f>200000+50000+80000</f>
+        <v>330000</v>
+      </c>
+      <c r="E31" s="40">
+        <v>0</v>
+      </c>
+      <c r="F31" s="40">
+        <f t="shared" si="28"/>
+        <v>330000</v>
+      </c>
+      <c r="G31" s="40">
+        <v>0</v>
+      </c>
+      <c r="H31" s="41">
+        <v>0</v>
+      </c>
+      <c r="I31" s="40">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="42">
+        <v>46071</v>
+      </c>
+      <c r="K31" s="42">
+        <v>46083</v>
+      </c>
+      <c r="L31" s="42"/>
+      <c r="M31" s="39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="40">
+        <v>20000</v>
+      </c>
+      <c r="E32" s="40">
+        <v>0</v>
+      </c>
+      <c r="F32" s="40">
+        <f t="shared" ref="F32" si="30">(D32+I32)-E32</f>
+        <v>20000</v>
+      </c>
+      <c r="G32" s="40">
+        <v>0</v>
+      </c>
+      <c r="H32" s="41">
+        <v>0</v>
+      </c>
+      <c r="I32" s="40">
+        <f t="shared" ref="I32" si="31">D32*H32</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="42">
+        <v>46072</v>
+      </c>
+      <c r="K32" s="42">
+        <v>46083</v>
+      </c>
+      <c r="L32" s="42"/>
+      <c r="M32" s="39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="40">
+        <v>400000</v>
+      </c>
+      <c r="E33" s="40">
+        <v>0</v>
+      </c>
+      <c r="F33" s="40">
+        <f t="shared" ref="F33" si="32">(D33+I33)-E33</f>
+        <v>400000</v>
+      </c>
+      <c r="G33" s="40">
+        <v>0</v>
+      </c>
+      <c r="H33" s="41">
+        <v>0</v>
+      </c>
+      <c r="I33" s="40">
+        <f t="shared" ref="I33" si="33">D33*H33</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="42">
+        <v>46072</v>
+      </c>
+      <c r="K33" s="42">
+        <v>46083</v>
+      </c>
+      <c r="L33" s="42"/>
+      <c r="M33" s="39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="47" t="s">
+      <c r="B34" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="40">
+        <v>10000</v>
+      </c>
+      <c r="E34" s="40">
+        <v>0</v>
+      </c>
+      <c r="F34" s="40">
+        <f t="shared" ref="F34" si="34">(D34+I34)-E34</f>
+        <v>10000</v>
+      </c>
+      <c r="G34" s="40">
+        <v>0</v>
+      </c>
+      <c r="H34" s="41">
+        <v>0</v>
+      </c>
+      <c r="I34" s="40">
+        <f t="shared" ref="I34" si="35">D34*H34</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="42">
+        <v>46073</v>
+      </c>
+      <c r="K34" s="42">
+        <v>46083</v>
+      </c>
+      <c r="L34" s="42"/>
+      <c r="M34" s="39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D32" s="46" t="s">
+      <c r="B35" s="24"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="24"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="24"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="B38" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="33"/>
+      <c r="D38" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="45"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D39" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="46"/>
-      <c r="F32" s="34">
-        <f>SUM(D2:D30)</f>
-        <v>2342000</v>
-      </c>
-      <c r="G32" s="35"/>
-      <c r="J32" s="35"/>
-    </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D33" s="46" t="s">
+      <c r="E39" s="43"/>
+      <c r="F39" s="34">
+        <f>SUM(D2:D37)</f>
+        <v>5337000</v>
+      </c>
+      <c r="G39" s="35"/>
+      <c r="J39" s="35"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D40" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="E33" s="46"/>
-      <c r="F33" s="34">
-        <f>SUM(E2:E30)</f>
-        <v>1240000</v>
-      </c>
-      <c r="G33" s="35"/>
-      <c r="M33" s="25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D34" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="46"/>
-      <c r="F34" s="34">
-        <f>F33-F32</f>
-        <v>-1102000</v>
-      </c>
-      <c r="G34" s="35"/>
-    </row>
-    <row r="35" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D35" s="46" t="s">
+      <c r="E40" s="43"/>
+      <c r="F40" s="34">
+        <f>SUM(E2:E37)</f>
+        <v>365000</v>
+      </c>
+      <c r="G40" s="35"/>
+      <c r="M40" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D41" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="43"/>
+      <c r="F41" s="34">
+        <f>F40-F39</f>
+        <v>-4972000</v>
+      </c>
+      <c r="G41" s="35"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D42" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="46"/>
-      <c r="F35" s="34">
-        <f>SUM(F2:F30)</f>
-        <v>1305650</v>
-      </c>
-    </row>
-    <row r="36" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="G36" s="35"/>
-      <c r="J36" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="K36" s="25">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D37" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="E37" s="27">
-        <f>150000+700000+20000+700000-875000</f>
-        <v>695000</v>
-      </c>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="25">
-        <f>1+2*2+5*3+10*25+20*4+50*3+100*5+200-20</f>
-        <v>1180</v>
-      </c>
-      <c r="J37" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="K37" s="25">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D38" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" s="27">
-        <v>0</v>
-      </c>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="J38" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="K38" s="25">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="F39" s="35"/>
-      <c r="J39" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="K39" s="25">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="F40" s="38"/>
-      <c r="J40" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="K40" s="25">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="F41" s="35"/>
-      <c r="J41" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="K41" s="25">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="F42" s="35"/>
-      <c r="J42" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="K42" s="25">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="43" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="J43" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="K43" s="25">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="F45" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="K45" s="25">
-        <f>SUM(K36:K43)</f>
-        <v>1185</v>
-      </c>
+      <c r="E42" s="43"/>
+      <c r="F42" s="34">
+        <f>SUM(F2:F37)</f>
+        <v>5256100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G43" s="35"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D44" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="27">
+        <f>1000000+1000000+1000000</f>
+        <v>3000000</v>
+      </c>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D45" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="27">
+        <f>135000</f>
+        <v>135000</v>
+      </c>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F46" s="35"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F47" s="36"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F48" s="35"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="35"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M34" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}"/>
+  <autoFilter ref="A1:M41" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}"/>
   <mergeCells count="5">
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D41:E41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D31" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
+    <hyperlink ref="D38" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2239,28 +2525,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA131776-2E13-4A0E-8D22-F638A9EA7E4B}">
   <dimension ref="A1:F336"/>
   <sheetViews>
-    <sheetView topLeftCell="A250" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I256" sqref="I256"/>
+    <sheetView topLeftCell="A275" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D287" sqref="D287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.140625" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>2</v>
@@ -2549,7 +2835,7 @@
         <v>45990</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="20">
         <v>200000</v>
@@ -2633,7 +2919,7 @@
         <v>45993</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="20">
         <v>5000</v>
@@ -2645,7 +2931,7 @@
         <v>45993</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="20">
         <v>5000</v>
@@ -2753,7 +3039,7 @@
         <v>45996</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="20">
         <v>540000</v>
@@ -2765,7 +3051,7 @@
         <v>45996</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43" s="20">
         <v>5000</v>
@@ -2801,7 +3087,7 @@
         <v>45997</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C46" s="20">
         <v>200000</v>
@@ -2837,7 +3123,7 @@
         <v>45998</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" s="20">
         <v>100000</v>
@@ -2849,7 +3135,7 @@
         <v>45999</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C50" s="20">
         <v>200000</v>
@@ -2921,7 +3207,7 @@
         <v>46001</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C56" s="20">
         <v>50000</v>
@@ -3017,7 +3303,7 @@
         <v>46003</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C64" s="20">
         <v>150000</v>
@@ -3031,7 +3317,7 @@
         <v>46003</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C65" s="20">
         <v>340000</v>
@@ -3073,7 +3359,7 @@
         <v>46004</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C68" s="20">
         <v>20000</v>
@@ -3101,7 +3387,7 @@
         <v>46004</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C70" s="20">
         <v>100000</v>
@@ -3121,7 +3407,7 @@
         <v>50000</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -3129,7 +3415,7 @@
         <v>46005</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C72" s="20">
         <v>20000</v>
@@ -3143,7 +3429,7 @@
         <v>46005</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C73" s="20">
         <v>5000</v>
@@ -3191,7 +3477,7 @@
         <v>70000</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -3213,7 +3499,7 @@
         <v>46006</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C78" s="20">
         <v>10000</v>
@@ -3227,7 +3513,7 @@
         <v>46006</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C79" s="20">
         <v>60000</v>
@@ -3247,7 +3533,7 @@
         <v>20000</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -3275,7 +3561,7 @@
         <v>20000</v>
       </c>
       <c r="D82" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -3345,7 +3631,7 @@
         <v>20000</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -3367,7 +3653,7 @@
         <v>46010</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C89" s="20">
         <v>100000</v>
@@ -3423,7 +3709,7 @@
         <v>46010</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C93" s="20">
         <v>25000</v>
@@ -3443,7 +3729,7 @@
         <v>50000</v>
       </c>
       <c r="D94" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -3451,7 +3737,7 @@
         <v>46011</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C95" s="20">
         <v>100000</v>
@@ -3471,7 +3757,7 @@
         <v>100000</v>
       </c>
       <c r="D96" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -3485,7 +3771,7 @@
         <v>50000</v>
       </c>
       <c r="D97" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -3507,13 +3793,13 @@
         <v>46013</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C99" s="20">
         <v>50000</v>
       </c>
       <c r="D99" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -3527,7 +3813,7 @@
         <v>50000</v>
       </c>
       <c r="D100" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -3569,7 +3855,7 @@
         <v>20000</v>
       </c>
       <c r="D103" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -3577,7 +3863,7 @@
         <v>46016</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C104" s="20">
         <v>20000</v>
@@ -3591,7 +3877,7 @@
         <v>46016</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C105" s="20">
         <v>100000</v>
@@ -3619,13 +3905,13 @@
         <v>46016</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C107" s="20">
         <v>50000</v>
       </c>
       <c r="D107" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -3647,7 +3933,7 @@
         <v>46017</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C109" s="20">
         <v>20000</v>
@@ -3667,7 +3953,7 @@
         <v>220000</v>
       </c>
       <c r="D110" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -3675,7 +3961,7 @@
         <v>46018</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C111" s="20">
         <v>20000</v>
@@ -3731,7 +4017,7 @@
         <v>46019</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C115" s="20">
         <v>100000</v>
@@ -3759,13 +4045,13 @@
         <v>46019</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C117" s="20">
         <v>100000</v>
       </c>
       <c r="D117" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -3793,7 +4079,7 @@
         <v>350000</v>
       </c>
       <c r="D119" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -3877,7 +4163,7 @@
         <v>100000</v>
       </c>
       <c r="D125" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -3891,7 +4177,7 @@
         <v>50000</v>
       </c>
       <c r="D126" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -3905,7 +4191,7 @@
         <v>12000</v>
       </c>
       <c r="D127" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -3913,13 +4199,13 @@
         <v>46022</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C128" s="20">
         <v>20000</v>
       </c>
       <c r="D128" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -3961,7 +4247,7 @@
         <v>20000</v>
       </c>
       <c r="D131" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -3969,7 +4255,7 @@
         <v>46023</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C132" s="20">
         <v>200000</v>
@@ -4011,7 +4297,7 @@
         <v>46024</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C135" s="20">
         <v>20000</v>
@@ -4031,7 +4317,7 @@
         <v>75000</v>
       </c>
       <c r="D136" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -4039,7 +4325,7 @@
         <v>46024</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C137" s="20">
         <v>20000</v>
@@ -4081,7 +4367,7 @@
         <v>46026</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C140" s="20">
         <v>80000</v>
@@ -4137,7 +4423,7 @@
         <v>46030</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C144" s="20">
         <v>20000</v>
@@ -4157,7 +4443,7 @@
         <v>50000</v>
       </c>
       <c r="D145" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -4165,7 +4451,7 @@
         <v>46030</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C146" s="20">
         <v>20000</v>
@@ -4179,7 +4465,7 @@
         <v>46030</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C147" s="20">
         <v>20000</v>
@@ -4249,7 +4535,7 @@
         <v>46031</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C152" s="20">
         <v>60000</v>
@@ -4263,7 +4549,7 @@
         <v>46031</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C153" s="20">
         <v>20000</v>
@@ -4389,7 +4675,7 @@
         <v>46035</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C162" s="20">
         <v>20000</v>
@@ -4403,7 +4689,7 @@
         <v>46035</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C163" s="20">
         <v>20000</v>
@@ -4423,7 +4709,7 @@
         <v>20000</v>
       </c>
       <c r="D164" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -4473,7 +4759,7 @@
         <v>46037</v>
       </c>
       <c r="B168" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C168" s="20">
         <v>50000</v>
@@ -4501,7 +4787,7 @@
         <v>46038</v>
       </c>
       <c r="B170" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C170" s="20">
         <v>50000</v>
@@ -4529,7 +4815,7 @@
         <v>46041</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C172" s="20">
         <v>20000</v>
@@ -4549,7 +4835,7 @@
         <v>100000</v>
       </c>
       <c r="D173" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -4577,7 +4863,7 @@
         <v>100000</v>
       </c>
       <c r="D175" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -4619,7 +4905,7 @@
         <v>20000</v>
       </c>
       <c r="D178" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -4627,7 +4913,7 @@
         <v>46041</v>
       </c>
       <c r="B179" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C179" s="20">
         <v>20000</v>
@@ -4675,7 +4961,7 @@
         <v>20000</v>
       </c>
       <c r="D182" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -4725,7 +5011,7 @@
         <v>46043</v>
       </c>
       <c r="B186" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C186" s="20">
         <v>150000</v>
@@ -4739,7 +5025,7 @@
         <v>46043</v>
       </c>
       <c r="B187" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C187" s="20">
         <v>150000</v>
@@ -4759,7 +5045,7 @@
         <v>190000</v>
       </c>
       <c r="D188" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -4767,7 +5053,7 @@
         <v>46043</v>
       </c>
       <c r="B189" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C189" s="20">
         <v>50000</v>
@@ -4781,7 +5067,7 @@
         <v>46043</v>
       </c>
       <c r="B190" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C190" s="20">
         <v>50000</v>
@@ -4837,7 +5123,7 @@
         <v>46043</v>
       </c>
       <c r="B194" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C194" s="20">
         <v>20000</v>
@@ -4857,7 +5143,7 @@
         <v>220000</v>
       </c>
       <c r="D195" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -4871,7 +5157,7 @@
         <v>220000</v>
       </c>
       <c r="D196" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -4879,7 +5165,7 @@
         <v>46044</v>
       </c>
       <c r="B197" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C197" s="20">
         <v>120000</v>
@@ -4899,7 +5185,7 @@
         <v>100000</v>
       </c>
       <c r="D198" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -4955,7 +5241,7 @@
         <v>60000</v>
       </c>
       <c r="D202" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -4963,7 +5249,7 @@
         <v>46045</v>
       </c>
       <c r="B203" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C203" s="20">
         <v>200000</v>
@@ -4991,7 +5277,7 @@
         <v>46046</v>
       </c>
       <c r="B205" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C205" s="20">
         <v>20000</v>
@@ -5019,7 +5305,7 @@
         <v>46047</v>
       </c>
       <c r="B207" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C207" s="20">
         <v>100000</v>
@@ -5047,7 +5333,7 @@
         <v>46048</v>
       </c>
       <c r="B209" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C209" s="20">
         <v>100000</v>
@@ -5067,7 +5353,7 @@
         <v>260000</v>
       </c>
       <c r="D210" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -5103,7 +5389,7 @@
         <v>46049</v>
       </c>
       <c r="B213" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C213" s="20">
         <v>100000</v>
@@ -5117,7 +5403,7 @@
         <v>46049</v>
       </c>
       <c r="B214" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C214" s="20">
         <v>20000</v>
@@ -5131,7 +5417,7 @@
         <v>46049</v>
       </c>
       <c r="B215" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C215" s="20">
         <v>100000</v>
@@ -5145,7 +5431,7 @@
         <v>46049</v>
       </c>
       <c r="B216" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C216" s="20">
         <v>10000</v>
@@ -5159,7 +5445,7 @@
         <v>46050</v>
       </c>
       <c r="B217" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C217" s="20">
         <v>20000</v>
@@ -5179,7 +5465,7 @@
         <v>40000</v>
       </c>
       <c r="D218" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -5187,7 +5473,7 @@
         <v>46050</v>
       </c>
       <c r="B219" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C219" s="20">
         <v>180000</v>
@@ -5215,7 +5501,7 @@
         <v>46051</v>
       </c>
       <c r="B221" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C221" s="20">
         <v>50000</v>
@@ -5229,7 +5515,7 @@
         <v>46051</v>
       </c>
       <c r="B222" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C222" s="20">
         <v>180000</v>
@@ -5243,7 +5529,7 @@
         <v>46051</v>
       </c>
       <c r="B223" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C223" s="20">
         <v>50000</v>
@@ -5257,7 +5543,7 @@
         <v>46051</v>
       </c>
       <c r="B224" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C224" s="20">
         <v>100000</v>
@@ -5271,13 +5557,13 @@
         <v>46051</v>
       </c>
       <c r="B225" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C225" s="20">
         <v>160000</v>
       </c>
       <c r="D225" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
@@ -5285,7 +5571,7 @@
         <v>46051</v>
       </c>
       <c r="B226" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C226" s="20">
         <v>20000</v>
@@ -5313,7 +5599,7 @@
         <v>46053</v>
       </c>
       <c r="B228" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C228" s="20">
         <v>500000</v>
@@ -5327,7 +5613,7 @@
         <v>46053</v>
       </c>
       <c r="B229" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C229" s="20">
         <v>100000</v>
@@ -5389,7 +5675,7 @@
         <v>50000</v>
       </c>
       <c r="D233" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
@@ -5403,7 +5689,7 @@
         <v>50000</v>
       </c>
       <c r="D234" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
@@ -5417,7 +5703,7 @@
         <v>20000</v>
       </c>
       <c r="D235" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
@@ -5431,7 +5717,7 @@
         <v>10000</v>
       </c>
       <c r="D236" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
@@ -5445,7 +5731,7 @@
         <v>325000</v>
       </c>
       <c r="D237" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
@@ -5453,7 +5739,7 @@
         <v>46054</v>
       </c>
       <c r="B238" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C238" s="20">
         <v>100000</v>
@@ -5468,13 +5754,13 @@
         <v>46055</v>
       </c>
       <c r="B239" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C239" s="20">
         <v>20000</v>
       </c>
       <c r="D239" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
@@ -5482,7 +5768,7 @@
         <v>46055</v>
       </c>
       <c r="B240" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C240" s="20">
         <v>100000</v>
@@ -5544,7 +5830,7 @@
         <v>280000</v>
       </c>
       <c r="D244" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -5572,7 +5858,7 @@
         <v>50000</v>
       </c>
       <c r="D246" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -5608,7 +5894,7 @@
         <v>46058</v>
       </c>
       <c r="B249" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C249" s="20">
         <v>20000</v>
@@ -5622,7 +5908,7 @@
         <v>46058</v>
       </c>
       <c r="B250" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C250" s="20">
         <v>20000</v>
@@ -5656,7 +5942,7 @@
         <v>500000</v>
       </c>
       <c r="D252" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -5664,7 +5950,7 @@
         <v>46059</v>
       </c>
       <c r="B253" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C253" s="20">
         <v>20000</v>
@@ -5692,13 +5978,13 @@
         <v>46060</v>
       </c>
       <c r="B255" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C255" s="20">
         <v>200000</v>
       </c>
       <c r="D255" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -5726,7 +6012,7 @@
         <v>100000</v>
       </c>
       <c r="D257" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
@@ -5748,7 +6034,7 @@
         <v>46061</v>
       </c>
       <c r="B259" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C259" s="20">
         <v>100000</v>
@@ -5776,7 +6062,7 @@
         <v>46061</v>
       </c>
       <c r="B261" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C261" s="20">
         <v>20000</v>
@@ -5800,148 +6086,340 @@
       </c>
     </row>
     <row r="263" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A263" s="21"/>
-      <c r="B263" s="19"/>
-      <c r="C263" s="20"/>
-      <c r="D263" s="22"/>
+      <c r="A263" s="21">
+        <v>46063</v>
+      </c>
+      <c r="B263" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C263" s="20">
+        <v>500000</v>
+      </c>
+      <c r="D263" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="264" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A264" s="21"/>
-      <c r="B264" s="19"/>
-      <c r="C264" s="20"/>
-      <c r="D264" s="22"/>
+      <c r="A264" s="21">
+        <v>46064</v>
+      </c>
+      <c r="B264" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C264" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D264" s="22" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="265" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A265" s="21"/>
-      <c r="B265" s="19"/>
-      <c r="C265" s="20"/>
-      <c r="D265" s="22"/>
+      <c r="A265" s="21">
+        <v>46064</v>
+      </c>
+      <c r="B265" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C265" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D265" s="22" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="266" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A266" s="21"/>
-      <c r="B266" s="19"/>
-      <c r="C266" s="20"/>
-      <c r="D266" s="22"/>
+      <c r="A266" s="21">
+        <v>46065</v>
+      </c>
+      <c r="B266" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C266" s="20">
+        <v>350000</v>
+      </c>
+      <c r="D266" s="22" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="267" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A267" s="21"/>
-      <c r="B267" s="19"/>
-      <c r="C267" s="20"/>
-      <c r="D267" s="22"/>
+      <c r="A267" s="21">
+        <v>46066</v>
+      </c>
+      <c r="B267" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C267" s="20">
+        <v>2500000</v>
+      </c>
+      <c r="D267" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="268" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A268" s="21"/>
-      <c r="B268" s="19"/>
-      <c r="C268" s="20"/>
-      <c r="D268" s="22"/>
+      <c r="A268" s="21">
+        <v>46066</v>
+      </c>
+      <c r="B268" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C268" s="20">
+        <v>300000</v>
+      </c>
+      <c r="D268" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="269" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A269" s="21"/>
-      <c r="B269" s="19"/>
-      <c r="C269" s="20"/>
-      <c r="D269" s="22"/>
+      <c r="A269" s="21">
+        <v>46066</v>
+      </c>
+      <c r="B269" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C269" s="20">
+        <v>100000</v>
+      </c>
+      <c r="D269" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="270" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A270" s="21"/>
-      <c r="B270" s="19"/>
-      <c r="C270" s="20"/>
-      <c r="D270" s="22"/>
+      <c r="A270" s="21">
+        <v>46068</v>
+      </c>
+      <c r="B270" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C270" s="20">
+        <v>250000</v>
+      </c>
+      <c r="D270" s="22" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="271" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A271" s="21"/>
-      <c r="B271" s="19"/>
-      <c r="C271" s="20"/>
-      <c r="D271" s="22"/>
+      <c r="A271" s="21">
+        <v>46068</v>
+      </c>
+      <c r="B271" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C271" s="20">
+        <v>500000</v>
+      </c>
+      <c r="D271" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="272" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A272" s="21"/>
-      <c r="B272" s="19"/>
-      <c r="C272" s="20"/>
-      <c r="D272" s="22"/>
+      <c r="A272" s="21">
+        <v>46068</v>
+      </c>
+      <c r="B272" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C272" s="20">
+        <v>50000</v>
+      </c>
+      <c r="D272" s="22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="273" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A273" s="21"/>
-      <c r="B273" s="19"/>
-      <c r="C273" s="20"/>
-      <c r="D273" s="22"/>
+      <c r="A273" s="21">
+        <v>46069</v>
+      </c>
+      <c r="B273" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C273" s="20">
+        <v>80000</v>
+      </c>
+      <c r="D273" s="22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="274" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A274" s="21"/>
-      <c r="B274" s="19"/>
-      <c r="C274" s="20"/>
-      <c r="D274" s="22"/>
+      <c r="A274" s="21">
+        <v>46069</v>
+      </c>
+      <c r="B274" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C274" s="20">
+        <v>200000</v>
+      </c>
+      <c r="D274" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="275" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A275" s="21"/>
-      <c r="B275" s="19"/>
-      <c r="C275" s="20"/>
-      <c r="D275" s="22"/>
+      <c r="A275" s="21">
+        <v>46069</v>
+      </c>
+      <c r="B275" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C275" s="20">
+        <v>50000</v>
+      </c>
+      <c r="D275" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="276" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A276" s="21"/>
-      <c r="B276" s="19"/>
-      <c r="C276" s="20"/>
-      <c r="D276" s="22"/>
+      <c r="A276" s="21">
+        <v>46070</v>
+      </c>
+      <c r="B276" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C276" s="20">
+        <v>280000</v>
+      </c>
+      <c r="D276" s="22" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="277" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A277" s="21"/>
-      <c r="B277" s="19"/>
-      <c r="C277" s="20"/>
-      <c r="D277" s="22"/>
+      <c r="A277" s="21">
+        <v>46071</v>
+      </c>
+      <c r="B277" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C277" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D277" s="22" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="278" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A278" s="21"/>
-      <c r="B278" s="19"/>
-      <c r="C278" s="20"/>
-      <c r="D278" s="22"/>
+      <c r="A278" s="21">
+        <v>46071</v>
+      </c>
+      <c r="B278" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C278" s="20">
+        <v>220000</v>
+      </c>
+      <c r="D278" s="22" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="279" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A279" s="21"/>
-      <c r="B279" s="19"/>
-      <c r="C279" s="20"/>
-      <c r="D279" s="22"/>
+      <c r="A279" s="21">
+        <v>46071</v>
+      </c>
+      <c r="B279" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C279" s="20">
+        <v>60000</v>
+      </c>
+      <c r="D279" s="22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="280" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A280" s="21"/>
-      <c r="B280" s="19"/>
-      <c r="C280" s="20"/>
-      <c r="D280" s="22"/>
+      <c r="A280" s="21">
+        <v>46071</v>
+      </c>
+      <c r="B280" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C280" s="20">
+        <v>50000</v>
+      </c>
+      <c r="D280" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="281" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A281" s="21"/>
-      <c r="B281" s="19"/>
-      <c r="C281" s="20"/>
-      <c r="D281" s="22"/>
+      <c r="A281" s="21">
+        <v>46071</v>
+      </c>
+      <c r="B281" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C281" s="20">
+        <v>150000</v>
+      </c>
+      <c r="D281" s="22" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="282" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A282" s="21"/>
-      <c r="B282" s="19"/>
-      <c r="C282" s="20"/>
-      <c r="D282" s="22"/>
+      <c r="A282" s="21">
+        <v>46071</v>
+      </c>
+      <c r="B282" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C282" s="20">
+        <v>300000</v>
+      </c>
+      <c r="D282" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="283" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A283" s="21"/>
-      <c r="B283" s="19"/>
-      <c r="C283" s="20"/>
-      <c r="D283" s="22"/>
+      <c r="A283" s="21">
+        <v>46071</v>
+      </c>
+      <c r="B283" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C283" s="20">
+        <v>330000</v>
+      </c>
+      <c r="D283" s="22" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="284" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A284" s="21"/>
-      <c r="B284" s="19"/>
-      <c r="C284" s="20"/>
-      <c r="D284" s="22"/>
+      <c r="A284" s="21">
+        <v>46072</v>
+      </c>
+      <c r="B284" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C284" s="20">
+        <v>20000</v>
+      </c>
+      <c r="D284" s="22" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="285" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A285" s="21"/>
-      <c r="B285" s="19"/>
-      <c r="C285" s="20"/>
-      <c r="D285" s="22"/>
+      <c r="A285" s="21">
+        <v>46072</v>
+      </c>
+      <c r="B285" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C285" s="20">
+        <v>400000</v>
+      </c>
+      <c r="D285" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="286" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A286" s="21"/>
-      <c r="B286" s="19"/>
-      <c r="C286" s="20"/>
-      <c r="D286" s="22"/>
+      <c r="A286" s="21">
+        <v>46073</v>
+      </c>
+      <c r="B286" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C286" s="20">
+        <v>10000</v>
+      </c>
+      <c r="D286" s="22" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="287" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A287" s="21"/>
@@ -6288,10 +6766,10 @@
         <v>8</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>20</v>
@@ -6309,10 +6787,10 @@
         <v>18</v>
       </c>
       <c r="J1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="L1" s="9" t="s">
         <v>19</v>
@@ -6327,22 +6805,22 @@
         <v>23</v>
       </c>
       <c r="P1" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R1" s="9" t="s">
         <v>26</v>
       </c>
       <c r="S1" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="17" t="s">
         <v>44</v>
-      </c>
-      <c r="U1" s="17" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44F1068-29AA-45E8-8957-54E5A4037B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD278CCF-BF16-459C-98B4-38D300322A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="THỐNG KÊ NẠP" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DANH SÁCH NỢ'!$A$1:$M$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DANH SÁCH NỢ'!$A$1:$M$42</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'THỐNG KÊ NẠP'!$A$1:$U$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'THONG KE NAP '!$A$1:$D$237</definedName>
   </definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="79">
   <si>
     <t>STT</t>
   </si>
@@ -275,16 +275,22 @@
   <si>
     <t>Nguyễn Hoàng Huy</t>
   </si>
+  <si>
+    <t>Đã trả đủ</t>
+  </si>
+  <si>
+    <t>Mua thẻ Zing + Garena</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.000\ [$₫-42A]_-;\-* #,##0.000\ [$₫-42A]_-;_-* &quot;-&quot;???\ [$₫-42A]_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0\ [$₫-42A]_-;\-* #,##0\ [$₫-42A]_-;_-* &quot;-&quot;\ [$₫-42A]_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0\ [$₫-42A]_-;\-* #,##0\ [$₫-42A]_-;_-* &quot;-&quot;???\ [$₫-42A]_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.000\ [$₫-42A]_-;\-* #,##0.000\ [$₫-42A]_-;_-* &quot;-&quot;???\ [$₫-42A]_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0\ [$₫-42A]_-;\-* #,##0\ [$₫-42A]_-;_-* &quot;-&quot;\ [$₫-42A]_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0\ [$₫-42A]_-;\-* #,##0\ [$₫-42A]_-;_-* &quot;-&quot;???\ [$₫-42A]_-;_-@_-"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -358,7 +364,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,6 +392,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0066"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,7 +463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -460,17 +472,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -482,13 +494,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -500,10 +512,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -521,19 +533,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -542,13 +554,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,13 +572,28 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -923,10 +950,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,41 +1563,41 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="40">
+      <c r="D15" s="45">
         <v>350000</v>
       </c>
-      <c r="E15" s="40">
-        <v>0</v>
-      </c>
-      <c r="F15" s="40">
+      <c r="E15" s="45">
+        <v>350000</v>
+      </c>
+      <c r="F15" s="45">
         <f t="shared" ref="F15:F17" si="20">(D15+I15)-E15</f>
-        <v>350000</v>
-      </c>
-      <c r="G15" s="40">
-        <v>0</v>
-      </c>
-      <c r="H15" s="41">
-        <v>0</v>
-      </c>
-      <c r="I15" s="40">
+        <v>0</v>
+      </c>
+      <c r="G15" s="45">
+        <v>0</v>
+      </c>
+      <c r="H15" s="46">
+        <v>0</v>
+      </c>
+      <c r="I15" s="45">
         <f t="shared" ref="I15:I17" si="21">D15*H15</f>
         <v>0</v>
       </c>
-      <c r="J15" s="42">
+      <c r="J15" s="47">
         <v>46065</v>
       </c>
-      <c r="K15" s="42">
-        <v>46083</v>
-      </c>
-      <c r="L15" s="42"/>
-      <c r="M15" s="39" t="s">
-        <v>14</v>
+      <c r="K15" s="47">
+        <v>46073</v>
+      </c>
+      <c r="L15" s="47"/>
+      <c r="M15" s="44" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -1659,41 +1686,41 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="45">
         <v>250000</v>
       </c>
-      <c r="E18" s="40">
-        <v>0</v>
-      </c>
-      <c r="F18" s="40">
+      <c r="E18" s="45">
+        <v>250000</v>
+      </c>
+      <c r="F18" s="45">
         <f t="shared" ref="F18:F20" si="22">(D18+I18)-E18</f>
-        <v>250000</v>
-      </c>
-      <c r="G18" s="40">
-        <v>0</v>
-      </c>
-      <c r="H18" s="41">
-        <v>0</v>
-      </c>
-      <c r="I18" s="40">
+        <v>0</v>
+      </c>
+      <c r="G18" s="45">
+        <v>0</v>
+      </c>
+      <c r="H18" s="46">
+        <v>0</v>
+      </c>
+      <c r="I18" s="45">
         <f t="shared" ref="I18:I20" si="23">D18*H18</f>
         <v>0</v>
       </c>
-      <c r="J18" s="42">
+      <c r="J18" s="47">
         <v>46068</v>
       </c>
-      <c r="K18" s="42">
-        <v>46083</v>
-      </c>
-      <c r="L18" s="42"/>
-      <c r="M18" s="39" t="s">
-        <v>14</v>
+      <c r="K18" s="47">
+        <v>46073</v>
+      </c>
+      <c r="L18" s="47"/>
+      <c r="M18" s="44" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1907,41 +1934,41 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="40">
+      <c r="D24" s="45">
         <v>280000</v>
       </c>
-      <c r="E24" s="40">
-        <v>0</v>
-      </c>
-      <c r="F24" s="40">
+      <c r="E24" s="45">
+        <v>280000</v>
+      </c>
+      <c r="F24" s="45">
         <f t="shared" ref="F24:F31" si="28">(D24+I24)-E24</f>
-        <v>280000</v>
-      </c>
-      <c r="G24" s="40">
-        <v>0</v>
-      </c>
-      <c r="H24" s="41">
-        <v>0</v>
-      </c>
-      <c r="I24" s="40">
+        <v>0</v>
+      </c>
+      <c r="G24" s="45">
+        <v>0</v>
+      </c>
+      <c r="H24" s="46">
+        <v>0</v>
+      </c>
+      <c r="I24" s="45">
         <f t="shared" ref="I24:I31" si="29">D24*H24</f>
         <v>0</v>
       </c>
-      <c r="J24" s="42">
+      <c r="J24" s="47">
         <v>46070</v>
       </c>
-      <c r="K24" s="42">
-        <v>46083</v>
-      </c>
-      <c r="L24" s="42"/>
-      <c r="M24" s="39" t="s">
-        <v>14</v>
+      <c r="K24" s="47">
+        <v>46073</v>
+      </c>
+      <c r="L24" s="47"/>
+      <c r="M24" s="44" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2206,11 +2233,12 @@
         <v>330000</v>
       </c>
       <c r="E31" s="40">
-        <v>0</v>
+        <f>220000</f>
+        <v>220000</v>
       </c>
       <c r="F31" s="40">
         <f t="shared" si="28"/>
-        <v>330000</v>
+        <v>110000</v>
       </c>
       <c r="G31" s="40">
         <v>0</v>
@@ -2360,35 +2388,83 @@
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="1"/>
+      <c r="B35" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="40">
+        <v>500000</v>
+      </c>
+      <c r="E35" s="40">
+        <v>0</v>
+      </c>
+      <c r="F35" s="40">
+        <f t="shared" ref="F35" si="36">(D35+I35)-E35</f>
+        <v>500000</v>
+      </c>
+      <c r="G35" s="40">
+        <v>0</v>
+      </c>
+      <c r="H35" s="41">
+        <v>0</v>
+      </c>
+      <c r="I35" s="40">
+        <f t="shared" ref="I35" si="37">D35*H35</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="42">
+        <v>46073</v>
+      </c>
+      <c r="K35" s="42">
+        <v>46083</v>
+      </c>
+      <c r="L35" s="42"/>
+      <c r="M35" s="39" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="1"/>
+      <c r="B36" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="40">
+        <v>300000</v>
+      </c>
+      <c r="E36" s="40">
+        <v>0</v>
+      </c>
+      <c r="F36" s="40">
+        <f t="shared" ref="F36" si="38">(D36+I36)-E36</f>
+        <v>300000</v>
+      </c>
+      <c r="G36" s="40">
+        <v>0</v>
+      </c>
+      <c r="H36" s="41">
+        <v>0</v>
+      </c>
+      <c r="I36" s="40">
+        <f t="shared" ref="I36" si="39">D36*H36</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="42">
+        <v>46074</v>
+      </c>
+      <c r="K36" s="42">
+        <v>46083</v>
+      </c>
+      <c r="L36" s="42"/>
+      <c r="M36" s="39" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -2407,114 +2483,131 @@
       <c r="L37" s="4"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="B38" s="33" t="s">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="B39" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="44" t="s">
+      <c r="C39" s="33"/>
+      <c r="D39" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
-      <c r="G38" s="45"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D39" s="43" t="s">
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D40" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="43"/>
-      <c r="F39" s="34">
-        <f>SUM(D2:D37)</f>
-        <v>5337000</v>
-      </c>
-      <c r="G39" s="35"/>
-      <c r="J39" s="35"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D40" s="43" t="s">
+      <c r="E40" s="48"/>
+      <c r="F40" s="34">
+        <f>SUM(D2:D38)</f>
+        <v>6137000</v>
+      </c>
+      <c r="G40" s="35"/>
+      <c r="J40" s="35"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D41" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="E40" s="43"/>
-      <c r="F40" s="34">
-        <f>SUM(E2:E37)</f>
-        <v>365000</v>
-      </c>
-      <c r="G40" s="35"/>
-      <c r="M40" s="25" t="s">
+      <c r="E41" s="48"/>
+      <c r="F41" s="34">
+        <f>SUM(E2:E38)</f>
+        <v>1465000</v>
+      </c>
+      <c r="G41" s="35"/>
+      <c r="M41" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D41" s="43" t="s">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D42" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="43"/>
-      <c r="F41" s="34">
-        <f>F40-F39</f>
-        <v>-4972000</v>
-      </c>
-      <c r="G41" s="35"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D42" s="43" t="s">
+      <c r="E42" s="48"/>
+      <c r="F42" s="34">
+        <f>F41-F40</f>
+        <v>-4672000</v>
+      </c>
+      <c r="G42" s="35"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D43" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="E42" s="43"/>
-      <c r="F42" s="34">
-        <f>SUM(F2:F37)</f>
-        <v>5256100</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G43" s="35"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="34">
+        <f>SUM(F2:F38)</f>
+        <v>4956100</v>
+      </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D44" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E44" s="27">
-        <f>1000000+1000000+1000000</f>
-        <v>3000000</v>
-      </c>
-      <c r="F44" s="35"/>
       <c r="G44" s="35"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D45" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="27">
+        <f>1000000+1000000+1000000+3000000-1500000+300000</f>
+        <v>4800000</v>
+      </c>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D46" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E45" s="27">
+      <c r="E46" s="27">
         <f>135000</f>
         <v>135000</v>
       </c>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F47" s="36"/>
+      <c r="F47" s="35"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F48" s="35"/>
+      <c r="F48" s="36"/>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F49" s="35"/>
     </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="35"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M41" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}"/>
+  <autoFilter ref="A1:M42" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}"/>
   <mergeCells count="5">
-    <mergeCell ref="D39:E39"/>
     <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D39:G39"/>
     <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D38:G38"/>
-    <mergeCell ref="D41:E41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D38" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
+    <hyperlink ref="D39" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2525,8 +2618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA131776-2E13-4A0E-8D22-F638A9EA7E4B}">
   <dimension ref="A1:F336"/>
   <sheetViews>
-    <sheetView topLeftCell="A275" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D287" sqref="D287"/>
+    <sheetView topLeftCell="A279" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C290" sqref="C290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6422,28 +6515,60 @@
       </c>
     </row>
     <row r="287" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A287" s="21"/>
-      <c r="B287" s="19"/>
-      <c r="C287" s="20"/>
-      <c r="D287" s="22"/>
+      <c r="A287" s="21">
+        <v>46073</v>
+      </c>
+      <c r="B287" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C287" s="20">
+        <v>360000</v>
+      </c>
+      <c r="D287" s="22" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="288" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A288" s="21"/>
-      <c r="B288" s="19"/>
-      <c r="C288" s="20"/>
-      <c r="D288" s="22"/>
+      <c r="A288" s="21">
+        <v>46073</v>
+      </c>
+      <c r="B288" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C288" s="20">
+        <v>50000</v>
+      </c>
+      <c r="D288" s="22" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="289" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A289" s="21"/>
-      <c r="B289" s="19"/>
-      <c r="C289" s="20"/>
-      <c r="D289" s="22"/>
+      <c r="A289" s="21">
+        <v>46073</v>
+      </c>
+      <c r="B289" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C289" s="20">
+        <v>500000</v>
+      </c>
+      <c r="D289" s="22" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="290" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A290" s="21"/>
-      <c r="B290" s="19"/>
-      <c r="C290" s="20"/>
-      <c r="D290" s="22"/>
+      <c r="A290" s="21">
+        <v>46074</v>
+      </c>
+      <c r="B290" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C290" s="20">
+        <v>300000</v>
+      </c>
+      <c r="D290" s="22" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="291" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A291" s="21"/>

--- a/solieu.xlsx
+++ b/solieu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh-Long-Pro\Documents\DU LIEU THONG KE THONG TIN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD278CCF-BF16-459C-98B4-38D300322A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09EC3092-6EBB-4CE7-BEC6-7C3EE0553AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="700" xr2:uid="{2B03B8C2-EDB1-4332-BDB1-5B951D9D9968}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="THỐNG KÊ NẠP" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DANH SÁCH NỢ'!$A$1:$M$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'DANH SÁCH NỢ'!$A$1:$M$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'THỐNG KÊ NẠP'!$A$1:$U$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'THONG KE NAP '!$A$1:$D$237</definedName>
   </definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="80">
   <si>
     <t>STT</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>Mua thẻ Zing + Garena</t>
+  </si>
+  <si>
+    <t>Liêu Thuận Phát</t>
   </si>
 </sst>
 </file>
@@ -950,10 +953,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2470,144 +2473,294 @@
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="1"/>
+      <c r="B37" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" s="40">
+        <v>100000</v>
+      </c>
+      <c r="E37" s="40">
+        <v>0</v>
+      </c>
+      <c r="F37" s="40">
+        <f t="shared" ref="F37:F38" si="40">(D37+I37)-E37</f>
+        <v>100000</v>
+      </c>
+      <c r="G37" s="40">
+        <v>0</v>
+      </c>
+      <c r="H37" s="41">
+        <v>0</v>
+      </c>
+      <c r="I37" s="40">
+        <f t="shared" ref="I37:I38" si="41">D37*H37</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="42">
+        <v>46075</v>
+      </c>
+      <c r="K37" s="42">
+        <v>46083</v>
+      </c>
+      <c r="L37" s="42"/>
+      <c r="M37" s="39" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="1"/>
-    </row>
-    <row r="39" spans="1:13" ht="24" x14ac:dyDescent="0.25">
-      <c r="B39" s="33" t="s">
+      <c r="B38" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="40">
+        <v>505000</v>
+      </c>
+      <c r="E38" s="40">
+        <v>0</v>
+      </c>
+      <c r="F38" s="40">
+        <f t="shared" si="40"/>
+        <v>505000</v>
+      </c>
+      <c r="G38" s="40">
+        <v>0</v>
+      </c>
+      <c r="H38" s="41">
+        <v>0</v>
+      </c>
+      <c r="I38" s="40">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="42">
+        <v>46075</v>
+      </c>
+      <c r="K38" s="42">
+        <v>46083</v>
+      </c>
+      <c r="L38" s="42"/>
+      <c r="M38" s="39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="24"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="24"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="24"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="24"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="24"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="24"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="1:13" ht="24" x14ac:dyDescent="0.25">
+      <c r="B45" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="49" t="s">
+      <c r="C45" s="33"/>
+      <c r="D45" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D40" s="48" t="s">
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D46" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="48"/>
-      <c r="F40" s="34">
-        <f>SUM(D2:D38)</f>
-        <v>6137000</v>
-      </c>
-      <c r="G40" s="35"/>
-      <c r="J40" s="35"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D41" s="48" t="s">
+      <c r="E46" s="48"/>
+      <c r="F46" s="34">
+        <f>SUM(D2:D44)</f>
+        <v>6742000</v>
+      </c>
+      <c r="G46" s="35"/>
+      <c r="J46" s="35"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D47" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="48"/>
-      <c r="F41" s="34">
-        <f>SUM(E2:E38)</f>
+      <c r="E47" s="48"/>
+      <c r="F47" s="34">
+        <f>SUM(E2:E44)</f>
         <v>1465000</v>
       </c>
-      <c r="G41" s="35"/>
-      <c r="M41" s="25" t="s">
+      <c r="G47" s="35"/>
+      <c r="M47" s="25" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D42" s="48" t="s">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D48" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="E42" s="48"/>
-      <c r="F42" s="34">
-        <f>F41-F40</f>
-        <v>-4672000</v>
-      </c>
-      <c r="G42" s="35"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D43" s="48" t="s">
+      <c r="E48" s="48"/>
+      <c r="F48" s="34">
+        <f>F47-F46</f>
+        <v>-5277000</v>
+      </c>
+      <c r="G48" s="35"/>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D49" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="E43" s="48"/>
-      <c r="F43" s="34">
-        <f>SUM(F2:F38)</f>
-        <v>4956100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G44" s="35"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D45" s="25" t="s">
+      <c r="E49" s="48"/>
+      <c r="F49" s="34">
+        <f>SUM(F2:F44)</f>
+        <v>5561100</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="G50" s="35"/>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D51" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E45" s="27">
-        <f>1000000+1000000+1000000+3000000-1500000+300000</f>
-        <v>4800000</v>
-      </c>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D46" s="25" t="s">
+      <c r="E51" s="27">
+        <f>1000000+1000000+1000000+3000000-1500000+300000+600000</f>
+        <v>5400000</v>
+      </c>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+    </row>
+    <row r="52" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D52" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E46" s="27">
-        <f>135000</f>
-        <v>135000</v>
-      </c>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F47" s="35"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F48" s="36"/>
-    </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F49" s="35"/>
-    </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F50" s="35"/>
+      <c r="E52" s="27">
+        <f>135000+300000</f>
+        <v>435000</v>
+      </c>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+    </row>
+    <row r="53" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F53" s="35"/>
+    </row>
+    <row r="54" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F54" s="36"/>
+    </row>
+    <row r="55" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F55" s="35"/>
+    </row>
+    <row r="56" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="F56" s="35"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M42" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}"/>
+  <autoFilter ref="A1:M48" xr:uid="{B426C2E0-1FB2-4505-A56E-E149D9D304FF}"/>
   <mergeCells count="5">
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D48:E48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D39" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
+    <hyperlink ref="D45" r:id="rId1" xr:uid="{3AAA6378-907C-4E3A-B3A9-8AB285CE7019}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -2619,7 +2772,7 @@
   <dimension ref="A1:F336"/>
   <sheetViews>
     <sheetView topLeftCell="A279" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C290" sqref="C290"/>
+      <selection activeCell="D293" sqref="D293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6571,16 +6724,32 @@
       </c>
     </row>
     <row r="291" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A291" s="21"/>
-      <c r="B291" s="19"/>
-      <c r="C291" s="20"/>
-      <c r="D291" s="22"/>
+      <c r="A291" s="21">
+        <v>46075</v>
+      </c>
+      <c r="B291" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C291" s="20">
+        <v>100000</v>
+      </c>
+      <c r="D291" s="22" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="292" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A292" s="21"/>
-      <c r="B292" s="19"/>
-      <c r="C292" s="20"/>
-      <c r="D292" s="22"/>
+      <c r="A292" s="21">
+        <v>46075</v>
+      </c>
+      <c r="B292" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C292" s="20">
+        <v>505000</v>
+      </c>
+      <c r="D292" s="22" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="293" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A293" s="21"/>
